--- a/src/main/resources/iteration2_scrumReport_wolf.xlsx
+++ b/src/main/resources/iteration2_scrumReport_wolf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6227f2a18a27f7a6/Desktop/UniversityJIHAD/SW - 2026/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="448" documentId="13_ncr:1_{479C58BC-40DC-4F97-8147-138D1A265B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EACE2A7-7A60-4FB8-8F48-07326D3430A1}"/>
+  <xr:revisionPtr revIDLastSave="470" documentId="13_ncr:1_{479C58BC-40DC-4F97-8147-138D1A265B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C091F72-8207-4788-96C1-48EC5D6D4388}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22440" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
   <si>
     <t>Iteration</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>Notes</t>
-  </si>
-  <si>
-    <t>In progress</t>
   </si>
   <si>
     <t>instructions</t>
@@ -101,6 +98,15 @@
   </si>
   <si>
     <t xml:space="preserve">Validate a correct question cell activation sequences - Score, hearts and mark as used(blocked) </t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Block mine cell after reveal</t>
+  </si>
+  <si>
+    <t>Create end game screen - lose game case</t>
   </si>
 </sst>
 </file>
@@ -386,6 +392,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Scrum_Report" displayName="Scrum_Report" ref="A1:G1015" dataDxfId="7">
   <tableColumns count="7">
@@ -606,7 +616,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -647,224 +657,244 @@
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>17</v>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G2" s="7"/>
       <c r="I2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G3" s="7"/>
       <c r="I3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G4" s="7"/>
       <c r="I4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6"/>
       <c r="B5" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G5" s="7"/>
       <c r="I5" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="F7" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="F10" s="6" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>7</v>
+      <c r="D12" s="6" t="s">
+        <v>12</v>
       </c>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="B13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">

--- a/src/main/resources/iteration2_scrumReport_wolf.xlsx
+++ b/src/main/resources/iteration2_scrumReport_wolf.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6227f2a18a27f7a6/Desktop/UniversityJIHAD/SW - 2026/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adan\Documents\GitHub\MineSweeper_Wolf\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="470" documentId="13_ncr:1_{479C58BC-40DC-4F97-8147-138D1A265B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C091F72-8207-4788-96C1-48EC5D6D4388}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6550A7-1267-47F7-A9AF-06C1A749B780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22440" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="40">
   <si>
     <t>Iteration</t>
   </si>
@@ -108,16 +108,56 @@
   <si>
     <t>Create end game screen - lose game case</t>
   </si>
+  <si>
+    <t>Adan</t>
+  </si>
+  <si>
+    <t>Added back-navigation buttons to the Boards and History screens.</t>
+  </si>
+  <si>
+    <t>Improved UI styling for the History screen (ComboBoxes + DatePicker)</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>Updated flagging logic to correctly add or deduct score based on flagging a mine or a non-mine cell.</t>
+  </si>
+  <si>
+    <t>Extended cascade reveal logic to include Question and Surprise cells.</t>
+  </si>
+  <si>
+    <t>Enhanced Board UI: added player avatars and unique colors for each board.</t>
+  </si>
+  <si>
+    <t>Implemented flag count limit per difficulty to prevent cheating by flagging all cells.</t>
+  </si>
+  <si>
+    <t>Added avatars to the History screen and saved avatar paths in the CSV as part of the Game record.</t>
+  </si>
+  <si>
+    <t>Added a new game result type: GIVE_UP, displayed and saved in History</t>
+  </si>
+  <si>
+    <t>Implemented exception handling (alerts) for invalid filters in the History screen.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -199,29 +239,29 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -390,10 +430,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -615,24 +651,24 @@
   <dimension ref="A1:I1016"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.125" customWidth="1"/>
-    <col min="2" max="2" width="41.875" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="20.09765625" customWidth="1"/>
+    <col min="2" max="2" width="41.8984375" customWidth="1"/>
+    <col min="3" max="3" width="14.59765625" customWidth="1"/>
+    <col min="4" max="4" width="17.8984375" customWidth="1"/>
+    <col min="5" max="5" width="15.59765625" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="8" width="20.125" customWidth="1"/>
-    <col min="9" max="9" width="22.625" customWidth="1"/>
-    <col min="10" max="10" width="15.125" customWidth="1"/>
+    <col min="7" max="8" width="20.09765625" customWidth="1"/>
+    <col min="9" max="9" width="22.59765625" customWidth="1"/>
+    <col min="10" max="10" width="15.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -655,7 +691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -679,7 +715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>17</v>
@@ -701,7 +737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>18</v>
@@ -723,7 +759,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="8" t="s">
         <v>24</v>
@@ -745,7 +781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
         <v>19</v>
@@ -764,7 +800,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
         <v>20</v>
@@ -783,7 +819,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
         <v>21</v>
@@ -802,7 +838,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
       <c r="B9" s="8" t="s">
         <v>25</v>
@@ -821,7 +857,7 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="9" t="s">
         <v>22</v>
@@ -840,7 +876,7 @@
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="9" t="s">
         <v>23</v>
@@ -859,7 +895,7 @@
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="9" t="s">
         <v>28</v>
@@ -878,7 +914,7 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="9" t="s">
         <v>27</v>
@@ -897,88 +933,178 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="B14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="B15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="B16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="B17" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="B18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="B19" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="B20" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="B21" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="B22" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="9"/>
       <c r="C23" s="6"/>
@@ -987,7 +1113,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="7"/>
     </row>
-    <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="9"/>
       <c r="C24" s="6"/>
@@ -996,7 +1122,7 @@
       <c r="F24" s="6"/>
       <c r="G24" s="7"/>
     </row>
-    <row r="25" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
       <c r="B25" s="9"/>
       <c r="C25" s="6"/>
@@ -1005,7 +1131,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
       <c r="B26" s="9"/>
       <c r="C26" s="6"/>
@@ -1014,7 +1140,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="7"/>
     </row>
-    <row r="27" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="9"/>
       <c r="C27" s="6"/>
@@ -1023,7 +1149,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="7"/>
     </row>
-    <row r="28" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="9"/>
       <c r="C28" s="6"/>
@@ -1032,7 +1158,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="7"/>
     </row>
-    <row r="29" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="9"/>
       <c r="C29" s="6"/>
@@ -1041,7 +1167,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="7"/>
     </row>
-    <row r="30" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
       <c r="B30" s="9"/>
       <c r="C30" s="6"/>
@@ -1050,7 +1176,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="6"/>
@@ -1059,7 +1185,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="9"/>
       <c r="C32" s="6"/>
@@ -1068,7 +1194,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="9"/>
       <c r="C33" s="6"/>
@@ -1077,7 +1203,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="9"/>
       <c r="C34" s="6"/>
@@ -1086,7 +1212,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="9"/>
       <c r="C35" s="6"/>
@@ -1095,7 +1221,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="9"/>
       <c r="C36" s="6"/>
@@ -1104,7 +1230,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="7"/>
     </row>
-    <row r="37" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="9"/>
       <c r="C37" s="6"/>
@@ -1113,7 +1239,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="9"/>
       <c r="C38" s="6"/>
@@ -1122,7 +1248,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="9"/>
       <c r="C39" s="6"/>
@@ -1131,7 +1257,7 @@
       <c r="F39" s="6"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="9"/>
       <c r="C40" s="6"/>
@@ -1140,7 +1266,7 @@
       <c r="F40" s="6"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="9"/>
       <c r="C41" s="6"/>
@@ -1149,7 +1275,7 @@
       <c r="F41" s="6"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="9"/>
       <c r="C42" s="6"/>
@@ -1158,7 +1284,7 @@
       <c r="F42" s="6"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="9"/>
       <c r="C43" s="6"/>
@@ -1167,7 +1293,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="7"/>
     </row>
-    <row r="44" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="9"/>
       <c r="C44" s="6"/>
@@ -1176,7 +1302,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="7"/>
     </row>
-    <row r="45" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="9"/>
       <c r="C45" s="6"/>
@@ -1185,7 +1311,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="7"/>
     </row>
-    <row r="46" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="6"/>
@@ -1194,7 +1320,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="7"/>
     </row>
-    <row r="47" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="9"/>
       <c r="C47" s="6"/>
@@ -1203,7 +1329,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="7"/>
     </row>
-    <row r="48" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="9"/>
       <c r="C48" s="6"/>
@@ -1212,7 +1338,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="7"/>
     </row>
-    <row r="49" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="9"/>
       <c r="C49" s="6"/>
@@ -1221,7 +1347,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="7"/>
     </row>
-    <row r="50" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="9"/>
       <c r="C50" s="6"/>
@@ -1230,7 +1356,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="7"/>
     </row>
-    <row r="51" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="9"/>
       <c r="C51" s="6"/>
@@ -1239,7 +1365,7 @@
       <c r="F51" s="6"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="9"/>
       <c r="C52" s="6"/>
@@ -1248,7 +1374,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="9"/>
       <c r="C53" s="6"/>
@@ -1257,7 +1383,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="9"/>
       <c r="C54" s="6"/>
@@ -1266,7 +1392,7 @@
       <c r="F54" s="6"/>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="9"/>
       <c r="C55" s="6"/>
@@ -1275,7 +1401,7 @@
       <c r="F55" s="6"/>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="9"/>
       <c r="C56" s="6"/>
@@ -1284,7 +1410,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="9"/>
       <c r="C57" s="6"/>
@@ -1293,16 +1419,16 @@
       <c r="F57" s="6"/>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
-      <c r="B58" s="11"/>
+      <c r="B58" s="10"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="6"/>
@@ -1311,16 +1437,16 @@
       <c r="F59" s="6"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
-      <c r="B60" s="12"/>
+      <c r="B60" s="11"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="6"/>
@@ -1329,7 +1455,7 @@
       <c r="F61" s="6"/>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="6"/>
@@ -1338,7 +1464,7 @@
       <c r="F62" s="6"/>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="6"/>
@@ -1347,7 +1473,7 @@
       <c r="F63" s="6"/>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="6"/>
@@ -1356,7 +1482,7 @@
       <c r="F64" s="6"/>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="6"/>
@@ -1365,7 +1491,7 @@
       <c r="F65" s="6"/>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="6"/>
@@ -1374,7 +1500,7 @@
       <c r="F66" s="6"/>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="6"/>
@@ -1383,7 +1509,7 @@
       <c r="F67" s="6"/>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="6"/>
@@ -1392,7 +1518,7 @@
       <c r="F68" s="6"/>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="6"/>
@@ -1401,7 +1527,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="6"/>
@@ -1410,7 +1536,7 @@
       <c r="F70" s="6"/>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="6"/>
@@ -1419,7 +1545,7 @@
       <c r="F71" s="6"/>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="6"/>
@@ -1428,7 +1554,7 @@
       <c r="F72" s="6"/>
       <c r="G72" s="7"/>
     </row>
-    <row r="73" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="6"/>
@@ -1437,7 +1563,7 @@
       <c r="F73" s="6"/>
       <c r="G73" s="7"/>
     </row>
-    <row r="74" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="6"/>
@@ -1446,7 +1572,7 @@
       <c r="F74" s="6"/>
       <c r="G74" s="7"/>
     </row>
-    <row r="75" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="6"/>
@@ -1455,7 +1581,7 @@
       <c r="F75" s="6"/>
       <c r="G75" s="7"/>
     </row>
-    <row r="76" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="6"/>
@@ -1464,7 +1590,7 @@
       <c r="F76" s="6"/>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="6"/>
@@ -1473,7 +1599,7 @@
       <c r="F77" s="6"/>
       <c r="G77" s="7"/>
     </row>
-    <row r="78" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="6"/>
@@ -1482,7 +1608,7 @@
       <c r="F78" s="6"/>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="6"/>
@@ -1491,7 +1617,7 @@
       <c r="F79" s="6"/>
       <c r="G79" s="7"/>
     </row>
-    <row r="80" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="6"/>
@@ -1500,7 +1626,7 @@
       <c r="F80" s="6"/>
       <c r="G80" s="7"/>
     </row>
-    <row r="81" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="6"/>
@@ -1509,7 +1635,7 @@
       <c r="F81" s="6"/>
       <c r="G81" s="7"/>
     </row>
-    <row r="82" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="6"/>
@@ -1518,7 +1644,7 @@
       <c r="F82" s="6"/>
       <c r="G82" s="7"/>
     </row>
-    <row r="83" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="6"/>
@@ -1527,7 +1653,7 @@
       <c r="F83" s="6"/>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="6"/>
@@ -1536,7 +1662,7 @@
       <c r="F84" s="6"/>
       <c r="G84" s="7"/>
     </row>
-    <row r="85" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="6"/>
@@ -1545,7 +1671,7 @@
       <c r="F85" s="6"/>
       <c r="G85" s="7"/>
     </row>
-    <row r="86" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="6"/>
@@ -1554,7 +1680,7 @@
       <c r="F86" s="6"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="6"/>
@@ -1563,7 +1689,7 @@
       <c r="F87" s="6"/>
       <c r="G87" s="7"/>
     </row>
-    <row r="88" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="6"/>
@@ -1572,7 +1698,7 @@
       <c r="F88" s="6"/>
       <c r="G88" s="7"/>
     </row>
-    <row r="89" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="6"/>
@@ -1581,7 +1707,7 @@
       <c r="F89" s="6"/>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="6"/>
@@ -1590,7 +1716,7 @@
       <c r="F90" s="6"/>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
       <c r="C91" s="6"/>
@@ -1599,7 +1725,7 @@
       <c r="F91" s="6"/>
       <c r="G91" s="7"/>
     </row>
-    <row r="92" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
       <c r="C92" s="6"/>
@@ -1608,7 +1734,7 @@
       <c r="F92" s="6"/>
       <c r="G92" s="7"/>
     </row>
-    <row r="93" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
       <c r="C93" s="6"/>
@@ -1617,7 +1743,7 @@
       <c r="F93" s="6"/>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="6"/>
@@ -1626,7 +1752,7 @@
       <c r="F94" s="6"/>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
       <c r="C95" s="6"/>
@@ -1635,7 +1761,7 @@
       <c r="F95" s="6"/>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
       <c r="C96" s="6"/>
@@ -1644,7 +1770,7 @@
       <c r="F96" s="6"/>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
       <c r="C97" s="6"/>
@@ -1653,7 +1779,7 @@
       <c r="F97" s="6"/>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
       <c r="C98" s="6"/>
@@ -1662,7 +1788,7 @@
       <c r="F98" s="6"/>
       <c r="G98" s="7"/>
     </row>
-    <row r="99" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
       <c r="C99" s="6"/>
@@ -1671,7 +1797,7 @@
       <c r="F99" s="6"/>
       <c r="G99" s="7"/>
     </row>
-    <row r="100" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="6"/>
@@ -1680,7 +1806,7 @@
       <c r="F100" s="6"/>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
       <c r="C101" s="6"/>
@@ -1689,7 +1815,7 @@
       <c r="F101" s="6"/>
       <c r="G101" s="7"/>
     </row>
-    <row r="102" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
       <c r="C102" s="6"/>
@@ -1698,7 +1824,7 @@
       <c r="F102" s="6"/>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="7"/>
       <c r="C103" s="6"/>
@@ -1707,7 +1833,7 @@
       <c r="F103" s="6"/>
       <c r="G103" s="7"/>
     </row>
-    <row r="104" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
       <c r="C104" s="6"/>
@@ -1716,7 +1842,7 @@
       <c r="F104" s="6"/>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
       <c r="C105" s="6"/>
@@ -1725,7 +1851,7 @@
       <c r="F105" s="6"/>
       <c r="G105" s="7"/>
     </row>
-    <row r="106" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="7"/>
       <c r="C106" s="6"/>
@@ -1734,7 +1860,7 @@
       <c r="F106" s="6"/>
       <c r="G106" s="7"/>
     </row>
-    <row r="107" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="7"/>
       <c r="C107" s="6"/>
@@ -1743,7 +1869,7 @@
       <c r="F107" s="6"/>
       <c r="G107" s="7"/>
     </row>
-    <row r="108" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="7"/>
       <c r="C108" s="6"/>
@@ -1752,7 +1878,7 @@
       <c r="F108" s="6"/>
       <c r="G108" s="7"/>
     </row>
-    <row r="109" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="7"/>
       <c r="C109" s="6"/>
@@ -1761,7 +1887,7 @@
       <c r="F109" s="6"/>
       <c r="G109" s="7"/>
     </row>
-    <row r="110" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="7"/>
       <c r="C110" s="6"/>
@@ -1770,7 +1896,7 @@
       <c r="F110" s="6"/>
       <c r="G110" s="7"/>
     </row>
-    <row r="111" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="7"/>
       <c r="C111" s="6"/>
@@ -1779,7 +1905,7 @@
       <c r="F111" s="6"/>
       <c r="G111" s="7"/>
     </row>
-    <row r="112" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="7"/>
       <c r="C112" s="6"/>
@@ -1788,7 +1914,7 @@
       <c r="F112" s="6"/>
       <c r="G112" s="7"/>
     </row>
-    <row r="113" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="7"/>
       <c r="C113" s="6"/>
@@ -1797,7 +1923,7 @@
       <c r="F113" s="6"/>
       <c r="G113" s="7"/>
     </row>
-    <row r="114" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="7"/>
       <c r="C114" s="6"/>
@@ -1806,7 +1932,7 @@
       <c r="F114" s="6"/>
       <c r="G114" s="7"/>
     </row>
-    <row r="115" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="7"/>
       <c r="C115" s="6"/>
@@ -1815,7 +1941,7 @@
       <c r="F115" s="6"/>
       <c r="G115" s="7"/>
     </row>
-    <row r="116" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="7"/>
       <c r="C116" s="6"/>
@@ -1824,7 +1950,7 @@
       <c r="F116" s="6"/>
       <c r="G116" s="7"/>
     </row>
-    <row r="117" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="7"/>
       <c r="C117" s="6"/>
@@ -1833,7 +1959,7 @@
       <c r="F117" s="6"/>
       <c r="G117" s="7"/>
     </row>
-    <row r="118" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="7"/>
       <c r="C118" s="6"/>
@@ -1842,7 +1968,7 @@
       <c r="F118" s="6"/>
       <c r="G118" s="7"/>
     </row>
-    <row r="119" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="7"/>
       <c r="C119" s="6"/>
@@ -1851,7 +1977,7 @@
       <c r="F119" s="6"/>
       <c r="G119" s="7"/>
     </row>
-    <row r="120" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
       <c r="C120" s="6"/>
@@ -1860,7 +1986,7 @@
       <c r="F120" s="6"/>
       <c r="G120" s="7"/>
     </row>
-    <row r="121" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="7"/>
       <c r="C121" s="6"/>
@@ -1869,7 +1995,7 @@
       <c r="F121" s="6"/>
       <c r="G121" s="7"/>
     </row>
-    <row r="122" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
       <c r="C122" s="6"/>
@@ -1878,7 +2004,7 @@
       <c r="F122" s="6"/>
       <c r="G122" s="7"/>
     </row>
-    <row r="123" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="7"/>
       <c r="C123" s="6"/>
@@ -1887,7 +2013,7 @@
       <c r="F123" s="6"/>
       <c r="G123" s="7"/>
     </row>
-    <row r="124" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="7"/>
       <c r="C124" s="6"/>
@@ -1896,7 +2022,7 @@
       <c r="F124" s="6"/>
       <c r="G124" s="7"/>
     </row>
-    <row r="125" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="7"/>
       <c r="C125" s="6"/>
@@ -1905,7 +2031,7 @@
       <c r="F125" s="6"/>
       <c r="G125" s="7"/>
     </row>
-    <row r="126" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="7"/>
       <c r="C126" s="6"/>
@@ -1914,7 +2040,7 @@
       <c r="F126" s="6"/>
       <c r="G126" s="7"/>
     </row>
-    <row r="127" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="7"/>
       <c r="C127" s="6"/>
@@ -1923,7 +2049,7 @@
       <c r="F127" s="6"/>
       <c r="G127" s="7"/>
     </row>
-    <row r="128" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="7"/>
       <c r="C128" s="6"/>
@@ -1932,7 +2058,7 @@
       <c r="F128" s="6"/>
       <c r="G128" s="7"/>
     </row>
-    <row r="129" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="7"/>
       <c r="C129" s="6"/>
@@ -1941,7 +2067,7 @@
       <c r="F129" s="6"/>
       <c r="G129" s="7"/>
     </row>
-    <row r="130" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
       <c r="C130" s="6"/>
@@ -1950,7 +2076,7 @@
       <c r="F130" s="6"/>
       <c r="G130" s="7"/>
     </row>
-    <row r="131" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="7"/>
       <c r="C131" s="6"/>
@@ -1959,7 +2085,7 @@
       <c r="F131" s="6"/>
       <c r="G131" s="7"/>
     </row>
-    <row r="132" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="7"/>
       <c r="C132" s="6"/>
@@ -1968,7 +2094,7 @@
       <c r="F132" s="6"/>
       <c r="G132" s="7"/>
     </row>
-    <row r="133" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="7"/>
       <c r="C133" s="6"/>
@@ -1977,7 +2103,7 @@
       <c r="F133" s="6"/>
       <c r="G133" s="7"/>
     </row>
-    <row r="134" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="7"/>
       <c r="C134" s="6"/>
@@ -1986,7 +2112,7 @@
       <c r="F134" s="6"/>
       <c r="G134" s="7"/>
     </row>
-    <row r="135" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
       <c r="C135" s="6"/>
@@ -1995,7 +2121,7 @@
       <c r="F135" s="6"/>
       <c r="G135" s="7"/>
     </row>
-    <row r="136" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="7"/>
       <c r="C136" s="6"/>
@@ -2004,7 +2130,7 @@
       <c r="F136" s="6"/>
       <c r="G136" s="7"/>
     </row>
-    <row r="137" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="7"/>
       <c r="C137" s="6"/>
@@ -2013,7 +2139,7 @@
       <c r="F137" s="6"/>
       <c r="G137" s="7"/>
     </row>
-    <row r="138" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="7"/>
       <c r="C138" s="6"/>
@@ -2022,7 +2148,7 @@
       <c r="F138" s="6"/>
       <c r="G138" s="7"/>
     </row>
-    <row r="139" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="7"/>
       <c r="C139" s="6"/>
@@ -2031,7 +2157,7 @@
       <c r="F139" s="6"/>
       <c r="G139" s="7"/>
     </row>
-    <row r="140" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="7"/>
       <c r="C140" s="6"/>
@@ -2040,7 +2166,7 @@
       <c r="F140" s="6"/>
       <c r="G140" s="7"/>
     </row>
-    <row r="141" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="7"/>
       <c r="C141" s="6"/>
@@ -2049,7 +2175,7 @@
       <c r="F141" s="6"/>
       <c r="G141" s="7"/>
     </row>
-    <row r="142" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="7"/>
       <c r="C142" s="6"/>
@@ -2058,7 +2184,7 @@
       <c r="F142" s="6"/>
       <c r="G142" s="7"/>
     </row>
-    <row r="143" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="7"/>
       <c r="C143" s="6"/>
@@ -2067,7 +2193,7 @@
       <c r="F143" s="6"/>
       <c r="G143" s="7"/>
     </row>
-    <row r="144" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="7"/>
       <c r="C144" s="6"/>
@@ -2076,7 +2202,7 @@
       <c r="F144" s="6"/>
       <c r="G144" s="7"/>
     </row>
-    <row r="145" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
       <c r="C145" s="6"/>
@@ -2085,7 +2211,7 @@
       <c r="F145" s="6"/>
       <c r="G145" s="7"/>
     </row>
-    <row r="146" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
       <c r="C146" s="6"/>
@@ -2094,7 +2220,7 @@
       <c r="F146" s="6"/>
       <c r="G146" s="7"/>
     </row>
-    <row r="147" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="7"/>
       <c r="C147" s="6"/>
@@ -2103,7 +2229,7 @@
       <c r="F147" s="6"/>
       <c r="G147" s="7"/>
     </row>
-    <row r="148" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="7"/>
       <c r="C148" s="6"/>
@@ -2112,7 +2238,7 @@
       <c r="F148" s="6"/>
       <c r="G148" s="7"/>
     </row>
-    <row r="149" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="7"/>
       <c r="C149" s="6"/>
@@ -2121,7 +2247,7 @@
       <c r="F149" s="6"/>
       <c r="G149" s="7"/>
     </row>
-    <row r="150" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="7"/>
       <c r="C150" s="6"/>
@@ -2130,7 +2256,7 @@
       <c r="F150" s="6"/>
       <c r="G150" s="7"/>
     </row>
-    <row r="151" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="7"/>
       <c r="C151" s="6"/>
@@ -2139,7 +2265,7 @@
       <c r="F151" s="6"/>
       <c r="G151" s="7"/>
     </row>
-    <row r="152" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="7"/>
       <c r="C152" s="6"/>
@@ -2148,7 +2274,7 @@
       <c r="F152" s="6"/>
       <c r="G152" s="7"/>
     </row>
-    <row r="153" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="7"/>
       <c r="C153" s="6"/>
@@ -2157,7 +2283,7 @@
       <c r="F153" s="6"/>
       <c r="G153" s="7"/>
     </row>
-    <row r="154" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="7"/>
       <c r="C154" s="6"/>
@@ -2166,7 +2292,7 @@
       <c r="F154" s="6"/>
       <c r="G154" s="7"/>
     </row>
-    <row r="155" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="7"/>
       <c r="C155" s="6"/>
@@ -2175,7 +2301,7 @@
       <c r="F155" s="6"/>
       <c r="G155" s="7"/>
     </row>
-    <row r="156" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="7"/>
       <c r="C156" s="6"/>
@@ -2184,7 +2310,7 @@
       <c r="F156" s="6"/>
       <c r="G156" s="7"/>
     </row>
-    <row r="157" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="7"/>
       <c r="C157" s="6"/>
@@ -2193,7 +2319,7 @@
       <c r="F157" s="6"/>
       <c r="G157" s="7"/>
     </row>
-    <row r="158" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="7"/>
       <c r="C158" s="6"/>
@@ -2202,7 +2328,7 @@
       <c r="F158" s="6"/>
       <c r="G158" s="7"/>
     </row>
-    <row r="159" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="7"/>
       <c r="C159" s="6"/>
@@ -2211,7 +2337,7 @@
       <c r="F159" s="6"/>
       <c r="G159" s="7"/>
     </row>
-    <row r="160" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="7"/>
       <c r="C160" s="6"/>
@@ -2220,7 +2346,7 @@
       <c r="F160" s="6"/>
       <c r="G160" s="7"/>
     </row>
-    <row r="161" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="7"/>
       <c r="C161" s="6"/>
@@ -2229,7 +2355,7 @@
       <c r="F161" s="6"/>
       <c r="G161" s="7"/>
     </row>
-    <row r="162" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="7"/>
       <c r="C162" s="6"/>
@@ -2238,7 +2364,7 @@
       <c r="F162" s="6"/>
       <c r="G162" s="7"/>
     </row>
-    <row r="163" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="7"/>
       <c r="C163" s="6"/>
@@ -2247,7 +2373,7 @@
       <c r="F163" s="6"/>
       <c r="G163" s="7"/>
     </row>
-    <row r="164" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="7"/>
       <c r="C164" s="6"/>
@@ -2256,7 +2382,7 @@
       <c r="F164" s="6"/>
       <c r="G164" s="7"/>
     </row>
-    <row r="165" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="7"/>
       <c r="C165" s="6"/>
@@ -2265,7 +2391,7 @@
       <c r="F165" s="6"/>
       <c r="G165" s="7"/>
     </row>
-    <row r="166" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="7"/>
       <c r="C166" s="6"/>
@@ -2274,7 +2400,7 @@
       <c r="F166" s="6"/>
       <c r="G166" s="7"/>
     </row>
-    <row r="167" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="7"/>
       <c r="C167" s="6"/>
@@ -2283,7 +2409,7 @@
       <c r="F167" s="6"/>
       <c r="G167" s="7"/>
     </row>
-    <row r="168" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="7"/>
       <c r="C168" s="6"/>
@@ -2292,7 +2418,7 @@
       <c r="F168" s="6"/>
       <c r="G168" s="7"/>
     </row>
-    <row r="169" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="7"/>
       <c r="C169" s="6"/>
@@ -2301,7 +2427,7 @@
       <c r="F169" s="6"/>
       <c r="G169" s="7"/>
     </row>
-    <row r="170" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
       <c r="B170" s="7"/>
       <c r="C170" s="6"/>
@@ -2310,7 +2436,7 @@
       <c r="F170" s="6"/>
       <c r="G170" s="7"/>
     </row>
-    <row r="171" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="7"/>
       <c r="C171" s="6"/>
@@ -2319,7 +2445,7 @@
       <c r="F171" s="6"/>
       <c r="G171" s="7"/>
     </row>
-    <row r="172" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="7"/>
       <c r="C172" s="6"/>
@@ -2328,7 +2454,7 @@
       <c r="F172" s="6"/>
       <c r="G172" s="7"/>
     </row>
-    <row r="173" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="B173" s="7"/>
       <c r="C173" s="6"/>
@@ -2337,7 +2463,7 @@
       <c r="F173" s="6"/>
       <c r="G173" s="7"/>
     </row>
-    <row r="174" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="7"/>
       <c r="C174" s="6"/>
@@ -2346,7 +2472,7 @@
       <c r="F174" s="6"/>
       <c r="G174" s="7"/>
     </row>
-    <row r="175" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="7"/>
       <c r="C175" s="6"/>
@@ -2355,7 +2481,7 @@
       <c r="F175" s="6"/>
       <c r="G175" s="7"/>
     </row>
-    <row r="176" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="7"/>
       <c r="C176" s="6"/>
@@ -2364,7 +2490,7 @@
       <c r="F176" s="6"/>
       <c r="G176" s="7"/>
     </row>
-    <row r="177" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="7"/>
       <c r="C177" s="6"/>
@@ -2373,7 +2499,7 @@
       <c r="F177" s="6"/>
       <c r="G177" s="7"/>
     </row>
-    <row r="178" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="7"/>
       <c r="C178" s="6"/>
@@ -2382,7 +2508,7 @@
       <c r="F178" s="6"/>
       <c r="G178" s="7"/>
     </row>
-    <row r="179" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="7"/>
       <c r="C179" s="6"/>
@@ -2391,7 +2517,7 @@
       <c r="F179" s="6"/>
       <c r="G179" s="7"/>
     </row>
-    <row r="180" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="7"/>
       <c r="C180" s="6"/>
@@ -2400,7 +2526,7 @@
       <c r="F180" s="6"/>
       <c r="G180" s="7"/>
     </row>
-    <row r="181" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="7"/>
       <c r="C181" s="6"/>
@@ -2409,7 +2535,7 @@
       <c r="F181" s="6"/>
       <c r="G181" s="7"/>
     </row>
-    <row r="182" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="7"/>
       <c r="C182" s="6"/>
@@ -2418,7 +2544,7 @@
       <c r="F182" s="6"/>
       <c r="G182" s="7"/>
     </row>
-    <row r="183" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="7"/>
       <c r="C183" s="6"/>
@@ -2427,7 +2553,7 @@
       <c r="F183" s="6"/>
       <c r="G183" s="7"/>
     </row>
-    <row r="184" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="7"/>
       <c r="C184" s="6"/>
@@ -2436,7 +2562,7 @@
       <c r="F184" s="6"/>
       <c r="G184" s="7"/>
     </row>
-    <row r="185" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="7"/>
       <c r="C185" s="6"/>
@@ -2445,7 +2571,7 @@
       <c r="F185" s="6"/>
       <c r="G185" s="7"/>
     </row>
-    <row r="186" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="7"/>
       <c r="C186" s="6"/>
@@ -2454,7 +2580,7 @@
       <c r="F186" s="6"/>
       <c r="G186" s="7"/>
     </row>
-    <row r="187" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="7"/>
       <c r="C187" s="6"/>
@@ -2463,7 +2589,7 @@
       <c r="F187" s="6"/>
       <c r="G187" s="7"/>
     </row>
-    <row r="188" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="7"/>
       <c r="C188" s="6"/>
@@ -2472,7 +2598,7 @@
       <c r="F188" s="6"/>
       <c r="G188" s="7"/>
     </row>
-    <row r="189" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="7"/>
       <c r="C189" s="6"/>
@@ -2481,7 +2607,7 @@
       <c r="F189" s="6"/>
       <c r="G189" s="7"/>
     </row>
-    <row r="190" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="7"/>
       <c r="C190" s="6"/>
@@ -2490,7 +2616,7 @@
       <c r="F190" s="6"/>
       <c r="G190" s="7"/>
     </row>
-    <row r="191" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="7"/>
       <c r="C191" s="6"/>
@@ -2499,7 +2625,7 @@
       <c r="F191" s="6"/>
       <c r="G191" s="7"/>
     </row>
-    <row r="192" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="7"/>
       <c r="C192" s="6"/>
@@ -2508,7 +2634,7 @@
       <c r="F192" s="6"/>
       <c r="G192" s="7"/>
     </row>
-    <row r="193" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="7"/>
       <c r="C193" s="6"/>
@@ -2517,7 +2643,7 @@
       <c r="F193" s="6"/>
       <c r="G193" s="7"/>
     </row>
-    <row r="194" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="7"/>
       <c r="C194" s="6"/>
@@ -2526,7 +2652,7 @@
       <c r="F194" s="6"/>
       <c r="G194" s="7"/>
     </row>
-    <row r="195" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="7"/>
       <c r="C195" s="6"/>
@@ -2535,7 +2661,7 @@
       <c r="F195" s="6"/>
       <c r="G195" s="7"/>
     </row>
-    <row r="196" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
       <c r="B196" s="7"/>
       <c r="C196" s="6"/>
@@ -2544,7 +2670,7 @@
       <c r="F196" s="6"/>
       <c r="G196" s="7"/>
     </row>
-    <row r="197" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="7"/>
       <c r="C197" s="6"/>
@@ -2553,7 +2679,7 @@
       <c r="F197" s="6"/>
       <c r="G197" s="7"/>
     </row>
-    <row r="198" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="7"/>
       <c r="C198" s="6"/>
@@ -2562,7 +2688,7 @@
       <c r="F198" s="6"/>
       <c r="G198" s="7"/>
     </row>
-    <row r="199" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="7"/>
       <c r="C199" s="6"/>
@@ -2571,7 +2697,7 @@
       <c r="F199" s="6"/>
       <c r="G199" s="7"/>
     </row>
-    <row r="200" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="7"/>
       <c r="C200" s="6"/>
@@ -2580,7 +2706,7 @@
       <c r="F200" s="6"/>
       <c r="G200" s="7"/>
     </row>
-    <row r="201" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
       <c r="B201" s="7"/>
       <c r="C201" s="6"/>
@@ -2589,7 +2715,7 @@
       <c r="F201" s="6"/>
       <c r="G201" s="7"/>
     </row>
-    <row r="202" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="7"/>
       <c r="C202" s="6"/>
@@ -2598,7 +2724,7 @@
       <c r="F202" s="6"/>
       <c r="G202" s="7"/>
     </row>
-    <row r="203" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
       <c r="B203" s="7"/>
       <c r="C203" s="6"/>
@@ -2607,7 +2733,7 @@
       <c r="F203" s="6"/>
       <c r="G203" s="7"/>
     </row>
-    <row r="204" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="7"/>
       <c r="C204" s="6"/>
@@ -2616,7 +2742,7 @@
       <c r="F204" s="6"/>
       <c r="G204" s="7"/>
     </row>
-    <row r="205" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6"/>
       <c r="B205" s="7"/>
       <c r="C205" s="6"/>
@@ -2625,7 +2751,7 @@
       <c r="F205" s="6"/>
       <c r="G205" s="7"/>
     </row>
-    <row r="206" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="7"/>
       <c r="C206" s="6"/>
@@ -2634,7 +2760,7 @@
       <c r="F206" s="6"/>
       <c r="G206" s="7"/>
     </row>
-    <row r="207" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
       <c r="B207" s="7"/>
       <c r="C207" s="6"/>
@@ -2643,7 +2769,7 @@
       <c r="F207" s="6"/>
       <c r="G207" s="7"/>
     </row>
-    <row r="208" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
       <c r="B208" s="7"/>
       <c r="C208" s="6"/>
@@ -2652,7 +2778,7 @@
       <c r="F208" s="6"/>
       <c r="G208" s="7"/>
     </row>
-    <row r="209" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="7"/>
       <c r="C209" s="6"/>
@@ -2661,7 +2787,7 @@
       <c r="F209" s="6"/>
       <c r="G209" s="7"/>
     </row>
-    <row r="210" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
       <c r="B210" s="7"/>
       <c r="C210" s="6"/>
@@ -2670,7 +2796,7 @@
       <c r="F210" s="6"/>
       <c r="G210" s="7"/>
     </row>
-    <row r="211" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="7"/>
       <c r="C211" s="6"/>
@@ -2679,7 +2805,7 @@
       <c r="F211" s="6"/>
       <c r="G211" s="7"/>
     </row>
-    <row r="212" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6"/>
       <c r="B212" s="7"/>
       <c r="C212" s="6"/>
@@ -2688,7 +2814,7 @@
       <c r="F212" s="6"/>
       <c r="G212" s="7"/>
     </row>
-    <row r="213" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="7"/>
       <c r="C213" s="6"/>
@@ -2697,7 +2823,7 @@
       <c r="F213" s="6"/>
       <c r="G213" s="7"/>
     </row>
-    <row r="214" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="7"/>
       <c r="C214" s="6"/>
@@ -2706,7 +2832,7 @@
       <c r="F214" s="6"/>
       <c r="G214" s="7"/>
     </row>
-    <row r="215" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6"/>
       <c r="B215" s="7"/>
       <c r="C215" s="6"/>
@@ -2715,7 +2841,7 @@
       <c r="F215" s="6"/>
       <c r="G215" s="7"/>
     </row>
-    <row r="216" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="7"/>
       <c r="C216" s="6"/>
@@ -2724,7 +2850,7 @@
       <c r="F216" s="6"/>
       <c r="G216" s="7"/>
     </row>
-    <row r="217" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6"/>
       <c r="B217" s="7"/>
       <c r="C217" s="6"/>
@@ -2733,7 +2859,7 @@
       <c r="F217" s="6"/>
       <c r="G217" s="7"/>
     </row>
-    <row r="218" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="7"/>
       <c r="C218" s="6"/>
@@ -2742,7 +2868,7 @@
       <c r="F218" s="6"/>
       <c r="G218" s="7"/>
     </row>
-    <row r="219" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6"/>
       <c r="B219" s="7"/>
       <c r="C219" s="6"/>
@@ -2751,7 +2877,7 @@
       <c r="F219" s="6"/>
       <c r="G219" s="7"/>
     </row>
-    <row r="220" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="7"/>
       <c r="C220" s="6"/>
@@ -2760,7 +2886,7 @@
       <c r="F220" s="6"/>
       <c r="G220" s="7"/>
     </row>
-    <row r="221" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="7"/>
       <c r="C221" s="6"/>
@@ -2769,7 +2895,7 @@
       <c r="F221" s="6"/>
       <c r="G221" s="7"/>
     </row>
-    <row r="222" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6"/>
       <c r="B222" s="7"/>
       <c r="C222" s="6"/>
@@ -2778,7 +2904,7 @@
       <c r="F222" s="6"/>
       <c r="G222" s="7"/>
     </row>
-    <row r="223" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="7"/>
       <c r="C223" s="6"/>
@@ -2787,7 +2913,7 @@
       <c r="F223" s="6"/>
       <c r="G223" s="7"/>
     </row>
-    <row r="224" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6"/>
       <c r="B224" s="7"/>
       <c r="C224" s="6"/>
@@ -2796,7 +2922,7 @@
       <c r="F224" s="6"/>
       <c r="G224" s="7"/>
     </row>
-    <row r="225" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="7"/>
       <c r="C225" s="6"/>
@@ -2805,7 +2931,7 @@
       <c r="F225" s="6"/>
       <c r="G225" s="7"/>
     </row>
-    <row r="226" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6"/>
       <c r="B226" s="7"/>
       <c r="C226" s="6"/>
@@ -2814,7 +2940,7 @@
       <c r="F226" s="6"/>
       <c r="G226" s="7"/>
     </row>
-    <row r="227" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="7"/>
       <c r="C227" s="6"/>
@@ -2823,7 +2949,7 @@
       <c r="F227" s="6"/>
       <c r="G227" s="7"/>
     </row>
-    <row r="228" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="7"/>
       <c r="C228" s="6"/>
@@ -2832,7 +2958,7 @@
       <c r="F228" s="6"/>
       <c r="G228" s="7"/>
     </row>
-    <row r="229" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6"/>
       <c r="B229" s="7"/>
       <c r="C229" s="6"/>
@@ -2841,7 +2967,7 @@
       <c r="F229" s="6"/>
       <c r="G229" s="7"/>
     </row>
-    <row r="230" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="7"/>
       <c r="C230" s="6"/>
@@ -2850,7 +2976,7 @@
       <c r="F230" s="6"/>
       <c r="G230" s="7"/>
     </row>
-    <row r="231" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="6"/>
       <c r="B231" s="7"/>
       <c r="C231" s="6"/>
@@ -2859,7 +2985,7 @@
       <c r="F231" s="6"/>
       <c r="G231" s="7"/>
     </row>
-    <row r="232" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
       <c r="B232" s="7"/>
       <c r="C232" s="6"/>
@@ -2868,7 +2994,7 @@
       <c r="F232" s="6"/>
       <c r="G232" s="7"/>
     </row>
-    <row r="233" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6"/>
       <c r="B233" s="7"/>
       <c r="C233" s="6"/>
@@ -2877,7 +3003,7 @@
       <c r="F233" s="6"/>
       <c r="G233" s="7"/>
     </row>
-    <row r="234" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
       <c r="B234" s="7"/>
       <c r="C234" s="6"/>
@@ -2886,7 +3012,7 @@
       <c r="F234" s="6"/>
       <c r="G234" s="7"/>
     </row>
-    <row r="235" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="7"/>
       <c r="C235" s="6"/>
@@ -2895,7 +3021,7 @@
       <c r="F235" s="6"/>
       <c r="G235" s="7"/>
     </row>
-    <row r="236" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6"/>
       <c r="B236" s="7"/>
       <c r="C236" s="6"/>
@@ -2904,7 +3030,7 @@
       <c r="F236" s="6"/>
       <c r="G236" s="7"/>
     </row>
-    <row r="237" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
       <c r="B237" s="7"/>
       <c r="C237" s="6"/>
@@ -2913,7 +3039,7 @@
       <c r="F237" s="6"/>
       <c r="G237" s="7"/>
     </row>
-    <row r="238" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6"/>
       <c r="B238" s="7"/>
       <c r="C238" s="6"/>
@@ -2922,7 +3048,7 @@
       <c r="F238" s="6"/>
       <c r="G238" s="7"/>
     </row>
-    <row r="239" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
       <c r="B239" s="7"/>
       <c r="C239" s="6"/>
@@ -2931,7 +3057,7 @@
       <c r="F239" s="6"/>
       <c r="G239" s="7"/>
     </row>
-    <row r="240" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6"/>
       <c r="B240" s="7"/>
       <c r="C240" s="6"/>
@@ -2940,7 +3066,7 @@
       <c r="F240" s="6"/>
       <c r="G240" s="7"/>
     </row>
-    <row r="241" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
       <c r="B241" s="7"/>
       <c r="C241" s="6"/>
@@ -2949,7 +3075,7 @@
       <c r="F241" s="6"/>
       <c r="G241" s="7"/>
     </row>
-    <row r="242" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
       <c r="B242" s="7"/>
       <c r="C242" s="6"/>
@@ -2958,7 +3084,7 @@
       <c r="F242" s="6"/>
       <c r="G242" s="7"/>
     </row>
-    <row r="243" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6"/>
       <c r="B243" s="7"/>
       <c r="C243" s="6"/>
@@ -2967,7 +3093,7 @@
       <c r="F243" s="6"/>
       <c r="G243" s="7"/>
     </row>
-    <row r="244" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="7"/>
       <c r="C244" s="6"/>
@@ -2976,7 +3102,7 @@
       <c r="F244" s="6"/>
       <c r="G244" s="7"/>
     </row>
-    <row r="245" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="6"/>
       <c r="B245" s="7"/>
       <c r="C245" s="6"/>
@@ -2985,7 +3111,7 @@
       <c r="F245" s="6"/>
       <c r="G245" s="7"/>
     </row>
-    <row r="246" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="7"/>
       <c r="C246" s="6"/>
@@ -2994,7 +3120,7 @@
       <c r="F246" s="6"/>
       <c r="G246" s="7"/>
     </row>
-    <row r="247" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6"/>
       <c r="B247" s="7"/>
       <c r="C247" s="6"/>
@@ -3003,7 +3129,7 @@
       <c r="F247" s="6"/>
       <c r="G247" s="7"/>
     </row>
-    <row r="248" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="7"/>
       <c r="C248" s="6"/>
@@ -3012,7 +3138,7 @@
       <c r="F248" s="6"/>
       <c r="G248" s="7"/>
     </row>
-    <row r="249" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="7"/>
       <c r="C249" s="6"/>
@@ -3021,7 +3147,7 @@
       <c r="F249" s="6"/>
       <c r="G249" s="7"/>
     </row>
-    <row r="250" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="6"/>
       <c r="B250" s="7"/>
       <c r="C250" s="6"/>
@@ -3030,7 +3156,7 @@
       <c r="F250" s="6"/>
       <c r="G250" s="7"/>
     </row>
-    <row r="251" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="7"/>
       <c r="C251" s="6"/>
@@ -3039,7 +3165,7 @@
       <c r="F251" s="6"/>
       <c r="G251" s="7"/>
     </row>
-    <row r="252" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6"/>
       <c r="B252" s="7"/>
       <c r="C252" s="6"/>
@@ -3048,7 +3174,7 @@
       <c r="F252" s="6"/>
       <c r="G252" s="7"/>
     </row>
-    <row r="253" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
       <c r="B253" s="7"/>
       <c r="C253" s="6"/>
@@ -3057,7 +3183,7 @@
       <c r="F253" s="6"/>
       <c r="G253" s="7"/>
     </row>
-    <row r="254" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="6"/>
       <c r="B254" s="7"/>
       <c r="C254" s="6"/>
@@ -3066,7 +3192,7 @@
       <c r="F254" s="6"/>
       <c r="G254" s="7"/>
     </row>
-    <row r="255" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
       <c r="B255" s="7"/>
       <c r="C255" s="6"/>
@@ -3075,7 +3201,7 @@
       <c r="F255" s="6"/>
       <c r="G255" s="7"/>
     </row>
-    <row r="256" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="6"/>
       <c r="B256" s="7"/>
       <c r="C256" s="6"/>
@@ -3084,7 +3210,7 @@
       <c r="F256" s="6"/>
       <c r="G256" s="7"/>
     </row>
-    <row r="257" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="6"/>
       <c r="B257" s="7"/>
       <c r="C257" s="6"/>
@@ -3093,7 +3219,7 @@
       <c r="F257" s="6"/>
       <c r="G257" s="7"/>
     </row>
-    <row r="258" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
       <c r="B258" s="7"/>
       <c r="C258" s="6"/>
@@ -3102,7 +3228,7 @@
       <c r="F258" s="6"/>
       <c r="G258" s="7"/>
     </row>
-    <row r="259" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="6"/>
       <c r="B259" s="7"/>
       <c r="C259" s="6"/>
@@ -3111,7 +3237,7 @@
       <c r="F259" s="6"/>
       <c r="G259" s="7"/>
     </row>
-    <row r="260" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
       <c r="B260" s="7"/>
       <c r="C260" s="6"/>
@@ -3120,7 +3246,7 @@
       <c r="F260" s="6"/>
       <c r="G260" s="7"/>
     </row>
-    <row r="261" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="6"/>
       <c r="B261" s="7"/>
       <c r="C261" s="6"/>
@@ -3129,7 +3255,7 @@
       <c r="F261" s="6"/>
       <c r="G261" s="7"/>
     </row>
-    <row r="262" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="6"/>
       <c r="B262" s="7"/>
       <c r="C262" s="6"/>
@@ -3138,7 +3264,7 @@
       <c r="F262" s="6"/>
       <c r="G262" s="7"/>
     </row>
-    <row r="263" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="7"/>
       <c r="C263" s="6"/>
@@ -3147,7 +3273,7 @@
       <c r="F263" s="6"/>
       <c r="G263" s="7"/>
     </row>
-    <row r="264" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="6"/>
       <c r="B264" s="7"/>
       <c r="C264" s="6"/>
@@ -3156,7 +3282,7 @@
       <c r="F264" s="6"/>
       <c r="G264" s="7"/>
     </row>
-    <row r="265" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
       <c r="B265" s="7"/>
       <c r="C265" s="6"/>
@@ -3165,7 +3291,7 @@
       <c r="F265" s="6"/>
       <c r="G265" s="7"/>
     </row>
-    <row r="266" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6"/>
       <c r="B266" s="7"/>
       <c r="C266" s="6"/>
@@ -3174,7 +3300,7 @@
       <c r="F266" s="6"/>
       <c r="G266" s="7"/>
     </row>
-    <row r="267" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
       <c r="B267" s="7"/>
       <c r="C267" s="6"/>
@@ -3183,7 +3309,7 @@
       <c r="F267" s="6"/>
       <c r="G267" s="7"/>
     </row>
-    <row r="268" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="6"/>
       <c r="B268" s="7"/>
       <c r="C268" s="6"/>
@@ -3192,7 +3318,7 @@
       <c r="F268" s="6"/>
       <c r="G268" s="7"/>
     </row>
-    <row r="269" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="6"/>
       <c r="B269" s="7"/>
       <c r="C269" s="6"/>
@@ -3201,7 +3327,7 @@
       <c r="F269" s="6"/>
       <c r="G269" s="7"/>
     </row>
-    <row r="270" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
       <c r="B270" s="7"/>
       <c r="C270" s="6"/>
@@ -3210,7 +3336,7 @@
       <c r="F270" s="6"/>
       <c r="G270" s="7"/>
     </row>
-    <row r="271" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="6"/>
       <c r="B271" s="7"/>
       <c r="C271" s="6"/>
@@ -3219,7 +3345,7 @@
       <c r="F271" s="6"/>
       <c r="G271" s="7"/>
     </row>
-    <row r="272" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
       <c r="B272" s="7"/>
       <c r="C272" s="6"/>
@@ -3228,7 +3354,7 @@
       <c r="F272" s="6"/>
       <c r="G272" s="7"/>
     </row>
-    <row r="273" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="6"/>
       <c r="B273" s="7"/>
       <c r="C273" s="6"/>
@@ -3237,7 +3363,7 @@
       <c r="F273" s="6"/>
       <c r="G273" s="7"/>
     </row>
-    <row r="274" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="6"/>
       <c r="B274" s="7"/>
       <c r="C274" s="6"/>
@@ -3246,7 +3372,7 @@
       <c r="F274" s="6"/>
       <c r="G274" s="7"/>
     </row>
-    <row r="275" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="6"/>
       <c r="B275" s="7"/>
       <c r="C275" s="6"/>
@@ -3255,7 +3381,7 @@
       <c r="F275" s="6"/>
       <c r="G275" s="7"/>
     </row>
-    <row r="276" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
       <c r="B276" s="7"/>
       <c r="C276" s="6"/>
@@ -3264,7 +3390,7 @@
       <c r="F276" s="6"/>
       <c r="G276" s="7"/>
     </row>
-    <row r="277" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
       <c r="B277" s="7"/>
       <c r="C277" s="6"/>
@@ -3273,7 +3399,7 @@
       <c r="F277" s="6"/>
       <c r="G277" s="7"/>
     </row>
-    <row r="278" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="6"/>
       <c r="B278" s="7"/>
       <c r="C278" s="6"/>
@@ -3282,7 +3408,7 @@
       <c r="F278" s="6"/>
       <c r="G278" s="7"/>
     </row>
-    <row r="279" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
       <c r="B279" s="7"/>
       <c r="C279" s="6"/>
@@ -3291,7 +3417,7 @@
       <c r="F279" s="6"/>
       <c r="G279" s="7"/>
     </row>
-    <row r="280" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="6"/>
       <c r="B280" s="7"/>
       <c r="C280" s="6"/>
@@ -3300,7 +3426,7 @@
       <c r="F280" s="6"/>
       <c r="G280" s="7"/>
     </row>
-    <row r="281" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="6"/>
       <c r="B281" s="7"/>
       <c r="C281" s="6"/>
@@ -3309,7 +3435,7 @@
       <c r="F281" s="6"/>
       <c r="G281" s="7"/>
     </row>
-    <row r="282" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="6"/>
       <c r="B282" s="7"/>
       <c r="C282" s="6"/>
@@ -3318,7 +3444,7 @@
       <c r="F282" s="6"/>
       <c r="G282" s="7"/>
     </row>
-    <row r="283" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="6"/>
       <c r="B283" s="7"/>
       <c r="C283" s="6"/>
@@ -3327,7 +3453,7 @@
       <c r="F283" s="6"/>
       <c r="G283" s="7"/>
     </row>
-    <row r="284" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="6"/>
       <c r="B284" s="7"/>
       <c r="C284" s="6"/>
@@ -3336,7 +3462,7 @@
       <c r="F284" s="6"/>
       <c r="G284" s="7"/>
     </row>
-    <row r="285" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="6"/>
       <c r="B285" s="7"/>
       <c r="C285" s="6"/>
@@ -3345,7 +3471,7 @@
       <c r="F285" s="6"/>
       <c r="G285" s="7"/>
     </row>
-    <row r="286" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="6"/>
       <c r="B286" s="7"/>
       <c r="C286" s="6"/>
@@ -3354,7 +3480,7 @@
       <c r="F286" s="6"/>
       <c r="G286" s="7"/>
     </row>
-    <row r="287" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="6"/>
       <c r="B287" s="7"/>
       <c r="C287" s="6"/>
@@ -3363,7 +3489,7 @@
       <c r="F287" s="6"/>
       <c r="G287" s="7"/>
     </row>
-    <row r="288" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="6"/>
       <c r="B288" s="7"/>
       <c r="C288" s="6"/>
@@ -3372,7 +3498,7 @@
       <c r="F288" s="6"/>
       <c r="G288" s="7"/>
     </row>
-    <row r="289" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="6"/>
       <c r="B289" s="7"/>
       <c r="C289" s="6"/>
@@ -3381,7 +3507,7 @@
       <c r="F289" s="6"/>
       <c r="G289" s="7"/>
     </row>
-    <row r="290" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="6"/>
       <c r="B290" s="7"/>
       <c r="C290" s="6"/>
@@ -3390,7 +3516,7 @@
       <c r="F290" s="6"/>
       <c r="G290" s="7"/>
     </row>
-    <row r="291" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="6"/>
       <c r="B291" s="7"/>
       <c r="C291" s="6"/>
@@ -3399,7 +3525,7 @@
       <c r="F291" s="6"/>
       <c r="G291" s="7"/>
     </row>
-    <row r="292" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="6"/>
       <c r="B292" s="7"/>
       <c r="C292" s="6"/>
@@ -3408,7 +3534,7 @@
       <c r="F292" s="6"/>
       <c r="G292" s="7"/>
     </row>
-    <row r="293" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="6"/>
       <c r="B293" s="7"/>
       <c r="C293" s="6"/>
@@ -3417,7 +3543,7 @@
       <c r="F293" s="6"/>
       <c r="G293" s="7"/>
     </row>
-    <row r="294" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="6"/>
       <c r="B294" s="7"/>
       <c r="C294" s="6"/>
@@ -3426,7 +3552,7 @@
       <c r="F294" s="6"/>
       <c r="G294" s="7"/>
     </row>
-    <row r="295" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="6"/>
       <c r="B295" s="7"/>
       <c r="C295" s="6"/>
@@ -3435,7 +3561,7 @@
       <c r="F295" s="6"/>
       <c r="G295" s="7"/>
     </row>
-    <row r="296" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="6"/>
       <c r="B296" s="7"/>
       <c r="C296" s="6"/>
@@ -3444,7 +3570,7 @@
       <c r="F296" s="6"/>
       <c r="G296" s="7"/>
     </row>
-    <row r="297" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="6"/>
       <c r="B297" s="7"/>
       <c r="C297" s="6"/>
@@ -3453,7 +3579,7 @@
       <c r="F297" s="6"/>
       <c r="G297" s="7"/>
     </row>
-    <row r="298" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="6"/>
       <c r="B298" s="7"/>
       <c r="C298" s="6"/>
@@ -3462,7 +3588,7 @@
       <c r="F298" s="6"/>
       <c r="G298" s="7"/>
     </row>
-    <row r="299" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="6"/>
       <c r="B299" s="7"/>
       <c r="C299" s="6"/>
@@ -3471,7 +3597,7 @@
       <c r="F299" s="6"/>
       <c r="G299" s="7"/>
     </row>
-    <row r="300" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="6"/>
       <c r="B300" s="7"/>
       <c r="C300" s="6"/>
@@ -3480,7 +3606,7 @@
       <c r="F300" s="6"/>
       <c r="G300" s="7"/>
     </row>
-    <row r="301" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="6"/>
       <c r="B301" s="7"/>
       <c r="C301" s="6"/>
@@ -3489,7 +3615,7 @@
       <c r="F301" s="6"/>
       <c r="G301" s="7"/>
     </row>
-    <row r="302" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="6"/>
       <c r="B302" s="7"/>
       <c r="C302" s="6"/>
@@ -3498,7 +3624,7 @@
       <c r="F302" s="6"/>
       <c r="G302" s="7"/>
     </row>
-    <row r="303" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="6"/>
       <c r="B303" s="7"/>
       <c r="C303" s="6"/>
@@ -3507,7 +3633,7 @@
       <c r="F303" s="6"/>
       <c r="G303" s="7"/>
     </row>
-    <row r="304" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="6"/>
       <c r="B304" s="7"/>
       <c r="C304" s="6"/>
@@ -3516,7 +3642,7 @@
       <c r="F304" s="6"/>
       <c r="G304" s="7"/>
     </row>
-    <row r="305" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="6"/>
       <c r="B305" s="7"/>
       <c r="C305" s="6"/>
@@ -3525,7 +3651,7 @@
       <c r="F305" s="6"/>
       <c r="G305" s="7"/>
     </row>
-    <row r="306" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="6"/>
       <c r="B306" s="7"/>
       <c r="C306" s="6"/>
@@ -3534,7 +3660,7 @@
       <c r="F306" s="6"/>
       <c r="G306" s="7"/>
     </row>
-    <row r="307" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="6"/>
       <c r="B307" s="7"/>
       <c r="C307" s="6"/>
@@ -3543,7 +3669,7 @@
       <c r="F307" s="6"/>
       <c r="G307" s="7"/>
     </row>
-    <row r="308" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="6"/>
       <c r="B308" s="7"/>
       <c r="C308" s="6"/>
@@ -3552,7 +3678,7 @@
       <c r="F308" s="6"/>
       <c r="G308" s="7"/>
     </row>
-    <row r="309" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="6"/>
       <c r="B309" s="7"/>
       <c r="C309" s="6"/>
@@ -3561,7 +3687,7 @@
       <c r="F309" s="6"/>
       <c r="G309" s="7"/>
     </row>
-    <row r="310" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="6"/>
       <c r="B310" s="7"/>
       <c r="C310" s="6"/>
@@ -3570,7 +3696,7 @@
       <c r="F310" s="6"/>
       <c r="G310" s="7"/>
     </row>
-    <row r="311" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="6"/>
       <c r="B311" s="7"/>
       <c r="C311" s="6"/>
@@ -3579,7 +3705,7 @@
       <c r="F311" s="6"/>
       <c r="G311" s="7"/>
     </row>
-    <row r="312" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="6"/>
       <c r="B312" s="7"/>
       <c r="C312" s="6"/>
@@ -3588,7 +3714,7 @@
       <c r="F312" s="6"/>
       <c r="G312" s="7"/>
     </row>
-    <row r="313" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="6"/>
       <c r="B313" s="7"/>
       <c r="C313" s="6"/>
@@ -3597,7 +3723,7 @@
       <c r="F313" s="6"/>
       <c r="G313" s="7"/>
     </row>
-    <row r="314" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="6"/>
       <c r="B314" s="7"/>
       <c r="C314" s="6"/>
@@ -3606,7 +3732,7 @@
       <c r="F314" s="6"/>
       <c r="G314" s="7"/>
     </row>
-    <row r="315" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="6"/>
       <c r="B315" s="7"/>
       <c r="C315" s="6"/>
@@ -3615,7 +3741,7 @@
       <c r="F315" s="6"/>
       <c r="G315" s="7"/>
     </row>
-    <row r="316" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="6"/>
       <c r="B316" s="7"/>
       <c r="C316" s="6"/>
@@ -3624,7 +3750,7 @@
       <c r="F316" s="6"/>
       <c r="G316" s="7"/>
     </row>
-    <row r="317" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="6"/>
       <c r="B317" s="7"/>
       <c r="C317" s="6"/>
@@ -3633,7 +3759,7 @@
       <c r="F317" s="6"/>
       <c r="G317" s="7"/>
     </row>
-    <row r="318" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="6"/>
       <c r="B318" s="7"/>
       <c r="C318" s="6"/>
@@ -3642,7 +3768,7 @@
       <c r="F318" s="6"/>
       <c r="G318" s="7"/>
     </row>
-    <row r="319" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="6"/>
       <c r="B319" s="7"/>
       <c r="C319" s="6"/>
@@ -3651,7 +3777,7 @@
       <c r="F319" s="6"/>
       <c r="G319" s="7"/>
     </row>
-    <row r="320" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="6"/>
       <c r="B320" s="7"/>
       <c r="C320" s="6"/>
@@ -3660,7 +3786,7 @@
       <c r="F320" s="6"/>
       <c r="G320" s="7"/>
     </row>
-    <row r="321" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="6"/>
       <c r="B321" s="7"/>
       <c r="C321" s="6"/>
@@ -3669,7 +3795,7 @@
       <c r="F321" s="6"/>
       <c r="G321" s="7"/>
     </row>
-    <row r="322" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="6"/>
       <c r="B322" s="7"/>
       <c r="C322" s="6"/>
@@ -3678,7 +3804,7 @@
       <c r="F322" s="6"/>
       <c r="G322" s="7"/>
     </row>
-    <row r="323" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="6"/>
       <c r="B323" s="7"/>
       <c r="C323" s="6"/>
@@ -3687,7 +3813,7 @@
       <c r="F323" s="6"/>
       <c r="G323" s="7"/>
     </row>
-    <row r="324" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="6"/>
       <c r="B324" s="7"/>
       <c r="C324" s="6"/>
@@ -3696,7 +3822,7 @@
       <c r="F324" s="6"/>
       <c r="G324" s="7"/>
     </row>
-    <row r="325" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="6"/>
       <c r="B325" s="7"/>
       <c r="C325" s="6"/>
@@ -3705,7 +3831,7 @@
       <c r="F325" s="6"/>
       <c r="G325" s="7"/>
     </row>
-    <row r="326" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="6"/>
       <c r="B326" s="7"/>
       <c r="C326" s="6"/>
@@ -3714,7 +3840,7 @@
       <c r="F326" s="6"/>
       <c r="G326" s="7"/>
     </row>
-    <row r="327" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="6"/>
       <c r="B327" s="7"/>
       <c r="C327" s="6"/>
@@ -3723,7 +3849,7 @@
       <c r="F327" s="6"/>
       <c r="G327" s="7"/>
     </row>
-    <row r="328" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="6"/>
       <c r="B328" s="7"/>
       <c r="C328" s="6"/>
@@ -3732,7 +3858,7 @@
       <c r="F328" s="6"/>
       <c r="G328" s="7"/>
     </row>
-    <row r="329" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="6"/>
       <c r="B329" s="7"/>
       <c r="C329" s="6"/>
@@ -3741,7 +3867,7 @@
       <c r="F329" s="6"/>
       <c r="G329" s="7"/>
     </row>
-    <row r="330" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="6"/>
       <c r="B330" s="7"/>
       <c r="C330" s="6"/>
@@ -3750,7 +3876,7 @@
       <c r="F330" s="6"/>
       <c r="G330" s="7"/>
     </row>
-    <row r="331" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="6"/>
       <c r="B331" s="7"/>
       <c r="C331" s="6"/>
@@ -3759,7 +3885,7 @@
       <c r="F331" s="6"/>
       <c r="G331" s="7"/>
     </row>
-    <row r="332" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="6"/>
       <c r="B332" s="7"/>
       <c r="C332" s="6"/>
@@ -3768,7 +3894,7 @@
       <c r="F332" s="6"/>
       <c r="G332" s="7"/>
     </row>
-    <row r="333" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="6"/>
       <c r="B333" s="7"/>
       <c r="C333" s="6"/>
@@ -3777,7 +3903,7 @@
       <c r="F333" s="6"/>
       <c r="G333" s="7"/>
     </row>
-    <row r="334" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="6"/>
       <c r="B334" s="7"/>
       <c r="C334" s="6"/>
@@ -3786,7 +3912,7 @@
       <c r="F334" s="6"/>
       <c r="G334" s="7"/>
     </row>
-    <row r="335" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="6"/>
       <c r="B335" s="7"/>
       <c r="C335" s="6"/>
@@ -3795,7 +3921,7 @@
       <c r="F335" s="6"/>
       <c r="G335" s="7"/>
     </row>
-    <row r="336" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="6"/>
       <c r="B336" s="7"/>
       <c r="C336" s="6"/>
@@ -3804,7 +3930,7 @@
       <c r="F336" s="6"/>
       <c r="G336" s="7"/>
     </row>
-    <row r="337" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="6"/>
       <c r="B337" s="7"/>
       <c r="C337" s="6"/>
@@ -3813,7 +3939,7 @@
       <c r="F337" s="6"/>
       <c r="G337" s="7"/>
     </row>
-    <row r="338" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="6"/>
       <c r="B338" s="7"/>
       <c r="C338" s="6"/>
@@ -3822,7 +3948,7 @@
       <c r="F338" s="6"/>
       <c r="G338" s="7"/>
     </row>
-    <row r="339" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="6"/>
       <c r="B339" s="7"/>
       <c r="C339" s="6"/>
@@ -3831,7 +3957,7 @@
       <c r="F339" s="6"/>
       <c r="G339" s="7"/>
     </row>
-    <row r="340" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="6"/>
       <c r="B340" s="7"/>
       <c r="C340" s="6"/>
@@ -3840,7 +3966,7 @@
       <c r="F340" s="6"/>
       <c r="G340" s="7"/>
     </row>
-    <row r="341" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="6"/>
       <c r="B341" s="7"/>
       <c r="C341" s="6"/>
@@ -3849,7 +3975,7 @@
       <c r="F341" s="6"/>
       <c r="G341" s="7"/>
     </row>
-    <row r="342" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="6"/>
       <c r="B342" s="7"/>
       <c r="C342" s="6"/>
@@ -3858,7 +3984,7 @@
       <c r="F342" s="6"/>
       <c r="G342" s="7"/>
     </row>
-    <row r="343" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="6"/>
       <c r="B343" s="7"/>
       <c r="C343" s="6"/>
@@ -3867,7 +3993,7 @@
       <c r="F343" s="6"/>
       <c r="G343" s="7"/>
     </row>
-    <row r="344" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="6"/>
       <c r="B344" s="7"/>
       <c r="C344" s="6"/>
@@ -3876,7 +4002,7 @@
       <c r="F344" s="6"/>
       <c r="G344" s="7"/>
     </row>
-    <row r="345" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="6"/>
       <c r="B345" s="7"/>
       <c r="C345" s="6"/>
@@ -3885,7 +4011,7 @@
       <c r="F345" s="6"/>
       <c r="G345" s="7"/>
     </row>
-    <row r="346" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="6"/>
       <c r="B346" s="7"/>
       <c r="C346" s="6"/>
@@ -3894,7 +4020,7 @@
       <c r="F346" s="6"/>
       <c r="G346" s="7"/>
     </row>
-    <row r="347" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="6"/>
       <c r="B347" s="7"/>
       <c r="C347" s="6"/>
@@ -3903,7 +4029,7 @@
       <c r="F347" s="6"/>
       <c r="G347" s="7"/>
     </row>
-    <row r="348" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="6"/>
       <c r="B348" s="7"/>
       <c r="C348" s="6"/>
@@ -3912,7 +4038,7 @@
       <c r="F348" s="6"/>
       <c r="G348" s="7"/>
     </row>
-    <row r="349" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="6"/>
       <c r="B349" s="7"/>
       <c r="C349" s="6"/>
@@ -3921,7 +4047,7 @@
       <c r="F349" s="6"/>
       <c r="G349" s="7"/>
     </row>
-    <row r="350" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="6"/>
       <c r="B350" s="7"/>
       <c r="C350" s="6"/>
@@ -3930,7 +4056,7 @@
       <c r="F350" s="6"/>
       <c r="G350" s="7"/>
     </row>
-    <row r="351" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="6"/>
       <c r="B351" s="7"/>
       <c r="C351" s="6"/>
@@ -3939,7 +4065,7 @@
       <c r="F351" s="6"/>
       <c r="G351" s="7"/>
     </row>
-    <row r="352" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="6"/>
       <c r="B352" s="7"/>
       <c r="C352" s="6"/>
@@ -3948,7 +4074,7 @@
       <c r="F352" s="6"/>
       <c r="G352" s="7"/>
     </row>
-    <row r="353" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="6"/>
       <c r="B353" s="7"/>
       <c r="C353" s="6"/>
@@ -3957,7 +4083,7 @@
       <c r="F353" s="6"/>
       <c r="G353" s="7"/>
     </row>
-    <row r="354" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="6"/>
       <c r="B354" s="7"/>
       <c r="C354" s="6"/>
@@ -3966,7 +4092,7 @@
       <c r="F354" s="6"/>
       <c r="G354" s="7"/>
     </row>
-    <row r="355" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="6"/>
       <c r="B355" s="7"/>
       <c r="C355" s="6"/>
@@ -3975,7 +4101,7 @@
       <c r="F355" s="6"/>
       <c r="G355" s="7"/>
     </row>
-    <row r="356" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="6"/>
       <c r="B356" s="7"/>
       <c r="C356" s="6"/>
@@ -3984,7 +4110,7 @@
       <c r="F356" s="6"/>
       <c r="G356" s="7"/>
     </row>
-    <row r="357" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="6"/>
       <c r="B357" s="7"/>
       <c r="C357" s="6"/>
@@ -3993,7 +4119,7 @@
       <c r="F357" s="6"/>
       <c r="G357" s="7"/>
     </row>
-    <row r="358" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="6"/>
       <c r="B358" s="7"/>
       <c r="C358" s="6"/>
@@ -4002,7 +4128,7 @@
       <c r="F358" s="6"/>
       <c r="G358" s="7"/>
     </row>
-    <row r="359" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="6"/>
       <c r="B359" s="7"/>
       <c r="C359" s="6"/>
@@ -4011,7 +4137,7 @@
       <c r="F359" s="6"/>
       <c r="G359" s="7"/>
     </row>
-    <row r="360" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="6"/>
       <c r="B360" s="7"/>
       <c r="C360" s="6"/>
@@ -4020,7 +4146,7 @@
       <c r="F360" s="6"/>
       <c r="G360" s="7"/>
     </row>
-    <row r="361" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="6"/>
       <c r="B361" s="7"/>
       <c r="C361" s="6"/>
@@ -4029,7 +4155,7 @@
       <c r="F361" s="6"/>
       <c r="G361" s="7"/>
     </row>
-    <row r="362" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="6"/>
       <c r="B362" s="7"/>
       <c r="C362" s="6"/>
@@ -4038,7 +4164,7 @@
       <c r="F362" s="6"/>
       <c r="G362" s="7"/>
     </row>
-    <row r="363" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="6"/>
       <c r="B363" s="7"/>
       <c r="C363" s="6"/>
@@ -4047,7 +4173,7 @@
       <c r="F363" s="6"/>
       <c r="G363" s="7"/>
     </row>
-    <row r="364" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="6"/>
       <c r="B364" s="7"/>
       <c r="C364" s="6"/>
@@ -4056,7 +4182,7 @@
       <c r="F364" s="6"/>
       <c r="G364" s="7"/>
     </row>
-    <row r="365" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="6"/>
       <c r="B365" s="7"/>
       <c r="C365" s="6"/>
@@ -4065,7 +4191,7 @@
       <c r="F365" s="6"/>
       <c r="G365" s="7"/>
     </row>
-    <row r="366" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="6"/>
       <c r="B366" s="7"/>
       <c r="C366" s="6"/>
@@ -4074,7 +4200,7 @@
       <c r="F366" s="6"/>
       <c r="G366" s="7"/>
     </row>
-    <row r="367" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="6"/>
       <c r="B367" s="7"/>
       <c r="C367" s="6"/>
@@ -4083,7 +4209,7 @@
       <c r="F367" s="6"/>
       <c r="G367" s="7"/>
     </row>
-    <row r="368" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
       <c r="B368" s="7"/>
       <c r="C368" s="6"/>
@@ -4092,7 +4218,7 @@
       <c r="F368" s="6"/>
       <c r="G368" s="7"/>
     </row>
-    <row r="369" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="6"/>
       <c r="B369" s="7"/>
       <c r="C369" s="6"/>
@@ -4101,7 +4227,7 @@
       <c r="F369" s="6"/>
       <c r="G369" s="7"/>
     </row>
-    <row r="370" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="6"/>
       <c r="B370" s="7"/>
       <c r="C370" s="6"/>
@@ -4110,7 +4236,7 @@
       <c r="F370" s="6"/>
       <c r="G370" s="7"/>
     </row>
-    <row r="371" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="6"/>
       <c r="B371" s="7"/>
       <c r="C371" s="6"/>
@@ -4119,7 +4245,7 @@
       <c r="F371" s="6"/>
       <c r="G371" s="7"/>
     </row>
-    <row r="372" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="6"/>
       <c r="B372" s="7"/>
       <c r="C372" s="6"/>
@@ -4128,7 +4254,7 @@
       <c r="F372" s="6"/>
       <c r="G372" s="7"/>
     </row>
-    <row r="373" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="6"/>
       <c r="B373" s="7"/>
       <c r="C373" s="6"/>
@@ -4137,7 +4263,7 @@
       <c r="F373" s="6"/>
       <c r="G373" s="7"/>
     </row>
-    <row r="374" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="6"/>
       <c r="B374" s="7"/>
       <c r="C374" s="6"/>
@@ -4146,7 +4272,7 @@
       <c r="F374" s="6"/>
       <c r="G374" s="7"/>
     </row>
-    <row r="375" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="6"/>
       <c r="B375" s="7"/>
       <c r="C375" s="6"/>
@@ -4155,7 +4281,7 @@
       <c r="F375" s="6"/>
       <c r="G375" s="7"/>
     </row>
-    <row r="376" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="6"/>
       <c r="B376" s="7"/>
       <c r="C376" s="6"/>
@@ -4164,7 +4290,7 @@
       <c r="F376" s="6"/>
       <c r="G376" s="7"/>
     </row>
-    <row r="377" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="6"/>
       <c r="B377" s="7"/>
       <c r="C377" s="6"/>
@@ -4173,7 +4299,7 @@
       <c r="F377" s="6"/>
       <c r="G377" s="7"/>
     </row>
-    <row r="378" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="6"/>
       <c r="B378" s="7"/>
       <c r="C378" s="6"/>
@@ -4182,7 +4308,7 @@
       <c r="F378" s="6"/>
       <c r="G378" s="7"/>
     </row>
-    <row r="379" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="6"/>
       <c r="B379" s="7"/>
       <c r="C379" s="6"/>
@@ -4191,7 +4317,7 @@
       <c r="F379" s="6"/>
       <c r="G379" s="7"/>
     </row>
-    <row r="380" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="6"/>
       <c r="B380" s="7"/>
       <c r="C380" s="6"/>
@@ -4200,7 +4326,7 @@
       <c r="F380" s="6"/>
       <c r="G380" s="7"/>
     </row>
-    <row r="381" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="6"/>
       <c r="B381" s="7"/>
       <c r="C381" s="6"/>
@@ -4209,7 +4335,7 @@
       <c r="F381" s="6"/>
       <c r="G381" s="7"/>
     </row>
-    <row r="382" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="6"/>
       <c r="B382" s="7"/>
       <c r="C382" s="6"/>
@@ -4218,7 +4344,7 @@
       <c r="F382" s="6"/>
       <c r="G382" s="7"/>
     </row>
-    <row r="383" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="6"/>
       <c r="B383" s="7"/>
       <c r="C383" s="6"/>
@@ -4227,7 +4353,7 @@
       <c r="F383" s="6"/>
       <c r="G383" s="7"/>
     </row>
-    <row r="384" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="6"/>
       <c r="B384" s="7"/>
       <c r="C384" s="6"/>
@@ -4236,7 +4362,7 @@
       <c r="F384" s="6"/>
       <c r="G384" s="7"/>
     </row>
-    <row r="385" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="6"/>
       <c r="B385" s="7"/>
       <c r="C385" s="6"/>
@@ -4245,7 +4371,7 @@
       <c r="F385" s="6"/>
       <c r="G385" s="7"/>
     </row>
-    <row r="386" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="6"/>
       <c r="B386" s="7"/>
       <c r="C386" s="6"/>
@@ -4254,7 +4380,7 @@
       <c r="F386" s="6"/>
       <c r="G386" s="7"/>
     </row>
-    <row r="387" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="6"/>
       <c r="B387" s="7"/>
       <c r="C387" s="6"/>
@@ -4263,7 +4389,7 @@
       <c r="F387" s="6"/>
       <c r="G387" s="7"/>
     </row>
-    <row r="388" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="6"/>
       <c r="B388" s="7"/>
       <c r="C388" s="6"/>
@@ -4272,7 +4398,7 @@
       <c r="F388" s="6"/>
       <c r="G388" s="7"/>
     </row>
-    <row r="389" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="6"/>
       <c r="B389" s="7"/>
       <c r="C389" s="6"/>
@@ -4281,7 +4407,7 @@
       <c r="F389" s="6"/>
       <c r="G389" s="7"/>
     </row>
-    <row r="390" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="6"/>
       <c r="B390" s="7"/>
       <c r="C390" s="6"/>
@@ -4290,7 +4416,7 @@
       <c r="F390" s="6"/>
       <c r="G390" s="7"/>
     </row>
-    <row r="391" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="6"/>
       <c r="B391" s="7"/>
       <c r="C391" s="6"/>
@@ -4299,7 +4425,7 @@
       <c r="F391" s="6"/>
       <c r="G391" s="7"/>
     </row>
-    <row r="392" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="6"/>
       <c r="B392" s="7"/>
       <c r="C392" s="6"/>
@@ -4308,7 +4434,7 @@
       <c r="F392" s="6"/>
       <c r="G392" s="7"/>
     </row>
-    <row r="393" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="6"/>
       <c r="B393" s="7"/>
       <c r="C393" s="6"/>
@@ -4317,7 +4443,7 @@
       <c r="F393" s="6"/>
       <c r="G393" s="7"/>
     </row>
-    <row r="394" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="6"/>
       <c r="B394" s="7"/>
       <c r="C394" s="6"/>
@@ -4326,7 +4452,7 @@
       <c r="F394" s="6"/>
       <c r="G394" s="7"/>
     </row>
-    <row r="395" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="6"/>
       <c r="B395" s="7"/>
       <c r="C395" s="6"/>
@@ -4335,7 +4461,7 @@
       <c r="F395" s="6"/>
       <c r="G395" s="7"/>
     </row>
-    <row r="396" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="6"/>
       <c r="B396" s="7"/>
       <c r="C396" s="6"/>
@@ -4344,7 +4470,7 @@
       <c r="F396" s="6"/>
       <c r="G396" s="7"/>
     </row>
-    <row r="397" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="6"/>
       <c r="B397" s="7"/>
       <c r="C397" s="6"/>
@@ -4353,7 +4479,7 @@
       <c r="F397" s="6"/>
       <c r="G397" s="7"/>
     </row>
-    <row r="398" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="6"/>
       <c r="B398" s="7"/>
       <c r="C398" s="6"/>
@@ -4362,7 +4488,7 @@
       <c r="F398" s="6"/>
       <c r="G398" s="7"/>
     </row>
-    <row r="399" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="6"/>
       <c r="B399" s="7"/>
       <c r="C399" s="6"/>
@@ -4371,7 +4497,7 @@
       <c r="F399" s="6"/>
       <c r="G399" s="7"/>
     </row>
-    <row r="400" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="6"/>
       <c r="B400" s="7"/>
       <c r="C400" s="6"/>
@@ -4380,7 +4506,7 @@
       <c r="F400" s="6"/>
       <c r="G400" s="7"/>
     </row>
-    <row r="401" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="6"/>
       <c r="B401" s="7"/>
       <c r="C401" s="6"/>
@@ -4389,7 +4515,7 @@
       <c r="F401" s="6"/>
       <c r="G401" s="7"/>
     </row>
-    <row r="402" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="6"/>
       <c r="B402" s="7"/>
       <c r="C402" s="6"/>
@@ -4398,7 +4524,7 @@
       <c r="F402" s="6"/>
       <c r="G402" s="7"/>
     </row>
-    <row r="403" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="6"/>
       <c r="B403" s="7"/>
       <c r="C403" s="6"/>
@@ -4407,7 +4533,7 @@
       <c r="F403" s="6"/>
       <c r="G403" s="7"/>
     </row>
-    <row r="404" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="6"/>
       <c r="B404" s="7"/>
       <c r="C404" s="6"/>
@@ -4416,7 +4542,7 @@
       <c r="F404" s="6"/>
       <c r="G404" s="7"/>
     </row>
-    <row r="405" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="6"/>
       <c r="B405" s="7"/>
       <c r="C405" s="6"/>
@@ -4425,7 +4551,7 @@
       <c r="F405" s="6"/>
       <c r="G405" s="7"/>
     </row>
-    <row r="406" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="6"/>
       <c r="B406" s="7"/>
       <c r="C406" s="6"/>
@@ -4434,7 +4560,7 @@
       <c r="F406" s="6"/>
       <c r="G406" s="7"/>
     </row>
-    <row r="407" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="6"/>
       <c r="B407" s="7"/>
       <c r="C407" s="6"/>
@@ -4443,7 +4569,7 @@
       <c r="F407" s="6"/>
       <c r="G407" s="7"/>
     </row>
-    <row r="408" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="6"/>
       <c r="B408" s="7"/>
       <c r="C408" s="6"/>
@@ -4452,7 +4578,7 @@
       <c r="F408" s="6"/>
       <c r="G408" s="7"/>
     </row>
-    <row r="409" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="6"/>
       <c r="B409" s="7"/>
       <c r="C409" s="6"/>
@@ -4461,7 +4587,7 @@
       <c r="F409" s="6"/>
       <c r="G409" s="7"/>
     </row>
-    <row r="410" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="6"/>
       <c r="B410" s="7"/>
       <c r="C410" s="6"/>
@@ -4470,7 +4596,7 @@
       <c r="F410" s="6"/>
       <c r="G410" s="7"/>
     </row>
-    <row r="411" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="6"/>
       <c r="B411" s="7"/>
       <c r="C411" s="6"/>
@@ -4479,7 +4605,7 @@
       <c r="F411" s="6"/>
       <c r="G411" s="7"/>
     </row>
-    <row r="412" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="6"/>
       <c r="B412" s="7"/>
       <c r="C412" s="6"/>
@@ -4488,7 +4614,7 @@
       <c r="F412" s="6"/>
       <c r="G412" s="7"/>
     </row>
-    <row r="413" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="6"/>
       <c r="B413" s="7"/>
       <c r="C413" s="6"/>
@@ -4497,7 +4623,7 @@
       <c r="F413" s="6"/>
       <c r="G413" s="7"/>
     </row>
-    <row r="414" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="6"/>
       <c r="B414" s="7"/>
       <c r="C414" s="6"/>
@@ -4506,7 +4632,7 @@
       <c r="F414" s="6"/>
       <c r="G414" s="7"/>
     </row>
-    <row r="415" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="6"/>
       <c r="B415" s="7"/>
       <c r="C415" s="6"/>
@@ -4515,7 +4641,7 @@
       <c r="F415" s="6"/>
       <c r="G415" s="7"/>
     </row>
-    <row r="416" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="6"/>
       <c r="B416" s="7"/>
       <c r="C416" s="6"/>
@@ -4524,7 +4650,7 @@
       <c r="F416" s="6"/>
       <c r="G416" s="7"/>
     </row>
-    <row r="417" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="6"/>
       <c r="B417" s="7"/>
       <c r="C417" s="6"/>
@@ -4533,7 +4659,7 @@
       <c r="F417" s="6"/>
       <c r="G417" s="7"/>
     </row>
-    <row r="418" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="6"/>
       <c r="B418" s="7"/>
       <c r="C418" s="6"/>
@@ -4542,7 +4668,7 @@
       <c r="F418" s="6"/>
       <c r="G418" s="7"/>
     </row>
-    <row r="419" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="6"/>
       <c r="B419" s="7"/>
       <c r="C419" s="6"/>
@@ -4551,7 +4677,7 @@
       <c r="F419" s="6"/>
       <c r="G419" s="7"/>
     </row>
-    <row r="420" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="6"/>
       <c r="B420" s="7"/>
       <c r="C420" s="6"/>
@@ -4560,7 +4686,7 @@
       <c r="F420" s="6"/>
       <c r="G420" s="7"/>
     </row>
-    <row r="421" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="6"/>
       <c r="B421" s="7"/>
       <c r="C421" s="6"/>
@@ -4569,7 +4695,7 @@
       <c r="F421" s="6"/>
       <c r="G421" s="7"/>
     </row>
-    <row r="422" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="6"/>
       <c r="B422" s="7"/>
       <c r="C422" s="6"/>
@@ -4578,7 +4704,7 @@
       <c r="F422" s="6"/>
       <c r="G422" s="7"/>
     </row>
-    <row r="423" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="6"/>
       <c r="B423" s="7"/>
       <c r="C423" s="6"/>
@@ -4587,7 +4713,7 @@
       <c r="F423" s="6"/>
       <c r="G423" s="7"/>
     </row>
-    <row r="424" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="6"/>
       <c r="B424" s="7"/>
       <c r="C424" s="6"/>
@@ -4596,7 +4722,7 @@
       <c r="F424" s="6"/>
       <c r="G424" s="7"/>
     </row>
-    <row r="425" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="6"/>
       <c r="B425" s="7"/>
       <c r="C425" s="6"/>
@@ -4605,7 +4731,7 @@
       <c r="F425" s="6"/>
       <c r="G425" s="7"/>
     </row>
-    <row r="426" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="6"/>
       <c r="B426" s="7"/>
       <c r="C426" s="6"/>
@@ -4614,7 +4740,7 @@
       <c r="F426" s="6"/>
       <c r="G426" s="7"/>
     </row>
-    <row r="427" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="6"/>
       <c r="B427" s="7"/>
       <c r="C427" s="6"/>
@@ -4623,7 +4749,7 @@
       <c r="F427" s="6"/>
       <c r="G427" s="7"/>
     </row>
-    <row r="428" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="6"/>
       <c r="B428" s="7"/>
       <c r="C428" s="6"/>
@@ -4632,7 +4758,7 @@
       <c r="F428" s="6"/>
       <c r="G428" s="7"/>
     </row>
-    <row r="429" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="6"/>
       <c r="B429" s="7"/>
       <c r="C429" s="6"/>
@@ -4641,7 +4767,7 @@
       <c r="F429" s="6"/>
       <c r="G429" s="7"/>
     </row>
-    <row r="430" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="6"/>
       <c r="B430" s="7"/>
       <c r="C430" s="6"/>
@@ -4650,7 +4776,7 @@
       <c r="F430" s="6"/>
       <c r="G430" s="7"/>
     </row>
-    <row r="431" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="6"/>
       <c r="B431" s="7"/>
       <c r="C431" s="6"/>
@@ -4659,7 +4785,7 @@
       <c r="F431" s="6"/>
       <c r="G431" s="7"/>
     </row>
-    <row r="432" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="6"/>
       <c r="B432" s="7"/>
       <c r="C432" s="6"/>
@@ -4668,7 +4794,7 @@
       <c r="F432" s="6"/>
       <c r="G432" s="7"/>
     </row>
-    <row r="433" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="6"/>
       <c r="B433" s="7"/>
       <c r="C433" s="6"/>
@@ -4677,7 +4803,7 @@
       <c r="F433" s="6"/>
       <c r="G433" s="7"/>
     </row>
-    <row r="434" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="6"/>
       <c r="B434" s="7"/>
       <c r="C434" s="6"/>
@@ -4686,7 +4812,7 @@
       <c r="F434" s="6"/>
       <c r="G434" s="7"/>
     </row>
-    <row r="435" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="6"/>
       <c r="B435" s="7"/>
       <c r="C435" s="6"/>
@@ -4695,7 +4821,7 @@
       <c r="F435" s="6"/>
       <c r="G435" s="7"/>
     </row>
-    <row r="436" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="6"/>
       <c r="B436" s="7"/>
       <c r="C436" s="6"/>
@@ -4704,7 +4830,7 @@
       <c r="F436" s="6"/>
       <c r="G436" s="7"/>
     </row>
-    <row r="437" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="6"/>
       <c r="B437" s="7"/>
       <c r="C437" s="6"/>
@@ -4713,7 +4839,7 @@
       <c r="F437" s="6"/>
       <c r="G437" s="7"/>
     </row>
-    <row r="438" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="6"/>
       <c r="B438" s="7"/>
       <c r="C438" s="6"/>
@@ -4722,7 +4848,7 @@
       <c r="F438" s="6"/>
       <c r="G438" s="7"/>
     </row>
-    <row r="439" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="6"/>
       <c r="B439" s="7"/>
       <c r="C439" s="6"/>
@@ -4731,7 +4857,7 @@
       <c r="F439" s="6"/>
       <c r="G439" s="7"/>
     </row>
-    <row r="440" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="6"/>
       <c r="B440" s="7"/>
       <c r="C440" s="6"/>
@@ -4740,7 +4866,7 @@
       <c r="F440" s="6"/>
       <c r="G440" s="7"/>
     </row>
-    <row r="441" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="6"/>
       <c r="B441" s="7"/>
       <c r="C441" s="6"/>
@@ -4749,7 +4875,7 @@
       <c r="F441" s="6"/>
       <c r="G441" s="7"/>
     </row>
-    <row r="442" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="6"/>
       <c r="B442" s="7"/>
       <c r="C442" s="6"/>
@@ -4758,7 +4884,7 @@
       <c r="F442" s="6"/>
       <c r="G442" s="7"/>
     </row>
-    <row r="443" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="6"/>
       <c r="B443" s="7"/>
       <c r="C443" s="6"/>
@@ -4767,7 +4893,7 @@
       <c r="F443" s="6"/>
       <c r="G443" s="7"/>
     </row>
-    <row r="444" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="6"/>
       <c r="B444" s="7"/>
       <c r="C444" s="6"/>
@@ -4776,7 +4902,7 @@
       <c r="F444" s="6"/>
       <c r="G444" s="7"/>
     </row>
-    <row r="445" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="6"/>
       <c r="B445" s="7"/>
       <c r="C445" s="6"/>
@@ -4785,7 +4911,7 @@
       <c r="F445" s="6"/>
       <c r="G445" s="7"/>
     </row>
-    <row r="446" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="6"/>
       <c r="B446" s="7"/>
       <c r="C446" s="6"/>
@@ -4794,7 +4920,7 @@
       <c r="F446" s="6"/>
       <c r="G446" s="7"/>
     </row>
-    <row r="447" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="6"/>
       <c r="B447" s="7"/>
       <c r="C447" s="6"/>
@@ -4803,7 +4929,7 @@
       <c r="F447" s="6"/>
       <c r="G447" s="7"/>
     </row>
-    <row r="448" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="6"/>
       <c r="B448" s="7"/>
       <c r="C448" s="6"/>
@@ -4812,7 +4938,7 @@
       <c r="F448" s="6"/>
       <c r="G448" s="7"/>
     </row>
-    <row r="449" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="6"/>
       <c r="B449" s="7"/>
       <c r="C449" s="6"/>
@@ -4821,7 +4947,7 @@
       <c r="F449" s="6"/>
       <c r="G449" s="7"/>
     </row>
-    <row r="450" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="6"/>
       <c r="B450" s="7"/>
       <c r="C450" s="6"/>
@@ -4830,7 +4956,7 @@
       <c r="F450" s="6"/>
       <c r="G450" s="7"/>
     </row>
-    <row r="451" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="6"/>
       <c r="B451" s="7"/>
       <c r="C451" s="6"/>
@@ -4839,7 +4965,7 @@
       <c r="F451" s="6"/>
       <c r="G451" s="7"/>
     </row>
-    <row r="452" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="6"/>
       <c r="B452" s="7"/>
       <c r="C452" s="6"/>
@@ -4848,7 +4974,7 @@
       <c r="F452" s="6"/>
       <c r="G452" s="7"/>
     </row>
-    <row r="453" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="6"/>
       <c r="B453" s="7"/>
       <c r="C453" s="6"/>
@@ -4857,7 +4983,7 @@
       <c r="F453" s="6"/>
       <c r="G453" s="7"/>
     </row>
-    <row r="454" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="6"/>
       <c r="B454" s="7"/>
       <c r="C454" s="6"/>
@@ -4866,7 +4992,7 @@
       <c r="F454" s="6"/>
       <c r="G454" s="7"/>
     </row>
-    <row r="455" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="6"/>
       <c r="B455" s="7"/>
       <c r="C455" s="6"/>
@@ -4875,7 +5001,7 @@
       <c r="F455" s="6"/>
       <c r="G455" s="7"/>
     </row>
-    <row r="456" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="6"/>
       <c r="B456" s="7"/>
       <c r="C456" s="6"/>
@@ -4884,7 +5010,7 @@
       <c r="F456" s="6"/>
       <c r="G456" s="7"/>
     </row>
-    <row r="457" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="6"/>
       <c r="B457" s="7"/>
       <c r="C457" s="6"/>
@@ -4893,7 +5019,7 @@
       <c r="F457" s="6"/>
       <c r="G457" s="7"/>
     </row>
-    <row r="458" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="6"/>
       <c r="B458" s="7"/>
       <c r="C458" s="6"/>
@@ -4902,7 +5028,7 @@
       <c r="F458" s="6"/>
       <c r="G458" s="7"/>
     </row>
-    <row r="459" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="6"/>
       <c r="B459" s="7"/>
       <c r="C459" s="6"/>
@@ -4911,7 +5037,7 @@
       <c r="F459" s="6"/>
       <c r="G459" s="7"/>
     </row>
-    <row r="460" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="6"/>
       <c r="B460" s="7"/>
       <c r="C460" s="6"/>
@@ -4920,7 +5046,7 @@
       <c r="F460" s="6"/>
       <c r="G460" s="7"/>
     </row>
-    <row r="461" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="6"/>
       <c r="B461" s="7"/>
       <c r="C461" s="6"/>
@@ -4929,7 +5055,7 @@
       <c r="F461" s="6"/>
       <c r="G461" s="7"/>
     </row>
-    <row r="462" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="6"/>
       <c r="B462" s="7"/>
       <c r="C462" s="6"/>
@@ -4938,7 +5064,7 @@
       <c r="F462" s="6"/>
       <c r="G462" s="7"/>
     </row>
-    <row r="463" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="6"/>
       <c r="B463" s="7"/>
       <c r="C463" s="6"/>
@@ -4947,7 +5073,7 @@
       <c r="F463" s="6"/>
       <c r="G463" s="7"/>
     </row>
-    <row r="464" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="6"/>
       <c r="B464" s="7"/>
       <c r="C464" s="6"/>
@@ -4956,7 +5082,7 @@
       <c r="F464" s="6"/>
       <c r="G464" s="7"/>
     </row>
-    <row r="465" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="6"/>
       <c r="B465" s="7"/>
       <c r="C465" s="6"/>
@@ -4965,7 +5091,7 @@
       <c r="F465" s="6"/>
       <c r="G465" s="7"/>
     </row>
-    <row r="466" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="6"/>
       <c r="B466" s="7"/>
       <c r="C466" s="6"/>
@@ -4974,7 +5100,7 @@
       <c r="F466" s="6"/>
       <c r="G466" s="7"/>
     </row>
-    <row r="467" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="6"/>
       <c r="B467" s="7"/>
       <c r="C467" s="6"/>
@@ -4983,7 +5109,7 @@
       <c r="F467" s="6"/>
       <c r="G467" s="7"/>
     </row>
-    <row r="468" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="6"/>
       <c r="B468" s="7"/>
       <c r="C468" s="6"/>
@@ -4992,7 +5118,7 @@
       <c r="F468" s="6"/>
       <c r="G468" s="7"/>
     </row>
-    <row r="469" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="6"/>
       <c r="B469" s="7"/>
       <c r="C469" s="6"/>
@@ -5001,7 +5127,7 @@
       <c r="F469" s="6"/>
       <c r="G469" s="7"/>
     </row>
-    <row r="470" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="6"/>
       <c r="B470" s="7"/>
       <c r="C470" s="6"/>
@@ -5010,7 +5136,7 @@
       <c r="F470" s="6"/>
       <c r="G470" s="7"/>
     </row>
-    <row r="471" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="6"/>
       <c r="B471" s="7"/>
       <c r="C471" s="6"/>
@@ -5019,7 +5145,7 @@
       <c r="F471" s="6"/>
       <c r="G471" s="7"/>
     </row>
-    <row r="472" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="6"/>
       <c r="B472" s="7"/>
       <c r="C472" s="6"/>
@@ -5028,7 +5154,7 @@
       <c r="F472" s="6"/>
       <c r="G472" s="7"/>
     </row>
-    <row r="473" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="6"/>
       <c r="B473" s="7"/>
       <c r="C473" s="6"/>
@@ -5037,7 +5163,7 @@
       <c r="F473" s="6"/>
       <c r="G473" s="7"/>
     </row>
-    <row r="474" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="6"/>
       <c r="B474" s="7"/>
       <c r="C474" s="6"/>
@@ -5046,7 +5172,7 @@
       <c r="F474" s="6"/>
       <c r="G474" s="7"/>
     </row>
-    <row r="475" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="6"/>
       <c r="B475" s="7"/>
       <c r="C475" s="6"/>
@@ -5055,7 +5181,7 @@
       <c r="F475" s="6"/>
       <c r="G475" s="7"/>
     </row>
-    <row r="476" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="6"/>
       <c r="B476" s="7"/>
       <c r="C476" s="6"/>
@@ -5064,7 +5190,7 @@
       <c r="F476" s="6"/>
       <c r="G476" s="7"/>
     </row>
-    <row r="477" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="6"/>
       <c r="B477" s="7"/>
       <c r="C477" s="6"/>
@@ -5073,7 +5199,7 @@
       <c r="F477" s="6"/>
       <c r="G477" s="7"/>
     </row>
-    <row r="478" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="6"/>
       <c r="B478" s="7"/>
       <c r="C478" s="6"/>
@@ -5082,7 +5208,7 @@
       <c r="F478" s="6"/>
       <c r="G478" s="7"/>
     </row>
-    <row r="479" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="6"/>
       <c r="B479" s="7"/>
       <c r="C479" s="6"/>
@@ -5091,7 +5217,7 @@
       <c r="F479" s="6"/>
       <c r="G479" s="7"/>
     </row>
-    <row r="480" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="6"/>
       <c r="B480" s="7"/>
       <c r="C480" s="6"/>
@@ -5100,7 +5226,7 @@
       <c r="F480" s="6"/>
       <c r="G480" s="7"/>
     </row>
-    <row r="481" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="6"/>
       <c r="B481" s="7"/>
       <c r="C481" s="6"/>
@@ -5109,7 +5235,7 @@
       <c r="F481" s="6"/>
       <c r="G481" s="7"/>
     </row>
-    <row r="482" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="6"/>
       <c r="B482" s="7"/>
       <c r="C482" s="6"/>
@@ -5118,7 +5244,7 @@
       <c r="F482" s="6"/>
       <c r="G482" s="7"/>
     </row>
-    <row r="483" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="6"/>
       <c r="B483" s="7"/>
       <c r="C483" s="6"/>
@@ -5127,7 +5253,7 @@
       <c r="F483" s="6"/>
       <c r="G483" s="7"/>
     </row>
-    <row r="484" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="6"/>
       <c r="B484" s="7"/>
       <c r="C484" s="6"/>
@@ -5136,7 +5262,7 @@
       <c r="F484" s="6"/>
       <c r="G484" s="7"/>
     </row>
-    <row r="485" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="6"/>
       <c r="B485" s="7"/>
       <c r="C485" s="6"/>
@@ -5145,7 +5271,7 @@
       <c r="F485" s="6"/>
       <c r="G485" s="7"/>
     </row>
-    <row r="486" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="6"/>
       <c r="B486" s="7"/>
       <c r="C486" s="6"/>
@@ -5154,7 +5280,7 @@
       <c r="F486" s="6"/>
       <c r="G486" s="7"/>
     </row>
-    <row r="487" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="6"/>
       <c r="B487" s="7"/>
       <c r="C487" s="6"/>
@@ -5163,7 +5289,7 @@
       <c r="F487" s="6"/>
       <c r="G487" s="7"/>
     </row>
-    <row r="488" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="6"/>
       <c r="B488" s="7"/>
       <c r="C488" s="6"/>
@@ -5172,7 +5298,7 @@
       <c r="F488" s="6"/>
       <c r="G488" s="7"/>
     </row>
-    <row r="489" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="6"/>
       <c r="B489" s="7"/>
       <c r="C489" s="6"/>
@@ -5181,7 +5307,7 @@
       <c r="F489" s="6"/>
       <c r="G489" s="7"/>
     </row>
-    <row r="490" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="6"/>
       <c r="B490" s="7"/>
       <c r="C490" s="6"/>
@@ -5190,7 +5316,7 @@
       <c r="F490" s="6"/>
       <c r="G490" s="7"/>
     </row>
-    <row r="491" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="6"/>
       <c r="B491" s="7"/>
       <c r="C491" s="6"/>
@@ -5199,7 +5325,7 @@
       <c r="F491" s="6"/>
       <c r="G491" s="7"/>
     </row>
-    <row r="492" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="6"/>
       <c r="B492" s="7"/>
       <c r="C492" s="6"/>
@@ -5208,7 +5334,7 @@
       <c r="F492" s="6"/>
       <c r="G492" s="7"/>
     </row>
-    <row r="493" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="6"/>
       <c r="B493" s="7"/>
       <c r="C493" s="6"/>
@@ -5217,7 +5343,7 @@
       <c r="F493" s="6"/>
       <c r="G493" s="7"/>
     </row>
-    <row r="494" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="6"/>
       <c r="B494" s="7"/>
       <c r="C494" s="6"/>
@@ -5226,7 +5352,7 @@
       <c r="F494" s="6"/>
       <c r="G494" s="7"/>
     </row>
-    <row r="495" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="6"/>
       <c r="B495" s="7"/>
       <c r="C495" s="6"/>
@@ -5235,7 +5361,7 @@
       <c r="F495" s="6"/>
       <c r="G495" s="7"/>
     </row>
-    <row r="496" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="6"/>
       <c r="B496" s="7"/>
       <c r="C496" s="6"/>
@@ -5244,7 +5370,7 @@
       <c r="F496" s="6"/>
       <c r="G496" s="7"/>
     </row>
-    <row r="497" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="6"/>
       <c r="B497" s="7"/>
       <c r="C497" s="6"/>
@@ -5253,7 +5379,7 @@
       <c r="F497" s="6"/>
       <c r="G497" s="7"/>
     </row>
-    <row r="498" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="6"/>
       <c r="B498" s="7"/>
       <c r="C498" s="6"/>
@@ -5262,7 +5388,7 @@
       <c r="F498" s="6"/>
       <c r="G498" s="7"/>
     </row>
-    <row r="499" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="6"/>
       <c r="B499" s="7"/>
       <c r="C499" s="6"/>
@@ -5271,7 +5397,7 @@
       <c r="F499" s="6"/>
       <c r="G499" s="7"/>
     </row>
-    <row r="500" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="6"/>
       <c r="B500" s="7"/>
       <c r="C500" s="6"/>
@@ -5280,7 +5406,7 @@
       <c r="F500" s="6"/>
       <c r="G500" s="7"/>
     </row>
-    <row r="501" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="6"/>
       <c r="B501" s="7"/>
       <c r="C501" s="6"/>
@@ -5289,7 +5415,7 @@
       <c r="F501" s="6"/>
       <c r="G501" s="7"/>
     </row>
-    <row r="502" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="6"/>
       <c r="B502" s="7"/>
       <c r="C502" s="6"/>
@@ -5298,7 +5424,7 @@
       <c r="F502" s="6"/>
       <c r="G502" s="7"/>
     </row>
-    <row r="503" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="6"/>
       <c r="B503" s="7"/>
       <c r="C503" s="6"/>
@@ -5307,7 +5433,7 @@
       <c r="F503" s="6"/>
       <c r="G503" s="7"/>
     </row>
-    <row r="504" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="6"/>
       <c r="B504" s="7"/>
       <c r="C504" s="6"/>
@@ -5316,7 +5442,7 @@
       <c r="F504" s="6"/>
       <c r="G504" s="7"/>
     </row>
-    <row r="505" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="6"/>
       <c r="B505" s="7"/>
       <c r="C505" s="6"/>
@@ -5325,7 +5451,7 @@
       <c r="F505" s="6"/>
       <c r="G505" s="7"/>
     </row>
-    <row r="506" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="6"/>
       <c r="B506" s="7"/>
       <c r="C506" s="6"/>
@@ -5334,7 +5460,7 @@
       <c r="F506" s="6"/>
       <c r="G506" s="7"/>
     </row>
-    <row r="507" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="6"/>
       <c r="B507" s="7"/>
       <c r="C507" s="6"/>
@@ -5343,7 +5469,7 @@
       <c r="F507" s="6"/>
       <c r="G507" s="7"/>
     </row>
-    <row r="508" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="6"/>
       <c r="B508" s="7"/>
       <c r="C508" s="6"/>
@@ -5352,7 +5478,7 @@
       <c r="F508" s="6"/>
       <c r="G508" s="7"/>
     </row>
-    <row r="509" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="6"/>
       <c r="B509" s="7"/>
       <c r="C509" s="6"/>
@@ -5361,7 +5487,7 @@
       <c r="F509" s="6"/>
       <c r="G509" s="7"/>
     </row>
-    <row r="510" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="6"/>
       <c r="B510" s="7"/>
       <c r="C510" s="6"/>
@@ -5370,7 +5496,7 @@
       <c r="F510" s="6"/>
       <c r="G510" s="7"/>
     </row>
-    <row r="511" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="6"/>
       <c r="B511" s="7"/>
       <c r="C511" s="6"/>
@@ -5379,7 +5505,7 @@
       <c r="F511" s="6"/>
       <c r="G511" s="7"/>
     </row>
-    <row r="512" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="6"/>
       <c r="B512" s="7"/>
       <c r="C512" s="6"/>
@@ -5388,7 +5514,7 @@
       <c r="F512" s="6"/>
       <c r="G512" s="7"/>
     </row>
-    <row r="513" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="6"/>
       <c r="B513" s="7"/>
       <c r="C513" s="6"/>
@@ -5397,7 +5523,7 @@
       <c r="F513" s="6"/>
       <c r="G513" s="7"/>
     </row>
-    <row r="514" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="6"/>
       <c r="B514" s="7"/>
       <c r="C514" s="6"/>
@@ -5406,7 +5532,7 @@
       <c r="F514" s="6"/>
       <c r="G514" s="7"/>
     </row>
-    <row r="515" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="6"/>
       <c r="B515" s="7"/>
       <c r="C515" s="6"/>
@@ -5415,7 +5541,7 @@
       <c r="F515" s="6"/>
       <c r="G515" s="7"/>
     </row>
-    <row r="516" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="6"/>
       <c r="B516" s="7"/>
       <c r="C516" s="6"/>
@@ -5424,7 +5550,7 @@
       <c r="F516" s="6"/>
       <c r="G516" s="7"/>
     </row>
-    <row r="517" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="6"/>
       <c r="B517" s="7"/>
       <c r="C517" s="6"/>
@@ -5433,7 +5559,7 @@
       <c r="F517" s="6"/>
       <c r="G517" s="7"/>
     </row>
-    <row r="518" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="6"/>
       <c r="B518" s="7"/>
       <c r="C518" s="6"/>
@@ -5442,7 +5568,7 @@
       <c r="F518" s="6"/>
       <c r="G518" s="7"/>
     </row>
-    <row r="519" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="6"/>
       <c r="B519" s="7"/>
       <c r="C519" s="6"/>
@@ -5451,7 +5577,7 @@
       <c r="F519" s="6"/>
       <c r="G519" s="7"/>
     </row>
-    <row r="520" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="6"/>
       <c r="B520" s="7"/>
       <c r="C520" s="6"/>
@@ -5460,7 +5586,7 @@
       <c r="F520" s="6"/>
       <c r="G520" s="7"/>
     </row>
-    <row r="521" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="6"/>
       <c r="B521" s="7"/>
       <c r="C521" s="6"/>
@@ -5469,7 +5595,7 @@
       <c r="F521" s="6"/>
       <c r="G521" s="7"/>
     </row>
-    <row r="522" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="6"/>
       <c r="B522" s="7"/>
       <c r="C522" s="6"/>
@@ -5478,7 +5604,7 @@
       <c r="F522" s="6"/>
       <c r="G522" s="7"/>
     </row>
-    <row r="523" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="6"/>
       <c r="B523" s="7"/>
       <c r="C523" s="6"/>
@@ -5487,7 +5613,7 @@
       <c r="F523" s="6"/>
       <c r="G523" s="7"/>
     </row>
-    <row r="524" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="6"/>
       <c r="B524" s="7"/>
       <c r="C524" s="6"/>
@@ -5496,7 +5622,7 @@
       <c r="F524" s="6"/>
       <c r="G524" s="7"/>
     </row>
-    <row r="525" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="6"/>
       <c r="B525" s="7"/>
       <c r="C525" s="6"/>
@@ -5505,7 +5631,7 @@
       <c r="F525" s="6"/>
       <c r="G525" s="7"/>
     </row>
-    <row r="526" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="6"/>
       <c r="B526" s="7"/>
       <c r="C526" s="6"/>
@@ -5514,7 +5640,7 @@
       <c r="F526" s="6"/>
       <c r="G526" s="7"/>
     </row>
-    <row r="527" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="6"/>
       <c r="B527" s="7"/>
       <c r="C527" s="6"/>
@@ -5523,7 +5649,7 @@
       <c r="F527" s="6"/>
       <c r="G527" s="7"/>
     </row>
-    <row r="528" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="6"/>
       <c r="B528" s="7"/>
       <c r="C528" s="6"/>
@@ -5532,7 +5658,7 @@
       <c r="F528" s="6"/>
       <c r="G528" s="7"/>
     </row>
-    <row r="529" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="6"/>
       <c r="B529" s="7"/>
       <c r="C529" s="6"/>
@@ -5541,7 +5667,7 @@
       <c r="F529" s="6"/>
       <c r="G529" s="7"/>
     </row>
-    <row r="530" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="6"/>
       <c r="B530" s="7"/>
       <c r="C530" s="6"/>
@@ -5550,7 +5676,7 @@
       <c r="F530" s="6"/>
       <c r="G530" s="7"/>
     </row>
-    <row r="531" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="6"/>
       <c r="B531" s="7"/>
       <c r="C531" s="6"/>
@@ -5559,7 +5685,7 @@
       <c r="F531" s="6"/>
       <c r="G531" s="7"/>
     </row>
-    <row r="532" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="6"/>
       <c r="B532" s="7"/>
       <c r="C532" s="6"/>
@@ -5568,7 +5694,7 @@
       <c r="F532" s="6"/>
       <c r="G532" s="7"/>
     </row>
-    <row r="533" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="6"/>
       <c r="B533" s="7"/>
       <c r="C533" s="6"/>
@@ -5577,7 +5703,7 @@
       <c r="F533" s="6"/>
       <c r="G533" s="7"/>
     </row>
-    <row r="534" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="6"/>
       <c r="B534" s="7"/>
       <c r="C534" s="6"/>
@@ -5586,7 +5712,7 @@
       <c r="F534" s="6"/>
       <c r="G534" s="7"/>
     </row>
-    <row r="535" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="6"/>
       <c r="B535" s="7"/>
       <c r="C535" s="6"/>
@@ -5595,7 +5721,7 @@
       <c r="F535" s="6"/>
       <c r="G535" s="7"/>
     </row>
-    <row r="536" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="6"/>
       <c r="B536" s="7"/>
       <c r="C536" s="6"/>
@@ -5604,7 +5730,7 @@
       <c r="F536" s="6"/>
       <c r="G536" s="7"/>
     </row>
-    <row r="537" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="6"/>
       <c r="B537" s="7"/>
       <c r="C537" s="6"/>
@@ -5613,7 +5739,7 @@
       <c r="F537" s="6"/>
       <c r="G537" s="7"/>
     </row>
-    <row r="538" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="6"/>
       <c r="B538" s="7"/>
       <c r="C538" s="6"/>
@@ -5622,7 +5748,7 @@
       <c r="F538" s="6"/>
       <c r="G538" s="7"/>
     </row>
-    <row r="539" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="6"/>
       <c r="B539" s="7"/>
       <c r="C539" s="6"/>
@@ -5631,7 +5757,7 @@
       <c r="F539" s="6"/>
       <c r="G539" s="7"/>
     </row>
-    <row r="540" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="6"/>
       <c r="B540" s="7"/>
       <c r="C540" s="6"/>
@@ -5640,7 +5766,7 @@
       <c r="F540" s="6"/>
       <c r="G540" s="7"/>
     </row>
-    <row r="541" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="6"/>
       <c r="B541" s="7"/>
       <c r="C541" s="6"/>
@@ -5649,7 +5775,7 @@
       <c r="F541" s="6"/>
       <c r="G541" s="7"/>
     </row>
-    <row r="542" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="6"/>
       <c r="B542" s="7"/>
       <c r="C542" s="6"/>
@@ -5658,7 +5784,7 @@
       <c r="F542" s="6"/>
       <c r="G542" s="7"/>
     </row>
-    <row r="543" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="6"/>
       <c r="B543" s="7"/>
       <c r="C543" s="6"/>
@@ -5667,7 +5793,7 @@
       <c r="F543" s="6"/>
       <c r="G543" s="7"/>
     </row>
-    <row r="544" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="6"/>
       <c r="B544" s="7"/>
       <c r="C544" s="6"/>
@@ -5676,7 +5802,7 @@
       <c r="F544" s="6"/>
       <c r="G544" s="7"/>
     </row>
-    <row r="545" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="6"/>
       <c r="B545" s="7"/>
       <c r="C545" s="6"/>
@@ -5685,7 +5811,7 @@
       <c r="F545" s="6"/>
       <c r="G545" s="7"/>
     </row>
-    <row r="546" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="6"/>
       <c r="B546" s="7"/>
       <c r="C546" s="6"/>
@@ -5694,7 +5820,7 @@
       <c r="F546" s="6"/>
       <c r="G546" s="7"/>
     </row>
-    <row r="547" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="6"/>
       <c r="B547" s="7"/>
       <c r="C547" s="6"/>
@@ -5703,7 +5829,7 @@
       <c r="F547" s="6"/>
       <c r="G547" s="7"/>
     </row>
-    <row r="548" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="6"/>
       <c r="B548" s="7"/>
       <c r="C548" s="6"/>
@@ -5712,7 +5838,7 @@
       <c r="F548" s="6"/>
       <c r="G548" s="7"/>
     </row>
-    <row r="549" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="6"/>
       <c r="B549" s="7"/>
       <c r="C549" s="6"/>
@@ -5721,7 +5847,7 @@
       <c r="F549" s="6"/>
       <c r="G549" s="7"/>
     </row>
-    <row r="550" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="6"/>
       <c r="B550" s="7"/>
       <c r="C550" s="6"/>
@@ -5730,7 +5856,7 @@
       <c r="F550" s="6"/>
       <c r="G550" s="7"/>
     </row>
-    <row r="551" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="6"/>
       <c r="B551" s="7"/>
       <c r="C551" s="6"/>
@@ -5739,7 +5865,7 @@
       <c r="F551" s="6"/>
       <c r="G551" s="7"/>
     </row>
-    <row r="552" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="6"/>
       <c r="B552" s="7"/>
       <c r="C552" s="6"/>
@@ -5748,7 +5874,7 @@
       <c r="F552" s="6"/>
       <c r="G552" s="7"/>
     </row>
-    <row r="553" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="6"/>
       <c r="B553" s="7"/>
       <c r="C553" s="6"/>
@@ -5757,7 +5883,7 @@
       <c r="F553" s="6"/>
       <c r="G553" s="7"/>
     </row>
-    <row r="554" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="6"/>
       <c r="B554" s="7"/>
       <c r="C554" s="6"/>
@@ -5766,7 +5892,7 @@
       <c r="F554" s="6"/>
       <c r="G554" s="7"/>
     </row>
-    <row r="555" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="6"/>
       <c r="B555" s="7"/>
       <c r="C555" s="6"/>
@@ -5775,7 +5901,7 @@
       <c r="F555" s="6"/>
       <c r="G555" s="7"/>
     </row>
-    <row r="556" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="6"/>
       <c r="B556" s="7"/>
       <c r="C556" s="6"/>
@@ -5784,7 +5910,7 @@
       <c r="F556" s="6"/>
       <c r="G556" s="7"/>
     </row>
-    <row r="557" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="6"/>
       <c r="B557" s="7"/>
       <c r="C557" s="6"/>
@@ -5793,7 +5919,7 @@
       <c r="F557" s="6"/>
       <c r="G557" s="7"/>
     </row>
-    <row r="558" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="6"/>
       <c r="B558" s="7"/>
       <c r="C558" s="6"/>
@@ -5802,7 +5928,7 @@
       <c r="F558" s="6"/>
       <c r="G558" s="7"/>
     </row>
-    <row r="559" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="6"/>
       <c r="B559" s="7"/>
       <c r="C559" s="6"/>
@@ -5811,7 +5937,7 @@
       <c r="F559" s="6"/>
       <c r="G559" s="7"/>
     </row>
-    <row r="560" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="6"/>
       <c r="B560" s="7"/>
       <c r="C560" s="6"/>
@@ -5820,7 +5946,7 @@
       <c r="F560" s="6"/>
       <c r="G560" s="7"/>
     </row>
-    <row r="561" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="6"/>
       <c r="B561" s="7"/>
       <c r="C561" s="6"/>
@@ -5829,7 +5955,7 @@
       <c r="F561" s="6"/>
       <c r="G561" s="7"/>
     </row>
-    <row r="562" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="6"/>
       <c r="B562" s="7"/>
       <c r="C562" s="6"/>
@@ -5838,7 +5964,7 @@
       <c r="F562" s="6"/>
       <c r="G562" s="7"/>
     </row>
-    <row r="563" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="6"/>
       <c r="B563" s="7"/>
       <c r="C563" s="6"/>
@@ -5847,7 +5973,7 @@
       <c r="F563" s="6"/>
       <c r="G563" s="7"/>
     </row>
-    <row r="564" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="6"/>
       <c r="B564" s="7"/>
       <c r="C564" s="6"/>
@@ -5856,7 +5982,7 @@
       <c r="F564" s="6"/>
       <c r="G564" s="7"/>
     </row>
-    <row r="565" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="6"/>
       <c r="B565" s="7"/>
       <c r="C565" s="6"/>
@@ -5865,7 +5991,7 @@
       <c r="F565" s="6"/>
       <c r="G565" s="7"/>
     </row>
-    <row r="566" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="6"/>
       <c r="B566" s="7"/>
       <c r="C566" s="6"/>
@@ -5874,7 +6000,7 @@
       <c r="F566" s="6"/>
       <c r="G566" s="7"/>
     </row>
-    <row r="567" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="6"/>
       <c r="B567" s="7"/>
       <c r="C567" s="6"/>
@@ -5883,7 +6009,7 @@
       <c r="F567" s="6"/>
       <c r="G567" s="7"/>
     </row>
-    <row r="568" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="6"/>
       <c r="B568" s="7"/>
       <c r="C568" s="6"/>
@@ -5892,7 +6018,7 @@
       <c r="F568" s="6"/>
       <c r="G568" s="7"/>
     </row>
-    <row r="569" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="6"/>
       <c r="B569" s="7"/>
       <c r="C569" s="6"/>
@@ -5901,7 +6027,7 @@
       <c r="F569" s="6"/>
       <c r="G569" s="7"/>
     </row>
-    <row r="570" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="6"/>
       <c r="B570" s="7"/>
       <c r="C570" s="6"/>
@@ -5910,7 +6036,7 @@
       <c r="F570" s="6"/>
       <c r="G570" s="7"/>
     </row>
-    <row r="571" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="6"/>
       <c r="B571" s="7"/>
       <c r="C571" s="6"/>
@@ -5919,7 +6045,7 @@
       <c r="F571" s="6"/>
       <c r="G571" s="7"/>
     </row>
-    <row r="572" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="6"/>
       <c r="B572" s="7"/>
       <c r="C572" s="6"/>
@@ -5928,7 +6054,7 @@
       <c r="F572" s="6"/>
       <c r="G572" s="7"/>
     </row>
-    <row r="573" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="6"/>
       <c r="B573" s="7"/>
       <c r="C573" s="6"/>
@@ -5937,7 +6063,7 @@
       <c r="F573" s="6"/>
       <c r="G573" s="7"/>
     </row>
-    <row r="574" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="6"/>
       <c r="B574" s="7"/>
       <c r="C574" s="6"/>
@@ -5946,7 +6072,7 @@
       <c r="F574" s="6"/>
       <c r="G574" s="7"/>
     </row>
-    <row r="575" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="6"/>
       <c r="B575" s="7"/>
       <c r="C575" s="6"/>
@@ -5955,7 +6081,7 @@
       <c r="F575" s="6"/>
       <c r="G575" s="7"/>
     </row>
-    <row r="576" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="6"/>
       <c r="B576" s="7"/>
       <c r="C576" s="6"/>
@@ -5964,7 +6090,7 @@
       <c r="F576" s="6"/>
       <c r="G576" s="7"/>
     </row>
-    <row r="577" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="6"/>
       <c r="B577" s="7"/>
       <c r="C577" s="6"/>
@@ -5973,7 +6099,7 @@
       <c r="F577" s="6"/>
       <c r="G577" s="7"/>
     </row>
-    <row r="578" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="6"/>
       <c r="B578" s="7"/>
       <c r="C578" s="6"/>
@@ -5982,7 +6108,7 @@
       <c r="F578" s="6"/>
       <c r="G578" s="7"/>
     </row>
-    <row r="579" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="6"/>
       <c r="B579" s="7"/>
       <c r="C579" s="6"/>
@@ -5991,7 +6117,7 @@
       <c r="F579" s="6"/>
       <c r="G579" s="7"/>
     </row>
-    <row r="580" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="6"/>
       <c r="B580" s="7"/>
       <c r="C580" s="6"/>
@@ -6000,7 +6126,7 @@
       <c r="F580" s="6"/>
       <c r="G580" s="7"/>
     </row>
-    <row r="581" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="6"/>
       <c r="B581" s="7"/>
       <c r="C581" s="6"/>
@@ -6009,7 +6135,7 @@
       <c r="F581" s="6"/>
       <c r="G581" s="7"/>
     </row>
-    <row r="582" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="6"/>
       <c r="B582" s="7"/>
       <c r="C582" s="6"/>
@@ -6018,7 +6144,7 @@
       <c r="F582" s="6"/>
       <c r="G582" s="7"/>
     </row>
-    <row r="583" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="6"/>
       <c r="B583" s="7"/>
       <c r="C583" s="6"/>
@@ -6027,7 +6153,7 @@
       <c r="F583" s="6"/>
       <c r="G583" s="7"/>
     </row>
-    <row r="584" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="6"/>
       <c r="B584" s="7"/>
       <c r="C584" s="6"/>
@@ -6036,7 +6162,7 @@
       <c r="F584" s="6"/>
       <c r="G584" s="7"/>
     </row>
-    <row r="585" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="6"/>
       <c r="B585" s="7"/>
       <c r="C585" s="6"/>
@@ -6045,7 +6171,7 @@
       <c r="F585" s="6"/>
       <c r="G585" s="7"/>
     </row>
-    <row r="586" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="6"/>
       <c r="B586" s="7"/>
       <c r="C586" s="6"/>
@@ -6054,7 +6180,7 @@
       <c r="F586" s="6"/>
       <c r="G586" s="7"/>
     </row>
-    <row r="587" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="6"/>
       <c r="B587" s="7"/>
       <c r="C587" s="6"/>
@@ -6063,7 +6189,7 @@
       <c r="F587" s="6"/>
       <c r="G587" s="7"/>
     </row>
-    <row r="588" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="6"/>
       <c r="B588" s="7"/>
       <c r="C588" s="6"/>
@@ -6072,7 +6198,7 @@
       <c r="F588" s="6"/>
       <c r="G588" s="7"/>
     </row>
-    <row r="589" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="6"/>
       <c r="B589" s="7"/>
       <c r="C589" s="6"/>
@@ -6081,7 +6207,7 @@
       <c r="F589" s="6"/>
       <c r="G589" s="7"/>
     </row>
-    <row r="590" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="6"/>
       <c r="B590" s="7"/>
       <c r="C590" s="6"/>
@@ -6090,7 +6216,7 @@
       <c r="F590" s="6"/>
       <c r="G590" s="7"/>
     </row>
-    <row r="591" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="6"/>
       <c r="B591" s="7"/>
       <c r="C591" s="6"/>
@@ -6099,7 +6225,7 @@
       <c r="F591" s="6"/>
       <c r="G591" s="7"/>
     </row>
-    <row r="592" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="6"/>
       <c r="B592" s="7"/>
       <c r="C592" s="6"/>
@@ -6108,7 +6234,7 @@
       <c r="F592" s="6"/>
       <c r="G592" s="7"/>
     </row>
-    <row r="593" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="6"/>
       <c r="B593" s="7"/>
       <c r="C593" s="6"/>
@@ -6117,7 +6243,7 @@
       <c r="F593" s="6"/>
       <c r="G593" s="7"/>
     </row>
-    <row r="594" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="6"/>
       <c r="B594" s="7"/>
       <c r="C594" s="6"/>
@@ -6126,7 +6252,7 @@
       <c r="F594" s="6"/>
       <c r="G594" s="7"/>
     </row>
-    <row r="595" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="6"/>
       <c r="B595" s="7"/>
       <c r="C595" s="6"/>
@@ -6135,7 +6261,7 @@
       <c r="F595" s="6"/>
       <c r="G595" s="7"/>
     </row>
-    <row r="596" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="6"/>
       <c r="B596" s="7"/>
       <c r="C596" s="6"/>
@@ -6144,7 +6270,7 @@
       <c r="F596" s="6"/>
       <c r="G596" s="7"/>
     </row>
-    <row r="597" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="6"/>
       <c r="B597" s="7"/>
       <c r="C597" s="6"/>
@@ -6153,7 +6279,7 @@
       <c r="F597" s="6"/>
       <c r="G597" s="7"/>
     </row>
-    <row r="598" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="6"/>
       <c r="B598" s="7"/>
       <c r="C598" s="6"/>
@@ -6162,7 +6288,7 @@
       <c r="F598" s="6"/>
       <c r="G598" s="7"/>
     </row>
-    <row r="599" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="6"/>
       <c r="B599" s="7"/>
       <c r="C599" s="6"/>
@@ -6171,7 +6297,7 @@
       <c r="F599" s="6"/>
       <c r="G599" s="7"/>
     </row>
-    <row r="600" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="6"/>
       <c r="B600" s="7"/>
       <c r="C600" s="6"/>
@@ -6180,7 +6306,7 @@
       <c r="F600" s="6"/>
       <c r="G600" s="7"/>
     </row>
-    <row r="601" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="6"/>
       <c r="B601" s="7"/>
       <c r="C601" s="6"/>
@@ -6189,7 +6315,7 @@
       <c r="F601" s="6"/>
       <c r="G601" s="7"/>
     </row>
-    <row r="602" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="6"/>
       <c r="B602" s="7"/>
       <c r="C602" s="6"/>
@@ -6198,7 +6324,7 @@
       <c r="F602" s="6"/>
       <c r="G602" s="7"/>
     </row>
-    <row r="603" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="6"/>
       <c r="B603" s="7"/>
       <c r="C603" s="6"/>
@@ -6207,7 +6333,7 @@
       <c r="F603" s="6"/>
       <c r="G603" s="7"/>
     </row>
-    <row r="604" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="6"/>
       <c r="B604" s="7"/>
       <c r="C604" s="6"/>
@@ -6216,7 +6342,7 @@
       <c r="F604" s="6"/>
       <c r="G604" s="7"/>
     </row>
-    <row r="605" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="6"/>
       <c r="B605" s="7"/>
       <c r="C605" s="6"/>
@@ -6225,7 +6351,7 @@
       <c r="F605" s="6"/>
       <c r="G605" s="7"/>
     </row>
-    <row r="606" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="6"/>
       <c r="B606" s="7"/>
       <c r="C606" s="6"/>
@@ -6234,7 +6360,7 @@
       <c r="F606" s="6"/>
       <c r="G606" s="7"/>
     </row>
-    <row r="607" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="6"/>
       <c r="B607" s="7"/>
       <c r="C607" s="6"/>
@@ -6243,7 +6369,7 @@
       <c r="F607" s="6"/>
       <c r="G607" s="7"/>
     </row>
-    <row r="608" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="6"/>
       <c r="B608" s="7"/>
       <c r="C608" s="6"/>
@@ -6252,7 +6378,7 @@
       <c r="F608" s="6"/>
       <c r="G608" s="7"/>
     </row>
-    <row r="609" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="6"/>
       <c r="B609" s="7"/>
       <c r="C609" s="6"/>
@@ -6261,7 +6387,7 @@
       <c r="F609" s="6"/>
       <c r="G609" s="7"/>
     </row>
-    <row r="610" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="6"/>
       <c r="B610" s="7"/>
       <c r="C610" s="6"/>
@@ -6270,7 +6396,7 @@
       <c r="F610" s="6"/>
       <c r="G610" s="7"/>
     </row>
-    <row r="611" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="6"/>
       <c r="B611" s="7"/>
       <c r="C611" s="6"/>
@@ -6279,7 +6405,7 @@
       <c r="F611" s="6"/>
       <c r="G611" s="7"/>
     </row>
-    <row r="612" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="6"/>
       <c r="B612" s="7"/>
       <c r="C612" s="6"/>
@@ -6288,7 +6414,7 @@
       <c r="F612" s="6"/>
       <c r="G612" s="7"/>
     </row>
-    <row r="613" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="6"/>
       <c r="B613" s="7"/>
       <c r="C613" s="6"/>
@@ -6297,7 +6423,7 @@
       <c r="F613" s="6"/>
       <c r="G613" s="7"/>
     </row>
-    <row r="614" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="6"/>
       <c r="B614" s="7"/>
       <c r="C614" s="6"/>
@@ -6306,7 +6432,7 @@
       <c r="F614" s="6"/>
       <c r="G614" s="7"/>
     </row>
-    <row r="615" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="6"/>
       <c r="B615" s="7"/>
       <c r="C615" s="6"/>
@@ -6315,7 +6441,7 @@
       <c r="F615" s="6"/>
       <c r="G615" s="7"/>
     </row>
-    <row r="616" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="6"/>
       <c r="B616" s="7"/>
       <c r="C616" s="6"/>
@@ -6324,7 +6450,7 @@
       <c r="F616" s="6"/>
       <c r="G616" s="7"/>
     </row>
-    <row r="617" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="6"/>
       <c r="B617" s="7"/>
       <c r="C617" s="6"/>
@@ -6333,7 +6459,7 @@
       <c r="F617" s="6"/>
       <c r="G617" s="7"/>
     </row>
-    <row r="618" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="6"/>
       <c r="B618" s="7"/>
       <c r="C618" s="6"/>
@@ -6342,7 +6468,7 @@
       <c r="F618" s="6"/>
       <c r="G618" s="7"/>
     </row>
-    <row r="619" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="6"/>
       <c r="B619" s="7"/>
       <c r="C619" s="6"/>
@@ -6351,7 +6477,7 @@
       <c r="F619" s="6"/>
       <c r="G619" s="7"/>
     </row>
-    <row r="620" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="6"/>
       <c r="B620" s="7"/>
       <c r="C620" s="6"/>
@@ -6360,7 +6486,7 @@
       <c r="F620" s="6"/>
       <c r="G620" s="7"/>
     </row>
-    <row r="621" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="6"/>
       <c r="B621" s="7"/>
       <c r="C621" s="6"/>
@@ -6369,7 +6495,7 @@
       <c r="F621" s="6"/>
       <c r="G621" s="7"/>
     </row>
-    <row r="622" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="6"/>
       <c r="B622" s="7"/>
       <c r="C622" s="6"/>
@@ -6378,7 +6504,7 @@
       <c r="F622" s="6"/>
       <c r="G622" s="7"/>
     </row>
-    <row r="623" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="6"/>
       <c r="B623" s="7"/>
       <c r="C623" s="6"/>
@@ -6387,7 +6513,7 @@
       <c r="F623" s="6"/>
       <c r="G623" s="7"/>
     </row>
-    <row r="624" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="6"/>
       <c r="B624" s="7"/>
       <c r="C624" s="6"/>
@@ -6396,7 +6522,7 @@
       <c r="F624" s="6"/>
       <c r="G624" s="7"/>
     </row>
-    <row r="625" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="6"/>
       <c r="B625" s="7"/>
       <c r="C625" s="6"/>
@@ -6405,7 +6531,7 @@
       <c r="F625" s="6"/>
       <c r="G625" s="7"/>
     </row>
-    <row r="626" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="6"/>
       <c r="B626" s="7"/>
       <c r="C626" s="6"/>
@@ -6414,7 +6540,7 @@
       <c r="F626" s="6"/>
       <c r="G626" s="7"/>
     </row>
-    <row r="627" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="6"/>
       <c r="B627" s="7"/>
       <c r="C627" s="6"/>
@@ -6423,7 +6549,7 @@
       <c r="F627" s="6"/>
       <c r="G627" s="7"/>
     </row>
-    <row r="628" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="6"/>
       <c r="B628" s="7"/>
       <c r="C628" s="6"/>
@@ -6432,7 +6558,7 @@
       <c r="F628" s="6"/>
       <c r="G628" s="7"/>
     </row>
-    <row r="629" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="6"/>
       <c r="B629" s="7"/>
       <c r="C629" s="6"/>
@@ -6441,7 +6567,7 @@
       <c r="F629" s="6"/>
       <c r="G629" s="7"/>
     </row>
-    <row r="630" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="6"/>
       <c r="B630" s="7"/>
       <c r="C630" s="6"/>
@@ -6450,7 +6576,7 @@
       <c r="F630" s="6"/>
       <c r="G630" s="7"/>
     </row>
-    <row r="631" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="6"/>
       <c r="B631" s="7"/>
       <c r="C631" s="6"/>
@@ -6459,7 +6585,7 @@
       <c r="F631" s="6"/>
       <c r="G631" s="7"/>
     </row>
-    <row r="632" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="6"/>
       <c r="B632" s="7"/>
       <c r="C632" s="6"/>
@@ -6468,7 +6594,7 @@
       <c r="F632" s="6"/>
       <c r="G632" s="7"/>
     </row>
-    <row r="633" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="6"/>
       <c r="B633" s="7"/>
       <c r="C633" s="6"/>
@@ -6477,7 +6603,7 @@
       <c r="F633" s="6"/>
       <c r="G633" s="7"/>
     </row>
-    <row r="634" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="6"/>
       <c r="B634" s="7"/>
       <c r="C634" s="6"/>
@@ -6486,7 +6612,7 @@
       <c r="F634" s="6"/>
       <c r="G634" s="7"/>
     </row>
-    <row r="635" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="6"/>
       <c r="B635" s="7"/>
       <c r="C635" s="6"/>
@@ -6495,7 +6621,7 @@
       <c r="F635" s="6"/>
       <c r="G635" s="7"/>
     </row>
-    <row r="636" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="6"/>
       <c r="B636" s="7"/>
       <c r="C636" s="6"/>
@@ -6504,7 +6630,7 @@
       <c r="F636" s="6"/>
       <c r="G636" s="7"/>
     </row>
-    <row r="637" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="6"/>
       <c r="B637" s="7"/>
       <c r="C637" s="6"/>
@@ -6513,7 +6639,7 @@
       <c r="F637" s="6"/>
       <c r="G637" s="7"/>
     </row>
-    <row r="638" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="6"/>
       <c r="B638" s="7"/>
       <c r="C638" s="6"/>
@@ -6522,7 +6648,7 @@
       <c r="F638" s="6"/>
       <c r="G638" s="7"/>
     </row>
-    <row r="639" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="6"/>
       <c r="B639" s="7"/>
       <c r="C639" s="6"/>
@@ -6531,7 +6657,7 @@
       <c r="F639" s="6"/>
       <c r="G639" s="7"/>
     </row>
-    <row r="640" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="6"/>
       <c r="B640" s="7"/>
       <c r="C640" s="6"/>
@@ -6540,7 +6666,7 @@
       <c r="F640" s="6"/>
       <c r="G640" s="7"/>
     </row>
-    <row r="641" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="6"/>
       <c r="B641" s="7"/>
       <c r="C641" s="6"/>
@@ -6549,7 +6675,7 @@
       <c r="F641" s="6"/>
       <c r="G641" s="7"/>
     </row>
-    <row r="642" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="6"/>
       <c r="B642" s="7"/>
       <c r="C642" s="6"/>
@@ -6558,7 +6684,7 @@
       <c r="F642" s="6"/>
       <c r="G642" s="7"/>
     </row>
-    <row r="643" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="6"/>
       <c r="B643" s="7"/>
       <c r="C643" s="6"/>
@@ -6567,7 +6693,7 @@
       <c r="F643" s="6"/>
       <c r="G643" s="7"/>
     </row>
-    <row r="644" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="6"/>
       <c r="B644" s="7"/>
       <c r="C644" s="6"/>
@@ -6576,7 +6702,7 @@
       <c r="F644" s="6"/>
       <c r="G644" s="7"/>
     </row>
-    <row r="645" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="6"/>
       <c r="B645" s="7"/>
       <c r="C645" s="6"/>
@@ -6585,7 +6711,7 @@
       <c r="F645" s="6"/>
       <c r="G645" s="7"/>
     </row>
-    <row r="646" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="6"/>
       <c r="B646" s="7"/>
       <c r="C646" s="6"/>
@@ -6594,7 +6720,7 @@
       <c r="F646" s="6"/>
       <c r="G646" s="7"/>
     </row>
-    <row r="647" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="6"/>
       <c r="B647" s="7"/>
       <c r="C647" s="6"/>
@@ -6603,7 +6729,7 @@
       <c r="F647" s="6"/>
       <c r="G647" s="7"/>
     </row>
-    <row r="648" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="6"/>
       <c r="B648" s="7"/>
       <c r="C648" s="6"/>
@@ -6612,7 +6738,7 @@
       <c r="F648" s="6"/>
       <c r="G648" s="7"/>
     </row>
-    <row r="649" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="6"/>
       <c r="B649" s="7"/>
       <c r="C649" s="6"/>
@@ -6621,7 +6747,7 @@
       <c r="F649" s="6"/>
       <c r="G649" s="7"/>
     </row>
-    <row r="650" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="6"/>
       <c r="B650" s="7"/>
       <c r="C650" s="6"/>
@@ -6630,7 +6756,7 @@
       <c r="F650" s="6"/>
       <c r="G650" s="7"/>
     </row>
-    <row r="651" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="6"/>
       <c r="B651" s="7"/>
       <c r="C651" s="6"/>
@@ -6639,7 +6765,7 @@
       <c r="F651" s="6"/>
       <c r="G651" s="7"/>
     </row>
-    <row r="652" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="6"/>
       <c r="B652" s="7"/>
       <c r="C652" s="6"/>
@@ -6648,7 +6774,7 @@
       <c r="F652" s="6"/>
       <c r="G652" s="7"/>
     </row>
-    <row r="653" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="6"/>
       <c r="B653" s="7"/>
       <c r="C653" s="6"/>
@@ -6657,7 +6783,7 @@
       <c r="F653" s="6"/>
       <c r="G653" s="7"/>
     </row>
-    <row r="654" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="6"/>
       <c r="B654" s="7"/>
       <c r="C654" s="6"/>
@@ -6666,7 +6792,7 @@
       <c r="F654" s="6"/>
       <c r="G654" s="7"/>
     </row>
-    <row r="655" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="6"/>
       <c r="B655" s="7"/>
       <c r="C655" s="6"/>
@@ -6675,7 +6801,7 @@
       <c r="F655" s="6"/>
       <c r="G655" s="7"/>
     </row>
-    <row r="656" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="6"/>
       <c r="B656" s="7"/>
       <c r="C656" s="6"/>
@@ -6684,7 +6810,7 @@
       <c r="F656" s="6"/>
       <c r="G656" s="7"/>
     </row>
-    <row r="657" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="6"/>
       <c r="B657" s="7"/>
       <c r="C657" s="6"/>
@@ -6693,7 +6819,7 @@
       <c r="F657" s="6"/>
       <c r="G657" s="7"/>
     </row>
-    <row r="658" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="6"/>
       <c r="B658" s="7"/>
       <c r="C658" s="6"/>
@@ -6702,7 +6828,7 @@
       <c r="F658" s="6"/>
       <c r="G658" s="7"/>
     </row>
-    <row r="659" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="6"/>
       <c r="B659" s="7"/>
       <c r="C659" s="6"/>
@@ -6711,7 +6837,7 @@
       <c r="F659" s="6"/>
       <c r="G659" s="7"/>
     </row>
-    <row r="660" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="6"/>
       <c r="B660" s="7"/>
       <c r="C660" s="6"/>
@@ -6720,7 +6846,7 @@
       <c r="F660" s="6"/>
       <c r="G660" s="7"/>
     </row>
-    <row r="661" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="6"/>
       <c r="B661" s="7"/>
       <c r="C661" s="6"/>
@@ -6729,7 +6855,7 @@
       <c r="F661" s="6"/>
       <c r="G661" s="7"/>
     </row>
-    <row r="662" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="6"/>
       <c r="B662" s="7"/>
       <c r="C662" s="6"/>
@@ -6738,7 +6864,7 @@
       <c r="F662" s="6"/>
       <c r="G662" s="7"/>
     </row>
-    <row r="663" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="6"/>
       <c r="B663" s="7"/>
       <c r="C663" s="6"/>
@@ -6747,7 +6873,7 @@
       <c r="F663" s="6"/>
       <c r="G663" s="7"/>
     </row>
-    <row r="664" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="6"/>
       <c r="B664" s="7"/>
       <c r="C664" s="6"/>
@@ -6756,7 +6882,7 @@
       <c r="F664" s="6"/>
       <c r="G664" s="7"/>
     </row>
-    <row r="665" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="6"/>
       <c r="B665" s="7"/>
       <c r="C665" s="6"/>
@@ -6765,7 +6891,7 @@
       <c r="F665" s="6"/>
       <c r="G665" s="7"/>
     </row>
-    <row r="666" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="6"/>
       <c r="B666" s="7"/>
       <c r="C666" s="6"/>
@@ -6774,7 +6900,7 @@
       <c r="F666" s="6"/>
       <c r="G666" s="7"/>
     </row>
-    <row r="667" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="6"/>
       <c r="B667" s="7"/>
       <c r="C667" s="6"/>
@@ -6783,7 +6909,7 @@
       <c r="F667" s="6"/>
       <c r="G667" s="7"/>
     </row>
-    <row r="668" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="6"/>
       <c r="B668" s="7"/>
       <c r="C668" s="6"/>
@@ -6792,7 +6918,7 @@
       <c r="F668" s="6"/>
       <c r="G668" s="7"/>
     </row>
-    <row r="669" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="6"/>
       <c r="B669" s="7"/>
       <c r="C669" s="6"/>
@@ -6801,7 +6927,7 @@
       <c r="F669" s="6"/>
       <c r="G669" s="7"/>
     </row>
-    <row r="670" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="6"/>
       <c r="B670" s="7"/>
       <c r="C670" s="6"/>
@@ -6810,7 +6936,7 @@
       <c r="F670" s="6"/>
       <c r="G670" s="7"/>
     </row>
-    <row r="671" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="6"/>
       <c r="B671" s="7"/>
       <c r="C671" s="6"/>
@@ -6819,7 +6945,7 @@
       <c r="F671" s="6"/>
       <c r="G671" s="7"/>
     </row>
-    <row r="672" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="6"/>
       <c r="B672" s="7"/>
       <c r="C672" s="6"/>
@@ -6828,7 +6954,7 @@
       <c r="F672" s="6"/>
       <c r="G672" s="7"/>
     </row>
-    <row r="673" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="6"/>
       <c r="B673" s="7"/>
       <c r="C673" s="6"/>
@@ -6837,7 +6963,7 @@
       <c r="F673" s="6"/>
       <c r="G673" s="7"/>
     </row>
-    <row r="674" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="6"/>
       <c r="B674" s="7"/>
       <c r="C674" s="6"/>
@@ -6846,7 +6972,7 @@
       <c r="F674" s="6"/>
       <c r="G674" s="7"/>
     </row>
-    <row r="675" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="6"/>
       <c r="B675" s="7"/>
       <c r="C675" s="6"/>
@@ -6855,7 +6981,7 @@
       <c r="F675" s="6"/>
       <c r="G675" s="7"/>
     </row>
-    <row r="676" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="6"/>
       <c r="B676" s="7"/>
       <c r="C676" s="6"/>
@@ -6864,7 +6990,7 @@
       <c r="F676" s="6"/>
       <c r="G676" s="7"/>
     </row>
-    <row r="677" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="6"/>
       <c r="B677" s="7"/>
       <c r="C677" s="6"/>
@@ -6873,7 +6999,7 @@
       <c r="F677" s="6"/>
       <c r="G677" s="7"/>
     </row>
-    <row r="678" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="6"/>
       <c r="B678" s="7"/>
       <c r="C678" s="6"/>
@@ -6882,7 +7008,7 @@
       <c r="F678" s="6"/>
       <c r="G678" s="7"/>
     </row>
-    <row r="679" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="6"/>
       <c r="B679" s="7"/>
       <c r="C679" s="6"/>
@@ -6891,7 +7017,7 @@
       <c r="F679" s="6"/>
       <c r="G679" s="7"/>
     </row>
-    <row r="680" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="6"/>
       <c r="B680" s="7"/>
       <c r="C680" s="6"/>
@@ -6900,7 +7026,7 @@
       <c r="F680" s="6"/>
       <c r="G680" s="7"/>
     </row>
-    <row r="681" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="6"/>
       <c r="B681" s="7"/>
       <c r="C681" s="6"/>
@@ -6909,7 +7035,7 @@
       <c r="F681" s="6"/>
       <c r="G681" s="7"/>
     </row>
-    <row r="682" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="6"/>
       <c r="B682" s="7"/>
       <c r="C682" s="6"/>
@@ -6918,7 +7044,7 @@
       <c r="F682" s="6"/>
       <c r="G682" s="7"/>
     </row>
-    <row r="683" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="6"/>
       <c r="B683" s="7"/>
       <c r="C683" s="6"/>
@@ -6927,7 +7053,7 @@
       <c r="F683" s="6"/>
       <c r="G683" s="7"/>
     </row>
-    <row r="684" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="6"/>
       <c r="B684" s="7"/>
       <c r="C684" s="6"/>
@@ -6936,7 +7062,7 @@
       <c r="F684" s="6"/>
       <c r="G684" s="7"/>
     </row>
-    <row r="685" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="6"/>
       <c r="B685" s="7"/>
       <c r="C685" s="6"/>
@@ -6945,7 +7071,7 @@
       <c r="F685" s="6"/>
       <c r="G685" s="7"/>
     </row>
-    <row r="686" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="6"/>
       <c r="B686" s="7"/>
       <c r="C686" s="6"/>
@@ -6954,7 +7080,7 @@
       <c r="F686" s="6"/>
       <c r="G686" s="7"/>
     </row>
-    <row r="687" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="6"/>
       <c r="B687" s="7"/>
       <c r="C687" s="6"/>
@@ -6963,7 +7089,7 @@
       <c r="F687" s="6"/>
       <c r="G687" s="7"/>
     </row>
-    <row r="688" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="6"/>
       <c r="B688" s="7"/>
       <c r="C688" s="6"/>
@@ -6972,7 +7098,7 @@
       <c r="F688" s="6"/>
       <c r="G688" s="7"/>
     </row>
-    <row r="689" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="6"/>
       <c r="B689" s="7"/>
       <c r="C689" s="6"/>
@@ -6981,7 +7107,7 @@
       <c r="F689" s="6"/>
       <c r="G689" s="7"/>
     </row>
-    <row r="690" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="6"/>
       <c r="B690" s="7"/>
       <c r="C690" s="6"/>
@@ -6990,7 +7116,7 @@
       <c r="F690" s="6"/>
       <c r="G690" s="7"/>
     </row>
-    <row r="691" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="6"/>
       <c r="B691" s="7"/>
       <c r="C691" s="6"/>
@@ -6999,7 +7125,7 @@
       <c r="F691" s="6"/>
       <c r="G691" s="7"/>
     </row>
-    <row r="692" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="6"/>
       <c r="B692" s="7"/>
       <c r="C692" s="6"/>
@@ -7008,7 +7134,7 @@
       <c r="F692" s="6"/>
       <c r="G692" s="7"/>
     </row>
-    <row r="693" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="6"/>
       <c r="B693" s="7"/>
       <c r="C693" s="6"/>
@@ -7017,7 +7143,7 @@
       <c r="F693" s="6"/>
       <c r="G693" s="7"/>
     </row>
-    <row r="694" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="6"/>
       <c r="B694" s="7"/>
       <c r="C694" s="6"/>
@@ -7026,7 +7152,7 @@
       <c r="F694" s="6"/>
       <c r="G694" s="7"/>
     </row>
-    <row r="695" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="6"/>
       <c r="B695" s="7"/>
       <c r="C695" s="6"/>
@@ -7035,7 +7161,7 @@
       <c r="F695" s="6"/>
       <c r="G695" s="7"/>
     </row>
-    <row r="696" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="6"/>
       <c r="B696" s="7"/>
       <c r="C696" s="6"/>
@@ -7044,7 +7170,7 @@
       <c r="F696" s="6"/>
       <c r="G696" s="7"/>
     </row>
-    <row r="697" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="6"/>
       <c r="B697" s="7"/>
       <c r="C697" s="6"/>
@@ -7053,7 +7179,7 @@
       <c r="F697" s="6"/>
       <c r="G697" s="7"/>
     </row>
-    <row r="698" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="6"/>
       <c r="B698" s="7"/>
       <c r="C698" s="6"/>
@@ -7062,7 +7188,7 @@
       <c r="F698" s="6"/>
       <c r="G698" s="7"/>
     </row>
-    <row r="699" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="6"/>
       <c r="B699" s="7"/>
       <c r="C699" s="6"/>
@@ -7071,7 +7197,7 @@
       <c r="F699" s="6"/>
       <c r="G699" s="7"/>
     </row>
-    <row r="700" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="6"/>
       <c r="B700" s="7"/>
       <c r="C700" s="6"/>
@@ -7080,7 +7206,7 @@
       <c r="F700" s="6"/>
       <c r="G700" s="7"/>
     </row>
-    <row r="701" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="6"/>
       <c r="B701" s="7"/>
       <c r="C701" s="6"/>
@@ -7089,7 +7215,7 @@
       <c r="F701" s="6"/>
       <c r="G701" s="7"/>
     </row>
-    <row r="702" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="6"/>
       <c r="B702" s="7"/>
       <c r="C702" s="6"/>
@@ -7098,7 +7224,7 @@
       <c r="F702" s="6"/>
       <c r="G702" s="7"/>
     </row>
-    <row r="703" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="6"/>
       <c r="B703" s="7"/>
       <c r="C703" s="6"/>
@@ -7107,7 +7233,7 @@
       <c r="F703" s="6"/>
       <c r="G703" s="7"/>
     </row>
-    <row r="704" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="6"/>
       <c r="B704" s="7"/>
       <c r="C704" s="6"/>
@@ -7116,7 +7242,7 @@
       <c r="F704" s="6"/>
       <c r="G704" s="7"/>
     </row>
-    <row r="705" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="6"/>
       <c r="B705" s="7"/>
       <c r="C705" s="6"/>
@@ -7125,7 +7251,7 @@
       <c r="F705" s="6"/>
       <c r="G705" s="7"/>
     </row>
-    <row r="706" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="6"/>
       <c r="B706" s="7"/>
       <c r="C706" s="6"/>
@@ -7134,7 +7260,7 @@
       <c r="F706" s="6"/>
       <c r="G706" s="7"/>
     </row>
-    <row r="707" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="6"/>
       <c r="B707" s="7"/>
       <c r="C707" s="6"/>
@@ -7143,7 +7269,7 @@
       <c r="F707" s="6"/>
       <c r="G707" s="7"/>
     </row>
-    <row r="708" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="6"/>
       <c r="B708" s="7"/>
       <c r="C708" s="6"/>
@@ -7152,7 +7278,7 @@
       <c r="F708" s="6"/>
       <c r="G708" s="7"/>
     </row>
-    <row r="709" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="6"/>
       <c r="B709" s="7"/>
       <c r="C709" s="6"/>
@@ -7161,7 +7287,7 @@
       <c r="F709" s="6"/>
       <c r="G709" s="7"/>
     </row>
-    <row r="710" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="6"/>
       <c r="B710" s="7"/>
       <c r="C710" s="6"/>
@@ -7170,7 +7296,7 @@
       <c r="F710" s="6"/>
       <c r="G710" s="7"/>
     </row>
-    <row r="711" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="6"/>
       <c r="B711" s="7"/>
       <c r="C711" s="6"/>
@@ -7179,7 +7305,7 @@
       <c r="F711" s="6"/>
       <c r="G711" s="7"/>
     </row>
-    <row r="712" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="6"/>
       <c r="B712" s="7"/>
       <c r="C712" s="6"/>
@@ -7188,7 +7314,7 @@
       <c r="F712" s="6"/>
       <c r="G712" s="7"/>
     </row>
-    <row r="713" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="6"/>
       <c r="B713" s="7"/>
       <c r="C713" s="6"/>
@@ -7197,7 +7323,7 @@
       <c r="F713" s="6"/>
       <c r="G713" s="7"/>
     </row>
-    <row r="714" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="6"/>
       <c r="B714" s="7"/>
       <c r="C714" s="6"/>
@@ -7206,7 +7332,7 @@
       <c r="F714" s="6"/>
       <c r="G714" s="7"/>
     </row>
-    <row r="715" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="6"/>
       <c r="B715" s="7"/>
       <c r="C715" s="6"/>
@@ -7215,7 +7341,7 @@
       <c r="F715" s="6"/>
       <c r="G715" s="7"/>
     </row>
-    <row r="716" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="6"/>
       <c r="B716" s="7"/>
       <c r="C716" s="6"/>
@@ -7224,7 +7350,7 @@
       <c r="F716" s="6"/>
       <c r="G716" s="7"/>
     </row>
-    <row r="717" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="6"/>
       <c r="B717" s="7"/>
       <c r="C717" s="6"/>
@@ -7233,7 +7359,7 @@
       <c r="F717" s="6"/>
       <c r="G717" s="7"/>
     </row>
-    <row r="718" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="6"/>
       <c r="B718" s="7"/>
       <c r="C718" s="6"/>
@@ -7242,7 +7368,7 @@
       <c r="F718" s="6"/>
       <c r="G718" s="7"/>
     </row>
-    <row r="719" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="6"/>
       <c r="B719" s="7"/>
       <c r="C719" s="6"/>
@@ -7251,7 +7377,7 @@
       <c r="F719" s="6"/>
       <c r="G719" s="7"/>
     </row>
-    <row r="720" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="6"/>
       <c r="B720" s="7"/>
       <c r="C720" s="6"/>
@@ -7260,7 +7386,7 @@
       <c r="F720" s="6"/>
       <c r="G720" s="7"/>
     </row>
-    <row r="721" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="6"/>
       <c r="B721" s="7"/>
       <c r="C721" s="6"/>
@@ -7269,7 +7395,7 @@
       <c r="F721" s="6"/>
       <c r="G721" s="7"/>
     </row>
-    <row r="722" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="6"/>
       <c r="B722" s="7"/>
       <c r="C722" s="6"/>
@@ -7278,7 +7404,7 @@
       <c r="F722" s="6"/>
       <c r="G722" s="7"/>
     </row>
-    <row r="723" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="6"/>
       <c r="B723" s="7"/>
       <c r="C723" s="6"/>
@@ -7287,7 +7413,7 @@
       <c r="F723" s="6"/>
       <c r="G723" s="7"/>
     </row>
-    <row r="724" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="6"/>
       <c r="B724" s="7"/>
       <c r="C724" s="6"/>
@@ -7296,7 +7422,7 @@
       <c r="F724" s="6"/>
       <c r="G724" s="7"/>
     </row>
-    <row r="725" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="6"/>
       <c r="B725" s="7"/>
       <c r="C725" s="6"/>
@@ -7305,7 +7431,7 @@
       <c r="F725" s="6"/>
       <c r="G725" s="7"/>
     </row>
-    <row r="726" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="6"/>
       <c r="B726" s="7"/>
       <c r="C726" s="6"/>
@@ -7314,7 +7440,7 @@
       <c r="F726" s="6"/>
       <c r="G726" s="7"/>
     </row>
-    <row r="727" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="6"/>
       <c r="B727" s="7"/>
       <c r="C727" s="6"/>
@@ -7323,7 +7449,7 @@
       <c r="F727" s="6"/>
       <c r="G727" s="7"/>
     </row>
-    <row r="728" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="6"/>
       <c r="B728" s="7"/>
       <c r="C728" s="6"/>
@@ -7332,7 +7458,7 @@
       <c r="F728" s="6"/>
       <c r="G728" s="7"/>
     </row>
-    <row r="729" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="6"/>
       <c r="B729" s="7"/>
       <c r="C729" s="6"/>
@@ -7341,7 +7467,7 @@
       <c r="F729" s="6"/>
       <c r="G729" s="7"/>
     </row>
-    <row r="730" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="6"/>
       <c r="B730" s="7"/>
       <c r="C730" s="6"/>
@@ -7350,7 +7476,7 @@
       <c r="F730" s="6"/>
       <c r="G730" s="7"/>
     </row>
-    <row r="731" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="6"/>
       <c r="B731" s="7"/>
       <c r="C731" s="6"/>
@@ -7359,7 +7485,7 @@
       <c r="F731" s="6"/>
       <c r="G731" s="7"/>
     </row>
-    <row r="732" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="6"/>
       <c r="B732" s="7"/>
       <c r="C732" s="6"/>
@@ -7368,7 +7494,7 @@
       <c r="F732" s="6"/>
       <c r="G732" s="7"/>
     </row>
-    <row r="733" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="6"/>
       <c r="B733" s="7"/>
       <c r="C733" s="6"/>
@@ -7377,7 +7503,7 @@
       <c r="F733" s="6"/>
       <c r="G733" s="7"/>
     </row>
-    <row r="734" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="6"/>
       <c r="B734" s="7"/>
       <c r="C734" s="6"/>
@@ -7386,7 +7512,7 @@
       <c r="F734" s="6"/>
       <c r="G734" s="7"/>
     </row>
-    <row r="735" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="6"/>
       <c r="B735" s="7"/>
       <c r="C735" s="6"/>
@@ -7395,7 +7521,7 @@
       <c r="F735" s="6"/>
       <c r="G735" s="7"/>
     </row>
-    <row r="736" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="6"/>
       <c r="B736" s="7"/>
       <c r="C736" s="6"/>
@@ -7404,7 +7530,7 @@
       <c r="F736" s="6"/>
       <c r="G736" s="7"/>
     </row>
-    <row r="737" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="6"/>
       <c r="B737" s="7"/>
       <c r="C737" s="6"/>
@@ -7413,7 +7539,7 @@
       <c r="F737" s="6"/>
       <c r="G737" s="7"/>
     </row>
-    <row r="738" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="6"/>
       <c r="B738" s="7"/>
       <c r="C738" s="6"/>
@@ -7422,7 +7548,7 @@
       <c r="F738" s="6"/>
       <c r="G738" s="7"/>
     </row>
-    <row r="739" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="6"/>
       <c r="B739" s="7"/>
       <c r="C739" s="6"/>
@@ -7431,7 +7557,7 @@
       <c r="F739" s="6"/>
       <c r="G739" s="7"/>
     </row>
-    <row r="740" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="6"/>
       <c r="B740" s="7"/>
       <c r="C740" s="6"/>
@@ -7440,7 +7566,7 @@
       <c r="F740" s="6"/>
       <c r="G740" s="7"/>
     </row>
-    <row r="741" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="6"/>
       <c r="B741" s="7"/>
       <c r="C741" s="6"/>
@@ -7449,7 +7575,7 @@
       <c r="F741" s="6"/>
       <c r="G741" s="7"/>
     </row>
-    <row r="742" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="6"/>
       <c r="B742" s="7"/>
       <c r="C742" s="6"/>
@@ -7458,7 +7584,7 @@
       <c r="F742" s="6"/>
       <c r="G742" s="7"/>
     </row>
-    <row r="743" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="6"/>
       <c r="B743" s="7"/>
       <c r="C743" s="6"/>
@@ -7467,7 +7593,7 @@
       <c r="F743" s="6"/>
       <c r="G743" s="7"/>
     </row>
-    <row r="744" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="6"/>
       <c r="B744" s="7"/>
       <c r="C744" s="6"/>
@@ -7476,7 +7602,7 @@
       <c r="F744" s="6"/>
       <c r="G744" s="7"/>
     </row>
-    <row r="745" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="6"/>
       <c r="B745" s="7"/>
       <c r="C745" s="6"/>
@@ -7485,7 +7611,7 @@
       <c r="F745" s="6"/>
       <c r="G745" s="7"/>
     </row>
-    <row r="746" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="6"/>
       <c r="B746" s="7"/>
       <c r="C746" s="6"/>
@@ -7494,7 +7620,7 @@
       <c r="F746" s="6"/>
       <c r="G746" s="7"/>
     </row>
-    <row r="747" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="6"/>
       <c r="B747" s="7"/>
       <c r="C747" s="6"/>
@@ -7503,7 +7629,7 @@
       <c r="F747" s="6"/>
       <c r="G747" s="7"/>
     </row>
-    <row r="748" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="6"/>
       <c r="B748" s="7"/>
       <c r="C748" s="6"/>
@@ -7512,7 +7638,7 @@
       <c r="F748" s="6"/>
       <c r="G748" s="7"/>
     </row>
-    <row r="749" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="6"/>
       <c r="B749" s="7"/>
       <c r="C749" s="6"/>
@@ -7521,7 +7647,7 @@
       <c r="F749" s="6"/>
       <c r="G749" s="7"/>
     </row>
-    <row r="750" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="6"/>
       <c r="B750" s="7"/>
       <c r="C750" s="6"/>
@@ -7530,7 +7656,7 @@
       <c r="F750" s="6"/>
       <c r="G750" s="7"/>
     </row>
-    <row r="751" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="6"/>
       <c r="B751" s="7"/>
       <c r="C751" s="6"/>
@@ -7539,7 +7665,7 @@
       <c r="F751" s="6"/>
       <c r="G751" s="7"/>
     </row>
-    <row r="752" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="6"/>
       <c r="B752" s="7"/>
       <c r="C752" s="6"/>
@@ -7548,7 +7674,7 @@
       <c r="F752" s="6"/>
       <c r="G752" s="7"/>
     </row>
-    <row r="753" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="6"/>
       <c r="B753" s="7"/>
       <c r="C753" s="6"/>
@@ -7557,7 +7683,7 @@
       <c r="F753" s="6"/>
       <c r="G753" s="7"/>
     </row>
-    <row r="754" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="6"/>
       <c r="B754" s="7"/>
       <c r="C754" s="6"/>
@@ -7566,7 +7692,7 @@
       <c r="F754" s="6"/>
       <c r="G754" s="7"/>
     </row>
-    <row r="755" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="6"/>
       <c r="B755" s="7"/>
       <c r="C755" s="6"/>
@@ -7575,7 +7701,7 @@
       <c r="F755" s="6"/>
       <c r="G755" s="7"/>
     </row>
-    <row r="756" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="6"/>
       <c r="B756" s="7"/>
       <c r="C756" s="6"/>
@@ -7584,7 +7710,7 @@
       <c r="F756" s="6"/>
       <c r="G756" s="7"/>
     </row>
-    <row r="757" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="6"/>
       <c r="B757" s="7"/>
       <c r="C757" s="6"/>
@@ -7593,7 +7719,7 @@
       <c r="F757" s="6"/>
       <c r="G757" s="7"/>
     </row>
-    <row r="758" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="6"/>
       <c r="B758" s="7"/>
       <c r="C758" s="6"/>
@@ -7602,7 +7728,7 @@
       <c r="F758" s="6"/>
       <c r="G758" s="7"/>
     </row>
-    <row r="759" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="6"/>
       <c r="B759" s="7"/>
       <c r="C759" s="6"/>
@@ -7611,7 +7737,7 @@
       <c r="F759" s="6"/>
       <c r="G759" s="7"/>
     </row>
-    <row r="760" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="6"/>
       <c r="B760" s="7"/>
       <c r="C760" s="6"/>
@@ -7620,7 +7746,7 @@
       <c r="F760" s="6"/>
       <c r="G760" s="7"/>
     </row>
-    <row r="761" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="6"/>
       <c r="B761" s="7"/>
       <c r="C761" s="6"/>
@@ -7629,7 +7755,7 @@
       <c r="F761" s="6"/>
       <c r="G761" s="7"/>
     </row>
-    <row r="762" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="6"/>
       <c r="B762" s="7"/>
       <c r="C762" s="6"/>
@@ -7638,7 +7764,7 @@
       <c r="F762" s="6"/>
       <c r="G762" s="7"/>
     </row>
-    <row r="763" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="6"/>
       <c r="B763" s="7"/>
       <c r="C763" s="6"/>
@@ -7647,7 +7773,7 @@
       <c r="F763" s="6"/>
       <c r="G763" s="7"/>
     </row>
-    <row r="764" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="6"/>
       <c r="B764" s="7"/>
       <c r="C764" s="6"/>
@@ -7656,7 +7782,7 @@
       <c r="F764" s="6"/>
       <c r="G764" s="7"/>
     </row>
-    <row r="765" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="6"/>
       <c r="B765" s="7"/>
       <c r="C765" s="6"/>
@@ -7665,7 +7791,7 @@
       <c r="F765" s="6"/>
       <c r="G765" s="7"/>
     </row>
-    <row r="766" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="6"/>
       <c r="B766" s="7"/>
       <c r="C766" s="6"/>
@@ -7674,7 +7800,7 @@
       <c r="F766" s="6"/>
       <c r="G766" s="7"/>
     </row>
-    <row r="767" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="6"/>
       <c r="B767" s="7"/>
       <c r="C767" s="6"/>
@@ -7683,7 +7809,7 @@
       <c r="F767" s="6"/>
       <c r="G767" s="7"/>
     </row>
-    <row r="768" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="6"/>
       <c r="B768" s="7"/>
       <c r="C768" s="6"/>
@@ -7692,7 +7818,7 @@
       <c r="F768" s="6"/>
       <c r="G768" s="7"/>
     </row>
-    <row r="769" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="6"/>
       <c r="B769" s="7"/>
       <c r="C769" s="6"/>
@@ -7701,7 +7827,7 @@
       <c r="F769" s="6"/>
       <c r="G769" s="7"/>
     </row>
-    <row r="770" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="6"/>
       <c r="B770" s="7"/>
       <c r="C770" s="6"/>
@@ -7710,7 +7836,7 @@
       <c r="F770" s="6"/>
       <c r="G770" s="7"/>
     </row>
-    <row r="771" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="6"/>
       <c r="B771" s="7"/>
       <c r="C771" s="6"/>
@@ -7719,7 +7845,7 @@
       <c r="F771" s="6"/>
       <c r="G771" s="7"/>
     </row>
-    <row r="772" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="6"/>
       <c r="B772" s="7"/>
       <c r="C772" s="6"/>
@@ -7728,7 +7854,7 @@
       <c r="F772" s="6"/>
       <c r="G772" s="7"/>
     </row>
-    <row r="773" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="6"/>
       <c r="B773" s="7"/>
       <c r="C773" s="6"/>
@@ -7737,7 +7863,7 @@
       <c r="F773" s="6"/>
       <c r="G773" s="7"/>
     </row>
-    <row r="774" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="6"/>
       <c r="B774" s="7"/>
       <c r="C774" s="6"/>
@@ -7746,7 +7872,7 @@
       <c r="F774" s="6"/>
       <c r="G774" s="7"/>
     </row>
-    <row r="775" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="6"/>
       <c r="B775" s="7"/>
       <c r="C775" s="6"/>
@@ -7755,7 +7881,7 @@
       <c r="F775" s="6"/>
       <c r="G775" s="7"/>
     </row>
-    <row r="776" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="6"/>
       <c r="B776" s="7"/>
       <c r="C776" s="6"/>
@@ -7764,7 +7890,7 @@
       <c r="F776" s="6"/>
       <c r="G776" s="7"/>
     </row>
-    <row r="777" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="6"/>
       <c r="B777" s="7"/>
       <c r="C777" s="6"/>
@@ -7773,7 +7899,7 @@
       <c r="F777" s="6"/>
       <c r="G777" s="7"/>
     </row>
-    <row r="778" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="6"/>
       <c r="B778" s="7"/>
       <c r="C778" s="6"/>
@@ -7782,7 +7908,7 @@
       <c r="F778" s="6"/>
       <c r="G778" s="7"/>
     </row>
-    <row r="779" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="6"/>
       <c r="B779" s="7"/>
       <c r="C779" s="6"/>
@@ -7791,7 +7917,7 @@
       <c r="F779" s="6"/>
       <c r="G779" s="7"/>
     </row>
-    <row r="780" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="6"/>
       <c r="B780" s="7"/>
       <c r="C780" s="6"/>
@@ -7800,7 +7926,7 @@
       <c r="F780" s="6"/>
       <c r="G780" s="7"/>
     </row>
-    <row r="781" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="6"/>
       <c r="B781" s="7"/>
       <c r="C781" s="6"/>
@@ -7809,7 +7935,7 @@
       <c r="F781" s="6"/>
       <c r="G781" s="7"/>
     </row>
-    <row r="782" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="6"/>
       <c r="B782" s="7"/>
       <c r="C782" s="6"/>
@@ -7818,7 +7944,7 @@
       <c r="F782" s="6"/>
       <c r="G782" s="7"/>
     </row>
-    <row r="783" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="6"/>
       <c r="B783" s="7"/>
       <c r="C783" s="6"/>
@@ -7827,7 +7953,7 @@
       <c r="F783" s="6"/>
       <c r="G783" s="7"/>
     </row>
-    <row r="784" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="6"/>
       <c r="B784" s="7"/>
       <c r="C784" s="6"/>
@@ -7836,7 +7962,7 @@
       <c r="F784" s="6"/>
       <c r="G784" s="7"/>
     </row>
-    <row r="785" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="6"/>
       <c r="B785" s="7"/>
       <c r="C785" s="6"/>
@@ -7845,7 +7971,7 @@
       <c r="F785" s="6"/>
       <c r="G785" s="7"/>
     </row>
-    <row r="786" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="6"/>
       <c r="B786" s="7"/>
       <c r="C786" s="6"/>
@@ -7854,7 +7980,7 @@
       <c r="F786" s="6"/>
       <c r="G786" s="7"/>
     </row>
-    <row r="787" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="6"/>
       <c r="B787" s="7"/>
       <c r="C787" s="6"/>
@@ -7863,7 +7989,7 @@
       <c r="F787" s="6"/>
       <c r="G787" s="7"/>
     </row>
-    <row r="788" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="6"/>
       <c r="B788" s="7"/>
       <c r="C788" s="6"/>
@@ -7872,7 +7998,7 @@
       <c r="F788" s="6"/>
       <c r="G788" s="7"/>
     </row>
-    <row r="789" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="6"/>
       <c r="B789" s="7"/>
       <c r="C789" s="6"/>
@@ -7881,7 +8007,7 @@
       <c r="F789" s="6"/>
       <c r="G789" s="7"/>
     </row>
-    <row r="790" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="6"/>
       <c r="B790" s="7"/>
       <c r="C790" s="6"/>
@@ -7890,7 +8016,7 @@
       <c r="F790" s="6"/>
       <c r="G790" s="7"/>
     </row>
-    <row r="791" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="6"/>
       <c r="B791" s="7"/>
       <c r="C791" s="6"/>
@@ -7899,7 +8025,7 @@
       <c r="F791" s="6"/>
       <c r="G791" s="7"/>
     </row>
-    <row r="792" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="6"/>
       <c r="B792" s="7"/>
       <c r="C792" s="6"/>
@@ -7908,7 +8034,7 @@
       <c r="F792" s="6"/>
       <c r="G792" s="7"/>
     </row>
-    <row r="793" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="6"/>
       <c r="B793" s="7"/>
       <c r="C793" s="6"/>
@@ -7917,7 +8043,7 @@
       <c r="F793" s="6"/>
       <c r="G793" s="7"/>
     </row>
-    <row r="794" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="6"/>
       <c r="B794" s="7"/>
       <c r="C794" s="6"/>
@@ -7926,7 +8052,7 @@
       <c r="F794" s="6"/>
       <c r="G794" s="7"/>
     </row>
-    <row r="795" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="6"/>
       <c r="B795" s="7"/>
       <c r="C795" s="6"/>
@@ -7935,7 +8061,7 @@
       <c r="F795" s="6"/>
       <c r="G795" s="7"/>
     </row>
-    <row r="796" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="6"/>
       <c r="B796" s="7"/>
       <c r="C796" s="6"/>
@@ -7944,7 +8070,7 @@
       <c r="F796" s="6"/>
       <c r="G796" s="7"/>
     </row>
-    <row r="797" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="6"/>
       <c r="B797" s="7"/>
       <c r="C797" s="6"/>
@@ -7953,7 +8079,7 @@
       <c r="F797" s="6"/>
       <c r="G797" s="7"/>
     </row>
-    <row r="798" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="6"/>
       <c r="B798" s="7"/>
       <c r="C798" s="6"/>
@@ -7962,7 +8088,7 @@
       <c r="F798" s="6"/>
       <c r="G798" s="7"/>
     </row>
-    <row r="799" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="6"/>
       <c r="B799" s="7"/>
       <c r="C799" s="6"/>
@@ -7971,7 +8097,7 @@
       <c r="F799" s="6"/>
       <c r="G799" s="7"/>
     </row>
-    <row r="800" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="6"/>
       <c r="B800" s="7"/>
       <c r="C800" s="6"/>
@@ -7980,7 +8106,7 @@
       <c r="F800" s="6"/>
       <c r="G800" s="7"/>
     </row>
-    <row r="801" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="6"/>
       <c r="B801" s="7"/>
       <c r="C801" s="6"/>
@@ -7989,7 +8115,7 @@
       <c r="F801" s="6"/>
       <c r="G801" s="7"/>
     </row>
-    <row r="802" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="6"/>
       <c r="B802" s="7"/>
       <c r="C802" s="6"/>
@@ -7998,7 +8124,7 @@
       <c r="F802" s="6"/>
       <c r="G802" s="7"/>
     </row>
-    <row r="803" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="6"/>
       <c r="B803" s="7"/>
       <c r="C803" s="6"/>
@@ -8007,7 +8133,7 @@
       <c r="F803" s="6"/>
       <c r="G803" s="7"/>
     </row>
-    <row r="804" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="6"/>
       <c r="B804" s="7"/>
       <c r="C804" s="6"/>
@@ -8016,7 +8142,7 @@
       <c r="F804" s="6"/>
       <c r="G804" s="7"/>
     </row>
-    <row r="805" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="6"/>
       <c r="B805" s="7"/>
       <c r="C805" s="6"/>
@@ -8025,7 +8151,7 @@
       <c r="F805" s="6"/>
       <c r="G805" s="7"/>
     </row>
-    <row r="806" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="6"/>
       <c r="B806" s="7"/>
       <c r="C806" s="6"/>
@@ -8034,7 +8160,7 @@
       <c r="F806" s="6"/>
       <c r="G806" s="7"/>
     </row>
-    <row r="807" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="6"/>
       <c r="B807" s="7"/>
       <c r="C807" s="6"/>
@@ -8043,7 +8169,7 @@
       <c r="F807" s="6"/>
       <c r="G807" s="7"/>
     </row>
-    <row r="808" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="6"/>
       <c r="B808" s="7"/>
       <c r="C808" s="6"/>
@@ -8052,7 +8178,7 @@
       <c r="F808" s="6"/>
       <c r="G808" s="7"/>
     </row>
-    <row r="809" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="6"/>
       <c r="B809" s="7"/>
       <c r="C809" s="6"/>
@@ -8061,7 +8187,7 @@
       <c r="F809" s="6"/>
       <c r="G809" s="7"/>
     </row>
-    <row r="810" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="6"/>
       <c r="B810" s="7"/>
       <c r="C810" s="6"/>
@@ -8070,7 +8196,7 @@
       <c r="F810" s="6"/>
       <c r="G810" s="7"/>
     </row>
-    <row r="811" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="6"/>
       <c r="B811" s="7"/>
       <c r="C811" s="6"/>
@@ -8079,7 +8205,7 @@
       <c r="F811" s="6"/>
       <c r="G811" s="7"/>
     </row>
-    <row r="812" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="6"/>
       <c r="B812" s="7"/>
       <c r="C812" s="6"/>
@@ -8088,7 +8214,7 @@
       <c r="F812" s="6"/>
       <c r="G812" s="7"/>
     </row>
-    <row r="813" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="6"/>
       <c r="B813" s="7"/>
       <c r="C813" s="6"/>
@@ -8097,7 +8223,7 @@
       <c r="F813" s="6"/>
       <c r="G813" s="7"/>
     </row>
-    <row r="814" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="6"/>
       <c r="B814" s="7"/>
       <c r="C814" s="6"/>
@@ -8106,7 +8232,7 @@
       <c r="F814" s="6"/>
       <c r="G814" s="7"/>
     </row>
-    <row r="815" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="6"/>
       <c r="B815" s="7"/>
       <c r="C815" s="6"/>
@@ -8115,7 +8241,7 @@
       <c r="F815" s="6"/>
       <c r="G815" s="7"/>
     </row>
-    <row r="816" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="6"/>
       <c r="B816" s="7"/>
       <c r="C816" s="6"/>
@@ -8124,7 +8250,7 @@
       <c r="F816" s="6"/>
       <c r="G816" s="7"/>
     </row>
-    <row r="817" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="6"/>
       <c r="B817" s="7"/>
       <c r="C817" s="6"/>
@@ -8133,7 +8259,7 @@
       <c r="F817" s="6"/>
       <c r="G817" s="7"/>
     </row>
-    <row r="818" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="6"/>
       <c r="B818" s="7"/>
       <c r="C818" s="6"/>
@@ -8142,7 +8268,7 @@
       <c r="F818" s="6"/>
       <c r="G818" s="7"/>
     </row>
-    <row r="819" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="6"/>
       <c r="B819" s="7"/>
       <c r="C819" s="6"/>
@@ -8151,7 +8277,7 @@
       <c r="F819" s="6"/>
       <c r="G819" s="7"/>
     </row>
-    <row r="820" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="6"/>
       <c r="B820" s="7"/>
       <c r="C820" s="6"/>
@@ -8160,7 +8286,7 @@
       <c r="F820" s="6"/>
       <c r="G820" s="7"/>
     </row>
-    <row r="821" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="6"/>
       <c r="B821" s="7"/>
       <c r="C821" s="6"/>
@@ -8169,7 +8295,7 @@
       <c r="F821" s="6"/>
       <c r="G821" s="7"/>
     </row>
-    <row r="822" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="6"/>
       <c r="B822" s="7"/>
       <c r="C822" s="6"/>
@@ -8178,7 +8304,7 @@
       <c r="F822" s="6"/>
       <c r="G822" s="7"/>
     </row>
-    <row r="823" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="6"/>
       <c r="B823" s="7"/>
       <c r="C823" s="6"/>
@@ -8187,7 +8313,7 @@
       <c r="F823" s="6"/>
       <c r="G823" s="7"/>
     </row>
-    <row r="824" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="6"/>
       <c r="B824" s="7"/>
       <c r="C824" s="6"/>
@@ -8196,7 +8322,7 @@
       <c r="F824" s="6"/>
       <c r="G824" s="7"/>
     </row>
-    <row r="825" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="6"/>
       <c r="B825" s="7"/>
       <c r="C825" s="6"/>
@@ -8205,7 +8331,7 @@
       <c r="F825" s="6"/>
       <c r="G825" s="7"/>
     </row>
-    <row r="826" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="6"/>
       <c r="B826" s="7"/>
       <c r="C826" s="6"/>
@@ -8214,7 +8340,7 @@
       <c r="F826" s="6"/>
       <c r="G826" s="7"/>
     </row>
-    <row r="827" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="6"/>
       <c r="B827" s="7"/>
       <c r="C827" s="6"/>
@@ -8223,7 +8349,7 @@
       <c r="F827" s="6"/>
       <c r="G827" s="7"/>
     </row>
-    <row r="828" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="6"/>
       <c r="B828" s="7"/>
       <c r="C828" s="6"/>
@@ -8232,7 +8358,7 @@
       <c r="F828" s="6"/>
       <c r="G828" s="7"/>
     </row>
-    <row r="829" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="6"/>
       <c r="B829" s="7"/>
       <c r="C829" s="6"/>
@@ -8241,7 +8367,7 @@
       <c r="F829" s="6"/>
       <c r="G829" s="7"/>
     </row>
-    <row r="830" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="6"/>
       <c r="B830" s="7"/>
       <c r="C830" s="6"/>
@@ -8250,7 +8376,7 @@
       <c r="F830" s="6"/>
       <c r="G830" s="7"/>
     </row>
-    <row r="831" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="6"/>
       <c r="B831" s="7"/>
       <c r="C831" s="6"/>
@@ -8259,7 +8385,7 @@
       <c r="F831" s="6"/>
       <c r="G831" s="7"/>
     </row>
-    <row r="832" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="6"/>
       <c r="B832" s="7"/>
       <c r="C832" s="6"/>
@@ -8268,7 +8394,7 @@
       <c r="F832" s="6"/>
       <c r="G832" s="7"/>
     </row>
-    <row r="833" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="6"/>
       <c r="B833" s="7"/>
       <c r="C833" s="6"/>
@@ -8277,7 +8403,7 @@
       <c r="F833" s="6"/>
       <c r="G833" s="7"/>
     </row>
-    <row r="834" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="6"/>
       <c r="B834" s="7"/>
       <c r="C834" s="6"/>
@@ -8286,7 +8412,7 @@
       <c r="F834" s="6"/>
       <c r="G834" s="7"/>
     </row>
-    <row r="835" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="6"/>
       <c r="B835" s="7"/>
       <c r="C835" s="6"/>
@@ -8295,7 +8421,7 @@
       <c r="F835" s="6"/>
       <c r="G835" s="7"/>
     </row>
-    <row r="836" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="6"/>
       <c r="B836" s="7"/>
       <c r="C836" s="6"/>
@@ -8304,7 +8430,7 @@
       <c r="F836" s="6"/>
       <c r="G836" s="7"/>
     </row>
-    <row r="837" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="6"/>
       <c r="B837" s="7"/>
       <c r="C837" s="6"/>
@@ -8313,7 +8439,7 @@
       <c r="F837" s="6"/>
       <c r="G837" s="7"/>
     </row>
-    <row r="838" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="6"/>
       <c r="B838" s="7"/>
       <c r="C838" s="6"/>
@@ -8322,7 +8448,7 @@
       <c r="F838" s="6"/>
       <c r="G838" s="7"/>
     </row>
-    <row r="839" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="6"/>
       <c r="B839" s="7"/>
       <c r="C839" s="6"/>
@@ -8331,7 +8457,7 @@
       <c r="F839" s="6"/>
       <c r="G839" s="7"/>
     </row>
-    <row r="840" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="6"/>
       <c r="B840" s="7"/>
       <c r="C840" s="6"/>
@@ -8340,7 +8466,7 @@
       <c r="F840" s="6"/>
       <c r="G840" s="7"/>
     </row>
-    <row r="841" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="6"/>
       <c r="B841" s="7"/>
       <c r="C841" s="6"/>
@@ -8349,7 +8475,7 @@
       <c r="F841" s="6"/>
       <c r="G841" s="7"/>
     </row>
-    <row r="842" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="6"/>
       <c r="B842" s="7"/>
       <c r="C842" s="6"/>
@@ -8358,7 +8484,7 @@
       <c r="F842" s="6"/>
       <c r="G842" s="7"/>
     </row>
-    <row r="843" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="6"/>
       <c r="B843" s="7"/>
       <c r="C843" s="6"/>
@@ -8367,7 +8493,7 @@
       <c r="F843" s="6"/>
       <c r="G843" s="7"/>
     </row>
-    <row r="844" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="6"/>
       <c r="B844" s="7"/>
       <c r="C844" s="6"/>
@@ -8376,7 +8502,7 @@
       <c r="F844" s="6"/>
       <c r="G844" s="7"/>
     </row>
-    <row r="845" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="6"/>
       <c r="B845" s="7"/>
       <c r="C845" s="6"/>
@@ -8385,7 +8511,7 @@
       <c r="F845" s="6"/>
       <c r="G845" s="7"/>
     </row>
-    <row r="846" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="6"/>
       <c r="B846" s="7"/>
       <c r="C846" s="6"/>
@@ -8394,7 +8520,7 @@
       <c r="F846" s="6"/>
       <c r="G846" s="7"/>
     </row>
-    <row r="847" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="6"/>
       <c r="B847" s="7"/>
       <c r="C847" s="6"/>
@@ -8403,7 +8529,7 @@
       <c r="F847" s="6"/>
       <c r="G847" s="7"/>
     </row>
-    <row r="848" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="6"/>
       <c r="B848" s="7"/>
       <c r="C848" s="6"/>
@@ -8412,7 +8538,7 @@
       <c r="F848" s="6"/>
       <c r="G848" s="7"/>
     </row>
-    <row r="849" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="6"/>
       <c r="B849" s="7"/>
       <c r="C849" s="6"/>
@@ -8421,7 +8547,7 @@
       <c r="F849" s="6"/>
       <c r="G849" s="7"/>
     </row>
-    <row r="850" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="6"/>
       <c r="B850" s="7"/>
       <c r="C850" s="6"/>
@@ -8430,7 +8556,7 @@
       <c r="F850" s="6"/>
       <c r="G850" s="7"/>
     </row>
-    <row r="851" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="6"/>
       <c r="B851" s="7"/>
       <c r="C851" s="6"/>
@@ -8439,7 +8565,7 @@
       <c r="F851" s="6"/>
       <c r="G851" s="7"/>
     </row>
-    <row r="852" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="6"/>
       <c r="B852" s="7"/>
       <c r="C852" s="6"/>
@@ -8448,7 +8574,7 @@
       <c r="F852" s="6"/>
       <c r="G852" s="7"/>
     </row>
-    <row r="853" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="6"/>
       <c r="B853" s="7"/>
       <c r="C853" s="6"/>
@@ -8457,7 +8583,7 @@
       <c r="F853" s="6"/>
       <c r="G853" s="7"/>
     </row>
-    <row r="854" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="6"/>
       <c r="B854" s="7"/>
       <c r="C854" s="6"/>
@@ -8466,7 +8592,7 @@
       <c r="F854" s="6"/>
       <c r="G854" s="7"/>
     </row>
-    <row r="855" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="6"/>
       <c r="B855" s="7"/>
       <c r="C855" s="6"/>
@@ -8475,7 +8601,7 @@
       <c r="F855" s="6"/>
       <c r="G855" s="7"/>
     </row>
-    <row r="856" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="6"/>
       <c r="B856" s="7"/>
       <c r="C856" s="6"/>
@@ -8484,7 +8610,7 @@
       <c r="F856" s="6"/>
       <c r="G856" s="7"/>
     </row>
-    <row r="857" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="6"/>
       <c r="B857" s="7"/>
       <c r="C857" s="6"/>
@@ -8493,7 +8619,7 @@
       <c r="F857" s="6"/>
       <c r="G857" s="7"/>
     </row>
-    <row r="858" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="6"/>
       <c r="B858" s="7"/>
       <c r="C858" s="6"/>
@@ -8502,7 +8628,7 @@
       <c r="F858" s="6"/>
       <c r="G858" s="7"/>
     </row>
-    <row r="859" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="6"/>
       <c r="B859" s="7"/>
       <c r="C859" s="6"/>
@@ -8511,7 +8637,7 @@
       <c r="F859" s="6"/>
       <c r="G859" s="7"/>
     </row>
-    <row r="860" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="6"/>
       <c r="B860" s="7"/>
       <c r="C860" s="6"/>
@@ -8520,7 +8646,7 @@
       <c r="F860" s="6"/>
       <c r="G860" s="7"/>
     </row>
-    <row r="861" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="6"/>
       <c r="B861" s="7"/>
       <c r="C861" s="6"/>
@@ -8529,7 +8655,7 @@
       <c r="F861" s="6"/>
       <c r="G861" s="7"/>
     </row>
-    <row r="862" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="6"/>
       <c r="B862" s="7"/>
       <c r="C862" s="6"/>
@@ -8538,7 +8664,7 @@
       <c r="F862" s="6"/>
       <c r="G862" s="7"/>
     </row>
-    <row r="863" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="6"/>
       <c r="B863" s="7"/>
       <c r="C863" s="6"/>
@@ -8547,7 +8673,7 @@
       <c r="F863" s="6"/>
       <c r="G863" s="7"/>
     </row>
-    <row r="864" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="6"/>
       <c r="B864" s="7"/>
       <c r="C864" s="6"/>
@@ -8556,7 +8682,7 @@
       <c r="F864" s="6"/>
       <c r="G864" s="7"/>
     </row>
-    <row r="865" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="6"/>
       <c r="B865" s="7"/>
       <c r="C865" s="6"/>
@@ -8565,7 +8691,7 @@
       <c r="F865" s="6"/>
       <c r="G865" s="7"/>
     </row>
-    <row r="866" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="6"/>
       <c r="B866" s="7"/>
       <c r="C866" s="6"/>
@@ -8574,7 +8700,7 @@
       <c r="F866" s="6"/>
       <c r="G866" s="7"/>
     </row>
-    <row r="867" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="6"/>
       <c r="B867" s="7"/>
       <c r="C867" s="6"/>
@@ -8583,7 +8709,7 @@
       <c r="F867" s="6"/>
       <c r="G867" s="7"/>
     </row>
-    <row r="868" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="6"/>
       <c r="B868" s="7"/>
       <c r="C868" s="6"/>
@@ -8592,7 +8718,7 @@
       <c r="F868" s="6"/>
       <c r="G868" s="7"/>
     </row>
-    <row r="869" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="6"/>
       <c r="B869" s="7"/>
       <c r="C869" s="6"/>
@@ -8601,7 +8727,7 @@
       <c r="F869" s="6"/>
       <c r="G869" s="7"/>
     </row>
-    <row r="870" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="6"/>
       <c r="B870" s="7"/>
       <c r="C870" s="6"/>
@@ -8610,7 +8736,7 @@
       <c r="F870" s="6"/>
       <c r="G870" s="7"/>
     </row>
-    <row r="871" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="6"/>
       <c r="B871" s="7"/>
       <c r="C871" s="6"/>
@@ -8619,7 +8745,7 @@
       <c r="F871" s="6"/>
       <c r="G871" s="7"/>
     </row>
-    <row r="872" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="6"/>
       <c r="B872" s="7"/>
       <c r="C872" s="6"/>
@@ -8628,7 +8754,7 @@
       <c r="F872" s="6"/>
       <c r="G872" s="7"/>
     </row>
-    <row r="873" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="6"/>
       <c r="B873" s="7"/>
       <c r="C873" s="6"/>
@@ -8637,7 +8763,7 @@
       <c r="F873" s="6"/>
       <c r="G873" s="7"/>
     </row>
-    <row r="874" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="6"/>
       <c r="B874" s="7"/>
       <c r="C874" s="6"/>
@@ -8646,7 +8772,7 @@
       <c r="F874" s="6"/>
       <c r="G874" s="7"/>
     </row>
-    <row r="875" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="6"/>
       <c r="B875" s="7"/>
       <c r="C875" s="6"/>
@@ -8655,7 +8781,7 @@
       <c r="F875" s="6"/>
       <c r="G875" s="7"/>
     </row>
-    <row r="876" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="6"/>
       <c r="B876" s="7"/>
       <c r="C876" s="6"/>
@@ -8664,7 +8790,7 @@
       <c r="F876" s="6"/>
       <c r="G876" s="7"/>
     </row>
-    <row r="877" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="6"/>
       <c r="B877" s="7"/>
       <c r="C877" s="6"/>
@@ -8673,7 +8799,7 @@
       <c r="F877" s="6"/>
       <c r="G877" s="7"/>
     </row>
-    <row r="878" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="6"/>
       <c r="B878" s="7"/>
       <c r="C878" s="6"/>
@@ -8682,7 +8808,7 @@
       <c r="F878" s="6"/>
       <c r="G878" s="7"/>
     </row>
-    <row r="879" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="6"/>
       <c r="B879" s="7"/>
       <c r="C879" s="6"/>
@@ -8691,7 +8817,7 @@
       <c r="F879" s="6"/>
       <c r="G879" s="7"/>
     </row>
-    <row r="880" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="6"/>
       <c r="B880" s="7"/>
       <c r="C880" s="6"/>
@@ -8700,7 +8826,7 @@
       <c r="F880" s="6"/>
       <c r="G880" s="7"/>
     </row>
-    <row r="881" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="6"/>
       <c r="B881" s="7"/>
       <c r="C881" s="6"/>
@@ -8709,7 +8835,7 @@
       <c r="F881" s="6"/>
       <c r="G881" s="7"/>
     </row>
-    <row r="882" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="6"/>
       <c r="B882" s="7"/>
       <c r="C882" s="6"/>
@@ -8718,7 +8844,7 @@
       <c r="F882" s="6"/>
       <c r="G882" s="7"/>
     </row>
-    <row r="883" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="6"/>
       <c r="B883" s="7"/>
       <c r="C883" s="6"/>
@@ -8727,7 +8853,7 @@
       <c r="F883" s="6"/>
       <c r="G883" s="7"/>
     </row>
-    <row r="884" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="6"/>
       <c r="B884" s="7"/>
       <c r="C884" s="6"/>
@@ -8736,7 +8862,7 @@
       <c r="F884" s="6"/>
       <c r="G884" s="7"/>
     </row>
-    <row r="885" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="6"/>
       <c r="B885" s="7"/>
       <c r="C885" s="6"/>
@@ -8745,7 +8871,7 @@
       <c r="F885" s="6"/>
       <c r="G885" s="7"/>
     </row>
-    <row r="886" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="6"/>
       <c r="B886" s="7"/>
       <c r="C886" s="6"/>
@@ -8754,7 +8880,7 @@
       <c r="F886" s="6"/>
       <c r="G886" s="7"/>
     </row>
-    <row r="887" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="6"/>
       <c r="B887" s="7"/>
       <c r="C887" s="6"/>
@@ -8763,7 +8889,7 @@
       <c r="F887" s="6"/>
       <c r="G887" s="7"/>
     </row>
-    <row r="888" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="6"/>
       <c r="B888" s="7"/>
       <c r="C888" s="6"/>
@@ -8772,7 +8898,7 @@
       <c r="F888" s="6"/>
       <c r="G888" s="7"/>
     </row>
-    <row r="889" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="6"/>
       <c r="B889" s="7"/>
       <c r="C889" s="6"/>
@@ -8781,7 +8907,7 @@
       <c r="F889" s="6"/>
       <c r="G889" s="7"/>
     </row>
-    <row r="890" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="6"/>
       <c r="B890" s="7"/>
       <c r="C890" s="6"/>
@@ -8790,7 +8916,7 @@
       <c r="F890" s="6"/>
       <c r="G890" s="7"/>
     </row>
-    <row r="891" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="6"/>
       <c r="B891" s="7"/>
       <c r="C891" s="6"/>
@@ -8799,7 +8925,7 @@
       <c r="F891" s="6"/>
       <c r="G891" s="7"/>
     </row>
-    <row r="892" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="6"/>
       <c r="B892" s="7"/>
       <c r="C892" s="6"/>
@@ -8808,7 +8934,7 @@
       <c r="F892" s="6"/>
       <c r="G892" s="7"/>
     </row>
-    <row r="893" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="6"/>
       <c r="B893" s="7"/>
       <c r="C893" s="6"/>
@@ -8817,7 +8943,7 @@
       <c r="F893" s="6"/>
       <c r="G893" s="7"/>
     </row>
-    <row r="894" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="6"/>
       <c r="B894" s="7"/>
       <c r="C894" s="6"/>
@@ -8826,7 +8952,7 @@
       <c r="F894" s="6"/>
       <c r="G894" s="7"/>
     </row>
-    <row r="895" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="6"/>
       <c r="B895" s="7"/>
       <c r="C895" s="6"/>
@@ -8835,7 +8961,7 @@
       <c r="F895" s="6"/>
       <c r="G895" s="7"/>
     </row>
-    <row r="896" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="6"/>
       <c r="B896" s="7"/>
       <c r="C896" s="6"/>
@@ -8844,7 +8970,7 @@
       <c r="F896" s="6"/>
       <c r="G896" s="7"/>
     </row>
-    <row r="897" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="6"/>
       <c r="B897" s="7"/>
       <c r="C897" s="6"/>
@@ -8853,7 +8979,7 @@
       <c r="F897" s="6"/>
       <c r="G897" s="7"/>
     </row>
-    <row r="898" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="6"/>
       <c r="B898" s="7"/>
       <c r="C898" s="6"/>
@@ -8862,7 +8988,7 @@
       <c r="F898" s="6"/>
       <c r="G898" s="7"/>
     </row>
-    <row r="899" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="6"/>
       <c r="B899" s="7"/>
       <c r="C899" s="6"/>
@@ -8871,7 +8997,7 @@
       <c r="F899" s="6"/>
       <c r="G899" s="7"/>
     </row>
-    <row r="900" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="6"/>
       <c r="B900" s="7"/>
       <c r="C900" s="6"/>
@@ -8880,7 +9006,7 @@
       <c r="F900" s="6"/>
       <c r="G900" s="7"/>
     </row>
-    <row r="901" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="6"/>
       <c r="B901" s="7"/>
       <c r="C901" s="6"/>
@@ -8889,7 +9015,7 @@
       <c r="F901" s="6"/>
       <c r="G901" s="7"/>
     </row>
-    <row r="902" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="6"/>
       <c r="B902" s="7"/>
       <c r="C902" s="6"/>
@@ -8898,7 +9024,7 @@
       <c r="F902" s="6"/>
       <c r="G902" s="7"/>
     </row>
-    <row r="903" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="6"/>
       <c r="B903" s="7"/>
       <c r="C903" s="6"/>
@@ -8907,7 +9033,7 @@
       <c r="F903" s="6"/>
       <c r="G903" s="7"/>
     </row>
-    <row r="904" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="6"/>
       <c r="B904" s="7"/>
       <c r="C904" s="6"/>
@@ -8916,7 +9042,7 @@
       <c r="F904" s="6"/>
       <c r="G904" s="7"/>
     </row>
-    <row r="905" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="6"/>
       <c r="B905" s="7"/>
       <c r="C905" s="6"/>
@@ -8925,7 +9051,7 @@
       <c r="F905" s="6"/>
       <c r="G905" s="7"/>
     </row>
-    <row r="906" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="6"/>
       <c r="B906" s="7"/>
       <c r="C906" s="6"/>
@@ -8934,7 +9060,7 @@
       <c r="F906" s="6"/>
       <c r="G906" s="7"/>
     </row>
-    <row r="907" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="6"/>
       <c r="B907" s="7"/>
       <c r="C907" s="6"/>
@@ -8943,7 +9069,7 @@
       <c r="F907" s="6"/>
       <c r="G907" s="7"/>
     </row>
-    <row r="908" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="6"/>
       <c r="B908" s="7"/>
       <c r="C908" s="6"/>
@@ -8952,7 +9078,7 @@
       <c r="F908" s="6"/>
       <c r="G908" s="7"/>
     </row>
-    <row r="909" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="6"/>
       <c r="B909" s="7"/>
       <c r="C909" s="6"/>
@@ -8961,7 +9087,7 @@
       <c r="F909" s="6"/>
       <c r="G909" s="7"/>
     </row>
-    <row r="910" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="6"/>
       <c r="B910" s="7"/>
       <c r="C910" s="6"/>
@@ -8970,7 +9096,7 @@
       <c r="F910" s="6"/>
       <c r="G910" s="7"/>
     </row>
-    <row r="911" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="6"/>
       <c r="B911" s="7"/>
       <c r="C911" s="6"/>
@@ -8979,7 +9105,7 @@
       <c r="F911" s="6"/>
       <c r="G911" s="7"/>
     </row>
-    <row r="912" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="6"/>
       <c r="B912" s="7"/>
       <c r="C912" s="6"/>
@@ -8988,7 +9114,7 @@
       <c r="F912" s="6"/>
       <c r="G912" s="7"/>
     </row>
-    <row r="913" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="6"/>
       <c r="B913" s="7"/>
       <c r="C913" s="6"/>
@@ -8997,7 +9123,7 @@
       <c r="F913" s="6"/>
       <c r="G913" s="7"/>
     </row>
-    <row r="914" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="6"/>
       <c r="B914" s="7"/>
       <c r="C914" s="6"/>
@@ -9006,7 +9132,7 @@
       <c r="F914" s="6"/>
       <c r="G914" s="7"/>
     </row>
-    <row r="915" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="6"/>
       <c r="B915" s="7"/>
       <c r="C915" s="6"/>
@@ -9015,7 +9141,7 @@
       <c r="F915" s="6"/>
       <c r="G915" s="7"/>
     </row>
-    <row r="916" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="6"/>
       <c r="B916" s="7"/>
       <c r="C916" s="6"/>
@@ -9024,7 +9150,7 @@
       <c r="F916" s="6"/>
       <c r="G916" s="7"/>
     </row>
-    <row r="917" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="6"/>
       <c r="B917" s="7"/>
       <c r="C917" s="6"/>
@@ -9033,7 +9159,7 @@
       <c r="F917" s="6"/>
       <c r="G917" s="7"/>
     </row>
-    <row r="918" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="6"/>
       <c r="B918" s="7"/>
       <c r="C918" s="6"/>
@@ -9042,7 +9168,7 @@
       <c r="F918" s="6"/>
       <c r="G918" s="7"/>
     </row>
-    <row r="919" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="6"/>
       <c r="B919" s="7"/>
       <c r="C919" s="6"/>
@@ -9051,7 +9177,7 @@
       <c r="F919" s="6"/>
       <c r="G919" s="7"/>
     </row>
-    <row r="920" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="6"/>
       <c r="B920" s="7"/>
       <c r="C920" s="6"/>
@@ -9060,7 +9186,7 @@
       <c r="F920" s="6"/>
       <c r="G920" s="7"/>
     </row>
-    <row r="921" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="6"/>
       <c r="B921" s="7"/>
       <c r="C921" s="6"/>
@@ -9069,7 +9195,7 @@
       <c r="F921" s="6"/>
       <c r="G921" s="7"/>
     </row>
-    <row r="922" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="6"/>
       <c r="B922" s="7"/>
       <c r="C922" s="6"/>
@@ -9078,7 +9204,7 @@
       <c r="F922" s="6"/>
       <c r="G922" s="7"/>
     </row>
-    <row r="923" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="6"/>
       <c r="B923" s="7"/>
       <c r="C923" s="6"/>
@@ -9087,7 +9213,7 @@
       <c r="F923" s="6"/>
       <c r="G923" s="7"/>
     </row>
-    <row r="924" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="6"/>
       <c r="B924" s="7"/>
       <c r="C924" s="6"/>
@@ -9096,7 +9222,7 @@
       <c r="F924" s="6"/>
       <c r="G924" s="7"/>
     </row>
-    <row r="925" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="6"/>
       <c r="B925" s="7"/>
       <c r="C925" s="6"/>
@@ -9105,7 +9231,7 @@
       <c r="F925" s="6"/>
       <c r="G925" s="7"/>
     </row>
-    <row r="926" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="6"/>
       <c r="B926" s="7"/>
       <c r="C926" s="6"/>
@@ -9114,7 +9240,7 @@
       <c r="F926" s="6"/>
       <c r="G926" s="7"/>
     </row>
-    <row r="927" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="6"/>
       <c r="B927" s="7"/>
       <c r="C927" s="6"/>
@@ -9123,7 +9249,7 @@
       <c r="F927" s="6"/>
       <c r="G927" s="7"/>
     </row>
-    <row r="928" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="6"/>
       <c r="B928" s="7"/>
       <c r="C928" s="6"/>
@@ -9132,7 +9258,7 @@
       <c r="F928" s="6"/>
       <c r="G928" s="7"/>
     </row>
-    <row r="929" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="6"/>
       <c r="B929" s="7"/>
       <c r="C929" s="6"/>
@@ -9141,7 +9267,7 @@
       <c r="F929" s="6"/>
       <c r="G929" s="7"/>
     </row>
-    <row r="930" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="6"/>
       <c r="B930" s="7"/>
       <c r="C930" s="6"/>
@@ -9150,7 +9276,7 @@
       <c r="F930" s="6"/>
       <c r="G930" s="7"/>
     </row>
-    <row r="931" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="6"/>
       <c r="B931" s="7"/>
       <c r="C931" s="6"/>
@@ -9159,7 +9285,7 @@
       <c r="F931" s="6"/>
       <c r="G931" s="7"/>
     </row>
-    <row r="932" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="6"/>
       <c r="B932" s="7"/>
       <c r="C932" s="6"/>
@@ -9168,7 +9294,7 @@
       <c r="F932" s="6"/>
       <c r="G932" s="7"/>
     </row>
-    <row r="933" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="6"/>
       <c r="B933" s="7"/>
       <c r="C933" s="6"/>
@@ -9177,7 +9303,7 @@
       <c r="F933" s="6"/>
       <c r="G933" s="7"/>
     </row>
-    <row r="934" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="6"/>
       <c r="B934" s="7"/>
       <c r="C934" s="6"/>
@@ -9186,7 +9312,7 @@
       <c r="F934" s="6"/>
       <c r="G934" s="7"/>
     </row>
-    <row r="935" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="6"/>
       <c r="B935" s="7"/>
       <c r="C935" s="6"/>
@@ -9195,7 +9321,7 @@
       <c r="F935" s="6"/>
       <c r="G935" s="7"/>
     </row>
-    <row r="936" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="6"/>
       <c r="B936" s="7"/>
       <c r="C936" s="6"/>
@@ -9204,7 +9330,7 @@
       <c r="F936" s="6"/>
       <c r="G936" s="7"/>
     </row>
-    <row r="937" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="6"/>
       <c r="B937" s="7"/>
       <c r="C937" s="6"/>
@@ -9213,7 +9339,7 @@
       <c r="F937" s="6"/>
       <c r="G937" s="7"/>
     </row>
-    <row r="938" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="6"/>
       <c r="B938" s="7"/>
       <c r="C938" s="6"/>
@@ -9222,7 +9348,7 @@
       <c r="F938" s="6"/>
       <c r="G938" s="7"/>
     </row>
-    <row r="939" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="6"/>
       <c r="B939" s="7"/>
       <c r="C939" s="6"/>
@@ -9231,7 +9357,7 @@
       <c r="F939" s="6"/>
       <c r="G939" s="7"/>
     </row>
-    <row r="940" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="6"/>
       <c r="B940" s="7"/>
       <c r="C940" s="6"/>
@@ -9240,7 +9366,7 @@
       <c r="F940" s="6"/>
       <c r="G940" s="7"/>
     </row>
-    <row r="941" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="6"/>
       <c r="B941" s="7"/>
       <c r="C941" s="6"/>
@@ -9249,7 +9375,7 @@
       <c r="F941" s="6"/>
       <c r="G941" s="7"/>
     </row>
-    <row r="942" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="6"/>
       <c r="B942" s="7"/>
       <c r="C942" s="6"/>
@@ -9258,7 +9384,7 @@
       <c r="F942" s="6"/>
       <c r="G942" s="7"/>
     </row>
-    <row r="943" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="6"/>
       <c r="B943" s="7"/>
       <c r="C943" s="6"/>
@@ -9267,7 +9393,7 @@
       <c r="F943" s="6"/>
       <c r="G943" s="7"/>
     </row>
-    <row r="944" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="6"/>
       <c r="B944" s="7"/>
       <c r="C944" s="6"/>
@@ -9276,7 +9402,7 @@
       <c r="F944" s="6"/>
       <c r="G944" s="7"/>
     </row>
-    <row r="945" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="6"/>
       <c r="B945" s="7"/>
       <c r="C945" s="6"/>
@@ -9285,7 +9411,7 @@
       <c r="F945" s="6"/>
       <c r="G945" s="7"/>
     </row>
-    <row r="946" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="6"/>
       <c r="B946" s="7"/>
       <c r="C946" s="6"/>
@@ -9294,7 +9420,7 @@
       <c r="F946" s="6"/>
       <c r="G946" s="7"/>
     </row>
-    <row r="947" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="6"/>
       <c r="B947" s="7"/>
       <c r="C947" s="6"/>
@@ -9303,7 +9429,7 @@
       <c r="F947" s="6"/>
       <c r="G947" s="7"/>
     </row>
-    <row r="948" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="6"/>
       <c r="B948" s="7"/>
       <c r="C948" s="6"/>
@@ -9312,7 +9438,7 @@
       <c r="F948" s="6"/>
       <c r="G948" s="7"/>
     </row>
-    <row r="949" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="6"/>
       <c r="B949" s="7"/>
       <c r="C949" s="6"/>
@@ -9321,7 +9447,7 @@
       <c r="F949" s="6"/>
       <c r="G949" s="7"/>
     </row>
-    <row r="950" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="6"/>
       <c r="B950" s="7"/>
       <c r="C950" s="6"/>
@@ -9330,7 +9456,7 @@
       <c r="F950" s="6"/>
       <c r="G950" s="7"/>
     </row>
-    <row r="951" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="6"/>
       <c r="B951" s="7"/>
       <c r="C951" s="6"/>
@@ -9339,7 +9465,7 @@
       <c r="F951" s="6"/>
       <c r="G951" s="7"/>
     </row>
-    <row r="952" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="6"/>
       <c r="B952" s="7"/>
       <c r="C952" s="6"/>
@@ -9348,7 +9474,7 @@
       <c r="F952" s="6"/>
       <c r="G952" s="7"/>
     </row>
-    <row r="953" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="6"/>
       <c r="B953" s="7"/>
       <c r="C953" s="6"/>
@@ -9357,7 +9483,7 @@
       <c r="F953" s="6"/>
       <c r="G953" s="7"/>
     </row>
-    <row r="954" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="6"/>
       <c r="B954" s="7"/>
       <c r="C954" s="6"/>
@@ -9366,7 +9492,7 @@
       <c r="F954" s="6"/>
       <c r="G954" s="7"/>
     </row>
-    <row r="955" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="6"/>
       <c r="B955" s="7"/>
       <c r="C955" s="6"/>
@@ -9375,7 +9501,7 @@
       <c r="F955" s="6"/>
       <c r="G955" s="7"/>
     </row>
-    <row r="956" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="6"/>
       <c r="B956" s="7"/>
       <c r="C956" s="6"/>
@@ -9384,7 +9510,7 @@
       <c r="F956" s="6"/>
       <c r="G956" s="7"/>
     </row>
-    <row r="957" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="6"/>
       <c r="B957" s="7"/>
       <c r="C957" s="6"/>
@@ -9393,7 +9519,7 @@
       <c r="F957" s="6"/>
       <c r="G957" s="7"/>
     </row>
-    <row r="958" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="6"/>
       <c r="B958" s="7"/>
       <c r="C958" s="6"/>
@@ -9402,7 +9528,7 @@
       <c r="F958" s="6"/>
       <c r="G958" s="7"/>
     </row>
-    <row r="959" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="6"/>
       <c r="B959" s="7"/>
       <c r="C959" s="6"/>
@@ -9411,7 +9537,7 @@
       <c r="F959" s="6"/>
       <c r="G959" s="7"/>
     </row>
-    <row r="960" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="6"/>
       <c r="B960" s="7"/>
       <c r="C960" s="6"/>
@@ -9420,7 +9546,7 @@
       <c r="F960" s="6"/>
       <c r="G960" s="7"/>
     </row>
-    <row r="961" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="6"/>
       <c r="B961" s="7"/>
       <c r="C961" s="6"/>
@@ -9429,7 +9555,7 @@
       <c r="F961" s="6"/>
       <c r="G961" s="7"/>
     </row>
-    <row r="962" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="6"/>
       <c r="B962" s="7"/>
       <c r="C962" s="6"/>
@@ -9438,7 +9564,7 @@
       <c r="F962" s="6"/>
       <c r="G962" s="7"/>
     </row>
-    <row r="963" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="6"/>
       <c r="B963" s="7"/>
       <c r="C963" s="6"/>
@@ -9447,7 +9573,7 @@
       <c r="F963" s="6"/>
       <c r="G963" s="7"/>
     </row>
-    <row r="964" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="6"/>
       <c r="B964" s="7"/>
       <c r="C964" s="6"/>
@@ -9456,7 +9582,7 @@
       <c r="F964" s="6"/>
       <c r="G964" s="7"/>
     </row>
-    <row r="965" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="6"/>
       <c r="B965" s="7"/>
       <c r="C965" s="6"/>
@@ -9465,7 +9591,7 @@
       <c r="F965" s="6"/>
       <c r="G965" s="7"/>
     </row>
-    <row r="966" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="6"/>
       <c r="B966" s="7"/>
       <c r="C966" s="6"/>
@@ -9474,7 +9600,7 @@
       <c r="F966" s="6"/>
       <c r="G966" s="7"/>
     </row>
-    <row r="967" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="6"/>
       <c r="B967" s="7"/>
       <c r="C967" s="6"/>
@@ -9483,7 +9609,7 @@
       <c r="F967" s="6"/>
       <c r="G967" s="7"/>
     </row>
-    <row r="968" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="6"/>
       <c r="B968" s="7"/>
       <c r="C968" s="6"/>
@@ -9492,7 +9618,7 @@
       <c r="F968" s="6"/>
       <c r="G968" s="7"/>
     </row>
-    <row r="969" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="6"/>
       <c r="B969" s="7"/>
       <c r="C969" s="6"/>
@@ -9501,7 +9627,7 @@
       <c r="F969" s="6"/>
       <c r="G969" s="7"/>
     </row>
-    <row r="970" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="6"/>
       <c r="B970" s="7"/>
       <c r="C970" s="6"/>
@@ -9510,7 +9636,7 @@
       <c r="F970" s="6"/>
       <c r="G970" s="7"/>
     </row>
-    <row r="971" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="6"/>
       <c r="B971" s="7"/>
       <c r="C971" s="6"/>
@@ -9519,7 +9645,7 @@
       <c r="F971" s="6"/>
       <c r="G971" s="7"/>
     </row>
-    <row r="972" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="6"/>
       <c r="B972" s="7"/>
       <c r="C972" s="6"/>
@@ -9528,7 +9654,7 @@
       <c r="F972" s="6"/>
       <c r="G972" s="7"/>
     </row>
-    <row r="973" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="6"/>
       <c r="B973" s="7"/>
       <c r="C973" s="6"/>
@@ -9537,7 +9663,7 @@
       <c r="F973" s="6"/>
       <c r="G973" s="7"/>
     </row>
-    <row r="974" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="6"/>
       <c r="B974" s="7"/>
       <c r="C974" s="6"/>
@@ -9546,7 +9672,7 @@
       <c r="F974" s="6"/>
       <c r="G974" s="7"/>
     </row>
-    <row r="975" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="6"/>
       <c r="B975" s="7"/>
       <c r="C975" s="6"/>
@@ -9555,7 +9681,7 @@
       <c r="F975" s="6"/>
       <c r="G975" s="7"/>
     </row>
-    <row r="976" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="6"/>
       <c r="B976" s="7"/>
       <c r="C976" s="6"/>
@@ -9564,7 +9690,7 @@
       <c r="F976" s="6"/>
       <c r="G976" s="7"/>
     </row>
-    <row r="977" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="6"/>
       <c r="B977" s="7"/>
       <c r="C977" s="6"/>
@@ -9573,7 +9699,7 @@
       <c r="F977" s="6"/>
       <c r="G977" s="7"/>
     </row>
-    <row r="978" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="6"/>
       <c r="B978" s="7"/>
       <c r="C978" s="6"/>
@@ -9582,7 +9708,7 @@
       <c r="F978" s="6"/>
       <c r="G978" s="7"/>
     </row>
-    <row r="979" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="6"/>
       <c r="B979" s="7"/>
       <c r="C979" s="6"/>
@@ -9591,7 +9717,7 @@
       <c r="F979" s="6"/>
       <c r="G979" s="7"/>
     </row>
-    <row r="980" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="6"/>
       <c r="B980" s="7"/>
       <c r="C980" s="6"/>
@@ -9600,7 +9726,7 @@
       <c r="F980" s="6"/>
       <c r="G980" s="7"/>
     </row>
-    <row r="981" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="6"/>
       <c r="B981" s="7"/>
       <c r="C981" s="6"/>
@@ -9609,7 +9735,7 @@
       <c r="F981" s="6"/>
       <c r="G981" s="7"/>
     </row>
-    <row r="982" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="6"/>
       <c r="B982" s="7"/>
       <c r="C982" s="6"/>
@@ -9618,7 +9744,7 @@
       <c r="F982" s="6"/>
       <c r="G982" s="7"/>
     </row>
-    <row r="983" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="6"/>
       <c r="B983" s="7"/>
       <c r="C983" s="6"/>
@@ -9627,7 +9753,7 @@
       <c r="F983" s="6"/>
       <c r="G983" s="7"/>
     </row>
-    <row r="984" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="6"/>
       <c r="B984" s="7"/>
       <c r="C984" s="6"/>
@@ -9636,7 +9762,7 @@
       <c r="F984" s="6"/>
       <c r="G984" s="7"/>
     </row>
-    <row r="985" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="6"/>
       <c r="B985" s="7"/>
       <c r="C985" s="6"/>
@@ -9645,7 +9771,7 @@
       <c r="F985" s="6"/>
       <c r="G985" s="7"/>
     </row>
-    <row r="986" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="6"/>
       <c r="B986" s="7"/>
       <c r="C986" s="6"/>
@@ -9654,7 +9780,7 @@
       <c r="F986" s="6"/>
       <c r="G986" s="7"/>
     </row>
-    <row r="987" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="6"/>
       <c r="B987" s="7"/>
       <c r="C987" s="6"/>
@@ -9663,7 +9789,7 @@
       <c r="F987" s="6"/>
       <c r="G987" s="7"/>
     </row>
-    <row r="988" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="6"/>
       <c r="B988" s="7"/>
       <c r="C988" s="6"/>
@@ -9672,7 +9798,7 @@
       <c r="F988" s="6"/>
       <c r="G988" s="7"/>
     </row>
-    <row r="989" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="6"/>
       <c r="B989" s="7"/>
       <c r="C989" s="6"/>
@@ -9681,7 +9807,7 @@
       <c r="F989" s="6"/>
       <c r="G989" s="7"/>
     </row>
-    <row r="990" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="6"/>
       <c r="B990" s="7"/>
       <c r="C990" s="6"/>
@@ -9690,7 +9816,7 @@
       <c r="F990" s="6"/>
       <c r="G990" s="7"/>
     </row>
-    <row r="991" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="6"/>
       <c r="B991" s="7"/>
       <c r="C991" s="6"/>
@@ -9699,7 +9825,7 @@
       <c r="F991" s="6"/>
       <c r="G991" s="7"/>
     </row>
-    <row r="992" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="6"/>
       <c r="B992" s="7"/>
       <c r="C992" s="6"/>
@@ -9708,7 +9834,7 @@
       <c r="F992" s="6"/>
       <c r="G992" s="7"/>
     </row>
-    <row r="993" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="6"/>
       <c r="B993" s="7"/>
       <c r="C993" s="6"/>
@@ -9717,7 +9843,7 @@
       <c r="F993" s="6"/>
       <c r="G993" s="7"/>
     </row>
-    <row r="994" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="6"/>
       <c r="B994" s="7"/>
       <c r="C994" s="6"/>
@@ -9726,7 +9852,7 @@
       <c r="F994" s="6"/>
       <c r="G994" s="7"/>
     </row>
-    <row r="995" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="6"/>
       <c r="B995" s="7"/>
       <c r="C995" s="6"/>
@@ -9735,7 +9861,7 @@
       <c r="F995" s="6"/>
       <c r="G995" s="7"/>
     </row>
-    <row r="996" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="6"/>
       <c r="B996" s="7"/>
       <c r="C996" s="6"/>
@@ -9744,7 +9870,7 @@
       <c r="F996" s="6"/>
       <c r="G996" s="7"/>
     </row>
-    <row r="997" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="6"/>
       <c r="B997" s="7"/>
       <c r="C997" s="6"/>
@@ -9753,7 +9879,7 @@
       <c r="F997" s="6"/>
       <c r="G997" s="7"/>
     </row>
-    <row r="998" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="6"/>
       <c r="B998" s="7"/>
       <c r="C998" s="6"/>
@@ -9762,7 +9888,7 @@
       <c r="F998" s="6"/>
       <c r="G998" s="7"/>
     </row>
-    <row r="999" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="6"/>
       <c r="B999" s="7"/>
       <c r="C999" s="6"/>
@@ -9771,7 +9897,7 @@
       <c r="F999" s="6"/>
       <c r="G999" s="7"/>
     </row>
-    <row r="1000" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="6"/>
       <c r="B1000" s="7"/>
       <c r="C1000" s="6"/>
@@ -9780,7 +9906,7 @@
       <c r="F1000" s="6"/>
       <c r="G1000" s="7"/>
     </row>
-    <row r="1001" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1001" s="6"/>
       <c r="B1001" s="7"/>
       <c r="C1001" s="6"/>
@@ -9789,7 +9915,7 @@
       <c r="F1001" s="6"/>
       <c r="G1001" s="7"/>
     </row>
-    <row r="1002" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1002" s="6"/>
       <c r="B1002" s="7"/>
       <c r="C1002" s="6"/>
@@ -9798,7 +9924,7 @@
       <c r="F1002" s="6"/>
       <c r="G1002" s="7"/>
     </row>
-    <row r="1003" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1003" s="6"/>
       <c r="B1003" s="7"/>
       <c r="C1003" s="6"/>
@@ -9807,7 +9933,7 @@
       <c r="F1003" s="6"/>
       <c r="G1003" s="7"/>
     </row>
-    <row r="1004" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1004" s="6"/>
       <c r="B1004" s="7"/>
       <c r="C1004" s="6"/>
@@ -9816,7 +9942,7 @@
       <c r="F1004" s="6"/>
       <c r="G1004" s="7"/>
     </row>
-    <row r="1005" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1005" s="6"/>
       <c r="B1005" s="7"/>
       <c r="C1005" s="6"/>
@@ -9825,7 +9951,7 @@
       <c r="F1005" s="6"/>
       <c r="G1005" s="7"/>
     </row>
-    <row r="1006" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1006" s="6"/>
       <c r="B1006" s="7"/>
       <c r="C1006" s="6"/>
@@ -9834,7 +9960,7 @@
       <c r="F1006" s="6"/>
       <c r="G1006" s="7"/>
     </row>
-    <row r="1007" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1007" s="6"/>
       <c r="B1007" s="7"/>
       <c r="C1007" s="6"/>
@@ -9843,7 +9969,7 @@
       <c r="F1007" s="6"/>
       <c r="G1007" s="7"/>
     </row>
-    <row r="1008" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1008" s="6"/>
       <c r="B1008" s="7"/>
       <c r="C1008" s="6"/>
@@ -9852,7 +9978,7 @@
       <c r="F1008" s="6"/>
       <c r="G1008" s="7"/>
     </row>
-    <row r="1009" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1009" s="6"/>
       <c r="B1009" s="7"/>
       <c r="C1009" s="6"/>
@@ -9861,7 +9987,7 @@
       <c r="F1009" s="6"/>
       <c r="G1009" s="7"/>
     </row>
-    <row r="1010" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1010" s="6"/>
       <c r="B1010" s="7"/>
       <c r="C1010" s="6"/>
@@ -9870,7 +9996,7 @@
       <c r="F1010" s="6"/>
       <c r="G1010" s="7"/>
     </row>
-    <row r="1011" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1011" s="6"/>
       <c r="B1011" s="7"/>
       <c r="C1011" s="6"/>
@@ -9879,7 +10005,7 @@
       <c r="F1011" s="6"/>
       <c r="G1011" s="7"/>
     </row>
-    <row r="1012" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1012" s="6"/>
       <c r="B1012" s="7"/>
       <c r="C1012" s="6"/>
@@ -9888,7 +10014,7 @@
       <c r="F1012" s="6"/>
       <c r="G1012" s="7"/>
     </row>
-    <row r="1013" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1013" s="6"/>
       <c r="B1013" s="7"/>
       <c r="C1013" s="6"/>
@@ -9897,7 +10023,7 @@
       <c r="F1013" s="6"/>
       <c r="G1013" s="7"/>
     </row>
-    <row r="1014" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1014" s="6"/>
       <c r="B1014" s="7"/>
       <c r="C1014" s="6"/>
@@ -9906,7 +10032,7 @@
       <c r="F1014" s="6"/>
       <c r="G1014" s="7"/>
     </row>
-    <row r="1015" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1015" s="6"/>
       <c r="B1015" s="7"/>
       <c r="C1015" s="6"/>
@@ -9915,7 +10041,7 @@
       <c r="F1015" s="6"/>
       <c r="G1015" s="7"/>
     </row>
-    <row r="1016" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A1016" s="5"/>
       <c r="B1016" s="5"/>
       <c r="C1016" s="5"/>

--- a/src/main/resources/iteration2_scrumReport_wolf.xlsx
+++ b/src/main/resources/iteration2_scrumReport_wolf.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adan\Documents\GitHub\MineSweeper_Wolf\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\MineSweeper_Wolf\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6550A7-1267-47F7-A9AF-06C1A749B780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EDBA76-92F0-4462-9EC9-06A898B6A131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="45">
   <si>
     <t>Iteration</t>
   </si>
@@ -141,16 +141,38 @@
   <si>
     <t>Implemented exception handling (alerts) for invalid filters in the History screen.</t>
   </si>
+  <si>
+    <t>Design Filters screen layout (FXML UI)</t>
+  </si>
+  <si>
+    <t>Aya</t>
+  </si>
+  <si>
+    <t>Designed Filters screen using FXML (GridPane, VBox, HBox), including title, icons, back button, and toggle switches with consistent styling</t>
+  </si>
+  <si>
+    <t>Implement global Music &amp; Sound control</t>
+  </si>
+  <si>
+    <t>Connected Music and Sound toggles to SysData and SoundManager, so changes affect the entire application globally</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -237,32 +259,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,7 +459,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Scrum_Report" displayName="Scrum_Report" ref="A1:G1015" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Scrum_Report" displayName="Scrum_Report" ref="A1:G1003" dataDxfId="7">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Iteration" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task" dataDxfId="5"/>
@@ -650,20 +676,21 @@
   </sheetPr>
   <dimension ref="A1:I1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25:G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.09765625" customWidth="1"/>
-    <col min="2" max="2" width="41.8984375" customWidth="1"/>
+    <col min="2" max="2" width="44.19921875" customWidth="1"/>
     <col min="3" max="3" width="14.59765625" customWidth="1"/>
     <col min="4" max="4" width="17.8984375" customWidth="1"/>
     <col min="5" max="5" width="15.59765625" customWidth="1"/>
     <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="8" width="20.09765625" customWidth="1"/>
+    <col min="7" max="7" width="132" customWidth="1"/>
+    <col min="8" max="8" width="20.09765625" customWidth="1"/>
     <col min="9" max="9" width="22.59765625" customWidth="1"/>
     <col min="10" max="10" width="15.09765625" customWidth="1"/>
   </cols>
@@ -1106,21 +1133,45 @@
     </row>
     <row r="23" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="7"/>
+      <c r="B23" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
+      <c r="B24" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
@@ -1178,7 +1229,7 @@
     </row>
     <row r="31" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -1205,7 +1256,7 @@
     </row>
     <row r="34" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="9"/>
+      <c r="B34" s="7"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
@@ -1313,7 +1364,7 @@
     </row>
     <row r="46" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
-      <c r="B46" s="7"/>
+      <c r="B46" s="10"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -1322,7 +1373,7 @@
     </row>
     <row r="47" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="9"/>
+      <c r="B47" s="7"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -1331,7 +1382,7 @@
     </row>
     <row r="48" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="9"/>
+      <c r="B48" s="11"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -1340,7 +1391,7 @@
     </row>
     <row r="49" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="9"/>
+      <c r="B49" s="7"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -1349,7 +1400,7 @@
     </row>
     <row r="50" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="9"/>
+      <c r="B50" s="7"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -1358,7 +1409,7 @@
     </row>
     <row r="51" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="9"/>
+      <c r="B51" s="7"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
@@ -1367,7 +1418,7 @@
     </row>
     <row r="52" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="9"/>
+      <c r="B52" s="7"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
@@ -1376,7 +1427,7 @@
     </row>
     <row r="53" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
-      <c r="B53" s="9"/>
+      <c r="B53" s="7"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -1385,7 +1436,7 @@
     </row>
     <row r="54" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
-      <c r="B54" s="9"/>
+      <c r="B54" s="7"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
@@ -1394,7 +1445,7 @@
     </row>
     <row r="55" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
-      <c r="B55" s="9"/>
+      <c r="B55" s="7"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
@@ -1403,7 +1454,7 @@
     </row>
     <row r="56" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
-      <c r="B56" s="9"/>
+      <c r="B56" s="7"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
@@ -1412,7 +1463,7 @@
     </row>
     <row r="57" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
-      <c r="B57" s="9"/>
+      <c r="B57" s="7"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
@@ -1421,7 +1472,7 @@
     </row>
     <row r="58" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
-      <c r="B58" s="10"/>
+      <c r="B58" s="7"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
@@ -1439,7 +1490,7 @@
     </row>
     <row r="60" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
-      <c r="B60" s="11"/>
+      <c r="B60" s="7"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
@@ -9934,140 +9985,44 @@
       <c r="G1003" s="7"/>
     </row>
     <row r="1004" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1004" s="6"/>
-      <c r="B1004" s="7"/>
-      <c r="C1004" s="6"/>
-      <c r="D1004" s="6"/>
-      <c r="E1004" s="6"/>
-      <c r="F1004" s="6"/>
-      <c r="G1004" s="7"/>
-    </row>
-    <row r="1005" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1005" s="6"/>
-      <c r="B1005" s="7"/>
-      <c r="C1005" s="6"/>
-      <c r="D1005" s="6"/>
-      <c r="E1005" s="6"/>
-      <c r="F1005" s="6"/>
-      <c r="G1005" s="7"/>
-    </row>
-    <row r="1006" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1006" s="6"/>
-      <c r="B1006" s="7"/>
-      <c r="C1006" s="6"/>
-      <c r="D1006" s="6"/>
-      <c r="E1006" s="6"/>
-      <c r="F1006" s="6"/>
-      <c r="G1006" s="7"/>
-    </row>
-    <row r="1007" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1007" s="6"/>
-      <c r="B1007" s="7"/>
-      <c r="C1007" s="6"/>
-      <c r="D1007" s="6"/>
-      <c r="E1007" s="6"/>
-      <c r="F1007" s="6"/>
-      <c r="G1007" s="7"/>
-    </row>
-    <row r="1008" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1008" s="6"/>
-      <c r="B1008" s="7"/>
-      <c r="C1008" s="6"/>
-      <c r="D1008" s="6"/>
-      <c r="E1008" s="6"/>
-      <c r="F1008" s="6"/>
-      <c r="G1008" s="7"/>
-    </row>
-    <row r="1009" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1009" s="6"/>
-      <c r="B1009" s="7"/>
-      <c r="C1009" s="6"/>
-      <c r="D1009" s="6"/>
-      <c r="E1009" s="6"/>
-      <c r="F1009" s="6"/>
-      <c r="G1009" s="7"/>
-    </row>
-    <row r="1010" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1010" s="6"/>
-      <c r="B1010" s="7"/>
-      <c r="C1010" s="6"/>
-      <c r="D1010" s="6"/>
-      <c r="E1010" s="6"/>
-      <c r="F1010" s="6"/>
-      <c r="G1010" s="7"/>
-    </row>
-    <row r="1011" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1011" s="6"/>
-      <c r="B1011" s="7"/>
-      <c r="C1011" s="6"/>
-      <c r="D1011" s="6"/>
-      <c r="E1011" s="6"/>
-      <c r="F1011" s="6"/>
-      <c r="G1011" s="7"/>
-    </row>
-    <row r="1012" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1012" s="6"/>
-      <c r="B1012" s="7"/>
-      <c r="C1012" s="6"/>
-      <c r="D1012" s="6"/>
-      <c r="E1012" s="6"/>
-      <c r="F1012" s="6"/>
-      <c r="G1012" s="7"/>
-    </row>
-    <row r="1013" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1013" s="6"/>
-      <c r="B1013" s="7"/>
-      <c r="C1013" s="6"/>
-      <c r="D1013" s="6"/>
-      <c r="E1013" s="6"/>
-      <c r="F1013" s="6"/>
-      <c r="G1013" s="7"/>
-    </row>
-    <row r="1014" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1014" s="6"/>
-      <c r="B1014" s="7"/>
-      <c r="C1014" s="6"/>
-      <c r="D1014" s="6"/>
-      <c r="E1014" s="6"/>
-      <c r="F1014" s="6"/>
-      <c r="G1014" s="7"/>
-    </row>
-    <row r="1015" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1015" s="6"/>
-      <c r="B1015" s="7"/>
-      <c r="C1015" s="6"/>
-      <c r="D1015" s="6"/>
-      <c r="E1015" s="6"/>
-      <c r="F1015" s="6"/>
-      <c r="G1015" s="7"/>
-    </row>
-    <row r="1016" spans="1:7" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A1016" s="5"/>
-      <c r="B1016" s="5"/>
-      <c r="C1016" s="5"/>
-      <c r="D1016" s="5"/>
-      <c r="E1016" s="5"/>
-      <c r="F1016" s="5"/>
-      <c r="G1016" s="5"/>
-    </row>
+      <c r="A1004" s="5"/>
+      <c r="B1004" s="5"/>
+      <c r="C1004" s="5"/>
+      <c r="D1004" s="5"/>
+      <c r="E1004" s="5"/>
+      <c r="F1004" s="5"/>
+      <c r="G1004" s="5"/>
+    </row>
+    <row r="1005" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1008" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1009" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1010" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1011" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1012" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1013" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1014" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1015" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1016" ht="13.8" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" sqref="C2:C1015" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation allowBlank="1" showDropDown="1" sqref="B6:B8 B2:B4 B34 B47 B49:B1003 G2:G22 G25:G1003" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation type="list" allowBlank="1" sqref="C2:C1003" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"P1,P2,P3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F1015" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F1003" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Not in this iteration,In progress,Completed,Not started"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="A2:A1015" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="A2:A1003" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Iteration01,Iteration02,Iteration03"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E1015" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E1003" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Developer 1,Developer 2,Developer 3,Developer 4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D1015" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D1003" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Scrum master,Developer,Product owner"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="G2:G1015 B2:B4 B46 B31 B59 B61:B1015 B6:B8" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/iteration2_scrumReport_wolf.xlsx
+++ b/src/main/resources/iteration2_scrumReport_wolf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\MineSweeper_Wolf\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EDBA76-92F0-4462-9EC9-06A898B6A131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E04E75-0A28-43D0-AB35-7073FAB65B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="47">
   <si>
     <t>Iteration</t>
   </si>
@@ -156,12 +156,18 @@
   <si>
     <t>Connected Music and Sound toggles to SysData and SoundManager, so changes affect the entire application globally</t>
   </si>
+  <si>
+    <t>Synchronize UI state across all screens</t>
+  </si>
+  <si>
+    <t>When Music/Sound is turned OFF in Filters, all screens reflect the muted state visually (music/sound icons) and functionally (no sound playback)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,13 +229,25 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F8F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -259,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -288,6 +306,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,9 +697,9 @@
   </sheetPr>
   <dimension ref="A1:I1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25:G36"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="94" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1175,12 +1196,24 @@
     </row>
     <row r="25" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="7"/>
+      <c r="B25" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>

--- a/src/main/resources/iteration2_scrumReport_wolf.xlsx
+++ b/src/main/resources/iteration2_scrumReport_wolf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\MineSweeper_Wolf\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E04E75-0A28-43D0-AB35-7073FAB65B1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C099C929-5F48-4D90-956E-238448BC094F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="49">
   <si>
     <t>Iteration</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>When Music/Sound is turned OFF in Filters, all screens reflect the muted state visually (music/sound icons) and functionally (no sound playback)</t>
+  </si>
+  <si>
+    <t>Implement Timer filter logic</t>
+  </si>
+  <si>
+    <t>Implemented onTimerToggled() to update global timer configuration in SysData, affecting gameplay behavior</t>
   </si>
 </sst>
 </file>
@@ -697,9 +703,9 @@
   </sheetPr>
   <dimension ref="A1:I1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="94" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1217,12 +1223,24 @@
     </row>
     <row r="26" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="7"/>
+      <c r="B26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>

--- a/src/main/resources/iteration2_scrumReport_wolf.xlsx
+++ b/src/main/resources/iteration2_scrumReport_wolf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\MineSweeper_Wolf\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C099C929-5F48-4D90-956E-238448BC094F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91259368-CAB8-459C-A1C8-7E91B7C98CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="51">
   <si>
     <t>Iteration</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>Implemented onTimerToggled() to update global timer configuration in SysData, affecting gameplay behavior</t>
+  </si>
+  <si>
+    <t>Sync Filters UI with saved settings</t>
+  </si>
+  <si>
+    <t>Implemented initialize() to load saved configuration from SysData and display correct toggle states when entering the Filters screen</t>
   </si>
 </sst>
 </file>
@@ -705,7 +711,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1244,12 +1250,24 @@
     </row>
     <row r="27" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="7"/>
+      <c r="B27" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>

--- a/src/main/resources/iteration2_scrumReport_wolf.xlsx
+++ b/src/main/resources/iteration2_scrumReport_wolf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\MineSweeper_Wolf\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91259368-CAB8-459C-A1C8-7E91B7C98CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F098EC62-72D3-46DE-8974-B5B41AC255E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="53">
   <si>
     <t>Iteration</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>Implemented initialize() to load saved configuration from SysData and display correct toggle states when entering the Filters screen</t>
+  </si>
+  <si>
+    <t>Implement navigation back to Settings screen</t>
+  </si>
+  <si>
+    <t>Implemented back navigation using FXMLLoader and scene switching, including click sound feedback</t>
   </si>
 </sst>
 </file>
@@ -711,7 +717,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1271,12 +1277,24 @@
     </row>
     <row r="28" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
+      <c r="B28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="29" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>

--- a/src/main/resources/iteration2_scrumReport_wolf.xlsx
+++ b/src/main/resources/iteration2_scrumReport_wolf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\MineSweeper_Wolf\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F098EC62-72D3-46DE-8974-B5B41AC255E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3CF21F-585E-4C1B-9AB1-0B1D865AEB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="57">
   <si>
     <t>Iteration</t>
   </si>
@@ -179,6 +179,18 @@
   </si>
   <si>
     <t>Implemented back navigation using FXMLLoader and scene switching, including click sound feedback</t>
+  </si>
+  <si>
+    <t>Add UI placeholders for future filters</t>
+  </si>
+  <si>
+    <t>Smart Hints and Auto Remove Flag toggles exist in UI and update SysData, but are not yet connected to active game logic</t>
+  </si>
+  <si>
+    <t>Separate music and sound effects control</t>
+  </si>
+  <si>
+    <t>Split audio control into two independent channels: background music has its own logo and toggle, while UI sound effects (clicks) use a separate logo and Sound filter</t>
   </si>
 </sst>
 </file>
@@ -717,7 +729,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1298,21 +1310,45 @@
     </row>
     <row r="29" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="7"/>
+      <c r="B29" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="7"/>
+      <c r="B30" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>

--- a/src/main/resources/iteration2_scrumReport_wolf.xlsx
+++ b/src/main/resources/iteration2_scrumReport_wolf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\MineSweeper_Wolf\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3CF21F-585E-4C1B-9AB1-0B1D865AEB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F17EE64-785E-494D-98A4-C184DFC48C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="71">
   <si>
     <t>Iteration</t>
   </si>
@@ -192,12 +192,54 @@
   <si>
     <t>Split audio control into two independent channels: background music has its own logo and toggle, while UI sound effects (clicks) use a separate logo and Sound filter</t>
   </si>
+  <si>
+    <t>Design White-Box test for Music toggle logic</t>
+  </si>
+  <si>
+    <t>Scrum master</t>
+  </si>
+  <si>
+    <t>Designed a White-Box test (WB-FLT-01) for the onMusicToggled() method, focusing on transition coverage and internal control flow when enabling music</t>
+  </si>
+  <si>
+    <t>Build control-flow graph for White-Box testing</t>
+  </si>
+  <si>
+    <t>Created a control-flow graph for onMusicToggled(), identified nodes and transitions, and marked covered vs. uncovered transitions</t>
+  </si>
+  <si>
+    <t>Design Black-Box test for Music toggle requirement</t>
+  </si>
+  <si>
+    <t>Product owner</t>
+  </si>
+  <si>
+    <t>Designed a Black-Box test (BB-FLT-01) based on requirement R-FLT-MUSIC-01 using equivalence class partitioning (Music ON / OFF)</t>
+  </si>
+  <si>
+    <t>Define equivalence classes for Filters – Music</t>
+  </si>
+  <si>
+    <t>Defined valid equivalence classes for the Music toggle input and mapped test case values to Ecs</t>
+  </si>
+  <si>
+    <t>Implement JUnit test for Timer toggle</t>
+  </si>
+  <si>
+    <t>Implemented a JUnit unit test for FiltersController.onTimerToggled(), including JavaFX thread handling and SysData state verification</t>
+  </si>
+  <si>
+    <t>Prepare codebase for testability</t>
+  </si>
+  <si>
+    <t>Ensured FiltersController methods are small, focused, and suitable for White-Box, Black-Box, and unit testing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,8 +307,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,8 +327,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -303,11 +357,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF49564C"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -338,6 +401,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -729,7 +798,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1352,57 +1421,129 @@
     </row>
     <row r="31" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="7"/>
+      <c r="B31" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="32" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="7"/>
+      <c r="B32" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="33" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="7"/>
+      <c r="B33" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="7"/>
+      <c r="B34" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="7"/>
+      <c r="B35" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="16" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="7"/>
+      <c r="B36" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
@@ -10130,7 +10271,7 @@
     <row r="1016" ht="13.8" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation allowBlank="1" showDropDown="1" sqref="B6:B8 B2:B4 B34 B47 B49:B1003 G2:G22 G25:G1003" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="B6:B8 B2:B4 B34 B47 B49:B1003 G2:G22 G25:G34 G36:G1003" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation type="list" allowBlank="1" sqref="C2:C1003" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"P1,P2,P3"</formula1>
     </dataValidation>

--- a/src/main/resources/iteration2_scrumReport_wolf.xlsx
+++ b/src/main/resources/iteration2_scrumReport_wolf.xlsx
@@ -3,24 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\MineSweeper_Wolf\src\main\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F17EE64-785E-494D-98A4-C184DFC48C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9A8C0549-3CC1-4F9E-9FD1-F006BE0E8A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="97">
   <si>
     <t>Iteration</t>
   </si>
@@ -234,6 +230,84 @@
   <si>
     <t>Ensured FiltersController methods are small, focused, and suitable for White-Box, Black-Box, and unit testing</t>
   </si>
+  <si>
+    <t>Layla</t>
+  </si>
+  <si>
+    <t>mplemented Sign-Up screen and persisted new users to users.csv.</t>
+  </si>
+  <si>
+    <t>Connected game session to logged-in user context.</t>
+  </si>
+  <si>
+    <t>Stored the active user after login and reused it across game flow and statistics screens.</t>
+  </si>
+  <si>
+    <t>Saved game results per user into history.csv.</t>
+  </si>
+  <si>
+    <t>Aggregated statistics per user from history.csv and users.csv.</t>
+  </si>
+  <si>
+    <t>Calculated total games played, wins, losses, and difficulty-based statistics.</t>
+  </si>
+  <si>
+    <t>Implemented Statistics screen populated dynamically from CSV data.</t>
+  </si>
+  <si>
+    <t>Displayed computed statistics per user instead of static or hardcoded values.</t>
+  </si>
+  <si>
+    <t>Handled users with no game history in the Statistics screen.</t>
+  </si>
+  <si>
+    <t>Prevented crashes and displayed default values when no history exists.</t>
+  </si>
+  <si>
+    <t>Implemented validation and alerts for invalid or missing user data.</t>
+  </si>
+  <si>
+    <t>Added error handling when CSV files are empty, missing, or corrupted.</t>
+  </si>
+  <si>
+    <t>Adjusted layout, colors, and component consistency to match system theme.</t>
+  </si>
+  <si>
+    <t>Implemented “Forgot Password” flow with OTP verification.</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Generates and validates one-time passwords before allowing password reset. (needs improvement, logic is not complete as I like it to be)</t>
+  </si>
+  <si>
+    <t>Implemented password reset logic after successful OTP verification.</t>
+  </si>
+  <si>
+    <t>Improved navigation flow between Login, Game, History, and Statistics screens.</t>
+  </si>
+  <si>
+    <t>Ensured correct screen routing based on authentication state.</t>
+  </si>
+  <si>
+    <t>Standardized spacing, fonts, button styles, and ComboBox styling across all auth + manager screens using theme.css.</t>
+  </si>
+  <si>
+    <t>Moved repeated inline styles into theme.css and applied it to all FXML views.</t>
+  </si>
+  <si>
+    <t>for now it's saving the OTP as the new password for the user, needs enhancement and change (OTP-&gt; verify-&gt; user sets new password themseleves).</t>
+  </si>
+  <si>
+    <t>Implemented Login screen with credential validation, error handling, and user feedback alerts.</t>
+  </si>
+  <si>
+    <t>Created and managed users.csv for persistent user storage, including uniqueness validation on username.</t>
+  </si>
+  <si>
+    <t>Centralized global UI theme (colors, fonts, components) using shared CSS across all views.</t>
+  </si>
 </sst>
 </file>
 
@@ -370,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -396,8 +470,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -409,6 +482,10 @@
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,7 +656,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Scrum_Report" displayName="Scrum_Report" ref="A1:G1003" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Scrum_Report" displayName="Scrum_Report" ref="A1:G1000" dataDxfId="7">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Iteration" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task" dataDxfId="5"/>
@@ -797,8 +874,8 @@
   <dimension ref="A1:I1016"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -822,7 +899,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -1082,7 +1159,7 @@
     </row>
     <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -1101,7 +1178,7 @@
     </row>
     <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1120,7 +1197,7 @@
     </row>
     <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>33</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1139,7 +1216,7 @@
     </row>
     <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>34</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -1158,7 +1235,7 @@
     </row>
     <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -1177,7 +1254,7 @@
     </row>
     <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -1196,7 +1273,7 @@
     </row>
     <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1215,7 +1292,7 @@
     </row>
     <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1234,7 +1311,7 @@
     </row>
     <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>39</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -1253,7 +1330,7 @@
     </row>
     <row r="23" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -1268,13 +1345,13 @@
       <c r="F23" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>43</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -1289,13 +1366,13 @@
       <c r="F24" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6"/>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -1461,7 +1538,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="9" t="s">
         <v>62</v>
@@ -1482,7 +1559,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7" t="s">
         <v>65</v>
@@ -1503,7 +1580,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="9" t="s">
         <v>67</v>
@@ -1520,13 +1597,13 @@
       <c r="F35" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="16" t="s">
+      <c r="G35" s="15" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>69</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -1545,133 +1622,293 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="B37" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="B38" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="B39" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="7"/>
-    </row>
-    <row r="41" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
+      <c r="B41" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="7"/>
-    </row>
-    <row r="43" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="7"/>
-    </row>
-    <row r="44" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="7"/>
-    </row>
-    <row r="45" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="7"/>
-    </row>
-    <row r="46" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="7"/>
-    </row>
-    <row r="47" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="7"/>
-    </row>
-    <row r="48" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="7"/>
-    </row>
-    <row r="49" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="7"/>
-    </row>
-    <row r="50" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="7"/>
-    </row>
-    <row r="51" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="6"/>
@@ -1680,7 +1917,7 @@
       <c r="F51" s="6"/>
       <c r="G51" s="7"/>
     </row>
-    <row r="52" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="6"/>
@@ -1689,7 +1926,7 @@
       <c r="F52" s="6"/>
       <c r="G52" s="7"/>
     </row>
-    <row r="53" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="6"/>
@@ -1698,7 +1935,7 @@
       <c r="F53" s="6"/>
       <c r="G53" s="7"/>
     </row>
-    <row r="54" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="6"/>
@@ -1707,7 +1944,7 @@
       <c r="F54" s="6"/>
       <c r="G54" s="7"/>
     </row>
-    <row r="55" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="6"/>
@@ -1716,7 +1953,7 @@
       <c r="F55" s="6"/>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="6"/>
@@ -1725,7 +1962,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="6"/>
@@ -1734,7 +1971,7 @@
       <c r="F57" s="6"/>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="6"/>
@@ -1743,7 +1980,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="6"/>
@@ -1752,7 +1989,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="6"/>
@@ -1761,7 +1998,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="6"/>
@@ -1770,7 +2007,7 @@
       <c r="F61" s="6"/>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="6"/>
@@ -1779,7 +2016,7 @@
       <c r="F62" s="6"/>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="6"/>
@@ -1788,7 +2025,7 @@
       <c r="F63" s="6"/>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="6"/>
@@ -1797,7 +2034,7 @@
       <c r="F64" s="6"/>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="6"/>
@@ -1806,7 +2043,7 @@
       <c r="F65" s="6"/>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="6"/>
@@ -1815,7 +2052,7 @@
       <c r="F66" s="6"/>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="6"/>
@@ -1824,7 +2061,7 @@
       <c r="F67" s="6"/>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="6"/>
@@ -1833,7 +2070,7 @@
       <c r="F68" s="6"/>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="6"/>
@@ -1842,7 +2079,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="6"/>
@@ -1851,7 +2088,7 @@
       <c r="F70" s="6"/>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="6"/>
@@ -1860,7 +2097,7 @@
       <c r="F71" s="6"/>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="6"/>
@@ -1869,7 +2106,7 @@
       <c r="F72" s="6"/>
       <c r="G72" s="7"/>
     </row>
-    <row r="73" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="6"/>
@@ -1878,7 +2115,7 @@
       <c r="F73" s="6"/>
       <c r="G73" s="7"/>
     </row>
-    <row r="74" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="6"/>
@@ -1887,7 +2124,7 @@
       <c r="F74" s="6"/>
       <c r="G74" s="7"/>
     </row>
-    <row r="75" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="6"/>
@@ -1896,7 +2133,7 @@
       <c r="F75" s="6"/>
       <c r="G75" s="7"/>
     </row>
-    <row r="76" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="6"/>
@@ -1905,7 +2142,7 @@
       <c r="F76" s="6"/>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="6"/>
@@ -1914,7 +2151,7 @@
       <c r="F77" s="6"/>
       <c r="G77" s="7"/>
     </row>
-    <row r="78" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="6"/>
@@ -1923,7 +2160,7 @@
       <c r="F78" s="6"/>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="6"/>
@@ -1932,7 +2169,7 @@
       <c r="F79" s="6"/>
       <c r="G79" s="7"/>
     </row>
-    <row r="80" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="6"/>
@@ -1941,7 +2178,7 @@
       <c r="F80" s="6"/>
       <c r="G80" s="7"/>
     </row>
-    <row r="81" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="6"/>
@@ -1950,7 +2187,7 @@
       <c r="F81" s="6"/>
       <c r="G81" s="7"/>
     </row>
-    <row r="82" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="6"/>
@@ -1959,7 +2196,7 @@
       <c r="F82" s="6"/>
       <c r="G82" s="7"/>
     </row>
-    <row r="83" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="6"/>
@@ -1968,7 +2205,7 @@
       <c r="F83" s="6"/>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="6"/>
@@ -1977,7 +2214,7 @@
       <c r="F84" s="6"/>
       <c r="G84" s="7"/>
     </row>
-    <row r="85" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="6"/>
@@ -1986,7 +2223,7 @@
       <c r="F85" s="6"/>
       <c r="G85" s="7"/>
     </row>
-    <row r="86" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="6"/>
@@ -1995,7 +2232,7 @@
       <c r="F86" s="6"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="6"/>
@@ -2004,7 +2241,7 @@
       <c r="F87" s="6"/>
       <c r="G87" s="7"/>
     </row>
-    <row r="88" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="6"/>
@@ -2013,7 +2250,7 @@
       <c r="F88" s="6"/>
       <c r="G88" s="7"/>
     </row>
-    <row r="89" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="6"/>
@@ -2022,7 +2259,7 @@
       <c r="F89" s="6"/>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="6"/>
@@ -2031,7 +2268,7 @@
       <c r="F90" s="6"/>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
       <c r="C91" s="6"/>
@@ -2040,7 +2277,7 @@
       <c r="F91" s="6"/>
       <c r="G91" s="7"/>
     </row>
-    <row r="92" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
       <c r="C92" s="6"/>
@@ -2049,7 +2286,7 @@
       <c r="F92" s="6"/>
       <c r="G92" s="7"/>
     </row>
-    <row r="93" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
       <c r="C93" s="6"/>
@@ -2058,7 +2295,7 @@
       <c r="F93" s="6"/>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="6"/>
@@ -2067,7 +2304,7 @@
       <c r="F94" s="6"/>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
       <c r="C95" s="6"/>
@@ -2076,7 +2313,7 @@
       <c r="F95" s="6"/>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
       <c r="C96" s="6"/>
@@ -2085,7 +2322,7 @@
       <c r="F96" s="6"/>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
       <c r="C97" s="6"/>
@@ -2094,7 +2331,7 @@
       <c r="F97" s="6"/>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
       <c r="C98" s="6"/>
@@ -2103,7 +2340,7 @@
       <c r="F98" s="6"/>
       <c r="G98" s="7"/>
     </row>
-    <row r="99" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
       <c r="C99" s="6"/>
@@ -2112,7 +2349,7 @@
       <c r="F99" s="6"/>
       <c r="G99" s="7"/>
     </row>
-    <row r="100" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="6"/>
@@ -2121,7 +2358,7 @@
       <c r="F100" s="6"/>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
       <c r="C101" s="6"/>
@@ -2130,7 +2367,7 @@
       <c r="F101" s="6"/>
       <c r="G101" s="7"/>
     </row>
-    <row r="102" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
       <c r="C102" s="6"/>
@@ -2139,7 +2376,7 @@
       <c r="F102" s="6"/>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="7"/>
       <c r="C103" s="6"/>
@@ -2148,7 +2385,7 @@
       <c r="F103" s="6"/>
       <c r="G103" s="7"/>
     </row>
-    <row r="104" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
       <c r="C104" s="6"/>
@@ -2157,7 +2394,7 @@
       <c r="F104" s="6"/>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
       <c r="C105" s="6"/>
@@ -2166,7 +2403,7 @@
       <c r="F105" s="6"/>
       <c r="G105" s="7"/>
     </row>
-    <row r="106" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="7"/>
       <c r="C106" s="6"/>
@@ -2175,7 +2412,7 @@
       <c r="F106" s="6"/>
       <c r="G106" s="7"/>
     </row>
-    <row r="107" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="7"/>
       <c r="C107" s="6"/>
@@ -2184,7 +2421,7 @@
       <c r="F107" s="6"/>
       <c r="G107" s="7"/>
     </row>
-    <row r="108" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="7"/>
       <c r="C108" s="6"/>
@@ -2193,7 +2430,7 @@
       <c r="F108" s="6"/>
       <c r="G108" s="7"/>
     </row>
-    <row r="109" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="7"/>
       <c r="C109" s="6"/>
@@ -2202,7 +2439,7 @@
       <c r="F109" s="6"/>
       <c r="G109" s="7"/>
     </row>
-    <row r="110" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="7"/>
       <c r="C110" s="6"/>
@@ -2211,7 +2448,7 @@
       <c r="F110" s="6"/>
       <c r="G110" s="7"/>
     </row>
-    <row r="111" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="7"/>
       <c r="C111" s="6"/>
@@ -2220,7 +2457,7 @@
       <c r="F111" s="6"/>
       <c r="G111" s="7"/>
     </row>
-    <row r="112" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="7"/>
       <c r="C112" s="6"/>
@@ -2229,7 +2466,7 @@
       <c r="F112" s="6"/>
       <c r="G112" s="7"/>
     </row>
-    <row r="113" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="7"/>
       <c r="C113" s="6"/>
@@ -2238,7 +2475,7 @@
       <c r="F113" s="6"/>
       <c r="G113" s="7"/>
     </row>
-    <row r="114" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="7"/>
       <c r="C114" s="6"/>
@@ -2247,7 +2484,7 @@
       <c r="F114" s="6"/>
       <c r="G114" s="7"/>
     </row>
-    <row r="115" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="7"/>
       <c r="C115" s="6"/>
@@ -2256,7 +2493,7 @@
       <c r="F115" s="6"/>
       <c r="G115" s="7"/>
     </row>
-    <row r="116" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="7"/>
       <c r="C116" s="6"/>
@@ -2265,7 +2502,7 @@
       <c r="F116" s="6"/>
       <c r="G116" s="7"/>
     </row>
-    <row r="117" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="7"/>
       <c r="C117" s="6"/>
@@ -2274,7 +2511,7 @@
       <c r="F117" s="6"/>
       <c r="G117" s="7"/>
     </row>
-    <row r="118" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="7"/>
       <c r="C118" s="6"/>
@@ -2283,7 +2520,7 @@
       <c r="F118" s="6"/>
       <c r="G118" s="7"/>
     </row>
-    <row r="119" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="7"/>
       <c r="C119" s="6"/>
@@ -2292,7 +2529,7 @@
       <c r="F119" s="6"/>
       <c r="G119" s="7"/>
     </row>
-    <row r="120" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
       <c r="C120" s="6"/>
@@ -2301,7 +2538,7 @@
       <c r="F120" s="6"/>
       <c r="G120" s="7"/>
     </row>
-    <row r="121" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="7"/>
       <c r="C121" s="6"/>
@@ -2310,7 +2547,7 @@
       <c r="F121" s="6"/>
       <c r="G121" s="7"/>
     </row>
-    <row r="122" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
       <c r="C122" s="6"/>
@@ -2319,7 +2556,7 @@
       <c r="F122" s="6"/>
       <c r="G122" s="7"/>
     </row>
-    <row r="123" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="7"/>
       <c r="C123" s="6"/>
@@ -2328,7 +2565,7 @@
       <c r="F123" s="6"/>
       <c r="G123" s="7"/>
     </row>
-    <row r="124" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="7"/>
       <c r="C124" s="6"/>
@@ -2337,7 +2574,7 @@
       <c r="F124" s="6"/>
       <c r="G124" s="7"/>
     </row>
-    <row r="125" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="7"/>
       <c r="C125" s="6"/>
@@ -2346,7 +2583,7 @@
       <c r="F125" s="6"/>
       <c r="G125" s="7"/>
     </row>
-    <row r="126" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="7"/>
       <c r="C126" s="6"/>
@@ -2355,7 +2592,7 @@
       <c r="F126" s="6"/>
       <c r="G126" s="7"/>
     </row>
-    <row r="127" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="7"/>
       <c r="C127" s="6"/>
@@ -2364,7 +2601,7 @@
       <c r="F127" s="6"/>
       <c r="G127" s="7"/>
     </row>
-    <row r="128" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="7"/>
       <c r="C128" s="6"/>
@@ -2373,7 +2610,7 @@
       <c r="F128" s="6"/>
       <c r="G128" s="7"/>
     </row>
-    <row r="129" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="7"/>
       <c r="C129" s="6"/>
@@ -2382,7 +2619,7 @@
       <c r="F129" s="6"/>
       <c r="G129" s="7"/>
     </row>
-    <row r="130" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
       <c r="C130" s="6"/>
@@ -2391,7 +2628,7 @@
       <c r="F130" s="6"/>
       <c r="G130" s="7"/>
     </row>
-    <row r="131" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="7"/>
       <c r="C131" s="6"/>
@@ -2400,7 +2637,7 @@
       <c r="F131" s="6"/>
       <c r="G131" s="7"/>
     </row>
-    <row r="132" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="7"/>
       <c r="C132" s="6"/>
@@ -2409,7 +2646,7 @@
       <c r="F132" s="6"/>
       <c r="G132" s="7"/>
     </row>
-    <row r="133" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="7"/>
       <c r="C133" s="6"/>
@@ -2418,7 +2655,7 @@
       <c r="F133" s="6"/>
       <c r="G133" s="7"/>
     </row>
-    <row r="134" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="7"/>
       <c r="C134" s="6"/>
@@ -2427,7 +2664,7 @@
       <c r="F134" s="6"/>
       <c r="G134" s="7"/>
     </row>
-    <row r="135" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
       <c r="C135" s="6"/>
@@ -2436,7 +2673,7 @@
       <c r="F135" s="6"/>
       <c r="G135" s="7"/>
     </row>
-    <row r="136" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="7"/>
       <c r="C136" s="6"/>
@@ -2445,7 +2682,7 @@
       <c r="F136" s="6"/>
       <c r="G136" s="7"/>
     </row>
-    <row r="137" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="7"/>
       <c r="C137" s="6"/>
@@ -2454,7 +2691,7 @@
       <c r="F137" s="6"/>
       <c r="G137" s="7"/>
     </row>
-    <row r="138" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="7"/>
       <c r="C138" s="6"/>
@@ -2463,7 +2700,7 @@
       <c r="F138" s="6"/>
       <c r="G138" s="7"/>
     </row>
-    <row r="139" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="7"/>
       <c r="C139" s="6"/>
@@ -2472,7 +2709,7 @@
       <c r="F139" s="6"/>
       <c r="G139" s="7"/>
     </row>
-    <row r="140" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="7"/>
       <c r="C140" s="6"/>
@@ -2481,7 +2718,7 @@
       <c r="F140" s="6"/>
       <c r="G140" s="7"/>
     </row>
-    <row r="141" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="7"/>
       <c r="C141" s="6"/>
@@ -2490,7 +2727,7 @@
       <c r="F141" s="6"/>
       <c r="G141" s="7"/>
     </row>
-    <row r="142" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="7"/>
       <c r="C142" s="6"/>
@@ -2499,7 +2736,7 @@
       <c r="F142" s="6"/>
       <c r="G142" s="7"/>
     </row>
-    <row r="143" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="7"/>
       <c r="C143" s="6"/>
@@ -2508,7 +2745,7 @@
       <c r="F143" s="6"/>
       <c r="G143" s="7"/>
     </row>
-    <row r="144" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="7"/>
       <c r="C144" s="6"/>
@@ -2517,7 +2754,7 @@
       <c r="F144" s="6"/>
       <c r="G144" s="7"/>
     </row>
-    <row r="145" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
       <c r="C145" s="6"/>
@@ -2526,7 +2763,7 @@
       <c r="F145" s="6"/>
       <c r="G145" s="7"/>
     </row>
-    <row r="146" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
       <c r="C146" s="6"/>
@@ -2535,7 +2772,7 @@
       <c r="F146" s="6"/>
       <c r="G146" s="7"/>
     </row>
-    <row r="147" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="7"/>
       <c r="C147" s="6"/>
@@ -2544,7 +2781,7 @@
       <c r="F147" s="6"/>
       <c r="G147" s="7"/>
     </row>
-    <row r="148" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="7"/>
       <c r="C148" s="6"/>
@@ -2553,7 +2790,7 @@
       <c r="F148" s="6"/>
       <c r="G148" s="7"/>
     </row>
-    <row r="149" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="7"/>
       <c r="C149" s="6"/>
@@ -2562,7 +2799,7 @@
       <c r="F149" s="6"/>
       <c r="G149" s="7"/>
     </row>
-    <row r="150" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="7"/>
       <c r="C150" s="6"/>
@@ -2571,7 +2808,7 @@
       <c r="F150" s="6"/>
       <c r="G150" s="7"/>
     </row>
-    <row r="151" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="7"/>
       <c r="C151" s="6"/>
@@ -2580,7 +2817,7 @@
       <c r="F151" s="6"/>
       <c r="G151" s="7"/>
     </row>
-    <row r="152" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="7"/>
       <c r="C152" s="6"/>
@@ -2589,7 +2826,7 @@
       <c r="F152" s="6"/>
       <c r="G152" s="7"/>
     </row>
-    <row r="153" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="7"/>
       <c r="C153" s="6"/>
@@ -2598,7 +2835,7 @@
       <c r="F153" s="6"/>
       <c r="G153" s="7"/>
     </row>
-    <row r="154" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="7"/>
       <c r="C154" s="6"/>
@@ -2607,7 +2844,7 @@
       <c r="F154" s="6"/>
       <c r="G154" s="7"/>
     </row>
-    <row r="155" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="7"/>
       <c r="C155" s="6"/>
@@ -2616,7 +2853,7 @@
       <c r="F155" s="6"/>
       <c r="G155" s="7"/>
     </row>
-    <row r="156" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="7"/>
       <c r="C156" s="6"/>
@@ -2625,7 +2862,7 @@
       <c r="F156" s="6"/>
       <c r="G156" s="7"/>
     </row>
-    <row r="157" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="7"/>
       <c r="C157" s="6"/>
@@ -2634,7 +2871,7 @@
       <c r="F157" s="6"/>
       <c r="G157" s="7"/>
     </row>
-    <row r="158" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="7"/>
       <c r="C158" s="6"/>
@@ -2643,7 +2880,7 @@
       <c r="F158" s="6"/>
       <c r="G158" s="7"/>
     </row>
-    <row r="159" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="7"/>
       <c r="C159" s="6"/>
@@ -2652,7 +2889,7 @@
       <c r="F159" s="6"/>
       <c r="G159" s="7"/>
     </row>
-    <row r="160" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="7"/>
       <c r="C160" s="6"/>
@@ -2661,7 +2898,7 @@
       <c r="F160" s="6"/>
       <c r="G160" s="7"/>
     </row>
-    <row r="161" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="7"/>
       <c r="C161" s="6"/>
@@ -2670,7 +2907,7 @@
       <c r="F161" s="6"/>
       <c r="G161" s="7"/>
     </row>
-    <row r="162" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="7"/>
       <c r="C162" s="6"/>
@@ -2679,7 +2916,7 @@
       <c r="F162" s="6"/>
       <c r="G162" s="7"/>
     </row>
-    <row r="163" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="7"/>
       <c r="C163" s="6"/>
@@ -2688,7 +2925,7 @@
       <c r="F163" s="6"/>
       <c r="G163" s="7"/>
     </row>
-    <row r="164" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="7"/>
       <c r="C164" s="6"/>
@@ -2697,7 +2934,7 @@
       <c r="F164" s="6"/>
       <c r="G164" s="7"/>
     </row>
-    <row r="165" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="7"/>
       <c r="C165" s="6"/>
@@ -2706,7 +2943,7 @@
       <c r="F165" s="6"/>
       <c r="G165" s="7"/>
     </row>
-    <row r="166" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="7"/>
       <c r="C166" s="6"/>
@@ -2715,7 +2952,7 @@
       <c r="F166" s="6"/>
       <c r="G166" s="7"/>
     </row>
-    <row r="167" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="7"/>
       <c r="C167" s="6"/>
@@ -2724,7 +2961,7 @@
       <c r="F167" s="6"/>
       <c r="G167" s="7"/>
     </row>
-    <row r="168" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="7"/>
       <c r="C168" s="6"/>
@@ -2733,7 +2970,7 @@
       <c r="F168" s="6"/>
       <c r="G168" s="7"/>
     </row>
-    <row r="169" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="7"/>
       <c r="C169" s="6"/>
@@ -2742,7 +2979,7 @@
       <c r="F169" s="6"/>
       <c r="G169" s="7"/>
     </row>
-    <row r="170" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
       <c r="B170" s="7"/>
       <c r="C170" s="6"/>
@@ -2751,7 +2988,7 @@
       <c r="F170" s="6"/>
       <c r="G170" s="7"/>
     </row>
-    <row r="171" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="7"/>
       <c r="C171" s="6"/>
@@ -2760,7 +2997,7 @@
       <c r="F171" s="6"/>
       <c r="G171" s="7"/>
     </row>
-    <row r="172" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="7"/>
       <c r="C172" s="6"/>
@@ -2769,7 +3006,7 @@
       <c r="F172" s="6"/>
       <c r="G172" s="7"/>
     </row>
-    <row r="173" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="B173" s="7"/>
       <c r="C173" s="6"/>
@@ -2778,7 +3015,7 @@
       <c r="F173" s="6"/>
       <c r="G173" s="7"/>
     </row>
-    <row r="174" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="7"/>
       <c r="C174" s="6"/>
@@ -2787,7 +3024,7 @@
       <c r="F174" s="6"/>
       <c r="G174" s="7"/>
     </row>
-    <row r="175" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="7"/>
       <c r="C175" s="6"/>
@@ -2796,7 +3033,7 @@
       <c r="F175" s="6"/>
       <c r="G175" s="7"/>
     </row>
-    <row r="176" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="7"/>
       <c r="C176" s="6"/>
@@ -2805,7 +3042,7 @@
       <c r="F176" s="6"/>
       <c r="G176" s="7"/>
     </row>
-    <row r="177" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="7"/>
       <c r="C177" s="6"/>
@@ -2814,7 +3051,7 @@
       <c r="F177" s="6"/>
       <c r="G177" s="7"/>
     </row>
-    <row r="178" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="7"/>
       <c r="C178" s="6"/>
@@ -2823,7 +3060,7 @@
       <c r="F178" s="6"/>
       <c r="G178" s="7"/>
     </row>
-    <row r="179" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="7"/>
       <c r="C179" s="6"/>
@@ -2832,7 +3069,7 @@
       <c r="F179" s="6"/>
       <c r="G179" s="7"/>
     </row>
-    <row r="180" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="7"/>
       <c r="C180" s="6"/>
@@ -2841,7 +3078,7 @@
       <c r="F180" s="6"/>
       <c r="G180" s="7"/>
     </row>
-    <row r="181" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="7"/>
       <c r="C181" s="6"/>
@@ -2850,7 +3087,7 @@
       <c r="F181" s="6"/>
       <c r="G181" s="7"/>
     </row>
-    <row r="182" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="7"/>
       <c r="C182" s="6"/>
@@ -2859,7 +3096,7 @@
       <c r="F182" s="6"/>
       <c r="G182" s="7"/>
     </row>
-    <row r="183" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="7"/>
       <c r="C183" s="6"/>
@@ -2868,7 +3105,7 @@
       <c r="F183" s="6"/>
       <c r="G183" s="7"/>
     </row>
-    <row r="184" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="7"/>
       <c r="C184" s="6"/>
@@ -2877,7 +3114,7 @@
       <c r="F184" s="6"/>
       <c r="G184" s="7"/>
     </row>
-    <row r="185" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="7"/>
       <c r="C185" s="6"/>
@@ -2886,7 +3123,7 @@
       <c r="F185" s="6"/>
       <c r="G185" s="7"/>
     </row>
-    <row r="186" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="7"/>
       <c r="C186" s="6"/>
@@ -2895,7 +3132,7 @@
       <c r="F186" s="6"/>
       <c r="G186" s="7"/>
     </row>
-    <row r="187" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="7"/>
       <c r="C187" s="6"/>
@@ -2904,7 +3141,7 @@
       <c r="F187" s="6"/>
       <c r="G187" s="7"/>
     </row>
-    <row r="188" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="7"/>
       <c r="C188" s="6"/>
@@ -2913,7 +3150,7 @@
       <c r="F188" s="6"/>
       <c r="G188" s="7"/>
     </row>
-    <row r="189" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="7"/>
       <c r="C189" s="6"/>
@@ -2922,7 +3159,7 @@
       <c r="F189" s="6"/>
       <c r="G189" s="7"/>
     </row>
-    <row r="190" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="7"/>
       <c r="C190" s="6"/>
@@ -2931,7 +3168,7 @@
       <c r="F190" s="6"/>
       <c r="G190" s="7"/>
     </row>
-    <row r="191" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="7"/>
       <c r="C191" s="6"/>
@@ -2940,7 +3177,7 @@
       <c r="F191" s="6"/>
       <c r="G191" s="7"/>
     </row>
-    <row r="192" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="7"/>
       <c r="C192" s="6"/>
@@ -2949,7 +3186,7 @@
       <c r="F192" s="6"/>
       <c r="G192" s="7"/>
     </row>
-    <row r="193" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="7"/>
       <c r="C193" s="6"/>
@@ -2958,7 +3195,7 @@
       <c r="F193" s="6"/>
       <c r="G193" s="7"/>
     </row>
-    <row r="194" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="7"/>
       <c r="C194" s="6"/>
@@ -2967,7 +3204,7 @@
       <c r="F194" s="6"/>
       <c r="G194" s="7"/>
     </row>
-    <row r="195" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="7"/>
       <c r="C195" s="6"/>
@@ -2976,7 +3213,7 @@
       <c r="F195" s="6"/>
       <c r="G195" s="7"/>
     </row>
-    <row r="196" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
       <c r="B196" s="7"/>
       <c r="C196" s="6"/>
@@ -2985,7 +3222,7 @@
       <c r="F196" s="6"/>
       <c r="G196" s="7"/>
     </row>
-    <row r="197" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="7"/>
       <c r="C197" s="6"/>
@@ -2994,7 +3231,7 @@
       <c r="F197" s="6"/>
       <c r="G197" s="7"/>
     </row>
-    <row r="198" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="7"/>
       <c r="C198" s="6"/>
@@ -3003,7 +3240,7 @@
       <c r="F198" s="6"/>
       <c r="G198" s="7"/>
     </row>
-    <row r="199" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="7"/>
       <c r="C199" s="6"/>
@@ -3012,7 +3249,7 @@
       <c r="F199" s="6"/>
       <c r="G199" s="7"/>
     </row>
-    <row r="200" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="7"/>
       <c r="C200" s="6"/>
@@ -3021,7 +3258,7 @@
       <c r="F200" s="6"/>
       <c r="G200" s="7"/>
     </row>
-    <row r="201" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
       <c r="B201" s="7"/>
       <c r="C201" s="6"/>
@@ -3030,7 +3267,7 @@
       <c r="F201" s="6"/>
       <c r="G201" s="7"/>
     </row>
-    <row r="202" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="7"/>
       <c r="C202" s="6"/>
@@ -3039,7 +3276,7 @@
       <c r="F202" s="6"/>
       <c r="G202" s="7"/>
     </row>
-    <row r="203" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
       <c r="B203" s="7"/>
       <c r="C203" s="6"/>
@@ -3048,7 +3285,7 @@
       <c r="F203" s="6"/>
       <c r="G203" s="7"/>
     </row>
-    <row r="204" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="7"/>
       <c r="C204" s="6"/>
@@ -3057,7 +3294,7 @@
       <c r="F204" s="6"/>
       <c r="G204" s="7"/>
     </row>
-    <row r="205" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6"/>
       <c r="B205" s="7"/>
       <c r="C205" s="6"/>
@@ -3066,7 +3303,7 @@
       <c r="F205" s="6"/>
       <c r="G205" s="7"/>
     </row>
-    <row r="206" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="7"/>
       <c r="C206" s="6"/>
@@ -3075,7 +3312,7 @@
       <c r="F206" s="6"/>
       <c r="G206" s="7"/>
     </row>
-    <row r="207" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
       <c r="B207" s="7"/>
       <c r="C207" s="6"/>
@@ -3084,7 +3321,7 @@
       <c r="F207" s="6"/>
       <c r="G207" s="7"/>
     </row>
-    <row r="208" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
       <c r="B208" s="7"/>
       <c r="C208" s="6"/>
@@ -3093,7 +3330,7 @@
       <c r="F208" s="6"/>
       <c r="G208" s="7"/>
     </row>
-    <row r="209" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="7"/>
       <c r="C209" s="6"/>
@@ -3102,7 +3339,7 @@
       <c r="F209" s="6"/>
       <c r="G209" s="7"/>
     </row>
-    <row r="210" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
       <c r="B210" s="7"/>
       <c r="C210" s="6"/>
@@ -3111,7 +3348,7 @@
       <c r="F210" s="6"/>
       <c r="G210" s="7"/>
     </row>
-    <row r="211" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="7"/>
       <c r="C211" s="6"/>
@@ -3120,7 +3357,7 @@
       <c r="F211" s="6"/>
       <c r="G211" s="7"/>
     </row>
-    <row r="212" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6"/>
       <c r="B212" s="7"/>
       <c r="C212" s="6"/>
@@ -3129,7 +3366,7 @@
       <c r="F212" s="6"/>
       <c r="G212" s="7"/>
     </row>
-    <row r="213" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="7"/>
       <c r="C213" s="6"/>
@@ -3138,7 +3375,7 @@
       <c r="F213" s="6"/>
       <c r="G213" s="7"/>
     </row>
-    <row r="214" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="7"/>
       <c r="C214" s="6"/>
@@ -3147,7 +3384,7 @@
       <c r="F214" s="6"/>
       <c r="G214" s="7"/>
     </row>
-    <row r="215" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6"/>
       <c r="B215" s="7"/>
       <c r="C215" s="6"/>
@@ -3156,7 +3393,7 @@
       <c r="F215" s="6"/>
       <c r="G215" s="7"/>
     </row>
-    <row r="216" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="7"/>
       <c r="C216" s="6"/>
@@ -3165,7 +3402,7 @@
       <c r="F216" s="6"/>
       <c r="G216" s="7"/>
     </row>
-    <row r="217" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6"/>
       <c r="B217" s="7"/>
       <c r="C217" s="6"/>
@@ -3174,7 +3411,7 @@
       <c r="F217" s="6"/>
       <c r="G217" s="7"/>
     </row>
-    <row r="218" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="7"/>
       <c r="C218" s="6"/>
@@ -3183,7 +3420,7 @@
       <c r="F218" s="6"/>
       <c r="G218" s="7"/>
     </row>
-    <row r="219" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6"/>
       <c r="B219" s="7"/>
       <c r="C219" s="6"/>
@@ -3192,7 +3429,7 @@
       <c r="F219" s="6"/>
       <c r="G219" s="7"/>
     </row>
-    <row r="220" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="7"/>
       <c r="C220" s="6"/>
@@ -3201,7 +3438,7 @@
       <c r="F220" s="6"/>
       <c r="G220" s="7"/>
     </row>
-    <row r="221" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="7"/>
       <c r="C221" s="6"/>
@@ -3210,7 +3447,7 @@
       <c r="F221" s="6"/>
       <c r="G221" s="7"/>
     </row>
-    <row r="222" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6"/>
       <c r="B222" s="7"/>
       <c r="C222" s="6"/>
@@ -3219,7 +3456,7 @@
       <c r="F222" s="6"/>
       <c r="G222" s="7"/>
     </row>
-    <row r="223" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="7"/>
       <c r="C223" s="6"/>
@@ -3228,7 +3465,7 @@
       <c r="F223" s="6"/>
       <c r="G223" s="7"/>
     </row>
-    <row r="224" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6"/>
       <c r="B224" s="7"/>
       <c r="C224" s="6"/>
@@ -3237,7 +3474,7 @@
       <c r="F224" s="6"/>
       <c r="G224" s="7"/>
     </row>
-    <row r="225" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="7"/>
       <c r="C225" s="6"/>
@@ -3246,7 +3483,7 @@
       <c r="F225" s="6"/>
       <c r="G225" s="7"/>
     </row>
-    <row r="226" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6"/>
       <c r="B226" s="7"/>
       <c r="C226" s="6"/>
@@ -3255,7 +3492,7 @@
       <c r="F226" s="6"/>
       <c r="G226" s="7"/>
     </row>
-    <row r="227" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="7"/>
       <c r="C227" s="6"/>
@@ -3264,7 +3501,7 @@
       <c r="F227" s="6"/>
       <c r="G227" s="7"/>
     </row>
-    <row r="228" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="7"/>
       <c r="C228" s="6"/>
@@ -3273,7 +3510,7 @@
       <c r="F228" s="6"/>
       <c r="G228" s="7"/>
     </row>
-    <row r="229" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6"/>
       <c r="B229" s="7"/>
       <c r="C229" s="6"/>
@@ -3282,7 +3519,7 @@
       <c r="F229" s="6"/>
       <c r="G229" s="7"/>
     </row>
-    <row r="230" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="7"/>
       <c r="C230" s="6"/>
@@ -3291,7 +3528,7 @@
       <c r="F230" s="6"/>
       <c r="G230" s="7"/>
     </row>
-    <row r="231" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="6"/>
       <c r="B231" s="7"/>
       <c r="C231" s="6"/>
@@ -3300,7 +3537,7 @@
       <c r="F231" s="6"/>
       <c r="G231" s="7"/>
     </row>
-    <row r="232" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
       <c r="B232" s="7"/>
       <c r="C232" s="6"/>
@@ -3309,7 +3546,7 @@
       <c r="F232" s="6"/>
       <c r="G232" s="7"/>
     </row>
-    <row r="233" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6"/>
       <c r="B233" s="7"/>
       <c r="C233" s="6"/>
@@ -3318,7 +3555,7 @@
       <c r="F233" s="6"/>
       <c r="G233" s="7"/>
     </row>
-    <row r="234" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
       <c r="B234" s="7"/>
       <c r="C234" s="6"/>
@@ -3327,7 +3564,7 @@
       <c r="F234" s="6"/>
       <c r="G234" s="7"/>
     </row>
-    <row r="235" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="7"/>
       <c r="C235" s="6"/>
@@ -3336,7 +3573,7 @@
       <c r="F235" s="6"/>
       <c r="G235" s="7"/>
     </row>
-    <row r="236" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6"/>
       <c r="B236" s="7"/>
       <c r="C236" s="6"/>
@@ -3345,7 +3582,7 @@
       <c r="F236" s="6"/>
       <c r="G236" s="7"/>
     </row>
-    <row r="237" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
       <c r="B237" s="7"/>
       <c r="C237" s="6"/>
@@ -3354,7 +3591,7 @@
       <c r="F237" s="6"/>
       <c r="G237" s="7"/>
     </row>
-    <row r="238" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6"/>
       <c r="B238" s="7"/>
       <c r="C238" s="6"/>
@@ -3363,7 +3600,7 @@
       <c r="F238" s="6"/>
       <c r="G238" s="7"/>
     </row>
-    <row r="239" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
       <c r="B239" s="7"/>
       <c r="C239" s="6"/>
@@ -3372,7 +3609,7 @@
       <c r="F239" s="6"/>
       <c r="G239" s="7"/>
     </row>
-    <row r="240" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6"/>
       <c r="B240" s="7"/>
       <c r="C240" s="6"/>
@@ -3381,7 +3618,7 @@
       <c r="F240" s="6"/>
       <c r="G240" s="7"/>
     </row>
-    <row r="241" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
       <c r="B241" s="7"/>
       <c r="C241" s="6"/>
@@ -3390,7 +3627,7 @@
       <c r="F241" s="6"/>
       <c r="G241" s="7"/>
     </row>
-    <row r="242" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
       <c r="B242" s="7"/>
       <c r="C242" s="6"/>
@@ -3399,7 +3636,7 @@
       <c r="F242" s="6"/>
       <c r="G242" s="7"/>
     </row>
-    <row r="243" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6"/>
       <c r="B243" s="7"/>
       <c r="C243" s="6"/>
@@ -3408,7 +3645,7 @@
       <c r="F243" s="6"/>
       <c r="G243" s="7"/>
     </row>
-    <row r="244" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="7"/>
       <c r="C244" s="6"/>
@@ -3417,7 +3654,7 @@
       <c r="F244" s="6"/>
       <c r="G244" s="7"/>
     </row>
-    <row r="245" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="6"/>
       <c r="B245" s="7"/>
       <c r="C245" s="6"/>
@@ -3426,7 +3663,7 @@
       <c r="F245" s="6"/>
       <c r="G245" s="7"/>
     </row>
-    <row r="246" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="7"/>
       <c r="C246" s="6"/>
@@ -3435,7 +3672,7 @@
       <c r="F246" s="6"/>
       <c r="G246" s="7"/>
     </row>
-    <row r="247" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6"/>
       <c r="B247" s="7"/>
       <c r="C247" s="6"/>
@@ -3444,7 +3681,7 @@
       <c r="F247" s="6"/>
       <c r="G247" s="7"/>
     </row>
-    <row r="248" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="7"/>
       <c r="C248" s="6"/>
@@ -3453,7 +3690,7 @@
       <c r="F248" s="6"/>
       <c r="G248" s="7"/>
     </row>
-    <row r="249" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="7"/>
       <c r="C249" s="6"/>
@@ -3462,7 +3699,7 @@
       <c r="F249" s="6"/>
       <c r="G249" s="7"/>
     </row>
-    <row r="250" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="6"/>
       <c r="B250" s="7"/>
       <c r="C250" s="6"/>
@@ -3471,7 +3708,7 @@
       <c r="F250" s="6"/>
       <c r="G250" s="7"/>
     </row>
-    <row r="251" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="7"/>
       <c r="C251" s="6"/>
@@ -3480,7 +3717,7 @@
       <c r="F251" s="6"/>
       <c r="G251" s="7"/>
     </row>
-    <row r="252" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6"/>
       <c r="B252" s="7"/>
       <c r="C252" s="6"/>
@@ -3489,7 +3726,7 @@
       <c r="F252" s="6"/>
       <c r="G252" s="7"/>
     </row>
-    <row r="253" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
       <c r="B253" s="7"/>
       <c r="C253" s="6"/>
@@ -3498,7 +3735,7 @@
       <c r="F253" s="6"/>
       <c r="G253" s="7"/>
     </row>
-    <row r="254" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="6"/>
       <c r="B254" s="7"/>
       <c r="C254" s="6"/>
@@ -3507,7 +3744,7 @@
       <c r="F254" s="6"/>
       <c r="G254" s="7"/>
     </row>
-    <row r="255" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
       <c r="B255" s="7"/>
       <c r="C255" s="6"/>
@@ -3516,7 +3753,7 @@
       <c r="F255" s="6"/>
       <c r="G255" s="7"/>
     </row>
-    <row r="256" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="6"/>
       <c r="B256" s="7"/>
       <c r="C256" s="6"/>
@@ -3525,7 +3762,7 @@
       <c r="F256" s="6"/>
       <c r="G256" s="7"/>
     </row>
-    <row r="257" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="6"/>
       <c r="B257" s="7"/>
       <c r="C257" s="6"/>
@@ -3534,7 +3771,7 @@
       <c r="F257" s="6"/>
       <c r="G257" s="7"/>
     </row>
-    <row r="258" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
       <c r="B258" s="7"/>
       <c r="C258" s="6"/>
@@ -3543,7 +3780,7 @@
       <c r="F258" s="6"/>
       <c r="G258" s="7"/>
     </row>
-    <row r="259" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="6"/>
       <c r="B259" s="7"/>
       <c r="C259" s="6"/>
@@ -3552,7 +3789,7 @@
       <c r="F259" s="6"/>
       <c r="G259" s="7"/>
     </row>
-    <row r="260" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
       <c r="B260" s="7"/>
       <c r="C260" s="6"/>
@@ -3561,7 +3798,7 @@
       <c r="F260" s="6"/>
       <c r="G260" s="7"/>
     </row>
-    <row r="261" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="6"/>
       <c r="B261" s="7"/>
       <c r="C261" s="6"/>
@@ -3570,7 +3807,7 @@
       <c r="F261" s="6"/>
       <c r="G261" s="7"/>
     </row>
-    <row r="262" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="6"/>
       <c r="B262" s="7"/>
       <c r="C262" s="6"/>
@@ -3579,7 +3816,7 @@
       <c r="F262" s="6"/>
       <c r="G262" s="7"/>
     </row>
-    <row r="263" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="7"/>
       <c r="C263" s="6"/>
@@ -3588,7 +3825,7 @@
       <c r="F263" s="6"/>
       <c r="G263" s="7"/>
     </row>
-    <row r="264" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="6"/>
       <c r="B264" s="7"/>
       <c r="C264" s="6"/>
@@ -3597,7 +3834,7 @@
       <c r="F264" s="6"/>
       <c r="G264" s="7"/>
     </row>
-    <row r="265" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
       <c r="B265" s="7"/>
       <c r="C265" s="6"/>
@@ -3606,7 +3843,7 @@
       <c r="F265" s="6"/>
       <c r="G265" s="7"/>
     </row>
-    <row r="266" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6"/>
       <c r="B266" s="7"/>
       <c r="C266" s="6"/>
@@ -3615,7 +3852,7 @@
       <c r="F266" s="6"/>
       <c r="G266" s="7"/>
     </row>
-    <row r="267" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
       <c r="B267" s="7"/>
       <c r="C267" s="6"/>
@@ -3624,7 +3861,7 @@
       <c r="F267" s="6"/>
       <c r="G267" s="7"/>
     </row>
-    <row r="268" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="6"/>
       <c r="B268" s="7"/>
       <c r="C268" s="6"/>
@@ -3633,7 +3870,7 @@
       <c r="F268" s="6"/>
       <c r="G268" s="7"/>
     </row>
-    <row r="269" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="6"/>
       <c r="B269" s="7"/>
       <c r="C269" s="6"/>
@@ -3642,7 +3879,7 @@
       <c r="F269" s="6"/>
       <c r="G269" s="7"/>
     </row>
-    <row r="270" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
       <c r="B270" s="7"/>
       <c r="C270" s="6"/>
@@ -3651,7 +3888,7 @@
       <c r="F270" s="6"/>
       <c r="G270" s="7"/>
     </row>
-    <row r="271" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="6"/>
       <c r="B271" s="7"/>
       <c r="C271" s="6"/>
@@ -3660,7 +3897,7 @@
       <c r="F271" s="6"/>
       <c r="G271" s="7"/>
     </row>
-    <row r="272" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
       <c r="B272" s="7"/>
       <c r="C272" s="6"/>
@@ -3669,7 +3906,7 @@
       <c r="F272" s="6"/>
       <c r="G272" s="7"/>
     </row>
-    <row r="273" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="6"/>
       <c r="B273" s="7"/>
       <c r="C273" s="6"/>
@@ -3678,7 +3915,7 @@
       <c r="F273" s="6"/>
       <c r="G273" s="7"/>
     </row>
-    <row r="274" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="6"/>
       <c r="B274" s="7"/>
       <c r="C274" s="6"/>
@@ -3687,7 +3924,7 @@
       <c r="F274" s="6"/>
       <c r="G274" s="7"/>
     </row>
-    <row r="275" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="6"/>
       <c r="B275" s="7"/>
       <c r="C275" s="6"/>
@@ -3696,7 +3933,7 @@
       <c r="F275" s="6"/>
       <c r="G275" s="7"/>
     </row>
-    <row r="276" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
       <c r="B276" s="7"/>
       <c r="C276" s="6"/>
@@ -3705,7 +3942,7 @@
       <c r="F276" s="6"/>
       <c r="G276" s="7"/>
     </row>
-    <row r="277" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
       <c r="B277" s="7"/>
       <c r="C277" s="6"/>
@@ -3714,7 +3951,7 @@
       <c r="F277" s="6"/>
       <c r="G277" s="7"/>
     </row>
-    <row r="278" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="6"/>
       <c r="B278" s="7"/>
       <c r="C278" s="6"/>
@@ -3723,7 +3960,7 @@
       <c r="F278" s="6"/>
       <c r="G278" s="7"/>
     </row>
-    <row r="279" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
       <c r="B279" s="7"/>
       <c r="C279" s="6"/>
@@ -3732,7 +3969,7 @@
       <c r="F279" s="6"/>
       <c r="G279" s="7"/>
     </row>
-    <row r="280" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="6"/>
       <c r="B280" s="7"/>
       <c r="C280" s="6"/>
@@ -3741,7 +3978,7 @@
       <c r="F280" s="6"/>
       <c r="G280" s="7"/>
     </row>
-    <row r="281" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="6"/>
       <c r="B281" s="7"/>
       <c r="C281" s="6"/>
@@ -3750,7 +3987,7 @@
       <c r="F281" s="6"/>
       <c r="G281" s="7"/>
     </row>
-    <row r="282" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="6"/>
       <c r="B282" s="7"/>
       <c r="C282" s="6"/>
@@ -3759,7 +3996,7 @@
       <c r="F282" s="6"/>
       <c r="G282" s="7"/>
     </row>
-    <row r="283" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="6"/>
       <c r="B283" s="7"/>
       <c r="C283" s="6"/>
@@ -3768,7 +4005,7 @@
       <c r="F283" s="6"/>
       <c r="G283" s="7"/>
     </row>
-    <row r="284" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="6"/>
       <c r="B284" s="7"/>
       <c r="C284" s="6"/>
@@ -3777,7 +4014,7 @@
       <c r="F284" s="6"/>
       <c r="G284" s="7"/>
     </row>
-    <row r="285" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="6"/>
       <c r="B285" s="7"/>
       <c r="C285" s="6"/>
@@ -3786,7 +4023,7 @@
       <c r="F285" s="6"/>
       <c r="G285" s="7"/>
     </row>
-    <row r="286" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="6"/>
       <c r="B286" s="7"/>
       <c r="C286" s="6"/>
@@ -3795,7 +4032,7 @@
       <c r="F286" s="6"/>
       <c r="G286" s="7"/>
     </row>
-    <row r="287" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="6"/>
       <c r="B287" s="7"/>
       <c r="C287" s="6"/>
@@ -3804,7 +4041,7 @@
       <c r="F287" s="6"/>
       <c r="G287" s="7"/>
     </row>
-    <row r="288" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="6"/>
       <c r="B288" s="7"/>
       <c r="C288" s="6"/>
@@ -3813,7 +4050,7 @@
       <c r="F288" s="6"/>
       <c r="G288" s="7"/>
     </row>
-    <row r="289" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="6"/>
       <c r="B289" s="7"/>
       <c r="C289" s="6"/>
@@ -3822,7 +4059,7 @@
       <c r="F289" s="6"/>
       <c r="G289" s="7"/>
     </row>
-    <row r="290" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="6"/>
       <c r="B290" s="7"/>
       <c r="C290" s="6"/>
@@ -3831,7 +4068,7 @@
       <c r="F290" s="6"/>
       <c r="G290" s="7"/>
     </row>
-    <row r="291" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="6"/>
       <c r="B291" s="7"/>
       <c r="C291" s="6"/>
@@ -3840,7 +4077,7 @@
       <c r="F291" s="6"/>
       <c r="G291" s="7"/>
     </row>
-    <row r="292" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="6"/>
       <c r="B292" s="7"/>
       <c r="C292" s="6"/>
@@ -3849,7 +4086,7 @@
       <c r="F292" s="6"/>
       <c r="G292" s="7"/>
     </row>
-    <row r="293" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="6"/>
       <c r="B293" s="7"/>
       <c r="C293" s="6"/>
@@ -3858,7 +4095,7 @@
       <c r="F293" s="6"/>
       <c r="G293" s="7"/>
     </row>
-    <row r="294" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="6"/>
       <c r="B294" s="7"/>
       <c r="C294" s="6"/>
@@ -3867,7 +4104,7 @@
       <c r="F294" s="6"/>
       <c r="G294" s="7"/>
     </row>
-    <row r="295" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="6"/>
       <c r="B295" s="7"/>
       <c r="C295" s="6"/>
@@ -3876,7 +4113,7 @@
       <c r="F295" s="6"/>
       <c r="G295" s="7"/>
     </row>
-    <row r="296" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="6"/>
       <c r="B296" s="7"/>
       <c r="C296" s="6"/>
@@ -3885,7 +4122,7 @@
       <c r="F296" s="6"/>
       <c r="G296" s="7"/>
     </row>
-    <row r="297" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="6"/>
       <c r="B297" s="7"/>
       <c r="C297" s="6"/>
@@ -3894,7 +4131,7 @@
       <c r="F297" s="6"/>
       <c r="G297" s="7"/>
     </row>
-    <row r="298" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="6"/>
       <c r="B298" s="7"/>
       <c r="C298" s="6"/>
@@ -3903,7 +4140,7 @@
       <c r="F298" s="6"/>
       <c r="G298" s="7"/>
     </row>
-    <row r="299" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="6"/>
       <c r="B299" s="7"/>
       <c r="C299" s="6"/>
@@ -3912,7 +4149,7 @@
       <c r="F299" s="6"/>
       <c r="G299" s="7"/>
     </row>
-    <row r="300" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="6"/>
       <c r="B300" s="7"/>
       <c r="C300" s="6"/>
@@ -3921,7 +4158,7 @@
       <c r="F300" s="6"/>
       <c r="G300" s="7"/>
     </row>
-    <row r="301" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="6"/>
       <c r="B301" s="7"/>
       <c r="C301" s="6"/>
@@ -3930,7 +4167,7 @@
       <c r="F301" s="6"/>
       <c r="G301" s="7"/>
     </row>
-    <row r="302" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="6"/>
       <c r="B302" s="7"/>
       <c r="C302" s="6"/>
@@ -3939,7 +4176,7 @@
       <c r="F302" s="6"/>
       <c r="G302" s="7"/>
     </row>
-    <row r="303" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="6"/>
       <c r="B303" s="7"/>
       <c r="C303" s="6"/>
@@ -3948,7 +4185,7 @@
       <c r="F303" s="6"/>
       <c r="G303" s="7"/>
     </row>
-    <row r="304" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="6"/>
       <c r="B304" s="7"/>
       <c r="C304" s="6"/>
@@ -3957,7 +4194,7 @@
       <c r="F304" s="6"/>
       <c r="G304" s="7"/>
     </row>
-    <row r="305" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="6"/>
       <c r="B305" s="7"/>
       <c r="C305" s="6"/>
@@ -3966,7 +4203,7 @@
       <c r="F305" s="6"/>
       <c r="G305" s="7"/>
     </row>
-    <row r="306" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="6"/>
       <c r="B306" s="7"/>
       <c r="C306" s="6"/>
@@ -3975,7 +4212,7 @@
       <c r="F306" s="6"/>
       <c r="G306" s="7"/>
     </row>
-    <row r="307" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="6"/>
       <c r="B307" s="7"/>
       <c r="C307" s="6"/>
@@ -3984,7 +4221,7 @@
       <c r="F307" s="6"/>
       <c r="G307" s="7"/>
     </row>
-    <row r="308" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="6"/>
       <c r="B308" s="7"/>
       <c r="C308" s="6"/>
@@ -3993,7 +4230,7 @@
       <c r="F308" s="6"/>
       <c r="G308" s="7"/>
     </row>
-    <row r="309" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="6"/>
       <c r="B309" s="7"/>
       <c r="C309" s="6"/>
@@ -4002,7 +4239,7 @@
       <c r="F309" s="6"/>
       <c r="G309" s="7"/>
     </row>
-    <row r="310" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="6"/>
       <c r="B310" s="7"/>
       <c r="C310" s="6"/>
@@ -4011,7 +4248,7 @@
       <c r="F310" s="6"/>
       <c r="G310" s="7"/>
     </row>
-    <row r="311" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="6"/>
       <c r="B311" s="7"/>
       <c r="C311" s="6"/>
@@ -4020,7 +4257,7 @@
       <c r="F311" s="6"/>
       <c r="G311" s="7"/>
     </row>
-    <row r="312" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="6"/>
       <c r="B312" s="7"/>
       <c r="C312" s="6"/>
@@ -4029,7 +4266,7 @@
       <c r="F312" s="6"/>
       <c r="G312" s="7"/>
     </row>
-    <row r="313" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="6"/>
       <c r="B313" s="7"/>
       <c r="C313" s="6"/>
@@ -4038,7 +4275,7 @@
       <c r="F313" s="6"/>
       <c r="G313" s="7"/>
     </row>
-    <row r="314" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="6"/>
       <c r="B314" s="7"/>
       <c r="C314" s="6"/>
@@ -4047,7 +4284,7 @@
       <c r="F314" s="6"/>
       <c r="G314" s="7"/>
     </row>
-    <row r="315" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="6"/>
       <c r="B315" s="7"/>
       <c r="C315" s="6"/>
@@ -4056,7 +4293,7 @@
       <c r="F315" s="6"/>
       <c r="G315" s="7"/>
     </row>
-    <row r="316" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="6"/>
       <c r="B316" s="7"/>
       <c r="C316" s="6"/>
@@ -4065,7 +4302,7 @@
       <c r="F316" s="6"/>
       <c r="G316" s="7"/>
     </row>
-    <row r="317" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="6"/>
       <c r="B317" s="7"/>
       <c r="C317" s="6"/>
@@ -4074,7 +4311,7 @@
       <c r="F317" s="6"/>
       <c r="G317" s="7"/>
     </row>
-    <row r="318" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="6"/>
       <c r="B318" s="7"/>
       <c r="C318" s="6"/>
@@ -4083,7 +4320,7 @@
       <c r="F318" s="6"/>
       <c r="G318" s="7"/>
     </row>
-    <row r="319" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="6"/>
       <c r="B319" s="7"/>
       <c r="C319" s="6"/>
@@ -4092,7 +4329,7 @@
       <c r="F319" s="6"/>
       <c r="G319" s="7"/>
     </row>
-    <row r="320" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="6"/>
       <c r="B320" s="7"/>
       <c r="C320" s="6"/>
@@ -4101,7 +4338,7 @@
       <c r="F320" s="6"/>
       <c r="G320" s="7"/>
     </row>
-    <row r="321" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="6"/>
       <c r="B321" s="7"/>
       <c r="C321" s="6"/>
@@ -4110,7 +4347,7 @@
       <c r="F321" s="6"/>
       <c r="G321" s="7"/>
     </row>
-    <row r="322" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="6"/>
       <c r="B322" s="7"/>
       <c r="C322" s="6"/>
@@ -4119,7 +4356,7 @@
       <c r="F322" s="6"/>
       <c r="G322" s="7"/>
     </row>
-    <row r="323" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="6"/>
       <c r="B323" s="7"/>
       <c r="C323" s="6"/>
@@ -4128,7 +4365,7 @@
       <c r="F323" s="6"/>
       <c r="G323" s="7"/>
     </row>
-    <row r="324" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="6"/>
       <c r="B324" s="7"/>
       <c r="C324" s="6"/>
@@ -4137,7 +4374,7 @@
       <c r="F324" s="6"/>
       <c r="G324" s="7"/>
     </row>
-    <row r="325" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="6"/>
       <c r="B325" s="7"/>
       <c r="C325" s="6"/>
@@ -4146,7 +4383,7 @@
       <c r="F325" s="6"/>
       <c r="G325" s="7"/>
     </row>
-    <row r="326" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="6"/>
       <c r="B326" s="7"/>
       <c r="C326" s="6"/>
@@ -4155,7 +4392,7 @@
       <c r="F326" s="6"/>
       <c r="G326" s="7"/>
     </row>
-    <row r="327" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="6"/>
       <c r="B327" s="7"/>
       <c r="C327" s="6"/>
@@ -4164,7 +4401,7 @@
       <c r="F327" s="6"/>
       <c r="G327" s="7"/>
     </row>
-    <row r="328" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="6"/>
       <c r="B328" s="7"/>
       <c r="C328" s="6"/>
@@ -4173,7 +4410,7 @@
       <c r="F328" s="6"/>
       <c r="G328" s="7"/>
     </row>
-    <row r="329" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="6"/>
       <c r="B329" s="7"/>
       <c r="C329" s="6"/>
@@ -4182,7 +4419,7 @@
       <c r="F329" s="6"/>
       <c r="G329" s="7"/>
     </row>
-    <row r="330" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="6"/>
       <c r="B330" s="7"/>
       <c r="C330" s="6"/>
@@ -4191,7 +4428,7 @@
       <c r="F330" s="6"/>
       <c r="G330" s="7"/>
     </row>
-    <row r="331" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="6"/>
       <c r="B331" s="7"/>
       <c r="C331" s="6"/>
@@ -4200,7 +4437,7 @@
       <c r="F331" s="6"/>
       <c r="G331" s="7"/>
     </row>
-    <row r="332" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="6"/>
       <c r="B332" s="7"/>
       <c r="C332" s="6"/>
@@ -4209,7 +4446,7 @@
       <c r="F332" s="6"/>
       <c r="G332" s="7"/>
     </row>
-    <row r="333" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="6"/>
       <c r="B333" s="7"/>
       <c r="C333" s="6"/>
@@ -4218,7 +4455,7 @@
       <c r="F333" s="6"/>
       <c r="G333" s="7"/>
     </row>
-    <row r="334" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="6"/>
       <c r="B334" s="7"/>
       <c r="C334" s="6"/>
@@ -4227,7 +4464,7 @@
       <c r="F334" s="6"/>
       <c r="G334" s="7"/>
     </row>
-    <row r="335" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="6"/>
       <c r="B335" s="7"/>
       <c r="C335" s="6"/>
@@ -4236,7 +4473,7 @@
       <c r="F335" s="6"/>
       <c r="G335" s="7"/>
     </row>
-    <row r="336" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="6"/>
       <c r="B336" s="7"/>
       <c r="C336" s="6"/>
@@ -4245,7 +4482,7 @@
       <c r="F336" s="6"/>
       <c r="G336" s="7"/>
     </row>
-    <row r="337" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="6"/>
       <c r="B337" s="7"/>
       <c r="C337" s="6"/>
@@ -4254,7 +4491,7 @@
       <c r="F337" s="6"/>
       <c r="G337" s="7"/>
     </row>
-    <row r="338" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="6"/>
       <c r="B338" s="7"/>
       <c r="C338" s="6"/>
@@ -4263,7 +4500,7 @@
       <c r="F338" s="6"/>
       <c r="G338" s="7"/>
     </row>
-    <row r="339" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="6"/>
       <c r="B339" s="7"/>
       <c r="C339" s="6"/>
@@ -4272,7 +4509,7 @@
       <c r="F339" s="6"/>
       <c r="G339" s="7"/>
     </row>
-    <row r="340" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="6"/>
       <c r="B340" s="7"/>
       <c r="C340" s="6"/>
@@ -4281,7 +4518,7 @@
       <c r="F340" s="6"/>
       <c r="G340" s="7"/>
     </row>
-    <row r="341" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="6"/>
       <c r="B341" s="7"/>
       <c r="C341" s="6"/>
@@ -4290,7 +4527,7 @@
       <c r="F341" s="6"/>
       <c r="G341" s="7"/>
     </row>
-    <row r="342" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="6"/>
       <c r="B342" s="7"/>
       <c r="C342" s="6"/>
@@ -4299,7 +4536,7 @@
       <c r="F342" s="6"/>
       <c r="G342" s="7"/>
     </row>
-    <row r="343" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="6"/>
       <c r="B343" s="7"/>
       <c r="C343" s="6"/>
@@ -4308,7 +4545,7 @@
       <c r="F343" s="6"/>
       <c r="G343" s="7"/>
     </row>
-    <row r="344" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="6"/>
       <c r="B344" s="7"/>
       <c r="C344" s="6"/>
@@ -4317,7 +4554,7 @@
       <c r="F344" s="6"/>
       <c r="G344" s="7"/>
     </row>
-    <row r="345" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="6"/>
       <c r="B345" s="7"/>
       <c r="C345" s="6"/>
@@ -4326,7 +4563,7 @@
       <c r="F345" s="6"/>
       <c r="G345" s="7"/>
     </row>
-    <row r="346" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="6"/>
       <c r="B346" s="7"/>
       <c r="C346" s="6"/>
@@ -4335,7 +4572,7 @@
       <c r="F346" s="6"/>
       <c r="G346" s="7"/>
     </row>
-    <row r="347" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="6"/>
       <c r="B347" s="7"/>
       <c r="C347" s="6"/>
@@ -4344,7 +4581,7 @@
       <c r="F347" s="6"/>
       <c r="G347" s="7"/>
     </row>
-    <row r="348" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="6"/>
       <c r="B348" s="7"/>
       <c r="C348" s="6"/>
@@ -4353,7 +4590,7 @@
       <c r="F348" s="6"/>
       <c r="G348" s="7"/>
     </row>
-    <row r="349" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="6"/>
       <c r="B349" s="7"/>
       <c r="C349" s="6"/>
@@ -4362,7 +4599,7 @@
       <c r="F349" s="6"/>
       <c r="G349" s="7"/>
     </row>
-    <row r="350" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="6"/>
       <c r="B350" s="7"/>
       <c r="C350" s="6"/>
@@ -4371,7 +4608,7 @@
       <c r="F350" s="6"/>
       <c r="G350" s="7"/>
     </row>
-    <row r="351" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="6"/>
       <c r="B351" s="7"/>
       <c r="C351" s="6"/>
@@ -4380,7 +4617,7 @@
       <c r="F351" s="6"/>
       <c r="G351" s="7"/>
     </row>
-    <row r="352" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="6"/>
       <c r="B352" s="7"/>
       <c r="C352" s="6"/>
@@ -4389,7 +4626,7 @@
       <c r="F352" s="6"/>
       <c r="G352" s="7"/>
     </row>
-    <row r="353" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="6"/>
       <c r="B353" s="7"/>
       <c r="C353" s="6"/>
@@ -4398,7 +4635,7 @@
       <c r="F353" s="6"/>
       <c r="G353" s="7"/>
     </row>
-    <row r="354" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="6"/>
       <c r="B354" s="7"/>
       <c r="C354" s="6"/>
@@ -4407,7 +4644,7 @@
       <c r="F354" s="6"/>
       <c r="G354" s="7"/>
     </row>
-    <row r="355" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="6"/>
       <c r="B355" s="7"/>
       <c r="C355" s="6"/>
@@ -4416,7 +4653,7 @@
       <c r="F355" s="6"/>
       <c r="G355" s="7"/>
     </row>
-    <row r="356" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="6"/>
       <c r="B356" s="7"/>
       <c r="C356" s="6"/>
@@ -4425,7 +4662,7 @@
       <c r="F356" s="6"/>
       <c r="G356" s="7"/>
     </row>
-    <row r="357" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="6"/>
       <c r="B357" s="7"/>
       <c r="C357" s="6"/>
@@ -4434,7 +4671,7 @@
       <c r="F357" s="6"/>
       <c r="G357" s="7"/>
     </row>
-    <row r="358" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="6"/>
       <c r="B358" s="7"/>
       <c r="C358" s="6"/>
@@ -4443,7 +4680,7 @@
       <c r="F358" s="6"/>
       <c r="G358" s="7"/>
     </row>
-    <row r="359" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="6"/>
       <c r="B359" s="7"/>
       <c r="C359" s="6"/>
@@ -4452,7 +4689,7 @@
       <c r="F359" s="6"/>
       <c r="G359" s="7"/>
     </row>
-    <row r="360" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="6"/>
       <c r="B360" s="7"/>
       <c r="C360" s="6"/>
@@ -4461,7 +4698,7 @@
       <c r="F360" s="6"/>
       <c r="G360" s="7"/>
     </row>
-    <row r="361" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="6"/>
       <c r="B361" s="7"/>
       <c r="C361" s="6"/>
@@ -4470,7 +4707,7 @@
       <c r="F361" s="6"/>
       <c r="G361" s="7"/>
     </row>
-    <row r="362" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="6"/>
       <c r="B362" s="7"/>
       <c r="C362" s="6"/>
@@ -4479,7 +4716,7 @@
       <c r="F362" s="6"/>
       <c r="G362" s="7"/>
     </row>
-    <row r="363" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="6"/>
       <c r="B363" s="7"/>
       <c r="C363" s="6"/>
@@ -4488,7 +4725,7 @@
       <c r="F363" s="6"/>
       <c r="G363" s="7"/>
     </row>
-    <row r="364" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="6"/>
       <c r="B364" s="7"/>
       <c r="C364" s="6"/>
@@ -4497,7 +4734,7 @@
       <c r="F364" s="6"/>
       <c r="G364" s="7"/>
     </row>
-    <row r="365" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="6"/>
       <c r="B365" s="7"/>
       <c r="C365" s="6"/>
@@ -4506,7 +4743,7 @@
       <c r="F365" s="6"/>
       <c r="G365" s="7"/>
     </row>
-    <row r="366" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="6"/>
       <c r="B366" s="7"/>
       <c r="C366" s="6"/>
@@ -4515,7 +4752,7 @@
       <c r="F366" s="6"/>
       <c r="G366" s="7"/>
     </row>
-    <row r="367" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="6"/>
       <c r="B367" s="7"/>
       <c r="C367" s="6"/>
@@ -4524,7 +4761,7 @@
       <c r="F367" s="6"/>
       <c r="G367" s="7"/>
     </row>
-    <row r="368" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
       <c r="B368" s="7"/>
       <c r="C368" s="6"/>
@@ -4533,7 +4770,7 @@
       <c r="F368" s="6"/>
       <c r="G368" s="7"/>
     </row>
-    <row r="369" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="6"/>
       <c r="B369" s="7"/>
       <c r="C369" s="6"/>
@@ -4542,7 +4779,7 @@
       <c r="F369" s="6"/>
       <c r="G369" s="7"/>
     </row>
-    <row r="370" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="6"/>
       <c r="B370" s="7"/>
       <c r="C370" s="6"/>
@@ -4551,7 +4788,7 @@
       <c r="F370" s="6"/>
       <c r="G370" s="7"/>
     </row>
-    <row r="371" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="6"/>
       <c r="B371" s="7"/>
       <c r="C371" s="6"/>
@@ -4560,7 +4797,7 @@
       <c r="F371" s="6"/>
       <c r="G371" s="7"/>
     </row>
-    <row r="372" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="6"/>
       <c r="B372" s="7"/>
       <c r="C372" s="6"/>
@@ -4569,7 +4806,7 @@
       <c r="F372" s="6"/>
       <c r="G372" s="7"/>
     </row>
-    <row r="373" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="6"/>
       <c r="B373" s="7"/>
       <c r="C373" s="6"/>
@@ -4578,7 +4815,7 @@
       <c r="F373" s="6"/>
       <c r="G373" s="7"/>
     </row>
-    <row r="374" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="6"/>
       <c r="B374" s="7"/>
       <c r="C374" s="6"/>
@@ -4587,7 +4824,7 @@
       <c r="F374" s="6"/>
       <c r="G374" s="7"/>
     </row>
-    <row r="375" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="6"/>
       <c r="B375" s="7"/>
       <c r="C375" s="6"/>
@@ -4596,7 +4833,7 @@
       <c r="F375" s="6"/>
       <c r="G375" s="7"/>
     </row>
-    <row r="376" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="6"/>
       <c r="B376" s="7"/>
       <c r="C376" s="6"/>
@@ -4605,7 +4842,7 @@
       <c r="F376" s="6"/>
       <c r="G376" s="7"/>
     </row>
-    <row r="377" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="6"/>
       <c r="B377" s="7"/>
       <c r="C377" s="6"/>
@@ -4614,7 +4851,7 @@
       <c r="F377" s="6"/>
       <c r="G377" s="7"/>
     </row>
-    <row r="378" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="6"/>
       <c r="B378" s="7"/>
       <c r="C378" s="6"/>
@@ -4623,7 +4860,7 @@
       <c r="F378" s="6"/>
       <c r="G378" s="7"/>
     </row>
-    <row r="379" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="6"/>
       <c r="B379" s="7"/>
       <c r="C379" s="6"/>
@@ -4632,7 +4869,7 @@
       <c r="F379" s="6"/>
       <c r="G379" s="7"/>
     </row>
-    <row r="380" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="6"/>
       <c r="B380" s="7"/>
       <c r="C380" s="6"/>
@@ -4641,7 +4878,7 @@
       <c r="F380" s="6"/>
       <c r="G380" s="7"/>
     </row>
-    <row r="381" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="6"/>
       <c r="B381" s="7"/>
       <c r="C381" s="6"/>
@@ -4650,7 +4887,7 @@
       <c r="F381" s="6"/>
       <c r="G381" s="7"/>
     </row>
-    <row r="382" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="6"/>
       <c r="B382" s="7"/>
       <c r="C382" s="6"/>
@@ -4659,7 +4896,7 @@
       <c r="F382" s="6"/>
       <c r="G382" s="7"/>
     </row>
-    <row r="383" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="6"/>
       <c r="B383" s="7"/>
       <c r="C383" s="6"/>
@@ -4668,7 +4905,7 @@
       <c r="F383" s="6"/>
       <c r="G383" s="7"/>
     </row>
-    <row r="384" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="6"/>
       <c r="B384" s="7"/>
       <c r="C384" s="6"/>
@@ -4677,7 +4914,7 @@
       <c r="F384" s="6"/>
       <c r="G384" s="7"/>
     </row>
-    <row r="385" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="6"/>
       <c r="B385" s="7"/>
       <c r="C385" s="6"/>
@@ -4686,7 +4923,7 @@
       <c r="F385" s="6"/>
       <c r="G385" s="7"/>
     </row>
-    <row r="386" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="6"/>
       <c r="B386" s="7"/>
       <c r="C386" s="6"/>
@@ -4695,7 +4932,7 @@
       <c r="F386" s="6"/>
       <c r="G386" s="7"/>
     </row>
-    <row r="387" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="6"/>
       <c r="B387" s="7"/>
       <c r="C387" s="6"/>
@@ -4704,7 +4941,7 @@
       <c r="F387" s="6"/>
       <c r="G387" s="7"/>
     </row>
-    <row r="388" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="6"/>
       <c r="B388" s="7"/>
       <c r="C388" s="6"/>
@@ -4713,7 +4950,7 @@
       <c r="F388" s="6"/>
       <c r="G388" s="7"/>
     </row>
-    <row r="389" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="6"/>
       <c r="B389" s="7"/>
       <c r="C389" s="6"/>
@@ -4722,7 +4959,7 @@
       <c r="F389" s="6"/>
       <c r="G389" s="7"/>
     </row>
-    <row r="390" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="6"/>
       <c r="B390" s="7"/>
       <c r="C390" s="6"/>
@@ -4731,7 +4968,7 @@
       <c r="F390" s="6"/>
       <c r="G390" s="7"/>
     </row>
-    <row r="391" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="6"/>
       <c r="B391" s="7"/>
       <c r="C391" s="6"/>
@@ -4740,7 +4977,7 @@
       <c r="F391" s="6"/>
       <c r="G391" s="7"/>
     </row>
-    <row r="392" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="6"/>
       <c r="B392" s="7"/>
       <c r="C392" s="6"/>
@@ -4749,7 +4986,7 @@
       <c r="F392" s="6"/>
       <c r="G392" s="7"/>
     </row>
-    <row r="393" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="6"/>
       <c r="B393" s="7"/>
       <c r="C393" s="6"/>
@@ -4758,7 +4995,7 @@
       <c r="F393" s="6"/>
       <c r="G393" s="7"/>
     </row>
-    <row r="394" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="6"/>
       <c r="B394" s="7"/>
       <c r="C394" s="6"/>
@@ -4767,7 +5004,7 @@
       <c r="F394" s="6"/>
       <c r="G394" s="7"/>
     </row>
-    <row r="395" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="6"/>
       <c r="B395" s="7"/>
       <c r="C395" s="6"/>
@@ -4776,7 +5013,7 @@
       <c r="F395" s="6"/>
       <c r="G395" s="7"/>
     </row>
-    <row r="396" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="6"/>
       <c r="B396" s="7"/>
       <c r="C396" s="6"/>
@@ -4785,7 +5022,7 @@
       <c r="F396" s="6"/>
       <c r="G396" s="7"/>
     </row>
-    <row r="397" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="6"/>
       <c r="B397" s="7"/>
       <c r="C397" s="6"/>
@@ -4794,7 +5031,7 @@
       <c r="F397" s="6"/>
       <c r="G397" s="7"/>
     </row>
-    <row r="398" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="6"/>
       <c r="B398" s="7"/>
       <c r="C398" s="6"/>
@@ -4803,7 +5040,7 @@
       <c r="F398" s="6"/>
       <c r="G398" s="7"/>
     </row>
-    <row r="399" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="6"/>
       <c r="B399" s="7"/>
       <c r="C399" s="6"/>
@@ -4812,7 +5049,7 @@
       <c r="F399" s="6"/>
       <c r="G399" s="7"/>
     </row>
-    <row r="400" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="6"/>
       <c r="B400" s="7"/>
       <c r="C400" s="6"/>
@@ -4821,7 +5058,7 @@
       <c r="F400" s="6"/>
       <c r="G400" s="7"/>
     </row>
-    <row r="401" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="6"/>
       <c r="B401" s="7"/>
       <c r="C401" s="6"/>
@@ -4830,7 +5067,7 @@
       <c r="F401" s="6"/>
       <c r="G401" s="7"/>
     </row>
-    <row r="402" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="6"/>
       <c r="B402" s="7"/>
       <c r="C402" s="6"/>
@@ -4839,7 +5076,7 @@
       <c r="F402" s="6"/>
       <c r="G402" s="7"/>
     </row>
-    <row r="403" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="6"/>
       <c r="B403" s="7"/>
       <c r="C403" s="6"/>
@@ -4848,7 +5085,7 @@
       <c r="F403" s="6"/>
       <c r="G403" s="7"/>
     </row>
-    <row r="404" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="6"/>
       <c r="B404" s="7"/>
       <c r="C404" s="6"/>
@@ -4857,7 +5094,7 @@
       <c r="F404" s="6"/>
       <c r="G404" s="7"/>
     </row>
-    <row r="405" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="6"/>
       <c r="B405" s="7"/>
       <c r="C405" s="6"/>
@@ -4866,7 +5103,7 @@
       <c r="F405" s="6"/>
       <c r="G405" s="7"/>
     </row>
-    <row r="406" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="6"/>
       <c r="B406" s="7"/>
       <c r="C406" s="6"/>
@@ -4875,7 +5112,7 @@
       <c r="F406" s="6"/>
       <c r="G406" s="7"/>
     </row>
-    <row r="407" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="6"/>
       <c r="B407" s="7"/>
       <c r="C407" s="6"/>
@@ -4884,7 +5121,7 @@
       <c r="F407" s="6"/>
       <c r="G407" s="7"/>
     </row>
-    <row r="408" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="6"/>
       <c r="B408" s="7"/>
       <c r="C408" s="6"/>
@@ -4893,7 +5130,7 @@
       <c r="F408" s="6"/>
       <c r="G408" s="7"/>
     </row>
-    <row r="409" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="6"/>
       <c r="B409" s="7"/>
       <c r="C409" s="6"/>
@@ -4902,7 +5139,7 @@
       <c r="F409" s="6"/>
       <c r="G409" s="7"/>
     </row>
-    <row r="410" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="6"/>
       <c r="B410" s="7"/>
       <c r="C410" s="6"/>
@@ -4911,7 +5148,7 @@
       <c r="F410" s="6"/>
       <c r="G410" s="7"/>
     </row>
-    <row r="411" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="6"/>
       <c r="B411" s="7"/>
       <c r="C411" s="6"/>
@@ -4920,7 +5157,7 @@
       <c r="F411" s="6"/>
       <c r="G411" s="7"/>
     </row>
-    <row r="412" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="6"/>
       <c r="B412" s="7"/>
       <c r="C412" s="6"/>
@@ -4929,7 +5166,7 @@
       <c r="F412" s="6"/>
       <c r="G412" s="7"/>
     </row>
-    <row r="413" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="6"/>
       <c r="B413" s="7"/>
       <c r="C413" s="6"/>
@@ -4938,7 +5175,7 @@
       <c r="F413" s="6"/>
       <c r="G413" s="7"/>
     </row>
-    <row r="414" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="6"/>
       <c r="B414" s="7"/>
       <c r="C414" s="6"/>
@@ -4947,7 +5184,7 @@
       <c r="F414" s="6"/>
       <c r="G414" s="7"/>
     </row>
-    <row r="415" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="6"/>
       <c r="B415" s="7"/>
       <c r="C415" s="6"/>
@@ -4956,7 +5193,7 @@
       <c r="F415" s="6"/>
       <c r="G415" s="7"/>
     </row>
-    <row r="416" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="6"/>
       <c r="B416" s="7"/>
       <c r="C416" s="6"/>
@@ -4965,7 +5202,7 @@
       <c r="F416" s="6"/>
       <c r="G416" s="7"/>
     </row>
-    <row r="417" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="6"/>
       <c r="B417" s="7"/>
       <c r="C417" s="6"/>
@@ -4974,7 +5211,7 @@
       <c r="F417" s="6"/>
       <c r="G417" s="7"/>
     </row>
-    <row r="418" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="6"/>
       <c r="B418" s="7"/>
       <c r="C418" s="6"/>
@@ -4983,7 +5220,7 @@
       <c r="F418" s="6"/>
       <c r="G418" s="7"/>
     </row>
-    <row r="419" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="6"/>
       <c r="B419" s="7"/>
       <c r="C419" s="6"/>
@@ -4992,7 +5229,7 @@
       <c r="F419" s="6"/>
       <c r="G419" s="7"/>
     </row>
-    <row r="420" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="6"/>
       <c r="B420" s="7"/>
       <c r="C420" s="6"/>
@@ -5001,7 +5238,7 @@
       <c r="F420" s="6"/>
       <c r="G420" s="7"/>
     </row>
-    <row r="421" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="6"/>
       <c r="B421" s="7"/>
       <c r="C421" s="6"/>
@@ -5010,7 +5247,7 @@
       <c r="F421" s="6"/>
       <c r="G421" s="7"/>
     </row>
-    <row r="422" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="6"/>
       <c r="B422" s="7"/>
       <c r="C422" s="6"/>
@@ -5019,7 +5256,7 @@
       <c r="F422" s="6"/>
       <c r="G422" s="7"/>
     </row>
-    <row r="423" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="6"/>
       <c r="B423" s="7"/>
       <c r="C423" s="6"/>
@@ -5028,7 +5265,7 @@
       <c r="F423" s="6"/>
       <c r="G423" s="7"/>
     </row>
-    <row r="424" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="6"/>
       <c r="B424" s="7"/>
       <c r="C424" s="6"/>
@@ -5037,7 +5274,7 @@
       <c r="F424" s="6"/>
       <c r="G424" s="7"/>
     </row>
-    <row r="425" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="6"/>
       <c r="B425" s="7"/>
       <c r="C425" s="6"/>
@@ -5046,7 +5283,7 @@
       <c r="F425" s="6"/>
       <c r="G425" s="7"/>
     </row>
-    <row r="426" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="6"/>
       <c r="B426" s="7"/>
       <c r="C426" s="6"/>
@@ -5055,7 +5292,7 @@
       <c r="F426" s="6"/>
       <c r="G426" s="7"/>
     </row>
-    <row r="427" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="6"/>
       <c r="B427" s="7"/>
       <c r="C427" s="6"/>
@@ -5064,7 +5301,7 @@
       <c r="F427" s="6"/>
       <c r="G427" s="7"/>
     </row>
-    <row r="428" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="6"/>
       <c r="B428" s="7"/>
       <c r="C428" s="6"/>
@@ -5073,7 +5310,7 @@
       <c r="F428" s="6"/>
       <c r="G428" s="7"/>
     </row>
-    <row r="429" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="6"/>
       <c r="B429" s="7"/>
       <c r="C429" s="6"/>
@@ -5082,7 +5319,7 @@
       <c r="F429" s="6"/>
       <c r="G429" s="7"/>
     </row>
-    <row r="430" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="6"/>
       <c r="B430" s="7"/>
       <c r="C430" s="6"/>
@@ -5091,7 +5328,7 @@
       <c r="F430" s="6"/>
       <c r="G430" s="7"/>
     </row>
-    <row r="431" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="6"/>
       <c r="B431" s="7"/>
       <c r="C431" s="6"/>
@@ -5100,7 +5337,7 @@
       <c r="F431" s="6"/>
       <c r="G431" s="7"/>
     </row>
-    <row r="432" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="6"/>
       <c r="B432" s="7"/>
       <c r="C432" s="6"/>
@@ -5109,7 +5346,7 @@
       <c r="F432" s="6"/>
       <c r="G432" s="7"/>
     </row>
-    <row r="433" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="6"/>
       <c r="B433" s="7"/>
       <c r="C433" s="6"/>
@@ -5118,7 +5355,7 @@
       <c r="F433" s="6"/>
       <c r="G433" s="7"/>
     </row>
-    <row r="434" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="6"/>
       <c r="B434" s="7"/>
       <c r="C434" s="6"/>
@@ -5127,7 +5364,7 @@
       <c r="F434" s="6"/>
       <c r="G434" s="7"/>
     </row>
-    <row r="435" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="6"/>
       <c r="B435" s="7"/>
       <c r="C435" s="6"/>
@@ -5136,7 +5373,7 @@
       <c r="F435" s="6"/>
       <c r="G435" s="7"/>
     </row>
-    <row r="436" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="6"/>
       <c r="B436" s="7"/>
       <c r="C436" s="6"/>
@@ -5145,7 +5382,7 @@
       <c r="F436" s="6"/>
       <c r="G436" s="7"/>
     </row>
-    <row r="437" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="6"/>
       <c r="B437" s="7"/>
       <c r="C437" s="6"/>
@@ -5154,7 +5391,7 @@
       <c r="F437" s="6"/>
       <c r="G437" s="7"/>
     </row>
-    <row r="438" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="6"/>
       <c r="B438" s="7"/>
       <c r="C438" s="6"/>
@@ -5163,7 +5400,7 @@
       <c r="F438" s="6"/>
       <c r="G438" s="7"/>
     </row>
-    <row r="439" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="6"/>
       <c r="B439" s="7"/>
       <c r="C439" s="6"/>
@@ -5172,7 +5409,7 @@
       <c r="F439" s="6"/>
       <c r="G439" s="7"/>
     </row>
-    <row r="440" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="6"/>
       <c r="B440" s="7"/>
       <c r="C440" s="6"/>
@@ -5181,7 +5418,7 @@
       <c r="F440" s="6"/>
       <c r="G440" s="7"/>
     </row>
-    <row r="441" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="6"/>
       <c r="B441" s="7"/>
       <c r="C441" s="6"/>
@@ -5190,7 +5427,7 @@
       <c r="F441" s="6"/>
       <c r="G441" s="7"/>
     </row>
-    <row r="442" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="6"/>
       <c r="B442" s="7"/>
       <c r="C442" s="6"/>
@@ -5199,7 +5436,7 @@
       <c r="F442" s="6"/>
       <c r="G442" s="7"/>
     </row>
-    <row r="443" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="6"/>
       <c r="B443" s="7"/>
       <c r="C443" s="6"/>
@@ -5208,7 +5445,7 @@
       <c r="F443" s="6"/>
       <c r="G443" s="7"/>
     </row>
-    <row r="444" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="6"/>
       <c r="B444" s="7"/>
       <c r="C444" s="6"/>
@@ -5217,7 +5454,7 @@
       <c r="F444" s="6"/>
       <c r="G444" s="7"/>
     </row>
-    <row r="445" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="6"/>
       <c r="B445" s="7"/>
       <c r="C445" s="6"/>
@@ -5226,7 +5463,7 @@
       <c r="F445" s="6"/>
       <c r="G445" s="7"/>
     </row>
-    <row r="446" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="6"/>
       <c r="B446" s="7"/>
       <c r="C446" s="6"/>
@@ -5235,7 +5472,7 @@
       <c r="F446" s="6"/>
       <c r="G446" s="7"/>
     </row>
-    <row r="447" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="6"/>
       <c r="B447" s="7"/>
       <c r="C447" s="6"/>
@@ -5244,7 +5481,7 @@
       <c r="F447" s="6"/>
       <c r="G447" s="7"/>
     </row>
-    <row r="448" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="6"/>
       <c r="B448" s="7"/>
       <c r="C448" s="6"/>
@@ -5253,7 +5490,7 @@
       <c r="F448" s="6"/>
       <c r="G448" s="7"/>
     </row>
-    <row r="449" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="6"/>
       <c r="B449" s="7"/>
       <c r="C449" s="6"/>
@@ -5262,7 +5499,7 @@
       <c r="F449" s="6"/>
       <c r="G449" s="7"/>
     </row>
-    <row r="450" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="6"/>
       <c r="B450" s="7"/>
       <c r="C450" s="6"/>
@@ -5271,7 +5508,7 @@
       <c r="F450" s="6"/>
       <c r="G450" s="7"/>
     </row>
-    <row r="451" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="6"/>
       <c r="B451" s="7"/>
       <c r="C451" s="6"/>
@@ -5280,7 +5517,7 @@
       <c r="F451" s="6"/>
       <c r="G451" s="7"/>
     </row>
-    <row r="452" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="6"/>
       <c r="B452" s="7"/>
       <c r="C452" s="6"/>
@@ -5289,7 +5526,7 @@
       <c r="F452" s="6"/>
       <c r="G452" s="7"/>
     </row>
-    <row r="453" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="6"/>
       <c r="B453" s="7"/>
       <c r="C453" s="6"/>
@@ -5298,7 +5535,7 @@
       <c r="F453" s="6"/>
       <c r="G453" s="7"/>
     </row>
-    <row r="454" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="6"/>
       <c r="B454" s="7"/>
       <c r="C454" s="6"/>
@@ -5307,7 +5544,7 @@
       <c r="F454" s="6"/>
       <c r="G454" s="7"/>
     </row>
-    <row r="455" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="6"/>
       <c r="B455" s="7"/>
       <c r="C455" s="6"/>
@@ -5316,7 +5553,7 @@
       <c r="F455" s="6"/>
       <c r="G455" s="7"/>
     </row>
-    <row r="456" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="6"/>
       <c r="B456" s="7"/>
       <c r="C456" s="6"/>
@@ -5325,7 +5562,7 @@
       <c r="F456" s="6"/>
       <c r="G456" s="7"/>
     </row>
-    <row r="457" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="6"/>
       <c r="B457" s="7"/>
       <c r="C457" s="6"/>
@@ -5334,7 +5571,7 @@
       <c r="F457" s="6"/>
       <c r="G457" s="7"/>
     </row>
-    <row r="458" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="6"/>
       <c r="B458" s="7"/>
       <c r="C458" s="6"/>
@@ -5343,7 +5580,7 @@
       <c r="F458" s="6"/>
       <c r="G458" s="7"/>
     </row>
-    <row r="459" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="6"/>
       <c r="B459" s="7"/>
       <c r="C459" s="6"/>
@@ -5352,7 +5589,7 @@
       <c r="F459" s="6"/>
       <c r="G459" s="7"/>
     </row>
-    <row r="460" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="6"/>
       <c r="B460" s="7"/>
       <c r="C460" s="6"/>
@@ -5361,7 +5598,7 @@
       <c r="F460" s="6"/>
       <c r="G460" s="7"/>
     </row>
-    <row r="461" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="6"/>
       <c r="B461" s="7"/>
       <c r="C461" s="6"/>
@@ -5370,7 +5607,7 @@
       <c r="F461" s="6"/>
       <c r="G461" s="7"/>
     </row>
-    <row r="462" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="6"/>
       <c r="B462" s="7"/>
       <c r="C462" s="6"/>
@@ -5379,7 +5616,7 @@
       <c r="F462" s="6"/>
       <c r="G462" s="7"/>
     </row>
-    <row r="463" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="6"/>
       <c r="B463" s="7"/>
       <c r="C463" s="6"/>
@@ -5388,7 +5625,7 @@
       <c r="F463" s="6"/>
       <c r="G463" s="7"/>
     </row>
-    <row r="464" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="6"/>
       <c r="B464" s="7"/>
       <c r="C464" s="6"/>
@@ -5397,7 +5634,7 @@
       <c r="F464" s="6"/>
       <c r="G464" s="7"/>
     </row>
-    <row r="465" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="6"/>
       <c r="B465" s="7"/>
       <c r="C465" s="6"/>
@@ -5406,7 +5643,7 @@
       <c r="F465" s="6"/>
       <c r="G465" s="7"/>
     </row>
-    <row r="466" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="6"/>
       <c r="B466" s="7"/>
       <c r="C466" s="6"/>
@@ -5415,7 +5652,7 @@
       <c r="F466" s="6"/>
       <c r="G466" s="7"/>
     </row>
-    <row r="467" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="6"/>
       <c r="B467" s="7"/>
       <c r="C467" s="6"/>
@@ -5424,7 +5661,7 @@
       <c r="F467" s="6"/>
       <c r="G467" s="7"/>
     </row>
-    <row r="468" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="6"/>
       <c r="B468" s="7"/>
       <c r="C468" s="6"/>
@@ -5433,7 +5670,7 @@
       <c r="F468" s="6"/>
       <c r="G468" s="7"/>
     </row>
-    <row r="469" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="6"/>
       <c r="B469" s="7"/>
       <c r="C469" s="6"/>
@@ -5442,7 +5679,7 @@
       <c r="F469" s="6"/>
       <c r="G469" s="7"/>
     </row>
-    <row r="470" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="6"/>
       <c r="B470" s="7"/>
       <c r="C470" s="6"/>
@@ -5451,7 +5688,7 @@
       <c r="F470" s="6"/>
       <c r="G470" s="7"/>
     </row>
-    <row r="471" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="6"/>
       <c r="B471" s="7"/>
       <c r="C471" s="6"/>
@@ -5460,7 +5697,7 @@
       <c r="F471" s="6"/>
       <c r="G471" s="7"/>
     </row>
-    <row r="472" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="6"/>
       <c r="B472" s="7"/>
       <c r="C472" s="6"/>
@@ -5469,7 +5706,7 @@
       <c r="F472" s="6"/>
       <c r="G472" s="7"/>
     </row>
-    <row r="473" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="6"/>
       <c r="B473" s="7"/>
       <c r="C473" s="6"/>
@@ -5478,7 +5715,7 @@
       <c r="F473" s="6"/>
       <c r="G473" s="7"/>
     </row>
-    <row r="474" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="6"/>
       <c r="B474" s="7"/>
       <c r="C474" s="6"/>
@@ -5487,7 +5724,7 @@
       <c r="F474" s="6"/>
       <c r="G474" s="7"/>
     </row>
-    <row r="475" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="6"/>
       <c r="B475" s="7"/>
       <c r="C475" s="6"/>
@@ -5496,7 +5733,7 @@
       <c r="F475" s="6"/>
       <c r="G475" s="7"/>
     </row>
-    <row r="476" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="6"/>
       <c r="B476" s="7"/>
       <c r="C476" s="6"/>
@@ -5505,7 +5742,7 @@
       <c r="F476" s="6"/>
       <c r="G476" s="7"/>
     </row>
-    <row r="477" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="6"/>
       <c r="B477" s="7"/>
       <c r="C477" s="6"/>
@@ -5514,7 +5751,7 @@
       <c r="F477" s="6"/>
       <c r="G477" s="7"/>
     </row>
-    <row r="478" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="6"/>
       <c r="B478" s="7"/>
       <c r="C478" s="6"/>
@@ -5523,7 +5760,7 @@
       <c r="F478" s="6"/>
       <c r="G478" s="7"/>
     </row>
-    <row r="479" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="6"/>
       <c r="B479" s="7"/>
       <c r="C479" s="6"/>
@@ -5532,7 +5769,7 @@
       <c r="F479" s="6"/>
       <c r="G479" s="7"/>
     </row>
-    <row r="480" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="6"/>
       <c r="B480" s="7"/>
       <c r="C480" s="6"/>
@@ -5541,7 +5778,7 @@
       <c r="F480" s="6"/>
       <c r="G480" s="7"/>
     </row>
-    <row r="481" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="6"/>
       <c r="B481" s="7"/>
       <c r="C481" s="6"/>
@@ -5550,7 +5787,7 @@
       <c r="F481" s="6"/>
       <c r="G481" s="7"/>
     </row>
-    <row r="482" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="6"/>
       <c r="B482" s="7"/>
       <c r="C482" s="6"/>
@@ -5559,7 +5796,7 @@
       <c r="F482" s="6"/>
       <c r="G482" s="7"/>
     </row>
-    <row r="483" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="6"/>
       <c r="B483" s="7"/>
       <c r="C483" s="6"/>
@@ -5568,7 +5805,7 @@
       <c r="F483" s="6"/>
       <c r="G483" s="7"/>
     </row>
-    <row r="484" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="6"/>
       <c r="B484" s="7"/>
       <c r="C484" s="6"/>
@@ -5577,7 +5814,7 @@
       <c r="F484" s="6"/>
       <c r="G484" s="7"/>
     </row>
-    <row r="485" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="6"/>
       <c r="B485" s="7"/>
       <c r="C485" s="6"/>
@@ -5586,7 +5823,7 @@
       <c r="F485" s="6"/>
       <c r="G485" s="7"/>
     </row>
-    <row r="486" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="6"/>
       <c r="B486" s="7"/>
       <c r="C486" s="6"/>
@@ -5595,7 +5832,7 @@
       <c r="F486" s="6"/>
       <c r="G486" s="7"/>
     </row>
-    <row r="487" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="6"/>
       <c r="B487" s="7"/>
       <c r="C487" s="6"/>
@@ -5604,7 +5841,7 @@
       <c r="F487" s="6"/>
       <c r="G487" s="7"/>
     </row>
-    <row r="488" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="6"/>
       <c r="B488" s="7"/>
       <c r="C488" s="6"/>
@@ -5613,7 +5850,7 @@
       <c r="F488" s="6"/>
       <c r="G488" s="7"/>
     </row>
-    <row r="489" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="6"/>
       <c r="B489" s="7"/>
       <c r="C489" s="6"/>
@@ -5622,7 +5859,7 @@
       <c r="F489" s="6"/>
       <c r="G489" s="7"/>
     </row>
-    <row r="490" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="6"/>
       <c r="B490" s="7"/>
       <c r="C490" s="6"/>
@@ -5631,7 +5868,7 @@
       <c r="F490" s="6"/>
       <c r="G490" s="7"/>
     </row>
-    <row r="491" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="6"/>
       <c r="B491" s="7"/>
       <c r="C491" s="6"/>
@@ -5640,7 +5877,7 @@
       <c r="F491" s="6"/>
       <c r="G491" s="7"/>
     </row>
-    <row r="492" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="6"/>
       <c r="B492" s="7"/>
       <c r="C492" s="6"/>
@@ -5649,7 +5886,7 @@
       <c r="F492" s="6"/>
       <c r="G492" s="7"/>
     </row>
-    <row r="493" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="6"/>
       <c r="B493" s="7"/>
       <c r="C493" s="6"/>
@@ -5658,7 +5895,7 @@
       <c r="F493" s="6"/>
       <c r="G493" s="7"/>
     </row>
-    <row r="494" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="6"/>
       <c r="B494" s="7"/>
       <c r="C494" s="6"/>
@@ -5667,7 +5904,7 @@
       <c r="F494" s="6"/>
       <c r="G494" s="7"/>
     </row>
-    <row r="495" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="6"/>
       <c r="B495" s="7"/>
       <c r="C495" s="6"/>
@@ -5676,7 +5913,7 @@
       <c r="F495" s="6"/>
       <c r="G495" s="7"/>
     </row>
-    <row r="496" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="6"/>
       <c r="B496" s="7"/>
       <c r="C496" s="6"/>
@@ -5685,7 +5922,7 @@
       <c r="F496" s="6"/>
       <c r="G496" s="7"/>
     </row>
-    <row r="497" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="6"/>
       <c r="B497" s="7"/>
       <c r="C497" s="6"/>
@@ -5694,7 +5931,7 @@
       <c r="F497" s="6"/>
       <c r="G497" s="7"/>
     </row>
-    <row r="498" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="6"/>
       <c r="B498" s="7"/>
       <c r="C498" s="6"/>
@@ -5703,7 +5940,7 @@
       <c r="F498" s="6"/>
       <c r="G498" s="7"/>
     </row>
-    <row r="499" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="6"/>
       <c r="B499" s="7"/>
       <c r="C499" s="6"/>
@@ -5712,7 +5949,7 @@
       <c r="F499" s="6"/>
       <c r="G499" s="7"/>
     </row>
-    <row r="500" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="6"/>
       <c r="B500" s="7"/>
       <c r="C500" s="6"/>
@@ -5721,7 +5958,7 @@
       <c r="F500" s="6"/>
       <c r="G500" s="7"/>
     </row>
-    <row r="501" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="6"/>
       <c r="B501" s="7"/>
       <c r="C501" s="6"/>
@@ -5730,7 +5967,7 @@
       <c r="F501" s="6"/>
       <c r="G501" s="7"/>
     </row>
-    <row r="502" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="6"/>
       <c r="B502" s="7"/>
       <c r="C502" s="6"/>
@@ -5739,7 +5976,7 @@
       <c r="F502" s="6"/>
       <c r="G502" s="7"/>
     </row>
-    <row r="503" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="6"/>
       <c r="B503" s="7"/>
       <c r="C503" s="6"/>
@@ -5748,7 +5985,7 @@
       <c r="F503" s="6"/>
       <c r="G503" s="7"/>
     </row>
-    <row r="504" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="6"/>
       <c r="B504" s="7"/>
       <c r="C504" s="6"/>
@@ -5757,7 +5994,7 @@
       <c r="F504" s="6"/>
       <c r="G504" s="7"/>
     </row>
-    <row r="505" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="6"/>
       <c r="B505" s="7"/>
       <c r="C505" s="6"/>
@@ -5766,7 +6003,7 @@
       <c r="F505" s="6"/>
       <c r="G505" s="7"/>
     </row>
-    <row r="506" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="6"/>
       <c r="B506" s="7"/>
       <c r="C506" s="6"/>
@@ -5775,7 +6012,7 @@
       <c r="F506" s="6"/>
       <c r="G506" s="7"/>
     </row>
-    <row r="507" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="6"/>
       <c r="B507" s="7"/>
       <c r="C507" s="6"/>
@@ -5784,7 +6021,7 @@
       <c r="F507" s="6"/>
       <c r="G507" s="7"/>
     </row>
-    <row r="508" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="6"/>
       <c r="B508" s="7"/>
       <c r="C508" s="6"/>
@@ -5793,7 +6030,7 @@
       <c r="F508" s="6"/>
       <c r="G508" s="7"/>
     </row>
-    <row r="509" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="6"/>
       <c r="B509" s="7"/>
       <c r="C509" s="6"/>
@@ -5802,7 +6039,7 @@
       <c r="F509" s="6"/>
       <c r="G509" s="7"/>
     </row>
-    <row r="510" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="6"/>
       <c r="B510" s="7"/>
       <c r="C510" s="6"/>
@@ -5811,7 +6048,7 @@
       <c r="F510" s="6"/>
       <c r="G510" s="7"/>
     </row>
-    <row r="511" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="6"/>
       <c r="B511" s="7"/>
       <c r="C511" s="6"/>
@@ -5820,7 +6057,7 @@
       <c r="F511" s="6"/>
       <c r="G511" s="7"/>
     </row>
-    <row r="512" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="6"/>
       <c r="B512" s="7"/>
       <c r="C512" s="6"/>
@@ -5829,7 +6066,7 @@
       <c r="F512" s="6"/>
       <c r="G512" s="7"/>
     </row>
-    <row r="513" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="6"/>
       <c r="B513" s="7"/>
       <c r="C513" s="6"/>
@@ -5838,7 +6075,7 @@
       <c r="F513" s="6"/>
       <c r="G513" s="7"/>
     </row>
-    <row r="514" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="6"/>
       <c r="B514" s="7"/>
       <c r="C514" s="6"/>
@@ -5847,7 +6084,7 @@
       <c r="F514" s="6"/>
       <c r="G514" s="7"/>
     </row>
-    <row r="515" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="6"/>
       <c r="B515" s="7"/>
       <c r="C515" s="6"/>
@@ -5856,7 +6093,7 @@
       <c r="F515" s="6"/>
       <c r="G515" s="7"/>
     </row>
-    <row r="516" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="6"/>
       <c r="B516" s="7"/>
       <c r="C516" s="6"/>
@@ -5865,7 +6102,7 @@
       <c r="F516" s="6"/>
       <c r="G516" s="7"/>
     </row>
-    <row r="517" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="6"/>
       <c r="B517" s="7"/>
       <c r="C517" s="6"/>
@@ -5874,7 +6111,7 @@
       <c r="F517" s="6"/>
       <c r="G517" s="7"/>
     </row>
-    <row r="518" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="6"/>
       <c r="B518" s="7"/>
       <c r="C518" s="6"/>
@@ -5883,7 +6120,7 @@
       <c r="F518" s="6"/>
       <c r="G518" s="7"/>
     </row>
-    <row r="519" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="6"/>
       <c r="B519" s="7"/>
       <c r="C519" s="6"/>
@@ -5892,7 +6129,7 @@
       <c r="F519" s="6"/>
       <c r="G519" s="7"/>
     </row>
-    <row r="520" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="6"/>
       <c r="B520" s="7"/>
       <c r="C520" s="6"/>
@@ -5901,7 +6138,7 @@
       <c r="F520" s="6"/>
       <c r="G520" s="7"/>
     </row>
-    <row r="521" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="6"/>
       <c r="B521" s="7"/>
       <c r="C521" s="6"/>
@@ -5910,7 +6147,7 @@
       <c r="F521" s="6"/>
       <c r="G521" s="7"/>
     </row>
-    <row r="522" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="6"/>
       <c r="B522" s="7"/>
       <c r="C522" s="6"/>
@@ -5919,7 +6156,7 @@
       <c r="F522" s="6"/>
       <c r="G522" s="7"/>
     </row>
-    <row r="523" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="6"/>
       <c r="B523" s="7"/>
       <c r="C523" s="6"/>
@@ -5928,7 +6165,7 @@
       <c r="F523" s="6"/>
       <c r="G523" s="7"/>
     </row>
-    <row r="524" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="6"/>
       <c r="B524" s="7"/>
       <c r="C524" s="6"/>
@@ -5937,7 +6174,7 @@
       <c r="F524" s="6"/>
       <c r="G524" s="7"/>
     </row>
-    <row r="525" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="6"/>
       <c r="B525" s="7"/>
       <c r="C525" s="6"/>
@@ -5946,7 +6183,7 @@
       <c r="F525" s="6"/>
       <c r="G525" s="7"/>
     </row>
-    <row r="526" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="6"/>
       <c r="B526" s="7"/>
       <c r="C526" s="6"/>
@@ -5955,7 +6192,7 @@
       <c r="F526" s="6"/>
       <c r="G526" s="7"/>
     </row>
-    <row r="527" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="6"/>
       <c r="B527" s="7"/>
       <c r="C527" s="6"/>
@@ -5964,7 +6201,7 @@
       <c r="F527" s="6"/>
       <c r="G527" s="7"/>
     </row>
-    <row r="528" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="6"/>
       <c r="B528" s="7"/>
       <c r="C528" s="6"/>
@@ -5973,7 +6210,7 @@
       <c r="F528" s="6"/>
       <c r="G528" s="7"/>
     </row>
-    <row r="529" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="6"/>
       <c r="B529" s="7"/>
       <c r="C529" s="6"/>
@@ -5982,7 +6219,7 @@
       <c r="F529" s="6"/>
       <c r="G529" s="7"/>
     </row>
-    <row r="530" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="6"/>
       <c r="B530" s="7"/>
       <c r="C530" s="6"/>
@@ -5991,7 +6228,7 @@
       <c r="F530" s="6"/>
       <c r="G530" s="7"/>
     </row>
-    <row r="531" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="6"/>
       <c r="B531" s="7"/>
       <c r="C531" s="6"/>
@@ -6000,7 +6237,7 @@
       <c r="F531" s="6"/>
       <c r="G531" s="7"/>
     </row>
-    <row r="532" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="6"/>
       <c r="B532" s="7"/>
       <c r="C532" s="6"/>
@@ -6009,7 +6246,7 @@
       <c r="F532" s="6"/>
       <c r="G532" s="7"/>
     </row>
-    <row r="533" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="6"/>
       <c r="B533" s="7"/>
       <c r="C533" s="6"/>
@@ -6018,7 +6255,7 @@
       <c r="F533" s="6"/>
       <c r="G533" s="7"/>
     </row>
-    <row r="534" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="6"/>
       <c r="B534" s="7"/>
       <c r="C534" s="6"/>
@@ -6027,7 +6264,7 @@
       <c r="F534" s="6"/>
       <c r="G534" s="7"/>
     </row>
-    <row r="535" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="6"/>
       <c r="B535" s="7"/>
       <c r="C535" s="6"/>
@@ -6036,7 +6273,7 @@
       <c r="F535" s="6"/>
       <c r="G535" s="7"/>
     </row>
-    <row r="536" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="6"/>
       <c r="B536" s="7"/>
       <c r="C536" s="6"/>
@@ -6045,7 +6282,7 @@
       <c r="F536" s="6"/>
       <c r="G536" s="7"/>
     </row>
-    <row r="537" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="6"/>
       <c r="B537" s="7"/>
       <c r="C537" s="6"/>
@@ -6054,7 +6291,7 @@
       <c r="F537" s="6"/>
       <c r="G537" s="7"/>
     </row>
-    <row r="538" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="6"/>
       <c r="B538" s="7"/>
       <c r="C538" s="6"/>
@@ -6063,7 +6300,7 @@
       <c r="F538" s="6"/>
       <c r="G538" s="7"/>
     </row>
-    <row r="539" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="6"/>
       <c r="B539" s="7"/>
       <c r="C539" s="6"/>
@@ -6072,7 +6309,7 @@
       <c r="F539" s="6"/>
       <c r="G539" s="7"/>
     </row>
-    <row r="540" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="6"/>
       <c r="B540" s="7"/>
       <c r="C540" s="6"/>
@@ -6081,7 +6318,7 @@
       <c r="F540" s="6"/>
       <c r="G540" s="7"/>
     </row>
-    <row r="541" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="6"/>
       <c r="B541" s="7"/>
       <c r="C541" s="6"/>
@@ -6090,7 +6327,7 @@
       <c r="F541" s="6"/>
       <c r="G541" s="7"/>
     </row>
-    <row r="542" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="6"/>
       <c r="B542" s="7"/>
       <c r="C542" s="6"/>
@@ -6099,7 +6336,7 @@
       <c r="F542" s="6"/>
       <c r="G542" s="7"/>
     </row>
-    <row r="543" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="6"/>
       <c r="B543" s="7"/>
       <c r="C543" s="6"/>
@@ -6108,7 +6345,7 @@
       <c r="F543" s="6"/>
       <c r="G543" s="7"/>
     </row>
-    <row r="544" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="6"/>
       <c r="B544" s="7"/>
       <c r="C544" s="6"/>
@@ -6117,7 +6354,7 @@
       <c r="F544" s="6"/>
       <c r="G544" s="7"/>
     </row>
-    <row r="545" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="6"/>
       <c r="B545" s="7"/>
       <c r="C545" s="6"/>
@@ -6126,7 +6363,7 @@
       <c r="F545" s="6"/>
       <c r="G545" s="7"/>
     </row>
-    <row r="546" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="6"/>
       <c r="B546" s="7"/>
       <c r="C546" s="6"/>
@@ -6135,7 +6372,7 @@
       <c r="F546" s="6"/>
       <c r="G546" s="7"/>
     </row>
-    <row r="547" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="6"/>
       <c r="B547" s="7"/>
       <c r="C547" s="6"/>
@@ -6144,7 +6381,7 @@
       <c r="F547" s="6"/>
       <c r="G547" s="7"/>
     </row>
-    <row r="548" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="6"/>
       <c r="B548" s="7"/>
       <c r="C548" s="6"/>
@@ -6153,7 +6390,7 @@
       <c r="F548" s="6"/>
       <c r="G548" s="7"/>
     </row>
-    <row r="549" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="6"/>
       <c r="B549" s="7"/>
       <c r="C549" s="6"/>
@@ -6162,7 +6399,7 @@
       <c r="F549" s="6"/>
       <c r="G549" s="7"/>
     </row>
-    <row r="550" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="6"/>
       <c r="B550" s="7"/>
       <c r="C550" s="6"/>
@@ -6171,7 +6408,7 @@
       <c r="F550" s="6"/>
       <c r="G550" s="7"/>
     </row>
-    <row r="551" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="6"/>
       <c r="B551" s="7"/>
       <c r="C551" s="6"/>
@@ -6180,7 +6417,7 @@
       <c r="F551" s="6"/>
       <c r="G551" s="7"/>
     </row>
-    <row r="552" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="6"/>
       <c r="B552" s="7"/>
       <c r="C552" s="6"/>
@@ -6189,7 +6426,7 @@
       <c r="F552" s="6"/>
       <c r="G552" s="7"/>
     </row>
-    <row r="553" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="6"/>
       <c r="B553" s="7"/>
       <c r="C553" s="6"/>
@@ -6198,7 +6435,7 @@
       <c r="F553" s="6"/>
       <c r="G553" s="7"/>
     </row>
-    <row r="554" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="6"/>
       <c r="B554" s="7"/>
       <c r="C554" s="6"/>
@@ -6207,7 +6444,7 @@
       <c r="F554" s="6"/>
       <c r="G554" s="7"/>
     </row>
-    <row r="555" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="6"/>
       <c r="B555" s="7"/>
       <c r="C555" s="6"/>
@@ -6216,7 +6453,7 @@
       <c r="F555" s="6"/>
       <c r="G555" s="7"/>
     </row>
-    <row r="556" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="6"/>
       <c r="B556" s="7"/>
       <c r="C556" s="6"/>
@@ -6225,7 +6462,7 @@
       <c r="F556" s="6"/>
       <c r="G556" s="7"/>
     </row>
-    <row r="557" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="6"/>
       <c r="B557" s="7"/>
       <c r="C557" s="6"/>
@@ -6234,7 +6471,7 @@
       <c r="F557" s="6"/>
       <c r="G557" s="7"/>
     </row>
-    <row r="558" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="6"/>
       <c r="B558" s="7"/>
       <c r="C558" s="6"/>
@@ -6243,7 +6480,7 @@
       <c r="F558" s="6"/>
       <c r="G558" s="7"/>
     </row>
-    <row r="559" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="6"/>
       <c r="B559" s="7"/>
       <c r="C559" s="6"/>
@@ -6252,7 +6489,7 @@
       <c r="F559" s="6"/>
       <c r="G559" s="7"/>
     </row>
-    <row r="560" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="6"/>
       <c r="B560" s="7"/>
       <c r="C560" s="6"/>
@@ -6261,7 +6498,7 @@
       <c r="F560" s="6"/>
       <c r="G560" s="7"/>
     </row>
-    <row r="561" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="6"/>
       <c r="B561" s="7"/>
       <c r="C561" s="6"/>
@@ -6270,7 +6507,7 @@
       <c r="F561" s="6"/>
       <c r="G561" s="7"/>
     </row>
-    <row r="562" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="6"/>
       <c r="B562" s="7"/>
       <c r="C562" s="6"/>
@@ -6279,7 +6516,7 @@
       <c r="F562" s="6"/>
       <c r="G562" s="7"/>
     </row>
-    <row r="563" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="6"/>
       <c r="B563" s="7"/>
       <c r="C563" s="6"/>
@@ -6288,7 +6525,7 @@
       <c r="F563" s="6"/>
       <c r="G563" s="7"/>
     </row>
-    <row r="564" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="6"/>
       <c r="B564" s="7"/>
       <c r="C564" s="6"/>
@@ -6297,7 +6534,7 @@
       <c r="F564" s="6"/>
       <c r="G564" s="7"/>
     </row>
-    <row r="565" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="6"/>
       <c r="B565" s="7"/>
       <c r="C565" s="6"/>
@@ -6306,7 +6543,7 @@
       <c r="F565" s="6"/>
       <c r="G565" s="7"/>
     </row>
-    <row r="566" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="6"/>
       <c r="B566" s="7"/>
       <c r="C566" s="6"/>
@@ -6315,7 +6552,7 @@
       <c r="F566" s="6"/>
       <c r="G566" s="7"/>
     </row>
-    <row r="567" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="6"/>
       <c r="B567" s="7"/>
       <c r="C567" s="6"/>
@@ -6324,7 +6561,7 @@
       <c r="F567" s="6"/>
       <c r="G567" s="7"/>
     </row>
-    <row r="568" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="6"/>
       <c r="B568" s="7"/>
       <c r="C568" s="6"/>
@@ -6333,7 +6570,7 @@
       <c r="F568" s="6"/>
       <c r="G568" s="7"/>
     </row>
-    <row r="569" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="6"/>
       <c r="B569" s="7"/>
       <c r="C569" s="6"/>
@@ -6342,7 +6579,7 @@
       <c r="F569" s="6"/>
       <c r="G569" s="7"/>
     </row>
-    <row r="570" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="6"/>
       <c r="B570" s="7"/>
       <c r="C570" s="6"/>
@@ -6351,7 +6588,7 @@
       <c r="F570" s="6"/>
       <c r="G570" s="7"/>
     </row>
-    <row r="571" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="6"/>
       <c r="B571" s="7"/>
       <c r="C571" s="6"/>
@@ -6360,7 +6597,7 @@
       <c r="F571" s="6"/>
       <c r="G571" s="7"/>
     </row>
-    <row r="572" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="6"/>
       <c r="B572" s="7"/>
       <c r="C572" s="6"/>
@@ -6369,7 +6606,7 @@
       <c r="F572" s="6"/>
       <c r="G572" s="7"/>
     </row>
-    <row r="573" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="6"/>
       <c r="B573" s="7"/>
       <c r="C573" s="6"/>
@@ -6378,7 +6615,7 @@
       <c r="F573" s="6"/>
       <c r="G573" s="7"/>
     </row>
-    <row r="574" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="6"/>
       <c r="B574" s="7"/>
       <c r="C574" s="6"/>
@@ -6387,7 +6624,7 @@
       <c r="F574" s="6"/>
       <c r="G574" s="7"/>
     </row>
-    <row r="575" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="6"/>
       <c r="B575" s="7"/>
       <c r="C575" s="6"/>
@@ -6396,7 +6633,7 @@
       <c r="F575" s="6"/>
       <c r="G575" s="7"/>
     </row>
-    <row r="576" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="6"/>
       <c r="B576" s="7"/>
       <c r="C576" s="6"/>
@@ -6405,7 +6642,7 @@
       <c r="F576" s="6"/>
       <c r="G576" s="7"/>
     </row>
-    <row r="577" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="6"/>
       <c r="B577" s="7"/>
       <c r="C577" s="6"/>
@@ -6414,7 +6651,7 @@
       <c r="F577" s="6"/>
       <c r="G577" s="7"/>
     </row>
-    <row r="578" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="6"/>
       <c r="B578" s="7"/>
       <c r="C578" s="6"/>
@@ -6423,7 +6660,7 @@
       <c r="F578" s="6"/>
       <c r="G578" s="7"/>
     </row>
-    <row r="579" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="6"/>
       <c r="B579" s="7"/>
       <c r="C579" s="6"/>
@@ -6432,7 +6669,7 @@
       <c r="F579" s="6"/>
       <c r="G579" s="7"/>
     </row>
-    <row r="580" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="6"/>
       <c r="B580" s="7"/>
       <c r="C580" s="6"/>
@@ -6441,7 +6678,7 @@
       <c r="F580" s="6"/>
       <c r="G580" s="7"/>
     </row>
-    <row r="581" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="6"/>
       <c r="B581" s="7"/>
       <c r="C581" s="6"/>
@@ -6450,7 +6687,7 @@
       <c r="F581" s="6"/>
       <c r="G581" s="7"/>
     </row>
-    <row r="582" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="6"/>
       <c r="B582" s="7"/>
       <c r="C582" s="6"/>
@@ -6459,7 +6696,7 @@
       <c r="F582" s="6"/>
       <c r="G582" s="7"/>
     </row>
-    <row r="583" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="6"/>
       <c r="B583" s="7"/>
       <c r="C583" s="6"/>
@@ -6468,7 +6705,7 @@
       <c r="F583" s="6"/>
       <c r="G583" s="7"/>
     </row>
-    <row r="584" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="6"/>
       <c r="B584" s="7"/>
       <c r="C584" s="6"/>
@@ -6477,7 +6714,7 @@
       <c r="F584" s="6"/>
       <c r="G584" s="7"/>
     </row>
-    <row r="585" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="6"/>
       <c r="B585" s="7"/>
       <c r="C585" s="6"/>
@@ -6486,7 +6723,7 @@
       <c r="F585" s="6"/>
       <c r="G585" s="7"/>
     </row>
-    <row r="586" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="6"/>
       <c r="B586" s="7"/>
       <c r="C586" s="6"/>
@@ -6495,7 +6732,7 @@
       <c r="F586" s="6"/>
       <c r="G586" s="7"/>
     </row>
-    <row r="587" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="6"/>
       <c r="B587" s="7"/>
       <c r="C587" s="6"/>
@@ -6504,7 +6741,7 @@
       <c r="F587" s="6"/>
       <c r="G587" s="7"/>
     </row>
-    <row r="588" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="6"/>
       <c r="B588" s="7"/>
       <c r="C588" s="6"/>
@@ -6513,7 +6750,7 @@
       <c r="F588" s="6"/>
       <c r="G588" s="7"/>
     </row>
-    <row r="589" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="6"/>
       <c r="B589" s="7"/>
       <c r="C589" s="6"/>
@@ -6522,7 +6759,7 @@
       <c r="F589" s="6"/>
       <c r="G589" s="7"/>
     </row>
-    <row r="590" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="6"/>
       <c r="B590" s="7"/>
       <c r="C590" s="6"/>
@@ -6531,7 +6768,7 @@
       <c r="F590" s="6"/>
       <c r="G590" s="7"/>
     </row>
-    <row r="591" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="6"/>
       <c r="B591" s="7"/>
       <c r="C591" s="6"/>
@@ -6540,7 +6777,7 @@
       <c r="F591" s="6"/>
       <c r="G591" s="7"/>
     </row>
-    <row r="592" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="6"/>
       <c r="B592" s="7"/>
       <c r="C592" s="6"/>
@@ -6549,7 +6786,7 @@
       <c r="F592" s="6"/>
       <c r="G592" s="7"/>
     </row>
-    <row r="593" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="6"/>
       <c r="B593" s="7"/>
       <c r="C593" s="6"/>
@@ -6558,7 +6795,7 @@
       <c r="F593" s="6"/>
       <c r="G593" s="7"/>
     </row>
-    <row r="594" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="6"/>
       <c r="B594" s="7"/>
       <c r="C594" s="6"/>
@@ -6567,7 +6804,7 @@
       <c r="F594" s="6"/>
       <c r="G594" s="7"/>
     </row>
-    <row r="595" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="6"/>
       <c r="B595" s="7"/>
       <c r="C595" s="6"/>
@@ -6576,7 +6813,7 @@
       <c r="F595" s="6"/>
       <c r="G595" s="7"/>
     </row>
-    <row r="596" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="6"/>
       <c r="B596" s="7"/>
       <c r="C596" s="6"/>
@@ -6585,7 +6822,7 @@
       <c r="F596" s="6"/>
       <c r="G596" s="7"/>
     </row>
-    <row r="597" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="6"/>
       <c r="B597" s="7"/>
       <c r="C597" s="6"/>
@@ -6594,7 +6831,7 @@
       <c r="F597" s="6"/>
       <c r="G597" s="7"/>
     </row>
-    <row r="598" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="6"/>
       <c r="B598" s="7"/>
       <c r="C598" s="6"/>
@@ -6603,7 +6840,7 @@
       <c r="F598" s="6"/>
       <c r="G598" s="7"/>
     </row>
-    <row r="599" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="6"/>
       <c r="B599" s="7"/>
       <c r="C599" s="6"/>
@@ -6612,7 +6849,7 @@
       <c r="F599" s="6"/>
       <c r="G599" s="7"/>
     </row>
-    <row r="600" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="6"/>
       <c r="B600" s="7"/>
       <c r="C600" s="6"/>
@@ -6621,7 +6858,7 @@
       <c r="F600" s="6"/>
       <c r="G600" s="7"/>
     </row>
-    <row r="601" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="6"/>
       <c r="B601" s="7"/>
       <c r="C601" s="6"/>
@@ -6630,7 +6867,7 @@
       <c r="F601" s="6"/>
       <c r="G601" s="7"/>
     </row>
-    <row r="602" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="6"/>
       <c r="B602" s="7"/>
       <c r="C602" s="6"/>
@@ -6639,7 +6876,7 @@
       <c r="F602" s="6"/>
       <c r="G602" s="7"/>
     </row>
-    <row r="603" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="6"/>
       <c r="B603" s="7"/>
       <c r="C603" s="6"/>
@@ -6648,7 +6885,7 @@
       <c r="F603" s="6"/>
       <c r="G603" s="7"/>
     </row>
-    <row r="604" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="6"/>
       <c r="B604" s="7"/>
       <c r="C604" s="6"/>
@@ -6657,7 +6894,7 @@
       <c r="F604" s="6"/>
       <c r="G604" s="7"/>
     </row>
-    <row r="605" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="6"/>
       <c r="B605" s="7"/>
       <c r="C605" s="6"/>
@@ -6666,7 +6903,7 @@
       <c r="F605" s="6"/>
       <c r="G605" s="7"/>
     </row>
-    <row r="606" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="6"/>
       <c r="B606" s="7"/>
       <c r="C606" s="6"/>
@@ -6675,7 +6912,7 @@
       <c r="F606" s="6"/>
       <c r="G606" s="7"/>
     </row>
-    <row r="607" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="6"/>
       <c r="B607" s="7"/>
       <c r="C607" s="6"/>
@@ -6684,7 +6921,7 @@
       <c r="F607" s="6"/>
       <c r="G607" s="7"/>
     </row>
-    <row r="608" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="6"/>
       <c r="B608" s="7"/>
       <c r="C608" s="6"/>
@@ -6693,7 +6930,7 @@
       <c r="F608" s="6"/>
       <c r="G608" s="7"/>
     </row>
-    <row r="609" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="6"/>
       <c r="B609" s="7"/>
       <c r="C609" s="6"/>
@@ -6702,7 +6939,7 @@
       <c r="F609" s="6"/>
       <c r="G609" s="7"/>
     </row>
-    <row r="610" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="6"/>
       <c r="B610" s="7"/>
       <c r="C610" s="6"/>
@@ -6711,7 +6948,7 @@
       <c r="F610" s="6"/>
       <c r="G610" s="7"/>
     </row>
-    <row r="611" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="6"/>
       <c r="B611" s="7"/>
       <c r="C611" s="6"/>
@@ -6720,7 +6957,7 @@
       <c r="F611" s="6"/>
       <c r="G611" s="7"/>
     </row>
-    <row r="612" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="6"/>
       <c r="B612" s="7"/>
       <c r="C612" s="6"/>
@@ -6729,7 +6966,7 @@
       <c r="F612" s="6"/>
       <c r="G612" s="7"/>
     </row>
-    <row r="613" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="6"/>
       <c r="B613" s="7"/>
       <c r="C613" s="6"/>
@@ -6738,7 +6975,7 @@
       <c r="F613" s="6"/>
       <c r="G613" s="7"/>
     </row>
-    <row r="614" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="6"/>
       <c r="B614" s="7"/>
       <c r="C614" s="6"/>
@@ -6747,7 +6984,7 @@
       <c r="F614" s="6"/>
       <c r="G614" s="7"/>
     </row>
-    <row r="615" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="6"/>
       <c r="B615" s="7"/>
       <c r="C615" s="6"/>
@@ -6756,7 +6993,7 @@
       <c r="F615" s="6"/>
       <c r="G615" s="7"/>
     </row>
-    <row r="616" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="6"/>
       <c r="B616" s="7"/>
       <c r="C616" s="6"/>
@@ -6765,7 +7002,7 @@
       <c r="F616" s="6"/>
       <c r="G616" s="7"/>
     </row>
-    <row r="617" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="6"/>
       <c r="B617" s="7"/>
       <c r="C617" s="6"/>
@@ -6774,7 +7011,7 @@
       <c r="F617" s="6"/>
       <c r="G617" s="7"/>
     </row>
-    <row r="618" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="6"/>
       <c r="B618" s="7"/>
       <c r="C618" s="6"/>
@@ -6783,7 +7020,7 @@
       <c r="F618" s="6"/>
       <c r="G618" s="7"/>
     </row>
-    <row r="619" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="6"/>
       <c r="B619" s="7"/>
       <c r="C619" s="6"/>
@@ -6792,7 +7029,7 @@
       <c r="F619" s="6"/>
       <c r="G619" s="7"/>
     </row>
-    <row r="620" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="6"/>
       <c r="B620" s="7"/>
       <c r="C620" s="6"/>
@@ -6801,7 +7038,7 @@
       <c r="F620" s="6"/>
       <c r="G620" s="7"/>
     </row>
-    <row r="621" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="6"/>
       <c r="B621" s="7"/>
       <c r="C621" s="6"/>
@@ -6810,7 +7047,7 @@
       <c r="F621" s="6"/>
       <c r="G621" s="7"/>
     </row>
-    <row r="622" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="6"/>
       <c r="B622" s="7"/>
       <c r="C622" s="6"/>
@@ -6819,7 +7056,7 @@
       <c r="F622" s="6"/>
       <c r="G622" s="7"/>
     </row>
-    <row r="623" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="6"/>
       <c r="B623" s="7"/>
       <c r="C623" s="6"/>
@@ -6828,7 +7065,7 @@
       <c r="F623" s="6"/>
       <c r="G623" s="7"/>
     </row>
-    <row r="624" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="6"/>
       <c r="B624" s="7"/>
       <c r="C624" s="6"/>
@@ -6837,7 +7074,7 @@
       <c r="F624" s="6"/>
       <c r="G624" s="7"/>
     </row>
-    <row r="625" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="6"/>
       <c r="B625" s="7"/>
       <c r="C625" s="6"/>
@@ -6846,7 +7083,7 @@
       <c r="F625" s="6"/>
       <c r="G625" s="7"/>
     </row>
-    <row r="626" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="6"/>
       <c r="B626" s="7"/>
       <c r="C626" s="6"/>
@@ -6855,7 +7092,7 @@
       <c r="F626" s="6"/>
       <c r="G626" s="7"/>
     </row>
-    <row r="627" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="6"/>
       <c r="B627" s="7"/>
       <c r="C627" s="6"/>
@@ -6864,7 +7101,7 @@
       <c r="F627" s="6"/>
       <c r="G627" s="7"/>
     </row>
-    <row r="628" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="6"/>
       <c r="B628" s="7"/>
       <c r="C628" s="6"/>
@@ -6873,7 +7110,7 @@
       <c r="F628" s="6"/>
       <c r="G628" s="7"/>
     </row>
-    <row r="629" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="6"/>
       <c r="B629" s="7"/>
       <c r="C629" s="6"/>
@@ -6882,7 +7119,7 @@
       <c r="F629" s="6"/>
       <c r="G629" s="7"/>
     </row>
-    <row r="630" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="6"/>
       <c r="B630" s="7"/>
       <c r="C630" s="6"/>
@@ -6891,7 +7128,7 @@
       <c r="F630" s="6"/>
       <c r="G630" s="7"/>
     </row>
-    <row r="631" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="6"/>
       <c r="B631" s="7"/>
       <c r="C631" s="6"/>
@@ -6900,7 +7137,7 @@
       <c r="F631" s="6"/>
       <c r="G631" s="7"/>
     </row>
-    <row r="632" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="6"/>
       <c r="B632" s="7"/>
       <c r="C632" s="6"/>
@@ -6909,7 +7146,7 @@
       <c r="F632" s="6"/>
       <c r="G632" s="7"/>
     </row>
-    <row r="633" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="6"/>
       <c r="B633" s="7"/>
       <c r="C633" s="6"/>
@@ -6918,7 +7155,7 @@
       <c r="F633" s="6"/>
       <c r="G633" s="7"/>
     </row>
-    <row r="634" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="6"/>
       <c r="B634" s="7"/>
       <c r="C634" s="6"/>
@@ -6927,7 +7164,7 @@
       <c r="F634" s="6"/>
       <c r="G634" s="7"/>
     </row>
-    <row r="635" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="6"/>
       <c r="B635" s="7"/>
       <c r="C635" s="6"/>
@@ -6936,7 +7173,7 @@
       <c r="F635" s="6"/>
       <c r="G635" s="7"/>
     </row>
-    <row r="636" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="6"/>
       <c r="B636" s="7"/>
       <c r="C636" s="6"/>
@@ -6945,7 +7182,7 @@
       <c r="F636" s="6"/>
       <c r="G636" s="7"/>
     </row>
-    <row r="637" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="6"/>
       <c r="B637" s="7"/>
       <c r="C637" s="6"/>
@@ -6954,7 +7191,7 @@
       <c r="F637" s="6"/>
       <c r="G637" s="7"/>
     </row>
-    <row r="638" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="6"/>
       <c r="B638" s="7"/>
       <c r="C638" s="6"/>
@@ -6963,7 +7200,7 @@
       <c r="F638" s="6"/>
       <c r="G638" s="7"/>
     </row>
-    <row r="639" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="6"/>
       <c r="B639" s="7"/>
       <c r="C639" s="6"/>
@@ -6972,7 +7209,7 @@
       <c r="F639" s="6"/>
       <c r="G639" s="7"/>
     </row>
-    <row r="640" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="6"/>
       <c r="B640" s="7"/>
       <c r="C640" s="6"/>
@@ -6981,7 +7218,7 @@
       <c r="F640" s="6"/>
       <c r="G640" s="7"/>
     </row>
-    <row r="641" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="6"/>
       <c r="B641" s="7"/>
       <c r="C641" s="6"/>
@@ -6990,7 +7227,7 @@
       <c r="F641" s="6"/>
       <c r="G641" s="7"/>
     </row>
-    <row r="642" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="6"/>
       <c r="B642" s="7"/>
       <c r="C642" s="6"/>
@@ -6999,7 +7236,7 @@
       <c r="F642" s="6"/>
       <c r="G642" s="7"/>
     </row>
-    <row r="643" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="6"/>
       <c r="B643" s="7"/>
       <c r="C643" s="6"/>
@@ -7008,7 +7245,7 @@
       <c r="F643" s="6"/>
       <c r="G643" s="7"/>
     </row>
-    <row r="644" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="6"/>
       <c r="B644" s="7"/>
       <c r="C644" s="6"/>
@@ -7017,7 +7254,7 @@
       <c r="F644" s="6"/>
       <c r="G644" s="7"/>
     </row>
-    <row r="645" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="6"/>
       <c r="B645" s="7"/>
       <c r="C645" s="6"/>
@@ -7026,7 +7263,7 @@
       <c r="F645" s="6"/>
       <c r="G645" s="7"/>
     </row>
-    <row r="646" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="6"/>
       <c r="B646" s="7"/>
       <c r="C646" s="6"/>
@@ -7035,7 +7272,7 @@
       <c r="F646" s="6"/>
       <c r="G646" s="7"/>
     </row>
-    <row r="647" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="6"/>
       <c r="B647" s="7"/>
       <c r="C647" s="6"/>
@@ -7044,7 +7281,7 @@
       <c r="F647" s="6"/>
       <c r="G647" s="7"/>
     </row>
-    <row r="648" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="6"/>
       <c r="B648" s="7"/>
       <c r="C648" s="6"/>
@@ -7053,7 +7290,7 @@
       <c r="F648" s="6"/>
       <c r="G648" s="7"/>
     </row>
-    <row r="649" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="6"/>
       <c r="B649" s="7"/>
       <c r="C649" s="6"/>
@@ -7062,7 +7299,7 @@
       <c r="F649" s="6"/>
       <c r="G649" s="7"/>
     </row>
-    <row r="650" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="6"/>
       <c r="B650" s="7"/>
       <c r="C650" s="6"/>
@@ -7071,7 +7308,7 @@
       <c r="F650" s="6"/>
       <c r="G650" s="7"/>
     </row>
-    <row r="651" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="6"/>
       <c r="B651" s="7"/>
       <c r="C651" s="6"/>
@@ -7080,7 +7317,7 @@
       <c r="F651" s="6"/>
       <c r="G651" s="7"/>
     </row>
-    <row r="652" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="6"/>
       <c r="B652" s="7"/>
       <c r="C652" s="6"/>
@@ -7089,7 +7326,7 @@
       <c r="F652" s="6"/>
       <c r="G652" s="7"/>
     </row>
-    <row r="653" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="6"/>
       <c r="B653" s="7"/>
       <c r="C653" s="6"/>
@@ -7098,7 +7335,7 @@
       <c r="F653" s="6"/>
       <c r="G653" s="7"/>
     </row>
-    <row r="654" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="6"/>
       <c r="B654" s="7"/>
       <c r="C654" s="6"/>
@@ -7107,7 +7344,7 @@
       <c r="F654" s="6"/>
       <c r="G654" s="7"/>
     </row>
-    <row r="655" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="6"/>
       <c r="B655" s="7"/>
       <c r="C655" s="6"/>
@@ -7116,7 +7353,7 @@
       <c r="F655" s="6"/>
       <c r="G655" s="7"/>
     </row>
-    <row r="656" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="6"/>
       <c r="B656" s="7"/>
       <c r="C656" s="6"/>
@@ -7125,7 +7362,7 @@
       <c r="F656" s="6"/>
       <c r="G656" s="7"/>
     </row>
-    <row r="657" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="6"/>
       <c r="B657" s="7"/>
       <c r="C657" s="6"/>
@@ -7134,7 +7371,7 @@
       <c r="F657" s="6"/>
       <c r="G657" s="7"/>
     </row>
-    <row r="658" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="6"/>
       <c r="B658" s="7"/>
       <c r="C658" s="6"/>
@@ -7143,7 +7380,7 @@
       <c r="F658" s="6"/>
       <c r="G658" s="7"/>
     </row>
-    <row r="659" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="6"/>
       <c r="B659" s="7"/>
       <c r="C659" s="6"/>
@@ -7152,7 +7389,7 @@
       <c r="F659" s="6"/>
       <c r="G659" s="7"/>
     </row>
-    <row r="660" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="6"/>
       <c r="B660" s="7"/>
       <c r="C660" s="6"/>
@@ -7161,7 +7398,7 @@
       <c r="F660" s="6"/>
       <c r="G660" s="7"/>
     </row>
-    <row r="661" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="6"/>
       <c r="B661" s="7"/>
       <c r="C661" s="6"/>
@@ -7170,7 +7407,7 @@
       <c r="F661" s="6"/>
       <c r="G661" s="7"/>
     </row>
-    <row r="662" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="6"/>
       <c r="B662" s="7"/>
       <c r="C662" s="6"/>
@@ -7179,7 +7416,7 @@
       <c r="F662" s="6"/>
       <c r="G662" s="7"/>
     </row>
-    <row r="663" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="6"/>
       <c r="B663" s="7"/>
       <c r="C663" s="6"/>
@@ -7188,7 +7425,7 @@
       <c r="F663" s="6"/>
       <c r="G663" s="7"/>
     </row>
-    <row r="664" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="6"/>
       <c r="B664" s="7"/>
       <c r="C664" s="6"/>
@@ -7197,7 +7434,7 @@
       <c r="F664" s="6"/>
       <c r="G664" s="7"/>
     </row>
-    <row r="665" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="6"/>
       <c r="B665" s="7"/>
       <c r="C665" s="6"/>
@@ -7206,7 +7443,7 @@
       <c r="F665" s="6"/>
       <c r="G665" s="7"/>
     </row>
-    <row r="666" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="6"/>
       <c r="B666" s="7"/>
       <c r="C666" s="6"/>
@@ -7215,7 +7452,7 @@
       <c r="F666" s="6"/>
       <c r="G666" s="7"/>
     </row>
-    <row r="667" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="6"/>
       <c r="B667" s="7"/>
       <c r="C667" s="6"/>
@@ -7224,7 +7461,7 @@
       <c r="F667" s="6"/>
       <c r="G667" s="7"/>
     </row>
-    <row r="668" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="6"/>
       <c r="B668" s="7"/>
       <c r="C668" s="6"/>
@@ -7233,7 +7470,7 @@
       <c r="F668" s="6"/>
       <c r="G668" s="7"/>
     </row>
-    <row r="669" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="6"/>
       <c r="B669" s="7"/>
       <c r="C669" s="6"/>
@@ -7242,7 +7479,7 @@
       <c r="F669" s="6"/>
       <c r="G669" s="7"/>
     </row>
-    <row r="670" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="6"/>
       <c r="B670" s="7"/>
       <c r="C670" s="6"/>
@@ -7251,7 +7488,7 @@
       <c r="F670" s="6"/>
       <c r="G670" s="7"/>
     </row>
-    <row r="671" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="6"/>
       <c r="B671" s="7"/>
       <c r="C671" s="6"/>
@@ -7260,7 +7497,7 @@
       <c r="F671" s="6"/>
       <c r="G671" s="7"/>
     </row>
-    <row r="672" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="6"/>
       <c r="B672" s="7"/>
       <c r="C672" s="6"/>
@@ -7269,7 +7506,7 @@
       <c r="F672" s="6"/>
       <c r="G672" s="7"/>
     </row>
-    <row r="673" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="6"/>
       <c r="B673" s="7"/>
       <c r="C673" s="6"/>
@@ -7278,7 +7515,7 @@
       <c r="F673" s="6"/>
       <c r="G673" s="7"/>
     </row>
-    <row r="674" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="6"/>
       <c r="B674" s="7"/>
       <c r="C674" s="6"/>
@@ -7287,7 +7524,7 @@
       <c r="F674" s="6"/>
       <c r="G674" s="7"/>
     </row>
-    <row r="675" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="6"/>
       <c r="B675" s="7"/>
       <c r="C675" s="6"/>
@@ -7296,7 +7533,7 @@
       <c r="F675" s="6"/>
       <c r="G675" s="7"/>
     </row>
-    <row r="676" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="6"/>
       <c r="B676" s="7"/>
       <c r="C676" s="6"/>
@@ -7305,7 +7542,7 @@
       <c r="F676" s="6"/>
       <c r="G676" s="7"/>
     </row>
-    <row r="677" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="6"/>
       <c r="B677" s="7"/>
       <c r="C677" s="6"/>
@@ -7314,7 +7551,7 @@
       <c r="F677" s="6"/>
       <c r="G677" s="7"/>
     </row>
-    <row r="678" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="6"/>
       <c r="B678" s="7"/>
       <c r="C678" s="6"/>
@@ -7323,7 +7560,7 @@
       <c r="F678" s="6"/>
       <c r="G678" s="7"/>
     </row>
-    <row r="679" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="6"/>
       <c r="B679" s="7"/>
       <c r="C679" s="6"/>
@@ -7332,7 +7569,7 @@
       <c r="F679" s="6"/>
       <c r="G679" s="7"/>
     </row>
-    <row r="680" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="6"/>
       <c r="B680" s="7"/>
       <c r="C680" s="6"/>
@@ -7341,7 +7578,7 @@
       <c r="F680" s="6"/>
       <c r="G680" s="7"/>
     </row>
-    <row r="681" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="6"/>
       <c r="B681" s="7"/>
       <c r="C681" s="6"/>
@@ -7350,7 +7587,7 @@
       <c r="F681" s="6"/>
       <c r="G681" s="7"/>
     </row>
-    <row r="682" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="6"/>
       <c r="B682" s="7"/>
       <c r="C682" s="6"/>
@@ -7359,7 +7596,7 @@
       <c r="F682" s="6"/>
       <c r="G682" s="7"/>
     </row>
-    <row r="683" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="6"/>
       <c r="B683" s="7"/>
       <c r="C683" s="6"/>
@@ -7368,7 +7605,7 @@
       <c r="F683" s="6"/>
       <c r="G683" s="7"/>
     </row>
-    <row r="684" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="6"/>
       <c r="B684" s="7"/>
       <c r="C684" s="6"/>
@@ -7377,7 +7614,7 @@
       <c r="F684" s="6"/>
       <c r="G684" s="7"/>
     </row>
-    <row r="685" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="6"/>
       <c r="B685" s="7"/>
       <c r="C685" s="6"/>
@@ -7386,7 +7623,7 @@
       <c r="F685" s="6"/>
       <c r="G685" s="7"/>
     </row>
-    <row r="686" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="6"/>
       <c r="B686" s="7"/>
       <c r="C686" s="6"/>
@@ -7395,7 +7632,7 @@
       <c r="F686" s="6"/>
       <c r="G686" s="7"/>
     </row>
-    <row r="687" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="6"/>
       <c r="B687" s="7"/>
       <c r="C687" s="6"/>
@@ -7404,7 +7641,7 @@
       <c r="F687" s="6"/>
       <c r="G687" s="7"/>
     </row>
-    <row r="688" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="6"/>
       <c r="B688" s="7"/>
       <c r="C688" s="6"/>
@@ -7413,7 +7650,7 @@
       <c r="F688" s="6"/>
       <c r="G688" s="7"/>
     </row>
-    <row r="689" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="6"/>
       <c r="B689" s="7"/>
       <c r="C689" s="6"/>
@@ -7422,7 +7659,7 @@
       <c r="F689" s="6"/>
       <c r="G689" s="7"/>
     </row>
-    <row r="690" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="6"/>
       <c r="B690" s="7"/>
       <c r="C690" s="6"/>
@@ -7431,7 +7668,7 @@
       <c r="F690" s="6"/>
       <c r="G690" s="7"/>
     </row>
-    <row r="691" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="6"/>
       <c r="B691" s="7"/>
       <c r="C691" s="6"/>
@@ -7440,7 +7677,7 @@
       <c r="F691" s="6"/>
       <c r="G691" s="7"/>
     </row>
-    <row r="692" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="6"/>
       <c r="B692" s="7"/>
       <c r="C692" s="6"/>
@@ -7449,7 +7686,7 @@
       <c r="F692" s="6"/>
       <c r="G692" s="7"/>
     </row>
-    <row r="693" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="6"/>
       <c r="B693" s="7"/>
       <c r="C693" s="6"/>
@@ -7458,7 +7695,7 @@
       <c r="F693" s="6"/>
       <c r="G693" s="7"/>
     </row>
-    <row r="694" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="6"/>
       <c r="B694" s="7"/>
       <c r="C694" s="6"/>
@@ -7467,7 +7704,7 @@
       <c r="F694" s="6"/>
       <c r="G694" s="7"/>
     </row>
-    <row r="695" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="6"/>
       <c r="B695" s="7"/>
       <c r="C695" s="6"/>
@@ -7476,7 +7713,7 @@
       <c r="F695" s="6"/>
       <c r="G695" s="7"/>
     </row>
-    <row r="696" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="6"/>
       <c r="B696" s="7"/>
       <c r="C696" s="6"/>
@@ -7485,7 +7722,7 @@
       <c r="F696" s="6"/>
       <c r="G696" s="7"/>
     </row>
-    <row r="697" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="6"/>
       <c r="B697" s="7"/>
       <c r="C697" s="6"/>
@@ -7494,7 +7731,7 @@
       <c r="F697" s="6"/>
       <c r="G697" s="7"/>
     </row>
-    <row r="698" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="6"/>
       <c r="B698" s="7"/>
       <c r="C698" s="6"/>
@@ -7503,7 +7740,7 @@
       <c r="F698" s="6"/>
       <c r="G698" s="7"/>
     </row>
-    <row r="699" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="6"/>
       <c r="B699" s="7"/>
       <c r="C699" s="6"/>
@@ -7512,7 +7749,7 @@
       <c r="F699" s="6"/>
       <c r="G699" s="7"/>
     </row>
-    <row r="700" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="6"/>
       <c r="B700" s="7"/>
       <c r="C700" s="6"/>
@@ -7521,7 +7758,7 @@
       <c r="F700" s="6"/>
       <c r="G700" s="7"/>
     </row>
-    <row r="701" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="6"/>
       <c r="B701" s="7"/>
       <c r="C701" s="6"/>
@@ -7530,7 +7767,7 @@
       <c r="F701" s="6"/>
       <c r="G701" s="7"/>
     </row>
-    <row r="702" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="6"/>
       <c r="B702" s="7"/>
       <c r="C702" s="6"/>
@@ -7539,7 +7776,7 @@
       <c r="F702" s="6"/>
       <c r="G702" s="7"/>
     </row>
-    <row r="703" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="6"/>
       <c r="B703" s="7"/>
       <c r="C703" s="6"/>
@@ -7548,7 +7785,7 @@
       <c r="F703" s="6"/>
       <c r="G703" s="7"/>
     </row>
-    <row r="704" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="6"/>
       <c r="B704" s="7"/>
       <c r="C704" s="6"/>
@@ -7557,7 +7794,7 @@
       <c r="F704" s="6"/>
       <c r="G704" s="7"/>
     </row>
-    <row r="705" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="6"/>
       <c r="B705" s="7"/>
       <c r="C705" s="6"/>
@@ -7566,7 +7803,7 @@
       <c r="F705" s="6"/>
       <c r="G705" s="7"/>
     </row>
-    <row r="706" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="6"/>
       <c r="B706" s="7"/>
       <c r="C706" s="6"/>
@@ -7575,7 +7812,7 @@
       <c r="F706" s="6"/>
       <c r="G706" s="7"/>
     </row>
-    <row r="707" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="6"/>
       <c r="B707" s="7"/>
       <c r="C707" s="6"/>
@@ -7584,7 +7821,7 @@
       <c r="F707" s="6"/>
       <c r="G707" s="7"/>
     </row>
-    <row r="708" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="6"/>
       <c r="B708" s="7"/>
       <c r="C708" s="6"/>
@@ -7593,7 +7830,7 @@
       <c r="F708" s="6"/>
       <c r="G708" s="7"/>
     </row>
-    <row r="709" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="6"/>
       <c r="B709" s="7"/>
       <c r="C709" s="6"/>
@@ -7602,7 +7839,7 @@
       <c r="F709" s="6"/>
       <c r="G709" s="7"/>
     </row>
-    <row r="710" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="6"/>
       <c r="B710" s="7"/>
       <c r="C710" s="6"/>
@@ -7611,7 +7848,7 @@
       <c r="F710" s="6"/>
       <c r="G710" s="7"/>
     </row>
-    <row r="711" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="6"/>
       <c r="B711" s="7"/>
       <c r="C711" s="6"/>
@@ -7620,7 +7857,7 @@
       <c r="F711" s="6"/>
       <c r="G711" s="7"/>
     </row>
-    <row r="712" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="6"/>
       <c r="B712" s="7"/>
       <c r="C712" s="6"/>
@@ -7629,7 +7866,7 @@
       <c r="F712" s="6"/>
       <c r="G712" s="7"/>
     </row>
-    <row r="713" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="6"/>
       <c r="B713" s="7"/>
       <c r="C713" s="6"/>
@@ -7638,7 +7875,7 @@
       <c r="F713" s="6"/>
       <c r="G713" s="7"/>
     </row>
-    <row r="714" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="6"/>
       <c r="B714" s="7"/>
       <c r="C714" s="6"/>
@@ -7647,7 +7884,7 @@
       <c r="F714" s="6"/>
       <c r="G714" s="7"/>
     </row>
-    <row r="715" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="6"/>
       <c r="B715" s="7"/>
       <c r="C715" s="6"/>
@@ -7656,7 +7893,7 @@
       <c r="F715" s="6"/>
       <c r="G715" s="7"/>
     </row>
-    <row r="716" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="6"/>
       <c r="B716" s="7"/>
       <c r="C716" s="6"/>
@@ -7665,7 +7902,7 @@
       <c r="F716" s="6"/>
       <c r="G716" s="7"/>
     </row>
-    <row r="717" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="6"/>
       <c r="B717" s="7"/>
       <c r="C717" s="6"/>
@@ -7674,7 +7911,7 @@
       <c r="F717" s="6"/>
       <c r="G717" s="7"/>
     </row>
-    <row r="718" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="6"/>
       <c r="B718" s="7"/>
       <c r="C718" s="6"/>
@@ -7683,7 +7920,7 @@
       <c r="F718" s="6"/>
       <c r="G718" s="7"/>
     </row>
-    <row r="719" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="6"/>
       <c r="B719" s="7"/>
       <c r="C719" s="6"/>
@@ -7692,7 +7929,7 @@
       <c r="F719" s="6"/>
       <c r="G719" s="7"/>
     </row>
-    <row r="720" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="6"/>
       <c r="B720" s="7"/>
       <c r="C720" s="6"/>
@@ -7701,7 +7938,7 @@
       <c r="F720" s="6"/>
       <c r="G720" s="7"/>
     </row>
-    <row r="721" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="6"/>
       <c r="B721" s="7"/>
       <c r="C721" s="6"/>
@@ -7710,7 +7947,7 @@
       <c r="F721" s="6"/>
       <c r="G721" s="7"/>
     </row>
-    <row r="722" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="6"/>
       <c r="B722" s="7"/>
       <c r="C722" s="6"/>
@@ -7719,7 +7956,7 @@
       <c r="F722" s="6"/>
       <c r="G722" s="7"/>
     </row>
-    <row r="723" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="6"/>
       <c r="B723" s="7"/>
       <c r="C723" s="6"/>
@@ -7728,7 +7965,7 @@
       <c r="F723" s="6"/>
       <c r="G723" s="7"/>
     </row>
-    <row r="724" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="6"/>
       <c r="B724" s="7"/>
       <c r="C724" s="6"/>
@@ -7737,7 +7974,7 @@
       <c r="F724" s="6"/>
       <c r="G724" s="7"/>
     </row>
-    <row r="725" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="6"/>
       <c r="B725" s="7"/>
       <c r="C725" s="6"/>
@@ -7746,7 +7983,7 @@
       <c r="F725" s="6"/>
       <c r="G725" s="7"/>
     </row>
-    <row r="726" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="6"/>
       <c r="B726" s="7"/>
       <c r="C726" s="6"/>
@@ -7755,7 +7992,7 @@
       <c r="F726" s="6"/>
       <c r="G726" s="7"/>
     </row>
-    <row r="727" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="6"/>
       <c r="B727" s="7"/>
       <c r="C727" s="6"/>
@@ -7764,7 +8001,7 @@
       <c r="F727" s="6"/>
       <c r="G727" s="7"/>
     </row>
-    <row r="728" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="6"/>
       <c r="B728" s="7"/>
       <c r="C728" s="6"/>
@@ -7773,7 +8010,7 @@
       <c r="F728" s="6"/>
       <c r="G728" s="7"/>
     </row>
-    <row r="729" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="6"/>
       <c r="B729" s="7"/>
       <c r="C729" s="6"/>
@@ -7782,7 +8019,7 @@
       <c r="F729" s="6"/>
       <c r="G729" s="7"/>
     </row>
-    <row r="730" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="6"/>
       <c r="B730" s="7"/>
       <c r="C730" s="6"/>
@@ -7791,7 +8028,7 @@
       <c r="F730" s="6"/>
       <c r="G730" s="7"/>
     </row>
-    <row r="731" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="6"/>
       <c r="B731" s="7"/>
       <c r="C731" s="6"/>
@@ -7800,7 +8037,7 @@
       <c r="F731" s="6"/>
       <c r="G731" s="7"/>
     </row>
-    <row r="732" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="6"/>
       <c r="B732" s="7"/>
       <c r="C732" s="6"/>
@@ -7809,7 +8046,7 @@
       <c r="F732" s="6"/>
       <c r="G732" s="7"/>
     </row>
-    <row r="733" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="6"/>
       <c r="B733" s="7"/>
       <c r="C733" s="6"/>
@@ -7818,7 +8055,7 @@
       <c r="F733" s="6"/>
       <c r="G733" s="7"/>
     </row>
-    <row r="734" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="6"/>
       <c r="B734" s="7"/>
       <c r="C734" s="6"/>
@@ -7827,7 +8064,7 @@
       <c r="F734" s="6"/>
       <c r="G734" s="7"/>
     </row>
-    <row r="735" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="6"/>
       <c r="B735" s="7"/>
       <c r="C735" s="6"/>
@@ -7836,7 +8073,7 @@
       <c r="F735" s="6"/>
       <c r="G735" s="7"/>
     </row>
-    <row r="736" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="6"/>
       <c r="B736" s="7"/>
       <c r="C736" s="6"/>
@@ -7845,7 +8082,7 @@
       <c r="F736" s="6"/>
       <c r="G736" s="7"/>
     </row>
-    <row r="737" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="6"/>
       <c r="B737" s="7"/>
       <c r="C737" s="6"/>
@@ -7854,7 +8091,7 @@
       <c r="F737" s="6"/>
       <c r="G737" s="7"/>
     </row>
-    <row r="738" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="6"/>
       <c r="B738" s="7"/>
       <c r="C738" s="6"/>
@@ -7863,7 +8100,7 @@
       <c r="F738" s="6"/>
       <c r="G738" s="7"/>
     </row>
-    <row r="739" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="6"/>
       <c r="B739" s="7"/>
       <c r="C739" s="6"/>
@@ -7872,7 +8109,7 @@
       <c r="F739" s="6"/>
       <c r="G739" s="7"/>
     </row>
-    <row r="740" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="6"/>
       <c r="B740" s="7"/>
       <c r="C740" s="6"/>
@@ -7881,7 +8118,7 @@
       <c r="F740" s="6"/>
       <c r="G740" s="7"/>
     </row>
-    <row r="741" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="6"/>
       <c r="B741" s="7"/>
       <c r="C741" s="6"/>
@@ -7890,7 +8127,7 @@
       <c r="F741" s="6"/>
       <c r="G741" s="7"/>
     </row>
-    <row r="742" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="6"/>
       <c r="B742" s="7"/>
       <c r="C742" s="6"/>
@@ -7899,7 +8136,7 @@
       <c r="F742" s="6"/>
       <c r="G742" s="7"/>
     </row>
-    <row r="743" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="6"/>
       <c r="B743" s="7"/>
       <c r="C743" s="6"/>
@@ -7908,7 +8145,7 @@
       <c r="F743" s="6"/>
       <c r="G743" s="7"/>
     </row>
-    <row r="744" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="6"/>
       <c r="B744" s="7"/>
       <c r="C744" s="6"/>
@@ -7917,7 +8154,7 @@
       <c r="F744" s="6"/>
       <c r="G744" s="7"/>
     </row>
-    <row r="745" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="6"/>
       <c r="B745" s="7"/>
       <c r="C745" s="6"/>
@@ -7926,7 +8163,7 @@
       <c r="F745" s="6"/>
       <c r="G745" s="7"/>
     </row>
-    <row r="746" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="6"/>
       <c r="B746" s="7"/>
       <c r="C746" s="6"/>
@@ -7935,7 +8172,7 @@
       <c r="F746" s="6"/>
       <c r="G746" s="7"/>
     </row>
-    <row r="747" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="6"/>
       <c r="B747" s="7"/>
       <c r="C747" s="6"/>
@@ -7944,7 +8181,7 @@
       <c r="F747" s="6"/>
       <c r="G747" s="7"/>
     </row>
-    <row r="748" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="6"/>
       <c r="B748" s="7"/>
       <c r="C748" s="6"/>
@@ -7953,7 +8190,7 @@
       <c r="F748" s="6"/>
       <c r="G748" s="7"/>
     </row>
-    <row r="749" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="6"/>
       <c r="B749" s="7"/>
       <c r="C749" s="6"/>
@@ -7962,7 +8199,7 @@
       <c r="F749" s="6"/>
       <c r="G749" s="7"/>
     </row>
-    <row r="750" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="6"/>
       <c r="B750" s="7"/>
       <c r="C750" s="6"/>
@@ -7971,7 +8208,7 @@
       <c r="F750" s="6"/>
       <c r="G750" s="7"/>
     </row>
-    <row r="751" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="6"/>
       <c r="B751" s="7"/>
       <c r="C751" s="6"/>
@@ -7980,7 +8217,7 @@
       <c r="F751" s="6"/>
       <c r="G751" s="7"/>
     </row>
-    <row r="752" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="6"/>
       <c r="B752" s="7"/>
       <c r="C752" s="6"/>
@@ -7989,7 +8226,7 @@
       <c r="F752" s="6"/>
       <c r="G752" s="7"/>
     </row>
-    <row r="753" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="6"/>
       <c r="B753" s="7"/>
       <c r="C753" s="6"/>
@@ -7998,7 +8235,7 @@
       <c r="F753" s="6"/>
       <c r="G753" s="7"/>
     </row>
-    <row r="754" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="6"/>
       <c r="B754" s="7"/>
       <c r="C754" s="6"/>
@@ -8007,7 +8244,7 @@
       <c r="F754" s="6"/>
       <c r="G754" s="7"/>
     </row>
-    <row r="755" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="6"/>
       <c r="B755" s="7"/>
       <c r="C755" s="6"/>
@@ -8016,7 +8253,7 @@
       <c r="F755" s="6"/>
       <c r="G755" s="7"/>
     </row>
-    <row r="756" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="6"/>
       <c r="B756" s="7"/>
       <c r="C756" s="6"/>
@@ -8025,7 +8262,7 @@
       <c r="F756" s="6"/>
       <c r="G756" s="7"/>
     </row>
-    <row r="757" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="6"/>
       <c r="B757" s="7"/>
       <c r="C757" s="6"/>
@@ -8034,7 +8271,7 @@
       <c r="F757" s="6"/>
       <c r="G757" s="7"/>
     </row>
-    <row r="758" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="6"/>
       <c r="B758" s="7"/>
       <c r="C758" s="6"/>
@@ -8043,7 +8280,7 @@
       <c r="F758" s="6"/>
       <c r="G758" s="7"/>
     </row>
-    <row r="759" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="6"/>
       <c r="B759" s="7"/>
       <c r="C759" s="6"/>
@@ -8052,7 +8289,7 @@
       <c r="F759" s="6"/>
       <c r="G759" s="7"/>
     </row>
-    <row r="760" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="6"/>
       <c r="B760" s="7"/>
       <c r="C760" s="6"/>
@@ -8061,7 +8298,7 @@
       <c r="F760" s="6"/>
       <c r="G760" s="7"/>
     </row>
-    <row r="761" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="6"/>
       <c r="B761" s="7"/>
       <c r="C761" s="6"/>
@@ -8070,7 +8307,7 @@
       <c r="F761" s="6"/>
       <c r="G761" s="7"/>
     </row>
-    <row r="762" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="6"/>
       <c r="B762" s="7"/>
       <c r="C762" s="6"/>
@@ -8079,7 +8316,7 @@
       <c r="F762" s="6"/>
       <c r="G762" s="7"/>
     </row>
-    <row r="763" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="6"/>
       <c r="B763" s="7"/>
       <c r="C763" s="6"/>
@@ -8088,7 +8325,7 @@
       <c r="F763" s="6"/>
       <c r="G763" s="7"/>
     </row>
-    <row r="764" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="6"/>
       <c r="B764" s="7"/>
       <c r="C764" s="6"/>
@@ -8097,7 +8334,7 @@
       <c r="F764" s="6"/>
       <c r="G764" s="7"/>
     </row>
-    <row r="765" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="6"/>
       <c r="B765" s="7"/>
       <c r="C765" s="6"/>
@@ -8106,7 +8343,7 @@
       <c r="F765" s="6"/>
       <c r="G765" s="7"/>
     </row>
-    <row r="766" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="6"/>
       <c r="B766" s="7"/>
       <c r="C766" s="6"/>
@@ -8115,7 +8352,7 @@
       <c r="F766" s="6"/>
       <c r="G766" s="7"/>
     </row>
-    <row r="767" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="6"/>
       <c r="B767" s="7"/>
       <c r="C767" s="6"/>
@@ -8124,7 +8361,7 @@
       <c r="F767" s="6"/>
       <c r="G767" s="7"/>
     </row>
-    <row r="768" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="6"/>
       <c r="B768" s="7"/>
       <c r="C768" s="6"/>
@@ -8133,7 +8370,7 @@
       <c r="F768" s="6"/>
       <c r="G768" s="7"/>
     </row>
-    <row r="769" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="6"/>
       <c r="B769" s="7"/>
       <c r="C769" s="6"/>
@@ -8142,7 +8379,7 @@
       <c r="F769" s="6"/>
       <c r="G769" s="7"/>
     </row>
-    <row r="770" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="6"/>
       <c r="B770" s="7"/>
       <c r="C770" s="6"/>
@@ -8151,7 +8388,7 @@
       <c r="F770" s="6"/>
       <c r="G770" s="7"/>
     </row>
-    <row r="771" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="6"/>
       <c r="B771" s="7"/>
       <c r="C771" s="6"/>
@@ -8160,7 +8397,7 @@
       <c r="F771" s="6"/>
       <c r="G771" s="7"/>
     </row>
-    <row r="772" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="6"/>
       <c r="B772" s="7"/>
       <c r="C772" s="6"/>
@@ -8169,7 +8406,7 @@
       <c r="F772" s="6"/>
       <c r="G772" s="7"/>
     </row>
-    <row r="773" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="6"/>
       <c r="B773" s="7"/>
       <c r="C773" s="6"/>
@@ -8178,7 +8415,7 @@
       <c r="F773" s="6"/>
       <c r="G773" s="7"/>
     </row>
-    <row r="774" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="6"/>
       <c r="B774" s="7"/>
       <c r="C774" s="6"/>
@@ -8187,7 +8424,7 @@
       <c r="F774" s="6"/>
       <c r="G774" s="7"/>
     </row>
-    <row r="775" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="6"/>
       <c r="B775" s="7"/>
       <c r="C775" s="6"/>
@@ -8196,7 +8433,7 @@
       <c r="F775" s="6"/>
       <c r="G775" s="7"/>
     </row>
-    <row r="776" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="6"/>
       <c r="B776" s="7"/>
       <c r="C776" s="6"/>
@@ -8205,7 +8442,7 @@
       <c r="F776" s="6"/>
       <c r="G776" s="7"/>
     </row>
-    <row r="777" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="6"/>
       <c r="B777" s="7"/>
       <c r="C777" s="6"/>
@@ -8214,7 +8451,7 @@
       <c r="F777" s="6"/>
       <c r="G777" s="7"/>
     </row>
-    <row r="778" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="6"/>
       <c r="B778" s="7"/>
       <c r="C778" s="6"/>
@@ -8223,7 +8460,7 @@
       <c r="F778" s="6"/>
       <c r="G778" s="7"/>
     </row>
-    <row r="779" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="6"/>
       <c r="B779" s="7"/>
       <c r="C779" s="6"/>
@@ -8232,7 +8469,7 @@
       <c r="F779" s="6"/>
       <c r="G779" s="7"/>
     </row>
-    <row r="780" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="6"/>
       <c r="B780" s="7"/>
       <c r="C780" s="6"/>
@@ -8241,7 +8478,7 @@
       <c r="F780" s="6"/>
       <c r="G780" s="7"/>
     </row>
-    <row r="781" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="6"/>
       <c r="B781" s="7"/>
       <c r="C781" s="6"/>
@@ -8250,7 +8487,7 @@
       <c r="F781" s="6"/>
       <c r="G781" s="7"/>
     </row>
-    <row r="782" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="6"/>
       <c r="B782" s="7"/>
       <c r="C782" s="6"/>
@@ -8259,7 +8496,7 @@
       <c r="F782" s="6"/>
       <c r="G782" s="7"/>
     </row>
-    <row r="783" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="6"/>
       <c r="B783" s="7"/>
       <c r="C783" s="6"/>
@@ -8268,7 +8505,7 @@
       <c r="F783" s="6"/>
       <c r="G783" s="7"/>
     </row>
-    <row r="784" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="6"/>
       <c r="B784" s="7"/>
       <c r="C784" s="6"/>
@@ -8277,7 +8514,7 @@
       <c r="F784" s="6"/>
       <c r="G784" s="7"/>
     </row>
-    <row r="785" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="6"/>
       <c r="B785" s="7"/>
       <c r="C785" s="6"/>
@@ -8286,7 +8523,7 @@
       <c r="F785" s="6"/>
       <c r="G785" s="7"/>
     </row>
-    <row r="786" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="6"/>
       <c r="B786" s="7"/>
       <c r="C786" s="6"/>
@@ -8295,7 +8532,7 @@
       <c r="F786" s="6"/>
       <c r="G786" s="7"/>
     </row>
-    <row r="787" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="6"/>
       <c r="B787" s="7"/>
       <c r="C787" s="6"/>
@@ -8304,7 +8541,7 @@
       <c r="F787" s="6"/>
       <c r="G787" s="7"/>
     </row>
-    <row r="788" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="6"/>
       <c r="B788" s="7"/>
       <c r="C788" s="6"/>
@@ -8313,7 +8550,7 @@
       <c r="F788" s="6"/>
       <c r="G788" s="7"/>
     </row>
-    <row r="789" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="6"/>
       <c r="B789" s="7"/>
       <c r="C789" s="6"/>
@@ -8322,7 +8559,7 @@
       <c r="F789" s="6"/>
       <c r="G789" s="7"/>
     </row>
-    <row r="790" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="6"/>
       <c r="B790" s="7"/>
       <c r="C790" s="6"/>
@@ -8331,7 +8568,7 @@
       <c r="F790" s="6"/>
       <c r="G790" s="7"/>
     </row>
-    <row r="791" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="6"/>
       <c r="B791" s="7"/>
       <c r="C791" s="6"/>
@@ -8340,7 +8577,7 @@
       <c r="F791" s="6"/>
       <c r="G791" s="7"/>
     </row>
-    <row r="792" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="6"/>
       <c r="B792" s="7"/>
       <c r="C792" s="6"/>
@@ -8349,7 +8586,7 @@
       <c r="F792" s="6"/>
       <c r="G792" s="7"/>
     </row>
-    <row r="793" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="6"/>
       <c r="B793" s="7"/>
       <c r="C793" s="6"/>
@@ -8358,7 +8595,7 @@
       <c r="F793" s="6"/>
       <c r="G793" s="7"/>
     </row>
-    <row r="794" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="6"/>
       <c r="B794" s="7"/>
       <c r="C794" s="6"/>
@@ -8367,7 +8604,7 @@
       <c r="F794" s="6"/>
       <c r="G794" s="7"/>
     </row>
-    <row r="795" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="6"/>
       <c r="B795" s="7"/>
       <c r="C795" s="6"/>
@@ -8376,7 +8613,7 @@
       <c r="F795" s="6"/>
       <c r="G795" s="7"/>
     </row>
-    <row r="796" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="6"/>
       <c r="B796" s="7"/>
       <c r="C796" s="6"/>
@@ -8385,7 +8622,7 @@
       <c r="F796" s="6"/>
       <c r="G796" s="7"/>
     </row>
-    <row r="797" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="6"/>
       <c r="B797" s="7"/>
       <c r="C797" s="6"/>
@@ -8394,7 +8631,7 @@
       <c r="F797" s="6"/>
       <c r="G797" s="7"/>
     </row>
-    <row r="798" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="6"/>
       <c r="B798" s="7"/>
       <c r="C798" s="6"/>
@@ -8403,7 +8640,7 @@
       <c r="F798" s="6"/>
       <c r="G798" s="7"/>
     </row>
-    <row r="799" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="6"/>
       <c r="B799" s="7"/>
       <c r="C799" s="6"/>
@@ -8412,7 +8649,7 @@
       <c r="F799" s="6"/>
       <c r="G799" s="7"/>
     </row>
-    <row r="800" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="6"/>
       <c r="B800" s="7"/>
       <c r="C800" s="6"/>
@@ -8421,7 +8658,7 @@
       <c r="F800" s="6"/>
       <c r="G800" s="7"/>
     </row>
-    <row r="801" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="6"/>
       <c r="B801" s="7"/>
       <c r="C801" s="6"/>
@@ -8430,7 +8667,7 @@
       <c r="F801" s="6"/>
       <c r="G801" s="7"/>
     </row>
-    <row r="802" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="6"/>
       <c r="B802" s="7"/>
       <c r="C802" s="6"/>
@@ -8439,7 +8676,7 @@
       <c r="F802" s="6"/>
       <c r="G802" s="7"/>
     </row>
-    <row r="803" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="6"/>
       <c r="B803" s="7"/>
       <c r="C803" s="6"/>
@@ -8448,7 +8685,7 @@
       <c r="F803" s="6"/>
       <c r="G803" s="7"/>
     </row>
-    <row r="804" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="6"/>
       <c r="B804" s="7"/>
       <c r="C804" s="6"/>
@@ -8457,7 +8694,7 @@
       <c r="F804" s="6"/>
       <c r="G804" s="7"/>
     </row>
-    <row r="805" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="6"/>
       <c r="B805" s="7"/>
       <c r="C805" s="6"/>
@@ -8466,7 +8703,7 @@
       <c r="F805" s="6"/>
       <c r="G805" s="7"/>
     </row>
-    <row r="806" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="6"/>
       <c r="B806" s="7"/>
       <c r="C806" s="6"/>
@@ -8475,7 +8712,7 @@
       <c r="F806" s="6"/>
       <c r="G806" s="7"/>
     </row>
-    <row r="807" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="6"/>
       <c r="B807" s="7"/>
       <c r="C807" s="6"/>
@@ -8484,7 +8721,7 @@
       <c r="F807" s="6"/>
       <c r="G807" s="7"/>
     </row>
-    <row r="808" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="6"/>
       <c r="B808" s="7"/>
       <c r="C808" s="6"/>
@@ -8493,7 +8730,7 @@
       <c r="F808" s="6"/>
       <c r="G808" s="7"/>
     </row>
-    <row r="809" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="6"/>
       <c r="B809" s="7"/>
       <c r="C809" s="6"/>
@@ -8502,7 +8739,7 @@
       <c r="F809" s="6"/>
       <c r="G809" s="7"/>
     </row>
-    <row r="810" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="6"/>
       <c r="B810" s="7"/>
       <c r="C810" s="6"/>
@@ -8511,7 +8748,7 @@
       <c r="F810" s="6"/>
       <c r="G810" s="7"/>
     </row>
-    <row r="811" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="6"/>
       <c r="B811" s="7"/>
       <c r="C811" s="6"/>
@@ -8520,7 +8757,7 @@
       <c r="F811" s="6"/>
       <c r="G811" s="7"/>
     </row>
-    <row r="812" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="6"/>
       <c r="B812" s="7"/>
       <c r="C812" s="6"/>
@@ -8529,7 +8766,7 @@
       <c r="F812" s="6"/>
       <c r="G812" s="7"/>
     </row>
-    <row r="813" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="6"/>
       <c r="B813" s="7"/>
       <c r="C813" s="6"/>
@@ -8538,7 +8775,7 @@
       <c r="F813" s="6"/>
       <c r="G813" s="7"/>
     </row>
-    <row r="814" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="6"/>
       <c r="B814" s="7"/>
       <c r="C814" s="6"/>
@@ -8547,7 +8784,7 @@
       <c r="F814" s="6"/>
       <c r="G814" s="7"/>
     </row>
-    <row r="815" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="6"/>
       <c r="B815" s="7"/>
       <c r="C815" s="6"/>
@@ -8556,7 +8793,7 @@
       <c r="F815" s="6"/>
       <c r="G815" s="7"/>
     </row>
-    <row r="816" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="6"/>
       <c r="B816" s="7"/>
       <c r="C816" s="6"/>
@@ -8565,7 +8802,7 @@
       <c r="F816" s="6"/>
       <c r="G816" s="7"/>
     </row>
-    <row r="817" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="6"/>
       <c r="B817" s="7"/>
       <c r="C817" s="6"/>
@@ -8574,7 +8811,7 @@
       <c r="F817" s="6"/>
       <c r="G817" s="7"/>
     </row>
-    <row r="818" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="6"/>
       <c r="B818" s="7"/>
       <c r="C818" s="6"/>
@@ -8583,7 +8820,7 @@
       <c r="F818" s="6"/>
       <c r="G818" s="7"/>
     </row>
-    <row r="819" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="6"/>
       <c r="B819" s="7"/>
       <c r="C819" s="6"/>
@@ -8592,7 +8829,7 @@
       <c r="F819" s="6"/>
       <c r="G819" s="7"/>
     </row>
-    <row r="820" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="6"/>
       <c r="B820" s="7"/>
       <c r="C820" s="6"/>
@@ -8601,7 +8838,7 @@
       <c r="F820" s="6"/>
       <c r="G820" s="7"/>
     </row>
-    <row r="821" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="6"/>
       <c r="B821" s="7"/>
       <c r="C821" s="6"/>
@@ -8610,7 +8847,7 @@
       <c r="F821" s="6"/>
       <c r="G821" s="7"/>
     </row>
-    <row r="822" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="6"/>
       <c r="B822" s="7"/>
       <c r="C822" s="6"/>
@@ -8619,7 +8856,7 @@
       <c r="F822" s="6"/>
       <c r="G822" s="7"/>
     </row>
-    <row r="823" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="6"/>
       <c r="B823" s="7"/>
       <c r="C823" s="6"/>
@@ -8628,7 +8865,7 @@
       <c r="F823" s="6"/>
       <c r="G823" s="7"/>
     </row>
-    <row r="824" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="6"/>
       <c r="B824" s="7"/>
       <c r="C824" s="6"/>
@@ -8637,7 +8874,7 @@
       <c r="F824" s="6"/>
       <c r="G824" s="7"/>
     </row>
-    <row r="825" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="6"/>
       <c r="B825" s="7"/>
       <c r="C825" s="6"/>
@@ -8646,7 +8883,7 @@
       <c r="F825" s="6"/>
       <c r="G825" s="7"/>
     </row>
-    <row r="826" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="6"/>
       <c r="B826" s="7"/>
       <c r="C826" s="6"/>
@@ -8655,7 +8892,7 @@
       <c r="F826" s="6"/>
       <c r="G826" s="7"/>
     </row>
-    <row r="827" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="6"/>
       <c r="B827" s="7"/>
       <c r="C827" s="6"/>
@@ -8664,7 +8901,7 @@
       <c r="F827" s="6"/>
       <c r="G827" s="7"/>
     </row>
-    <row r="828" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="6"/>
       <c r="B828" s="7"/>
       <c r="C828" s="6"/>
@@ -8673,7 +8910,7 @@
       <c r="F828" s="6"/>
       <c r="G828" s="7"/>
     </row>
-    <row r="829" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="6"/>
       <c r="B829" s="7"/>
       <c r="C829" s="6"/>
@@ -8682,7 +8919,7 @@
       <c r="F829" s="6"/>
       <c r="G829" s="7"/>
     </row>
-    <row r="830" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="6"/>
       <c r="B830" s="7"/>
       <c r="C830" s="6"/>
@@ -8691,7 +8928,7 @@
       <c r="F830" s="6"/>
       <c r="G830" s="7"/>
     </row>
-    <row r="831" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="6"/>
       <c r="B831" s="7"/>
       <c r="C831" s="6"/>
@@ -8700,7 +8937,7 @@
       <c r="F831" s="6"/>
       <c r="G831" s="7"/>
     </row>
-    <row r="832" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="6"/>
       <c r="B832" s="7"/>
       <c r="C832" s="6"/>
@@ -8709,7 +8946,7 @@
       <c r="F832" s="6"/>
       <c r="G832" s="7"/>
     </row>
-    <row r="833" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="6"/>
       <c r="B833" s="7"/>
       <c r="C833" s="6"/>
@@ -8718,7 +8955,7 @@
       <c r="F833" s="6"/>
       <c r="G833" s="7"/>
     </row>
-    <row r="834" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="6"/>
       <c r="B834" s="7"/>
       <c r="C834" s="6"/>
@@ -8727,7 +8964,7 @@
       <c r="F834" s="6"/>
       <c r="G834" s="7"/>
     </row>
-    <row r="835" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="6"/>
       <c r="B835" s="7"/>
       <c r="C835" s="6"/>
@@ -8736,7 +8973,7 @@
       <c r="F835" s="6"/>
       <c r="G835" s="7"/>
     </row>
-    <row r="836" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="6"/>
       <c r="B836" s="7"/>
       <c r="C836" s="6"/>
@@ -8745,7 +8982,7 @@
       <c r="F836" s="6"/>
       <c r="G836" s="7"/>
     </row>
-    <row r="837" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="6"/>
       <c r="B837" s="7"/>
       <c r="C837" s="6"/>
@@ -8754,7 +8991,7 @@
       <c r="F837" s="6"/>
       <c r="G837" s="7"/>
     </row>
-    <row r="838" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="6"/>
       <c r="B838" s="7"/>
       <c r="C838" s="6"/>
@@ -8763,7 +9000,7 @@
       <c r="F838" s="6"/>
       <c r="G838" s="7"/>
     </row>
-    <row r="839" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="6"/>
       <c r="B839" s="7"/>
       <c r="C839" s="6"/>
@@ -8772,7 +9009,7 @@
       <c r="F839" s="6"/>
       <c r="G839" s="7"/>
     </row>
-    <row r="840" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="6"/>
       <c r="B840" s="7"/>
       <c r="C840" s="6"/>
@@ -8781,7 +9018,7 @@
       <c r="F840" s="6"/>
       <c r="G840" s="7"/>
     </row>
-    <row r="841" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="6"/>
       <c r="B841" s="7"/>
       <c r="C841" s="6"/>
@@ -8790,7 +9027,7 @@
       <c r="F841" s="6"/>
       <c r="G841" s="7"/>
     </row>
-    <row r="842" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="6"/>
       <c r="B842" s="7"/>
       <c r="C842" s="6"/>
@@ -8799,7 +9036,7 @@
       <c r="F842" s="6"/>
       <c r="G842" s="7"/>
     </row>
-    <row r="843" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="6"/>
       <c r="B843" s="7"/>
       <c r="C843" s="6"/>
@@ -8808,7 +9045,7 @@
       <c r="F843" s="6"/>
       <c r="G843" s="7"/>
     </row>
-    <row r="844" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="6"/>
       <c r="B844" s="7"/>
       <c r="C844" s="6"/>
@@ -8817,7 +9054,7 @@
       <c r="F844" s="6"/>
       <c r="G844" s="7"/>
     </row>
-    <row r="845" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="6"/>
       <c r="B845" s="7"/>
       <c r="C845" s="6"/>
@@ -8826,7 +9063,7 @@
       <c r="F845" s="6"/>
       <c r="G845" s="7"/>
     </row>
-    <row r="846" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="6"/>
       <c r="B846" s="7"/>
       <c r="C846" s="6"/>
@@ -8835,7 +9072,7 @@
       <c r="F846" s="6"/>
       <c r="G846" s="7"/>
     </row>
-    <row r="847" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="6"/>
       <c r="B847" s="7"/>
       <c r="C847" s="6"/>
@@ -8844,7 +9081,7 @@
       <c r="F847" s="6"/>
       <c r="G847" s="7"/>
     </row>
-    <row r="848" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="6"/>
       <c r="B848" s="7"/>
       <c r="C848" s="6"/>
@@ -8853,7 +9090,7 @@
       <c r="F848" s="6"/>
       <c r="G848" s="7"/>
     </row>
-    <row r="849" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="6"/>
       <c r="B849" s="7"/>
       <c r="C849" s="6"/>
@@ -8862,7 +9099,7 @@
       <c r="F849" s="6"/>
       <c r="G849" s="7"/>
     </row>
-    <row r="850" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="6"/>
       <c r="B850" s="7"/>
       <c r="C850" s="6"/>
@@ -8871,7 +9108,7 @@
       <c r="F850" s="6"/>
       <c r="G850" s="7"/>
     </row>
-    <row r="851" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="6"/>
       <c r="B851" s="7"/>
       <c r="C851" s="6"/>
@@ -8880,7 +9117,7 @@
       <c r="F851" s="6"/>
       <c r="G851" s="7"/>
     </row>
-    <row r="852" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="6"/>
       <c r="B852" s="7"/>
       <c r="C852" s="6"/>
@@ -8889,7 +9126,7 @@
       <c r="F852" s="6"/>
       <c r="G852" s="7"/>
     </row>
-    <row r="853" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="6"/>
       <c r="B853" s="7"/>
       <c r="C853" s="6"/>
@@ -8898,7 +9135,7 @@
       <c r="F853" s="6"/>
       <c r="G853" s="7"/>
     </row>
-    <row r="854" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="6"/>
       <c r="B854" s="7"/>
       <c r="C854" s="6"/>
@@ -8907,7 +9144,7 @@
       <c r="F854" s="6"/>
       <c r="G854" s="7"/>
     </row>
-    <row r="855" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="6"/>
       <c r="B855" s="7"/>
       <c r="C855" s="6"/>
@@ -8916,7 +9153,7 @@
       <c r="F855" s="6"/>
       <c r="G855" s="7"/>
     </row>
-    <row r="856" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="6"/>
       <c r="B856" s="7"/>
       <c r="C856" s="6"/>
@@ -8925,7 +9162,7 @@
       <c r="F856" s="6"/>
       <c r="G856" s="7"/>
     </row>
-    <row r="857" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="6"/>
       <c r="B857" s="7"/>
       <c r="C857" s="6"/>
@@ -8934,7 +9171,7 @@
       <c r="F857" s="6"/>
       <c r="G857" s="7"/>
     </row>
-    <row r="858" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="6"/>
       <c r="B858" s="7"/>
       <c r="C858" s="6"/>
@@ -8943,7 +9180,7 @@
       <c r="F858" s="6"/>
       <c r="G858" s="7"/>
     </row>
-    <row r="859" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="6"/>
       <c r="B859" s="7"/>
       <c r="C859" s="6"/>
@@ -8952,7 +9189,7 @@
       <c r="F859" s="6"/>
       <c r="G859" s="7"/>
     </row>
-    <row r="860" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="6"/>
       <c r="B860" s="7"/>
       <c r="C860" s="6"/>
@@ -8961,7 +9198,7 @@
       <c r="F860" s="6"/>
       <c r="G860" s="7"/>
     </row>
-    <row r="861" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="6"/>
       <c r="B861" s="7"/>
       <c r="C861" s="6"/>
@@ -8970,7 +9207,7 @@
       <c r="F861" s="6"/>
       <c r="G861" s="7"/>
     </row>
-    <row r="862" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="6"/>
       <c r="B862" s="7"/>
       <c r="C862" s="6"/>
@@ -8979,7 +9216,7 @@
       <c r="F862" s="6"/>
       <c r="G862" s="7"/>
     </row>
-    <row r="863" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="6"/>
       <c r="B863" s="7"/>
       <c r="C863" s="6"/>
@@ -8988,7 +9225,7 @@
       <c r="F863" s="6"/>
       <c r="G863" s="7"/>
     </row>
-    <row r="864" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="6"/>
       <c r="B864" s="7"/>
       <c r="C864" s="6"/>
@@ -8997,7 +9234,7 @@
       <c r="F864" s="6"/>
       <c r="G864" s="7"/>
     </row>
-    <row r="865" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="6"/>
       <c r="B865" s="7"/>
       <c r="C865" s="6"/>
@@ -9006,7 +9243,7 @@
       <c r="F865" s="6"/>
       <c r="G865" s="7"/>
     </row>
-    <row r="866" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="6"/>
       <c r="B866" s="7"/>
       <c r="C866" s="6"/>
@@ -9015,7 +9252,7 @@
       <c r="F866" s="6"/>
       <c r="G866" s="7"/>
     </row>
-    <row r="867" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="6"/>
       <c r="B867" s="7"/>
       <c r="C867" s="6"/>
@@ -9024,7 +9261,7 @@
       <c r="F867" s="6"/>
       <c r="G867" s="7"/>
     </row>
-    <row r="868" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="6"/>
       <c r="B868" s="7"/>
       <c r="C868" s="6"/>
@@ -9033,7 +9270,7 @@
       <c r="F868" s="6"/>
       <c r="G868" s="7"/>
     </row>
-    <row r="869" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="6"/>
       <c r="B869" s="7"/>
       <c r="C869" s="6"/>
@@ -9042,7 +9279,7 @@
       <c r="F869" s="6"/>
       <c r="G869" s="7"/>
     </row>
-    <row r="870" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="6"/>
       <c r="B870" s="7"/>
       <c r="C870" s="6"/>
@@ -9051,7 +9288,7 @@
       <c r="F870" s="6"/>
       <c r="G870" s="7"/>
     </row>
-    <row r="871" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="6"/>
       <c r="B871" s="7"/>
       <c r="C871" s="6"/>
@@ -9060,7 +9297,7 @@
       <c r="F871" s="6"/>
       <c r="G871" s="7"/>
     </row>
-    <row r="872" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="6"/>
       <c r="B872" s="7"/>
       <c r="C872" s="6"/>
@@ -9069,7 +9306,7 @@
       <c r="F872" s="6"/>
       <c r="G872" s="7"/>
     </row>
-    <row r="873" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="6"/>
       <c r="B873" s="7"/>
       <c r="C873" s="6"/>
@@ -9078,7 +9315,7 @@
       <c r="F873" s="6"/>
       <c r="G873" s="7"/>
     </row>
-    <row r="874" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="6"/>
       <c r="B874" s="7"/>
       <c r="C874" s="6"/>
@@ -9087,7 +9324,7 @@
       <c r="F874" s="6"/>
       <c r="G874" s="7"/>
     </row>
-    <row r="875" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="6"/>
       <c r="B875" s="7"/>
       <c r="C875" s="6"/>
@@ -9096,7 +9333,7 @@
       <c r="F875" s="6"/>
       <c r="G875" s="7"/>
     </row>
-    <row r="876" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="6"/>
       <c r="B876" s="7"/>
       <c r="C876" s="6"/>
@@ -9105,7 +9342,7 @@
       <c r="F876" s="6"/>
       <c r="G876" s="7"/>
     </row>
-    <row r="877" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="6"/>
       <c r="B877" s="7"/>
       <c r="C877" s="6"/>
@@ -9114,7 +9351,7 @@
       <c r="F877" s="6"/>
       <c r="G877" s="7"/>
     </row>
-    <row r="878" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="6"/>
       <c r="B878" s="7"/>
       <c r="C878" s="6"/>
@@ -9123,7 +9360,7 @@
       <c r="F878" s="6"/>
       <c r="G878" s="7"/>
     </row>
-    <row r="879" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="6"/>
       <c r="B879" s="7"/>
       <c r="C879" s="6"/>
@@ -9132,7 +9369,7 @@
       <c r="F879" s="6"/>
       <c r="G879" s="7"/>
     </row>
-    <row r="880" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="6"/>
       <c r="B880" s="7"/>
       <c r="C880" s="6"/>
@@ -9141,7 +9378,7 @@
       <c r="F880" s="6"/>
       <c r="G880" s="7"/>
     </row>
-    <row r="881" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="6"/>
       <c r="B881" s="7"/>
       <c r="C881" s="6"/>
@@ -9150,7 +9387,7 @@
       <c r="F881" s="6"/>
       <c r="G881" s="7"/>
     </row>
-    <row r="882" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="6"/>
       <c r="B882" s="7"/>
       <c r="C882" s="6"/>
@@ -9159,7 +9396,7 @@
       <c r="F882" s="6"/>
       <c r="G882" s="7"/>
     </row>
-    <row r="883" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="6"/>
       <c r="B883" s="7"/>
       <c r="C883" s="6"/>
@@ -9168,7 +9405,7 @@
       <c r="F883" s="6"/>
       <c r="G883" s="7"/>
     </row>
-    <row r="884" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="6"/>
       <c r="B884" s="7"/>
       <c r="C884" s="6"/>
@@ -9177,7 +9414,7 @@
       <c r="F884" s="6"/>
       <c r="G884" s="7"/>
     </row>
-    <row r="885" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="6"/>
       <c r="B885" s="7"/>
       <c r="C885" s="6"/>
@@ -9186,7 +9423,7 @@
       <c r="F885" s="6"/>
       <c r="G885" s="7"/>
     </row>
-    <row r="886" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="6"/>
       <c r="B886" s="7"/>
       <c r="C886" s="6"/>
@@ -9195,7 +9432,7 @@
       <c r="F886" s="6"/>
       <c r="G886" s="7"/>
     </row>
-    <row r="887" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="6"/>
       <c r="B887" s="7"/>
       <c r="C887" s="6"/>
@@ -9204,7 +9441,7 @@
       <c r="F887" s="6"/>
       <c r="G887" s="7"/>
     </row>
-    <row r="888" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="6"/>
       <c r="B888" s="7"/>
       <c r="C888" s="6"/>
@@ -9213,7 +9450,7 @@
       <c r="F888" s="6"/>
       <c r="G888" s="7"/>
     </row>
-    <row r="889" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="6"/>
       <c r="B889" s="7"/>
       <c r="C889" s="6"/>
@@ -9222,7 +9459,7 @@
       <c r="F889" s="6"/>
       <c r="G889" s="7"/>
     </row>
-    <row r="890" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="6"/>
       <c r="B890" s="7"/>
       <c r="C890" s="6"/>
@@ -9231,7 +9468,7 @@
       <c r="F890" s="6"/>
       <c r="G890" s="7"/>
     </row>
-    <row r="891" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="6"/>
       <c r="B891" s="7"/>
       <c r="C891" s="6"/>
@@ -9240,7 +9477,7 @@
       <c r="F891" s="6"/>
       <c r="G891" s="7"/>
     </row>
-    <row r="892" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="6"/>
       <c r="B892" s="7"/>
       <c r="C892" s="6"/>
@@ -9249,7 +9486,7 @@
       <c r="F892" s="6"/>
       <c r="G892" s="7"/>
     </row>
-    <row r="893" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="6"/>
       <c r="B893" s="7"/>
       <c r="C893" s="6"/>
@@ -9258,7 +9495,7 @@
       <c r="F893" s="6"/>
       <c r="G893" s="7"/>
     </row>
-    <row r="894" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="6"/>
       <c r="B894" s="7"/>
       <c r="C894" s="6"/>
@@ -9267,7 +9504,7 @@
       <c r="F894" s="6"/>
       <c r="G894" s="7"/>
     </row>
-    <row r="895" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="6"/>
       <c r="B895" s="7"/>
       <c r="C895" s="6"/>
@@ -9276,7 +9513,7 @@
       <c r="F895" s="6"/>
       <c r="G895" s="7"/>
     </row>
-    <row r="896" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="6"/>
       <c r="B896" s="7"/>
       <c r="C896" s="6"/>
@@ -9285,7 +9522,7 @@
       <c r="F896" s="6"/>
       <c r="G896" s="7"/>
     </row>
-    <row r="897" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="6"/>
       <c r="B897" s="7"/>
       <c r="C897" s="6"/>
@@ -9294,7 +9531,7 @@
       <c r="F897" s="6"/>
       <c r="G897" s="7"/>
     </row>
-    <row r="898" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="6"/>
       <c r="B898" s="7"/>
       <c r="C898" s="6"/>
@@ -9303,7 +9540,7 @@
       <c r="F898" s="6"/>
       <c r="G898" s="7"/>
     </row>
-    <row r="899" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="6"/>
       <c r="B899" s="7"/>
       <c r="C899" s="6"/>
@@ -9312,7 +9549,7 @@
       <c r="F899" s="6"/>
       <c r="G899" s="7"/>
     </row>
-    <row r="900" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="6"/>
       <c r="B900" s="7"/>
       <c r="C900" s="6"/>
@@ -9321,7 +9558,7 @@
       <c r="F900" s="6"/>
       <c r="G900" s="7"/>
     </row>
-    <row r="901" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="6"/>
       <c r="B901" s="7"/>
       <c r="C901" s="6"/>
@@ -9330,7 +9567,7 @@
       <c r="F901" s="6"/>
       <c r="G901" s="7"/>
     </row>
-    <row r="902" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="6"/>
       <c r="B902" s="7"/>
       <c r="C902" s="6"/>
@@ -9339,7 +9576,7 @@
       <c r="F902" s="6"/>
       <c r="G902" s="7"/>
     </row>
-    <row r="903" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="6"/>
       <c r="B903" s="7"/>
       <c r="C903" s="6"/>
@@ -9348,7 +9585,7 @@
       <c r="F903" s="6"/>
       <c r="G903" s="7"/>
     </row>
-    <row r="904" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="6"/>
       <c r="B904" s="7"/>
       <c r="C904" s="6"/>
@@ -9357,7 +9594,7 @@
       <c r="F904" s="6"/>
       <c r="G904" s="7"/>
     </row>
-    <row r="905" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="6"/>
       <c r="B905" s="7"/>
       <c r="C905" s="6"/>
@@ -9366,7 +9603,7 @@
       <c r="F905" s="6"/>
       <c r="G905" s="7"/>
     </row>
-    <row r="906" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="6"/>
       <c r="B906" s="7"/>
       <c r="C906" s="6"/>
@@ -9375,7 +9612,7 @@
       <c r="F906" s="6"/>
       <c r="G906" s="7"/>
     </row>
-    <row r="907" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="6"/>
       <c r="B907" s="7"/>
       <c r="C907" s="6"/>
@@ -9384,7 +9621,7 @@
       <c r="F907" s="6"/>
       <c r="G907" s="7"/>
     </row>
-    <row r="908" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="6"/>
       <c r="B908" s="7"/>
       <c r="C908" s="6"/>
@@ -9393,7 +9630,7 @@
       <c r="F908" s="6"/>
       <c r="G908" s="7"/>
     </row>
-    <row r="909" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="6"/>
       <c r="B909" s="7"/>
       <c r="C909" s="6"/>
@@ -9402,7 +9639,7 @@
       <c r="F909" s="6"/>
       <c r="G909" s="7"/>
     </row>
-    <row r="910" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="6"/>
       <c r="B910" s="7"/>
       <c r="C910" s="6"/>
@@ -9411,7 +9648,7 @@
       <c r="F910" s="6"/>
       <c r="G910" s="7"/>
     </row>
-    <row r="911" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="6"/>
       <c r="B911" s="7"/>
       <c r="C911" s="6"/>
@@ -9420,7 +9657,7 @@
       <c r="F911" s="6"/>
       <c r="G911" s="7"/>
     </row>
-    <row r="912" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="6"/>
       <c r="B912" s="7"/>
       <c r="C912" s="6"/>
@@ -9429,7 +9666,7 @@
       <c r="F912" s="6"/>
       <c r="G912" s="7"/>
     </row>
-    <row r="913" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="6"/>
       <c r="B913" s="7"/>
       <c r="C913" s="6"/>
@@ -9438,7 +9675,7 @@
       <c r="F913" s="6"/>
       <c r="G913" s="7"/>
     </row>
-    <row r="914" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="6"/>
       <c r="B914" s="7"/>
       <c r="C914" s="6"/>
@@ -9447,7 +9684,7 @@
       <c r="F914" s="6"/>
       <c r="G914" s="7"/>
     </row>
-    <row r="915" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="6"/>
       <c r="B915" s="7"/>
       <c r="C915" s="6"/>
@@ -9456,7 +9693,7 @@
       <c r="F915" s="6"/>
       <c r="G915" s="7"/>
     </row>
-    <row r="916" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="6"/>
       <c r="B916" s="7"/>
       <c r="C916" s="6"/>
@@ -9465,7 +9702,7 @@
       <c r="F916" s="6"/>
       <c r="G916" s="7"/>
     </row>
-    <row r="917" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="6"/>
       <c r="B917" s="7"/>
       <c r="C917" s="6"/>
@@ -9474,7 +9711,7 @@
       <c r="F917" s="6"/>
       <c r="G917" s="7"/>
     </row>
-    <row r="918" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="6"/>
       <c r="B918" s="7"/>
       <c r="C918" s="6"/>
@@ -9483,7 +9720,7 @@
       <c r="F918" s="6"/>
       <c r="G918" s="7"/>
     </row>
-    <row r="919" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="6"/>
       <c r="B919" s="7"/>
       <c r="C919" s="6"/>
@@ -9492,7 +9729,7 @@
       <c r="F919" s="6"/>
       <c r="G919" s="7"/>
     </row>
-    <row r="920" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="6"/>
       <c r="B920" s="7"/>
       <c r="C920" s="6"/>
@@ -9501,7 +9738,7 @@
       <c r="F920" s="6"/>
       <c r="G920" s="7"/>
     </row>
-    <row r="921" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="6"/>
       <c r="B921" s="7"/>
       <c r="C921" s="6"/>
@@ -9510,7 +9747,7 @@
       <c r="F921" s="6"/>
       <c r="G921" s="7"/>
     </row>
-    <row r="922" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="6"/>
       <c r="B922" s="7"/>
       <c r="C922" s="6"/>
@@ -9519,7 +9756,7 @@
       <c r="F922" s="6"/>
       <c r="G922" s="7"/>
     </row>
-    <row r="923" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="6"/>
       <c r="B923" s="7"/>
       <c r="C923" s="6"/>
@@ -9528,7 +9765,7 @@
       <c r="F923" s="6"/>
       <c r="G923" s="7"/>
     </row>
-    <row r="924" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="6"/>
       <c r="B924" s="7"/>
       <c r="C924" s="6"/>
@@ -9537,7 +9774,7 @@
       <c r="F924" s="6"/>
       <c r="G924" s="7"/>
     </row>
-    <row r="925" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="6"/>
       <c r="B925" s="7"/>
       <c r="C925" s="6"/>
@@ -9546,7 +9783,7 @@
       <c r="F925" s="6"/>
       <c r="G925" s="7"/>
     </row>
-    <row r="926" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="6"/>
       <c r="B926" s="7"/>
       <c r="C926" s="6"/>
@@ -9555,7 +9792,7 @@
       <c r="F926" s="6"/>
       <c r="G926" s="7"/>
     </row>
-    <row r="927" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="6"/>
       <c r="B927" s="7"/>
       <c r="C927" s="6"/>
@@ -9564,7 +9801,7 @@
       <c r="F927" s="6"/>
       <c r="G927" s="7"/>
     </row>
-    <row r="928" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="6"/>
       <c r="B928" s="7"/>
       <c r="C928" s="6"/>
@@ -9573,7 +9810,7 @@
       <c r="F928" s="6"/>
       <c r="G928" s="7"/>
     </row>
-    <row r="929" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="6"/>
       <c r="B929" s="7"/>
       <c r="C929" s="6"/>
@@ -9582,7 +9819,7 @@
       <c r="F929" s="6"/>
       <c r="G929" s="7"/>
     </row>
-    <row r="930" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="6"/>
       <c r="B930" s="7"/>
       <c r="C930" s="6"/>
@@ -9591,7 +9828,7 @@
       <c r="F930" s="6"/>
       <c r="G930" s="7"/>
     </row>
-    <row r="931" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="6"/>
       <c r="B931" s="7"/>
       <c r="C931" s="6"/>
@@ -9600,7 +9837,7 @@
       <c r="F931" s="6"/>
       <c r="G931" s="7"/>
     </row>
-    <row r="932" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="6"/>
       <c r="B932" s="7"/>
       <c r="C932" s="6"/>
@@ -9609,7 +9846,7 @@
       <c r="F932" s="6"/>
       <c r="G932" s="7"/>
     </row>
-    <row r="933" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="6"/>
       <c r="B933" s="7"/>
       <c r="C933" s="6"/>
@@ -9618,7 +9855,7 @@
       <c r="F933" s="6"/>
       <c r="G933" s="7"/>
     </row>
-    <row r="934" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="6"/>
       <c r="B934" s="7"/>
       <c r="C934" s="6"/>
@@ -9627,7 +9864,7 @@
       <c r="F934" s="6"/>
       <c r="G934" s="7"/>
     </row>
-    <row r="935" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="6"/>
       <c r="B935" s="7"/>
       <c r="C935" s="6"/>
@@ -9636,7 +9873,7 @@
       <c r="F935" s="6"/>
       <c r="G935" s="7"/>
     </row>
-    <row r="936" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="6"/>
       <c r="B936" s="7"/>
       <c r="C936" s="6"/>
@@ -9645,7 +9882,7 @@
       <c r="F936" s="6"/>
       <c r="G936" s="7"/>
     </row>
-    <row r="937" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="6"/>
       <c r="B937" s="7"/>
       <c r="C937" s="6"/>
@@ -9654,7 +9891,7 @@
       <c r="F937" s="6"/>
       <c r="G937" s="7"/>
     </row>
-    <row r="938" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="6"/>
       <c r="B938" s="7"/>
       <c r="C938" s="6"/>
@@ -9663,7 +9900,7 @@
       <c r="F938" s="6"/>
       <c r="G938" s="7"/>
     </row>
-    <row r="939" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="6"/>
       <c r="B939" s="7"/>
       <c r="C939" s="6"/>
@@ -9672,7 +9909,7 @@
       <c r="F939" s="6"/>
       <c r="G939" s="7"/>
     </row>
-    <row r="940" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="6"/>
       <c r="B940" s="7"/>
       <c r="C940" s="6"/>
@@ -9681,7 +9918,7 @@
       <c r="F940" s="6"/>
       <c r="G940" s="7"/>
     </row>
-    <row r="941" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="6"/>
       <c r="B941" s="7"/>
       <c r="C941" s="6"/>
@@ -9690,7 +9927,7 @@
       <c r="F941" s="6"/>
       <c r="G941" s="7"/>
     </row>
-    <row r="942" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="6"/>
       <c r="B942" s="7"/>
       <c r="C942" s="6"/>
@@ -9699,7 +9936,7 @@
       <c r="F942" s="6"/>
       <c r="G942" s="7"/>
     </row>
-    <row r="943" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="6"/>
       <c r="B943" s="7"/>
       <c r="C943" s="6"/>
@@ -9708,7 +9945,7 @@
       <c r="F943" s="6"/>
       <c r="G943" s="7"/>
     </row>
-    <row r="944" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="6"/>
       <c r="B944" s="7"/>
       <c r="C944" s="6"/>
@@ -9717,7 +9954,7 @@
       <c r="F944" s="6"/>
       <c r="G944" s="7"/>
     </row>
-    <row r="945" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="6"/>
       <c r="B945" s="7"/>
       <c r="C945" s="6"/>
@@ -9726,7 +9963,7 @@
       <c r="F945" s="6"/>
       <c r="G945" s="7"/>
     </row>
-    <row r="946" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="6"/>
       <c r="B946" s="7"/>
       <c r="C946" s="6"/>
@@ -9735,7 +9972,7 @@
       <c r="F946" s="6"/>
       <c r="G946" s="7"/>
     </row>
-    <row r="947" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="6"/>
       <c r="B947" s="7"/>
       <c r="C947" s="6"/>
@@ -9744,7 +9981,7 @@
       <c r="F947" s="6"/>
       <c r="G947" s="7"/>
     </row>
-    <row r="948" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="6"/>
       <c r="B948" s="7"/>
       <c r="C948" s="6"/>
@@ -9753,7 +9990,7 @@
       <c r="F948" s="6"/>
       <c r="G948" s="7"/>
     </row>
-    <row r="949" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="6"/>
       <c r="B949" s="7"/>
       <c r="C949" s="6"/>
@@ -9762,7 +9999,7 @@
       <c r="F949" s="6"/>
       <c r="G949" s="7"/>
     </row>
-    <row r="950" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="6"/>
       <c r="B950" s="7"/>
       <c r="C950" s="6"/>
@@ -9771,7 +10008,7 @@
       <c r="F950" s="6"/>
       <c r="G950" s="7"/>
     </row>
-    <row r="951" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="6"/>
       <c r="B951" s="7"/>
       <c r="C951" s="6"/>
@@ -9780,7 +10017,7 @@
       <c r="F951" s="6"/>
       <c r="G951" s="7"/>
     </row>
-    <row r="952" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="6"/>
       <c r="B952" s="7"/>
       <c r="C952" s="6"/>
@@ -9789,7 +10026,7 @@
       <c r="F952" s="6"/>
       <c r="G952" s="7"/>
     </row>
-    <row r="953" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="6"/>
       <c r="B953" s="7"/>
       <c r="C953" s="6"/>
@@ -9798,7 +10035,7 @@
       <c r="F953" s="6"/>
       <c r="G953" s="7"/>
     </row>
-    <row r="954" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="6"/>
       <c r="B954" s="7"/>
       <c r="C954" s="6"/>
@@ -9807,7 +10044,7 @@
       <c r="F954" s="6"/>
       <c r="G954" s="7"/>
     </row>
-    <row r="955" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="6"/>
       <c r="B955" s="7"/>
       <c r="C955" s="6"/>
@@ -9816,7 +10053,7 @@
       <c r="F955" s="6"/>
       <c r="G955" s="7"/>
     </row>
-    <row r="956" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="6"/>
       <c r="B956" s="7"/>
       <c r="C956" s="6"/>
@@ -9825,7 +10062,7 @@
       <c r="F956" s="6"/>
       <c r="G956" s="7"/>
     </row>
-    <row r="957" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="6"/>
       <c r="B957" s="7"/>
       <c r="C957" s="6"/>
@@ -9834,7 +10071,7 @@
       <c r="F957" s="6"/>
       <c r="G957" s="7"/>
     </row>
-    <row r="958" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="6"/>
       <c r="B958" s="7"/>
       <c r="C958" s="6"/>
@@ -9843,7 +10080,7 @@
       <c r="F958" s="6"/>
       <c r="G958" s="7"/>
     </row>
-    <row r="959" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="6"/>
       <c r="B959" s="7"/>
       <c r="C959" s="6"/>
@@ -9852,7 +10089,7 @@
       <c r="F959" s="6"/>
       <c r="G959" s="7"/>
     </row>
-    <row r="960" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="6"/>
       <c r="B960" s="7"/>
       <c r="C960" s="6"/>
@@ -9861,7 +10098,7 @@
       <c r="F960" s="6"/>
       <c r="G960" s="7"/>
     </row>
-    <row r="961" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="6"/>
       <c r="B961" s="7"/>
       <c r="C961" s="6"/>
@@ -9870,7 +10107,7 @@
       <c r="F961" s="6"/>
       <c r="G961" s="7"/>
     </row>
-    <row r="962" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="6"/>
       <c r="B962" s="7"/>
       <c r="C962" s="6"/>
@@ -9879,7 +10116,7 @@
       <c r="F962" s="6"/>
       <c r="G962" s="7"/>
     </row>
-    <row r="963" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="6"/>
       <c r="B963" s="7"/>
       <c r="C963" s="6"/>
@@ -9888,7 +10125,7 @@
       <c r="F963" s="6"/>
       <c r="G963" s="7"/>
     </row>
-    <row r="964" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="6"/>
       <c r="B964" s="7"/>
       <c r="C964" s="6"/>
@@ -9897,7 +10134,7 @@
       <c r="F964" s="6"/>
       <c r="G964" s="7"/>
     </row>
-    <row r="965" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="6"/>
       <c r="B965" s="7"/>
       <c r="C965" s="6"/>
@@ -9906,7 +10143,7 @@
       <c r="F965" s="6"/>
       <c r="G965" s="7"/>
     </row>
-    <row r="966" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="6"/>
       <c r="B966" s="7"/>
       <c r="C966" s="6"/>
@@ -9915,7 +10152,7 @@
       <c r="F966" s="6"/>
       <c r="G966" s="7"/>
     </row>
-    <row r="967" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="6"/>
       <c r="B967" s="7"/>
       <c r="C967" s="6"/>
@@ -9924,7 +10161,7 @@
       <c r="F967" s="6"/>
       <c r="G967" s="7"/>
     </row>
-    <row r="968" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="6"/>
       <c r="B968" s="7"/>
       <c r="C968" s="6"/>
@@ -9933,7 +10170,7 @@
       <c r="F968" s="6"/>
       <c r="G968" s="7"/>
     </row>
-    <row r="969" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="6"/>
       <c r="B969" s="7"/>
       <c r="C969" s="6"/>
@@ -9942,7 +10179,7 @@
       <c r="F969" s="6"/>
       <c r="G969" s="7"/>
     </row>
-    <row r="970" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="6"/>
       <c r="B970" s="7"/>
       <c r="C970" s="6"/>
@@ -9951,7 +10188,7 @@
       <c r="F970" s="6"/>
       <c r="G970" s="7"/>
     </row>
-    <row r="971" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="6"/>
       <c r="B971" s="7"/>
       <c r="C971" s="6"/>
@@ -9960,7 +10197,7 @@
       <c r="F971" s="6"/>
       <c r="G971" s="7"/>
     </row>
-    <row r="972" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="6"/>
       <c r="B972" s="7"/>
       <c r="C972" s="6"/>
@@ -9969,7 +10206,7 @@
       <c r="F972" s="6"/>
       <c r="G972" s="7"/>
     </row>
-    <row r="973" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="6"/>
       <c r="B973" s="7"/>
       <c r="C973" s="6"/>
@@ -9978,7 +10215,7 @@
       <c r="F973" s="6"/>
       <c r="G973" s="7"/>
     </row>
-    <row r="974" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="6"/>
       <c r="B974" s="7"/>
       <c r="C974" s="6"/>
@@ -9987,7 +10224,7 @@
       <c r="F974" s="6"/>
       <c r="G974" s="7"/>
     </row>
-    <row r="975" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="6"/>
       <c r="B975" s="7"/>
       <c r="C975" s="6"/>
@@ -9996,7 +10233,7 @@
       <c r="F975" s="6"/>
       <c r="G975" s="7"/>
     </row>
-    <row r="976" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="6"/>
       <c r="B976" s="7"/>
       <c r="C976" s="6"/>
@@ -10005,7 +10242,7 @@
       <c r="F976" s="6"/>
       <c r="G976" s="7"/>
     </row>
-    <row r="977" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="6"/>
       <c r="B977" s="7"/>
       <c r="C977" s="6"/>
@@ -10014,7 +10251,7 @@
       <c r="F977" s="6"/>
       <c r="G977" s="7"/>
     </row>
-    <row r="978" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="6"/>
       <c r="B978" s="7"/>
       <c r="C978" s="6"/>
@@ -10023,7 +10260,7 @@
       <c r="F978" s="6"/>
       <c r="G978" s="7"/>
     </row>
-    <row r="979" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="6"/>
       <c r="B979" s="7"/>
       <c r="C979" s="6"/>
@@ -10032,7 +10269,7 @@
       <c r="F979" s="6"/>
       <c r="G979" s="7"/>
     </row>
-    <row r="980" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="6"/>
       <c r="B980" s="7"/>
       <c r="C980" s="6"/>
@@ -10041,7 +10278,7 @@
       <c r="F980" s="6"/>
       <c r="G980" s="7"/>
     </row>
-    <row r="981" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="6"/>
       <c r="B981" s="7"/>
       <c r="C981" s="6"/>
@@ -10050,7 +10287,7 @@
       <c r="F981" s="6"/>
       <c r="G981" s="7"/>
     </row>
-    <row r="982" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="6"/>
       <c r="B982" s="7"/>
       <c r="C982" s="6"/>
@@ -10059,7 +10296,7 @@
       <c r="F982" s="6"/>
       <c r="G982" s="7"/>
     </row>
-    <row r="983" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="6"/>
       <c r="B983" s="7"/>
       <c r="C983" s="6"/>
@@ -10068,7 +10305,7 @@
       <c r="F983" s="6"/>
       <c r="G983" s="7"/>
     </row>
-    <row r="984" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="6"/>
       <c r="B984" s="7"/>
       <c r="C984" s="6"/>
@@ -10077,7 +10314,7 @@
       <c r="F984" s="6"/>
       <c r="G984" s="7"/>
     </row>
-    <row r="985" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="6"/>
       <c r="B985" s="7"/>
       <c r="C985" s="6"/>
@@ -10086,7 +10323,7 @@
       <c r="F985" s="6"/>
       <c r="G985" s="7"/>
     </row>
-    <row r="986" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="6"/>
       <c r="B986" s="7"/>
       <c r="C986" s="6"/>
@@ -10095,7 +10332,7 @@
       <c r="F986" s="6"/>
       <c r="G986" s="7"/>
     </row>
-    <row r="987" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="6"/>
       <c r="B987" s="7"/>
       <c r="C987" s="6"/>
@@ -10104,7 +10341,7 @@
       <c r="F987" s="6"/>
       <c r="G987" s="7"/>
     </row>
-    <row r="988" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="6"/>
       <c r="B988" s="7"/>
       <c r="C988" s="6"/>
@@ -10113,7 +10350,7 @@
       <c r="F988" s="6"/>
       <c r="G988" s="7"/>
     </row>
-    <row r="989" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="6"/>
       <c r="B989" s="7"/>
       <c r="C989" s="6"/>
@@ -10122,7 +10359,7 @@
       <c r="F989" s="6"/>
       <c r="G989" s="7"/>
     </row>
-    <row r="990" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="6"/>
       <c r="B990" s="7"/>
       <c r="C990" s="6"/>
@@ -10131,7 +10368,7 @@
       <c r="F990" s="6"/>
       <c r="G990" s="7"/>
     </row>
-    <row r="991" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="6"/>
       <c r="B991" s="7"/>
       <c r="C991" s="6"/>
@@ -10140,7 +10377,7 @@
       <c r="F991" s="6"/>
       <c r="G991" s="7"/>
     </row>
-    <row r="992" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="6"/>
       <c r="B992" s="7"/>
       <c r="C992" s="6"/>
@@ -10149,7 +10386,7 @@
       <c r="F992" s="6"/>
       <c r="G992" s="7"/>
     </row>
-    <row r="993" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="6"/>
       <c r="B993" s="7"/>
       <c r="C993" s="6"/>
@@ -10158,7 +10395,7 @@
       <c r="F993" s="6"/>
       <c r="G993" s="7"/>
     </row>
-    <row r="994" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="6"/>
       <c r="B994" s="7"/>
       <c r="C994" s="6"/>
@@ -10167,7 +10404,7 @@
       <c r="F994" s="6"/>
       <c r="G994" s="7"/>
     </row>
-    <row r="995" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="6"/>
       <c r="B995" s="7"/>
       <c r="C995" s="6"/>
@@ -10176,7 +10413,7 @@
       <c r="F995" s="6"/>
       <c r="G995" s="7"/>
     </row>
-    <row r="996" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="6"/>
       <c r="B996" s="7"/>
       <c r="C996" s="6"/>
@@ -10185,7 +10422,7 @@
       <c r="F996" s="6"/>
       <c r="G996" s="7"/>
     </row>
-    <row r="997" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="6"/>
       <c r="B997" s="7"/>
       <c r="C997" s="6"/>
@@ -10194,7 +10431,7 @@
       <c r="F997" s="6"/>
       <c r="G997" s="7"/>
     </row>
-    <row r="998" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="6"/>
       <c r="B998" s="7"/>
       <c r="C998" s="6"/>
@@ -10203,7 +10440,7 @@
       <c r="F998" s="6"/>
       <c r="G998" s="7"/>
     </row>
-    <row r="999" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="6"/>
       <c r="B999" s="7"/>
       <c r="C999" s="6"/>
@@ -10212,7 +10449,7 @@
       <c r="F999" s="6"/>
       <c r="G999" s="7"/>
     </row>
-    <row r="1000" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="6"/>
       <c r="B1000" s="7"/>
       <c r="C1000" s="6"/>
@@ -10221,70 +10458,46 @@
       <c r="F1000" s="6"/>
       <c r="G1000" s="7"/>
     </row>
-    <row r="1001" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1001" s="6"/>
-      <c r="B1001" s="7"/>
-      <c r="C1001" s="6"/>
-      <c r="D1001" s="6"/>
-      <c r="E1001" s="6"/>
-      <c r="F1001" s="6"/>
-      <c r="G1001" s="7"/>
-    </row>
-    <row r="1002" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1002" s="6"/>
-      <c r="B1002" s="7"/>
-      <c r="C1002" s="6"/>
-      <c r="D1002" s="6"/>
-      <c r="E1002" s="6"/>
-      <c r="F1002" s="6"/>
-      <c r="G1002" s="7"/>
-    </row>
-    <row r="1003" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1003" s="6"/>
-      <c r="B1003" s="7"/>
-      <c r="C1003" s="6"/>
-      <c r="D1003" s="6"/>
-      <c r="E1003" s="6"/>
-      <c r="F1003" s="6"/>
-      <c r="G1003" s="7"/>
-    </row>
-    <row r="1004" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1004" s="5"/>
-      <c r="B1004" s="5"/>
-      <c r="C1004" s="5"/>
-      <c r="D1004" s="5"/>
-      <c r="E1004" s="5"/>
-      <c r="F1004" s="5"/>
-      <c r="G1004" s="5"/>
-    </row>
-    <row r="1005" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1006" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1007" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1008" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1009" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1010" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1011" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1012" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1013" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1014" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1015" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1016" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="1001" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1001" s="5"/>
+      <c r="B1001" s="5"/>
+      <c r="C1001" s="5"/>
+      <c r="D1001" s="5"/>
+      <c r="E1001" s="5"/>
+      <c r="F1001" s="5"/>
+      <c r="G1001" s="5"/>
+    </row>
+    <row r="1002" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1008" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1009" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1010" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1011" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1012" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1013" spans="1:9" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="1014" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1015" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1016" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation allowBlank="1" showDropDown="1" sqref="B6:B8 B2:B4 B34 B47 B49:B1003 G2:G22 G25:G34 G36:G1003" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C1003" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation allowBlank="1" showDropDown="1" sqref="B6:B8 B2:B4 B34 G2:G22 G25:G34 B47:B1000 G36:G1000" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation type="list" allowBlank="1" sqref="C2:C1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"P1,P2,P3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F1003" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F1000" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Not in this iteration,In progress,Completed,Not started"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="A2:A1003" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="A2:A1000" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Iteration01,Iteration02,Iteration03"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E1003" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E1000" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Developer 1,Developer 2,Developer 3,Developer 4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D1003" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D1000" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Scrum master,Developer,Product owner"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/iteration2_scrumReport_wolf.xlsx
+++ b/src/main/resources/iteration2_scrumReport_wolf.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9A8C0549-3CC1-4F9E-9FD1-F006BE0E8A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9CED67F4-25A4-49C5-AA11-597B3D24CDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -874,8 +874,8 @@
   <dimension ref="A1:I1016"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/iteration2_scrumReport_wolf.xlsx
+++ b/src/main/resources/iteration2_scrumReport_wolf.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9A8C0549-3CC1-4F9E-9FD1-F006BE0E8A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6F35A833-5842-4EA0-B2FA-B9C0CF7BB4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="100">
   <si>
     <t>Iteration</t>
   </si>
@@ -307,6 +307,15 @@
   </si>
   <si>
     <t>Centralized global UI theme (colors, fonts, components) using shared CSS across all views.</t>
+  </si>
+  <si>
+    <t>Enhanced History filtering with smart free-text inference and separated filtering logic from the UI controller.</t>
+  </si>
+  <si>
+    <t>The History screen now infers filter intent (Result, Difficulty, or Player Name) when the filter type remains “All”, applies strict validation for result keywords, and keeps date filtering explicit. Filtering and validation logic were moved to a dedicated service to improve code clarity, testability, and maintainability.</t>
+  </si>
+  <si>
+    <t>Improved settings toggles by replacing ToggleButtons with image-based switches for clearer visual feedback.</t>
   </si>
 </sst>
 </file>
@@ -874,8 +883,8 @@
   <dimension ref="A1:I1016"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F52" sqref="F52:G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1910,20 +1919,42 @@
     </row>
     <row r="51" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="7"/>
+      <c r="B51" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="52" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
+      <c r="B52" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="G52" s="7"/>
     </row>
     <row r="53" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/src/main/resources/iteration2_scrumReport_wolf.xlsx
+++ b/src/main/resources/iteration2_scrumReport_wolf.xlsx
@@ -3,20 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9CED67F4-25A4-49C5-AA11-597B3D24CDF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adan\Documents\GitHub\MineSweeper_Wolf\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30F6551-8247-4522-AD4D-25ECBFAFF62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="105">
   <si>
     <t>Iteration</t>
   </si>
@@ -308,16 +312,47 @@
   <si>
     <t>Centralized global UI theme (colors, fonts, components) using shared CSS across all views.</t>
   </si>
+  <si>
+    <t>Design White-Box test for Pause Game toggle logic</t>
+  </si>
+  <si>
+    <t>The test verifies internal state changes (isPaused), timer control (pause/resume), and UI side effects (board opacity and icon changes).</t>
+  </si>
+  <si>
+    <t>Build control-flow graph for White-Box testing (Pause Game)</t>
+  </si>
+  <si>
+    <t>The graph was used to ensure coverage of all transitions (pause, resume with timer enabled, resume with timer disabled).</t>
+  </si>
+  <si>
+    <t>Design Black-Box test for Pause Game requirement</t>
+  </si>
+  <si>
+    <t>Implement JUnit test for Pause Game feature</t>
+  </si>
+  <si>
+    <t>The tests cover first pause, resume with timer enabled, and resume with timer disabled, validating internal state, UI opacity changes, and timer status.</t>
+  </si>
+  <si>
+    <t>The test validates pause/play toggling, board dimming, and timer behavior based on timer settings.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -444,47 +479,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -871,11 +907,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I1016"/>
+  <dimension ref="A1:I1013"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1538,7 +1574,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="9" t="s">
         <v>62</v>
@@ -1559,7 +1595,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="7" t="s">
         <v>65</v>
@@ -1580,7 +1616,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="9" t="s">
         <v>67</v>
@@ -1601,7 +1637,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="16" t="s">
         <v>69</v>
@@ -1622,7 +1658,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="9" t="s">
         <v>94</v>
@@ -1641,7 +1677,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="9" t="s">
         <v>72</v>
@@ -1660,7 +1696,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="9" t="s">
         <v>95</v>
@@ -1679,7 +1715,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="9" t="s">
         <v>73</v>
@@ -1700,7 +1736,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="9" t="s">
         <v>75</v>
@@ -1719,7 +1755,7 @@
       </c>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="9" t="s">
         <v>76</v>
@@ -1740,7 +1776,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="9" t="s">
         <v>78</v>
@@ -1761,7 +1797,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="9" t="s">
         <v>80</v>
@@ -1782,7 +1818,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6"/>
       <c r="B45" s="10" t="s">
         <v>82</v>
@@ -1803,7 +1839,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="18" t="s">
         <v>91</v>
@@ -1824,7 +1860,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="7" t="s">
         <v>85</v>
@@ -1845,7 +1881,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="7" t="s">
         <v>88</v>
@@ -1866,7 +1902,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6"/>
       <c r="B49" s="7" t="s">
         <v>89</v>
@@ -1887,7 +1923,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="7" t="s">
         <v>92</v>
@@ -1908,43 +1944,91 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="7"/>
-    </row>
-    <row r="52" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="7"/>
-    </row>
-    <row r="53" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="7"/>
-    </row>
-    <row r="54" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="7"/>
-    </row>
-    <row r="55" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="6"/>
@@ -1953,7 +2037,7 @@
       <c r="F55" s="6"/>
       <c r="G55" s="7"/>
     </row>
-    <row r="56" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="6"/>
@@ -1962,7 +2046,7 @@
       <c r="F56" s="6"/>
       <c r="G56" s="7"/>
     </row>
-    <row r="57" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="6"/>
@@ -1971,7 +2055,7 @@
       <c r="F57" s="6"/>
       <c r="G57" s="7"/>
     </row>
-    <row r="58" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="6"/>
@@ -1980,7 +2064,7 @@
       <c r="F58" s="6"/>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="6"/>
@@ -1989,7 +2073,7 @@
       <c r="F59" s="6"/>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="6"/>
@@ -1998,7 +2082,7 @@
       <c r="F60" s="6"/>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="6"/>
@@ -2007,7 +2091,7 @@
       <c r="F61" s="6"/>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="6"/>
@@ -2016,7 +2100,7 @@
       <c r="F62" s="6"/>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="6"/>
@@ -2025,7 +2109,7 @@
       <c r="F63" s="6"/>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="6"/>
@@ -2034,7 +2118,7 @@
       <c r="F64" s="6"/>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="6"/>
@@ -2043,7 +2127,7 @@
       <c r="F65" s="6"/>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="6"/>
@@ -2052,7 +2136,7 @@
       <c r="F66" s="6"/>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="6"/>
@@ -2061,7 +2145,7 @@
       <c r="F67" s="6"/>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="6"/>
@@ -2070,7 +2154,7 @@
       <c r="F68" s="6"/>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="6"/>
@@ -2079,7 +2163,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="6"/>
@@ -2088,7 +2172,7 @@
       <c r="F70" s="6"/>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="6"/>
@@ -2097,7 +2181,7 @@
       <c r="F71" s="6"/>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="6"/>
@@ -2106,7 +2190,7 @@
       <c r="F72" s="6"/>
       <c r="G72" s="7"/>
     </row>
-    <row r="73" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="6"/>
@@ -2115,7 +2199,7 @@
       <c r="F73" s="6"/>
       <c r="G73" s="7"/>
     </row>
-    <row r="74" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="6"/>
@@ -2124,7 +2208,7 @@
       <c r="F74" s="6"/>
       <c r="G74" s="7"/>
     </row>
-    <row r="75" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="6"/>
@@ -2133,7 +2217,7 @@
       <c r="F75" s="6"/>
       <c r="G75" s="7"/>
     </row>
-    <row r="76" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="6"/>
@@ -2142,7 +2226,7 @@
       <c r="F76" s="6"/>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="6"/>
@@ -2151,7 +2235,7 @@
       <c r="F77" s="6"/>
       <c r="G77" s="7"/>
     </row>
-    <row r="78" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="6"/>
@@ -2160,7 +2244,7 @@
       <c r="F78" s="6"/>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="6"/>
@@ -2169,7 +2253,7 @@
       <c r="F79" s="6"/>
       <c r="G79" s="7"/>
     </row>
-    <row r="80" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="6"/>
@@ -2178,7 +2262,7 @@
       <c r="F80" s="6"/>
       <c r="G80" s="7"/>
     </row>
-    <row r="81" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="6"/>
@@ -2187,7 +2271,7 @@
       <c r="F81" s="6"/>
       <c r="G81" s="7"/>
     </row>
-    <row r="82" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="6"/>
@@ -2196,7 +2280,7 @@
       <c r="F82" s="6"/>
       <c r="G82" s="7"/>
     </row>
-    <row r="83" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="6"/>
@@ -2205,7 +2289,7 @@
       <c r="F83" s="6"/>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="6"/>
@@ -2214,7 +2298,7 @@
       <c r="F84" s="6"/>
       <c r="G84" s="7"/>
     </row>
-    <row r="85" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="6"/>
@@ -2223,7 +2307,7 @@
       <c r="F85" s="6"/>
       <c r="G85" s="7"/>
     </row>
-    <row r="86" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="6"/>
@@ -2232,7 +2316,7 @@
       <c r="F86" s="6"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="6"/>
@@ -2241,7 +2325,7 @@
       <c r="F87" s="6"/>
       <c r="G87" s="7"/>
     </row>
-    <row r="88" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="6"/>
@@ -2250,7 +2334,7 @@
       <c r="F88" s="6"/>
       <c r="G88" s="7"/>
     </row>
-    <row r="89" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="6"/>
@@ -2259,7 +2343,7 @@
       <c r="F89" s="6"/>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="6"/>
@@ -2268,7 +2352,7 @@
       <c r="F90" s="6"/>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
       <c r="C91" s="6"/>
@@ -2277,7 +2361,7 @@
       <c r="F91" s="6"/>
       <c r="G91" s="7"/>
     </row>
-    <row r="92" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
       <c r="C92" s="6"/>
@@ -2286,7 +2370,7 @@
       <c r="F92" s="6"/>
       <c r="G92" s="7"/>
     </row>
-    <row r="93" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
       <c r="C93" s="6"/>
@@ -2295,7 +2379,7 @@
       <c r="F93" s="6"/>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="6"/>
@@ -2304,7 +2388,7 @@
       <c r="F94" s="6"/>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
       <c r="C95" s="6"/>
@@ -2313,7 +2397,7 @@
       <c r="F95" s="6"/>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
       <c r="C96" s="6"/>
@@ -2322,7 +2406,7 @@
       <c r="F96" s="6"/>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
       <c r="C97" s="6"/>
@@ -2331,7 +2415,7 @@
       <c r="F97" s="6"/>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
       <c r="C98" s="6"/>
@@ -2340,7 +2424,7 @@
       <c r="F98" s="6"/>
       <c r="G98" s="7"/>
     </row>
-    <row r="99" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
       <c r="C99" s="6"/>
@@ -2349,7 +2433,7 @@
       <c r="F99" s="6"/>
       <c r="G99" s="7"/>
     </row>
-    <row r="100" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="6"/>
@@ -2358,7 +2442,7 @@
       <c r="F100" s="6"/>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
       <c r="C101" s="6"/>
@@ -2367,7 +2451,7 @@
       <c r="F101" s="6"/>
       <c r="G101" s="7"/>
     </row>
-    <row r="102" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
       <c r="C102" s="6"/>
@@ -2376,7 +2460,7 @@
       <c r="F102" s="6"/>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="7"/>
       <c r="C103" s="6"/>
@@ -2385,7 +2469,7 @@
       <c r="F103" s="6"/>
       <c r="G103" s="7"/>
     </row>
-    <row r="104" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
       <c r="C104" s="6"/>
@@ -2394,7 +2478,7 @@
       <c r="F104" s="6"/>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
       <c r="C105" s="6"/>
@@ -2403,7 +2487,7 @@
       <c r="F105" s="6"/>
       <c r="G105" s="7"/>
     </row>
-    <row r="106" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="7"/>
       <c r="C106" s="6"/>
@@ -2412,7 +2496,7 @@
       <c r="F106" s="6"/>
       <c r="G106" s="7"/>
     </row>
-    <row r="107" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="7"/>
       <c r="C107" s="6"/>
@@ -2421,7 +2505,7 @@
       <c r="F107" s="6"/>
       <c r="G107" s="7"/>
     </row>
-    <row r="108" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="7"/>
       <c r="C108" s="6"/>
@@ -2430,7 +2514,7 @@
       <c r="F108" s="6"/>
       <c r="G108" s="7"/>
     </row>
-    <row r="109" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="7"/>
       <c r="C109" s="6"/>
@@ -2439,7 +2523,7 @@
       <c r="F109" s="6"/>
       <c r="G109" s="7"/>
     </row>
-    <row r="110" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="7"/>
       <c r="C110" s="6"/>
@@ -2448,7 +2532,7 @@
       <c r="F110" s="6"/>
       <c r="G110" s="7"/>
     </row>
-    <row r="111" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="7"/>
       <c r="C111" s="6"/>
@@ -2457,7 +2541,7 @@
       <c r="F111" s="6"/>
       <c r="G111" s="7"/>
     </row>
-    <row r="112" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="7"/>
       <c r="C112" s="6"/>
@@ -2466,7 +2550,7 @@
       <c r="F112" s="6"/>
       <c r="G112" s="7"/>
     </row>
-    <row r="113" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="7"/>
       <c r="C113" s="6"/>
@@ -2475,7 +2559,7 @@
       <c r="F113" s="6"/>
       <c r="G113" s="7"/>
     </row>
-    <row r="114" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="7"/>
       <c r="C114" s="6"/>
@@ -2484,7 +2568,7 @@
       <c r="F114" s="6"/>
       <c r="G114" s="7"/>
     </row>
-    <row r="115" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="7"/>
       <c r="C115" s="6"/>
@@ -2493,7 +2577,7 @@
       <c r="F115" s="6"/>
       <c r="G115" s="7"/>
     </row>
-    <row r="116" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="7"/>
       <c r="C116" s="6"/>
@@ -2502,7 +2586,7 @@
       <c r="F116" s="6"/>
       <c r="G116" s="7"/>
     </row>
-    <row r="117" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="7"/>
       <c r="C117" s="6"/>
@@ -2511,7 +2595,7 @@
       <c r="F117" s="6"/>
       <c r="G117" s="7"/>
     </row>
-    <row r="118" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="7"/>
       <c r="C118" s="6"/>
@@ -2520,7 +2604,7 @@
       <c r="F118" s="6"/>
       <c r="G118" s="7"/>
     </row>
-    <row r="119" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="7"/>
       <c r="C119" s="6"/>
@@ -2529,7 +2613,7 @@
       <c r="F119" s="6"/>
       <c r="G119" s="7"/>
     </row>
-    <row r="120" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
       <c r="C120" s="6"/>
@@ -2538,7 +2622,7 @@
       <c r="F120" s="6"/>
       <c r="G120" s="7"/>
     </row>
-    <row r="121" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="7"/>
       <c r="C121" s="6"/>
@@ -2547,7 +2631,7 @@
       <c r="F121" s="6"/>
       <c r="G121" s="7"/>
     </row>
-    <row r="122" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
       <c r="C122" s="6"/>
@@ -2556,7 +2640,7 @@
       <c r="F122" s="6"/>
       <c r="G122" s="7"/>
     </row>
-    <row r="123" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="7"/>
       <c r="C123" s="6"/>
@@ -2565,7 +2649,7 @@
       <c r="F123" s="6"/>
       <c r="G123" s="7"/>
     </row>
-    <row r="124" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="7"/>
       <c r="C124" s="6"/>
@@ -2574,7 +2658,7 @@
       <c r="F124" s="6"/>
       <c r="G124" s="7"/>
     </row>
-    <row r="125" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="7"/>
       <c r="C125" s="6"/>
@@ -2583,7 +2667,7 @@
       <c r="F125" s="6"/>
       <c r="G125" s="7"/>
     </row>
-    <row r="126" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="7"/>
       <c r="C126" s="6"/>
@@ -2592,7 +2676,7 @@
       <c r="F126" s="6"/>
       <c r="G126" s="7"/>
     </row>
-    <row r="127" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="7"/>
       <c r="C127" s="6"/>
@@ -2601,7 +2685,7 @@
       <c r="F127" s="6"/>
       <c r="G127" s="7"/>
     </row>
-    <row r="128" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="7"/>
       <c r="C128" s="6"/>
@@ -2610,7 +2694,7 @@
       <c r="F128" s="6"/>
       <c r="G128" s="7"/>
     </row>
-    <row r="129" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="7"/>
       <c r="C129" s="6"/>
@@ -2619,7 +2703,7 @@
       <c r="F129" s="6"/>
       <c r="G129" s="7"/>
     </row>
-    <row r="130" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
       <c r="C130" s="6"/>
@@ -2628,7 +2712,7 @@
       <c r="F130" s="6"/>
       <c r="G130" s="7"/>
     </row>
-    <row r="131" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="7"/>
       <c r="C131" s="6"/>
@@ -2637,7 +2721,7 @@
       <c r="F131" s="6"/>
       <c r="G131" s="7"/>
     </row>
-    <row r="132" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="7"/>
       <c r="C132" s="6"/>
@@ -2646,7 +2730,7 @@
       <c r="F132" s="6"/>
       <c r="G132" s="7"/>
     </row>
-    <row r="133" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="7"/>
       <c r="C133" s="6"/>
@@ -2655,7 +2739,7 @@
       <c r="F133" s="6"/>
       <c r="G133" s="7"/>
     </row>
-    <row r="134" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="7"/>
       <c r="C134" s="6"/>
@@ -2664,7 +2748,7 @@
       <c r="F134" s="6"/>
       <c r="G134" s="7"/>
     </row>
-    <row r="135" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
       <c r="C135" s="6"/>
@@ -2673,7 +2757,7 @@
       <c r="F135" s="6"/>
       <c r="G135" s="7"/>
     </row>
-    <row r="136" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="7"/>
       <c r="C136" s="6"/>
@@ -2682,7 +2766,7 @@
       <c r="F136" s="6"/>
       <c r="G136" s="7"/>
     </row>
-    <row r="137" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="7"/>
       <c r="C137" s="6"/>
@@ -2691,7 +2775,7 @@
       <c r="F137" s="6"/>
       <c r="G137" s="7"/>
     </row>
-    <row r="138" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="7"/>
       <c r="C138" s="6"/>
@@ -2700,7 +2784,7 @@
       <c r="F138" s="6"/>
       <c r="G138" s="7"/>
     </row>
-    <row r="139" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="7"/>
       <c r="C139" s="6"/>
@@ -2709,7 +2793,7 @@
       <c r="F139" s="6"/>
       <c r="G139" s="7"/>
     </row>
-    <row r="140" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="7"/>
       <c r="C140" s="6"/>
@@ -2718,7 +2802,7 @@
       <c r="F140" s="6"/>
       <c r="G140" s="7"/>
     </row>
-    <row r="141" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="7"/>
       <c r="C141" s="6"/>
@@ -2727,7 +2811,7 @@
       <c r="F141" s="6"/>
       <c r="G141" s="7"/>
     </row>
-    <row r="142" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="7"/>
       <c r="C142" s="6"/>
@@ -2736,7 +2820,7 @@
       <c r="F142" s="6"/>
       <c r="G142" s="7"/>
     </row>
-    <row r="143" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="7"/>
       <c r="C143" s="6"/>
@@ -2745,7 +2829,7 @@
       <c r="F143" s="6"/>
       <c r="G143" s="7"/>
     </row>
-    <row r="144" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="7"/>
       <c r="C144" s="6"/>
@@ -2754,7 +2838,7 @@
       <c r="F144" s="6"/>
       <c r="G144" s="7"/>
     </row>
-    <row r="145" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
       <c r="C145" s="6"/>
@@ -2763,7 +2847,7 @@
       <c r="F145" s="6"/>
       <c r="G145" s="7"/>
     </row>
-    <row r="146" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
       <c r="C146" s="6"/>
@@ -2772,7 +2856,7 @@
       <c r="F146" s="6"/>
       <c r="G146" s="7"/>
     </row>
-    <row r="147" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="7"/>
       <c r="C147" s="6"/>
@@ -2781,7 +2865,7 @@
       <c r="F147" s="6"/>
       <c r="G147" s="7"/>
     </row>
-    <row r="148" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="7"/>
       <c r="C148" s="6"/>
@@ -2790,7 +2874,7 @@
       <c r="F148" s="6"/>
       <c r="G148" s="7"/>
     </row>
-    <row r="149" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="7"/>
       <c r="C149" s="6"/>
@@ -2799,7 +2883,7 @@
       <c r="F149" s="6"/>
       <c r="G149" s="7"/>
     </row>
-    <row r="150" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="7"/>
       <c r="C150" s="6"/>
@@ -2808,7 +2892,7 @@
       <c r="F150" s="6"/>
       <c r="G150" s="7"/>
     </row>
-    <row r="151" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="7"/>
       <c r="C151" s="6"/>
@@ -2817,7 +2901,7 @@
       <c r="F151" s="6"/>
       <c r="G151" s="7"/>
     </row>
-    <row r="152" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="7"/>
       <c r="C152" s="6"/>
@@ -2826,7 +2910,7 @@
       <c r="F152" s="6"/>
       <c r="G152" s="7"/>
     </row>
-    <row r="153" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="7"/>
       <c r="C153" s="6"/>
@@ -2835,7 +2919,7 @@
       <c r="F153" s="6"/>
       <c r="G153" s="7"/>
     </row>
-    <row r="154" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="7"/>
       <c r="C154" s="6"/>
@@ -2844,7 +2928,7 @@
       <c r="F154" s="6"/>
       <c r="G154" s="7"/>
     </row>
-    <row r="155" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="6"/>
       <c r="B155" s="7"/>
       <c r="C155" s="6"/>
@@ -2853,7 +2937,7 @@
       <c r="F155" s="6"/>
       <c r="G155" s="7"/>
     </row>
-    <row r="156" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="6"/>
       <c r="B156" s="7"/>
       <c r="C156" s="6"/>
@@ -2862,7 +2946,7 @@
       <c r="F156" s="6"/>
       <c r="G156" s="7"/>
     </row>
-    <row r="157" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6"/>
       <c r="B157" s="7"/>
       <c r="C157" s="6"/>
@@ -2871,7 +2955,7 @@
       <c r="F157" s="6"/>
       <c r="G157" s="7"/>
     </row>
-    <row r="158" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6"/>
       <c r="B158" s="7"/>
       <c r="C158" s="6"/>
@@ -2880,7 +2964,7 @@
       <c r="F158" s="6"/>
       <c r="G158" s="7"/>
     </row>
-    <row r="159" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6"/>
       <c r="B159" s="7"/>
       <c r="C159" s="6"/>
@@ -2889,7 +2973,7 @@
       <c r="F159" s="6"/>
       <c r="G159" s="7"/>
     </row>
-    <row r="160" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6"/>
       <c r="B160" s="7"/>
       <c r="C160" s="6"/>
@@ -2898,7 +2982,7 @@
       <c r="F160" s="6"/>
       <c r="G160" s="7"/>
     </row>
-    <row r="161" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="7"/>
       <c r="C161" s="6"/>
@@ -2907,7 +2991,7 @@
       <c r="F161" s="6"/>
       <c r="G161" s="7"/>
     </row>
-    <row r="162" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="7"/>
       <c r="C162" s="6"/>
@@ -2916,7 +3000,7 @@
       <c r="F162" s="6"/>
       <c r="G162" s="7"/>
     </row>
-    <row r="163" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="7"/>
       <c r="C163" s="6"/>
@@ -2925,7 +3009,7 @@
       <c r="F163" s="6"/>
       <c r="G163" s="7"/>
     </row>
-    <row r="164" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="6"/>
       <c r="B164" s="7"/>
       <c r="C164" s="6"/>
@@ -2934,7 +3018,7 @@
       <c r="F164" s="6"/>
       <c r="G164" s="7"/>
     </row>
-    <row r="165" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="6"/>
       <c r="B165" s="7"/>
       <c r="C165" s="6"/>
@@ -2943,7 +3027,7 @@
       <c r="F165" s="6"/>
       <c r="G165" s="7"/>
     </row>
-    <row r="166" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="7"/>
       <c r="C166" s="6"/>
@@ -2952,7 +3036,7 @@
       <c r="F166" s="6"/>
       <c r="G166" s="7"/>
     </row>
-    <row r="167" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="6"/>
       <c r="B167" s="7"/>
       <c r="C167" s="6"/>
@@ -2961,7 +3045,7 @@
       <c r="F167" s="6"/>
       <c r="G167" s="7"/>
     </row>
-    <row r="168" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="6"/>
       <c r="B168" s="7"/>
       <c r="C168" s="6"/>
@@ -2970,7 +3054,7 @@
       <c r="F168" s="6"/>
       <c r="G168" s="7"/>
     </row>
-    <row r="169" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="7"/>
       <c r="C169" s="6"/>
@@ -2979,7 +3063,7 @@
       <c r="F169" s="6"/>
       <c r="G169" s="7"/>
     </row>
-    <row r="170" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="6"/>
       <c r="B170" s="7"/>
       <c r="C170" s="6"/>
@@ -2988,7 +3072,7 @@
       <c r="F170" s="6"/>
       <c r="G170" s="7"/>
     </row>
-    <row r="171" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="6"/>
       <c r="B171" s="7"/>
       <c r="C171" s="6"/>
@@ -2997,7 +3081,7 @@
       <c r="F171" s="6"/>
       <c r="G171" s="7"/>
     </row>
-    <row r="172" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="7"/>
       <c r="C172" s="6"/>
@@ -3006,7 +3090,7 @@
       <c r="F172" s="6"/>
       <c r="G172" s="7"/>
     </row>
-    <row r="173" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="B173" s="7"/>
       <c r="C173" s="6"/>
@@ -3015,7 +3099,7 @@
       <c r="F173" s="6"/>
       <c r="G173" s="7"/>
     </row>
-    <row r="174" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="7"/>
       <c r="C174" s="6"/>
@@ -3024,7 +3108,7 @@
       <c r="F174" s="6"/>
       <c r="G174" s="7"/>
     </row>
-    <row r="175" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="7"/>
       <c r="C175" s="6"/>
@@ -3033,7 +3117,7 @@
       <c r="F175" s="6"/>
       <c r="G175" s="7"/>
     </row>
-    <row r="176" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="7"/>
       <c r="C176" s="6"/>
@@ -3042,7 +3126,7 @@
       <c r="F176" s="6"/>
       <c r="G176" s="7"/>
     </row>
-    <row r="177" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="6"/>
       <c r="B177" s="7"/>
       <c r="C177" s="6"/>
@@ -3051,7 +3135,7 @@
       <c r="F177" s="6"/>
       <c r="G177" s="7"/>
     </row>
-    <row r="178" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="6"/>
       <c r="B178" s="7"/>
       <c r="C178" s="6"/>
@@ -3060,7 +3144,7 @@
       <c r="F178" s="6"/>
       <c r="G178" s="7"/>
     </row>
-    <row r="179" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6"/>
       <c r="B179" s="7"/>
       <c r="C179" s="6"/>
@@ -3069,7 +3153,7 @@
       <c r="F179" s="6"/>
       <c r="G179" s="7"/>
     </row>
-    <row r="180" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6"/>
       <c r="B180" s="7"/>
       <c r="C180" s="6"/>
@@ -3078,7 +3162,7 @@
       <c r="F180" s="6"/>
       <c r="G180" s="7"/>
     </row>
-    <row r="181" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="6"/>
       <c r="B181" s="7"/>
       <c r="C181" s="6"/>
@@ -3087,7 +3171,7 @@
       <c r="F181" s="6"/>
       <c r="G181" s="7"/>
     </row>
-    <row r="182" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="6"/>
       <c r="B182" s="7"/>
       <c r="C182" s="6"/>
@@ -3096,7 +3180,7 @@
       <c r="F182" s="6"/>
       <c r="G182" s="7"/>
     </row>
-    <row r="183" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="6"/>
       <c r="B183" s="7"/>
       <c r="C183" s="6"/>
@@ -3105,7 +3189,7 @@
       <c r="F183" s="6"/>
       <c r="G183" s="7"/>
     </row>
-    <row r="184" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6"/>
       <c r="B184" s="7"/>
       <c r="C184" s="6"/>
@@ -3114,7 +3198,7 @@
       <c r="F184" s="6"/>
       <c r="G184" s="7"/>
     </row>
-    <row r="185" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="6"/>
       <c r="B185" s="7"/>
       <c r="C185" s="6"/>
@@ -3123,7 +3207,7 @@
       <c r="F185" s="6"/>
       <c r="G185" s="7"/>
     </row>
-    <row r="186" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="6"/>
       <c r="B186" s="7"/>
       <c r="C186" s="6"/>
@@ -3132,7 +3216,7 @@
       <c r="F186" s="6"/>
       <c r="G186" s="7"/>
     </row>
-    <row r="187" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6"/>
       <c r="B187" s="7"/>
       <c r="C187" s="6"/>
@@ -3141,7 +3225,7 @@
       <c r="F187" s="6"/>
       <c r="G187" s="7"/>
     </row>
-    <row r="188" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6"/>
       <c r="B188" s="7"/>
       <c r="C188" s="6"/>
@@ -3150,7 +3234,7 @@
       <c r="F188" s="6"/>
       <c r="G188" s="7"/>
     </row>
-    <row r="189" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="7"/>
       <c r="C189" s="6"/>
@@ -3159,7 +3243,7 @@
       <c r="F189" s="6"/>
       <c r="G189" s="7"/>
     </row>
-    <row r="190" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="6"/>
       <c r="B190" s="7"/>
       <c r="C190" s="6"/>
@@ -3168,7 +3252,7 @@
       <c r="F190" s="6"/>
       <c r="G190" s="7"/>
     </row>
-    <row r="191" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="6"/>
       <c r="B191" s="7"/>
       <c r="C191" s="6"/>
@@ -3177,7 +3261,7 @@
       <c r="F191" s="6"/>
       <c r="G191" s="7"/>
     </row>
-    <row r="192" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="6"/>
       <c r="B192" s="7"/>
       <c r="C192" s="6"/>
@@ -3186,7 +3270,7 @@
       <c r="F192" s="6"/>
       <c r="G192" s="7"/>
     </row>
-    <row r="193" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="6"/>
       <c r="B193" s="7"/>
       <c r="C193" s="6"/>
@@ -3195,7 +3279,7 @@
       <c r="F193" s="6"/>
       <c r="G193" s="7"/>
     </row>
-    <row r="194" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="6"/>
       <c r="B194" s="7"/>
       <c r="C194" s="6"/>
@@ -3204,7 +3288,7 @@
       <c r="F194" s="6"/>
       <c r="G194" s="7"/>
     </row>
-    <row r="195" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="6"/>
       <c r="B195" s="7"/>
       <c r="C195" s="6"/>
@@ -3213,7 +3297,7 @@
       <c r="F195" s="6"/>
       <c r="G195" s="7"/>
     </row>
-    <row r="196" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="6"/>
       <c r="B196" s="7"/>
       <c r="C196" s="6"/>
@@ -3222,7 +3306,7 @@
       <c r="F196" s="6"/>
       <c r="G196" s="7"/>
     </row>
-    <row r="197" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="6"/>
       <c r="B197" s="7"/>
       <c r="C197" s="6"/>
@@ -3231,7 +3315,7 @@
       <c r="F197" s="6"/>
       <c r="G197" s="7"/>
     </row>
-    <row r="198" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="6"/>
       <c r="B198" s="7"/>
       <c r="C198" s="6"/>
@@ -3240,7 +3324,7 @@
       <c r="F198" s="6"/>
       <c r="G198" s="7"/>
     </row>
-    <row r="199" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="6"/>
       <c r="B199" s="7"/>
       <c r="C199" s="6"/>
@@ -3249,7 +3333,7 @@
       <c r="F199" s="6"/>
       <c r="G199" s="7"/>
     </row>
-    <row r="200" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6"/>
       <c r="B200" s="7"/>
       <c r="C200" s="6"/>
@@ -3258,7 +3342,7 @@
       <c r="F200" s="6"/>
       <c r="G200" s="7"/>
     </row>
-    <row r="201" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6"/>
       <c r="B201" s="7"/>
       <c r="C201" s="6"/>
@@ -3267,7 +3351,7 @@
       <c r="F201" s="6"/>
       <c r="G201" s="7"/>
     </row>
-    <row r="202" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="6"/>
       <c r="B202" s="7"/>
       <c r="C202" s="6"/>
@@ -3276,7 +3360,7 @@
       <c r="F202" s="6"/>
       <c r="G202" s="7"/>
     </row>
-    <row r="203" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="6"/>
       <c r="B203" s="7"/>
       <c r="C203" s="6"/>
@@ -3285,7 +3369,7 @@
       <c r="F203" s="6"/>
       <c r="G203" s="7"/>
     </row>
-    <row r="204" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="6"/>
       <c r="B204" s="7"/>
       <c r="C204" s="6"/>
@@ -3294,7 +3378,7 @@
       <c r="F204" s="6"/>
       <c r="G204" s="7"/>
     </row>
-    <row r="205" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="6"/>
       <c r="B205" s="7"/>
       <c r="C205" s="6"/>
@@ -3303,7 +3387,7 @@
       <c r="F205" s="6"/>
       <c r="G205" s="7"/>
     </row>
-    <row r="206" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6"/>
       <c r="B206" s="7"/>
       <c r="C206" s="6"/>
@@ -3312,7 +3396,7 @@
       <c r="F206" s="6"/>
       <c r="G206" s="7"/>
     </row>
-    <row r="207" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="6"/>
       <c r="B207" s="7"/>
       <c r="C207" s="6"/>
@@ -3321,7 +3405,7 @@
       <c r="F207" s="6"/>
       <c r="G207" s="7"/>
     </row>
-    <row r="208" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="6"/>
       <c r="B208" s="7"/>
       <c r="C208" s="6"/>
@@ -3330,7 +3414,7 @@
       <c r="F208" s="6"/>
       <c r="G208" s="7"/>
     </row>
-    <row r="209" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="6"/>
       <c r="B209" s="7"/>
       <c r="C209" s="6"/>
@@ -3339,7 +3423,7 @@
       <c r="F209" s="6"/>
       <c r="G209" s="7"/>
     </row>
-    <row r="210" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="6"/>
       <c r="B210" s="7"/>
       <c r="C210" s="6"/>
@@ -3348,7 +3432,7 @@
       <c r="F210" s="6"/>
       <c r="G210" s="7"/>
     </row>
-    <row r="211" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="6"/>
       <c r="B211" s="7"/>
       <c r="C211" s="6"/>
@@ -3357,7 +3441,7 @@
       <c r="F211" s="6"/>
       <c r="G211" s="7"/>
     </row>
-    <row r="212" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="6"/>
       <c r="B212" s="7"/>
       <c r="C212" s="6"/>
@@ -3366,7 +3450,7 @@
       <c r="F212" s="6"/>
       <c r="G212" s="7"/>
     </row>
-    <row r="213" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="6"/>
       <c r="B213" s="7"/>
       <c r="C213" s="6"/>
@@ -3375,7 +3459,7 @@
       <c r="F213" s="6"/>
       <c r="G213" s="7"/>
     </row>
-    <row r="214" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="6"/>
       <c r="B214" s="7"/>
       <c r="C214" s="6"/>
@@ -3384,7 +3468,7 @@
       <c r="F214" s="6"/>
       <c r="G214" s="7"/>
     </row>
-    <row r="215" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6"/>
       <c r="B215" s="7"/>
       <c r="C215" s="6"/>
@@ -3393,7 +3477,7 @@
       <c r="F215" s="6"/>
       <c r="G215" s="7"/>
     </row>
-    <row r="216" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6"/>
       <c r="B216" s="7"/>
       <c r="C216" s="6"/>
@@ -3402,7 +3486,7 @@
       <c r="F216" s="6"/>
       <c r="G216" s="7"/>
     </row>
-    <row r="217" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="6"/>
       <c r="B217" s="7"/>
       <c r="C217" s="6"/>
@@ -3411,7 +3495,7 @@
       <c r="F217" s="6"/>
       <c r="G217" s="7"/>
     </row>
-    <row r="218" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6"/>
       <c r="B218" s="7"/>
       <c r="C218" s="6"/>
@@ -3420,7 +3504,7 @@
       <c r="F218" s="6"/>
       <c r="G218" s="7"/>
     </row>
-    <row r="219" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6"/>
       <c r="B219" s="7"/>
       <c r="C219" s="6"/>
@@ -3429,7 +3513,7 @@
       <c r="F219" s="6"/>
       <c r="G219" s="7"/>
     </row>
-    <row r="220" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="6"/>
       <c r="B220" s="7"/>
       <c r="C220" s="6"/>
@@ -3438,7 +3522,7 @@
       <c r="F220" s="6"/>
       <c r="G220" s="7"/>
     </row>
-    <row r="221" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="6"/>
       <c r="B221" s="7"/>
       <c r="C221" s="6"/>
@@ -3447,7 +3531,7 @@
       <c r="F221" s="6"/>
       <c r="G221" s="7"/>
     </row>
-    <row r="222" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="6"/>
       <c r="B222" s="7"/>
       <c r="C222" s="6"/>
@@ -3456,7 +3540,7 @@
       <c r="F222" s="6"/>
       <c r="G222" s="7"/>
     </row>
-    <row r="223" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="6"/>
       <c r="B223" s="7"/>
       <c r="C223" s="6"/>
@@ -3465,7 +3549,7 @@
       <c r="F223" s="6"/>
       <c r="G223" s="7"/>
     </row>
-    <row r="224" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="6"/>
       <c r="B224" s="7"/>
       <c r="C224" s="6"/>
@@ -3474,7 +3558,7 @@
       <c r="F224" s="6"/>
       <c r="G224" s="7"/>
     </row>
-    <row r="225" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6"/>
       <c r="B225" s="7"/>
       <c r="C225" s="6"/>
@@ -3483,7 +3567,7 @@
       <c r="F225" s="6"/>
       <c r="G225" s="7"/>
     </row>
-    <row r="226" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6"/>
       <c r="B226" s="7"/>
       <c r="C226" s="6"/>
@@ -3492,7 +3576,7 @@
       <c r="F226" s="6"/>
       <c r="G226" s="7"/>
     </row>
-    <row r="227" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6"/>
       <c r="B227" s="7"/>
       <c r="C227" s="6"/>
@@ -3501,7 +3585,7 @@
       <c r="F227" s="6"/>
       <c r="G227" s="7"/>
     </row>
-    <row r="228" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6"/>
       <c r="B228" s="7"/>
       <c r="C228" s="6"/>
@@ -3510,7 +3594,7 @@
       <c r="F228" s="6"/>
       <c r="G228" s="7"/>
     </row>
-    <row r="229" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="6"/>
       <c r="B229" s="7"/>
       <c r="C229" s="6"/>
@@ -3519,7 +3603,7 @@
       <c r="F229" s="6"/>
       <c r="G229" s="7"/>
     </row>
-    <row r="230" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="6"/>
       <c r="B230" s="7"/>
       <c r="C230" s="6"/>
@@ -3528,7 +3612,7 @@
       <c r="F230" s="6"/>
       <c r="G230" s="7"/>
     </row>
-    <row r="231" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="6"/>
       <c r="B231" s="7"/>
       <c r="C231" s="6"/>
@@ -3537,7 +3621,7 @@
       <c r="F231" s="6"/>
       <c r="G231" s="7"/>
     </row>
-    <row r="232" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6"/>
       <c r="B232" s="7"/>
       <c r="C232" s="6"/>
@@ -3546,7 +3630,7 @@
       <c r="F232" s="6"/>
       <c r="G232" s="7"/>
     </row>
-    <row r="233" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6"/>
       <c r="B233" s="7"/>
       <c r="C233" s="6"/>
@@ -3555,7 +3639,7 @@
       <c r="F233" s="6"/>
       <c r="G233" s="7"/>
     </row>
-    <row r="234" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6"/>
       <c r="B234" s="7"/>
       <c r="C234" s="6"/>
@@ -3564,7 +3648,7 @@
       <c r="F234" s="6"/>
       <c r="G234" s="7"/>
     </row>
-    <row r="235" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6"/>
       <c r="B235" s="7"/>
       <c r="C235" s="6"/>
@@ -3573,7 +3657,7 @@
       <c r="F235" s="6"/>
       <c r="G235" s="7"/>
     </row>
-    <row r="236" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6"/>
       <c r="B236" s="7"/>
       <c r="C236" s="6"/>
@@ -3582,7 +3666,7 @@
       <c r="F236" s="6"/>
       <c r="G236" s="7"/>
     </row>
-    <row r="237" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="6"/>
       <c r="B237" s="7"/>
       <c r="C237" s="6"/>
@@ -3591,7 +3675,7 @@
       <c r="F237" s="6"/>
       <c r="G237" s="7"/>
     </row>
-    <row r="238" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="6"/>
       <c r="B238" s="7"/>
       <c r="C238" s="6"/>
@@ -3600,7 +3684,7 @@
       <c r="F238" s="6"/>
       <c r="G238" s="7"/>
     </row>
-    <row r="239" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="6"/>
       <c r="B239" s="7"/>
       <c r="C239" s="6"/>
@@ -3609,7 +3693,7 @@
       <c r="F239" s="6"/>
       <c r="G239" s="7"/>
     </row>
-    <row r="240" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6"/>
       <c r="B240" s="7"/>
       <c r="C240" s="6"/>
@@ -3618,7 +3702,7 @@
       <c r="F240" s="6"/>
       <c r="G240" s="7"/>
     </row>
-    <row r="241" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="6"/>
       <c r="B241" s="7"/>
       <c r="C241" s="6"/>
@@ -3627,7 +3711,7 @@
       <c r="F241" s="6"/>
       <c r="G241" s="7"/>
     </row>
-    <row r="242" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="6"/>
       <c r="B242" s="7"/>
       <c r="C242" s="6"/>
@@ -3636,7 +3720,7 @@
       <c r="F242" s="6"/>
       <c r="G242" s="7"/>
     </row>
-    <row r="243" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6"/>
       <c r="B243" s="7"/>
       <c r="C243" s="6"/>
@@ -3645,7 +3729,7 @@
       <c r="F243" s="6"/>
       <c r="G243" s="7"/>
     </row>
-    <row r="244" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="6"/>
       <c r="B244" s="7"/>
       <c r="C244" s="6"/>
@@ -3654,7 +3738,7 @@
       <c r="F244" s="6"/>
       <c r="G244" s="7"/>
     </row>
-    <row r="245" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="6"/>
       <c r="B245" s="7"/>
       <c r="C245" s="6"/>
@@ -3663,7 +3747,7 @@
       <c r="F245" s="6"/>
       <c r="G245" s="7"/>
     </row>
-    <row r="246" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="6"/>
       <c r="B246" s="7"/>
       <c r="C246" s="6"/>
@@ -3672,7 +3756,7 @@
       <c r="F246" s="6"/>
       <c r="G246" s="7"/>
     </row>
-    <row r="247" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="6"/>
       <c r="B247" s="7"/>
       <c r="C247" s="6"/>
@@ -3681,7 +3765,7 @@
       <c r="F247" s="6"/>
       <c r="G247" s="7"/>
     </row>
-    <row r="248" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="6"/>
       <c r="B248" s="7"/>
       <c r="C248" s="6"/>
@@ -3690,7 +3774,7 @@
       <c r="F248" s="6"/>
       <c r="G248" s="7"/>
     </row>
-    <row r="249" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6"/>
       <c r="B249" s="7"/>
       <c r="C249" s="6"/>
@@ -3699,7 +3783,7 @@
       <c r="F249" s="6"/>
       <c r="G249" s="7"/>
     </row>
-    <row r="250" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="6"/>
       <c r="B250" s="7"/>
       <c r="C250" s="6"/>
@@ -3708,7 +3792,7 @@
       <c r="F250" s="6"/>
       <c r="G250" s="7"/>
     </row>
-    <row r="251" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6"/>
       <c r="B251" s="7"/>
       <c r="C251" s="6"/>
@@ -3717,7 +3801,7 @@
       <c r="F251" s="6"/>
       <c r="G251" s="7"/>
     </row>
-    <row r="252" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6"/>
       <c r="B252" s="7"/>
       <c r="C252" s="6"/>
@@ -3726,7 +3810,7 @@
       <c r="F252" s="6"/>
       <c r="G252" s="7"/>
     </row>
-    <row r="253" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="6"/>
       <c r="B253" s="7"/>
       <c r="C253" s="6"/>
@@ -3735,7 +3819,7 @@
       <c r="F253" s="6"/>
       <c r="G253" s="7"/>
     </row>
-    <row r="254" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="6"/>
       <c r="B254" s="7"/>
       <c r="C254" s="6"/>
@@ -3744,7 +3828,7 @@
       <c r="F254" s="6"/>
       <c r="G254" s="7"/>
     </row>
-    <row r="255" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="6"/>
       <c r="B255" s="7"/>
       <c r="C255" s="6"/>
@@ -3753,7 +3837,7 @@
       <c r="F255" s="6"/>
       <c r="G255" s="7"/>
     </row>
-    <row r="256" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="6"/>
       <c r="B256" s="7"/>
       <c r="C256" s="6"/>
@@ -3762,7 +3846,7 @@
       <c r="F256" s="6"/>
       <c r="G256" s="7"/>
     </row>
-    <row r="257" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="6"/>
       <c r="B257" s="7"/>
       <c r="C257" s="6"/>
@@ -3771,7 +3855,7 @@
       <c r="F257" s="6"/>
       <c r="G257" s="7"/>
     </row>
-    <row r="258" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="6"/>
       <c r="B258" s="7"/>
       <c r="C258" s="6"/>
@@ -3780,7 +3864,7 @@
       <c r="F258" s="6"/>
       <c r="G258" s="7"/>
     </row>
-    <row r="259" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="6"/>
       <c r="B259" s="7"/>
       <c r="C259" s="6"/>
@@ -3789,7 +3873,7 @@
       <c r="F259" s="6"/>
       <c r="G259" s="7"/>
     </row>
-    <row r="260" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="6"/>
       <c r="B260" s="7"/>
       <c r="C260" s="6"/>
@@ -3798,7 +3882,7 @@
       <c r="F260" s="6"/>
       <c r="G260" s="7"/>
     </row>
-    <row r="261" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="6"/>
       <c r="B261" s="7"/>
       <c r="C261" s="6"/>
@@ -3807,7 +3891,7 @@
       <c r="F261" s="6"/>
       <c r="G261" s="7"/>
     </row>
-    <row r="262" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="6"/>
       <c r="B262" s="7"/>
       <c r="C262" s="6"/>
@@ -3816,7 +3900,7 @@
       <c r="F262" s="6"/>
       <c r="G262" s="7"/>
     </row>
-    <row r="263" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="6"/>
       <c r="B263" s="7"/>
       <c r="C263" s="6"/>
@@ -3825,7 +3909,7 @@
       <c r="F263" s="6"/>
       <c r="G263" s="7"/>
     </row>
-    <row r="264" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="6"/>
       <c r="B264" s="7"/>
       <c r="C264" s="6"/>
@@ -3834,7 +3918,7 @@
       <c r="F264" s="6"/>
       <c r="G264" s="7"/>
     </row>
-    <row r="265" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="6"/>
       <c r="B265" s="7"/>
       <c r="C265" s="6"/>
@@ -3843,7 +3927,7 @@
       <c r="F265" s="6"/>
       <c r="G265" s="7"/>
     </row>
-    <row r="266" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6"/>
       <c r="B266" s="7"/>
       <c r="C266" s="6"/>
@@ -3852,7 +3936,7 @@
       <c r="F266" s="6"/>
       <c r="G266" s="7"/>
     </row>
-    <row r="267" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="6"/>
       <c r="B267" s="7"/>
       <c r="C267" s="6"/>
@@ -3861,7 +3945,7 @@
       <c r="F267" s="6"/>
       <c r="G267" s="7"/>
     </row>
-    <row r="268" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="6"/>
       <c r="B268" s="7"/>
       <c r="C268" s="6"/>
@@ -3870,7 +3954,7 @@
       <c r="F268" s="6"/>
       <c r="G268" s="7"/>
     </row>
-    <row r="269" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="6"/>
       <c r="B269" s="7"/>
       <c r="C269" s="6"/>
@@ -3879,7 +3963,7 @@
       <c r="F269" s="6"/>
       <c r="G269" s="7"/>
     </row>
-    <row r="270" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6"/>
       <c r="B270" s="7"/>
       <c r="C270" s="6"/>
@@ -3888,7 +3972,7 @@
       <c r="F270" s="6"/>
       <c r="G270" s="7"/>
     </row>
-    <row r="271" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="6"/>
       <c r="B271" s="7"/>
       <c r="C271" s="6"/>
@@ -3897,7 +3981,7 @@
       <c r="F271" s="6"/>
       <c r="G271" s="7"/>
     </row>
-    <row r="272" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="6"/>
       <c r="B272" s="7"/>
       <c r="C272" s="6"/>
@@ -3906,7 +3990,7 @@
       <c r="F272" s="6"/>
       <c r="G272" s="7"/>
     </row>
-    <row r="273" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="6"/>
       <c r="B273" s="7"/>
       <c r="C273" s="6"/>
@@ -3915,7 +3999,7 @@
       <c r="F273" s="6"/>
       <c r="G273" s="7"/>
     </row>
-    <row r="274" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="6"/>
       <c r="B274" s="7"/>
       <c r="C274" s="6"/>
@@ -3924,7 +4008,7 @@
       <c r="F274" s="6"/>
       <c r="G274" s="7"/>
     </row>
-    <row r="275" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="6"/>
       <c r="B275" s="7"/>
       <c r="C275" s="6"/>
@@ -3933,7 +4017,7 @@
       <c r="F275" s="6"/>
       <c r="G275" s="7"/>
     </row>
-    <row r="276" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="6"/>
       <c r="B276" s="7"/>
       <c r="C276" s="6"/>
@@ -3942,7 +4026,7 @@
       <c r="F276" s="6"/>
       <c r="G276" s="7"/>
     </row>
-    <row r="277" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="6"/>
       <c r="B277" s="7"/>
       <c r="C277" s="6"/>
@@ -3951,7 +4035,7 @@
       <c r="F277" s="6"/>
       <c r="G277" s="7"/>
     </row>
-    <row r="278" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="6"/>
       <c r="B278" s="7"/>
       <c r="C278" s="6"/>
@@ -3960,7 +4044,7 @@
       <c r="F278" s="6"/>
       <c r="G278" s="7"/>
     </row>
-    <row r="279" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="6"/>
       <c r="B279" s="7"/>
       <c r="C279" s="6"/>
@@ -3969,7 +4053,7 @@
       <c r="F279" s="6"/>
       <c r="G279" s="7"/>
     </row>
-    <row r="280" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="6"/>
       <c r="B280" s="7"/>
       <c r="C280" s="6"/>
@@ -3978,7 +4062,7 @@
       <c r="F280" s="6"/>
       <c r="G280" s="7"/>
     </row>
-    <row r="281" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="6"/>
       <c r="B281" s="7"/>
       <c r="C281" s="6"/>
@@ -3987,7 +4071,7 @@
       <c r="F281" s="6"/>
       <c r="G281" s="7"/>
     </row>
-    <row r="282" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="6"/>
       <c r="B282" s="7"/>
       <c r="C282" s="6"/>
@@ -3996,7 +4080,7 @@
       <c r="F282" s="6"/>
       <c r="G282" s="7"/>
     </row>
-    <row r="283" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="6"/>
       <c r="B283" s="7"/>
       <c r="C283" s="6"/>
@@ -4005,7 +4089,7 @@
       <c r="F283" s="6"/>
       <c r="G283" s="7"/>
     </row>
-    <row r="284" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="6"/>
       <c r="B284" s="7"/>
       <c r="C284" s="6"/>
@@ -4014,7 +4098,7 @@
       <c r="F284" s="6"/>
       <c r="G284" s="7"/>
     </row>
-    <row r="285" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="6"/>
       <c r="B285" s="7"/>
       <c r="C285" s="6"/>
@@ -4023,7 +4107,7 @@
       <c r="F285" s="6"/>
       <c r="G285" s="7"/>
     </row>
-    <row r="286" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="6"/>
       <c r="B286" s="7"/>
       <c r="C286" s="6"/>
@@ -4032,7 +4116,7 @@
       <c r="F286" s="6"/>
       <c r="G286" s="7"/>
     </row>
-    <row r="287" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="6"/>
       <c r="B287" s="7"/>
       <c r="C287" s="6"/>
@@ -4041,7 +4125,7 @@
       <c r="F287" s="6"/>
       <c r="G287" s="7"/>
     </row>
-    <row r="288" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="6"/>
       <c r="B288" s="7"/>
       <c r="C288" s="6"/>
@@ -4050,7 +4134,7 @@
       <c r="F288" s="6"/>
       <c r="G288" s="7"/>
     </row>
-    <row r="289" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="6"/>
       <c r="B289" s="7"/>
       <c r="C289" s="6"/>
@@ -4059,7 +4143,7 @@
       <c r="F289" s="6"/>
       <c r="G289" s="7"/>
     </row>
-    <row r="290" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="6"/>
       <c r="B290" s="7"/>
       <c r="C290" s="6"/>
@@ -4068,7 +4152,7 @@
       <c r="F290" s="6"/>
       <c r="G290" s="7"/>
     </row>
-    <row r="291" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="6"/>
       <c r="B291" s="7"/>
       <c r="C291" s="6"/>
@@ -4077,7 +4161,7 @@
       <c r="F291" s="6"/>
       <c r="G291" s="7"/>
     </row>
-    <row r="292" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="6"/>
       <c r="B292" s="7"/>
       <c r="C292" s="6"/>
@@ -4086,7 +4170,7 @@
       <c r="F292" s="6"/>
       <c r="G292" s="7"/>
     </row>
-    <row r="293" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="6"/>
       <c r="B293" s="7"/>
       <c r="C293" s="6"/>
@@ -4095,7 +4179,7 @@
       <c r="F293" s="6"/>
       <c r="G293" s="7"/>
     </row>
-    <row r="294" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="6"/>
       <c r="B294" s="7"/>
       <c r="C294" s="6"/>
@@ -4104,7 +4188,7 @@
       <c r="F294" s="6"/>
       <c r="G294" s="7"/>
     </row>
-    <row r="295" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="6"/>
       <c r="B295" s="7"/>
       <c r="C295" s="6"/>
@@ -4113,7 +4197,7 @@
       <c r="F295" s="6"/>
       <c r="G295" s="7"/>
     </row>
-    <row r="296" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="6"/>
       <c r="B296" s="7"/>
       <c r="C296" s="6"/>
@@ -4122,7 +4206,7 @@
       <c r="F296" s="6"/>
       <c r="G296" s="7"/>
     </row>
-    <row r="297" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="6"/>
       <c r="B297" s="7"/>
       <c r="C297" s="6"/>
@@ -4131,7 +4215,7 @@
       <c r="F297" s="6"/>
       <c r="G297" s="7"/>
     </row>
-    <row r="298" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="6"/>
       <c r="B298" s="7"/>
       <c r="C298" s="6"/>
@@ -4140,7 +4224,7 @@
       <c r="F298" s="6"/>
       <c r="G298" s="7"/>
     </row>
-    <row r="299" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="6"/>
       <c r="B299" s="7"/>
       <c r="C299" s="6"/>
@@ -4149,7 +4233,7 @@
       <c r="F299" s="6"/>
       <c r="G299" s="7"/>
     </row>
-    <row r="300" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="6"/>
       <c r="B300" s="7"/>
       <c r="C300" s="6"/>
@@ -4158,7 +4242,7 @@
       <c r="F300" s="6"/>
       <c r="G300" s="7"/>
     </row>
-    <row r="301" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="6"/>
       <c r="B301" s="7"/>
       <c r="C301" s="6"/>
@@ -4167,7 +4251,7 @@
       <c r="F301" s="6"/>
       <c r="G301" s="7"/>
     </row>
-    <row r="302" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="6"/>
       <c r="B302" s="7"/>
       <c r="C302" s="6"/>
@@ -4176,7 +4260,7 @@
       <c r="F302" s="6"/>
       <c r="G302" s="7"/>
     </row>
-    <row r="303" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="6"/>
       <c r="B303" s="7"/>
       <c r="C303" s="6"/>
@@ -4185,7 +4269,7 @@
       <c r="F303" s="6"/>
       <c r="G303" s="7"/>
     </row>
-    <row r="304" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="6"/>
       <c r="B304" s="7"/>
       <c r="C304" s="6"/>
@@ -4194,7 +4278,7 @@
       <c r="F304" s="6"/>
       <c r="G304" s="7"/>
     </row>
-    <row r="305" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="6"/>
       <c r="B305" s="7"/>
       <c r="C305" s="6"/>
@@ -4203,7 +4287,7 @@
       <c r="F305" s="6"/>
       <c r="G305" s="7"/>
     </row>
-    <row r="306" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="6"/>
       <c r="B306" s="7"/>
       <c r="C306" s="6"/>
@@ -4212,7 +4296,7 @@
       <c r="F306" s="6"/>
       <c r="G306" s="7"/>
     </row>
-    <row r="307" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="6"/>
       <c r="B307" s="7"/>
       <c r="C307" s="6"/>
@@ -4221,7 +4305,7 @@
       <c r="F307" s="6"/>
       <c r="G307" s="7"/>
     </row>
-    <row r="308" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="6"/>
       <c r="B308" s="7"/>
       <c r="C308" s="6"/>
@@ -4230,7 +4314,7 @@
       <c r="F308" s="6"/>
       <c r="G308" s="7"/>
     </row>
-    <row r="309" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="6"/>
       <c r="B309" s="7"/>
       <c r="C309" s="6"/>
@@ -4239,7 +4323,7 @@
       <c r="F309" s="6"/>
       <c r="G309" s="7"/>
     </row>
-    <row r="310" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="6"/>
       <c r="B310" s="7"/>
       <c r="C310" s="6"/>
@@ -4248,7 +4332,7 @@
       <c r="F310" s="6"/>
       <c r="G310" s="7"/>
     </row>
-    <row r="311" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="6"/>
       <c r="B311" s="7"/>
       <c r="C311" s="6"/>
@@ -4257,7 +4341,7 @@
       <c r="F311" s="6"/>
       <c r="G311" s="7"/>
     </row>
-    <row r="312" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="6"/>
       <c r="B312" s="7"/>
       <c r="C312" s="6"/>
@@ -4266,7 +4350,7 @@
       <c r="F312" s="6"/>
       <c r="G312" s="7"/>
     </row>
-    <row r="313" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="6"/>
       <c r="B313" s="7"/>
       <c r="C313" s="6"/>
@@ -4275,7 +4359,7 @@
       <c r="F313" s="6"/>
       <c r="G313" s="7"/>
     </row>
-    <row r="314" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="6"/>
       <c r="B314" s="7"/>
       <c r="C314" s="6"/>
@@ -4284,7 +4368,7 @@
       <c r="F314" s="6"/>
       <c r="G314" s="7"/>
     </row>
-    <row r="315" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="6"/>
       <c r="B315" s="7"/>
       <c r="C315" s="6"/>
@@ -4293,7 +4377,7 @@
       <c r="F315" s="6"/>
       <c r="G315" s="7"/>
     </row>
-    <row r="316" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="6"/>
       <c r="B316" s="7"/>
       <c r="C316" s="6"/>
@@ -4302,7 +4386,7 @@
       <c r="F316" s="6"/>
       <c r="G316" s="7"/>
     </row>
-    <row r="317" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="6"/>
       <c r="B317" s="7"/>
       <c r="C317" s="6"/>
@@ -4311,7 +4395,7 @@
       <c r="F317" s="6"/>
       <c r="G317" s="7"/>
     </row>
-    <row r="318" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="6"/>
       <c r="B318" s="7"/>
       <c r="C318" s="6"/>
@@ -4320,7 +4404,7 @@
       <c r="F318" s="6"/>
       <c r="G318" s="7"/>
     </row>
-    <row r="319" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="6"/>
       <c r="B319" s="7"/>
       <c r="C319" s="6"/>
@@ -4329,7 +4413,7 @@
       <c r="F319" s="6"/>
       <c r="G319" s="7"/>
     </row>
-    <row r="320" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="6"/>
       <c r="B320" s="7"/>
       <c r="C320" s="6"/>
@@ -4338,7 +4422,7 @@
       <c r="F320" s="6"/>
       <c r="G320" s="7"/>
     </row>
-    <row r="321" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="6"/>
       <c r="B321" s="7"/>
       <c r="C321" s="6"/>
@@ -4347,7 +4431,7 @@
       <c r="F321" s="6"/>
       <c r="G321" s="7"/>
     </row>
-    <row r="322" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="6"/>
       <c r="B322" s="7"/>
       <c r="C322" s="6"/>
@@ -4356,7 +4440,7 @@
       <c r="F322" s="6"/>
       <c r="G322" s="7"/>
     </row>
-    <row r="323" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="6"/>
       <c r="B323" s="7"/>
       <c r="C323" s="6"/>
@@ -4365,7 +4449,7 @@
       <c r="F323" s="6"/>
       <c r="G323" s="7"/>
     </row>
-    <row r="324" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="6"/>
       <c r="B324" s="7"/>
       <c r="C324" s="6"/>
@@ -4374,7 +4458,7 @@
       <c r="F324" s="6"/>
       <c r="G324" s="7"/>
     </row>
-    <row r="325" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="6"/>
       <c r="B325" s="7"/>
       <c r="C325" s="6"/>
@@ -4383,7 +4467,7 @@
       <c r="F325" s="6"/>
       <c r="G325" s="7"/>
     </row>
-    <row r="326" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="6"/>
       <c r="B326" s="7"/>
       <c r="C326" s="6"/>
@@ -4392,7 +4476,7 @@
       <c r="F326" s="6"/>
       <c r="G326" s="7"/>
     </row>
-    <row r="327" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="6"/>
       <c r="B327" s="7"/>
       <c r="C327" s="6"/>
@@ -4401,7 +4485,7 @@
       <c r="F327" s="6"/>
       <c r="G327" s="7"/>
     </row>
-    <row r="328" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="6"/>
       <c r="B328" s="7"/>
       <c r="C328" s="6"/>
@@ -4410,7 +4494,7 @@
       <c r="F328" s="6"/>
       <c r="G328" s="7"/>
     </row>
-    <row r="329" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="6"/>
       <c r="B329" s="7"/>
       <c r="C329" s="6"/>
@@ -4419,7 +4503,7 @@
       <c r="F329" s="6"/>
       <c r="G329" s="7"/>
     </row>
-    <row r="330" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="6"/>
       <c r="B330" s="7"/>
       <c r="C330" s="6"/>
@@ -4428,7 +4512,7 @@
       <c r="F330" s="6"/>
       <c r="G330" s="7"/>
     </row>
-    <row r="331" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="6"/>
       <c r="B331" s="7"/>
       <c r="C331" s="6"/>
@@ -4437,7 +4521,7 @@
       <c r="F331" s="6"/>
       <c r="G331" s="7"/>
     </row>
-    <row r="332" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="6"/>
       <c r="B332" s="7"/>
       <c r="C332" s="6"/>
@@ -4446,7 +4530,7 @@
       <c r="F332" s="6"/>
       <c r="G332" s="7"/>
     </row>
-    <row r="333" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="6"/>
       <c r="B333" s="7"/>
       <c r="C333" s="6"/>
@@ -4455,7 +4539,7 @@
       <c r="F333" s="6"/>
       <c r="G333" s="7"/>
     </row>
-    <row r="334" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="6"/>
       <c r="B334" s="7"/>
       <c r="C334" s="6"/>
@@ -4464,7 +4548,7 @@
       <c r="F334" s="6"/>
       <c r="G334" s="7"/>
     </row>
-    <row r="335" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="6"/>
       <c r="B335" s="7"/>
       <c r="C335" s="6"/>
@@ -4473,7 +4557,7 @@
       <c r="F335" s="6"/>
       <c r="G335" s="7"/>
     </row>
-    <row r="336" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="6"/>
       <c r="B336" s="7"/>
       <c r="C336" s="6"/>
@@ -4482,7 +4566,7 @@
       <c r="F336" s="6"/>
       <c r="G336" s="7"/>
     </row>
-    <row r="337" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="6"/>
       <c r="B337" s="7"/>
       <c r="C337" s="6"/>
@@ -4491,7 +4575,7 @@
       <c r="F337" s="6"/>
       <c r="G337" s="7"/>
     </row>
-    <row r="338" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="6"/>
       <c r="B338" s="7"/>
       <c r="C338" s="6"/>
@@ -4500,7 +4584,7 @@
       <c r="F338" s="6"/>
       <c r="G338" s="7"/>
     </row>
-    <row r="339" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="6"/>
       <c r="B339" s="7"/>
       <c r="C339" s="6"/>
@@ -4509,7 +4593,7 @@
       <c r="F339" s="6"/>
       <c r="G339" s="7"/>
     </row>
-    <row r="340" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="6"/>
       <c r="B340" s="7"/>
       <c r="C340" s="6"/>
@@ -4518,7 +4602,7 @@
       <c r="F340" s="6"/>
       <c r="G340" s="7"/>
     </row>
-    <row r="341" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="6"/>
       <c r="B341" s="7"/>
       <c r="C341" s="6"/>
@@ -4527,7 +4611,7 @@
       <c r="F341" s="6"/>
       <c r="G341" s="7"/>
     </row>
-    <row r="342" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="6"/>
       <c r="B342" s="7"/>
       <c r="C342" s="6"/>
@@ -4536,7 +4620,7 @@
       <c r="F342" s="6"/>
       <c r="G342" s="7"/>
     </row>
-    <row r="343" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="6"/>
       <c r="B343" s="7"/>
       <c r="C343" s="6"/>
@@ -4545,7 +4629,7 @@
       <c r="F343" s="6"/>
       <c r="G343" s="7"/>
     </row>
-    <row r="344" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="6"/>
       <c r="B344" s="7"/>
       <c r="C344" s="6"/>
@@ -4554,7 +4638,7 @@
       <c r="F344" s="6"/>
       <c r="G344" s="7"/>
     </row>
-    <row r="345" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="6"/>
       <c r="B345" s="7"/>
       <c r="C345" s="6"/>
@@ -4563,7 +4647,7 @@
       <c r="F345" s="6"/>
       <c r="G345" s="7"/>
     </row>
-    <row r="346" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="6"/>
       <c r="B346" s="7"/>
       <c r="C346" s="6"/>
@@ -4572,7 +4656,7 @@
       <c r="F346" s="6"/>
       <c r="G346" s="7"/>
     </row>
-    <row r="347" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="6"/>
       <c r="B347" s="7"/>
       <c r="C347" s="6"/>
@@ -4581,7 +4665,7 @@
       <c r="F347" s="6"/>
       <c r="G347" s="7"/>
     </row>
-    <row r="348" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="6"/>
       <c r="B348" s="7"/>
       <c r="C348" s="6"/>
@@ -4590,7 +4674,7 @@
       <c r="F348" s="6"/>
       <c r="G348" s="7"/>
     </row>
-    <row r="349" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="6"/>
       <c r="B349" s="7"/>
       <c r="C349" s="6"/>
@@ -4599,7 +4683,7 @@
       <c r="F349" s="6"/>
       <c r="G349" s="7"/>
     </row>
-    <row r="350" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="6"/>
       <c r="B350" s="7"/>
       <c r="C350" s="6"/>
@@ -4608,7 +4692,7 @@
       <c r="F350" s="6"/>
       <c r="G350" s="7"/>
     </row>
-    <row r="351" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="6"/>
       <c r="B351" s="7"/>
       <c r="C351" s="6"/>
@@ -4617,7 +4701,7 @@
       <c r="F351" s="6"/>
       <c r="G351" s="7"/>
     </row>
-    <row r="352" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="6"/>
       <c r="B352" s="7"/>
       <c r="C352" s="6"/>
@@ -4626,7 +4710,7 @@
       <c r="F352" s="6"/>
       <c r="G352" s="7"/>
     </row>
-    <row r="353" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="6"/>
       <c r="B353" s="7"/>
       <c r="C353" s="6"/>
@@ -4635,7 +4719,7 @@
       <c r="F353" s="6"/>
       <c r="G353" s="7"/>
     </row>
-    <row r="354" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="6"/>
       <c r="B354" s="7"/>
       <c r="C354" s="6"/>
@@ -4644,7 +4728,7 @@
       <c r="F354" s="6"/>
       <c r="G354" s="7"/>
     </row>
-    <row r="355" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="6"/>
       <c r="B355" s="7"/>
       <c r="C355" s="6"/>
@@ -4653,7 +4737,7 @@
       <c r="F355" s="6"/>
       <c r="G355" s="7"/>
     </row>
-    <row r="356" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="6"/>
       <c r="B356" s="7"/>
       <c r="C356" s="6"/>
@@ -4662,7 +4746,7 @@
       <c r="F356" s="6"/>
       <c r="G356" s="7"/>
     </row>
-    <row r="357" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="6"/>
       <c r="B357" s="7"/>
       <c r="C357" s="6"/>
@@ -4671,7 +4755,7 @@
       <c r="F357" s="6"/>
       <c r="G357" s="7"/>
     </row>
-    <row r="358" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="6"/>
       <c r="B358" s="7"/>
       <c r="C358" s="6"/>
@@ -4680,7 +4764,7 @@
       <c r="F358" s="6"/>
       <c r="G358" s="7"/>
     </row>
-    <row r="359" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="6"/>
       <c r="B359" s="7"/>
       <c r="C359" s="6"/>
@@ -4689,7 +4773,7 @@
       <c r="F359" s="6"/>
       <c r="G359" s="7"/>
     </row>
-    <row r="360" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="6"/>
       <c r="B360" s="7"/>
       <c r="C360" s="6"/>
@@ -4698,7 +4782,7 @@
       <c r="F360" s="6"/>
       <c r="G360" s="7"/>
     </row>
-    <row r="361" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="6"/>
       <c r="B361" s="7"/>
       <c r="C361" s="6"/>
@@ -4707,7 +4791,7 @@
       <c r="F361" s="6"/>
       <c r="G361" s="7"/>
     </row>
-    <row r="362" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="6"/>
       <c r="B362" s="7"/>
       <c r="C362" s="6"/>
@@ -4716,7 +4800,7 @@
       <c r="F362" s="6"/>
       <c r="G362" s="7"/>
     </row>
-    <row r="363" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="6"/>
       <c r="B363" s="7"/>
       <c r="C363" s="6"/>
@@ -4725,7 +4809,7 @@
       <c r="F363" s="6"/>
       <c r="G363" s="7"/>
     </row>
-    <row r="364" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="6"/>
       <c r="B364" s="7"/>
       <c r="C364" s="6"/>
@@ -4734,7 +4818,7 @@
       <c r="F364" s="6"/>
       <c r="G364" s="7"/>
     </row>
-    <row r="365" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="6"/>
       <c r="B365" s="7"/>
       <c r="C365" s="6"/>
@@ -4743,7 +4827,7 @@
       <c r="F365" s="6"/>
       <c r="G365" s="7"/>
     </row>
-    <row r="366" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="6"/>
       <c r="B366" s="7"/>
       <c r="C366" s="6"/>
@@ -4752,7 +4836,7 @@
       <c r="F366" s="6"/>
       <c r="G366" s="7"/>
     </row>
-    <row r="367" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="6"/>
       <c r="B367" s="7"/>
       <c r="C367" s="6"/>
@@ -4761,7 +4845,7 @@
       <c r="F367" s="6"/>
       <c r="G367" s="7"/>
     </row>
-    <row r="368" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="6"/>
       <c r="B368" s="7"/>
       <c r="C368" s="6"/>
@@ -4770,7 +4854,7 @@
       <c r="F368" s="6"/>
       <c r="G368" s="7"/>
     </row>
-    <row r="369" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="6"/>
       <c r="B369" s="7"/>
       <c r="C369" s="6"/>
@@ -4779,7 +4863,7 @@
       <c r="F369" s="6"/>
       <c r="G369" s="7"/>
     </row>
-    <row r="370" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="6"/>
       <c r="B370" s="7"/>
       <c r="C370" s="6"/>
@@ -4788,7 +4872,7 @@
       <c r="F370" s="6"/>
       <c r="G370" s="7"/>
     </row>
-    <row r="371" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="6"/>
       <c r="B371" s="7"/>
       <c r="C371" s="6"/>
@@ -4797,7 +4881,7 @@
       <c r="F371" s="6"/>
       <c r="G371" s="7"/>
     </row>
-    <row r="372" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="6"/>
       <c r="B372" s="7"/>
       <c r="C372" s="6"/>
@@ -4806,7 +4890,7 @@
       <c r="F372" s="6"/>
       <c r="G372" s="7"/>
     </row>
-    <row r="373" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="6"/>
       <c r="B373" s="7"/>
       <c r="C373" s="6"/>
@@ -4815,7 +4899,7 @@
       <c r="F373" s="6"/>
       <c r="G373" s="7"/>
     </row>
-    <row r="374" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="6"/>
       <c r="B374" s="7"/>
       <c r="C374" s="6"/>
@@ -4824,7 +4908,7 @@
       <c r="F374" s="6"/>
       <c r="G374" s="7"/>
     </row>
-    <row r="375" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="6"/>
       <c r="B375" s="7"/>
       <c r="C375" s="6"/>
@@ -4833,7 +4917,7 @@
       <c r="F375" s="6"/>
       <c r="G375" s="7"/>
     </row>
-    <row r="376" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="6"/>
       <c r="B376" s="7"/>
       <c r="C376" s="6"/>
@@ -4842,7 +4926,7 @@
       <c r="F376" s="6"/>
       <c r="G376" s="7"/>
     </row>
-    <row r="377" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="6"/>
       <c r="B377" s="7"/>
       <c r="C377" s="6"/>
@@ -4851,7 +4935,7 @@
       <c r="F377" s="6"/>
       <c r="G377" s="7"/>
     </row>
-    <row r="378" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="6"/>
       <c r="B378" s="7"/>
       <c r="C378" s="6"/>
@@ -4860,7 +4944,7 @@
       <c r="F378" s="6"/>
       <c r="G378" s="7"/>
     </row>
-    <row r="379" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="6"/>
       <c r="B379" s="7"/>
       <c r="C379" s="6"/>
@@ -4869,7 +4953,7 @@
       <c r="F379" s="6"/>
       <c r="G379" s="7"/>
     </row>
-    <row r="380" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="6"/>
       <c r="B380" s="7"/>
       <c r="C380" s="6"/>
@@ -4878,7 +4962,7 @@
       <c r="F380" s="6"/>
       <c r="G380" s="7"/>
     </row>
-    <row r="381" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="6"/>
       <c r="B381" s="7"/>
       <c r="C381" s="6"/>
@@ -4887,7 +4971,7 @@
       <c r="F381" s="6"/>
       <c r="G381" s="7"/>
     </row>
-    <row r="382" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="6"/>
       <c r="B382" s="7"/>
       <c r="C382" s="6"/>
@@ -4896,7 +4980,7 @@
       <c r="F382" s="6"/>
       <c r="G382" s="7"/>
     </row>
-    <row r="383" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="6"/>
       <c r="B383" s="7"/>
       <c r="C383" s="6"/>
@@ -4905,7 +4989,7 @@
       <c r="F383" s="6"/>
       <c r="G383" s="7"/>
     </row>
-    <row r="384" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="6"/>
       <c r="B384" s="7"/>
       <c r="C384" s="6"/>
@@ -4914,7 +4998,7 @@
       <c r="F384" s="6"/>
       <c r="G384" s="7"/>
     </row>
-    <row r="385" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="6"/>
       <c r="B385" s="7"/>
       <c r="C385" s="6"/>
@@ -4923,7 +5007,7 @@
       <c r="F385" s="6"/>
       <c r="G385" s="7"/>
     </row>
-    <row r="386" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="6"/>
       <c r="B386" s="7"/>
       <c r="C386" s="6"/>
@@ -4932,7 +5016,7 @@
       <c r="F386" s="6"/>
       <c r="G386" s="7"/>
     </row>
-    <row r="387" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="6"/>
       <c r="B387" s="7"/>
       <c r="C387" s="6"/>
@@ -4941,7 +5025,7 @@
       <c r="F387" s="6"/>
       <c r="G387" s="7"/>
     </row>
-    <row r="388" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="6"/>
       <c r="B388" s="7"/>
       <c r="C388" s="6"/>
@@ -4950,7 +5034,7 @@
       <c r="F388" s="6"/>
       <c r="G388" s="7"/>
     </row>
-    <row r="389" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="6"/>
       <c r="B389" s="7"/>
       <c r="C389" s="6"/>
@@ -4959,7 +5043,7 @@
       <c r="F389" s="6"/>
       <c r="G389" s="7"/>
     </row>
-    <row r="390" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="6"/>
       <c r="B390" s="7"/>
       <c r="C390" s="6"/>
@@ -4968,7 +5052,7 @@
       <c r="F390" s="6"/>
       <c r="G390" s="7"/>
     </row>
-    <row r="391" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="6"/>
       <c r="B391" s="7"/>
       <c r="C391" s="6"/>
@@ -4977,7 +5061,7 @@
       <c r="F391" s="6"/>
       <c r="G391" s="7"/>
     </row>
-    <row r="392" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="6"/>
       <c r="B392" s="7"/>
       <c r="C392" s="6"/>
@@ -4986,7 +5070,7 @@
       <c r="F392" s="6"/>
       <c r="G392" s="7"/>
     </row>
-    <row r="393" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="6"/>
       <c r="B393" s="7"/>
       <c r="C393" s="6"/>
@@ -4995,7 +5079,7 @@
       <c r="F393" s="6"/>
       <c r="G393" s="7"/>
     </row>
-    <row r="394" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="6"/>
       <c r="B394" s="7"/>
       <c r="C394" s="6"/>
@@ -5004,7 +5088,7 @@
       <c r="F394" s="6"/>
       <c r="G394" s="7"/>
     </row>
-    <row r="395" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="6"/>
       <c r="B395" s="7"/>
       <c r="C395" s="6"/>
@@ -5013,7 +5097,7 @@
       <c r="F395" s="6"/>
       <c r="G395" s="7"/>
     </row>
-    <row r="396" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="6"/>
       <c r="B396" s="7"/>
       <c r="C396" s="6"/>
@@ -5022,7 +5106,7 @@
       <c r="F396" s="6"/>
       <c r="G396" s="7"/>
     </row>
-    <row r="397" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="6"/>
       <c r="B397" s="7"/>
       <c r="C397" s="6"/>
@@ -5031,7 +5115,7 @@
       <c r="F397" s="6"/>
       <c r="G397" s="7"/>
     </row>
-    <row r="398" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="6"/>
       <c r="B398" s="7"/>
       <c r="C398" s="6"/>
@@ -5040,7 +5124,7 @@
       <c r="F398" s="6"/>
       <c r="G398" s="7"/>
     </row>
-    <row r="399" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="6"/>
       <c r="B399" s="7"/>
       <c r="C399" s="6"/>
@@ -5049,7 +5133,7 @@
       <c r="F399" s="6"/>
       <c r="G399" s="7"/>
     </row>
-    <row r="400" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="6"/>
       <c r="B400" s="7"/>
       <c r="C400" s="6"/>
@@ -5058,7 +5142,7 @@
       <c r="F400" s="6"/>
       <c r="G400" s="7"/>
     </row>
-    <row r="401" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="6"/>
       <c r="B401" s="7"/>
       <c r="C401" s="6"/>
@@ -5067,7 +5151,7 @@
       <c r="F401" s="6"/>
       <c r="G401" s="7"/>
     </row>
-    <row r="402" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="6"/>
       <c r="B402" s="7"/>
       <c r="C402" s="6"/>
@@ -5076,7 +5160,7 @@
       <c r="F402" s="6"/>
       <c r="G402" s="7"/>
     </row>
-    <row r="403" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="6"/>
       <c r="B403" s="7"/>
       <c r="C403" s="6"/>
@@ -5085,7 +5169,7 @@
       <c r="F403" s="6"/>
       <c r="G403" s="7"/>
     </row>
-    <row r="404" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="6"/>
       <c r="B404" s="7"/>
       <c r="C404" s="6"/>
@@ -5094,7 +5178,7 @@
       <c r="F404" s="6"/>
       <c r="G404" s="7"/>
     </row>
-    <row r="405" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="6"/>
       <c r="B405" s="7"/>
       <c r="C405" s="6"/>
@@ -5103,7 +5187,7 @@
       <c r="F405" s="6"/>
       <c r="G405" s="7"/>
     </row>
-    <row r="406" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="6"/>
       <c r="B406" s="7"/>
       <c r="C406" s="6"/>
@@ -5112,7 +5196,7 @@
       <c r="F406" s="6"/>
       <c r="G406" s="7"/>
     </row>
-    <row r="407" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="6"/>
       <c r="B407" s="7"/>
       <c r="C407" s="6"/>
@@ -5121,7 +5205,7 @@
       <c r="F407" s="6"/>
       <c r="G407" s="7"/>
     </row>
-    <row r="408" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="6"/>
       <c r="B408" s="7"/>
       <c r="C408" s="6"/>
@@ -5130,7 +5214,7 @@
       <c r="F408" s="6"/>
       <c r="G408" s="7"/>
     </row>
-    <row r="409" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="6"/>
       <c r="B409" s="7"/>
       <c r="C409" s="6"/>
@@ -5139,7 +5223,7 @@
       <c r="F409" s="6"/>
       <c r="G409" s="7"/>
     </row>
-    <row r="410" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="6"/>
       <c r="B410" s="7"/>
       <c r="C410" s="6"/>
@@ -5148,7 +5232,7 @@
       <c r="F410" s="6"/>
       <c r="G410" s="7"/>
     </row>
-    <row r="411" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="6"/>
       <c r="B411" s="7"/>
       <c r="C411" s="6"/>
@@ -5157,7 +5241,7 @@
       <c r="F411" s="6"/>
       <c r="G411" s="7"/>
     </row>
-    <row r="412" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="6"/>
       <c r="B412" s="7"/>
       <c r="C412" s="6"/>
@@ -5166,7 +5250,7 @@
       <c r="F412" s="6"/>
       <c r="G412" s="7"/>
     </row>
-    <row r="413" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="6"/>
       <c r="B413" s="7"/>
       <c r="C413" s="6"/>
@@ -5175,7 +5259,7 @@
       <c r="F413" s="6"/>
       <c r="G413" s="7"/>
     </row>
-    <row r="414" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="6"/>
       <c r="B414" s="7"/>
       <c r="C414" s="6"/>
@@ -5184,7 +5268,7 @@
       <c r="F414" s="6"/>
       <c r="G414" s="7"/>
     </row>
-    <row r="415" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="6"/>
       <c r="B415" s="7"/>
       <c r="C415" s="6"/>
@@ -5193,7 +5277,7 @@
       <c r="F415" s="6"/>
       <c r="G415" s="7"/>
     </row>
-    <row r="416" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="6"/>
       <c r="B416" s="7"/>
       <c r="C416" s="6"/>
@@ -5202,7 +5286,7 @@
       <c r="F416" s="6"/>
       <c r="G416" s="7"/>
     </row>
-    <row r="417" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="6"/>
       <c r="B417" s="7"/>
       <c r="C417" s="6"/>
@@ -5211,7 +5295,7 @@
       <c r="F417" s="6"/>
       <c r="G417" s="7"/>
     </row>
-    <row r="418" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="6"/>
       <c r="B418" s="7"/>
       <c r="C418" s="6"/>
@@ -5220,7 +5304,7 @@
       <c r="F418" s="6"/>
       <c r="G418" s="7"/>
     </row>
-    <row r="419" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="6"/>
       <c r="B419" s="7"/>
       <c r="C419" s="6"/>
@@ -5229,7 +5313,7 @@
       <c r="F419" s="6"/>
       <c r="G419" s="7"/>
     </row>
-    <row r="420" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="6"/>
       <c r="B420" s="7"/>
       <c r="C420" s="6"/>
@@ -5238,7 +5322,7 @@
       <c r="F420" s="6"/>
       <c r="G420" s="7"/>
     </row>
-    <row r="421" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="6"/>
       <c r="B421" s="7"/>
       <c r="C421" s="6"/>
@@ -5247,7 +5331,7 @@
       <c r="F421" s="6"/>
       <c r="G421" s="7"/>
     </row>
-    <row r="422" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="6"/>
       <c r="B422" s="7"/>
       <c r="C422" s="6"/>
@@ -5256,7 +5340,7 @@
       <c r="F422" s="6"/>
       <c r="G422" s="7"/>
     </row>
-    <row r="423" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="6"/>
       <c r="B423" s="7"/>
       <c r="C423" s="6"/>
@@ -5265,7 +5349,7 @@
       <c r="F423" s="6"/>
       <c r="G423" s="7"/>
     </row>
-    <row r="424" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="6"/>
       <c r="B424" s="7"/>
       <c r="C424" s="6"/>
@@ -5274,7 +5358,7 @@
       <c r="F424" s="6"/>
       <c r="G424" s="7"/>
     </row>
-    <row r="425" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="6"/>
       <c r="B425" s="7"/>
       <c r="C425" s="6"/>
@@ -5283,7 +5367,7 @@
       <c r="F425" s="6"/>
       <c r="G425" s="7"/>
     </row>
-    <row r="426" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="6"/>
       <c r="B426" s="7"/>
       <c r="C426" s="6"/>
@@ -5292,7 +5376,7 @@
       <c r="F426" s="6"/>
       <c r="G426" s="7"/>
     </row>
-    <row r="427" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="6"/>
       <c r="B427" s="7"/>
       <c r="C427" s="6"/>
@@ -5301,7 +5385,7 @@
       <c r="F427" s="6"/>
       <c r="G427" s="7"/>
     </row>
-    <row r="428" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="6"/>
       <c r="B428" s="7"/>
       <c r="C428" s="6"/>
@@ -5310,7 +5394,7 @@
       <c r="F428" s="6"/>
       <c r="G428" s="7"/>
     </row>
-    <row r="429" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="6"/>
       <c r="B429" s="7"/>
       <c r="C429" s="6"/>
@@ -5319,7 +5403,7 @@
       <c r="F429" s="6"/>
       <c r="G429" s="7"/>
     </row>
-    <row r="430" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="6"/>
       <c r="B430" s="7"/>
       <c r="C430" s="6"/>
@@ -5328,7 +5412,7 @@
       <c r="F430" s="6"/>
       <c r="G430" s="7"/>
     </row>
-    <row r="431" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="6"/>
       <c r="B431" s="7"/>
       <c r="C431" s="6"/>
@@ -5337,7 +5421,7 @@
       <c r="F431" s="6"/>
       <c r="G431" s="7"/>
     </row>
-    <row r="432" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="6"/>
       <c r="B432" s="7"/>
       <c r="C432" s="6"/>
@@ -5346,7 +5430,7 @@
       <c r="F432" s="6"/>
       <c r="G432" s="7"/>
     </row>
-    <row r="433" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="6"/>
       <c r="B433" s="7"/>
       <c r="C433" s="6"/>
@@ -5355,7 +5439,7 @@
       <c r="F433" s="6"/>
       <c r="G433" s="7"/>
     </row>
-    <row r="434" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="6"/>
       <c r="B434" s="7"/>
       <c r="C434" s="6"/>
@@ -5364,7 +5448,7 @@
       <c r="F434" s="6"/>
       <c r="G434" s="7"/>
     </row>
-    <row r="435" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="6"/>
       <c r="B435" s="7"/>
       <c r="C435" s="6"/>
@@ -5373,7 +5457,7 @@
       <c r="F435" s="6"/>
       <c r="G435" s="7"/>
     </row>
-    <row r="436" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="6"/>
       <c r="B436" s="7"/>
       <c r="C436" s="6"/>
@@ -5382,7 +5466,7 @@
       <c r="F436" s="6"/>
       <c r="G436" s="7"/>
     </row>
-    <row r="437" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="6"/>
       <c r="B437" s="7"/>
       <c r="C437" s="6"/>
@@ -5391,7 +5475,7 @@
       <c r="F437" s="6"/>
       <c r="G437" s="7"/>
     </row>
-    <row r="438" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="6"/>
       <c r="B438" s="7"/>
       <c r="C438" s="6"/>
@@ -5400,7 +5484,7 @@
       <c r="F438" s="6"/>
       <c r="G438" s="7"/>
     </row>
-    <row r="439" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="6"/>
       <c r="B439" s="7"/>
       <c r="C439" s="6"/>
@@ -5409,7 +5493,7 @@
       <c r="F439" s="6"/>
       <c r="G439" s="7"/>
     </row>
-    <row r="440" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="6"/>
       <c r="B440" s="7"/>
       <c r="C440" s="6"/>
@@ -5418,7 +5502,7 @@
       <c r="F440" s="6"/>
       <c r="G440" s="7"/>
     </row>
-    <row r="441" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="6"/>
       <c r="B441" s="7"/>
       <c r="C441" s="6"/>
@@ -5427,7 +5511,7 @@
       <c r="F441" s="6"/>
       <c r="G441" s="7"/>
     </row>
-    <row r="442" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="6"/>
       <c r="B442" s="7"/>
       <c r="C442" s="6"/>
@@ -5436,7 +5520,7 @@
       <c r="F442" s="6"/>
       <c r="G442" s="7"/>
     </row>
-    <row r="443" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="6"/>
       <c r="B443" s="7"/>
       <c r="C443" s="6"/>
@@ -5445,7 +5529,7 @@
       <c r="F443" s="6"/>
       <c r="G443" s="7"/>
     </row>
-    <row r="444" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="6"/>
       <c r="B444" s="7"/>
       <c r="C444" s="6"/>
@@ -5454,7 +5538,7 @@
       <c r="F444" s="6"/>
       <c r="G444" s="7"/>
     </row>
-    <row r="445" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="6"/>
       <c r="B445" s="7"/>
       <c r="C445" s="6"/>
@@ -5463,7 +5547,7 @@
       <c r="F445" s="6"/>
       <c r="G445" s="7"/>
     </row>
-    <row r="446" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="6"/>
       <c r="B446" s="7"/>
       <c r="C446" s="6"/>
@@ -5472,7 +5556,7 @@
       <c r="F446" s="6"/>
       <c r="G446" s="7"/>
     </row>
-    <row r="447" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="6"/>
       <c r="B447" s="7"/>
       <c r="C447" s="6"/>
@@ -5481,7 +5565,7 @@
       <c r="F447" s="6"/>
       <c r="G447" s="7"/>
     </row>
-    <row r="448" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="6"/>
       <c r="B448" s="7"/>
       <c r="C448" s="6"/>
@@ -5490,7 +5574,7 @@
       <c r="F448" s="6"/>
       <c r="G448" s="7"/>
     </row>
-    <row r="449" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="6"/>
       <c r="B449" s="7"/>
       <c r="C449" s="6"/>
@@ -5499,7 +5583,7 @@
       <c r="F449" s="6"/>
       <c r="G449" s="7"/>
     </row>
-    <row r="450" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="6"/>
       <c r="B450" s="7"/>
       <c r="C450" s="6"/>
@@ -5508,7 +5592,7 @@
       <c r="F450" s="6"/>
       <c r="G450" s="7"/>
     </row>
-    <row r="451" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="6"/>
       <c r="B451" s="7"/>
       <c r="C451" s="6"/>
@@ -5517,7 +5601,7 @@
       <c r="F451" s="6"/>
       <c r="G451" s="7"/>
     </row>
-    <row r="452" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="6"/>
       <c r="B452" s="7"/>
       <c r="C452" s="6"/>
@@ -5526,7 +5610,7 @@
       <c r="F452" s="6"/>
       <c r="G452" s="7"/>
     </row>
-    <row r="453" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="6"/>
       <c r="B453" s="7"/>
       <c r="C453" s="6"/>
@@ -5535,7 +5619,7 @@
       <c r="F453" s="6"/>
       <c r="G453" s="7"/>
     </row>
-    <row r="454" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="6"/>
       <c r="B454" s="7"/>
       <c r="C454" s="6"/>
@@ -5544,7 +5628,7 @@
       <c r="F454" s="6"/>
       <c r="G454" s="7"/>
     </row>
-    <row r="455" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="6"/>
       <c r="B455" s="7"/>
       <c r="C455" s="6"/>
@@ -5553,7 +5637,7 @@
       <c r="F455" s="6"/>
       <c r="G455" s="7"/>
     </row>
-    <row r="456" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="6"/>
       <c r="B456" s="7"/>
       <c r="C456" s="6"/>
@@ -5562,7 +5646,7 @@
       <c r="F456" s="6"/>
       <c r="G456" s="7"/>
     </row>
-    <row r="457" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="6"/>
       <c r="B457" s="7"/>
       <c r="C457" s="6"/>
@@ -5571,7 +5655,7 @@
       <c r="F457" s="6"/>
       <c r="G457" s="7"/>
     </row>
-    <row r="458" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="6"/>
       <c r="B458" s="7"/>
       <c r="C458" s="6"/>
@@ -5580,7 +5664,7 @@
       <c r="F458" s="6"/>
       <c r="G458" s="7"/>
     </row>
-    <row r="459" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="6"/>
       <c r="B459" s="7"/>
       <c r="C459" s="6"/>
@@ -5589,7 +5673,7 @@
       <c r="F459" s="6"/>
       <c r="G459" s="7"/>
     </row>
-    <row r="460" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="6"/>
       <c r="B460" s="7"/>
       <c r="C460" s="6"/>
@@ -5598,7 +5682,7 @@
       <c r="F460" s="6"/>
       <c r="G460" s="7"/>
     </row>
-    <row r="461" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="6"/>
       <c r="B461" s="7"/>
       <c r="C461" s="6"/>
@@ -5607,7 +5691,7 @@
       <c r="F461" s="6"/>
       <c r="G461" s="7"/>
     </row>
-    <row r="462" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="6"/>
       <c r="B462" s="7"/>
       <c r="C462" s="6"/>
@@ -5616,7 +5700,7 @@
       <c r="F462" s="6"/>
       <c r="G462" s="7"/>
     </row>
-    <row r="463" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="6"/>
       <c r="B463" s="7"/>
       <c r="C463" s="6"/>
@@ -5625,7 +5709,7 @@
       <c r="F463" s="6"/>
       <c r="G463" s="7"/>
     </row>
-    <row r="464" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="6"/>
       <c r="B464" s="7"/>
       <c r="C464" s="6"/>
@@ -5634,7 +5718,7 @@
       <c r="F464" s="6"/>
       <c r="G464" s="7"/>
     </row>
-    <row r="465" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="6"/>
       <c r="B465" s="7"/>
       <c r="C465" s="6"/>
@@ -5643,7 +5727,7 @@
       <c r="F465" s="6"/>
       <c r="G465" s="7"/>
     </row>
-    <row r="466" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="6"/>
       <c r="B466" s="7"/>
       <c r="C466" s="6"/>
@@ -5652,7 +5736,7 @@
       <c r="F466" s="6"/>
       <c r="G466" s="7"/>
     </row>
-    <row r="467" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="6"/>
       <c r="B467" s="7"/>
       <c r="C467" s="6"/>
@@ -5661,7 +5745,7 @@
       <c r="F467" s="6"/>
       <c r="G467" s="7"/>
     </row>
-    <row r="468" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="6"/>
       <c r="B468" s="7"/>
       <c r="C468" s="6"/>
@@ -5670,7 +5754,7 @@
       <c r="F468" s="6"/>
       <c r="G468" s="7"/>
     </row>
-    <row r="469" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="6"/>
       <c r="B469" s="7"/>
       <c r="C469" s="6"/>
@@ -5679,7 +5763,7 @@
       <c r="F469" s="6"/>
       <c r="G469" s="7"/>
     </row>
-    <row r="470" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="6"/>
       <c r="B470" s="7"/>
       <c r="C470" s="6"/>
@@ -5688,7 +5772,7 @@
       <c r="F470" s="6"/>
       <c r="G470" s="7"/>
     </row>
-    <row r="471" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="6"/>
       <c r="B471" s="7"/>
       <c r="C471" s="6"/>
@@ -5697,7 +5781,7 @@
       <c r="F471" s="6"/>
       <c r="G471" s="7"/>
     </row>
-    <row r="472" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="6"/>
       <c r="B472" s="7"/>
       <c r="C472" s="6"/>
@@ -5706,7 +5790,7 @@
       <c r="F472" s="6"/>
       <c r="G472" s="7"/>
     </row>
-    <row r="473" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="6"/>
       <c r="B473" s="7"/>
       <c r="C473" s="6"/>
@@ -5715,7 +5799,7 @@
       <c r="F473" s="6"/>
       <c r="G473" s="7"/>
     </row>
-    <row r="474" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="6"/>
       <c r="B474" s="7"/>
       <c r="C474" s="6"/>
@@ -5724,7 +5808,7 @@
       <c r="F474" s="6"/>
       <c r="G474" s="7"/>
     </row>
-    <row r="475" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="6"/>
       <c r="B475" s="7"/>
       <c r="C475" s="6"/>
@@ -5733,7 +5817,7 @@
       <c r="F475" s="6"/>
       <c r="G475" s="7"/>
     </row>
-    <row r="476" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="6"/>
       <c r="B476" s="7"/>
       <c r="C476" s="6"/>
@@ -5742,7 +5826,7 @@
       <c r="F476" s="6"/>
       <c r="G476" s="7"/>
     </row>
-    <row r="477" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="6"/>
       <c r="B477" s="7"/>
       <c r="C477" s="6"/>
@@ -5751,7 +5835,7 @@
       <c r="F477" s="6"/>
       <c r="G477" s="7"/>
     </row>
-    <row r="478" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="6"/>
       <c r="B478" s="7"/>
       <c r="C478" s="6"/>
@@ -5760,7 +5844,7 @@
       <c r="F478" s="6"/>
       <c r="G478" s="7"/>
     </row>
-    <row r="479" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="6"/>
       <c r="B479" s="7"/>
       <c r="C479" s="6"/>
@@ -5769,7 +5853,7 @@
       <c r="F479" s="6"/>
       <c r="G479" s="7"/>
     </row>
-    <row r="480" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="6"/>
       <c r="B480" s="7"/>
       <c r="C480" s="6"/>
@@ -5778,7 +5862,7 @@
       <c r="F480" s="6"/>
       <c r="G480" s="7"/>
     </row>
-    <row r="481" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="6"/>
       <c r="B481" s="7"/>
       <c r="C481" s="6"/>
@@ -5787,7 +5871,7 @@
       <c r="F481" s="6"/>
       <c r="G481" s="7"/>
     </row>
-    <row r="482" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="6"/>
       <c r="B482" s="7"/>
       <c r="C482" s="6"/>
@@ -5796,7 +5880,7 @@
       <c r="F482" s="6"/>
       <c r="G482" s="7"/>
     </row>
-    <row r="483" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="6"/>
       <c r="B483" s="7"/>
       <c r="C483" s="6"/>
@@ -5805,7 +5889,7 @@
       <c r="F483" s="6"/>
       <c r="G483" s="7"/>
     </row>
-    <row r="484" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="6"/>
       <c r="B484" s="7"/>
       <c r="C484" s="6"/>
@@ -5814,7 +5898,7 @@
       <c r="F484" s="6"/>
       <c r="G484" s="7"/>
     </row>
-    <row r="485" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="6"/>
       <c r="B485" s="7"/>
       <c r="C485" s="6"/>
@@ -5823,7 +5907,7 @@
       <c r="F485" s="6"/>
       <c r="G485" s="7"/>
     </row>
-    <row r="486" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="6"/>
       <c r="B486" s="7"/>
       <c r="C486" s="6"/>
@@ -5832,7 +5916,7 @@
       <c r="F486" s="6"/>
       <c r="G486" s="7"/>
     </row>
-    <row r="487" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="6"/>
       <c r="B487" s="7"/>
       <c r="C487" s="6"/>
@@ -5841,7 +5925,7 @@
       <c r="F487" s="6"/>
       <c r="G487" s="7"/>
     </row>
-    <row r="488" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="6"/>
       <c r="B488" s="7"/>
       <c r="C488" s="6"/>
@@ -5850,7 +5934,7 @@
       <c r="F488" s="6"/>
       <c r="G488" s="7"/>
     </row>
-    <row r="489" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="6"/>
       <c r="B489" s="7"/>
       <c r="C489" s="6"/>
@@ -5859,7 +5943,7 @@
       <c r="F489" s="6"/>
       <c r="G489" s="7"/>
     </row>
-    <row r="490" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="6"/>
       <c r="B490" s="7"/>
       <c r="C490" s="6"/>
@@ -5868,7 +5952,7 @@
       <c r="F490" s="6"/>
       <c r="G490" s="7"/>
     </row>
-    <row r="491" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="6"/>
       <c r="B491" s="7"/>
       <c r="C491" s="6"/>
@@ -5877,7 +5961,7 @@
       <c r="F491" s="6"/>
       <c r="G491" s="7"/>
     </row>
-    <row r="492" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="6"/>
       <c r="B492" s="7"/>
       <c r="C492" s="6"/>
@@ -5886,7 +5970,7 @@
       <c r="F492" s="6"/>
       <c r="G492" s="7"/>
     </row>
-    <row r="493" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="6"/>
       <c r="B493" s="7"/>
       <c r="C493" s="6"/>
@@ -5895,7 +5979,7 @@
       <c r="F493" s="6"/>
       <c r="G493" s="7"/>
     </row>
-    <row r="494" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="6"/>
       <c r="B494" s="7"/>
       <c r="C494" s="6"/>
@@ -5904,7 +5988,7 @@
       <c r="F494" s="6"/>
       <c r="G494" s="7"/>
     </row>
-    <row r="495" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="6"/>
       <c r="B495" s="7"/>
       <c r="C495" s="6"/>
@@ -5913,7 +5997,7 @@
       <c r="F495" s="6"/>
       <c r="G495" s="7"/>
     </row>
-    <row r="496" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="6"/>
       <c r="B496" s="7"/>
       <c r="C496" s="6"/>
@@ -5922,7 +6006,7 @@
       <c r="F496" s="6"/>
       <c r="G496" s="7"/>
     </row>
-    <row r="497" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="6"/>
       <c r="B497" s="7"/>
       <c r="C497" s="6"/>
@@ -5931,7 +6015,7 @@
       <c r="F497" s="6"/>
       <c r="G497" s="7"/>
     </row>
-    <row r="498" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="6"/>
       <c r="B498" s="7"/>
       <c r="C498" s="6"/>
@@ -5940,7 +6024,7 @@
       <c r="F498" s="6"/>
       <c r="G498" s="7"/>
     </row>
-    <row r="499" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="6"/>
       <c r="B499" s="7"/>
       <c r="C499" s="6"/>
@@ -5949,7 +6033,7 @@
       <c r="F499" s="6"/>
       <c r="G499" s="7"/>
     </row>
-    <row r="500" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="6"/>
       <c r="B500" s="7"/>
       <c r="C500" s="6"/>
@@ -5958,7 +6042,7 @@
       <c r="F500" s="6"/>
       <c r="G500" s="7"/>
     </row>
-    <row r="501" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="6"/>
       <c r="B501" s="7"/>
       <c r="C501" s="6"/>
@@ -5967,7 +6051,7 @@
       <c r="F501" s="6"/>
       <c r="G501" s="7"/>
     </row>
-    <row r="502" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="6"/>
       <c r="B502" s="7"/>
       <c r="C502" s="6"/>
@@ -5976,7 +6060,7 @@
       <c r="F502" s="6"/>
       <c r="G502" s="7"/>
     </row>
-    <row r="503" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="6"/>
       <c r="B503" s="7"/>
       <c r="C503" s="6"/>
@@ -5985,7 +6069,7 @@
       <c r="F503" s="6"/>
       <c r="G503" s="7"/>
     </row>
-    <row r="504" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="6"/>
       <c r="B504" s="7"/>
       <c r="C504" s="6"/>
@@ -5994,7 +6078,7 @@
       <c r="F504" s="6"/>
       <c r="G504" s="7"/>
     </row>
-    <row r="505" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="6"/>
       <c r="B505" s="7"/>
       <c r="C505" s="6"/>
@@ -6003,7 +6087,7 @@
       <c r="F505" s="6"/>
       <c r="G505" s="7"/>
     </row>
-    <row r="506" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="6"/>
       <c r="B506" s="7"/>
       <c r="C506" s="6"/>
@@ -6012,7 +6096,7 @@
       <c r="F506" s="6"/>
       <c r="G506" s="7"/>
     </row>
-    <row r="507" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="6"/>
       <c r="B507" s="7"/>
       <c r="C507" s="6"/>
@@ -6021,7 +6105,7 @@
       <c r="F507" s="6"/>
       <c r="G507" s="7"/>
     </row>
-    <row r="508" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="6"/>
       <c r="B508" s="7"/>
       <c r="C508" s="6"/>
@@ -6030,7 +6114,7 @@
       <c r="F508" s="6"/>
       <c r="G508" s="7"/>
     </row>
-    <row r="509" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="6"/>
       <c r="B509" s="7"/>
       <c r="C509" s="6"/>
@@ -6039,7 +6123,7 @@
       <c r="F509" s="6"/>
       <c r="G509" s="7"/>
     </row>
-    <row r="510" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="6"/>
       <c r="B510" s="7"/>
       <c r="C510" s="6"/>
@@ -6048,7 +6132,7 @@
       <c r="F510" s="6"/>
       <c r="G510" s="7"/>
     </row>
-    <row r="511" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="6"/>
       <c r="B511" s="7"/>
       <c r="C511" s="6"/>
@@ -6057,7 +6141,7 @@
       <c r="F511" s="6"/>
       <c r="G511" s="7"/>
     </row>
-    <row r="512" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="6"/>
       <c r="B512" s="7"/>
       <c r="C512" s="6"/>
@@ -6066,7 +6150,7 @@
       <c r="F512" s="6"/>
       <c r="G512" s="7"/>
     </row>
-    <row r="513" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="6"/>
       <c r="B513" s="7"/>
       <c r="C513" s="6"/>
@@ -6075,7 +6159,7 @@
       <c r="F513" s="6"/>
       <c r="G513" s="7"/>
     </row>
-    <row r="514" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="6"/>
       <c r="B514" s="7"/>
       <c r="C514" s="6"/>
@@ -6084,7 +6168,7 @@
       <c r="F514" s="6"/>
       <c r="G514" s="7"/>
     </row>
-    <row r="515" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="6"/>
       <c r="B515" s="7"/>
       <c r="C515" s="6"/>
@@ -6093,7 +6177,7 @@
       <c r="F515" s="6"/>
       <c r="G515" s="7"/>
     </row>
-    <row r="516" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="6"/>
       <c r="B516" s="7"/>
       <c r="C516" s="6"/>
@@ -6102,7 +6186,7 @@
       <c r="F516" s="6"/>
       <c r="G516" s="7"/>
     </row>
-    <row r="517" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="6"/>
       <c r="B517" s="7"/>
       <c r="C517" s="6"/>
@@ -6111,7 +6195,7 @@
       <c r="F517" s="6"/>
       <c r="G517" s="7"/>
     </row>
-    <row r="518" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="6"/>
       <c r="B518" s="7"/>
       <c r="C518" s="6"/>
@@ -6120,7 +6204,7 @@
       <c r="F518" s="6"/>
       <c r="G518" s="7"/>
     </row>
-    <row r="519" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="6"/>
       <c r="B519" s="7"/>
       <c r="C519" s="6"/>
@@ -6129,7 +6213,7 @@
       <c r="F519" s="6"/>
       <c r="G519" s="7"/>
     </row>
-    <row r="520" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="6"/>
       <c r="B520" s="7"/>
       <c r="C520" s="6"/>
@@ -6138,7 +6222,7 @@
       <c r="F520" s="6"/>
       <c r="G520" s="7"/>
     </row>
-    <row r="521" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="6"/>
       <c r="B521" s="7"/>
       <c r="C521" s="6"/>
@@ -6147,7 +6231,7 @@
       <c r="F521" s="6"/>
       <c r="G521" s="7"/>
     </row>
-    <row r="522" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="6"/>
       <c r="B522" s="7"/>
       <c r="C522" s="6"/>
@@ -6156,7 +6240,7 @@
       <c r="F522" s="6"/>
       <c r="G522" s="7"/>
     </row>
-    <row r="523" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="6"/>
       <c r="B523" s="7"/>
       <c r="C523" s="6"/>
@@ -6165,7 +6249,7 @@
       <c r="F523" s="6"/>
       <c r="G523" s="7"/>
     </row>
-    <row r="524" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="6"/>
       <c r="B524" s="7"/>
       <c r="C524" s="6"/>
@@ -6174,7 +6258,7 @@
       <c r="F524" s="6"/>
       <c r="G524" s="7"/>
     </row>
-    <row r="525" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="6"/>
       <c r="B525" s="7"/>
       <c r="C525" s="6"/>
@@ -6183,7 +6267,7 @@
       <c r="F525" s="6"/>
       <c r="G525" s="7"/>
     </row>
-    <row r="526" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="6"/>
       <c r="B526" s="7"/>
       <c r="C526" s="6"/>
@@ -6192,7 +6276,7 @@
       <c r="F526" s="6"/>
       <c r="G526" s="7"/>
     </row>
-    <row r="527" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="6"/>
       <c r="B527" s="7"/>
       <c r="C527" s="6"/>
@@ -6201,7 +6285,7 @@
       <c r="F527" s="6"/>
       <c r="G527" s="7"/>
     </row>
-    <row r="528" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="6"/>
       <c r="B528" s="7"/>
       <c r="C528" s="6"/>
@@ -6210,7 +6294,7 @@
       <c r="F528" s="6"/>
       <c r="G528" s="7"/>
     </row>
-    <row r="529" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="6"/>
       <c r="B529" s="7"/>
       <c r="C529" s="6"/>
@@ -6219,7 +6303,7 @@
       <c r="F529" s="6"/>
       <c r="G529" s="7"/>
     </row>
-    <row r="530" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="6"/>
       <c r="B530" s="7"/>
       <c r="C530" s="6"/>
@@ -6228,7 +6312,7 @@
       <c r="F530" s="6"/>
       <c r="G530" s="7"/>
     </row>
-    <row r="531" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="6"/>
       <c r="B531" s="7"/>
       <c r="C531" s="6"/>
@@ -6237,7 +6321,7 @@
       <c r="F531" s="6"/>
       <c r="G531" s="7"/>
     </row>
-    <row r="532" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="6"/>
       <c r="B532" s="7"/>
       <c r="C532" s="6"/>
@@ -6246,7 +6330,7 @@
       <c r="F532" s="6"/>
       <c r="G532" s="7"/>
     </row>
-    <row r="533" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="6"/>
       <c r="B533" s="7"/>
       <c r="C533" s="6"/>
@@ -6255,7 +6339,7 @@
       <c r="F533" s="6"/>
       <c r="G533" s="7"/>
     </row>
-    <row r="534" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="6"/>
       <c r="B534" s="7"/>
       <c r="C534" s="6"/>
@@ -6264,7 +6348,7 @@
       <c r="F534" s="6"/>
       <c r="G534" s="7"/>
     </row>
-    <row r="535" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="6"/>
       <c r="B535" s="7"/>
       <c r="C535" s="6"/>
@@ -6273,7 +6357,7 @@
       <c r="F535" s="6"/>
       <c r="G535" s="7"/>
     </row>
-    <row r="536" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="6"/>
       <c r="B536" s="7"/>
       <c r="C536" s="6"/>
@@ -6282,7 +6366,7 @@
       <c r="F536" s="6"/>
       <c r="G536" s="7"/>
     </row>
-    <row r="537" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="6"/>
       <c r="B537" s="7"/>
       <c r="C537" s="6"/>
@@ -6291,7 +6375,7 @@
       <c r="F537" s="6"/>
       <c r="G537" s="7"/>
     </row>
-    <row r="538" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="6"/>
       <c r="B538" s="7"/>
       <c r="C538" s="6"/>
@@ -6300,7 +6384,7 @@
       <c r="F538" s="6"/>
       <c r="G538" s="7"/>
     </row>
-    <row r="539" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="6"/>
       <c r="B539" s="7"/>
       <c r="C539" s="6"/>
@@ -6309,7 +6393,7 @@
       <c r="F539" s="6"/>
       <c r="G539" s="7"/>
     </row>
-    <row r="540" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="6"/>
       <c r="B540" s="7"/>
       <c r="C540" s="6"/>
@@ -6318,7 +6402,7 @@
       <c r="F540" s="6"/>
       <c r="G540" s="7"/>
     </row>
-    <row r="541" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="6"/>
       <c r="B541" s="7"/>
       <c r="C541" s="6"/>
@@ -6327,7 +6411,7 @@
       <c r="F541" s="6"/>
       <c r="G541" s="7"/>
     </row>
-    <row r="542" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="6"/>
       <c r="B542" s="7"/>
       <c r="C542" s="6"/>
@@ -6336,7 +6420,7 @@
       <c r="F542" s="6"/>
       <c r="G542" s="7"/>
     </row>
-    <row r="543" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="6"/>
       <c r="B543" s="7"/>
       <c r="C543" s="6"/>
@@ -6345,7 +6429,7 @@
       <c r="F543" s="6"/>
       <c r="G543" s="7"/>
     </row>
-    <row r="544" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="6"/>
       <c r="B544" s="7"/>
       <c r="C544" s="6"/>
@@ -6354,7 +6438,7 @@
       <c r="F544" s="6"/>
       <c r="G544" s="7"/>
     </row>
-    <row r="545" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="6"/>
       <c r="B545" s="7"/>
       <c r="C545" s="6"/>
@@ -6363,7 +6447,7 @@
       <c r="F545" s="6"/>
       <c r="G545" s="7"/>
     </row>
-    <row r="546" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="6"/>
       <c r="B546" s="7"/>
       <c r="C546" s="6"/>
@@ -6372,7 +6456,7 @@
       <c r="F546" s="6"/>
       <c r="G546" s="7"/>
     </row>
-    <row r="547" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="6"/>
       <c r="B547" s="7"/>
       <c r="C547" s="6"/>
@@ -6381,7 +6465,7 @@
       <c r="F547" s="6"/>
       <c r="G547" s="7"/>
     </row>
-    <row r="548" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="6"/>
       <c r="B548" s="7"/>
       <c r="C548" s="6"/>
@@ -6390,7 +6474,7 @@
       <c r="F548" s="6"/>
       <c r="G548" s="7"/>
     </row>
-    <row r="549" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="6"/>
       <c r="B549" s="7"/>
       <c r="C549" s="6"/>
@@ -6399,7 +6483,7 @@
       <c r="F549" s="6"/>
       <c r="G549" s="7"/>
     </row>
-    <row r="550" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="6"/>
       <c r="B550" s="7"/>
       <c r="C550" s="6"/>
@@ -6408,7 +6492,7 @@
       <c r="F550" s="6"/>
       <c r="G550" s="7"/>
     </row>
-    <row r="551" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="6"/>
       <c r="B551" s="7"/>
       <c r="C551" s="6"/>
@@ -6417,7 +6501,7 @@
       <c r="F551" s="6"/>
       <c r="G551" s="7"/>
     </row>
-    <row r="552" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="6"/>
       <c r="B552" s="7"/>
       <c r="C552" s="6"/>
@@ -6426,7 +6510,7 @@
       <c r="F552" s="6"/>
       <c r="G552" s="7"/>
     </row>
-    <row r="553" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="6"/>
       <c r="B553" s="7"/>
       <c r="C553" s="6"/>
@@ -6435,7 +6519,7 @@
       <c r="F553" s="6"/>
       <c r="G553" s="7"/>
     </row>
-    <row r="554" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="6"/>
       <c r="B554" s="7"/>
       <c r="C554" s="6"/>
@@ -6444,7 +6528,7 @@
       <c r="F554" s="6"/>
       <c r="G554" s="7"/>
     </row>
-    <row r="555" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="6"/>
       <c r="B555" s="7"/>
       <c r="C555" s="6"/>
@@ -6453,7 +6537,7 @@
       <c r="F555" s="6"/>
       <c r="G555" s="7"/>
     </row>
-    <row r="556" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="6"/>
       <c r="B556" s="7"/>
       <c r="C556" s="6"/>
@@ -6462,7 +6546,7 @@
       <c r="F556" s="6"/>
       <c r="G556" s="7"/>
     </row>
-    <row r="557" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="6"/>
       <c r="B557" s="7"/>
       <c r="C557" s="6"/>
@@ -6471,7 +6555,7 @@
       <c r="F557" s="6"/>
       <c r="G557" s="7"/>
     </row>
-    <row r="558" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="6"/>
       <c r="B558" s="7"/>
       <c r="C558" s="6"/>
@@ -6480,7 +6564,7 @@
       <c r="F558" s="6"/>
       <c r="G558" s="7"/>
     </row>
-    <row r="559" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="6"/>
       <c r="B559" s="7"/>
       <c r="C559" s="6"/>
@@ -6489,7 +6573,7 @@
       <c r="F559" s="6"/>
       <c r="G559" s="7"/>
     </row>
-    <row r="560" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="6"/>
       <c r="B560" s="7"/>
       <c r="C560" s="6"/>
@@ -6498,7 +6582,7 @@
       <c r="F560" s="6"/>
       <c r="G560" s="7"/>
     </row>
-    <row r="561" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="6"/>
       <c r="B561" s="7"/>
       <c r="C561" s="6"/>
@@ -6507,7 +6591,7 @@
       <c r="F561" s="6"/>
       <c r="G561" s="7"/>
     </row>
-    <row r="562" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="6"/>
       <c r="B562" s="7"/>
       <c r="C562" s="6"/>
@@ -6516,7 +6600,7 @@
       <c r="F562" s="6"/>
       <c r="G562" s="7"/>
     </row>
-    <row r="563" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="6"/>
       <c r="B563" s="7"/>
       <c r="C563" s="6"/>
@@ -6525,7 +6609,7 @@
       <c r="F563" s="6"/>
       <c r="G563" s="7"/>
     </row>
-    <row r="564" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="6"/>
       <c r="B564" s="7"/>
       <c r="C564" s="6"/>
@@ -6534,7 +6618,7 @@
       <c r="F564" s="6"/>
       <c r="G564" s="7"/>
     </row>
-    <row r="565" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="6"/>
       <c r="B565" s="7"/>
       <c r="C565" s="6"/>
@@ -6543,7 +6627,7 @@
       <c r="F565" s="6"/>
       <c r="G565" s="7"/>
     </row>
-    <row r="566" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="6"/>
       <c r="B566" s="7"/>
       <c r="C566" s="6"/>
@@ -6552,7 +6636,7 @@
       <c r="F566" s="6"/>
       <c r="G566" s="7"/>
     </row>
-    <row r="567" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="6"/>
       <c r="B567" s="7"/>
       <c r="C567" s="6"/>
@@ -6561,7 +6645,7 @@
       <c r="F567" s="6"/>
       <c r="G567" s="7"/>
     </row>
-    <row r="568" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="6"/>
       <c r="B568" s="7"/>
       <c r="C568" s="6"/>
@@ -6570,7 +6654,7 @@
       <c r="F568" s="6"/>
       <c r="G568" s="7"/>
     </row>
-    <row r="569" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="6"/>
       <c r="B569" s="7"/>
       <c r="C569" s="6"/>
@@ -6579,7 +6663,7 @@
       <c r="F569" s="6"/>
       <c r="G569" s="7"/>
     </row>
-    <row r="570" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="6"/>
       <c r="B570" s="7"/>
       <c r="C570" s="6"/>
@@ -6588,7 +6672,7 @@
       <c r="F570" s="6"/>
       <c r="G570" s="7"/>
     </row>
-    <row r="571" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="6"/>
       <c r="B571" s="7"/>
       <c r="C571" s="6"/>
@@ -6597,7 +6681,7 @@
       <c r="F571" s="6"/>
       <c r="G571" s="7"/>
     </row>
-    <row r="572" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="6"/>
       <c r="B572" s="7"/>
       <c r="C572" s="6"/>
@@ -6606,7 +6690,7 @@
       <c r="F572" s="6"/>
       <c r="G572" s="7"/>
     </row>
-    <row r="573" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="6"/>
       <c r="B573" s="7"/>
       <c r="C573" s="6"/>
@@ -6615,7 +6699,7 @@
       <c r="F573" s="6"/>
       <c r="G573" s="7"/>
     </row>
-    <row r="574" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="6"/>
       <c r="B574" s="7"/>
       <c r="C574" s="6"/>
@@ -6624,7 +6708,7 @@
       <c r="F574" s="6"/>
       <c r="G574" s="7"/>
     </row>
-    <row r="575" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="6"/>
       <c r="B575" s="7"/>
       <c r="C575" s="6"/>
@@ -6633,7 +6717,7 @@
       <c r="F575" s="6"/>
       <c r="G575" s="7"/>
     </row>
-    <row r="576" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="6"/>
       <c r="B576" s="7"/>
       <c r="C576" s="6"/>
@@ -6642,7 +6726,7 @@
       <c r="F576" s="6"/>
       <c r="G576" s="7"/>
     </row>
-    <row r="577" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="6"/>
       <c r="B577" s="7"/>
       <c r="C577" s="6"/>
@@ -6651,7 +6735,7 @@
       <c r="F577" s="6"/>
       <c r="G577" s="7"/>
     </row>
-    <row r="578" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="6"/>
       <c r="B578" s="7"/>
       <c r="C578" s="6"/>
@@ -6660,7 +6744,7 @@
       <c r="F578" s="6"/>
       <c r="G578" s="7"/>
     </row>
-    <row r="579" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="6"/>
       <c r="B579" s="7"/>
       <c r="C579" s="6"/>
@@ -6669,7 +6753,7 @@
       <c r="F579" s="6"/>
       <c r="G579" s="7"/>
     </row>
-    <row r="580" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="6"/>
       <c r="B580" s="7"/>
       <c r="C580" s="6"/>
@@ -6678,7 +6762,7 @@
       <c r="F580" s="6"/>
       <c r="G580" s="7"/>
     </row>
-    <row r="581" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="6"/>
       <c r="B581" s="7"/>
       <c r="C581" s="6"/>
@@ -6687,7 +6771,7 @@
       <c r="F581" s="6"/>
       <c r="G581" s="7"/>
     </row>
-    <row r="582" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="6"/>
       <c r="B582" s="7"/>
       <c r="C582" s="6"/>
@@ -6696,7 +6780,7 @@
       <c r="F582" s="6"/>
       <c r="G582" s="7"/>
     </row>
-    <row r="583" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="6"/>
       <c r="B583" s="7"/>
       <c r="C583" s="6"/>
@@ -6705,7 +6789,7 @@
       <c r="F583" s="6"/>
       <c r="G583" s="7"/>
     </row>
-    <row r="584" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="6"/>
       <c r="B584" s="7"/>
       <c r="C584" s="6"/>
@@ -6714,7 +6798,7 @@
       <c r="F584" s="6"/>
       <c r="G584" s="7"/>
     </row>
-    <row r="585" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="6"/>
       <c r="B585" s="7"/>
       <c r="C585" s="6"/>
@@ -6723,7 +6807,7 @@
       <c r="F585" s="6"/>
       <c r="G585" s="7"/>
     </row>
-    <row r="586" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="6"/>
       <c r="B586" s="7"/>
       <c r="C586" s="6"/>
@@ -6732,7 +6816,7 @@
       <c r="F586" s="6"/>
       <c r="G586" s="7"/>
     </row>
-    <row r="587" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="6"/>
       <c r="B587" s="7"/>
       <c r="C587" s="6"/>
@@ -6741,7 +6825,7 @@
       <c r="F587" s="6"/>
       <c r="G587" s="7"/>
     </row>
-    <row r="588" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="6"/>
       <c r="B588" s="7"/>
       <c r="C588" s="6"/>
@@ -6750,7 +6834,7 @@
       <c r="F588" s="6"/>
       <c r="G588" s="7"/>
     </row>
-    <row r="589" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="6"/>
       <c r="B589" s="7"/>
       <c r="C589" s="6"/>
@@ -6759,7 +6843,7 @@
       <c r="F589" s="6"/>
       <c r="G589" s="7"/>
     </row>
-    <row r="590" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="6"/>
       <c r="B590" s="7"/>
       <c r="C590" s="6"/>
@@ -6768,7 +6852,7 @@
       <c r="F590" s="6"/>
       <c r="G590" s="7"/>
     </row>
-    <row r="591" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="6"/>
       <c r="B591" s="7"/>
       <c r="C591" s="6"/>
@@ -6777,7 +6861,7 @@
       <c r="F591" s="6"/>
       <c r="G591" s="7"/>
     </row>
-    <row r="592" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="6"/>
       <c r="B592" s="7"/>
       <c r="C592" s="6"/>
@@ -6786,7 +6870,7 @@
       <c r="F592" s="6"/>
       <c r="G592" s="7"/>
     </row>
-    <row r="593" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="6"/>
       <c r="B593" s="7"/>
       <c r="C593" s="6"/>
@@ -6795,7 +6879,7 @@
       <c r="F593" s="6"/>
       <c r="G593" s="7"/>
     </row>
-    <row r="594" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="6"/>
       <c r="B594" s="7"/>
       <c r="C594" s="6"/>
@@ -6804,7 +6888,7 @@
       <c r="F594" s="6"/>
       <c r="G594" s="7"/>
     </row>
-    <row r="595" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="6"/>
       <c r="B595" s="7"/>
       <c r="C595" s="6"/>
@@ -6813,7 +6897,7 @@
       <c r="F595" s="6"/>
       <c r="G595" s="7"/>
     </row>
-    <row r="596" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="6"/>
       <c r="B596" s="7"/>
       <c r="C596" s="6"/>
@@ -6822,7 +6906,7 @@
       <c r="F596" s="6"/>
       <c r="G596" s="7"/>
     </row>
-    <row r="597" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="6"/>
       <c r="B597" s="7"/>
       <c r="C597" s="6"/>
@@ -6831,7 +6915,7 @@
       <c r="F597" s="6"/>
       <c r="G597" s="7"/>
     </row>
-    <row r="598" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="6"/>
       <c r="B598" s="7"/>
       <c r="C598" s="6"/>
@@ -6840,7 +6924,7 @@
       <c r="F598" s="6"/>
       <c r="G598" s="7"/>
     </row>
-    <row r="599" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="6"/>
       <c r="B599" s="7"/>
       <c r="C599" s="6"/>
@@ -6849,7 +6933,7 @@
       <c r="F599" s="6"/>
       <c r="G599" s="7"/>
     </row>
-    <row r="600" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="6"/>
       <c r="B600" s="7"/>
       <c r="C600" s="6"/>
@@ -6858,7 +6942,7 @@
       <c r="F600" s="6"/>
       <c r="G600" s="7"/>
     </row>
-    <row r="601" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="6"/>
       <c r="B601" s="7"/>
       <c r="C601" s="6"/>
@@ -6867,7 +6951,7 @@
       <c r="F601" s="6"/>
       <c r="G601" s="7"/>
     </row>
-    <row r="602" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="6"/>
       <c r="B602" s="7"/>
       <c r="C602" s="6"/>
@@ -6876,7 +6960,7 @@
       <c r="F602" s="6"/>
       <c r="G602" s="7"/>
     </row>
-    <row r="603" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="6"/>
       <c r="B603" s="7"/>
       <c r="C603" s="6"/>
@@ -6885,7 +6969,7 @@
       <c r="F603" s="6"/>
       <c r="G603" s="7"/>
     </row>
-    <row r="604" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="6"/>
       <c r="B604" s="7"/>
       <c r="C604" s="6"/>
@@ -6894,7 +6978,7 @@
       <c r="F604" s="6"/>
       <c r="G604" s="7"/>
     </row>
-    <row r="605" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="6"/>
       <c r="B605" s="7"/>
       <c r="C605" s="6"/>
@@ -6903,7 +6987,7 @@
       <c r="F605" s="6"/>
       <c r="G605" s="7"/>
     </row>
-    <row r="606" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="6"/>
       <c r="B606" s="7"/>
       <c r="C606" s="6"/>
@@ -6912,7 +6996,7 @@
       <c r="F606" s="6"/>
       <c r="G606" s="7"/>
     </row>
-    <row r="607" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="6"/>
       <c r="B607" s="7"/>
       <c r="C607" s="6"/>
@@ -6921,7 +7005,7 @@
       <c r="F607" s="6"/>
       <c r="G607" s="7"/>
     </row>
-    <row r="608" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="6"/>
       <c r="B608" s="7"/>
       <c r="C608" s="6"/>
@@ -6930,7 +7014,7 @@
       <c r="F608" s="6"/>
       <c r="G608" s="7"/>
     </row>
-    <row r="609" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="6"/>
       <c r="B609" s="7"/>
       <c r="C609" s="6"/>
@@ -6939,7 +7023,7 @@
       <c r="F609" s="6"/>
       <c r="G609" s="7"/>
     </row>
-    <row r="610" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="6"/>
       <c r="B610" s="7"/>
       <c r="C610" s="6"/>
@@ -6948,7 +7032,7 @@
       <c r="F610" s="6"/>
       <c r="G610" s="7"/>
     </row>
-    <row r="611" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="6"/>
       <c r="B611" s="7"/>
       <c r="C611" s="6"/>
@@ -6957,7 +7041,7 @@
       <c r="F611" s="6"/>
       <c r="G611" s="7"/>
     </row>
-    <row r="612" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="6"/>
       <c r="B612" s="7"/>
       <c r="C612" s="6"/>
@@ -6966,7 +7050,7 @@
       <c r="F612" s="6"/>
       <c r="G612" s="7"/>
     </row>
-    <row r="613" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="6"/>
       <c r="B613" s="7"/>
       <c r="C613" s="6"/>
@@ -6975,7 +7059,7 @@
       <c r="F613" s="6"/>
       <c r="G613" s="7"/>
     </row>
-    <row r="614" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="6"/>
       <c r="B614" s="7"/>
       <c r="C614" s="6"/>
@@ -6984,7 +7068,7 @@
       <c r="F614" s="6"/>
       <c r="G614" s="7"/>
     </row>
-    <row r="615" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="6"/>
       <c r="B615" s="7"/>
       <c r="C615" s="6"/>
@@ -6993,7 +7077,7 @@
       <c r="F615" s="6"/>
       <c r="G615" s="7"/>
     </row>
-    <row r="616" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="6"/>
       <c r="B616" s="7"/>
       <c r="C616" s="6"/>
@@ -7002,7 +7086,7 @@
       <c r="F616" s="6"/>
       <c r="G616" s="7"/>
     </row>
-    <row r="617" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="6"/>
       <c r="B617" s="7"/>
       <c r="C617" s="6"/>
@@ -7011,7 +7095,7 @@
       <c r="F617" s="6"/>
       <c r="G617" s="7"/>
     </row>
-    <row r="618" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="6"/>
       <c r="B618" s="7"/>
       <c r="C618" s="6"/>
@@ -7020,7 +7104,7 @@
       <c r="F618" s="6"/>
       <c r="G618" s="7"/>
     </row>
-    <row r="619" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="6"/>
       <c r="B619" s="7"/>
       <c r="C619" s="6"/>
@@ -7029,7 +7113,7 @@
       <c r="F619" s="6"/>
       <c r="G619" s="7"/>
     </row>
-    <row r="620" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="6"/>
       <c r="B620" s="7"/>
       <c r="C620" s="6"/>
@@ -7038,7 +7122,7 @@
       <c r="F620" s="6"/>
       <c r="G620" s="7"/>
     </row>
-    <row r="621" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="6"/>
       <c r="B621" s="7"/>
       <c r="C621" s="6"/>
@@ -7047,7 +7131,7 @@
       <c r="F621" s="6"/>
       <c r="G621" s="7"/>
     </row>
-    <row r="622" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="6"/>
       <c r="B622" s="7"/>
       <c r="C622" s="6"/>
@@ -7056,7 +7140,7 @@
       <c r="F622" s="6"/>
       <c r="G622" s="7"/>
     </row>
-    <row r="623" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="6"/>
       <c r="B623" s="7"/>
       <c r="C623" s="6"/>
@@ -7065,7 +7149,7 @@
       <c r="F623" s="6"/>
       <c r="G623" s="7"/>
     </row>
-    <row r="624" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="6"/>
       <c r="B624" s="7"/>
       <c r="C624" s="6"/>
@@ -7074,7 +7158,7 @@
       <c r="F624" s="6"/>
       <c r="G624" s="7"/>
     </row>
-    <row r="625" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="6"/>
       <c r="B625" s="7"/>
       <c r="C625" s="6"/>
@@ -7083,7 +7167,7 @@
       <c r="F625" s="6"/>
       <c r="G625" s="7"/>
     </row>
-    <row r="626" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="6"/>
       <c r="B626" s="7"/>
       <c r="C626" s="6"/>
@@ -7092,7 +7176,7 @@
       <c r="F626" s="6"/>
       <c r="G626" s="7"/>
     </row>
-    <row r="627" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="6"/>
       <c r="B627" s="7"/>
       <c r="C627" s="6"/>
@@ -7101,7 +7185,7 @@
       <c r="F627" s="6"/>
       <c r="G627" s="7"/>
     </row>
-    <row r="628" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="6"/>
       <c r="B628" s="7"/>
       <c r="C628" s="6"/>
@@ -7110,7 +7194,7 @@
       <c r="F628" s="6"/>
       <c r="G628" s="7"/>
     </row>
-    <row r="629" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="6"/>
       <c r="B629" s="7"/>
       <c r="C629" s="6"/>
@@ -7119,7 +7203,7 @@
       <c r="F629" s="6"/>
       <c r="G629" s="7"/>
     </row>
-    <row r="630" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="6"/>
       <c r="B630" s="7"/>
       <c r="C630" s="6"/>
@@ -7128,7 +7212,7 @@
       <c r="F630" s="6"/>
       <c r="G630" s="7"/>
     </row>
-    <row r="631" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="6"/>
       <c r="B631" s="7"/>
       <c r="C631" s="6"/>
@@ -7137,7 +7221,7 @@
       <c r="F631" s="6"/>
       <c r="G631" s="7"/>
     </row>
-    <row r="632" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="6"/>
       <c r="B632" s="7"/>
       <c r="C632" s="6"/>
@@ -7146,7 +7230,7 @@
       <c r="F632" s="6"/>
       <c r="G632" s="7"/>
     </row>
-    <row r="633" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="6"/>
       <c r="B633" s="7"/>
       <c r="C633" s="6"/>
@@ -7155,7 +7239,7 @@
       <c r="F633" s="6"/>
       <c r="G633" s="7"/>
     </row>
-    <row r="634" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="6"/>
       <c r="B634" s="7"/>
       <c r="C634" s="6"/>
@@ -7164,7 +7248,7 @@
       <c r="F634" s="6"/>
       <c r="G634" s="7"/>
     </row>
-    <row r="635" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="6"/>
       <c r="B635" s="7"/>
       <c r="C635" s="6"/>
@@ -7173,7 +7257,7 @@
       <c r="F635" s="6"/>
       <c r="G635" s="7"/>
     </row>
-    <row r="636" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="6"/>
       <c r="B636" s="7"/>
       <c r="C636" s="6"/>
@@ -7182,7 +7266,7 @@
       <c r="F636" s="6"/>
       <c r="G636" s="7"/>
     </row>
-    <row r="637" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="6"/>
       <c r="B637" s="7"/>
       <c r="C637" s="6"/>
@@ -7191,7 +7275,7 @@
       <c r="F637" s="6"/>
       <c r="G637" s="7"/>
     </row>
-    <row r="638" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="6"/>
       <c r="B638" s="7"/>
       <c r="C638" s="6"/>
@@ -7200,7 +7284,7 @@
       <c r="F638" s="6"/>
       <c r="G638" s="7"/>
     </row>
-    <row r="639" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="6"/>
       <c r="B639" s="7"/>
       <c r="C639" s="6"/>
@@ -7209,7 +7293,7 @@
       <c r="F639" s="6"/>
       <c r="G639" s="7"/>
     </row>
-    <row r="640" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="6"/>
       <c r="B640" s="7"/>
       <c r="C640" s="6"/>
@@ -7218,7 +7302,7 @@
       <c r="F640" s="6"/>
       <c r="G640" s="7"/>
     </row>
-    <row r="641" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="6"/>
       <c r="B641" s="7"/>
       <c r="C641" s="6"/>
@@ -7227,7 +7311,7 @@
       <c r="F641" s="6"/>
       <c r="G641" s="7"/>
     </row>
-    <row r="642" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="6"/>
       <c r="B642" s="7"/>
       <c r="C642" s="6"/>
@@ -7236,7 +7320,7 @@
       <c r="F642" s="6"/>
       <c r="G642" s="7"/>
     </row>
-    <row r="643" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="6"/>
       <c r="B643" s="7"/>
       <c r="C643" s="6"/>
@@ -7245,7 +7329,7 @@
       <c r="F643" s="6"/>
       <c r="G643" s="7"/>
     </row>
-    <row r="644" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="6"/>
       <c r="B644" s="7"/>
       <c r="C644" s="6"/>
@@ -7254,7 +7338,7 @@
       <c r="F644" s="6"/>
       <c r="G644" s="7"/>
     </row>
-    <row r="645" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="6"/>
       <c r="B645" s="7"/>
       <c r="C645" s="6"/>
@@ -7263,7 +7347,7 @@
       <c r="F645" s="6"/>
       <c r="G645" s="7"/>
     </row>
-    <row r="646" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="6"/>
       <c r="B646" s="7"/>
       <c r="C646" s="6"/>
@@ -7272,7 +7356,7 @@
       <c r="F646" s="6"/>
       <c r="G646" s="7"/>
     </row>
-    <row r="647" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="6"/>
       <c r="B647" s="7"/>
       <c r="C647" s="6"/>
@@ -7281,7 +7365,7 @@
       <c r="F647" s="6"/>
       <c r="G647" s="7"/>
     </row>
-    <row r="648" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="6"/>
       <c r="B648" s="7"/>
       <c r="C648" s="6"/>
@@ -7290,7 +7374,7 @@
       <c r="F648" s="6"/>
       <c r="G648" s="7"/>
     </row>
-    <row r="649" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="6"/>
       <c r="B649" s="7"/>
       <c r="C649" s="6"/>
@@ -7299,7 +7383,7 @@
       <c r="F649" s="6"/>
       <c r="G649" s="7"/>
     </row>
-    <row r="650" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="6"/>
       <c r="B650" s="7"/>
       <c r="C650" s="6"/>
@@ -7308,7 +7392,7 @@
       <c r="F650" s="6"/>
       <c r="G650" s="7"/>
     </row>
-    <row r="651" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="6"/>
       <c r="B651" s="7"/>
       <c r="C651" s="6"/>
@@ -7317,7 +7401,7 @@
       <c r="F651" s="6"/>
       <c r="G651" s="7"/>
     </row>
-    <row r="652" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="6"/>
       <c r="B652" s="7"/>
       <c r="C652" s="6"/>
@@ -7326,7 +7410,7 @@
       <c r="F652" s="6"/>
       <c r="G652" s="7"/>
     </row>
-    <row r="653" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="6"/>
       <c r="B653" s="7"/>
       <c r="C653" s="6"/>
@@ -7335,7 +7419,7 @@
       <c r="F653" s="6"/>
       <c r="G653" s="7"/>
     </row>
-    <row r="654" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="6"/>
       <c r="B654" s="7"/>
       <c r="C654" s="6"/>
@@ -7344,7 +7428,7 @@
       <c r="F654" s="6"/>
       <c r="G654" s="7"/>
     </row>
-    <row r="655" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="6"/>
       <c r="B655" s="7"/>
       <c r="C655" s="6"/>
@@ -7353,7 +7437,7 @@
       <c r="F655" s="6"/>
       <c r="G655" s="7"/>
     </row>
-    <row r="656" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="6"/>
       <c r="B656" s="7"/>
       <c r="C656" s="6"/>
@@ -7362,7 +7446,7 @@
       <c r="F656" s="6"/>
       <c r="G656" s="7"/>
     </row>
-    <row r="657" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="6"/>
       <c r="B657" s="7"/>
       <c r="C657" s="6"/>
@@ -7371,7 +7455,7 @@
       <c r="F657" s="6"/>
       <c r="G657" s="7"/>
     </row>
-    <row r="658" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="6"/>
       <c r="B658" s="7"/>
       <c r="C658" s="6"/>
@@ -7380,7 +7464,7 @@
       <c r="F658" s="6"/>
       <c r="G658" s="7"/>
     </row>
-    <row r="659" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="6"/>
       <c r="B659" s="7"/>
       <c r="C659" s="6"/>
@@ -7389,7 +7473,7 @@
       <c r="F659" s="6"/>
       <c r="G659" s="7"/>
     </row>
-    <row r="660" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="6"/>
       <c r="B660" s="7"/>
       <c r="C660" s="6"/>
@@ -7398,7 +7482,7 @@
       <c r="F660" s="6"/>
       <c r="G660" s="7"/>
     </row>
-    <row r="661" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="6"/>
       <c r="B661" s="7"/>
       <c r="C661" s="6"/>
@@ -7407,7 +7491,7 @@
       <c r="F661" s="6"/>
       <c r="G661" s="7"/>
     </row>
-    <row r="662" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="6"/>
       <c r="B662" s="7"/>
       <c r="C662" s="6"/>
@@ -7416,7 +7500,7 @@
       <c r="F662" s="6"/>
       <c r="G662" s="7"/>
     </row>
-    <row r="663" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="6"/>
       <c r="B663" s="7"/>
       <c r="C663" s="6"/>
@@ -7425,7 +7509,7 @@
       <c r="F663" s="6"/>
       <c r="G663" s="7"/>
     </row>
-    <row r="664" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="6"/>
       <c r="B664" s="7"/>
       <c r="C664" s="6"/>
@@ -7434,7 +7518,7 @@
       <c r="F664" s="6"/>
       <c r="G664" s="7"/>
     </row>
-    <row r="665" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="6"/>
       <c r="B665" s="7"/>
       <c r="C665" s="6"/>
@@ -7443,7 +7527,7 @@
       <c r="F665" s="6"/>
       <c r="G665" s="7"/>
     </row>
-    <row r="666" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="6"/>
       <c r="B666" s="7"/>
       <c r="C666" s="6"/>
@@ -7452,7 +7536,7 @@
       <c r="F666" s="6"/>
       <c r="G666" s="7"/>
     </row>
-    <row r="667" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="6"/>
       <c r="B667" s="7"/>
       <c r="C667" s="6"/>
@@ -7461,7 +7545,7 @@
       <c r="F667" s="6"/>
       <c r="G667" s="7"/>
     </row>
-    <row r="668" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="6"/>
       <c r="B668" s="7"/>
       <c r="C668" s="6"/>
@@ -7470,7 +7554,7 @@
       <c r="F668" s="6"/>
       <c r="G668" s="7"/>
     </row>
-    <row r="669" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="6"/>
       <c r="B669" s="7"/>
       <c r="C669" s="6"/>
@@ -7479,7 +7563,7 @@
       <c r="F669" s="6"/>
       <c r="G669" s="7"/>
     </row>
-    <row r="670" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="6"/>
       <c r="B670" s="7"/>
       <c r="C670" s="6"/>
@@ -7488,7 +7572,7 @@
       <c r="F670" s="6"/>
       <c r="G670" s="7"/>
     </row>
-    <row r="671" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="6"/>
       <c r="B671" s="7"/>
       <c r="C671" s="6"/>
@@ -7497,7 +7581,7 @@
       <c r="F671" s="6"/>
       <c r="G671" s="7"/>
     </row>
-    <row r="672" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="6"/>
       <c r="B672" s="7"/>
       <c r="C672" s="6"/>
@@ -7506,7 +7590,7 @@
       <c r="F672" s="6"/>
       <c r="G672" s="7"/>
     </row>
-    <row r="673" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="6"/>
       <c r="B673" s="7"/>
       <c r="C673" s="6"/>
@@ -7515,7 +7599,7 @@
       <c r="F673" s="6"/>
       <c r="G673" s="7"/>
     </row>
-    <row r="674" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="6"/>
       <c r="B674" s="7"/>
       <c r="C674" s="6"/>
@@ -7524,7 +7608,7 @@
       <c r="F674" s="6"/>
       <c r="G674" s="7"/>
     </row>
-    <row r="675" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="6"/>
       <c r="B675" s="7"/>
       <c r="C675" s="6"/>
@@ -7533,7 +7617,7 @@
       <c r="F675" s="6"/>
       <c r="G675" s="7"/>
     </row>
-    <row r="676" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="6"/>
       <c r="B676" s="7"/>
       <c r="C676" s="6"/>
@@ -7542,7 +7626,7 @@
       <c r="F676" s="6"/>
       <c r="G676" s="7"/>
     </row>
-    <row r="677" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="6"/>
       <c r="B677" s="7"/>
       <c r="C677" s="6"/>
@@ -7551,7 +7635,7 @@
       <c r="F677" s="6"/>
       <c r="G677" s="7"/>
     </row>
-    <row r="678" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="6"/>
       <c r="B678" s="7"/>
       <c r="C678" s="6"/>
@@ -7560,7 +7644,7 @@
       <c r="F678" s="6"/>
       <c r="G678" s="7"/>
     </row>
-    <row r="679" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="6"/>
       <c r="B679" s="7"/>
       <c r="C679" s="6"/>
@@ -7569,7 +7653,7 @@
       <c r="F679" s="6"/>
       <c r="G679" s="7"/>
     </row>
-    <row r="680" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="6"/>
       <c r="B680" s="7"/>
       <c r="C680" s="6"/>
@@ -7578,7 +7662,7 @@
       <c r="F680" s="6"/>
       <c r="G680" s="7"/>
     </row>
-    <row r="681" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="6"/>
       <c r="B681" s="7"/>
       <c r="C681" s="6"/>
@@ -7587,7 +7671,7 @@
       <c r="F681" s="6"/>
       <c r="G681" s="7"/>
     </row>
-    <row r="682" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="6"/>
       <c r="B682" s="7"/>
       <c r="C682" s="6"/>
@@ -7596,7 +7680,7 @@
       <c r="F682" s="6"/>
       <c r="G682" s="7"/>
     </row>
-    <row r="683" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="6"/>
       <c r="B683" s="7"/>
       <c r="C683" s="6"/>
@@ -7605,7 +7689,7 @@
       <c r="F683" s="6"/>
       <c r="G683" s="7"/>
     </row>
-    <row r="684" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="6"/>
       <c r="B684" s="7"/>
       <c r="C684" s="6"/>
@@ -7614,7 +7698,7 @@
       <c r="F684" s="6"/>
       <c r="G684" s="7"/>
     </row>
-    <row r="685" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="6"/>
       <c r="B685" s="7"/>
       <c r="C685" s="6"/>
@@ -7623,7 +7707,7 @@
       <c r="F685" s="6"/>
       <c r="G685" s="7"/>
     </row>
-    <row r="686" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="6"/>
       <c r="B686" s="7"/>
       <c r="C686" s="6"/>
@@ -7632,7 +7716,7 @@
       <c r="F686" s="6"/>
       <c r="G686" s="7"/>
     </row>
-    <row r="687" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="6"/>
       <c r="B687" s="7"/>
       <c r="C687" s="6"/>
@@ -7641,7 +7725,7 @@
       <c r="F687" s="6"/>
       <c r="G687" s="7"/>
     </row>
-    <row r="688" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="6"/>
       <c r="B688" s="7"/>
       <c r="C688" s="6"/>
@@ -7650,7 +7734,7 @@
       <c r="F688" s="6"/>
       <c r="G688" s="7"/>
     </row>
-    <row r="689" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="6"/>
       <c r="B689" s="7"/>
       <c r="C689" s="6"/>
@@ -7659,7 +7743,7 @@
       <c r="F689" s="6"/>
       <c r="G689" s="7"/>
     </row>
-    <row r="690" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="6"/>
       <c r="B690" s="7"/>
       <c r="C690" s="6"/>
@@ -7668,7 +7752,7 @@
       <c r="F690" s="6"/>
       <c r="G690" s="7"/>
     </row>
-    <row r="691" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="6"/>
       <c r="B691" s="7"/>
       <c r="C691" s="6"/>
@@ -7677,7 +7761,7 @@
       <c r="F691" s="6"/>
       <c r="G691" s="7"/>
     </row>
-    <row r="692" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="6"/>
       <c r="B692" s="7"/>
       <c r="C692" s="6"/>
@@ -7686,7 +7770,7 @@
       <c r="F692" s="6"/>
       <c r="G692" s="7"/>
     </row>
-    <row r="693" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="6"/>
       <c r="B693" s="7"/>
       <c r="C693" s="6"/>
@@ -7695,7 +7779,7 @@
       <c r="F693" s="6"/>
       <c r="G693" s="7"/>
     </row>
-    <row r="694" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="6"/>
       <c r="B694" s="7"/>
       <c r="C694" s="6"/>
@@ -7704,7 +7788,7 @@
       <c r="F694" s="6"/>
       <c r="G694" s="7"/>
     </row>
-    <row r="695" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="6"/>
       <c r="B695" s="7"/>
       <c r="C695" s="6"/>
@@ -7713,7 +7797,7 @@
       <c r="F695" s="6"/>
       <c r="G695" s="7"/>
     </row>
-    <row r="696" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="6"/>
       <c r="B696" s="7"/>
       <c r="C696" s="6"/>
@@ -7722,7 +7806,7 @@
       <c r="F696" s="6"/>
       <c r="G696" s="7"/>
     </row>
-    <row r="697" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="6"/>
       <c r="B697" s="7"/>
       <c r="C697" s="6"/>
@@ -7731,7 +7815,7 @@
       <c r="F697" s="6"/>
       <c r="G697" s="7"/>
     </row>
-    <row r="698" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="6"/>
       <c r="B698" s="7"/>
       <c r="C698" s="6"/>
@@ -7740,7 +7824,7 @@
       <c r="F698" s="6"/>
       <c r="G698" s="7"/>
     </row>
-    <row r="699" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="6"/>
       <c r="B699" s="7"/>
       <c r="C699" s="6"/>
@@ -7749,7 +7833,7 @@
       <c r="F699" s="6"/>
       <c r="G699" s="7"/>
     </row>
-    <row r="700" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="6"/>
       <c r="B700" s="7"/>
       <c r="C700" s="6"/>
@@ -7758,7 +7842,7 @@
       <c r="F700" s="6"/>
       <c r="G700" s="7"/>
     </row>
-    <row r="701" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="6"/>
       <c r="B701" s="7"/>
       <c r="C701" s="6"/>
@@ -7767,7 +7851,7 @@
       <c r="F701" s="6"/>
       <c r="G701" s="7"/>
     </row>
-    <row r="702" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="6"/>
       <c r="B702" s="7"/>
       <c r="C702" s="6"/>
@@ -7776,7 +7860,7 @@
       <c r="F702" s="6"/>
       <c r="G702" s="7"/>
     </row>
-    <row r="703" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="6"/>
       <c r="B703" s="7"/>
       <c r="C703" s="6"/>
@@ -7785,7 +7869,7 @@
       <c r="F703" s="6"/>
       <c r="G703" s="7"/>
     </row>
-    <row r="704" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="6"/>
       <c r="B704" s="7"/>
       <c r="C704" s="6"/>
@@ -7794,7 +7878,7 @@
       <c r="F704" s="6"/>
       <c r="G704" s="7"/>
     </row>
-    <row r="705" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="6"/>
       <c r="B705" s="7"/>
       <c r="C705" s="6"/>
@@ -7803,7 +7887,7 @@
       <c r="F705" s="6"/>
       <c r="G705" s="7"/>
     </row>
-    <row r="706" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="6"/>
       <c r="B706" s="7"/>
       <c r="C706" s="6"/>
@@ -7812,7 +7896,7 @@
       <c r="F706" s="6"/>
       <c r="G706" s="7"/>
     </row>
-    <row r="707" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="6"/>
       <c r="B707" s="7"/>
       <c r="C707" s="6"/>
@@ -7821,7 +7905,7 @@
       <c r="F707" s="6"/>
       <c r="G707" s="7"/>
     </row>
-    <row r="708" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="6"/>
       <c r="B708" s="7"/>
       <c r="C708" s="6"/>
@@ -7830,7 +7914,7 @@
       <c r="F708" s="6"/>
       <c r="G708" s="7"/>
     </row>
-    <row r="709" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="6"/>
       <c r="B709" s="7"/>
       <c r="C709" s="6"/>
@@ -7839,7 +7923,7 @@
       <c r="F709" s="6"/>
       <c r="G709" s="7"/>
     </row>
-    <row r="710" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="6"/>
       <c r="B710" s="7"/>
       <c r="C710" s="6"/>
@@ -7848,7 +7932,7 @@
       <c r="F710" s="6"/>
       <c r="G710" s="7"/>
     </row>
-    <row r="711" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="6"/>
       <c r="B711" s="7"/>
       <c r="C711" s="6"/>
@@ -7857,7 +7941,7 @@
       <c r="F711" s="6"/>
       <c r="G711" s="7"/>
     </row>
-    <row r="712" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="6"/>
       <c r="B712" s="7"/>
       <c r="C712" s="6"/>
@@ -7866,7 +7950,7 @@
       <c r="F712" s="6"/>
       <c r="G712" s="7"/>
     </row>
-    <row r="713" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="6"/>
       <c r="B713" s="7"/>
       <c r="C713" s="6"/>
@@ -7875,7 +7959,7 @@
       <c r="F713" s="6"/>
       <c r="G713" s="7"/>
     </row>
-    <row r="714" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="6"/>
       <c r="B714" s="7"/>
       <c r="C714" s="6"/>
@@ -7884,7 +7968,7 @@
       <c r="F714" s="6"/>
       <c r="G714" s="7"/>
     </row>
-    <row r="715" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="6"/>
       <c r="B715" s="7"/>
       <c r="C715" s="6"/>
@@ -7893,7 +7977,7 @@
       <c r="F715" s="6"/>
       <c r="G715" s="7"/>
     </row>
-    <row r="716" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="6"/>
       <c r="B716" s="7"/>
       <c r="C716" s="6"/>
@@ -7902,7 +7986,7 @@
       <c r="F716" s="6"/>
       <c r="G716" s="7"/>
     </row>
-    <row r="717" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="6"/>
       <c r="B717" s="7"/>
       <c r="C717" s="6"/>
@@ -7911,7 +7995,7 @@
       <c r="F717" s="6"/>
       <c r="G717" s="7"/>
     </row>
-    <row r="718" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="6"/>
       <c r="B718" s="7"/>
       <c r="C718" s="6"/>
@@ -7920,7 +8004,7 @@
       <c r="F718" s="6"/>
       <c r="G718" s="7"/>
     </row>
-    <row r="719" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="6"/>
       <c r="B719" s="7"/>
       <c r="C719" s="6"/>
@@ -7929,7 +8013,7 @@
       <c r="F719" s="6"/>
       <c r="G719" s="7"/>
     </row>
-    <row r="720" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="6"/>
       <c r="B720" s="7"/>
       <c r="C720" s="6"/>
@@ -7938,7 +8022,7 @@
       <c r="F720" s="6"/>
       <c r="G720" s="7"/>
     </row>
-    <row r="721" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="6"/>
       <c r="B721" s="7"/>
       <c r="C721" s="6"/>
@@ -7947,7 +8031,7 @@
       <c r="F721" s="6"/>
       <c r="G721" s="7"/>
     </row>
-    <row r="722" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="6"/>
       <c r="B722" s="7"/>
       <c r="C722" s="6"/>
@@ -7956,7 +8040,7 @@
       <c r="F722" s="6"/>
       <c r="G722" s="7"/>
     </row>
-    <row r="723" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="6"/>
       <c r="B723" s="7"/>
       <c r="C723" s="6"/>
@@ -7965,7 +8049,7 @@
       <c r="F723" s="6"/>
       <c r="G723" s="7"/>
     </row>
-    <row r="724" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="6"/>
       <c r="B724" s="7"/>
       <c r="C724" s="6"/>
@@ -7974,7 +8058,7 @@
       <c r="F724" s="6"/>
       <c r="G724" s="7"/>
     </row>
-    <row r="725" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="6"/>
       <c r="B725" s="7"/>
       <c r="C725" s="6"/>
@@ -7983,7 +8067,7 @@
       <c r="F725" s="6"/>
       <c r="G725" s="7"/>
     </row>
-    <row r="726" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="6"/>
       <c r="B726" s="7"/>
       <c r="C726" s="6"/>
@@ -7992,7 +8076,7 @@
       <c r="F726" s="6"/>
       <c r="G726" s="7"/>
     </row>
-    <row r="727" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="6"/>
       <c r="B727" s="7"/>
       <c r="C727" s="6"/>
@@ -8001,7 +8085,7 @@
       <c r="F727" s="6"/>
       <c r="G727" s="7"/>
     </row>
-    <row r="728" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="6"/>
       <c r="B728" s="7"/>
       <c r="C728" s="6"/>
@@ -8010,7 +8094,7 @@
       <c r="F728" s="6"/>
       <c r="G728" s="7"/>
     </row>
-    <row r="729" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="6"/>
       <c r="B729" s="7"/>
       <c r="C729" s="6"/>
@@ -8019,7 +8103,7 @@
       <c r="F729" s="6"/>
       <c r="G729" s="7"/>
     </row>
-    <row r="730" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="6"/>
       <c r="B730" s="7"/>
       <c r="C730" s="6"/>
@@ -8028,7 +8112,7 @@
       <c r="F730" s="6"/>
       <c r="G730" s="7"/>
     </row>
-    <row r="731" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="6"/>
       <c r="B731" s="7"/>
       <c r="C731" s="6"/>
@@ -8037,7 +8121,7 @@
       <c r="F731" s="6"/>
       <c r="G731" s="7"/>
     </row>
-    <row r="732" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="6"/>
       <c r="B732" s="7"/>
       <c r="C732" s="6"/>
@@ -8046,7 +8130,7 @@
       <c r="F732" s="6"/>
       <c r="G732" s="7"/>
     </row>
-    <row r="733" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="6"/>
       <c r="B733" s="7"/>
       <c r="C733" s="6"/>
@@ -8055,7 +8139,7 @@
       <c r="F733" s="6"/>
       <c r="G733" s="7"/>
     </row>
-    <row r="734" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="6"/>
       <c r="B734" s="7"/>
       <c r="C734" s="6"/>
@@ -8064,7 +8148,7 @@
       <c r="F734" s="6"/>
       <c r="G734" s="7"/>
     </row>
-    <row r="735" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="6"/>
       <c r="B735" s="7"/>
       <c r="C735" s="6"/>
@@ -8073,7 +8157,7 @@
       <c r="F735" s="6"/>
       <c r="G735" s="7"/>
     </row>
-    <row r="736" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="6"/>
       <c r="B736" s="7"/>
       <c r="C736" s="6"/>
@@ -8082,7 +8166,7 @@
       <c r="F736" s="6"/>
       <c r="G736" s="7"/>
     </row>
-    <row r="737" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="6"/>
       <c r="B737" s="7"/>
       <c r="C737" s="6"/>
@@ -8091,7 +8175,7 @@
       <c r="F737" s="6"/>
       <c r="G737" s="7"/>
     </row>
-    <row r="738" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="6"/>
       <c r="B738" s="7"/>
       <c r="C738" s="6"/>
@@ -8100,7 +8184,7 @@
       <c r="F738" s="6"/>
       <c r="G738" s="7"/>
     </row>
-    <row r="739" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="6"/>
       <c r="B739" s="7"/>
       <c r="C739" s="6"/>
@@ -8109,7 +8193,7 @@
       <c r="F739" s="6"/>
       <c r="G739" s="7"/>
     </row>
-    <row r="740" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="6"/>
       <c r="B740" s="7"/>
       <c r="C740" s="6"/>
@@ -8118,7 +8202,7 @@
       <c r="F740" s="6"/>
       <c r="G740" s="7"/>
     </row>
-    <row r="741" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="6"/>
       <c r="B741" s="7"/>
       <c r="C741" s="6"/>
@@ -8127,7 +8211,7 @@
       <c r="F741" s="6"/>
       <c r="G741" s="7"/>
     </row>
-    <row r="742" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="6"/>
       <c r="B742" s="7"/>
       <c r="C742" s="6"/>
@@ -8136,7 +8220,7 @@
       <c r="F742" s="6"/>
       <c r="G742" s="7"/>
     </row>
-    <row r="743" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="6"/>
       <c r="B743" s="7"/>
       <c r="C743" s="6"/>
@@ -8145,7 +8229,7 @@
       <c r="F743" s="6"/>
       <c r="G743" s="7"/>
     </row>
-    <row r="744" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="6"/>
       <c r="B744" s="7"/>
       <c r="C744" s="6"/>
@@ -8154,7 +8238,7 @@
       <c r="F744" s="6"/>
       <c r="G744" s="7"/>
     </row>
-    <row r="745" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="6"/>
       <c r="B745" s="7"/>
       <c r="C745" s="6"/>
@@ -8163,7 +8247,7 @@
       <c r="F745" s="6"/>
       <c r="G745" s="7"/>
     </row>
-    <row r="746" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="6"/>
       <c r="B746" s="7"/>
       <c r="C746" s="6"/>
@@ -8172,7 +8256,7 @@
       <c r="F746" s="6"/>
       <c r="G746" s="7"/>
     </row>
-    <row r="747" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="6"/>
       <c r="B747" s="7"/>
       <c r="C747" s="6"/>
@@ -8181,7 +8265,7 @@
       <c r="F747" s="6"/>
       <c r="G747" s="7"/>
     </row>
-    <row r="748" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="6"/>
       <c r="B748" s="7"/>
       <c r="C748" s="6"/>
@@ -8190,7 +8274,7 @@
       <c r="F748" s="6"/>
       <c r="G748" s="7"/>
     </row>
-    <row r="749" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="6"/>
       <c r="B749" s="7"/>
       <c r="C749" s="6"/>
@@ -8199,7 +8283,7 @@
       <c r="F749" s="6"/>
       <c r="G749" s="7"/>
     </row>
-    <row r="750" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="6"/>
       <c r="B750" s="7"/>
       <c r="C750" s="6"/>
@@ -8208,7 +8292,7 @@
       <c r="F750" s="6"/>
       <c r="G750" s="7"/>
     </row>
-    <row r="751" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="6"/>
       <c r="B751" s="7"/>
       <c r="C751" s="6"/>
@@ -8217,7 +8301,7 @@
       <c r="F751" s="6"/>
       <c r="G751" s="7"/>
     </row>
-    <row r="752" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="6"/>
       <c r="B752" s="7"/>
       <c r="C752" s="6"/>
@@ -8226,7 +8310,7 @@
       <c r="F752" s="6"/>
       <c r="G752" s="7"/>
     </row>
-    <row r="753" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="6"/>
       <c r="B753" s="7"/>
       <c r="C753" s="6"/>
@@ -8235,7 +8319,7 @@
       <c r="F753" s="6"/>
       <c r="G753" s="7"/>
     </row>
-    <row r="754" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="6"/>
       <c r="B754" s="7"/>
       <c r="C754" s="6"/>
@@ -8244,7 +8328,7 @@
       <c r="F754" s="6"/>
       <c r="G754" s="7"/>
     </row>
-    <row r="755" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="6"/>
       <c r="B755" s="7"/>
       <c r="C755" s="6"/>
@@ -8253,7 +8337,7 @@
       <c r="F755" s="6"/>
       <c r="G755" s="7"/>
     </row>
-    <row r="756" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="6"/>
       <c r="B756" s="7"/>
       <c r="C756" s="6"/>
@@ -8262,7 +8346,7 @@
       <c r="F756" s="6"/>
       <c r="G756" s="7"/>
     </row>
-    <row r="757" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="6"/>
       <c r="B757" s="7"/>
       <c r="C757" s="6"/>
@@ -8271,7 +8355,7 @@
       <c r="F757" s="6"/>
       <c r="G757" s="7"/>
     </row>
-    <row r="758" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="6"/>
       <c r="B758" s="7"/>
       <c r="C758" s="6"/>
@@ -8280,7 +8364,7 @@
       <c r="F758" s="6"/>
       <c r="G758" s="7"/>
     </row>
-    <row r="759" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="6"/>
       <c r="B759" s="7"/>
       <c r="C759" s="6"/>
@@ -8289,7 +8373,7 @@
       <c r="F759" s="6"/>
       <c r="G759" s="7"/>
     </row>
-    <row r="760" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="6"/>
       <c r="B760" s="7"/>
       <c r="C760" s="6"/>
@@ -8298,7 +8382,7 @@
       <c r="F760" s="6"/>
       <c r="G760" s="7"/>
     </row>
-    <row r="761" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="6"/>
       <c r="B761" s="7"/>
       <c r="C761" s="6"/>
@@ -8307,7 +8391,7 @@
       <c r="F761" s="6"/>
       <c r="G761" s="7"/>
     </row>
-    <row r="762" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="6"/>
       <c r="B762" s="7"/>
       <c r="C762" s="6"/>
@@ -8316,7 +8400,7 @@
       <c r="F762" s="6"/>
       <c r="G762" s="7"/>
     </row>
-    <row r="763" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="6"/>
       <c r="B763" s="7"/>
       <c r="C763" s="6"/>
@@ -8325,7 +8409,7 @@
       <c r="F763" s="6"/>
       <c r="G763" s="7"/>
     </row>
-    <row r="764" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="6"/>
       <c r="B764" s="7"/>
       <c r="C764" s="6"/>
@@ -8334,7 +8418,7 @@
       <c r="F764" s="6"/>
       <c r="G764" s="7"/>
     </row>
-    <row r="765" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="6"/>
       <c r="B765" s="7"/>
       <c r="C765" s="6"/>
@@ -8343,7 +8427,7 @@
       <c r="F765" s="6"/>
       <c r="G765" s="7"/>
     </row>
-    <row r="766" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="6"/>
       <c r="B766" s="7"/>
       <c r="C766" s="6"/>
@@ -8352,7 +8436,7 @@
       <c r="F766" s="6"/>
       <c r="G766" s="7"/>
     </row>
-    <row r="767" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="6"/>
       <c r="B767" s="7"/>
       <c r="C767" s="6"/>
@@ -8361,7 +8445,7 @@
       <c r="F767" s="6"/>
       <c r="G767" s="7"/>
     </row>
-    <row r="768" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="6"/>
       <c r="B768" s="7"/>
       <c r="C768" s="6"/>
@@ -8370,7 +8454,7 @@
       <c r="F768" s="6"/>
       <c r="G768" s="7"/>
     </row>
-    <row r="769" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="6"/>
       <c r="B769" s="7"/>
       <c r="C769" s="6"/>
@@ -8379,7 +8463,7 @@
       <c r="F769" s="6"/>
       <c r="G769" s="7"/>
     </row>
-    <row r="770" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="6"/>
       <c r="B770" s="7"/>
       <c r="C770" s="6"/>
@@ -8388,7 +8472,7 @@
       <c r="F770" s="6"/>
       <c r="G770" s="7"/>
     </row>
-    <row r="771" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="6"/>
       <c r="B771" s="7"/>
       <c r="C771" s="6"/>
@@ -8397,7 +8481,7 @@
       <c r="F771" s="6"/>
       <c r="G771" s="7"/>
     </row>
-    <row r="772" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="6"/>
       <c r="B772" s="7"/>
       <c r="C772" s="6"/>
@@ -8406,7 +8490,7 @@
       <c r="F772" s="6"/>
       <c r="G772" s="7"/>
     </row>
-    <row r="773" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="6"/>
       <c r="B773" s="7"/>
       <c r="C773" s="6"/>
@@ -8415,7 +8499,7 @@
       <c r="F773" s="6"/>
       <c r="G773" s="7"/>
     </row>
-    <row r="774" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="6"/>
       <c r="B774" s="7"/>
       <c r="C774" s="6"/>
@@ -8424,7 +8508,7 @@
       <c r="F774" s="6"/>
       <c r="G774" s="7"/>
     </row>
-    <row r="775" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="6"/>
       <c r="B775" s="7"/>
       <c r="C775" s="6"/>
@@ -8433,7 +8517,7 @@
       <c r="F775" s="6"/>
       <c r="G775" s="7"/>
     </row>
-    <row r="776" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="6"/>
       <c r="B776" s="7"/>
       <c r="C776" s="6"/>
@@ -8442,7 +8526,7 @@
       <c r="F776" s="6"/>
       <c r="G776" s="7"/>
     </row>
-    <row r="777" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="6"/>
       <c r="B777" s="7"/>
       <c r="C777" s="6"/>
@@ -8451,7 +8535,7 @@
       <c r="F777" s="6"/>
       <c r="G777" s="7"/>
     </row>
-    <row r="778" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="6"/>
       <c r="B778" s="7"/>
       <c r="C778" s="6"/>
@@ -8460,7 +8544,7 @@
       <c r="F778" s="6"/>
       <c r="G778" s="7"/>
     </row>
-    <row r="779" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="6"/>
       <c r="B779" s="7"/>
       <c r="C779" s="6"/>
@@ -8469,7 +8553,7 @@
       <c r="F779" s="6"/>
       <c r="G779" s="7"/>
     </row>
-    <row r="780" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="6"/>
       <c r="B780" s="7"/>
       <c r="C780" s="6"/>
@@ -8478,7 +8562,7 @@
       <c r="F780" s="6"/>
       <c r="G780" s="7"/>
     </row>
-    <row r="781" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="6"/>
       <c r="B781" s="7"/>
       <c r="C781" s="6"/>
@@ -8487,7 +8571,7 @@
       <c r="F781" s="6"/>
       <c r="G781" s="7"/>
     </row>
-    <row r="782" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="6"/>
       <c r="B782" s="7"/>
       <c r="C782" s="6"/>
@@ -8496,7 +8580,7 @@
       <c r="F782" s="6"/>
       <c r="G782" s="7"/>
     </row>
-    <row r="783" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="6"/>
       <c r="B783" s="7"/>
       <c r="C783" s="6"/>
@@ -8505,7 +8589,7 @@
       <c r="F783" s="6"/>
       <c r="G783" s="7"/>
     </row>
-    <row r="784" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="6"/>
       <c r="B784" s="7"/>
       <c r="C784" s="6"/>
@@ -8514,7 +8598,7 @@
       <c r="F784" s="6"/>
       <c r="G784" s="7"/>
     </row>
-    <row r="785" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="6"/>
       <c r="B785" s="7"/>
       <c r="C785" s="6"/>
@@ -8523,7 +8607,7 @@
       <c r="F785" s="6"/>
       <c r="G785" s="7"/>
     </row>
-    <row r="786" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="6"/>
       <c r="B786" s="7"/>
       <c r="C786" s="6"/>
@@ -8532,7 +8616,7 @@
       <c r="F786" s="6"/>
       <c r="G786" s="7"/>
     </row>
-    <row r="787" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="6"/>
       <c r="B787" s="7"/>
       <c r="C787" s="6"/>
@@ -8541,7 +8625,7 @@
       <c r="F787" s="6"/>
       <c r="G787" s="7"/>
     </row>
-    <row r="788" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="6"/>
       <c r="B788" s="7"/>
       <c r="C788" s="6"/>
@@ -8550,7 +8634,7 @@
       <c r="F788" s="6"/>
       <c r="G788" s="7"/>
     </row>
-    <row r="789" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="6"/>
       <c r="B789" s="7"/>
       <c r="C789" s="6"/>
@@ -8559,7 +8643,7 @@
       <c r="F789" s="6"/>
       <c r="G789" s="7"/>
     </row>
-    <row r="790" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="6"/>
       <c r="B790" s="7"/>
       <c r="C790" s="6"/>
@@ -8568,7 +8652,7 @@
       <c r="F790" s="6"/>
       <c r="G790" s="7"/>
     </row>
-    <row r="791" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="6"/>
       <c r="B791" s="7"/>
       <c r="C791" s="6"/>
@@ -8577,7 +8661,7 @@
       <c r="F791" s="6"/>
       <c r="G791" s="7"/>
     </row>
-    <row r="792" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="6"/>
       <c r="B792" s="7"/>
       <c r="C792" s="6"/>
@@ -8586,7 +8670,7 @@
       <c r="F792" s="6"/>
       <c r="G792" s="7"/>
     </row>
-    <row r="793" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="6"/>
       <c r="B793" s="7"/>
       <c r="C793" s="6"/>
@@ -8595,7 +8679,7 @@
       <c r="F793" s="6"/>
       <c r="G793" s="7"/>
     </row>
-    <row r="794" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="6"/>
       <c r="B794" s="7"/>
       <c r="C794" s="6"/>
@@ -8604,7 +8688,7 @@
       <c r="F794" s="6"/>
       <c r="G794" s="7"/>
     </row>
-    <row r="795" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="6"/>
       <c r="B795" s="7"/>
       <c r="C795" s="6"/>
@@ -8613,7 +8697,7 @@
       <c r="F795" s="6"/>
       <c r="G795" s="7"/>
     </row>
-    <row r="796" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="6"/>
       <c r="B796" s="7"/>
       <c r="C796" s="6"/>
@@ -8622,7 +8706,7 @@
       <c r="F796" s="6"/>
       <c r="G796" s="7"/>
     </row>
-    <row r="797" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="6"/>
       <c r="B797" s="7"/>
       <c r="C797" s="6"/>
@@ -8631,7 +8715,7 @@
       <c r="F797" s="6"/>
       <c r="G797" s="7"/>
     </row>
-    <row r="798" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="6"/>
       <c r="B798" s="7"/>
       <c r="C798" s="6"/>
@@ -8640,7 +8724,7 @@
       <c r="F798" s="6"/>
       <c r="G798" s="7"/>
     </row>
-    <row r="799" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="6"/>
       <c r="B799" s="7"/>
       <c r="C799" s="6"/>
@@ -8649,7 +8733,7 @@
       <c r="F799" s="6"/>
       <c r="G799" s="7"/>
     </row>
-    <row r="800" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="6"/>
       <c r="B800" s="7"/>
       <c r="C800" s="6"/>
@@ -8658,7 +8742,7 @@
       <c r="F800" s="6"/>
       <c r="G800" s="7"/>
     </row>
-    <row r="801" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="6"/>
       <c r="B801" s="7"/>
       <c r="C801" s="6"/>
@@ -8667,7 +8751,7 @@
       <c r="F801" s="6"/>
       <c r="G801" s="7"/>
     </row>
-    <row r="802" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="6"/>
       <c r="B802" s="7"/>
       <c r="C802" s="6"/>
@@ -8676,7 +8760,7 @@
       <c r="F802" s="6"/>
       <c r="G802" s="7"/>
     </row>
-    <row r="803" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="6"/>
       <c r="B803" s="7"/>
       <c r="C803" s="6"/>
@@ -8685,7 +8769,7 @@
       <c r="F803" s="6"/>
       <c r="G803" s="7"/>
     </row>
-    <row r="804" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="6"/>
       <c r="B804" s="7"/>
       <c r="C804" s="6"/>
@@ -8694,7 +8778,7 @@
       <c r="F804" s="6"/>
       <c r="G804" s="7"/>
     </row>
-    <row r="805" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="6"/>
       <c r="B805" s="7"/>
       <c r="C805" s="6"/>
@@ -8703,7 +8787,7 @@
       <c r="F805" s="6"/>
       <c r="G805" s="7"/>
     </row>
-    <row r="806" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="6"/>
       <c r="B806" s="7"/>
       <c r="C806" s="6"/>
@@ -8712,7 +8796,7 @@
       <c r="F806" s="6"/>
       <c r="G806" s="7"/>
     </row>
-    <row r="807" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="6"/>
       <c r="B807" s="7"/>
       <c r="C807" s="6"/>
@@ -8721,7 +8805,7 @@
       <c r="F807" s="6"/>
       <c r="G807" s="7"/>
     </row>
-    <row r="808" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="6"/>
       <c r="B808" s="7"/>
       <c r="C808" s="6"/>
@@ -8730,7 +8814,7 @@
       <c r="F808" s="6"/>
       <c r="G808" s="7"/>
     </row>
-    <row r="809" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="6"/>
       <c r="B809" s="7"/>
       <c r="C809" s="6"/>
@@ -8739,7 +8823,7 @@
       <c r="F809" s="6"/>
       <c r="G809" s="7"/>
     </row>
-    <row r="810" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="6"/>
       <c r="B810" s="7"/>
       <c r="C810" s="6"/>
@@ -8748,7 +8832,7 @@
       <c r="F810" s="6"/>
       <c r="G810" s="7"/>
     </row>
-    <row r="811" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="6"/>
       <c r="B811" s="7"/>
       <c r="C811" s="6"/>
@@ -8757,7 +8841,7 @@
       <c r="F811" s="6"/>
       <c r="G811" s="7"/>
     </row>
-    <row r="812" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="6"/>
       <c r="B812" s="7"/>
       <c r="C812" s="6"/>
@@ -8766,7 +8850,7 @@
       <c r="F812" s="6"/>
       <c r="G812" s="7"/>
     </row>
-    <row r="813" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="6"/>
       <c r="B813" s="7"/>
       <c r="C813" s="6"/>
@@ -8775,7 +8859,7 @@
       <c r="F813" s="6"/>
       <c r="G813" s="7"/>
     </row>
-    <row r="814" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="6"/>
       <c r="B814" s="7"/>
       <c r="C814" s="6"/>
@@ -8784,7 +8868,7 @@
       <c r="F814" s="6"/>
       <c r="G814" s="7"/>
     </row>
-    <row r="815" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="6"/>
       <c r="B815" s="7"/>
       <c r="C815" s="6"/>
@@ -8793,7 +8877,7 @@
       <c r="F815" s="6"/>
       <c r="G815" s="7"/>
     </row>
-    <row r="816" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="6"/>
       <c r="B816" s="7"/>
       <c r="C816" s="6"/>
@@ -8802,7 +8886,7 @@
       <c r="F816" s="6"/>
       <c r="G816" s="7"/>
     </row>
-    <row r="817" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="6"/>
       <c r="B817" s="7"/>
       <c r="C817" s="6"/>
@@ -8811,7 +8895,7 @@
       <c r="F817" s="6"/>
       <c r="G817" s="7"/>
     </row>
-    <row r="818" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="6"/>
       <c r="B818" s="7"/>
       <c r="C818" s="6"/>
@@ -8820,7 +8904,7 @@
       <c r="F818" s="6"/>
       <c r="G818" s="7"/>
     </row>
-    <row r="819" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="6"/>
       <c r="B819" s="7"/>
       <c r="C819" s="6"/>
@@ -8829,7 +8913,7 @@
       <c r="F819" s="6"/>
       <c r="G819" s="7"/>
     </row>
-    <row r="820" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="6"/>
       <c r="B820" s="7"/>
       <c r="C820" s="6"/>
@@ -8838,7 +8922,7 @@
       <c r="F820" s="6"/>
       <c r="G820" s="7"/>
     </row>
-    <row r="821" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="6"/>
       <c r="B821" s="7"/>
       <c r="C821" s="6"/>
@@ -8847,7 +8931,7 @@
       <c r="F821" s="6"/>
       <c r="G821" s="7"/>
     </row>
-    <row r="822" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="6"/>
       <c r="B822" s="7"/>
       <c r="C822" s="6"/>
@@ -8856,7 +8940,7 @@
       <c r="F822" s="6"/>
       <c r="G822" s="7"/>
     </row>
-    <row r="823" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="6"/>
       <c r="B823" s="7"/>
       <c r="C823" s="6"/>
@@ -8865,7 +8949,7 @@
       <c r="F823" s="6"/>
       <c r="G823" s="7"/>
     </row>
-    <row r="824" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="6"/>
       <c r="B824" s="7"/>
       <c r="C824" s="6"/>
@@ -8874,7 +8958,7 @@
       <c r="F824" s="6"/>
       <c r="G824" s="7"/>
     </row>
-    <row r="825" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="6"/>
       <c r="B825" s="7"/>
       <c r="C825" s="6"/>
@@ -8883,7 +8967,7 @@
       <c r="F825" s="6"/>
       <c r="G825" s="7"/>
     </row>
-    <row r="826" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="6"/>
       <c r="B826" s="7"/>
       <c r="C826" s="6"/>
@@ -8892,7 +8976,7 @@
       <c r="F826" s="6"/>
       <c r="G826" s="7"/>
     </row>
-    <row r="827" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="6"/>
       <c r="B827" s="7"/>
       <c r="C827" s="6"/>
@@ -8901,7 +8985,7 @@
       <c r="F827" s="6"/>
       <c r="G827" s="7"/>
     </row>
-    <row r="828" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="6"/>
       <c r="B828" s="7"/>
       <c r="C828" s="6"/>
@@ -8910,7 +8994,7 @@
       <c r="F828" s="6"/>
       <c r="G828" s="7"/>
     </row>
-    <row r="829" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="6"/>
       <c r="B829" s="7"/>
       <c r="C829" s="6"/>
@@ -8919,7 +9003,7 @@
       <c r="F829" s="6"/>
       <c r="G829" s="7"/>
     </row>
-    <row r="830" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="6"/>
       <c r="B830" s="7"/>
       <c r="C830" s="6"/>
@@ -8928,7 +9012,7 @@
       <c r="F830" s="6"/>
       <c r="G830" s="7"/>
     </row>
-    <row r="831" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="6"/>
       <c r="B831" s="7"/>
       <c r="C831" s="6"/>
@@ -8937,7 +9021,7 @@
       <c r="F831" s="6"/>
       <c r="G831" s="7"/>
     </row>
-    <row r="832" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="6"/>
       <c r="B832" s="7"/>
       <c r="C832" s="6"/>
@@ -8946,7 +9030,7 @@
       <c r="F832" s="6"/>
       <c r="G832" s="7"/>
     </row>
-    <row r="833" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="6"/>
       <c r="B833" s="7"/>
       <c r="C833" s="6"/>
@@ -8955,7 +9039,7 @@
       <c r="F833" s="6"/>
       <c r="G833" s="7"/>
     </row>
-    <row r="834" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="6"/>
       <c r="B834" s="7"/>
       <c r="C834" s="6"/>
@@ -8964,7 +9048,7 @@
       <c r="F834" s="6"/>
       <c r="G834" s="7"/>
     </row>
-    <row r="835" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="6"/>
       <c r="B835" s="7"/>
       <c r="C835" s="6"/>
@@ -8973,7 +9057,7 @@
       <c r="F835" s="6"/>
       <c r="G835" s="7"/>
     </row>
-    <row r="836" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="6"/>
       <c r="B836" s="7"/>
       <c r="C836" s="6"/>
@@ -8982,7 +9066,7 @@
       <c r="F836" s="6"/>
       <c r="G836" s="7"/>
     </row>
-    <row r="837" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="6"/>
       <c r="B837" s="7"/>
       <c r="C837" s="6"/>
@@ -8991,7 +9075,7 @@
       <c r="F837" s="6"/>
       <c r="G837" s="7"/>
     </row>
-    <row r="838" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="6"/>
       <c r="B838" s="7"/>
       <c r="C838" s="6"/>
@@ -9000,7 +9084,7 @@
       <c r="F838" s="6"/>
       <c r="G838" s="7"/>
     </row>
-    <row r="839" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="6"/>
       <c r="B839" s="7"/>
       <c r="C839" s="6"/>
@@ -9009,7 +9093,7 @@
       <c r="F839" s="6"/>
       <c r="G839" s="7"/>
     </row>
-    <row r="840" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="6"/>
       <c r="B840" s="7"/>
       <c r="C840" s="6"/>
@@ -9018,7 +9102,7 @@
       <c r="F840" s="6"/>
       <c r="G840" s="7"/>
     </row>
-    <row r="841" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="6"/>
       <c r="B841" s="7"/>
       <c r="C841" s="6"/>
@@ -9027,7 +9111,7 @@
       <c r="F841" s="6"/>
       <c r="G841" s="7"/>
     </row>
-    <row r="842" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="6"/>
       <c r="B842" s="7"/>
       <c r="C842" s="6"/>
@@ -9036,7 +9120,7 @@
       <c r="F842" s="6"/>
       <c r="G842" s="7"/>
     </row>
-    <row r="843" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="6"/>
       <c r="B843" s="7"/>
       <c r="C843" s="6"/>
@@ -9045,7 +9129,7 @@
       <c r="F843" s="6"/>
       <c r="G843" s="7"/>
     </row>
-    <row r="844" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="6"/>
       <c r="B844" s="7"/>
       <c r="C844" s="6"/>
@@ -9054,7 +9138,7 @@
       <c r="F844" s="6"/>
       <c r="G844" s="7"/>
     </row>
-    <row r="845" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="6"/>
       <c r="B845" s="7"/>
       <c r="C845" s="6"/>
@@ -9063,7 +9147,7 @@
       <c r="F845" s="6"/>
       <c r="G845" s="7"/>
     </row>
-    <row r="846" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="6"/>
       <c r="B846" s="7"/>
       <c r="C846" s="6"/>
@@ -9072,7 +9156,7 @@
       <c r="F846" s="6"/>
       <c r="G846" s="7"/>
     </row>
-    <row r="847" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="6"/>
       <c r="B847" s="7"/>
       <c r="C847" s="6"/>
@@ -9081,7 +9165,7 @@
       <c r="F847" s="6"/>
       <c r="G847" s="7"/>
     </row>
-    <row r="848" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="6"/>
       <c r="B848" s="7"/>
       <c r="C848" s="6"/>
@@ -9090,7 +9174,7 @@
       <c r="F848" s="6"/>
       <c r="G848" s="7"/>
     </row>
-    <row r="849" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="6"/>
       <c r="B849" s="7"/>
       <c r="C849" s="6"/>
@@ -9099,7 +9183,7 @@
       <c r="F849" s="6"/>
       <c r="G849" s="7"/>
     </row>
-    <row r="850" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="6"/>
       <c r="B850" s="7"/>
       <c r="C850" s="6"/>
@@ -9108,7 +9192,7 @@
       <c r="F850" s="6"/>
       <c r="G850" s="7"/>
     </row>
-    <row r="851" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="6"/>
       <c r="B851" s="7"/>
       <c r="C851" s="6"/>
@@ -9117,7 +9201,7 @@
       <c r="F851" s="6"/>
       <c r="G851" s="7"/>
     </row>
-    <row r="852" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="6"/>
       <c r="B852" s="7"/>
       <c r="C852" s="6"/>
@@ -9126,7 +9210,7 @@
       <c r="F852" s="6"/>
       <c r="G852" s="7"/>
     </row>
-    <row r="853" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="6"/>
       <c r="B853" s="7"/>
       <c r="C853" s="6"/>
@@ -9135,7 +9219,7 @@
       <c r="F853" s="6"/>
       <c r="G853" s="7"/>
     </row>
-    <row r="854" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="6"/>
       <c r="B854" s="7"/>
       <c r="C854" s="6"/>
@@ -9144,7 +9228,7 @@
       <c r="F854" s="6"/>
       <c r="G854" s="7"/>
     </row>
-    <row r="855" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="6"/>
       <c r="B855" s="7"/>
       <c r="C855" s="6"/>
@@ -9153,7 +9237,7 @@
       <c r="F855" s="6"/>
       <c r="G855" s="7"/>
     </row>
-    <row r="856" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="6"/>
       <c r="B856" s="7"/>
       <c r="C856" s="6"/>
@@ -9162,7 +9246,7 @@
       <c r="F856" s="6"/>
       <c r="G856" s="7"/>
     </row>
-    <row r="857" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="6"/>
       <c r="B857" s="7"/>
       <c r="C857" s="6"/>
@@ -9171,7 +9255,7 @@
       <c r="F857" s="6"/>
       <c r="G857" s="7"/>
     </row>
-    <row r="858" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="6"/>
       <c r="B858" s="7"/>
       <c r="C858" s="6"/>
@@ -9180,7 +9264,7 @@
       <c r="F858" s="6"/>
       <c r="G858" s="7"/>
     </row>
-    <row r="859" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="6"/>
       <c r="B859" s="7"/>
       <c r="C859" s="6"/>
@@ -9189,7 +9273,7 @@
       <c r="F859" s="6"/>
       <c r="G859" s="7"/>
     </row>
-    <row r="860" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="6"/>
       <c r="B860" s="7"/>
       <c r="C860" s="6"/>
@@ -9198,7 +9282,7 @@
       <c r="F860" s="6"/>
       <c r="G860" s="7"/>
     </row>
-    <row r="861" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="6"/>
       <c r="B861" s="7"/>
       <c r="C861" s="6"/>
@@ -9207,7 +9291,7 @@
       <c r="F861" s="6"/>
       <c r="G861" s="7"/>
     </row>
-    <row r="862" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="6"/>
       <c r="B862" s="7"/>
       <c r="C862" s="6"/>
@@ -9216,7 +9300,7 @@
       <c r="F862" s="6"/>
       <c r="G862" s="7"/>
     </row>
-    <row r="863" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="6"/>
       <c r="B863" s="7"/>
       <c r="C863" s="6"/>
@@ -9225,7 +9309,7 @@
       <c r="F863" s="6"/>
       <c r="G863" s="7"/>
     </row>
-    <row r="864" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="6"/>
       <c r="B864" s="7"/>
       <c r="C864" s="6"/>
@@ -9234,7 +9318,7 @@
       <c r="F864" s="6"/>
       <c r="G864" s="7"/>
     </row>
-    <row r="865" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="6"/>
       <c r="B865" s="7"/>
       <c r="C865" s="6"/>
@@ -9243,7 +9327,7 @@
       <c r="F865" s="6"/>
       <c r="G865" s="7"/>
     </row>
-    <row r="866" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="6"/>
       <c r="B866" s="7"/>
       <c r="C866" s="6"/>
@@ -9252,7 +9336,7 @@
       <c r="F866" s="6"/>
       <c r="G866" s="7"/>
     </row>
-    <row r="867" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="6"/>
       <c r="B867" s="7"/>
       <c r="C867" s="6"/>
@@ -9261,7 +9345,7 @@
       <c r="F867" s="6"/>
       <c r="G867" s="7"/>
     </row>
-    <row r="868" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="6"/>
       <c r="B868" s="7"/>
       <c r="C868" s="6"/>
@@ -9270,7 +9354,7 @@
       <c r="F868" s="6"/>
       <c r="G868" s="7"/>
     </row>
-    <row r="869" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="6"/>
       <c r="B869" s="7"/>
       <c r="C869" s="6"/>
@@ -9279,7 +9363,7 @@
       <c r="F869" s="6"/>
       <c r="G869" s="7"/>
     </row>
-    <row r="870" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="6"/>
       <c r="B870" s="7"/>
       <c r="C870" s="6"/>
@@ -9288,7 +9372,7 @@
       <c r="F870" s="6"/>
       <c r="G870" s="7"/>
     </row>
-    <row r="871" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="6"/>
       <c r="B871" s="7"/>
       <c r="C871" s="6"/>
@@ -9297,7 +9381,7 @@
       <c r="F871" s="6"/>
       <c r="G871" s="7"/>
     </row>
-    <row r="872" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="6"/>
       <c r="B872" s="7"/>
       <c r="C872" s="6"/>
@@ -9306,7 +9390,7 @@
       <c r="F872" s="6"/>
       <c r="G872" s="7"/>
     </row>
-    <row r="873" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="6"/>
       <c r="B873" s="7"/>
       <c r="C873" s="6"/>
@@ -9315,7 +9399,7 @@
       <c r="F873" s="6"/>
       <c r="G873" s="7"/>
     </row>
-    <row r="874" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="6"/>
       <c r="B874" s="7"/>
       <c r="C874" s="6"/>
@@ -9324,7 +9408,7 @@
       <c r="F874" s="6"/>
       <c r="G874" s="7"/>
     </row>
-    <row r="875" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="6"/>
       <c r="B875" s="7"/>
       <c r="C875" s="6"/>
@@ -9333,7 +9417,7 @@
       <c r="F875" s="6"/>
       <c r="G875" s="7"/>
     </row>
-    <row r="876" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="6"/>
       <c r="B876" s="7"/>
       <c r="C876" s="6"/>
@@ -9342,7 +9426,7 @@
       <c r="F876" s="6"/>
       <c r="G876" s="7"/>
     </row>
-    <row r="877" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="6"/>
       <c r="B877" s="7"/>
       <c r="C877" s="6"/>
@@ -9351,7 +9435,7 @@
       <c r="F877" s="6"/>
       <c r="G877" s="7"/>
     </row>
-    <row r="878" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="6"/>
       <c r="B878" s="7"/>
       <c r="C878" s="6"/>
@@ -9360,7 +9444,7 @@
       <c r="F878" s="6"/>
       <c r="G878" s="7"/>
     </row>
-    <row r="879" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="6"/>
       <c r="B879" s="7"/>
       <c r="C879" s="6"/>
@@ -9369,7 +9453,7 @@
       <c r="F879" s="6"/>
       <c r="G879" s="7"/>
     </row>
-    <row r="880" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="6"/>
       <c r="B880" s="7"/>
       <c r="C880" s="6"/>
@@ -9378,7 +9462,7 @@
       <c r="F880" s="6"/>
       <c r="G880" s="7"/>
     </row>
-    <row r="881" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="6"/>
       <c r="B881" s="7"/>
       <c r="C881" s="6"/>
@@ -9387,7 +9471,7 @@
       <c r="F881" s="6"/>
       <c r="G881" s="7"/>
     </row>
-    <row r="882" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="6"/>
       <c r="B882" s="7"/>
       <c r="C882" s="6"/>
@@ -9396,7 +9480,7 @@
       <c r="F882" s="6"/>
       <c r="G882" s="7"/>
     </row>
-    <row r="883" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="6"/>
       <c r="B883" s="7"/>
       <c r="C883" s="6"/>
@@ -9405,7 +9489,7 @@
       <c r="F883" s="6"/>
       <c r="G883" s="7"/>
     </row>
-    <row r="884" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="6"/>
       <c r="B884" s="7"/>
       <c r="C884" s="6"/>
@@ -9414,7 +9498,7 @@
       <c r="F884" s="6"/>
       <c r="G884" s="7"/>
     </row>
-    <row r="885" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="6"/>
       <c r="B885" s="7"/>
       <c r="C885" s="6"/>
@@ -9423,7 +9507,7 @@
       <c r="F885" s="6"/>
       <c r="G885" s="7"/>
     </row>
-    <row r="886" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="6"/>
       <c r="B886" s="7"/>
       <c r="C886" s="6"/>
@@ -9432,7 +9516,7 @@
       <c r="F886" s="6"/>
       <c r="G886" s="7"/>
     </row>
-    <row r="887" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="6"/>
       <c r="B887" s="7"/>
       <c r="C887" s="6"/>
@@ -9441,7 +9525,7 @@
       <c r="F887" s="6"/>
       <c r="G887" s="7"/>
     </row>
-    <row r="888" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="6"/>
       <c r="B888" s="7"/>
       <c r="C888" s="6"/>
@@ -9450,7 +9534,7 @@
       <c r="F888" s="6"/>
       <c r="G888" s="7"/>
     </row>
-    <row r="889" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="6"/>
       <c r="B889" s="7"/>
       <c r="C889" s="6"/>
@@ -9459,7 +9543,7 @@
       <c r="F889" s="6"/>
       <c r="G889" s="7"/>
     </row>
-    <row r="890" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="6"/>
       <c r="B890" s="7"/>
       <c r="C890" s="6"/>
@@ -9468,7 +9552,7 @@
       <c r="F890" s="6"/>
       <c r="G890" s="7"/>
     </row>
-    <row r="891" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="6"/>
       <c r="B891" s="7"/>
       <c r="C891" s="6"/>
@@ -9477,7 +9561,7 @@
       <c r="F891" s="6"/>
       <c r="G891" s="7"/>
     </row>
-    <row r="892" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="6"/>
       <c r="B892" s="7"/>
       <c r="C892" s="6"/>
@@ -9486,7 +9570,7 @@
       <c r="F892" s="6"/>
       <c r="G892" s="7"/>
     </row>
-    <row r="893" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="6"/>
       <c r="B893" s="7"/>
       <c r="C893" s="6"/>
@@ -9495,7 +9579,7 @@
       <c r="F893" s="6"/>
       <c r="G893" s="7"/>
     </row>
-    <row r="894" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="6"/>
       <c r="B894" s="7"/>
       <c r="C894" s="6"/>
@@ -9504,7 +9588,7 @@
       <c r="F894" s="6"/>
       <c r="G894" s="7"/>
     </row>
-    <row r="895" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="6"/>
       <c r="B895" s="7"/>
       <c r="C895" s="6"/>
@@ -9513,7 +9597,7 @@
       <c r="F895" s="6"/>
       <c r="G895" s="7"/>
     </row>
-    <row r="896" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="6"/>
       <c r="B896" s="7"/>
       <c r="C896" s="6"/>
@@ -9522,7 +9606,7 @@
       <c r="F896" s="6"/>
       <c r="G896" s="7"/>
     </row>
-    <row r="897" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="6"/>
       <c r="B897" s="7"/>
       <c r="C897" s="6"/>
@@ -9531,7 +9615,7 @@
       <c r="F897" s="6"/>
       <c r="G897" s="7"/>
     </row>
-    <row r="898" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="6"/>
       <c r="B898" s="7"/>
       <c r="C898" s="6"/>
@@ -9540,7 +9624,7 @@
       <c r="F898" s="6"/>
       <c r="G898" s="7"/>
     </row>
-    <row r="899" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="6"/>
       <c r="B899" s="7"/>
       <c r="C899" s="6"/>
@@ -9549,7 +9633,7 @@
       <c r="F899" s="6"/>
       <c r="G899" s="7"/>
     </row>
-    <row r="900" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="6"/>
       <c r="B900" s="7"/>
       <c r="C900" s="6"/>
@@ -9558,7 +9642,7 @@
       <c r="F900" s="6"/>
       <c r="G900" s="7"/>
     </row>
-    <row r="901" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="6"/>
       <c r="B901" s="7"/>
       <c r="C901" s="6"/>
@@ -9567,7 +9651,7 @@
       <c r="F901" s="6"/>
       <c r="G901" s="7"/>
     </row>
-    <row r="902" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="6"/>
       <c r="B902" s="7"/>
       <c r="C902" s="6"/>
@@ -9576,7 +9660,7 @@
       <c r="F902" s="6"/>
       <c r="G902" s="7"/>
     </row>
-    <row r="903" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="6"/>
       <c r="B903" s="7"/>
       <c r="C903" s="6"/>
@@ -9585,7 +9669,7 @@
       <c r="F903" s="6"/>
       <c r="G903" s="7"/>
     </row>
-    <row r="904" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="6"/>
       <c r="B904" s="7"/>
       <c r="C904" s="6"/>
@@ -9594,7 +9678,7 @@
       <c r="F904" s="6"/>
       <c r="G904" s="7"/>
     </row>
-    <row r="905" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="6"/>
       <c r="B905" s="7"/>
       <c r="C905" s="6"/>
@@ -9603,7 +9687,7 @@
       <c r="F905" s="6"/>
       <c r="G905" s="7"/>
     </row>
-    <row r="906" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="6"/>
       <c r="B906" s="7"/>
       <c r="C906" s="6"/>
@@ -9612,7 +9696,7 @@
       <c r="F906" s="6"/>
       <c r="G906" s="7"/>
     </row>
-    <row r="907" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="6"/>
       <c r="B907" s="7"/>
       <c r="C907" s="6"/>
@@ -9621,7 +9705,7 @@
       <c r="F907" s="6"/>
       <c r="G907" s="7"/>
     </row>
-    <row r="908" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="6"/>
       <c r="B908" s="7"/>
       <c r="C908" s="6"/>
@@ -9630,7 +9714,7 @@
       <c r="F908" s="6"/>
       <c r="G908" s="7"/>
     </row>
-    <row r="909" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="6"/>
       <c r="B909" s="7"/>
       <c r="C909" s="6"/>
@@ -9639,7 +9723,7 @@
       <c r="F909" s="6"/>
       <c r="G909" s="7"/>
     </row>
-    <row r="910" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="6"/>
       <c r="B910" s="7"/>
       <c r="C910" s="6"/>
@@ -9648,7 +9732,7 @@
       <c r="F910" s="6"/>
       <c r="G910" s="7"/>
     </row>
-    <row r="911" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="6"/>
       <c r="B911" s="7"/>
       <c r="C911" s="6"/>
@@ -9657,7 +9741,7 @@
       <c r="F911" s="6"/>
       <c r="G911" s="7"/>
     </row>
-    <row r="912" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="6"/>
       <c r="B912" s="7"/>
       <c r="C912" s="6"/>
@@ -9666,7 +9750,7 @@
       <c r="F912" s="6"/>
       <c r="G912" s="7"/>
     </row>
-    <row r="913" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="6"/>
       <c r="B913" s="7"/>
       <c r="C913" s="6"/>
@@ -9675,7 +9759,7 @@
       <c r="F913" s="6"/>
       <c r="G913" s="7"/>
     </row>
-    <row r="914" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="6"/>
       <c r="B914" s="7"/>
       <c r="C914" s="6"/>
@@ -9684,7 +9768,7 @@
       <c r="F914" s="6"/>
       <c r="G914" s="7"/>
     </row>
-    <row r="915" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="6"/>
       <c r="B915" s="7"/>
       <c r="C915" s="6"/>
@@ -9693,7 +9777,7 @@
       <c r="F915" s="6"/>
       <c r="G915" s="7"/>
     </row>
-    <row r="916" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="6"/>
       <c r="B916" s="7"/>
       <c r="C916" s="6"/>
@@ -9702,7 +9786,7 @@
       <c r="F916" s="6"/>
       <c r="G916" s="7"/>
     </row>
-    <row r="917" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="6"/>
       <c r="B917" s="7"/>
       <c r="C917" s="6"/>
@@ -9711,7 +9795,7 @@
       <c r="F917" s="6"/>
       <c r="G917" s="7"/>
     </row>
-    <row r="918" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="6"/>
       <c r="B918" s="7"/>
       <c r="C918" s="6"/>
@@ -9720,7 +9804,7 @@
       <c r="F918" s="6"/>
       <c r="G918" s="7"/>
     </row>
-    <row r="919" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="6"/>
       <c r="B919" s="7"/>
       <c r="C919" s="6"/>
@@ -9729,7 +9813,7 @@
       <c r="F919" s="6"/>
       <c r="G919" s="7"/>
     </row>
-    <row r="920" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="6"/>
       <c r="B920" s="7"/>
       <c r="C920" s="6"/>
@@ -9738,7 +9822,7 @@
       <c r="F920" s="6"/>
       <c r="G920" s="7"/>
     </row>
-    <row r="921" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="6"/>
       <c r="B921" s="7"/>
       <c r="C921" s="6"/>
@@ -9747,7 +9831,7 @@
       <c r="F921" s="6"/>
       <c r="G921" s="7"/>
     </row>
-    <row r="922" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="6"/>
       <c r="B922" s="7"/>
       <c r="C922" s="6"/>
@@ -9756,7 +9840,7 @@
       <c r="F922" s="6"/>
       <c r="G922" s="7"/>
     </row>
-    <row r="923" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="6"/>
       <c r="B923" s="7"/>
       <c r="C923" s="6"/>
@@ -9765,7 +9849,7 @@
       <c r="F923" s="6"/>
       <c r="G923" s="7"/>
     </row>
-    <row r="924" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="6"/>
       <c r="B924" s="7"/>
       <c r="C924" s="6"/>
@@ -9774,7 +9858,7 @@
       <c r="F924" s="6"/>
       <c r="G924" s="7"/>
     </row>
-    <row r="925" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="6"/>
       <c r="B925" s="7"/>
       <c r="C925" s="6"/>
@@ -9783,7 +9867,7 @@
       <c r="F925" s="6"/>
       <c r="G925" s="7"/>
     </row>
-    <row r="926" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="6"/>
       <c r="B926" s="7"/>
       <c r="C926" s="6"/>
@@ -9792,7 +9876,7 @@
       <c r="F926" s="6"/>
       <c r="G926" s="7"/>
     </row>
-    <row r="927" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="6"/>
       <c r="B927" s="7"/>
       <c r="C927" s="6"/>
@@ -9801,7 +9885,7 @@
       <c r="F927" s="6"/>
       <c r="G927" s="7"/>
     </row>
-    <row r="928" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="6"/>
       <c r="B928" s="7"/>
       <c r="C928" s="6"/>
@@ -9810,7 +9894,7 @@
       <c r="F928" s="6"/>
       <c r="G928" s="7"/>
     </row>
-    <row r="929" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="6"/>
       <c r="B929" s="7"/>
       <c r="C929" s="6"/>
@@ -9819,7 +9903,7 @@
       <c r="F929" s="6"/>
       <c r="G929" s="7"/>
     </row>
-    <row r="930" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="6"/>
       <c r="B930" s="7"/>
       <c r="C930" s="6"/>
@@ -9828,7 +9912,7 @@
       <c r="F930" s="6"/>
       <c r="G930" s="7"/>
     </row>
-    <row r="931" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="6"/>
       <c r="B931" s="7"/>
       <c r="C931" s="6"/>
@@ -9837,7 +9921,7 @@
       <c r="F931" s="6"/>
       <c r="G931" s="7"/>
     </row>
-    <row r="932" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="6"/>
       <c r="B932" s="7"/>
       <c r="C932" s="6"/>
@@ -9846,7 +9930,7 @@
       <c r="F932" s="6"/>
       <c r="G932" s="7"/>
     </row>
-    <row r="933" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="6"/>
       <c r="B933" s="7"/>
       <c r="C933" s="6"/>
@@ -9855,7 +9939,7 @@
       <c r="F933" s="6"/>
       <c r="G933" s="7"/>
     </row>
-    <row r="934" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="6"/>
       <c r="B934" s="7"/>
       <c r="C934" s="6"/>
@@ -9864,7 +9948,7 @@
       <c r="F934" s="6"/>
       <c r="G934" s="7"/>
     </row>
-    <row r="935" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="6"/>
       <c r="B935" s="7"/>
       <c r="C935" s="6"/>
@@ -9873,7 +9957,7 @@
       <c r="F935" s="6"/>
       <c r="G935" s="7"/>
     </row>
-    <row r="936" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="6"/>
       <c r="B936" s="7"/>
       <c r="C936" s="6"/>
@@ -9882,7 +9966,7 @@
       <c r="F936" s="6"/>
       <c r="G936" s="7"/>
     </row>
-    <row r="937" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="6"/>
       <c r="B937" s="7"/>
       <c r="C937" s="6"/>
@@ -9891,7 +9975,7 @@
       <c r="F937" s="6"/>
       <c r="G937" s="7"/>
     </row>
-    <row r="938" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="6"/>
       <c r="B938" s="7"/>
       <c r="C938" s="6"/>
@@ -9900,7 +9984,7 @@
       <c r="F938" s="6"/>
       <c r="G938" s="7"/>
     </row>
-    <row r="939" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="6"/>
       <c r="B939" s="7"/>
       <c r="C939" s="6"/>
@@ -9909,7 +9993,7 @@
       <c r="F939" s="6"/>
       <c r="G939" s="7"/>
     </row>
-    <row r="940" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="6"/>
       <c r="B940" s="7"/>
       <c r="C940" s="6"/>
@@ -9918,7 +10002,7 @@
       <c r="F940" s="6"/>
       <c r="G940" s="7"/>
     </row>
-    <row r="941" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="6"/>
       <c r="B941" s="7"/>
       <c r="C941" s="6"/>
@@ -9927,7 +10011,7 @@
       <c r="F941" s="6"/>
       <c r="G941" s="7"/>
     </row>
-    <row r="942" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="6"/>
       <c r="B942" s="7"/>
       <c r="C942" s="6"/>
@@ -9936,7 +10020,7 @@
       <c r="F942" s="6"/>
       <c r="G942" s="7"/>
     </row>
-    <row r="943" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="6"/>
       <c r="B943" s="7"/>
       <c r="C943" s="6"/>
@@ -9945,7 +10029,7 @@
       <c r="F943" s="6"/>
       <c r="G943" s="7"/>
     </row>
-    <row r="944" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="6"/>
       <c r="B944" s="7"/>
       <c r="C944" s="6"/>
@@ -9954,7 +10038,7 @@
       <c r="F944" s="6"/>
       <c r="G944" s="7"/>
     </row>
-    <row r="945" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="6"/>
       <c r="B945" s="7"/>
       <c r="C945" s="6"/>
@@ -9963,7 +10047,7 @@
       <c r="F945" s="6"/>
       <c r="G945" s="7"/>
     </row>
-    <row r="946" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="6"/>
       <c r="B946" s="7"/>
       <c r="C946" s="6"/>
@@ -9972,7 +10056,7 @@
       <c r="F946" s="6"/>
       <c r="G946" s="7"/>
     </row>
-    <row r="947" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="6"/>
       <c r="B947" s="7"/>
       <c r="C947" s="6"/>
@@ -9981,7 +10065,7 @@
       <c r="F947" s="6"/>
       <c r="G947" s="7"/>
     </row>
-    <row r="948" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="6"/>
       <c r="B948" s="7"/>
       <c r="C948" s="6"/>
@@ -9990,7 +10074,7 @@
       <c r="F948" s="6"/>
       <c r="G948" s="7"/>
     </row>
-    <row r="949" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="6"/>
       <c r="B949" s="7"/>
       <c r="C949" s="6"/>
@@ -9999,7 +10083,7 @@
       <c r="F949" s="6"/>
       <c r="G949" s="7"/>
     </row>
-    <row r="950" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="6"/>
       <c r="B950" s="7"/>
       <c r="C950" s="6"/>
@@ -10008,7 +10092,7 @@
       <c r="F950" s="6"/>
       <c r="G950" s="7"/>
     </row>
-    <row r="951" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="6"/>
       <c r="B951" s="7"/>
       <c r="C951" s="6"/>
@@ -10017,7 +10101,7 @@
       <c r="F951" s="6"/>
       <c r="G951" s="7"/>
     </row>
-    <row r="952" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="6"/>
       <c r="B952" s="7"/>
       <c r="C952" s="6"/>
@@ -10026,7 +10110,7 @@
       <c r="F952" s="6"/>
       <c r="G952" s="7"/>
     </row>
-    <row r="953" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="6"/>
       <c r="B953" s="7"/>
       <c r="C953" s="6"/>
@@ -10035,7 +10119,7 @@
       <c r="F953" s="6"/>
       <c r="G953" s="7"/>
     </row>
-    <row r="954" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="6"/>
       <c r="B954" s="7"/>
       <c r="C954" s="6"/>
@@ -10044,7 +10128,7 @@
       <c r="F954" s="6"/>
       <c r="G954" s="7"/>
     </row>
-    <row r="955" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="6"/>
       <c r="B955" s="7"/>
       <c r="C955" s="6"/>
@@ -10053,7 +10137,7 @@
       <c r="F955" s="6"/>
       <c r="G955" s="7"/>
     </row>
-    <row r="956" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="6"/>
       <c r="B956" s="7"/>
       <c r="C956" s="6"/>
@@ -10062,7 +10146,7 @@
       <c r="F956" s="6"/>
       <c r="G956" s="7"/>
     </row>
-    <row r="957" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="6"/>
       <c r="B957" s="7"/>
       <c r="C957" s="6"/>
@@ -10071,7 +10155,7 @@
       <c r="F957" s="6"/>
       <c r="G957" s="7"/>
     </row>
-    <row r="958" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="6"/>
       <c r="B958" s="7"/>
       <c r="C958" s="6"/>
@@ -10080,7 +10164,7 @@
       <c r="F958" s="6"/>
       <c r="G958" s="7"/>
     </row>
-    <row r="959" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="6"/>
       <c r="B959" s="7"/>
       <c r="C959" s="6"/>
@@ -10089,7 +10173,7 @@
       <c r="F959" s="6"/>
       <c r="G959" s="7"/>
     </row>
-    <row r="960" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="6"/>
       <c r="B960" s="7"/>
       <c r="C960" s="6"/>
@@ -10098,7 +10182,7 @@
       <c r="F960" s="6"/>
       <c r="G960" s="7"/>
     </row>
-    <row r="961" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="6"/>
       <c r="B961" s="7"/>
       <c r="C961" s="6"/>
@@ -10107,7 +10191,7 @@
       <c r="F961" s="6"/>
       <c r="G961" s="7"/>
     </row>
-    <row r="962" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="6"/>
       <c r="B962" s="7"/>
       <c r="C962" s="6"/>
@@ -10116,7 +10200,7 @@
       <c r="F962" s="6"/>
       <c r="G962" s="7"/>
     </row>
-    <row r="963" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="6"/>
       <c r="B963" s="7"/>
       <c r="C963" s="6"/>
@@ -10125,7 +10209,7 @@
       <c r="F963" s="6"/>
       <c r="G963" s="7"/>
     </row>
-    <row r="964" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="6"/>
       <c r="B964" s="7"/>
       <c r="C964" s="6"/>
@@ -10134,7 +10218,7 @@
       <c r="F964" s="6"/>
       <c r="G964" s="7"/>
     </row>
-    <row r="965" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="6"/>
       <c r="B965" s="7"/>
       <c r="C965" s="6"/>
@@ -10143,7 +10227,7 @@
       <c r="F965" s="6"/>
       <c r="G965" s="7"/>
     </row>
-    <row r="966" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="6"/>
       <c r="B966" s="7"/>
       <c r="C966" s="6"/>
@@ -10152,7 +10236,7 @@
       <c r="F966" s="6"/>
       <c r="G966" s="7"/>
     </row>
-    <row r="967" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="6"/>
       <c r="B967" s="7"/>
       <c r="C967" s="6"/>
@@ -10161,7 +10245,7 @@
       <c r="F967" s="6"/>
       <c r="G967" s="7"/>
     </row>
-    <row r="968" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="6"/>
       <c r="B968" s="7"/>
       <c r="C968" s="6"/>
@@ -10170,7 +10254,7 @@
       <c r="F968" s="6"/>
       <c r="G968" s="7"/>
     </row>
-    <row r="969" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="6"/>
       <c r="B969" s="7"/>
       <c r="C969" s="6"/>
@@ -10179,7 +10263,7 @@
       <c r="F969" s="6"/>
       <c r="G969" s="7"/>
     </row>
-    <row r="970" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="6"/>
       <c r="B970" s="7"/>
       <c r="C970" s="6"/>
@@ -10188,7 +10272,7 @@
       <c r="F970" s="6"/>
       <c r="G970" s="7"/>
     </row>
-    <row r="971" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="6"/>
       <c r="B971" s="7"/>
       <c r="C971" s="6"/>
@@ -10197,7 +10281,7 @@
       <c r="F971" s="6"/>
       <c r="G971" s="7"/>
     </row>
-    <row r="972" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="6"/>
       <c r="B972" s="7"/>
       <c r="C972" s="6"/>
@@ -10206,7 +10290,7 @@
       <c r="F972" s="6"/>
       <c r="G972" s="7"/>
     </row>
-    <row r="973" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="6"/>
       <c r="B973" s="7"/>
       <c r="C973" s="6"/>
@@ -10215,7 +10299,7 @@
       <c r="F973" s="6"/>
       <c r="G973" s="7"/>
     </row>
-    <row r="974" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="6"/>
       <c r="B974" s="7"/>
       <c r="C974" s="6"/>
@@ -10224,7 +10308,7 @@
       <c r="F974" s="6"/>
       <c r="G974" s="7"/>
     </row>
-    <row r="975" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="6"/>
       <c r="B975" s="7"/>
       <c r="C975" s="6"/>
@@ -10233,7 +10317,7 @@
       <c r="F975" s="6"/>
       <c r="G975" s="7"/>
     </row>
-    <row r="976" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="6"/>
       <c r="B976" s="7"/>
       <c r="C976" s="6"/>
@@ -10242,7 +10326,7 @@
       <c r="F976" s="6"/>
       <c r="G976" s="7"/>
     </row>
-    <row r="977" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="6"/>
       <c r="B977" s="7"/>
       <c r="C977" s="6"/>
@@ -10251,7 +10335,7 @@
       <c r="F977" s="6"/>
       <c r="G977" s="7"/>
     </row>
-    <row r="978" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="6"/>
       <c r="B978" s="7"/>
       <c r="C978" s="6"/>
@@ -10260,7 +10344,7 @@
       <c r="F978" s="6"/>
       <c r="G978" s="7"/>
     </row>
-    <row r="979" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="6"/>
       <c r="B979" s="7"/>
       <c r="C979" s="6"/>
@@ -10269,7 +10353,7 @@
       <c r="F979" s="6"/>
       <c r="G979" s="7"/>
     </row>
-    <row r="980" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="6"/>
       <c r="B980" s="7"/>
       <c r="C980" s="6"/>
@@ -10278,7 +10362,7 @@
       <c r="F980" s="6"/>
       <c r="G980" s="7"/>
     </row>
-    <row r="981" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="6"/>
       <c r="B981" s="7"/>
       <c r="C981" s="6"/>
@@ -10287,7 +10371,7 @@
       <c r="F981" s="6"/>
       <c r="G981" s="7"/>
     </row>
-    <row r="982" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="6"/>
       <c r="B982" s="7"/>
       <c r="C982" s="6"/>
@@ -10296,7 +10380,7 @@
       <c r="F982" s="6"/>
       <c r="G982" s="7"/>
     </row>
-    <row r="983" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="6"/>
       <c r="B983" s="7"/>
       <c r="C983" s="6"/>
@@ -10305,7 +10389,7 @@
       <c r="F983" s="6"/>
       <c r="G983" s="7"/>
     </row>
-    <row r="984" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="6"/>
       <c r="B984" s="7"/>
       <c r="C984" s="6"/>
@@ -10314,7 +10398,7 @@
       <c r="F984" s="6"/>
       <c r="G984" s="7"/>
     </row>
-    <row r="985" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="6"/>
       <c r="B985" s="7"/>
       <c r="C985" s="6"/>
@@ -10323,7 +10407,7 @@
       <c r="F985" s="6"/>
       <c r="G985" s="7"/>
     </row>
-    <row r="986" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="6"/>
       <c r="B986" s="7"/>
       <c r="C986" s="6"/>
@@ -10332,7 +10416,7 @@
       <c r="F986" s="6"/>
       <c r="G986" s="7"/>
     </row>
-    <row r="987" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="6"/>
       <c r="B987" s="7"/>
       <c r="C987" s="6"/>
@@ -10341,7 +10425,7 @@
       <c r="F987" s="6"/>
       <c r="G987" s="7"/>
     </row>
-    <row r="988" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="6"/>
       <c r="B988" s="7"/>
       <c r="C988" s="6"/>
@@ -10350,7 +10434,7 @@
       <c r="F988" s="6"/>
       <c r="G988" s="7"/>
     </row>
-    <row r="989" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="6"/>
       <c r="B989" s="7"/>
       <c r="C989" s="6"/>
@@ -10359,7 +10443,7 @@
       <c r="F989" s="6"/>
       <c r="G989" s="7"/>
     </row>
-    <row r="990" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="6"/>
       <c r="B990" s="7"/>
       <c r="C990" s="6"/>
@@ -10368,7 +10452,7 @@
       <c r="F990" s="6"/>
       <c r="G990" s="7"/>
     </row>
-    <row r="991" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="6"/>
       <c r="B991" s="7"/>
       <c r="C991" s="6"/>
@@ -10377,7 +10461,7 @@
       <c r="F991" s="6"/>
       <c r="G991" s="7"/>
     </row>
-    <row r="992" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="6"/>
       <c r="B992" s="7"/>
       <c r="C992" s="6"/>
@@ -10386,7 +10470,7 @@
       <c r="F992" s="6"/>
       <c r="G992" s="7"/>
     </row>
-    <row r="993" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="6"/>
       <c r="B993" s="7"/>
       <c r="C993" s="6"/>
@@ -10395,7 +10479,7 @@
       <c r="F993" s="6"/>
       <c r="G993" s="7"/>
     </row>
-    <row r="994" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="6"/>
       <c r="B994" s="7"/>
       <c r="C994" s="6"/>
@@ -10404,7 +10488,7 @@
       <c r="F994" s="6"/>
       <c r="G994" s="7"/>
     </row>
-    <row r="995" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="6"/>
       <c r="B995" s="7"/>
       <c r="C995" s="6"/>
@@ -10413,7 +10497,7 @@
       <c r="F995" s="6"/>
       <c r="G995" s="7"/>
     </row>
-    <row r="996" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="6"/>
       <c r="B996" s="7"/>
       <c r="C996" s="6"/>
@@ -10422,7 +10506,7 @@
       <c r="F996" s="6"/>
       <c r="G996" s="7"/>
     </row>
-    <row r="997" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A997" s="6"/>
       <c r="B997" s="7"/>
       <c r="C997" s="6"/>
@@ -10431,7 +10515,7 @@
       <c r="F997" s="6"/>
       <c r="G997" s="7"/>
     </row>
-    <row r="998" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A998" s="6"/>
       <c r="B998" s="7"/>
       <c r="C998" s="6"/>
@@ -10440,7 +10524,7 @@
       <c r="F998" s="6"/>
       <c r="G998" s="7"/>
     </row>
-    <row r="999" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A999" s="6"/>
       <c r="B999" s="7"/>
       <c r="C999" s="6"/>
@@ -10449,7 +10533,7 @@
       <c r="F999" s="6"/>
       <c r="G999" s="7"/>
     </row>
-    <row r="1000" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1000" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1000" s="6"/>
       <c r="B1000" s="7"/>
       <c r="C1000" s="6"/>
@@ -10458,7 +10542,7 @@
       <c r="F1000" s="6"/>
       <c r="G1000" s="7"/>
     </row>
-    <row r="1001" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1001" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1001" s="5"/>
       <c r="B1001" s="5"/>
       <c r="C1001" s="5"/>
@@ -10467,24 +10551,21 @@
       <c r="F1001" s="5"/>
       <c r="G1001" s="5"/>
     </row>
-    <row r="1002" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1003" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1004" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1005" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1006" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1007" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1008" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1009" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1010" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1011" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1012" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1013" spans="1:9" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="1014" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1015" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1016" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1003" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1004" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1005" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1006" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1007" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1008" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1009" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1010" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1011" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1012" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1013" ht="13.8" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation allowBlank="1" showDropDown="1" sqref="B6:B8 B2:B4 B34 G2:G22 G25:G34 B47:B1000 G36:G1000" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="B6:B8 B2:B4 B34 G2:G22 G25:G34 B55:B1000 B47:B51 G36:G51 G55:G1000" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation type="list" allowBlank="1" sqref="C2:C1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"P1,P2,P3"</formula1>
     </dataValidation>

--- a/src/main/resources/iteration2_scrumReport_wolf.xlsx
+++ b/src/main/resources/iteration2_scrumReport_wolf.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6F35A833-5842-4EA0-B2FA-B9C0CF7BB4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2E195777-21AD-4F4A-B9B7-9CF23D4F4208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="97">
   <si>
     <t>Iteration</t>
   </si>
@@ -307,15 +307,6 @@
   </si>
   <si>
     <t>Centralized global UI theme (colors, fonts, components) using shared CSS across all views.</t>
-  </si>
-  <si>
-    <t>Enhanced History filtering with smart free-text inference and separated filtering logic from the UI controller.</t>
-  </si>
-  <si>
-    <t>The History screen now infers filter intent (Result, Difficulty, or Player Name) when the filter type remains “All”, applies strict validation for result keywords, and keeps date filtering explicit. Filtering and validation logic were moved to a dedicated service to improve code clarity, testability, and maintainability.</t>
-  </si>
-  <si>
-    <t>Improved settings toggles by replacing ToggleButtons with image-based switches for clearer visual feedback.</t>
   </si>
 </sst>
 </file>
@@ -665,7 +656,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Scrum_Report" displayName="Scrum_Report" ref="A1:G1000" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Scrum_Report" displayName="Scrum_Report" ref="A1:G998" dataDxfId="7">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Iteration" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Task" dataDxfId="5"/>
@@ -884,7 +875,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52:G52"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1919,42 +1910,20 @@
     </row>
     <row r="51" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
-      <c r="B51" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="B51" s="7"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="7"/>
     </row>
     <row r="52" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
-      <c r="B52" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>26</v>
-      </c>
+      <c r="B52" s="7"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
       <c r="G52" s="7"/>
     </row>
     <row r="53" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -10472,32 +10441,16 @@
       <c r="G998" s="7"/>
     </row>
     <row r="999" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A999" s="6"/>
-      <c r="B999" s="7"/>
-      <c r="C999" s="6"/>
-      <c r="D999" s="6"/>
-      <c r="E999" s="6"/>
-      <c r="F999" s="6"/>
-      <c r="G999" s="7"/>
-    </row>
-    <row r="1000" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1000" s="6"/>
-      <c r="B1000" s="7"/>
-      <c r="C1000" s="6"/>
-      <c r="D1000" s="6"/>
-      <c r="E1000" s="6"/>
-      <c r="F1000" s="6"/>
-      <c r="G1000" s="7"/>
-    </row>
-    <row r="1001" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1001" s="5"/>
-      <c r="B1001" s="5"/>
-      <c r="C1001" s="5"/>
-      <c r="D1001" s="5"/>
-      <c r="E1001" s="5"/>
-      <c r="F1001" s="5"/>
-      <c r="G1001" s="5"/>
-    </row>
+      <c r="A999" s="5"/>
+      <c r="B999" s="5"/>
+      <c r="C999" s="5"/>
+      <c r="D999" s="5"/>
+      <c r="E999" s="5"/>
+      <c r="F999" s="5"/>
+      <c r="G999" s="5"/>
+    </row>
+    <row r="1000" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1002" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1003" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1004" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10507,28 +10460,28 @@
     <row r="1008" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1009" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1010" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1011" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1012" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1013" spans="1:9" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="1011" spans="1:9" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
+    <row r="1012" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1013" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1014" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1015" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1016" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation allowBlank="1" showDropDown="1" sqref="B6:B8 B2:B4 B34 G2:G22 G25:G34 B47:B1000 G36:G1000" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
-    <dataValidation type="list" allowBlank="1" sqref="C2:C1000" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation allowBlank="1" showDropDown="1" sqref="B6:B8 B2:B4 B34 G2:G22 G25:G34 G36:G998 B47:B998" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation type="list" allowBlank="1" sqref="C2:C998" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"P1,P2,P3"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F1000" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F998" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Not in this iteration,In progress,Completed,Not started"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="A2:A1000" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" sqref="A2:A998" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Iteration01,Iteration02,Iteration03"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E1000" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E998" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Developer 1,Developer 2,Developer 3,Developer 4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D1000" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D998" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Scrum master,Developer,Product owner"</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/main/resources/iteration2_scrumReport_wolf.xlsx
+++ b/src/main/resources/iteration2_scrumReport_wolf.xlsx
@@ -3,7 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{2E195777-21AD-4F4A-B9B7-9CF23D4F4208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adan\Documents\GitHub\MineSweeper_Wolf\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05399C13-8517-49D8-93F5-C31F88E7944C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,12 +16,11 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="118">
   <si>
     <t>Iteration</t>
   </si>
@@ -307,17 +311,107 @@
   </si>
   <si>
     <t>Centralized global UI theme (colors, fonts, components) using shared CSS across all views.</t>
+  </si>
+  <si>
+    <t>Design Black-Box Test for Admin Login Authorization</t>
+  </si>
+  <si>
+    <t>Design White-Box test for Pause Game toggle logic</t>
+  </si>
+  <si>
+    <t>scrum master</t>
+  </si>
+  <si>
+    <r>
+      <t>The test verifies internal state changes (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>isPaused</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), timer control (pause/resume), and UI side effects (board opacity changes).</t>
+    </r>
+  </si>
+  <si>
+    <t>Build control-flow graph for White-Box testing (Pause Game)</t>
+  </si>
+  <si>
+    <t>Graph was used to ensure coverage of all transitions (pause, resume with timer enabled, resume with timer disabled).</t>
+  </si>
+  <si>
+    <t>Design Black-Box test for Pause Game requirement</t>
+  </si>
+  <si>
+    <t>Implement JUnit test for Pause Game feature</t>
+  </si>
+  <si>
+    <t>The tests cover first pause, resume with timer enabled, and resume with timer disabled, validating internal state, UI opacity changes, and timer status.</t>
+  </si>
+  <si>
+    <t>The test validates pause/play toggling, board dimming, and timer behavior based on timer settings.</t>
+  </si>
+  <si>
+    <t>Designed White-Box Test – Admin Login Control Flow</t>
+  </si>
+  <si>
+    <t>Implemented JUnit Tests – Admin Login Validation</t>
+  </si>
+  <si>
+    <t>Test to verify that only users with valid credentials and admin role can log in; covered invalid username, wrong password, and non-admin cases.</t>
+  </si>
+  <si>
+    <t>Test based on the login method’s control-flow graph to validate correct decision paths and error handling.</t>
+  </si>
+  <si>
+    <t>Test for admin login scenarios, including invalid inputs and successful admin authentication; all tests passed.</t>
+  </si>
+  <si>
+    <t>Designed Black-Box Test – Validate Add Question Form</t>
+  </si>
+  <si>
+    <t>To verify that a question is accepted only when all required inputs are valid, and rejected otherwise.</t>
+  </si>
+  <si>
+    <t>Designed a White-Box Test – Add Question Form Validation Flow</t>
+  </si>
+  <si>
+    <t>Test based on the control-flow graph of the form validation logic, covering failure paths and the successful submission path.</t>
+  </si>
+  <si>
+    <t>Implemented JUnit Tests – Options Distinct Validation</t>
+  </si>
+  <si>
+    <t>Tests for the allDistinctIgnoreCase logic to verify correct handling of valid inputs, case-insensitive duplicates, and exact duplicates.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -387,6 +481,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -444,47 +543,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="2"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -871,14 +971,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I1016"/>
+  <dimension ref="A1:I1011"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A54" sqref="A54"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.09765625" customWidth="1"/>
     <col min="2" max="2" width="44.19921875" customWidth="1"/>
@@ -892,7 +992,7 @@
     <col min="10" max="10" width="15.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -915,7 +1015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="22.5" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>15</v>
       </c>
@@ -939,7 +1039,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="22.5" customHeight="1">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>17</v>
@@ -961,7 +1061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="22.5" customHeight="1" thickBot="1">
       <c r="A4" s="6"/>
       <c r="B4" s="7" t="s">
         <v>18</v>
@@ -983,7 +1083,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="22.5" customHeight="1" thickBot="1">
       <c r="A5" s="6"/>
       <c r="B5" s="8" t="s">
         <v>24</v>
@@ -1005,7 +1105,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="22.5" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7" t="s">
         <v>19</v>
@@ -1024,7 +1124,7 @@
       </c>
       <c r="G6" s="7"/>
     </row>
-    <row r="7" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="22.5" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="7" t="s">
         <v>20</v>
@@ -1043,7 +1143,7 @@
       </c>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="22.5" customHeight="1" thickBot="1">
       <c r="A8" s="6"/>
       <c r="B8" s="7" t="s">
         <v>21</v>
@@ -1062,7 +1162,7 @@
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="22.5" customHeight="1" thickBot="1">
       <c r="A9" s="6"/>
       <c r="B9" s="8" t="s">
         <v>25</v>
@@ -1081,7 +1181,7 @@
       </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="22.5" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="9" t="s">
         <v>22</v>
@@ -1100,7 +1200,7 @@
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="22.5" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="9" t="s">
         <v>23</v>
@@ -1119,7 +1219,7 @@
       </c>
       <c r="G11" s="7"/>
     </row>
-    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="22.5" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="9" t="s">
         <v>28</v>
@@ -1138,7 +1238,7 @@
       </c>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="22.5" customHeight="1">
       <c r="A13" s="6"/>
       <c r="B13" s="9" t="s">
         <v>27</v>
@@ -1157,7 +1257,7 @@
       </c>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="22.5" customHeight="1">
       <c r="A14" s="6"/>
       <c r="B14" s="11" t="s">
         <v>30</v>
@@ -1176,7 +1276,7 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="22.5" customHeight="1">
       <c r="A15" s="6"/>
       <c r="B15" s="11" t="s">
         <v>31</v>
@@ -1195,7 +1295,7 @@
       </c>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="22.5" customHeight="1">
       <c r="A16" s="6"/>
       <c r="B16" s="11" t="s">
         <v>33</v>
@@ -1214,7 +1314,7 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="22.5" customHeight="1">
       <c r="A17" s="6"/>
       <c r="B17" s="11" t="s">
         <v>34</v>
@@ -1233,7 +1333,7 @@
       </c>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="22.5" customHeight="1">
       <c r="A18" s="6"/>
       <c r="B18" s="11" t="s">
         <v>35</v>
@@ -1252,7 +1352,7 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="22.5" customHeight="1">
       <c r="A19" s="6"/>
       <c r="B19" s="11" t="s">
         <v>36</v>
@@ -1271,7 +1371,7 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="22.5" customHeight="1">
       <c r="A20" s="6"/>
       <c r="B20" s="11" t="s">
         <v>37</v>
@@ -1290,7 +1390,7 @@
       </c>
       <c r="G20" s="7"/>
     </row>
-    <row r="21" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="22.5" customHeight="1">
       <c r="A21" s="6"/>
       <c r="B21" s="11" t="s">
         <v>38</v>
@@ -1309,7 +1409,7 @@
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="22.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="11" t="s">
         <v>39</v>
@@ -1328,7 +1428,7 @@
       </c>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="22.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="12" t="s">
         <v>40</v>
@@ -1349,7 +1449,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="22.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="12" t="s">
         <v>43</v>
@@ -1370,7 +1470,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="22.5" customHeight="1">
       <c r="A25" s="6"/>
       <c r="B25" s="14" t="s">
         <v>45</v>
@@ -1391,7 +1491,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="22.5" customHeight="1">
       <c r="A26" s="6"/>
       <c r="B26" s="9" t="s">
         <v>47</v>
@@ -1412,7 +1512,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="22.5" customHeight="1">
       <c r="A27" s="6"/>
       <c r="B27" s="9" t="s">
         <v>49</v>
@@ -1433,7 +1533,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="22.5" customHeight="1">
       <c r="A28" s="6"/>
       <c r="B28" s="9" t="s">
         <v>51</v>
@@ -1454,7 +1554,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="22.5" customHeight="1">
       <c r="A29" s="6"/>
       <c r="B29" s="9" t="s">
         <v>53</v>
@@ -1475,7 +1575,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="22.5" customHeight="1">
       <c r="A30" s="6"/>
       <c r="B30" s="9" t="s">
         <v>55</v>
@@ -1496,7 +1596,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="22.5" customHeight="1">
       <c r="A31" s="6"/>
       <c r="B31" s="9" t="s">
         <v>57</v>
@@ -1517,7 +1617,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="22.5" customHeight="1">
       <c r="A32" s="6"/>
       <c r="B32" s="9" t="s">
         <v>60</v>
@@ -1538,7 +1638,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="22.5" customHeight="1">
       <c r="A33" s="6"/>
       <c r="B33" s="9" t="s">
         <v>62</v>
@@ -1559,7 +1659,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="22.5" customHeight="1">
       <c r="A34" s="6"/>
       <c r="B34" s="7" t="s">
         <v>65</v>
@@ -1580,7 +1680,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="22.5" customHeight="1">
       <c r="A35" s="6"/>
       <c r="B35" s="9" t="s">
         <v>67</v>
@@ -1601,7 +1701,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="22.5" customHeight="1">
       <c r="A36" s="6"/>
       <c r="B36" s="16" t="s">
         <v>69</v>
@@ -1622,7 +1722,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="22.5" customHeight="1">
       <c r="A37" s="6"/>
       <c r="B37" s="9" t="s">
         <v>94</v>
@@ -1641,7 +1741,7 @@
       </c>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="22.5" customHeight="1">
       <c r="A38" s="6"/>
       <c r="B38" s="9" t="s">
         <v>72</v>
@@ -1660,7 +1760,7 @@
       </c>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="22.5" customHeight="1">
       <c r="A39" s="6"/>
       <c r="B39" s="9" t="s">
         <v>95</v>
@@ -1679,7 +1779,7 @@
       </c>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="22.5" customHeight="1">
       <c r="A40" s="6"/>
       <c r="B40" s="9" t="s">
         <v>73</v>
@@ -1700,7 +1800,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="22.5" customHeight="1">
       <c r="A41" s="6"/>
       <c r="B41" s="9" t="s">
         <v>75</v>
@@ -1719,7 +1819,7 @@
       </c>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="22.5" customHeight="1">
       <c r="A42" s="6"/>
       <c r="B42" s="9" t="s">
         <v>76</v>
@@ -1740,7 +1840,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="43" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="22.5" customHeight="1">
       <c r="A43" s="6"/>
       <c r="B43" s="9" t="s">
         <v>78</v>
@@ -1761,7 +1861,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="44" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="22.5" customHeight="1">
       <c r="A44" s="6"/>
       <c r="B44" s="9" t="s">
         <v>80</v>
@@ -1782,7 +1882,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="22.5" customHeight="1">
       <c r="A45" s="6"/>
       <c r="B45" s="10" t="s">
         <v>82</v>
@@ -1803,7 +1903,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="22.5" customHeight="1">
       <c r="A46" s="6"/>
       <c r="B46" s="18" t="s">
         <v>91</v>
@@ -1824,7 +1924,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="22.5" customHeight="1">
       <c r="A47" s="6"/>
       <c r="B47" s="7" t="s">
         <v>85</v>
@@ -1845,7 +1945,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="22.5" customHeight="1">
       <c r="A48" s="6"/>
       <c r="B48" s="7" t="s">
         <v>88</v>
@@ -1866,7 +1966,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="22.5" customHeight="1">
       <c r="A49" s="6"/>
       <c r="B49" s="7" t="s">
         <v>89</v>
@@ -1887,7 +1987,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="22.5" customHeight="1">
       <c r="A50" s="6"/>
       <c r="B50" s="7" t="s">
         <v>92</v>
@@ -1908,97 +2008,217 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="22.5" customHeight="1">
       <c r="A51" s="6"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="7"/>
-    </row>
-    <row r="52" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="22.5" customHeight="1">
       <c r="A52" s="6"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="7"/>
-    </row>
-    <row r="53" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="22.5" customHeight="1">
       <c r="A53" s="6"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="7"/>
-    </row>
-    <row r="54" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="22.5" customHeight="1">
       <c r="A54" s="6"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="7"/>
-    </row>
-    <row r="55" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="22.5" customHeight="1">
       <c r="A55" s="6"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="7"/>
-    </row>
-    <row r="56" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G55" s="19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="22.5" customHeight="1">
       <c r="A56" s="6"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="7"/>
-    </row>
-    <row r="57" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="22.5" customHeight="1">
       <c r="A57" s="6"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="7"/>
-    </row>
-    <row r="58" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="22.5" customHeight="1">
       <c r="A58" s="6"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="7"/>
-    </row>
-    <row r="59" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="22.5" customHeight="1">
       <c r="A59" s="6"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="7"/>
-    </row>
-    <row r="60" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="22.5" customHeight="1">
       <c r="A60" s="6"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="7"/>
-    </row>
-    <row r="61" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="22.5" customHeight="1">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="6"/>
@@ -2007,7 +2227,7 @@
       <c r="F61" s="6"/>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="22.5" customHeight="1">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="6"/>
@@ -2016,7 +2236,7 @@
       <c r="F62" s="6"/>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="22.5" customHeight="1">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="6"/>
@@ -2025,7 +2245,7 @@
       <c r="F63" s="6"/>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="22.5" customHeight="1">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="6"/>
@@ -2034,7 +2254,7 @@
       <c r="F64" s="6"/>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="22.5" customHeight="1">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="6"/>
@@ -2043,7 +2263,7 @@
       <c r="F65" s="6"/>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="22.5" customHeight="1">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="6"/>
@@ -2052,7 +2272,7 @@
       <c r="F66" s="6"/>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="22.5" customHeight="1">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="6"/>
@@ -2061,7 +2281,7 @@
       <c r="F67" s="6"/>
       <c r="G67" s="7"/>
     </row>
-    <row r="68" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="22.5" customHeight="1">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="6"/>
@@ -2070,7 +2290,7 @@
       <c r="F68" s="6"/>
       <c r="G68" s="7"/>
     </row>
-    <row r="69" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="22.5" customHeight="1">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="6"/>
@@ -2079,7 +2299,7 @@
       <c r="F69" s="6"/>
       <c r="G69" s="7"/>
     </row>
-    <row r="70" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="22.5" customHeight="1">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="6"/>
@@ -2088,7 +2308,7 @@
       <c r="F70" s="6"/>
       <c r="G70" s="7"/>
     </row>
-    <row r="71" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="22.5" customHeight="1">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="6"/>
@@ -2097,7 +2317,7 @@
       <c r="F71" s="6"/>
       <c r="G71" s="7"/>
     </row>
-    <row r="72" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="22.5" customHeight="1">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="6"/>
@@ -2106,7 +2326,7 @@
       <c r="F72" s="6"/>
       <c r="G72" s="7"/>
     </row>
-    <row r="73" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="22.5" customHeight="1">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="6"/>
@@ -2115,7 +2335,7 @@
       <c r="F73" s="6"/>
       <c r="G73" s="7"/>
     </row>
-    <row r="74" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="22.5" customHeight="1">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="6"/>
@@ -2124,7 +2344,7 @@
       <c r="F74" s="6"/>
       <c r="G74" s="7"/>
     </row>
-    <row r="75" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="22.5" customHeight="1">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="6"/>
@@ -2133,7 +2353,7 @@
       <c r="F75" s="6"/>
       <c r="G75" s="7"/>
     </row>
-    <row r="76" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="22.5" customHeight="1">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="6"/>
@@ -2142,7 +2362,7 @@
       <c r="F76" s="6"/>
       <c r="G76" s="7"/>
     </row>
-    <row r="77" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="22.5" customHeight="1">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="6"/>
@@ -2151,7 +2371,7 @@
       <c r="F77" s="6"/>
       <c r="G77" s="7"/>
     </row>
-    <row r="78" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="22.5" customHeight="1">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="6"/>
@@ -2160,7 +2380,7 @@
       <c r="F78" s="6"/>
       <c r="G78" s="7"/>
     </row>
-    <row r="79" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="22.5" customHeight="1">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="6"/>
@@ -2169,7 +2389,7 @@
       <c r="F79" s="6"/>
       <c r="G79" s="7"/>
     </row>
-    <row r="80" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="22.5" customHeight="1">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="6"/>
@@ -2178,7 +2398,7 @@
       <c r="F80" s="6"/>
       <c r="G80" s="7"/>
     </row>
-    <row r="81" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="22.5" customHeight="1">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="6"/>
@@ -2187,7 +2407,7 @@
       <c r="F81" s="6"/>
       <c r="G81" s="7"/>
     </row>
-    <row r="82" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="22.5" customHeight="1">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="6"/>
@@ -2196,7 +2416,7 @@
       <c r="F82" s="6"/>
       <c r="G82" s="7"/>
     </row>
-    <row r="83" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="22.5" customHeight="1">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="6"/>
@@ -2205,7 +2425,7 @@
       <c r="F83" s="6"/>
       <c r="G83" s="7"/>
     </row>
-    <row r="84" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="22.5" customHeight="1">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="6"/>
@@ -2214,7 +2434,7 @@
       <c r="F84" s="6"/>
       <c r="G84" s="7"/>
     </row>
-    <row r="85" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="22.5" customHeight="1">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="6"/>
@@ -2223,7 +2443,7 @@
       <c r="F85" s="6"/>
       <c r="G85" s="7"/>
     </row>
-    <row r="86" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="22.5" customHeight="1">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="6"/>
@@ -2232,7 +2452,7 @@
       <c r="F86" s="6"/>
       <c r="G86" s="7"/>
     </row>
-    <row r="87" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="22.5" customHeight="1">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="6"/>
@@ -2241,7 +2461,7 @@
       <c r="F87" s="6"/>
       <c r="G87" s="7"/>
     </row>
-    <row r="88" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="22.5" customHeight="1">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="6"/>
@@ -2250,7 +2470,7 @@
       <c r="F88" s="6"/>
       <c r="G88" s="7"/>
     </row>
-    <row r="89" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="22.5" customHeight="1">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="6"/>
@@ -2259,7 +2479,7 @@
       <c r="F89" s="6"/>
       <c r="G89" s="7"/>
     </row>
-    <row r="90" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="22.5" customHeight="1">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="6"/>
@@ -2268,7 +2488,7 @@
       <c r="F90" s="6"/>
       <c r="G90" s="7"/>
     </row>
-    <row r="91" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="22.5" customHeight="1">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
       <c r="C91" s="6"/>
@@ -2277,7 +2497,7 @@
       <c r="F91" s="6"/>
       <c r="G91" s="7"/>
     </row>
-    <row r="92" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="22.5" customHeight="1">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
       <c r="C92" s="6"/>
@@ -2286,7 +2506,7 @@
       <c r="F92" s="6"/>
       <c r="G92" s="7"/>
     </row>
-    <row r="93" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="22.5" customHeight="1">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
       <c r="C93" s="6"/>
@@ -2295,7 +2515,7 @@
       <c r="F93" s="6"/>
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="22.5" customHeight="1">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="6"/>
@@ -2304,7 +2524,7 @@
       <c r="F94" s="6"/>
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="22.5" customHeight="1">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
       <c r="C95" s="6"/>
@@ -2313,7 +2533,7 @@
       <c r="F95" s="6"/>
       <c r="G95" s="7"/>
     </row>
-    <row r="96" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="22.5" customHeight="1">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
       <c r="C96" s="6"/>
@@ -2322,7 +2542,7 @@
       <c r="F96" s="6"/>
       <c r="G96" s="7"/>
     </row>
-    <row r="97" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="22.5" customHeight="1">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
       <c r="C97" s="6"/>
@@ -2331,7 +2551,7 @@
       <c r="F97" s="6"/>
       <c r="G97" s="7"/>
     </row>
-    <row r="98" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="22.5" customHeight="1">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
       <c r="C98" s="6"/>
@@ -2340,7 +2560,7 @@
       <c r="F98" s="6"/>
       <c r="G98" s="7"/>
     </row>
-    <row r="99" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="22.5" customHeight="1">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
       <c r="C99" s="6"/>
@@ -2349,7 +2569,7 @@
       <c r="F99" s="6"/>
       <c r="G99" s="7"/>
     </row>
-    <row r="100" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="22.5" customHeight="1">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="6"/>
@@ -2358,7 +2578,7 @@
       <c r="F100" s="6"/>
       <c r="G100" s="7"/>
     </row>
-    <row r="101" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="22.5" customHeight="1">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
       <c r="C101" s="6"/>
@@ -2367,7 +2587,7 @@
       <c r="F101" s="6"/>
       <c r="G101" s="7"/>
     </row>
-    <row r="102" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="22.5" customHeight="1">
       <c r="A102" s="6"/>
       <c r="B102" s="7"/>
       <c r="C102" s="6"/>
@@ -2376,7 +2596,7 @@
       <c r="F102" s="6"/>
       <c r="G102" s="7"/>
     </row>
-    <row r="103" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="22.5" customHeight="1">
       <c r="A103" s="6"/>
       <c r="B103" s="7"/>
       <c r="C103" s="6"/>
@@ -2385,7 +2605,7 @@
       <c r="F103" s="6"/>
       <c r="G103" s="7"/>
     </row>
-    <row r="104" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="22.5" customHeight="1">
       <c r="A104" s="6"/>
       <c r="B104" s="7"/>
       <c r="C104" s="6"/>
@@ -2394,7 +2614,7 @@
       <c r="F104" s="6"/>
       <c r="G104" s="7"/>
     </row>
-    <row r="105" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="22.5" customHeight="1">
       <c r="A105" s="6"/>
       <c r="B105" s="7"/>
       <c r="C105" s="6"/>
@@ -2403,7 +2623,7 @@
       <c r="F105" s="6"/>
       <c r="G105" s="7"/>
     </row>
-    <row r="106" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="22.5" customHeight="1">
       <c r="A106" s="6"/>
       <c r="B106" s="7"/>
       <c r="C106" s="6"/>
@@ -2412,7 +2632,7 @@
       <c r="F106" s="6"/>
       <c r="G106" s="7"/>
     </row>
-    <row r="107" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="22.5" customHeight="1">
       <c r="A107" s="6"/>
       <c r="B107" s="7"/>
       <c r="C107" s="6"/>
@@ -2421,7 +2641,7 @@
       <c r="F107" s="6"/>
       <c r="G107" s="7"/>
     </row>
-    <row r="108" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="22.5" customHeight="1">
       <c r="A108" s="6"/>
       <c r="B108" s="7"/>
       <c r="C108" s="6"/>
@@ -2430,7 +2650,7 @@
       <c r="F108" s="6"/>
       <c r="G108" s="7"/>
     </row>
-    <row r="109" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="22.5" customHeight="1">
       <c r="A109" s="6"/>
       <c r="B109" s="7"/>
       <c r="C109" s="6"/>
@@ -2439,7 +2659,7 @@
       <c r="F109" s="6"/>
       <c r="G109" s="7"/>
     </row>
-    <row r="110" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="22.5" customHeight="1">
       <c r="A110" s="6"/>
       <c r="B110" s="7"/>
       <c r="C110" s="6"/>
@@ -2448,7 +2668,7 @@
       <c r="F110" s="6"/>
       <c r="G110" s="7"/>
     </row>
-    <row r="111" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="22.5" customHeight="1">
       <c r="A111" s="6"/>
       <c r="B111" s="7"/>
       <c r="C111" s="6"/>
@@ -2457,7 +2677,7 @@
       <c r="F111" s="6"/>
       <c r="G111" s="7"/>
     </row>
-    <row r="112" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="22.5" customHeight="1">
       <c r="A112" s="6"/>
       <c r="B112" s="7"/>
       <c r="C112" s="6"/>
@@ -2466,7 +2686,7 @@
       <c r="F112" s="6"/>
       <c r="G112" s="7"/>
     </row>
-    <row r="113" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="22.5" customHeight="1">
       <c r="A113" s="6"/>
       <c r="B113" s="7"/>
       <c r="C113" s="6"/>
@@ -2475,7 +2695,7 @@
       <c r="F113" s="6"/>
       <c r="G113" s="7"/>
     </row>
-    <row r="114" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="22.5" customHeight="1">
       <c r="A114" s="6"/>
       <c r="B114" s="7"/>
       <c r="C114" s="6"/>
@@ -2484,7 +2704,7 @@
       <c r="F114" s="6"/>
       <c r="G114" s="7"/>
     </row>
-    <row r="115" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="22.5" customHeight="1">
       <c r="A115" s="6"/>
       <c r="B115" s="7"/>
       <c r="C115" s="6"/>
@@ -2493,7 +2713,7 @@
       <c r="F115" s="6"/>
       <c r="G115" s="7"/>
     </row>
-    <row r="116" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="22.5" customHeight="1">
       <c r="A116" s="6"/>
       <c r="B116" s="7"/>
       <c r="C116" s="6"/>
@@ -2502,7 +2722,7 @@
       <c r="F116" s="6"/>
       <c r="G116" s="7"/>
     </row>
-    <row r="117" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="22.5" customHeight="1">
       <c r="A117" s="6"/>
       <c r="B117" s="7"/>
       <c r="C117" s="6"/>
@@ -2511,7 +2731,7 @@
       <c r="F117" s="6"/>
       <c r="G117" s="7"/>
     </row>
-    <row r="118" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="22.5" customHeight="1">
       <c r="A118" s="6"/>
       <c r="B118" s="7"/>
       <c r="C118" s="6"/>
@@ -2520,7 +2740,7 @@
       <c r="F118" s="6"/>
       <c r="G118" s="7"/>
     </row>
-    <row r="119" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="22.5" customHeight="1">
       <c r="A119" s="6"/>
       <c r="B119" s="7"/>
       <c r="C119" s="6"/>
@@ -2529,7 +2749,7 @@
       <c r="F119" s="6"/>
       <c r="G119" s="7"/>
     </row>
-    <row r="120" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="22.5" customHeight="1">
       <c r="A120" s="6"/>
       <c r="B120" s="7"/>
       <c r="C120" s="6"/>
@@ -2538,7 +2758,7 @@
       <c r="F120" s="6"/>
       <c r="G120" s="7"/>
     </row>
-    <row r="121" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="22.5" customHeight="1">
       <c r="A121" s="6"/>
       <c r="B121" s="7"/>
       <c r="C121" s="6"/>
@@ -2547,7 +2767,7 @@
       <c r="F121" s="6"/>
       <c r="G121" s="7"/>
     </row>
-    <row r="122" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="22.5" customHeight="1">
       <c r="A122" s="6"/>
       <c r="B122" s="7"/>
       <c r="C122" s="6"/>
@@ -2556,7 +2776,7 @@
       <c r="F122" s="6"/>
       <c r="G122" s="7"/>
     </row>
-    <row r="123" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="22.5" customHeight="1">
       <c r="A123" s="6"/>
       <c r="B123" s="7"/>
       <c r="C123" s="6"/>
@@ -2565,7 +2785,7 @@
       <c r="F123" s="6"/>
       <c r="G123" s="7"/>
     </row>
-    <row r="124" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="22.5" customHeight="1">
       <c r="A124" s="6"/>
       <c r="B124" s="7"/>
       <c r="C124" s="6"/>
@@ -2574,7 +2794,7 @@
       <c r="F124" s="6"/>
       <c r="G124" s="7"/>
     </row>
-    <row r="125" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="22.5" customHeight="1">
       <c r="A125" s="6"/>
       <c r="B125" s="7"/>
       <c r="C125" s="6"/>
@@ -2583,7 +2803,7 @@
       <c r="F125" s="6"/>
       <c r="G125" s="7"/>
     </row>
-    <row r="126" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="22.5" customHeight="1">
       <c r="A126" s="6"/>
       <c r="B126" s="7"/>
       <c r="C126" s="6"/>
@@ -2592,7 +2812,7 @@
       <c r="F126" s="6"/>
       <c r="G126" s="7"/>
     </row>
-    <row r="127" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="22.5" customHeight="1">
       <c r="A127" s="6"/>
       <c r="B127" s="7"/>
       <c r="C127" s="6"/>
@@ -2601,7 +2821,7 @@
       <c r="F127" s="6"/>
       <c r="G127" s="7"/>
     </row>
-    <row r="128" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="22.5" customHeight="1">
       <c r="A128" s="6"/>
       <c r="B128" s="7"/>
       <c r="C128" s="6"/>
@@ -2610,7 +2830,7 @@
       <c r="F128" s="6"/>
       <c r="G128" s="7"/>
     </row>
-    <row r="129" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="22.5" customHeight="1">
       <c r="A129" s="6"/>
       <c r="B129" s="7"/>
       <c r="C129" s="6"/>
@@ -2619,7 +2839,7 @@
       <c r="F129" s="6"/>
       <c r="G129" s="7"/>
     </row>
-    <row r="130" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="22.5" customHeight="1">
       <c r="A130" s="6"/>
       <c r="B130" s="7"/>
       <c r="C130" s="6"/>
@@ -2628,7 +2848,7 @@
       <c r="F130" s="6"/>
       <c r="G130" s="7"/>
     </row>
-    <row r="131" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="22.5" customHeight="1">
       <c r="A131" s="6"/>
       <c r="B131" s="7"/>
       <c r="C131" s="6"/>
@@ -2637,7 +2857,7 @@
       <c r="F131" s="6"/>
       <c r="G131" s="7"/>
     </row>
-    <row r="132" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="22.5" customHeight="1">
       <c r="A132" s="6"/>
       <c r="B132" s="7"/>
       <c r="C132" s="6"/>
@@ -2646,7 +2866,7 @@
       <c r="F132" s="6"/>
       <c r="G132" s="7"/>
     </row>
-    <row r="133" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="22.5" customHeight="1">
       <c r="A133" s="6"/>
       <c r="B133" s="7"/>
       <c r="C133" s="6"/>
@@ -2655,7 +2875,7 @@
       <c r="F133" s="6"/>
       <c r="G133" s="7"/>
     </row>
-    <row r="134" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="22.5" customHeight="1">
       <c r="A134" s="6"/>
       <c r="B134" s="7"/>
       <c r="C134" s="6"/>
@@ -2664,7 +2884,7 @@
       <c r="F134" s="6"/>
       <c r="G134" s="7"/>
     </row>
-    <row r="135" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="22.5" customHeight="1">
       <c r="A135" s="6"/>
       <c r="B135" s="7"/>
       <c r="C135" s="6"/>
@@ -2673,7 +2893,7 @@
       <c r="F135" s="6"/>
       <c r="G135" s="7"/>
     </row>
-    <row r="136" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="22.5" customHeight="1">
       <c r="A136" s="6"/>
       <c r="B136" s="7"/>
       <c r="C136" s="6"/>
@@ -2682,7 +2902,7 @@
       <c r="F136" s="6"/>
       <c r="G136" s="7"/>
     </row>
-    <row r="137" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="22.5" customHeight="1">
       <c r="A137" s="6"/>
       <c r="B137" s="7"/>
       <c r="C137" s="6"/>
@@ -2691,7 +2911,7 @@
       <c r="F137" s="6"/>
       <c r="G137" s="7"/>
     </row>
-    <row r="138" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="22.5" customHeight="1">
       <c r="A138" s="6"/>
       <c r="B138" s="7"/>
       <c r="C138" s="6"/>
@@ -2700,7 +2920,7 @@
       <c r="F138" s="6"/>
       <c r="G138" s="7"/>
     </row>
-    <row r="139" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="22.5" customHeight="1">
       <c r="A139" s="6"/>
       <c r="B139" s="7"/>
       <c r="C139" s="6"/>
@@ -2709,7 +2929,7 @@
       <c r="F139" s="6"/>
       <c r="G139" s="7"/>
     </row>
-    <row r="140" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="22.5" customHeight="1">
       <c r="A140" s="6"/>
       <c r="B140" s="7"/>
       <c r="C140" s="6"/>
@@ -2718,7 +2938,7 @@
       <c r="F140" s="6"/>
       <c r="G140" s="7"/>
     </row>
-    <row r="141" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="22.5" customHeight="1">
       <c r="A141" s="6"/>
       <c r="B141" s="7"/>
       <c r="C141" s="6"/>
@@ -2727,7 +2947,7 @@
       <c r="F141" s="6"/>
       <c r="G141" s="7"/>
     </row>
-    <row r="142" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="22.5" customHeight="1">
       <c r="A142" s="6"/>
       <c r="B142" s="7"/>
       <c r="C142" s="6"/>
@@ -2736,7 +2956,7 @@
       <c r="F142" s="6"/>
       <c r="G142" s="7"/>
     </row>
-    <row r="143" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="22.5" customHeight="1">
       <c r="A143" s="6"/>
       <c r="B143" s="7"/>
       <c r="C143" s="6"/>
@@ -2745,7 +2965,7 @@
       <c r="F143" s="6"/>
       <c r="G143" s="7"/>
     </row>
-    <row r="144" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="22.5" customHeight="1">
       <c r="A144" s="6"/>
       <c r="B144" s="7"/>
       <c r="C144" s="6"/>
@@ -2754,7 +2974,7 @@
       <c r="F144" s="6"/>
       <c r="G144" s="7"/>
     </row>
-    <row r="145" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="22.5" customHeight="1">
       <c r="A145" s="6"/>
       <c r="B145" s="7"/>
       <c r="C145" s="6"/>
@@ -2763,7 +2983,7 @@
       <c r="F145" s="6"/>
       <c r="G145" s="7"/>
     </row>
-    <row r="146" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="22.5" customHeight="1">
       <c r="A146" s="6"/>
       <c r="B146" s="7"/>
       <c r="C146" s="6"/>
@@ -2772,7 +2992,7 @@
       <c r="F146" s="6"/>
       <c r="G146" s="7"/>
     </row>
-    <row r="147" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="22.5" customHeight="1">
       <c r="A147" s="6"/>
       <c r="B147" s="7"/>
       <c r="C147" s="6"/>
@@ -2781,7 +3001,7 @@
       <c r="F147" s="6"/>
       <c r="G147" s="7"/>
     </row>
-    <row r="148" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="22.5" customHeight="1">
       <c r="A148" s="6"/>
       <c r="B148" s="7"/>
       <c r="C148" s="6"/>
@@ -2790,7 +3010,7 @@
       <c r="F148" s="6"/>
       <c r="G148" s="7"/>
     </row>
-    <row r="149" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="22.5" customHeight="1">
       <c r="A149" s="6"/>
       <c r="B149" s="7"/>
       <c r="C149" s="6"/>
@@ -2799,7 +3019,7 @@
       <c r="F149" s="6"/>
       <c r="G149" s="7"/>
     </row>
-    <row r="150" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="22.5" customHeight="1">
       <c r="A150" s="6"/>
       <c r="B150" s="7"/>
       <c r="C150" s="6"/>
@@ -2808,7 +3028,7 @@
       <c r="F150" s="6"/>
       <c r="G150" s="7"/>
     </row>
-    <row r="151" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="22.5" customHeight="1">
       <c r="A151" s="6"/>
       <c r="B151" s="7"/>
       <c r="C151" s="6"/>
@@ -2817,7 +3037,7 @@
       <c r="F151" s="6"/>
       <c r="G151" s="7"/>
     </row>
-    <row r="152" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="22.5" customHeight="1">
       <c r="A152" s="6"/>
       <c r="B152" s="7"/>
       <c r="C152" s="6"/>
@@ -2826,7 +3046,7 @@
       <c r="F152" s="6"/>
       <c r="G152" s="7"/>
     </row>
-    <row r="153" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="22.5" customHeight="1">
       <c r="A153" s="6"/>
       <c r="B153" s="7"/>
       <c r="C153" s="6"/>
@@ -2835,7 +3055,7 @@
       <c r="F153" s="6"/>
       <c r="G153" s="7"/>
     </row>
-    <row r="154" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="22.5" customHeight="1">
       <c r="A154" s="6"/>
       <c r="B154" s="7"/>
       <c r="C154" s="6"/>
@@ -2844,7 +3064,7 @@
       <c r="F154" s="6"/>
       <c r="G154" s="7"/>
     </row>
-    <row r="155" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="22.5" customHeight="1">
       <c r="A155" s="6"/>
       <c r="B155" s="7"/>
       <c r="C155" s="6"/>
@@ -2853,7 +3073,7 @@
       <c r="F155" s="6"/>
       <c r="G155" s="7"/>
     </row>
-    <row r="156" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="22.5" customHeight="1">
       <c r="A156" s="6"/>
       <c r="B156" s="7"/>
       <c r="C156" s="6"/>
@@ -2862,7 +3082,7 @@
       <c r="F156" s="6"/>
       <c r="G156" s="7"/>
     </row>
-    <row r="157" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="22.5" customHeight="1">
       <c r="A157" s="6"/>
       <c r="B157" s="7"/>
       <c r="C157" s="6"/>
@@ -2871,7 +3091,7 @@
       <c r="F157" s="6"/>
       <c r="G157" s="7"/>
     </row>
-    <row r="158" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="22.5" customHeight="1">
       <c r="A158" s="6"/>
       <c r="B158" s="7"/>
       <c r="C158" s="6"/>
@@ -2880,7 +3100,7 @@
       <c r="F158" s="6"/>
       <c r="G158" s="7"/>
     </row>
-    <row r="159" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="22.5" customHeight="1">
       <c r="A159" s="6"/>
       <c r="B159" s="7"/>
       <c r="C159" s="6"/>
@@ -2889,7 +3109,7 @@
       <c r="F159" s="6"/>
       <c r="G159" s="7"/>
     </row>
-    <row r="160" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="22.5" customHeight="1">
       <c r="A160" s="6"/>
       <c r="B160" s="7"/>
       <c r="C160" s="6"/>
@@ -2898,7 +3118,7 @@
       <c r="F160" s="6"/>
       <c r="G160" s="7"/>
     </row>
-    <row r="161" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="22.5" customHeight="1">
       <c r="A161" s="6"/>
       <c r="B161" s="7"/>
       <c r="C161" s="6"/>
@@ -2907,7 +3127,7 @@
       <c r="F161" s="6"/>
       <c r="G161" s="7"/>
     </row>
-    <row r="162" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="22.5" customHeight="1">
       <c r="A162" s="6"/>
       <c r="B162" s="7"/>
       <c r="C162" s="6"/>
@@ -2916,7 +3136,7 @@
       <c r="F162" s="6"/>
       <c r="G162" s="7"/>
     </row>
-    <row r="163" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="22.5" customHeight="1">
       <c r="A163" s="6"/>
       <c r="B163" s="7"/>
       <c r="C163" s="6"/>
@@ -2925,7 +3145,7 @@
       <c r="F163" s="6"/>
       <c r="G163" s="7"/>
     </row>
-    <row r="164" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="22.5" customHeight="1">
       <c r="A164" s="6"/>
       <c r="B164" s="7"/>
       <c r="C164" s="6"/>
@@ -2934,7 +3154,7 @@
       <c r="F164" s="6"/>
       <c r="G164" s="7"/>
     </row>
-    <row r="165" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="22.5" customHeight="1">
       <c r="A165" s="6"/>
       <c r="B165" s="7"/>
       <c r="C165" s="6"/>
@@ -2943,7 +3163,7 @@
       <c r="F165" s="6"/>
       <c r="G165" s="7"/>
     </row>
-    <row r="166" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="22.5" customHeight="1">
       <c r="A166" s="6"/>
       <c r="B166" s="7"/>
       <c r="C166" s="6"/>
@@ -2952,7 +3172,7 @@
       <c r="F166" s="6"/>
       <c r="G166" s="7"/>
     </row>
-    <row r="167" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="22.5" customHeight="1">
       <c r="A167" s="6"/>
       <c r="B167" s="7"/>
       <c r="C167" s="6"/>
@@ -2961,7 +3181,7 @@
       <c r="F167" s="6"/>
       <c r="G167" s="7"/>
     </row>
-    <row r="168" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="22.5" customHeight="1">
       <c r="A168" s="6"/>
       <c r="B168" s="7"/>
       <c r="C168" s="6"/>
@@ -2970,7 +3190,7 @@
       <c r="F168" s="6"/>
       <c r="G168" s="7"/>
     </row>
-    <row r="169" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="22.5" customHeight="1">
       <c r="A169" s="6"/>
       <c r="B169" s="7"/>
       <c r="C169" s="6"/>
@@ -2979,7 +3199,7 @@
       <c r="F169" s="6"/>
       <c r="G169" s="7"/>
     </row>
-    <row r="170" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="22.5" customHeight="1">
       <c r="A170" s="6"/>
       <c r="B170" s="7"/>
       <c r="C170" s="6"/>
@@ -2988,7 +3208,7 @@
       <c r="F170" s="6"/>
       <c r="G170" s="7"/>
     </row>
-    <row r="171" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="22.5" customHeight="1">
       <c r="A171" s="6"/>
       <c r="B171" s="7"/>
       <c r="C171" s="6"/>
@@ -2997,7 +3217,7 @@
       <c r="F171" s="6"/>
       <c r="G171" s="7"/>
     </row>
-    <row r="172" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" ht="22.5" customHeight="1">
       <c r="A172" s="6"/>
       <c r="B172" s="7"/>
       <c r="C172" s="6"/>
@@ -3006,7 +3226,7 @@
       <c r="F172" s="6"/>
       <c r="G172" s="7"/>
     </row>
-    <row r="173" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="22.5" customHeight="1">
       <c r="A173" s="6"/>
       <c r="B173" s="7"/>
       <c r="C173" s="6"/>
@@ -3015,7 +3235,7 @@
       <c r="F173" s="6"/>
       <c r="G173" s="7"/>
     </row>
-    <row r="174" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="22.5" customHeight="1">
       <c r="A174" s="6"/>
       <c r="B174" s="7"/>
       <c r="C174" s="6"/>
@@ -3024,7 +3244,7 @@
       <c r="F174" s="6"/>
       <c r="G174" s="7"/>
     </row>
-    <row r="175" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="22.5" customHeight="1">
       <c r="A175" s="6"/>
       <c r="B175" s="7"/>
       <c r="C175" s="6"/>
@@ -3033,7 +3253,7 @@
       <c r="F175" s="6"/>
       <c r="G175" s="7"/>
     </row>
-    <row r="176" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="22.5" customHeight="1">
       <c r="A176" s="6"/>
       <c r="B176" s="7"/>
       <c r="C176" s="6"/>
@@ -3042,7 +3262,7 @@
       <c r="F176" s="6"/>
       <c r="G176" s="7"/>
     </row>
-    <row r="177" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="22.5" customHeight="1">
       <c r="A177" s="6"/>
       <c r="B177" s="7"/>
       <c r="C177" s="6"/>
@@ -3051,7 +3271,7 @@
       <c r="F177" s="6"/>
       <c r="G177" s="7"/>
     </row>
-    <row r="178" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="22.5" customHeight="1">
       <c r="A178" s="6"/>
       <c r="B178" s="7"/>
       <c r="C178" s="6"/>
@@ -3060,7 +3280,7 @@
       <c r="F178" s="6"/>
       <c r="G178" s="7"/>
     </row>
-    <row r="179" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="22.5" customHeight="1">
       <c r="A179" s="6"/>
       <c r="B179" s="7"/>
       <c r="C179" s="6"/>
@@ -3069,7 +3289,7 @@
       <c r="F179" s="6"/>
       <c r="G179" s="7"/>
     </row>
-    <row r="180" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="22.5" customHeight="1">
       <c r="A180" s="6"/>
       <c r="B180" s="7"/>
       <c r="C180" s="6"/>
@@ -3078,7 +3298,7 @@
       <c r="F180" s="6"/>
       <c r="G180" s="7"/>
     </row>
-    <row r="181" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="22.5" customHeight="1">
       <c r="A181" s="6"/>
       <c r="B181" s="7"/>
       <c r="C181" s="6"/>
@@ -3087,7 +3307,7 @@
       <c r="F181" s="6"/>
       <c r="G181" s="7"/>
     </row>
-    <row r="182" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="22.5" customHeight="1">
       <c r="A182" s="6"/>
       <c r="B182" s="7"/>
       <c r="C182" s="6"/>
@@ -3096,7 +3316,7 @@
       <c r="F182" s="6"/>
       <c r="G182" s="7"/>
     </row>
-    <row r="183" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="22.5" customHeight="1">
       <c r="A183" s="6"/>
       <c r="B183" s="7"/>
       <c r="C183" s="6"/>
@@ -3105,7 +3325,7 @@
       <c r="F183" s="6"/>
       <c r="G183" s="7"/>
     </row>
-    <row r="184" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="22.5" customHeight="1">
       <c r="A184" s="6"/>
       <c r="B184" s="7"/>
       <c r="C184" s="6"/>
@@ -3114,7 +3334,7 @@
       <c r="F184" s="6"/>
       <c r="G184" s="7"/>
     </row>
-    <row r="185" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="22.5" customHeight="1">
       <c r="A185" s="6"/>
       <c r="B185" s="7"/>
       <c r="C185" s="6"/>
@@ -3123,7 +3343,7 @@
       <c r="F185" s="6"/>
       <c r="G185" s="7"/>
     </row>
-    <row r="186" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="22.5" customHeight="1">
       <c r="A186" s="6"/>
       <c r="B186" s="7"/>
       <c r="C186" s="6"/>
@@ -3132,7 +3352,7 @@
       <c r="F186" s="6"/>
       <c r="G186" s="7"/>
     </row>
-    <row r="187" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="22.5" customHeight="1">
       <c r="A187" s="6"/>
       <c r="B187" s="7"/>
       <c r="C187" s="6"/>
@@ -3141,7 +3361,7 @@
       <c r="F187" s="6"/>
       <c r="G187" s="7"/>
     </row>
-    <row r="188" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="22.5" customHeight="1">
       <c r="A188" s="6"/>
       <c r="B188" s="7"/>
       <c r="C188" s="6"/>
@@ -3150,7 +3370,7 @@
       <c r="F188" s="6"/>
       <c r="G188" s="7"/>
     </row>
-    <row r="189" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="22.5" customHeight="1">
       <c r="A189" s="6"/>
       <c r="B189" s="7"/>
       <c r="C189" s="6"/>
@@ -3159,7 +3379,7 @@
       <c r="F189" s="6"/>
       <c r="G189" s="7"/>
     </row>
-    <row r="190" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="22.5" customHeight="1">
       <c r="A190" s="6"/>
       <c r="B190" s="7"/>
       <c r="C190" s="6"/>
@@ -3168,7 +3388,7 @@
       <c r="F190" s="6"/>
       <c r="G190" s="7"/>
     </row>
-    <row r="191" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="22.5" customHeight="1">
       <c r="A191" s="6"/>
       <c r="B191" s="7"/>
       <c r="C191" s="6"/>
@@ -3177,7 +3397,7 @@
       <c r="F191" s="6"/>
       <c r="G191" s="7"/>
     </row>
-    <row r="192" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="22.5" customHeight="1">
       <c r="A192" s="6"/>
       <c r="B192" s="7"/>
       <c r="C192" s="6"/>
@@ -3186,7 +3406,7 @@
       <c r="F192" s="6"/>
       <c r="G192" s="7"/>
     </row>
-    <row r="193" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="22.5" customHeight="1">
       <c r="A193" s="6"/>
       <c r="B193" s="7"/>
       <c r="C193" s="6"/>
@@ -3195,7 +3415,7 @@
       <c r="F193" s="6"/>
       <c r="G193" s="7"/>
     </row>
-    <row r="194" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="22.5" customHeight="1">
       <c r="A194" s="6"/>
       <c r="B194" s="7"/>
       <c r="C194" s="6"/>
@@ -3204,7 +3424,7 @@
       <c r="F194" s="6"/>
       <c r="G194" s="7"/>
     </row>
-    <row r="195" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="22.5" customHeight="1">
       <c r="A195" s="6"/>
       <c r="B195" s="7"/>
       <c r="C195" s="6"/>
@@ -3213,7 +3433,7 @@
       <c r="F195" s="6"/>
       <c r="G195" s="7"/>
     </row>
-    <row r="196" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="22.5" customHeight="1">
       <c r="A196" s="6"/>
       <c r="B196" s="7"/>
       <c r="C196" s="6"/>
@@ -3222,7 +3442,7 @@
       <c r="F196" s="6"/>
       <c r="G196" s="7"/>
     </row>
-    <row r="197" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="22.5" customHeight="1">
       <c r="A197" s="6"/>
       <c r="B197" s="7"/>
       <c r="C197" s="6"/>
@@ -3231,7 +3451,7 @@
       <c r="F197" s="6"/>
       <c r="G197" s="7"/>
     </row>
-    <row r="198" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="22.5" customHeight="1">
       <c r="A198" s="6"/>
       <c r="B198" s="7"/>
       <c r="C198" s="6"/>
@@ -3240,7 +3460,7 @@
       <c r="F198" s="6"/>
       <c r="G198" s="7"/>
     </row>
-    <row r="199" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="22.5" customHeight="1">
       <c r="A199" s="6"/>
       <c r="B199" s="7"/>
       <c r="C199" s="6"/>
@@ -3249,7 +3469,7 @@
       <c r="F199" s="6"/>
       <c r="G199" s="7"/>
     </row>
-    <row r="200" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="22.5" customHeight="1">
       <c r="A200" s="6"/>
       <c r="B200" s="7"/>
       <c r="C200" s="6"/>
@@ -3258,7 +3478,7 @@
       <c r="F200" s="6"/>
       <c r="G200" s="7"/>
     </row>
-    <row r="201" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="22.5" customHeight="1">
       <c r="A201" s="6"/>
       <c r="B201" s="7"/>
       <c r="C201" s="6"/>
@@ -3267,7 +3487,7 @@
       <c r="F201" s="6"/>
       <c r="G201" s="7"/>
     </row>
-    <row r="202" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" ht="22.5" customHeight="1">
       <c r="A202" s="6"/>
       <c r="B202" s="7"/>
       <c r="C202" s="6"/>
@@ -3276,7 +3496,7 @@
       <c r="F202" s="6"/>
       <c r="G202" s="7"/>
     </row>
-    <row r="203" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="22.5" customHeight="1">
       <c r="A203" s="6"/>
       <c r="B203" s="7"/>
       <c r="C203" s="6"/>
@@ -3285,7 +3505,7 @@
       <c r="F203" s="6"/>
       <c r="G203" s="7"/>
     </row>
-    <row r="204" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="22.5" customHeight="1">
       <c r="A204" s="6"/>
       <c r="B204" s="7"/>
       <c r="C204" s="6"/>
@@ -3294,7 +3514,7 @@
       <c r="F204" s="6"/>
       <c r="G204" s="7"/>
     </row>
-    <row r="205" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="22.5" customHeight="1">
       <c r="A205" s="6"/>
       <c r="B205" s="7"/>
       <c r="C205" s="6"/>
@@ -3303,7 +3523,7 @@
       <c r="F205" s="6"/>
       <c r="G205" s="7"/>
     </row>
-    <row r="206" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="22.5" customHeight="1">
       <c r="A206" s="6"/>
       <c r="B206" s="7"/>
       <c r="C206" s="6"/>
@@ -3312,7 +3532,7 @@
       <c r="F206" s="6"/>
       <c r="G206" s="7"/>
     </row>
-    <row r="207" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="22.5" customHeight="1">
       <c r="A207" s="6"/>
       <c r="B207" s="7"/>
       <c r="C207" s="6"/>
@@ -3321,7 +3541,7 @@
       <c r="F207" s="6"/>
       <c r="G207" s="7"/>
     </row>
-    <row r="208" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" ht="22.5" customHeight="1">
       <c r="A208" s="6"/>
       <c r="B208" s="7"/>
       <c r="C208" s="6"/>
@@ -3330,7 +3550,7 @@
       <c r="F208" s="6"/>
       <c r="G208" s="7"/>
     </row>
-    <row r="209" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" ht="22.5" customHeight="1">
       <c r="A209" s="6"/>
       <c r="B209" s="7"/>
       <c r="C209" s="6"/>
@@ -3339,7 +3559,7 @@
       <c r="F209" s="6"/>
       <c r="G209" s="7"/>
     </row>
-    <row r="210" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" ht="22.5" customHeight="1">
       <c r="A210" s="6"/>
       <c r="B210" s="7"/>
       <c r="C210" s="6"/>
@@ -3348,7 +3568,7 @@
       <c r="F210" s="6"/>
       <c r="G210" s="7"/>
     </row>
-    <row r="211" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="22.5" customHeight="1">
       <c r="A211" s="6"/>
       <c r="B211" s="7"/>
       <c r="C211" s="6"/>
@@ -3357,7 +3577,7 @@
       <c r="F211" s="6"/>
       <c r="G211" s="7"/>
     </row>
-    <row r="212" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="22.5" customHeight="1">
       <c r="A212" s="6"/>
       <c r="B212" s="7"/>
       <c r="C212" s="6"/>
@@ -3366,7 +3586,7 @@
       <c r="F212" s="6"/>
       <c r="G212" s="7"/>
     </row>
-    <row r="213" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="22.5" customHeight="1">
       <c r="A213" s="6"/>
       <c r="B213" s="7"/>
       <c r="C213" s="6"/>
@@ -3375,7 +3595,7 @@
       <c r="F213" s="6"/>
       <c r="G213" s="7"/>
     </row>
-    <row r="214" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="22.5" customHeight="1">
       <c r="A214" s="6"/>
       <c r="B214" s="7"/>
       <c r="C214" s="6"/>
@@ -3384,7 +3604,7 @@
       <c r="F214" s="6"/>
       <c r="G214" s="7"/>
     </row>
-    <row r="215" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="22.5" customHeight="1">
       <c r="A215" s="6"/>
       <c r="B215" s="7"/>
       <c r="C215" s="6"/>
@@ -3393,7 +3613,7 @@
       <c r="F215" s="6"/>
       <c r="G215" s="7"/>
     </row>
-    <row r="216" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" ht="22.5" customHeight="1">
       <c r="A216" s="6"/>
       <c r="B216" s="7"/>
       <c r="C216" s="6"/>
@@ -3402,7 +3622,7 @@
       <c r="F216" s="6"/>
       <c r="G216" s="7"/>
     </row>
-    <row r="217" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="22.5" customHeight="1">
       <c r="A217" s="6"/>
       <c r="B217" s="7"/>
       <c r="C217" s="6"/>
@@ -3411,7 +3631,7 @@
       <c r="F217" s="6"/>
       <c r="G217" s="7"/>
     </row>
-    <row r="218" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="22.5" customHeight="1">
       <c r="A218" s="6"/>
       <c r="B218" s="7"/>
       <c r="C218" s="6"/>
@@ -3420,7 +3640,7 @@
       <c r="F218" s="6"/>
       <c r="G218" s="7"/>
     </row>
-    <row r="219" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="22.5" customHeight="1">
       <c r="A219" s="6"/>
       <c r="B219" s="7"/>
       <c r="C219" s="6"/>
@@ -3429,7 +3649,7 @@
       <c r="F219" s="6"/>
       <c r="G219" s="7"/>
     </row>
-    <row r="220" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="22.5" customHeight="1">
       <c r="A220" s="6"/>
       <c r="B220" s="7"/>
       <c r="C220" s="6"/>
@@ -3438,7 +3658,7 @@
       <c r="F220" s="6"/>
       <c r="G220" s="7"/>
     </row>
-    <row r="221" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="22.5" customHeight="1">
       <c r="A221" s="6"/>
       <c r="B221" s="7"/>
       <c r="C221" s="6"/>
@@ -3447,7 +3667,7 @@
       <c r="F221" s="6"/>
       <c r="G221" s="7"/>
     </row>
-    <row r="222" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="22.5" customHeight="1">
       <c r="A222" s="6"/>
       <c r="B222" s="7"/>
       <c r="C222" s="6"/>
@@ -3456,7 +3676,7 @@
       <c r="F222" s="6"/>
       <c r="G222" s="7"/>
     </row>
-    <row r="223" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" ht="22.5" customHeight="1">
       <c r="A223" s="6"/>
       <c r="B223" s="7"/>
       <c r="C223" s="6"/>
@@ -3465,7 +3685,7 @@
       <c r="F223" s="6"/>
       <c r="G223" s="7"/>
     </row>
-    <row r="224" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" ht="22.5" customHeight="1">
       <c r="A224" s="6"/>
       <c r="B224" s="7"/>
       <c r="C224" s="6"/>
@@ -3474,7 +3694,7 @@
       <c r="F224" s="6"/>
       <c r="G224" s="7"/>
     </row>
-    <row r="225" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="22.5" customHeight="1">
       <c r="A225" s="6"/>
       <c r="B225" s="7"/>
       <c r="C225" s="6"/>
@@ -3483,7 +3703,7 @@
       <c r="F225" s="6"/>
       <c r="G225" s="7"/>
     </row>
-    <row r="226" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="22.5" customHeight="1">
       <c r="A226" s="6"/>
       <c r="B226" s="7"/>
       <c r="C226" s="6"/>
@@ -3492,7 +3712,7 @@
       <c r="F226" s="6"/>
       <c r="G226" s="7"/>
     </row>
-    <row r="227" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="22.5" customHeight="1">
       <c r="A227" s="6"/>
       <c r="B227" s="7"/>
       <c r="C227" s="6"/>
@@ -3501,7 +3721,7 @@
       <c r="F227" s="6"/>
       <c r="G227" s="7"/>
     </row>
-    <row r="228" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="22.5" customHeight="1">
       <c r="A228" s="6"/>
       <c r="B228" s="7"/>
       <c r="C228" s="6"/>
@@ -3510,7 +3730,7 @@
       <c r="F228" s="6"/>
       <c r="G228" s="7"/>
     </row>
-    <row r="229" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="22.5" customHeight="1">
       <c r="A229" s="6"/>
       <c r="B229" s="7"/>
       <c r="C229" s="6"/>
@@ -3519,7 +3739,7 @@
       <c r="F229" s="6"/>
       <c r="G229" s="7"/>
     </row>
-    <row r="230" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="22.5" customHeight="1">
       <c r="A230" s="6"/>
       <c r="B230" s="7"/>
       <c r="C230" s="6"/>
@@ -3528,7 +3748,7 @@
       <c r="F230" s="6"/>
       <c r="G230" s="7"/>
     </row>
-    <row r="231" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="22.5" customHeight="1">
       <c r="A231" s="6"/>
       <c r="B231" s="7"/>
       <c r="C231" s="6"/>
@@ -3537,7 +3757,7 @@
       <c r="F231" s="6"/>
       <c r="G231" s="7"/>
     </row>
-    <row r="232" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="22.5" customHeight="1">
       <c r="A232" s="6"/>
       <c r="B232" s="7"/>
       <c r="C232" s="6"/>
@@ -3546,7 +3766,7 @@
       <c r="F232" s="6"/>
       <c r="G232" s="7"/>
     </row>
-    <row r="233" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" ht="22.5" customHeight="1">
       <c r="A233" s="6"/>
       <c r="B233" s="7"/>
       <c r="C233" s="6"/>
@@ -3555,7 +3775,7 @@
       <c r="F233" s="6"/>
       <c r="G233" s="7"/>
     </row>
-    <row r="234" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" ht="22.5" customHeight="1">
       <c r="A234" s="6"/>
       <c r="B234" s="7"/>
       <c r="C234" s="6"/>
@@ -3564,7 +3784,7 @@
       <c r="F234" s="6"/>
       <c r="G234" s="7"/>
     </row>
-    <row r="235" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" ht="22.5" customHeight="1">
       <c r="A235" s="6"/>
       <c r="B235" s="7"/>
       <c r="C235" s="6"/>
@@ -3573,7 +3793,7 @@
       <c r="F235" s="6"/>
       <c r="G235" s="7"/>
     </row>
-    <row r="236" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" ht="22.5" customHeight="1">
       <c r="A236" s="6"/>
       <c r="B236" s="7"/>
       <c r="C236" s="6"/>
@@ -3582,7 +3802,7 @@
       <c r="F236" s="6"/>
       <c r="G236" s="7"/>
     </row>
-    <row r="237" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="22.5" customHeight="1">
       <c r="A237" s="6"/>
       <c r="B237" s="7"/>
       <c r="C237" s="6"/>
@@ -3591,7 +3811,7 @@
       <c r="F237" s="6"/>
       <c r="G237" s="7"/>
     </row>
-    <row r="238" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" ht="22.5" customHeight="1">
       <c r="A238" s="6"/>
       <c r="B238" s="7"/>
       <c r="C238" s="6"/>
@@ -3600,7 +3820,7 @@
       <c r="F238" s="6"/>
       <c r="G238" s="7"/>
     </row>
-    <row r="239" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" ht="22.5" customHeight="1">
       <c r="A239" s="6"/>
       <c r="B239" s="7"/>
       <c r="C239" s="6"/>
@@ -3609,7 +3829,7 @@
       <c r="F239" s="6"/>
       <c r="G239" s="7"/>
     </row>
-    <row r="240" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="22.5" customHeight="1">
       <c r="A240" s="6"/>
       <c r="B240" s="7"/>
       <c r="C240" s="6"/>
@@ -3618,7 +3838,7 @@
       <c r="F240" s="6"/>
       <c r="G240" s="7"/>
     </row>
-    <row r="241" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" ht="22.5" customHeight="1">
       <c r="A241" s="6"/>
       <c r="B241" s="7"/>
       <c r="C241" s="6"/>
@@ -3627,7 +3847,7 @@
       <c r="F241" s="6"/>
       <c r="G241" s="7"/>
     </row>
-    <row r="242" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" ht="22.5" customHeight="1">
       <c r="A242" s="6"/>
       <c r="B242" s="7"/>
       <c r="C242" s="6"/>
@@ -3636,7 +3856,7 @@
       <c r="F242" s="6"/>
       <c r="G242" s="7"/>
     </row>
-    <row r="243" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="22.5" customHeight="1">
       <c r="A243" s="6"/>
       <c r="B243" s="7"/>
       <c r="C243" s="6"/>
@@ -3645,7 +3865,7 @@
       <c r="F243" s="6"/>
       <c r="G243" s="7"/>
     </row>
-    <row r="244" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="22.5" customHeight="1">
       <c r="A244" s="6"/>
       <c r="B244" s="7"/>
       <c r="C244" s="6"/>
@@ -3654,7 +3874,7 @@
       <c r="F244" s="6"/>
       <c r="G244" s="7"/>
     </row>
-    <row r="245" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="22.5" customHeight="1">
       <c r="A245" s="6"/>
       <c r="B245" s="7"/>
       <c r="C245" s="6"/>
@@ -3663,7 +3883,7 @@
       <c r="F245" s="6"/>
       <c r="G245" s="7"/>
     </row>
-    <row r="246" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" ht="22.5" customHeight="1">
       <c r="A246" s="6"/>
       <c r="B246" s="7"/>
       <c r="C246" s="6"/>
@@ -3672,7 +3892,7 @@
       <c r="F246" s="6"/>
       <c r="G246" s="7"/>
     </row>
-    <row r="247" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" ht="22.5" customHeight="1">
       <c r="A247" s="6"/>
       <c r="B247" s="7"/>
       <c r="C247" s="6"/>
@@ -3681,7 +3901,7 @@
       <c r="F247" s="6"/>
       <c r="G247" s="7"/>
     </row>
-    <row r="248" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" ht="22.5" customHeight="1">
       <c r="A248" s="6"/>
       <c r="B248" s="7"/>
       <c r="C248" s="6"/>
@@ -3690,7 +3910,7 @@
       <c r="F248" s="6"/>
       <c r="G248" s="7"/>
     </row>
-    <row r="249" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="22.5" customHeight="1">
       <c r="A249" s="6"/>
       <c r="B249" s="7"/>
       <c r="C249" s="6"/>
@@ -3699,7 +3919,7 @@
       <c r="F249" s="6"/>
       <c r="G249" s="7"/>
     </row>
-    <row r="250" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" ht="22.5" customHeight="1">
       <c r="A250" s="6"/>
       <c r="B250" s="7"/>
       <c r="C250" s="6"/>
@@ -3708,7 +3928,7 @@
       <c r="F250" s="6"/>
       <c r="G250" s="7"/>
     </row>
-    <row r="251" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" ht="22.5" customHeight="1">
       <c r="A251" s="6"/>
       <c r="B251" s="7"/>
       <c r="C251" s="6"/>
@@ -3717,7 +3937,7 @@
       <c r="F251" s="6"/>
       <c r="G251" s="7"/>
     </row>
-    <row r="252" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" ht="22.5" customHeight="1">
       <c r="A252" s="6"/>
       <c r="B252" s="7"/>
       <c r="C252" s="6"/>
@@ -3726,7 +3946,7 @@
       <c r="F252" s="6"/>
       <c r="G252" s="7"/>
     </row>
-    <row r="253" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" ht="22.5" customHeight="1">
       <c r="A253" s="6"/>
       <c r="B253" s="7"/>
       <c r="C253" s="6"/>
@@ -3735,7 +3955,7 @@
       <c r="F253" s="6"/>
       <c r="G253" s="7"/>
     </row>
-    <row r="254" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" ht="22.5" customHeight="1">
       <c r="A254" s="6"/>
       <c r="B254" s="7"/>
       <c r="C254" s="6"/>
@@ -3744,7 +3964,7 @@
       <c r="F254" s="6"/>
       <c r="G254" s="7"/>
     </row>
-    <row r="255" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" ht="22.5" customHeight="1">
       <c r="A255" s="6"/>
       <c r="B255" s="7"/>
       <c r="C255" s="6"/>
@@ -3753,7 +3973,7 @@
       <c r="F255" s="6"/>
       <c r="G255" s="7"/>
     </row>
-    <row r="256" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" ht="22.5" customHeight="1">
       <c r="A256" s="6"/>
       <c r="B256" s="7"/>
       <c r="C256" s="6"/>
@@ -3762,7 +3982,7 @@
       <c r="F256" s="6"/>
       <c r="G256" s="7"/>
     </row>
-    <row r="257" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" ht="22.5" customHeight="1">
       <c r="A257" s="6"/>
       <c r="B257" s="7"/>
       <c r="C257" s="6"/>
@@ -3771,7 +3991,7 @@
       <c r="F257" s="6"/>
       <c r="G257" s="7"/>
     </row>
-    <row r="258" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" ht="22.5" customHeight="1">
       <c r="A258" s="6"/>
       <c r="B258" s="7"/>
       <c r="C258" s="6"/>
@@ -3780,7 +4000,7 @@
       <c r="F258" s="6"/>
       <c r="G258" s="7"/>
     </row>
-    <row r="259" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" ht="22.5" customHeight="1">
       <c r="A259" s="6"/>
       <c r="B259" s="7"/>
       <c r="C259" s="6"/>
@@ -3789,7 +4009,7 @@
       <c r="F259" s="6"/>
       <c r="G259" s="7"/>
     </row>
-    <row r="260" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" ht="22.5" customHeight="1">
       <c r="A260" s="6"/>
       <c r="B260" s="7"/>
       <c r="C260" s="6"/>
@@ -3798,7 +4018,7 @@
       <c r="F260" s="6"/>
       <c r="G260" s="7"/>
     </row>
-    <row r="261" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" ht="22.5" customHeight="1">
       <c r="A261" s="6"/>
       <c r="B261" s="7"/>
       <c r="C261" s="6"/>
@@ -3807,7 +4027,7 @@
       <c r="F261" s="6"/>
       <c r="G261" s="7"/>
     </row>
-    <row r="262" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" ht="22.5" customHeight="1">
       <c r="A262" s="6"/>
       <c r="B262" s="7"/>
       <c r="C262" s="6"/>
@@ -3816,7 +4036,7 @@
       <c r="F262" s="6"/>
       <c r="G262" s="7"/>
     </row>
-    <row r="263" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" ht="22.5" customHeight="1">
       <c r="A263" s="6"/>
       <c r="B263" s="7"/>
       <c r="C263" s="6"/>
@@ -3825,7 +4045,7 @@
       <c r="F263" s="6"/>
       <c r="G263" s="7"/>
     </row>
-    <row r="264" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" ht="22.5" customHeight="1">
       <c r="A264" s="6"/>
       <c r="B264" s="7"/>
       <c r="C264" s="6"/>
@@ -3834,7 +4054,7 @@
       <c r="F264" s="6"/>
       <c r="G264" s="7"/>
     </row>
-    <row r="265" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" ht="22.5" customHeight="1">
       <c r="A265" s="6"/>
       <c r="B265" s="7"/>
       <c r="C265" s="6"/>
@@ -3843,7 +4063,7 @@
       <c r="F265" s="6"/>
       <c r="G265" s="7"/>
     </row>
-    <row r="266" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" ht="22.5" customHeight="1">
       <c r="A266" s="6"/>
       <c r="B266" s="7"/>
       <c r="C266" s="6"/>
@@ -3852,7 +4072,7 @@
       <c r="F266" s="6"/>
       <c r="G266" s="7"/>
     </row>
-    <row r="267" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" ht="22.5" customHeight="1">
       <c r="A267" s="6"/>
       <c r="B267" s="7"/>
       <c r="C267" s="6"/>
@@ -3861,7 +4081,7 @@
       <c r="F267" s="6"/>
       <c r="G267" s="7"/>
     </row>
-    <row r="268" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" ht="22.5" customHeight="1">
       <c r="A268" s="6"/>
       <c r="B268" s="7"/>
       <c r="C268" s="6"/>
@@ -3870,7 +4090,7 @@
       <c r="F268" s="6"/>
       <c r="G268" s="7"/>
     </row>
-    <row r="269" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" ht="22.5" customHeight="1">
       <c r="A269" s="6"/>
       <c r="B269" s="7"/>
       <c r="C269" s="6"/>
@@ -3879,7 +4099,7 @@
       <c r="F269" s="6"/>
       <c r="G269" s="7"/>
     </row>
-    <row r="270" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" ht="22.5" customHeight="1">
       <c r="A270" s="6"/>
       <c r="B270" s="7"/>
       <c r="C270" s="6"/>
@@ -3888,7 +4108,7 @@
       <c r="F270" s="6"/>
       <c r="G270" s="7"/>
     </row>
-    <row r="271" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" ht="22.5" customHeight="1">
       <c r="A271" s="6"/>
       <c r="B271" s="7"/>
       <c r="C271" s="6"/>
@@ -3897,7 +4117,7 @@
       <c r="F271" s="6"/>
       <c r="G271" s="7"/>
     </row>
-    <row r="272" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" ht="22.5" customHeight="1">
       <c r="A272" s="6"/>
       <c r="B272" s="7"/>
       <c r="C272" s="6"/>
@@ -3906,7 +4126,7 @@
       <c r="F272" s="6"/>
       <c r="G272" s="7"/>
     </row>
-    <row r="273" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" ht="22.5" customHeight="1">
       <c r="A273" s="6"/>
       <c r="B273" s="7"/>
       <c r="C273" s="6"/>
@@ -3915,7 +4135,7 @@
       <c r="F273" s="6"/>
       <c r="G273" s="7"/>
     </row>
-    <row r="274" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" ht="22.5" customHeight="1">
       <c r="A274" s="6"/>
       <c r="B274" s="7"/>
       <c r="C274" s="6"/>
@@ -3924,7 +4144,7 @@
       <c r="F274" s="6"/>
       <c r="G274" s="7"/>
     </row>
-    <row r="275" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" ht="22.5" customHeight="1">
       <c r="A275" s="6"/>
       <c r="B275" s="7"/>
       <c r="C275" s="6"/>
@@ -3933,7 +4153,7 @@
       <c r="F275" s="6"/>
       <c r="G275" s="7"/>
     </row>
-    <row r="276" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" ht="22.5" customHeight="1">
       <c r="A276" s="6"/>
       <c r="B276" s="7"/>
       <c r="C276" s="6"/>
@@ -3942,7 +4162,7 @@
       <c r="F276" s="6"/>
       <c r="G276" s="7"/>
     </row>
-    <row r="277" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" ht="22.5" customHeight="1">
       <c r="A277" s="6"/>
       <c r="B277" s="7"/>
       <c r="C277" s="6"/>
@@ -3951,7 +4171,7 @@
       <c r="F277" s="6"/>
       <c r="G277" s="7"/>
     </row>
-    <row r="278" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" ht="22.5" customHeight="1">
       <c r="A278" s="6"/>
       <c r="B278" s="7"/>
       <c r="C278" s="6"/>
@@ -3960,7 +4180,7 @@
       <c r="F278" s="6"/>
       <c r="G278" s="7"/>
     </row>
-    <row r="279" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" ht="22.5" customHeight="1">
       <c r="A279" s="6"/>
       <c r="B279" s="7"/>
       <c r="C279" s="6"/>
@@ -3969,7 +4189,7 @@
       <c r="F279" s="6"/>
       <c r="G279" s="7"/>
     </row>
-    <row r="280" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" ht="22.5" customHeight="1">
       <c r="A280" s="6"/>
       <c r="B280" s="7"/>
       <c r="C280" s="6"/>
@@ -3978,7 +4198,7 @@
       <c r="F280" s="6"/>
       <c r="G280" s="7"/>
     </row>
-    <row r="281" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" ht="22.5" customHeight="1">
       <c r="A281" s="6"/>
       <c r="B281" s="7"/>
       <c r="C281" s="6"/>
@@ -3987,7 +4207,7 @@
       <c r="F281" s="6"/>
       <c r="G281" s="7"/>
     </row>
-    <row r="282" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" ht="22.5" customHeight="1">
       <c r="A282" s="6"/>
       <c r="B282" s="7"/>
       <c r="C282" s="6"/>
@@ -3996,7 +4216,7 @@
       <c r="F282" s="6"/>
       <c r="G282" s="7"/>
     </row>
-    <row r="283" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" ht="22.5" customHeight="1">
       <c r="A283" s="6"/>
       <c r="B283" s="7"/>
       <c r="C283" s="6"/>
@@ -4005,7 +4225,7 @@
       <c r="F283" s="6"/>
       <c r="G283" s="7"/>
     </row>
-    <row r="284" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" ht="22.5" customHeight="1">
       <c r="A284" s="6"/>
       <c r="B284" s="7"/>
       <c r="C284" s="6"/>
@@ -4014,7 +4234,7 @@
       <c r="F284" s="6"/>
       <c r="G284" s="7"/>
     </row>
-    <row r="285" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" ht="22.5" customHeight="1">
       <c r="A285" s="6"/>
       <c r="B285" s="7"/>
       <c r="C285" s="6"/>
@@ -4023,7 +4243,7 @@
       <c r="F285" s="6"/>
       <c r="G285" s="7"/>
     </row>
-    <row r="286" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" ht="22.5" customHeight="1">
       <c r="A286" s="6"/>
       <c r="B286" s="7"/>
       <c r="C286" s="6"/>
@@ -4032,7 +4252,7 @@
       <c r="F286" s="6"/>
       <c r="G286" s="7"/>
     </row>
-    <row r="287" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" ht="22.5" customHeight="1">
       <c r="A287" s="6"/>
       <c r="B287" s="7"/>
       <c r="C287" s="6"/>
@@ -4041,7 +4261,7 @@
       <c r="F287" s="6"/>
       <c r="G287" s="7"/>
     </row>
-    <row r="288" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" ht="22.5" customHeight="1">
       <c r="A288" s="6"/>
       <c r="B288" s="7"/>
       <c r="C288" s="6"/>
@@ -4050,7 +4270,7 @@
       <c r="F288" s="6"/>
       <c r="G288" s="7"/>
     </row>
-    <row r="289" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" ht="22.5" customHeight="1">
       <c r="A289" s="6"/>
       <c r="B289" s="7"/>
       <c r="C289" s="6"/>
@@ -4059,7 +4279,7 @@
       <c r="F289" s="6"/>
       <c r="G289" s="7"/>
     </row>
-    <row r="290" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" ht="22.5" customHeight="1">
       <c r="A290" s="6"/>
       <c r="B290" s="7"/>
       <c r="C290" s="6"/>
@@ -4068,7 +4288,7 @@
       <c r="F290" s="6"/>
       <c r="G290" s="7"/>
     </row>
-    <row r="291" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" ht="22.5" customHeight="1">
       <c r="A291" s="6"/>
       <c r="B291" s="7"/>
       <c r="C291" s="6"/>
@@ -4077,7 +4297,7 @@
       <c r="F291" s="6"/>
       <c r="G291" s="7"/>
     </row>
-    <row r="292" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" ht="22.5" customHeight="1">
       <c r="A292" s="6"/>
       <c r="B292" s="7"/>
       <c r="C292" s="6"/>
@@ -4086,7 +4306,7 @@
       <c r="F292" s="6"/>
       <c r="G292" s="7"/>
     </row>
-    <row r="293" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" ht="22.5" customHeight="1">
       <c r="A293" s="6"/>
       <c r="B293" s="7"/>
       <c r="C293" s="6"/>
@@ -4095,7 +4315,7 @@
       <c r="F293" s="6"/>
       <c r="G293" s="7"/>
     </row>
-    <row r="294" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" ht="22.5" customHeight="1">
       <c r="A294" s="6"/>
       <c r="B294" s="7"/>
       <c r="C294" s="6"/>
@@ -4104,7 +4324,7 @@
       <c r="F294" s="6"/>
       <c r="G294" s="7"/>
     </row>
-    <row r="295" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" ht="22.5" customHeight="1">
       <c r="A295" s="6"/>
       <c r="B295" s="7"/>
       <c r="C295" s="6"/>
@@ -4113,7 +4333,7 @@
       <c r="F295" s="6"/>
       <c r="G295" s="7"/>
     </row>
-    <row r="296" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" ht="22.5" customHeight="1">
       <c r="A296" s="6"/>
       <c r="B296" s="7"/>
       <c r="C296" s="6"/>
@@ -4122,7 +4342,7 @@
       <c r="F296" s="6"/>
       <c r="G296" s="7"/>
     </row>
-    <row r="297" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" ht="22.5" customHeight="1">
       <c r="A297" s="6"/>
       <c r="B297" s="7"/>
       <c r="C297" s="6"/>
@@ -4131,7 +4351,7 @@
       <c r="F297" s="6"/>
       <c r="G297" s="7"/>
     </row>
-    <row r="298" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" ht="22.5" customHeight="1">
       <c r="A298" s="6"/>
       <c r="B298" s="7"/>
       <c r="C298" s="6"/>
@@ -4140,7 +4360,7 @@
       <c r="F298" s="6"/>
       <c r="G298" s="7"/>
     </row>
-    <row r="299" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" ht="22.5" customHeight="1">
       <c r="A299" s="6"/>
       <c r="B299" s="7"/>
       <c r="C299" s="6"/>
@@ -4149,7 +4369,7 @@
       <c r="F299" s="6"/>
       <c r="G299" s="7"/>
     </row>
-    <row r="300" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" ht="22.5" customHeight="1">
       <c r="A300" s="6"/>
       <c r="B300" s="7"/>
       <c r="C300" s="6"/>
@@ -4158,7 +4378,7 @@
       <c r="F300" s="6"/>
       <c r="G300" s="7"/>
     </row>
-    <row r="301" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" ht="22.5" customHeight="1">
       <c r="A301" s="6"/>
       <c r="B301" s="7"/>
       <c r="C301" s="6"/>
@@ -4167,7 +4387,7 @@
       <c r="F301" s="6"/>
       <c r="G301" s="7"/>
     </row>
-    <row r="302" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" ht="22.5" customHeight="1">
       <c r="A302" s="6"/>
       <c r="B302" s="7"/>
       <c r="C302" s="6"/>
@@ -4176,7 +4396,7 @@
       <c r="F302" s="6"/>
       <c r="G302" s="7"/>
     </row>
-    <row r="303" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" ht="22.5" customHeight="1">
       <c r="A303" s="6"/>
       <c r="B303" s="7"/>
       <c r="C303" s="6"/>
@@ -4185,7 +4405,7 @@
       <c r="F303" s="6"/>
       <c r="G303" s="7"/>
     </row>
-    <row r="304" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" ht="22.5" customHeight="1">
       <c r="A304" s="6"/>
       <c r="B304" s="7"/>
       <c r="C304" s="6"/>
@@ -4194,7 +4414,7 @@
       <c r="F304" s="6"/>
       <c r="G304" s="7"/>
     </row>
-    <row r="305" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" ht="22.5" customHeight="1">
       <c r="A305" s="6"/>
       <c r="B305" s="7"/>
       <c r="C305" s="6"/>
@@ -4203,7 +4423,7 @@
       <c r="F305" s="6"/>
       <c r="G305" s="7"/>
     </row>
-    <row r="306" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" ht="22.5" customHeight="1">
       <c r="A306" s="6"/>
       <c r="B306" s="7"/>
       <c r="C306" s="6"/>
@@ -4212,7 +4432,7 @@
       <c r="F306" s="6"/>
       <c r="G306" s="7"/>
     </row>
-    <row r="307" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" ht="22.5" customHeight="1">
       <c r="A307" s="6"/>
       <c r="B307" s="7"/>
       <c r="C307" s="6"/>
@@ -4221,7 +4441,7 @@
       <c r="F307" s="6"/>
       <c r="G307" s="7"/>
     </row>
-    <row r="308" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" ht="22.5" customHeight="1">
       <c r="A308" s="6"/>
       <c r="B308" s="7"/>
       <c r="C308" s="6"/>
@@ -4230,7 +4450,7 @@
       <c r="F308" s="6"/>
       <c r="G308" s="7"/>
     </row>
-    <row r="309" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" ht="22.5" customHeight="1">
       <c r="A309" s="6"/>
       <c r="B309" s="7"/>
       <c r="C309" s="6"/>
@@ -4239,7 +4459,7 @@
       <c r="F309" s="6"/>
       <c r="G309" s="7"/>
     </row>
-    <row r="310" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" ht="22.5" customHeight="1">
       <c r="A310" s="6"/>
       <c r="B310" s="7"/>
       <c r="C310" s="6"/>
@@ -4248,7 +4468,7 @@
       <c r="F310" s="6"/>
       <c r="G310" s="7"/>
     </row>
-    <row r="311" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" ht="22.5" customHeight="1">
       <c r="A311" s="6"/>
       <c r="B311" s="7"/>
       <c r="C311" s="6"/>
@@ -4257,7 +4477,7 @@
       <c r="F311" s="6"/>
       <c r="G311" s="7"/>
     </row>
-    <row r="312" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" ht="22.5" customHeight="1">
       <c r="A312" s="6"/>
       <c r="B312" s="7"/>
       <c r="C312" s="6"/>
@@ -4266,7 +4486,7 @@
       <c r="F312" s="6"/>
       <c r="G312" s="7"/>
     </row>
-    <row r="313" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" ht="22.5" customHeight="1">
       <c r="A313" s="6"/>
       <c r="B313" s="7"/>
       <c r="C313" s="6"/>
@@ -4275,7 +4495,7 @@
       <c r="F313" s="6"/>
       <c r="G313" s="7"/>
     </row>
-    <row r="314" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" ht="22.5" customHeight="1">
       <c r="A314" s="6"/>
       <c r="B314" s="7"/>
       <c r="C314" s="6"/>
@@ -4284,7 +4504,7 @@
       <c r="F314" s="6"/>
       <c r="G314" s="7"/>
     </row>
-    <row r="315" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" ht="22.5" customHeight="1">
       <c r="A315" s="6"/>
       <c r="B315" s="7"/>
       <c r="C315" s="6"/>
@@ -4293,7 +4513,7 @@
       <c r="F315" s="6"/>
       <c r="G315" s="7"/>
     </row>
-    <row r="316" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" ht="22.5" customHeight="1">
       <c r="A316" s="6"/>
       <c r="B316" s="7"/>
       <c r="C316" s="6"/>
@@ -4302,7 +4522,7 @@
       <c r="F316" s="6"/>
       <c r="G316" s="7"/>
     </row>
-    <row r="317" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" ht="22.5" customHeight="1">
       <c r="A317" s="6"/>
       <c r="B317" s="7"/>
       <c r="C317" s="6"/>
@@ -4311,7 +4531,7 @@
       <c r="F317" s="6"/>
       <c r="G317" s="7"/>
     </row>
-    <row r="318" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" ht="22.5" customHeight="1">
       <c r="A318" s="6"/>
       <c r="B318" s="7"/>
       <c r="C318" s="6"/>
@@ -4320,7 +4540,7 @@
       <c r="F318" s="6"/>
       <c r="G318" s="7"/>
     </row>
-    <row r="319" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" ht="22.5" customHeight="1">
       <c r="A319" s="6"/>
       <c r="B319" s="7"/>
       <c r="C319" s="6"/>
@@ -4329,7 +4549,7 @@
       <c r="F319" s="6"/>
       <c r="G319" s="7"/>
     </row>
-    <row r="320" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" ht="22.5" customHeight="1">
       <c r="A320" s="6"/>
       <c r="B320" s="7"/>
       <c r="C320" s="6"/>
@@ -4338,7 +4558,7 @@
       <c r="F320" s="6"/>
       <c r="G320" s="7"/>
     </row>
-    <row r="321" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" ht="22.5" customHeight="1">
       <c r="A321" s="6"/>
       <c r="B321" s="7"/>
       <c r="C321" s="6"/>
@@ -4347,7 +4567,7 @@
       <c r="F321" s="6"/>
       <c r="G321" s="7"/>
     </row>
-    <row r="322" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" ht="22.5" customHeight="1">
       <c r="A322" s="6"/>
       <c r="B322" s="7"/>
       <c r="C322" s="6"/>
@@ -4356,7 +4576,7 @@
       <c r="F322" s="6"/>
       <c r="G322" s="7"/>
     </row>
-    <row r="323" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" ht="22.5" customHeight="1">
       <c r="A323" s="6"/>
       <c r="B323" s="7"/>
       <c r="C323" s="6"/>
@@ -4365,7 +4585,7 @@
       <c r="F323" s="6"/>
       <c r="G323" s="7"/>
     </row>
-    <row r="324" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" ht="22.5" customHeight="1">
       <c r="A324" s="6"/>
       <c r="B324" s="7"/>
       <c r="C324" s="6"/>
@@ -4374,7 +4594,7 @@
       <c r="F324" s="6"/>
       <c r="G324" s="7"/>
     </row>
-    <row r="325" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" ht="22.5" customHeight="1">
       <c r="A325" s="6"/>
       <c r="B325" s="7"/>
       <c r="C325" s="6"/>
@@ -4383,7 +4603,7 @@
       <c r="F325" s="6"/>
       <c r="G325" s="7"/>
     </row>
-    <row r="326" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" ht="22.5" customHeight="1">
       <c r="A326" s="6"/>
       <c r="B326" s="7"/>
       <c r="C326" s="6"/>
@@ -4392,7 +4612,7 @@
       <c r="F326" s="6"/>
       <c r="G326" s="7"/>
     </row>
-    <row r="327" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" ht="22.5" customHeight="1">
       <c r="A327" s="6"/>
       <c r="B327" s="7"/>
       <c r="C327" s="6"/>
@@ -4401,7 +4621,7 @@
       <c r="F327" s="6"/>
       <c r="G327" s="7"/>
     </row>
-    <row r="328" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" ht="22.5" customHeight="1">
       <c r="A328" s="6"/>
       <c r="B328" s="7"/>
       <c r="C328" s="6"/>
@@ -4410,7 +4630,7 @@
       <c r="F328" s="6"/>
       <c r="G328" s="7"/>
     </row>
-    <row r="329" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" ht="22.5" customHeight="1">
       <c r="A329" s="6"/>
       <c r="B329" s="7"/>
       <c r="C329" s="6"/>
@@ -4419,7 +4639,7 @@
       <c r="F329" s="6"/>
       <c r="G329" s="7"/>
     </row>
-    <row r="330" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" ht="22.5" customHeight="1">
       <c r="A330" s="6"/>
       <c r="B330" s="7"/>
       <c r="C330" s="6"/>
@@ -4428,7 +4648,7 @@
       <c r="F330" s="6"/>
       <c r="G330" s="7"/>
     </row>
-    <row r="331" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" ht="22.5" customHeight="1">
       <c r="A331" s="6"/>
       <c r="B331" s="7"/>
       <c r="C331" s="6"/>
@@ -4437,7 +4657,7 @@
       <c r="F331" s="6"/>
       <c r="G331" s="7"/>
     </row>
-    <row r="332" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" ht="22.5" customHeight="1">
       <c r="A332" s="6"/>
       <c r="B332" s="7"/>
       <c r="C332" s="6"/>
@@ -4446,7 +4666,7 @@
       <c r="F332" s="6"/>
       <c r="G332" s="7"/>
     </row>
-    <row r="333" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" ht="22.5" customHeight="1">
       <c r="A333" s="6"/>
       <c r="B333" s="7"/>
       <c r="C333" s="6"/>
@@ -4455,7 +4675,7 @@
       <c r="F333" s="6"/>
       <c r="G333" s="7"/>
     </row>
-    <row r="334" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" ht="22.5" customHeight="1">
       <c r="A334" s="6"/>
       <c r="B334" s="7"/>
       <c r="C334" s="6"/>
@@ -4464,7 +4684,7 @@
       <c r="F334" s="6"/>
       <c r="G334" s="7"/>
     </row>
-    <row r="335" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" ht="22.5" customHeight="1">
       <c r="A335" s="6"/>
       <c r="B335" s="7"/>
       <c r="C335" s="6"/>
@@ -4473,7 +4693,7 @@
       <c r="F335" s="6"/>
       <c r="G335" s="7"/>
     </row>
-    <row r="336" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" ht="22.5" customHeight="1">
       <c r="A336" s="6"/>
       <c r="B336" s="7"/>
       <c r="C336" s="6"/>
@@ -4482,7 +4702,7 @@
       <c r="F336" s="6"/>
       <c r="G336" s="7"/>
     </row>
-    <row r="337" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" ht="22.5" customHeight="1">
       <c r="A337" s="6"/>
       <c r="B337" s="7"/>
       <c r="C337" s="6"/>
@@ -4491,7 +4711,7 @@
       <c r="F337" s="6"/>
       <c r="G337" s="7"/>
     </row>
-    <row r="338" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" ht="22.5" customHeight="1">
       <c r="A338" s="6"/>
       <c r="B338" s="7"/>
       <c r="C338" s="6"/>
@@ -4500,7 +4720,7 @@
       <c r="F338" s="6"/>
       <c r="G338" s="7"/>
     </row>
-    <row r="339" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" ht="22.5" customHeight="1">
       <c r="A339" s="6"/>
       <c r="B339" s="7"/>
       <c r="C339" s="6"/>
@@ -4509,7 +4729,7 @@
       <c r="F339" s="6"/>
       <c r="G339" s="7"/>
     </row>
-    <row r="340" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" ht="22.5" customHeight="1">
       <c r="A340" s="6"/>
       <c r="B340" s="7"/>
       <c r="C340" s="6"/>
@@ -4518,7 +4738,7 @@
       <c r="F340" s="6"/>
       <c r="G340" s="7"/>
     </row>
-    <row r="341" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" ht="22.5" customHeight="1">
       <c r="A341" s="6"/>
       <c r="B341" s="7"/>
       <c r="C341" s="6"/>
@@ -4527,7 +4747,7 @@
       <c r="F341" s="6"/>
       <c r="G341" s="7"/>
     </row>
-    <row r="342" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" ht="22.5" customHeight="1">
       <c r="A342" s="6"/>
       <c r="B342" s="7"/>
       <c r="C342" s="6"/>
@@ -4536,7 +4756,7 @@
       <c r="F342" s="6"/>
       <c r="G342" s="7"/>
     </row>
-    <row r="343" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" ht="22.5" customHeight="1">
       <c r="A343" s="6"/>
       <c r="B343" s="7"/>
       <c r="C343" s="6"/>
@@ -4545,7 +4765,7 @@
       <c r="F343" s="6"/>
       <c r="G343" s="7"/>
     </row>
-    <row r="344" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" ht="22.5" customHeight="1">
       <c r="A344" s="6"/>
       <c r="B344" s="7"/>
       <c r="C344" s="6"/>
@@ -4554,7 +4774,7 @@
       <c r="F344" s="6"/>
       <c r="G344" s="7"/>
     </row>
-    <row r="345" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" ht="22.5" customHeight="1">
       <c r="A345" s="6"/>
       <c r="B345" s="7"/>
       <c r="C345" s="6"/>
@@ -4563,7 +4783,7 @@
       <c r="F345" s="6"/>
       <c r="G345" s="7"/>
     </row>
-    <row r="346" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" ht="22.5" customHeight="1">
       <c r="A346" s="6"/>
       <c r="B346" s="7"/>
       <c r="C346" s="6"/>
@@ -4572,7 +4792,7 @@
       <c r="F346" s="6"/>
       <c r="G346" s="7"/>
     </row>
-    <row r="347" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" ht="22.5" customHeight="1">
       <c r="A347" s="6"/>
       <c r="B347" s="7"/>
       <c r="C347" s="6"/>
@@ -4581,7 +4801,7 @@
       <c r="F347" s="6"/>
       <c r="G347" s="7"/>
     </row>
-    <row r="348" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" ht="22.5" customHeight="1">
       <c r="A348" s="6"/>
       <c r="B348" s="7"/>
       <c r="C348" s="6"/>
@@ -4590,7 +4810,7 @@
       <c r="F348" s="6"/>
       <c r="G348" s="7"/>
     </row>
-    <row r="349" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" ht="22.5" customHeight="1">
       <c r="A349" s="6"/>
       <c r="B349" s="7"/>
       <c r="C349" s="6"/>
@@ -4599,7 +4819,7 @@
       <c r="F349" s="6"/>
       <c r="G349" s="7"/>
     </row>
-    <row r="350" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" ht="22.5" customHeight="1">
       <c r="A350" s="6"/>
       <c r="B350" s="7"/>
       <c r="C350" s="6"/>
@@ -4608,7 +4828,7 @@
       <c r="F350" s="6"/>
       <c r="G350" s="7"/>
     </row>
-    <row r="351" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" ht="22.5" customHeight="1">
       <c r="A351" s="6"/>
       <c r="B351" s="7"/>
       <c r="C351" s="6"/>
@@ -4617,7 +4837,7 @@
       <c r="F351" s="6"/>
       <c r="G351" s="7"/>
     </row>
-    <row r="352" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" ht="22.5" customHeight="1">
       <c r="A352" s="6"/>
       <c r="B352" s="7"/>
       <c r="C352" s="6"/>
@@ -4626,7 +4846,7 @@
       <c r="F352" s="6"/>
       <c r="G352" s="7"/>
     </row>
-    <row r="353" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" ht="22.5" customHeight="1">
       <c r="A353" s="6"/>
       <c r="B353" s="7"/>
       <c r="C353" s="6"/>
@@ -4635,7 +4855,7 @@
       <c r="F353" s="6"/>
       <c r="G353" s="7"/>
     </row>
-    <row r="354" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" ht="22.5" customHeight="1">
       <c r="A354" s="6"/>
       <c r="B354" s="7"/>
       <c r="C354" s="6"/>
@@ -4644,7 +4864,7 @@
       <c r="F354" s="6"/>
       <c r="G354" s="7"/>
     </row>
-    <row r="355" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" ht="22.5" customHeight="1">
       <c r="A355" s="6"/>
       <c r="B355" s="7"/>
       <c r="C355" s="6"/>
@@ -4653,7 +4873,7 @@
       <c r="F355" s="6"/>
       <c r="G355" s="7"/>
     </row>
-    <row r="356" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" ht="22.5" customHeight="1">
       <c r="A356" s="6"/>
       <c r="B356" s="7"/>
       <c r="C356" s="6"/>
@@ -4662,7 +4882,7 @@
       <c r="F356" s="6"/>
       <c r="G356" s="7"/>
     </row>
-    <row r="357" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" ht="22.5" customHeight="1">
       <c r="A357" s="6"/>
       <c r="B357" s="7"/>
       <c r="C357" s="6"/>
@@ -4671,7 +4891,7 @@
       <c r="F357" s="6"/>
       <c r="G357" s="7"/>
     </row>
-    <row r="358" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" ht="22.5" customHeight="1">
       <c r="A358" s="6"/>
       <c r="B358" s="7"/>
       <c r="C358" s="6"/>
@@ -4680,7 +4900,7 @@
       <c r="F358" s="6"/>
       <c r="G358" s="7"/>
     </row>
-    <row r="359" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" ht="22.5" customHeight="1">
       <c r="A359" s="6"/>
       <c r="B359" s="7"/>
       <c r="C359" s="6"/>
@@ -4689,7 +4909,7 @@
       <c r="F359" s="6"/>
       <c r="G359" s="7"/>
     </row>
-    <row r="360" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" ht="22.5" customHeight="1">
       <c r="A360" s="6"/>
       <c r="B360" s="7"/>
       <c r="C360" s="6"/>
@@ -4698,7 +4918,7 @@
       <c r="F360" s="6"/>
       <c r="G360" s="7"/>
     </row>
-    <row r="361" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" ht="22.5" customHeight="1">
       <c r="A361" s="6"/>
       <c r="B361" s="7"/>
       <c r="C361" s="6"/>
@@ -4707,7 +4927,7 @@
       <c r="F361" s="6"/>
       <c r="G361" s="7"/>
     </row>
-    <row r="362" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" ht="22.5" customHeight="1">
       <c r="A362" s="6"/>
       <c r="B362" s="7"/>
       <c r="C362" s="6"/>
@@ -4716,7 +4936,7 @@
       <c r="F362" s="6"/>
       <c r="G362" s="7"/>
     </row>
-    <row r="363" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" ht="22.5" customHeight="1">
       <c r="A363" s="6"/>
       <c r="B363" s="7"/>
       <c r="C363" s="6"/>
@@ -4725,7 +4945,7 @@
       <c r="F363" s="6"/>
       <c r="G363" s="7"/>
     </row>
-    <row r="364" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" ht="22.5" customHeight="1">
       <c r="A364" s="6"/>
       <c r="B364" s="7"/>
       <c r="C364" s="6"/>
@@ -4734,7 +4954,7 @@
       <c r="F364" s="6"/>
       <c r="G364" s="7"/>
     </row>
-    <row r="365" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" ht="22.5" customHeight="1">
       <c r="A365" s="6"/>
       <c r="B365" s="7"/>
       <c r="C365" s="6"/>
@@ -4743,7 +4963,7 @@
       <c r="F365" s="6"/>
       <c r="G365" s="7"/>
     </row>
-    <row r="366" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" ht="22.5" customHeight="1">
       <c r="A366" s="6"/>
       <c r="B366" s="7"/>
       <c r="C366" s="6"/>
@@ -4752,7 +4972,7 @@
       <c r="F366" s="6"/>
       <c r="G366" s="7"/>
     </row>
-    <row r="367" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" ht="22.5" customHeight="1">
       <c r="A367" s="6"/>
       <c r="B367" s="7"/>
       <c r="C367" s="6"/>
@@ -4761,7 +4981,7 @@
       <c r="F367" s="6"/>
       <c r="G367" s="7"/>
     </row>
-    <row r="368" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" ht="22.5" customHeight="1">
       <c r="A368" s="6"/>
       <c r="B368" s="7"/>
       <c r="C368" s="6"/>
@@ -4770,7 +4990,7 @@
       <c r="F368" s="6"/>
       <c r="G368" s="7"/>
     </row>
-    <row r="369" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" ht="22.5" customHeight="1">
       <c r="A369" s="6"/>
       <c r="B369" s="7"/>
       <c r="C369" s="6"/>
@@ -4779,7 +4999,7 @@
       <c r="F369" s="6"/>
       <c r="G369" s="7"/>
     </row>
-    <row r="370" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" ht="22.5" customHeight="1">
       <c r="A370" s="6"/>
       <c r="B370" s="7"/>
       <c r="C370" s="6"/>
@@ -4788,7 +5008,7 @@
       <c r="F370" s="6"/>
       <c r="G370" s="7"/>
     </row>
-    <row r="371" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" ht="22.5" customHeight="1">
       <c r="A371" s="6"/>
       <c r="B371" s="7"/>
       <c r="C371" s="6"/>
@@ -4797,7 +5017,7 @@
       <c r="F371" s="6"/>
       <c r="G371" s="7"/>
     </row>
-    <row r="372" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" ht="22.5" customHeight="1">
       <c r="A372" s="6"/>
       <c r="B372" s="7"/>
       <c r="C372" s="6"/>
@@ -4806,7 +5026,7 @@
       <c r="F372" s="6"/>
       <c r="G372" s="7"/>
     </row>
-    <row r="373" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" ht="22.5" customHeight="1">
       <c r="A373" s="6"/>
       <c r="B373" s="7"/>
       <c r="C373" s="6"/>
@@ -4815,7 +5035,7 @@
       <c r="F373" s="6"/>
       <c r="G373" s="7"/>
     </row>
-    <row r="374" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" ht="22.5" customHeight="1">
       <c r="A374" s="6"/>
       <c r="B374" s="7"/>
       <c r="C374" s="6"/>
@@ -4824,7 +5044,7 @@
       <c r="F374" s="6"/>
       <c r="G374" s="7"/>
     </row>
-    <row r="375" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" ht="22.5" customHeight="1">
       <c r="A375" s="6"/>
       <c r="B375" s="7"/>
       <c r="C375" s="6"/>
@@ -4833,7 +5053,7 @@
       <c r="F375" s="6"/>
       <c r="G375" s="7"/>
     </row>
-    <row r="376" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" ht="22.5" customHeight="1">
       <c r="A376" s="6"/>
       <c r="B376" s="7"/>
       <c r="C376" s="6"/>
@@ -4842,7 +5062,7 @@
       <c r="F376" s="6"/>
       <c r="G376" s="7"/>
     </row>
-    <row r="377" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" ht="22.5" customHeight="1">
       <c r="A377" s="6"/>
       <c r="B377" s="7"/>
       <c r="C377" s="6"/>
@@ -4851,7 +5071,7 @@
       <c r="F377" s="6"/>
       <c r="G377" s="7"/>
     </row>
-    <row r="378" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" ht="22.5" customHeight="1">
       <c r="A378" s="6"/>
       <c r="B378" s="7"/>
       <c r="C378" s="6"/>
@@ -4860,7 +5080,7 @@
       <c r="F378" s="6"/>
       <c r="G378" s="7"/>
     </row>
-    <row r="379" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" ht="22.5" customHeight="1">
       <c r="A379" s="6"/>
       <c r="B379" s="7"/>
       <c r="C379" s="6"/>
@@ -4869,7 +5089,7 @@
       <c r="F379" s="6"/>
       <c r="G379" s="7"/>
     </row>
-    <row r="380" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" ht="22.5" customHeight="1">
       <c r="A380" s="6"/>
       <c r="B380" s="7"/>
       <c r="C380" s="6"/>
@@ -4878,7 +5098,7 @@
       <c r="F380" s="6"/>
       <c r="G380" s="7"/>
     </row>
-    <row r="381" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" ht="22.5" customHeight="1">
       <c r="A381" s="6"/>
       <c r="B381" s="7"/>
       <c r="C381" s="6"/>
@@ -4887,7 +5107,7 @@
       <c r="F381" s="6"/>
       <c r="G381" s="7"/>
     </row>
-    <row r="382" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" ht="22.5" customHeight="1">
       <c r="A382" s="6"/>
       <c r="B382" s="7"/>
       <c r="C382" s="6"/>
@@ -4896,7 +5116,7 @@
       <c r="F382" s="6"/>
       <c r="G382" s="7"/>
     </row>
-    <row r="383" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" ht="22.5" customHeight="1">
       <c r="A383" s="6"/>
       <c r="B383" s="7"/>
       <c r="C383" s="6"/>
@@ -4905,7 +5125,7 @@
       <c r="F383" s="6"/>
       <c r="G383" s="7"/>
     </row>
-    <row r="384" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" ht="22.5" customHeight="1">
       <c r="A384" s="6"/>
       <c r="B384" s="7"/>
       <c r="C384" s="6"/>
@@ -4914,7 +5134,7 @@
       <c r="F384" s="6"/>
       <c r="G384" s="7"/>
     </row>
-    <row r="385" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" ht="22.5" customHeight="1">
       <c r="A385" s="6"/>
       <c r="B385" s="7"/>
       <c r="C385" s="6"/>
@@ -4923,7 +5143,7 @@
       <c r="F385" s="6"/>
       <c r="G385" s="7"/>
     </row>
-    <row r="386" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" ht="22.5" customHeight="1">
       <c r="A386" s="6"/>
       <c r="B386" s="7"/>
       <c r="C386" s="6"/>
@@ -4932,7 +5152,7 @@
       <c r="F386" s="6"/>
       <c r="G386" s="7"/>
     </row>
-    <row r="387" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" ht="22.5" customHeight="1">
       <c r="A387" s="6"/>
       <c r="B387" s="7"/>
       <c r="C387" s="6"/>
@@ -4941,7 +5161,7 @@
       <c r="F387" s="6"/>
       <c r="G387" s="7"/>
     </row>
-    <row r="388" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" ht="22.5" customHeight="1">
       <c r="A388" s="6"/>
       <c r="B388" s="7"/>
       <c r="C388" s="6"/>
@@ -4950,7 +5170,7 @@
       <c r="F388" s="6"/>
       <c r="G388" s="7"/>
     </row>
-    <row r="389" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" ht="22.5" customHeight="1">
       <c r="A389" s="6"/>
       <c r="B389" s="7"/>
       <c r="C389" s="6"/>
@@ -4959,7 +5179,7 @@
       <c r="F389" s="6"/>
       <c r="G389" s="7"/>
     </row>
-    <row r="390" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" ht="22.5" customHeight="1">
       <c r="A390" s="6"/>
       <c r="B390" s="7"/>
       <c r="C390" s="6"/>
@@ -4968,7 +5188,7 @@
       <c r="F390" s="6"/>
       <c r="G390" s="7"/>
     </row>
-    <row r="391" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" ht="22.5" customHeight="1">
       <c r="A391" s="6"/>
       <c r="B391" s="7"/>
       <c r="C391" s="6"/>
@@ -4977,7 +5197,7 @@
       <c r="F391" s="6"/>
       <c r="G391" s="7"/>
     </row>
-    <row r="392" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" ht="22.5" customHeight="1">
       <c r="A392" s="6"/>
       <c r="B392" s="7"/>
       <c r="C392" s="6"/>
@@ -4986,7 +5206,7 @@
       <c r="F392" s="6"/>
       <c r="G392" s="7"/>
     </row>
-    <row r="393" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" ht="22.5" customHeight="1">
       <c r="A393" s="6"/>
       <c r="B393" s="7"/>
       <c r="C393" s="6"/>
@@ -4995,7 +5215,7 @@
       <c r="F393" s="6"/>
       <c r="G393" s="7"/>
     </row>
-    <row r="394" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" ht="22.5" customHeight="1">
       <c r="A394" s="6"/>
       <c r="B394" s="7"/>
       <c r="C394" s="6"/>
@@ -5004,7 +5224,7 @@
       <c r="F394" s="6"/>
       <c r="G394" s="7"/>
     </row>
-    <row r="395" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" ht="22.5" customHeight="1">
       <c r="A395" s="6"/>
       <c r="B395" s="7"/>
       <c r="C395" s="6"/>
@@ -5013,7 +5233,7 @@
       <c r="F395" s="6"/>
       <c r="G395" s="7"/>
     </row>
-    <row r="396" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" ht="22.5" customHeight="1">
       <c r="A396" s="6"/>
       <c r="B396" s="7"/>
       <c r="C396" s="6"/>
@@ -5022,7 +5242,7 @@
       <c r="F396" s="6"/>
       <c r="G396" s="7"/>
     </row>
-    <row r="397" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" ht="22.5" customHeight="1">
       <c r="A397" s="6"/>
       <c r="B397" s="7"/>
       <c r="C397" s="6"/>
@@ -5031,7 +5251,7 @@
       <c r="F397" s="6"/>
       <c r="G397" s="7"/>
     </row>
-    <row r="398" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" ht="22.5" customHeight="1">
       <c r="A398" s="6"/>
       <c r="B398" s="7"/>
       <c r="C398" s="6"/>
@@ -5040,7 +5260,7 @@
       <c r="F398" s="6"/>
       <c r="G398" s="7"/>
     </row>
-    <row r="399" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" ht="22.5" customHeight="1">
       <c r="A399" s="6"/>
       <c r="B399" s="7"/>
       <c r="C399" s="6"/>
@@ -5049,7 +5269,7 @@
       <c r="F399" s="6"/>
       <c r="G399" s="7"/>
     </row>
-    <row r="400" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" ht="22.5" customHeight="1">
       <c r="A400" s="6"/>
       <c r="B400" s="7"/>
       <c r="C400" s="6"/>
@@ -5058,7 +5278,7 @@
       <c r="F400" s="6"/>
       <c r="G400" s="7"/>
     </row>
-    <row r="401" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" ht="22.5" customHeight="1">
       <c r="A401" s="6"/>
       <c r="B401" s="7"/>
       <c r="C401" s="6"/>
@@ -5067,7 +5287,7 @@
       <c r="F401" s="6"/>
       <c r="G401" s="7"/>
     </row>
-    <row r="402" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" ht="22.5" customHeight="1">
       <c r="A402" s="6"/>
       <c r="B402" s="7"/>
       <c r="C402" s="6"/>
@@ -5076,7 +5296,7 @@
       <c r="F402" s="6"/>
       <c r="G402" s="7"/>
     </row>
-    <row r="403" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" ht="22.5" customHeight="1">
       <c r="A403" s="6"/>
       <c r="B403" s="7"/>
       <c r="C403" s="6"/>
@@ -5085,7 +5305,7 @@
       <c r="F403" s="6"/>
       <c r="G403" s="7"/>
     </row>
-    <row r="404" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" ht="22.5" customHeight="1">
       <c r="A404" s="6"/>
       <c r="B404" s="7"/>
       <c r="C404" s="6"/>
@@ -5094,7 +5314,7 @@
       <c r="F404" s="6"/>
       <c r="G404" s="7"/>
     </row>
-    <row r="405" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" ht="22.5" customHeight="1">
       <c r="A405" s="6"/>
       <c r="B405" s="7"/>
       <c r="C405" s="6"/>
@@ -5103,7 +5323,7 @@
       <c r="F405" s="6"/>
       <c r="G405" s="7"/>
     </row>
-    <row r="406" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" ht="22.5" customHeight="1">
       <c r="A406" s="6"/>
       <c r="B406" s="7"/>
       <c r="C406" s="6"/>
@@ -5112,7 +5332,7 @@
       <c r="F406" s="6"/>
       <c r="G406" s="7"/>
     </row>
-    <row r="407" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" ht="22.5" customHeight="1">
       <c r="A407" s="6"/>
       <c r="B407" s="7"/>
       <c r="C407" s="6"/>
@@ -5121,7 +5341,7 @@
       <c r="F407" s="6"/>
       <c r="G407" s="7"/>
     </row>
-    <row r="408" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" ht="22.5" customHeight="1">
       <c r="A408" s="6"/>
       <c r="B408" s="7"/>
       <c r="C408" s="6"/>
@@ -5130,7 +5350,7 @@
       <c r="F408" s="6"/>
       <c r="G408" s="7"/>
     </row>
-    <row r="409" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" ht="22.5" customHeight="1">
       <c r="A409" s="6"/>
       <c r="B409" s="7"/>
       <c r="C409" s="6"/>
@@ -5139,7 +5359,7 @@
       <c r="F409" s="6"/>
       <c r="G409" s="7"/>
     </row>
-    <row r="410" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" ht="22.5" customHeight="1">
       <c r="A410" s="6"/>
       <c r="B410" s="7"/>
       <c r="C410" s="6"/>
@@ -5148,7 +5368,7 @@
       <c r="F410" s="6"/>
       <c r="G410" s="7"/>
     </row>
-    <row r="411" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" ht="22.5" customHeight="1">
       <c r="A411" s="6"/>
       <c r="B411" s="7"/>
       <c r="C411" s="6"/>
@@ -5157,7 +5377,7 @@
       <c r="F411" s="6"/>
       <c r="G411" s="7"/>
     </row>
-    <row r="412" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" ht="22.5" customHeight="1">
       <c r="A412" s="6"/>
       <c r="B412" s="7"/>
       <c r="C412" s="6"/>
@@ -5166,7 +5386,7 @@
       <c r="F412" s="6"/>
       <c r="G412" s="7"/>
     </row>
-    <row r="413" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" ht="22.5" customHeight="1">
       <c r="A413" s="6"/>
       <c r="B413" s="7"/>
       <c r="C413" s="6"/>
@@ -5175,7 +5395,7 @@
       <c r="F413" s="6"/>
       <c r="G413" s="7"/>
     </row>
-    <row r="414" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" ht="22.5" customHeight="1">
       <c r="A414" s="6"/>
       <c r="B414" s="7"/>
       <c r="C414" s="6"/>
@@ -5184,7 +5404,7 @@
       <c r="F414" s="6"/>
       <c r="G414" s="7"/>
     </row>
-    <row r="415" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" ht="22.5" customHeight="1">
       <c r="A415" s="6"/>
       <c r="B415" s="7"/>
       <c r="C415" s="6"/>
@@ -5193,7 +5413,7 @@
       <c r="F415" s="6"/>
       <c r="G415" s="7"/>
     </row>
-    <row r="416" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" ht="22.5" customHeight="1">
       <c r="A416" s="6"/>
       <c r="B416" s="7"/>
       <c r="C416" s="6"/>
@@ -5202,7 +5422,7 @@
       <c r="F416" s="6"/>
       <c r="G416" s="7"/>
     </row>
-    <row r="417" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" ht="22.5" customHeight="1">
       <c r="A417" s="6"/>
       <c r="B417" s="7"/>
       <c r="C417" s="6"/>
@@ -5211,7 +5431,7 @@
       <c r="F417" s="6"/>
       <c r="G417" s="7"/>
     </row>
-    <row r="418" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" ht="22.5" customHeight="1">
       <c r="A418" s="6"/>
       <c r="B418" s="7"/>
       <c r="C418" s="6"/>
@@ -5220,7 +5440,7 @@
       <c r="F418" s="6"/>
       <c r="G418" s="7"/>
     </row>
-    <row r="419" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" ht="22.5" customHeight="1">
       <c r="A419" s="6"/>
       <c r="B419" s="7"/>
       <c r="C419" s="6"/>
@@ -5229,7 +5449,7 @@
       <c r="F419" s="6"/>
       <c r="G419" s="7"/>
     </row>
-    <row r="420" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" ht="22.5" customHeight="1">
       <c r="A420" s="6"/>
       <c r="B420" s="7"/>
       <c r="C420" s="6"/>
@@ -5238,7 +5458,7 @@
       <c r="F420" s="6"/>
       <c r="G420" s="7"/>
     </row>
-    <row r="421" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" ht="22.5" customHeight="1">
       <c r="A421" s="6"/>
       <c r="B421" s="7"/>
       <c r="C421" s="6"/>
@@ -5247,7 +5467,7 @@
       <c r="F421" s="6"/>
       <c r="G421" s="7"/>
     </row>
-    <row r="422" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" ht="22.5" customHeight="1">
       <c r="A422" s="6"/>
       <c r="B422" s="7"/>
       <c r="C422" s="6"/>
@@ -5256,7 +5476,7 @@
       <c r="F422" s="6"/>
       <c r="G422" s="7"/>
     </row>
-    <row r="423" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" ht="22.5" customHeight="1">
       <c r="A423" s="6"/>
       <c r="B423" s="7"/>
       <c r="C423" s="6"/>
@@ -5265,7 +5485,7 @@
       <c r="F423" s="6"/>
       <c r="G423" s="7"/>
     </row>
-    <row r="424" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" ht="22.5" customHeight="1">
       <c r="A424" s="6"/>
       <c r="B424" s="7"/>
       <c r="C424" s="6"/>
@@ -5274,7 +5494,7 @@
       <c r="F424" s="6"/>
       <c r="G424" s="7"/>
     </row>
-    <row r="425" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" ht="22.5" customHeight="1">
       <c r="A425" s="6"/>
       <c r="B425" s="7"/>
       <c r="C425" s="6"/>
@@ -5283,7 +5503,7 @@
       <c r="F425" s="6"/>
       <c r="G425" s="7"/>
     </row>
-    <row r="426" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" ht="22.5" customHeight="1">
       <c r="A426" s="6"/>
       <c r="B426" s="7"/>
       <c r="C426" s="6"/>
@@ -5292,7 +5512,7 @@
       <c r="F426" s="6"/>
       <c r="G426" s="7"/>
     </row>
-    <row r="427" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" ht="22.5" customHeight="1">
       <c r="A427" s="6"/>
       <c r="B427" s="7"/>
       <c r="C427" s="6"/>
@@ -5301,7 +5521,7 @@
       <c r="F427" s="6"/>
       <c r="G427" s="7"/>
     </row>
-    <row r="428" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" ht="22.5" customHeight="1">
       <c r="A428" s="6"/>
       <c r="B428" s="7"/>
       <c r="C428" s="6"/>
@@ -5310,7 +5530,7 @@
       <c r="F428" s="6"/>
       <c r="G428" s="7"/>
     </row>
-    <row r="429" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" ht="22.5" customHeight="1">
       <c r="A429" s="6"/>
       <c r="B429" s="7"/>
       <c r="C429" s="6"/>
@@ -5319,7 +5539,7 @@
       <c r="F429" s="6"/>
       <c r="G429" s="7"/>
     </row>
-    <row r="430" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" ht="22.5" customHeight="1">
       <c r="A430" s="6"/>
       <c r="B430" s="7"/>
       <c r="C430" s="6"/>
@@ -5328,7 +5548,7 @@
       <c r="F430" s="6"/>
       <c r="G430" s="7"/>
     </row>
-    <row r="431" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" ht="22.5" customHeight="1">
       <c r="A431" s="6"/>
       <c r="B431" s="7"/>
       <c r="C431" s="6"/>
@@ -5337,7 +5557,7 @@
       <c r="F431" s="6"/>
       <c r="G431" s="7"/>
     </row>
-    <row r="432" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" ht="22.5" customHeight="1">
       <c r="A432" s="6"/>
       <c r="B432" s="7"/>
       <c r="C432" s="6"/>
@@ -5346,7 +5566,7 @@
       <c r="F432" s="6"/>
       <c r="G432" s="7"/>
     </row>
-    <row r="433" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" ht="22.5" customHeight="1">
       <c r="A433" s="6"/>
       <c r="B433" s="7"/>
       <c r="C433" s="6"/>
@@ -5355,7 +5575,7 @@
       <c r="F433" s="6"/>
       <c r="G433" s="7"/>
     </row>
-    <row r="434" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" ht="22.5" customHeight="1">
       <c r="A434" s="6"/>
       <c r="B434" s="7"/>
       <c r="C434" s="6"/>
@@ -5364,7 +5584,7 @@
       <c r="F434" s="6"/>
       <c r="G434" s="7"/>
     </row>
-    <row r="435" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" ht="22.5" customHeight="1">
       <c r="A435" s="6"/>
       <c r="B435" s="7"/>
       <c r="C435" s="6"/>
@@ -5373,7 +5593,7 @@
       <c r="F435" s="6"/>
       <c r="G435" s="7"/>
     </row>
-    <row r="436" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" ht="22.5" customHeight="1">
       <c r="A436" s="6"/>
       <c r="B436" s="7"/>
       <c r="C436" s="6"/>
@@ -5382,7 +5602,7 @@
       <c r="F436" s="6"/>
       <c r="G436" s="7"/>
     </row>
-    <row r="437" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" ht="22.5" customHeight="1">
       <c r="A437" s="6"/>
       <c r="B437" s="7"/>
       <c r="C437" s="6"/>
@@ -5391,7 +5611,7 @@
       <c r="F437" s="6"/>
       <c r="G437" s="7"/>
     </row>
-    <row r="438" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" ht="22.5" customHeight="1">
       <c r="A438" s="6"/>
       <c r="B438" s="7"/>
       <c r="C438" s="6"/>
@@ -5400,7 +5620,7 @@
       <c r="F438" s="6"/>
       <c r="G438" s="7"/>
     </row>
-    <row r="439" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" ht="22.5" customHeight="1">
       <c r="A439" s="6"/>
       <c r="B439" s="7"/>
       <c r="C439" s="6"/>
@@ -5409,7 +5629,7 @@
       <c r="F439" s="6"/>
       <c r="G439" s="7"/>
     </row>
-    <row r="440" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" ht="22.5" customHeight="1">
       <c r="A440" s="6"/>
       <c r="B440" s="7"/>
       <c r="C440" s="6"/>
@@ -5418,7 +5638,7 @@
       <c r="F440" s="6"/>
       <c r="G440" s="7"/>
     </row>
-    <row r="441" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" ht="22.5" customHeight="1">
       <c r="A441" s="6"/>
       <c r="B441" s="7"/>
       <c r="C441" s="6"/>
@@ -5427,7 +5647,7 @@
       <c r="F441" s="6"/>
       <c r="G441" s="7"/>
     </row>
-    <row r="442" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" ht="22.5" customHeight="1">
       <c r="A442" s="6"/>
       <c r="B442" s="7"/>
       <c r="C442" s="6"/>
@@ -5436,7 +5656,7 @@
       <c r="F442" s="6"/>
       <c r="G442" s="7"/>
     </row>
-    <row r="443" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" ht="22.5" customHeight="1">
       <c r="A443" s="6"/>
       <c r="B443" s="7"/>
       <c r="C443" s="6"/>
@@ -5445,7 +5665,7 @@
       <c r="F443" s="6"/>
       <c r="G443" s="7"/>
     </row>
-    <row r="444" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" ht="22.5" customHeight="1">
       <c r="A444" s="6"/>
       <c r="B444" s="7"/>
       <c r="C444" s="6"/>
@@ -5454,7 +5674,7 @@
       <c r="F444" s="6"/>
       <c r="G444" s="7"/>
     </row>
-    <row r="445" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" ht="22.5" customHeight="1">
       <c r="A445" s="6"/>
       <c r="B445" s="7"/>
       <c r="C445" s="6"/>
@@ -5463,7 +5683,7 @@
       <c r="F445" s="6"/>
       <c r="G445" s="7"/>
     </row>
-    <row r="446" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" ht="22.5" customHeight="1">
       <c r="A446" s="6"/>
       <c r="B446" s="7"/>
       <c r="C446" s="6"/>
@@ -5472,7 +5692,7 @@
       <c r="F446" s="6"/>
       <c r="G446" s="7"/>
     </row>
-    <row r="447" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" ht="22.5" customHeight="1">
       <c r="A447" s="6"/>
       <c r="B447" s="7"/>
       <c r="C447" s="6"/>
@@ -5481,7 +5701,7 @@
       <c r="F447" s="6"/>
       <c r="G447" s="7"/>
     </row>
-    <row r="448" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" ht="22.5" customHeight="1">
       <c r="A448" s="6"/>
       <c r="B448" s="7"/>
       <c r="C448" s="6"/>
@@ -5490,7 +5710,7 @@
       <c r="F448" s="6"/>
       <c r="G448" s="7"/>
     </row>
-    <row r="449" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" ht="22.5" customHeight="1">
       <c r="A449" s="6"/>
       <c r="B449" s="7"/>
       <c r="C449" s="6"/>
@@ -5499,7 +5719,7 @@
       <c r="F449" s="6"/>
       <c r="G449" s="7"/>
     </row>
-    <row r="450" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" ht="22.5" customHeight="1">
       <c r="A450" s="6"/>
       <c r="B450" s="7"/>
       <c r="C450" s="6"/>
@@ -5508,7 +5728,7 @@
       <c r="F450" s="6"/>
       <c r="G450" s="7"/>
     </row>
-    <row r="451" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" ht="22.5" customHeight="1">
       <c r="A451" s="6"/>
       <c r="B451" s="7"/>
       <c r="C451" s="6"/>
@@ -5517,7 +5737,7 @@
       <c r="F451" s="6"/>
       <c r="G451" s="7"/>
     </row>
-    <row r="452" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" ht="22.5" customHeight="1">
       <c r="A452" s="6"/>
       <c r="B452" s="7"/>
       <c r="C452" s="6"/>
@@ -5526,7 +5746,7 @@
       <c r="F452" s="6"/>
       <c r="G452" s="7"/>
     </row>
-    <row r="453" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" ht="22.5" customHeight="1">
       <c r="A453" s="6"/>
       <c r="B453" s="7"/>
       <c r="C453" s="6"/>
@@ -5535,7 +5755,7 @@
       <c r="F453" s="6"/>
       <c r="G453" s="7"/>
     </row>
-    <row r="454" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" ht="22.5" customHeight="1">
       <c r="A454" s="6"/>
       <c r="B454" s="7"/>
       <c r="C454" s="6"/>
@@ -5544,7 +5764,7 @@
       <c r="F454" s="6"/>
       <c r="G454" s="7"/>
     </row>
-    <row r="455" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" ht="22.5" customHeight="1">
       <c r="A455" s="6"/>
       <c r="B455" s="7"/>
       <c r="C455" s="6"/>
@@ -5553,7 +5773,7 @@
       <c r="F455" s="6"/>
       <c r="G455" s="7"/>
     </row>
-    <row r="456" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" ht="22.5" customHeight="1">
       <c r="A456" s="6"/>
       <c r="B456" s="7"/>
       <c r="C456" s="6"/>
@@ -5562,7 +5782,7 @@
       <c r="F456" s="6"/>
       <c r="G456" s="7"/>
     </row>
-    <row r="457" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" ht="22.5" customHeight="1">
       <c r="A457" s="6"/>
       <c r="B457" s="7"/>
       <c r="C457" s="6"/>
@@ -5571,7 +5791,7 @@
       <c r="F457" s="6"/>
       <c r="G457" s="7"/>
     </row>
-    <row r="458" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" ht="22.5" customHeight="1">
       <c r="A458" s="6"/>
       <c r="B458" s="7"/>
       <c r="C458" s="6"/>
@@ -5580,7 +5800,7 @@
       <c r="F458" s="6"/>
       <c r="G458" s="7"/>
     </row>
-    <row r="459" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" ht="22.5" customHeight="1">
       <c r="A459" s="6"/>
       <c r="B459" s="7"/>
       <c r="C459" s="6"/>
@@ -5589,7 +5809,7 @@
       <c r="F459" s="6"/>
       <c r="G459" s="7"/>
     </row>
-    <row r="460" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" ht="22.5" customHeight="1">
       <c r="A460" s="6"/>
       <c r="B460" s="7"/>
       <c r="C460" s="6"/>
@@ -5598,7 +5818,7 @@
       <c r="F460" s="6"/>
       <c r="G460" s="7"/>
     </row>
-    <row r="461" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" ht="22.5" customHeight="1">
       <c r="A461" s="6"/>
       <c r="B461" s="7"/>
       <c r="C461" s="6"/>
@@ -5607,7 +5827,7 @@
       <c r="F461" s="6"/>
       <c r="G461" s="7"/>
     </row>
-    <row r="462" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" ht="22.5" customHeight="1">
       <c r="A462" s="6"/>
       <c r="B462" s="7"/>
       <c r="C462" s="6"/>
@@ -5616,7 +5836,7 @@
       <c r="F462" s="6"/>
       <c r="G462" s="7"/>
     </row>
-    <row r="463" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" ht="22.5" customHeight="1">
       <c r="A463" s="6"/>
       <c r="B463" s="7"/>
       <c r="C463" s="6"/>
@@ -5625,7 +5845,7 @@
       <c r="F463" s="6"/>
       <c r="G463" s="7"/>
     </row>
-    <row r="464" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" ht="22.5" customHeight="1">
       <c r="A464" s="6"/>
       <c r="B464" s="7"/>
       <c r="C464" s="6"/>
@@ -5634,7 +5854,7 @@
       <c r="F464" s="6"/>
       <c r="G464" s="7"/>
     </row>
-    <row r="465" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" ht="22.5" customHeight="1">
       <c r="A465" s="6"/>
       <c r="B465" s="7"/>
       <c r="C465" s="6"/>
@@ -5643,7 +5863,7 @@
       <c r="F465" s="6"/>
       <c r="G465" s="7"/>
     </row>
-    <row r="466" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" ht="22.5" customHeight="1">
       <c r="A466" s="6"/>
       <c r="B466" s="7"/>
       <c r="C466" s="6"/>
@@ -5652,7 +5872,7 @@
       <c r="F466" s="6"/>
       <c r="G466" s="7"/>
     </row>
-    <row r="467" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" ht="22.5" customHeight="1">
       <c r="A467" s="6"/>
       <c r="B467" s="7"/>
       <c r="C467" s="6"/>
@@ -5661,7 +5881,7 @@
       <c r="F467" s="6"/>
       <c r="G467" s="7"/>
     </row>
-    <row r="468" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" ht="22.5" customHeight="1">
       <c r="A468" s="6"/>
       <c r="B468" s="7"/>
       <c r="C468" s="6"/>
@@ -5670,7 +5890,7 @@
       <c r="F468" s="6"/>
       <c r="G468" s="7"/>
     </row>
-    <row r="469" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" ht="22.5" customHeight="1">
       <c r="A469" s="6"/>
       <c r="B469" s="7"/>
       <c r="C469" s="6"/>
@@ -5679,7 +5899,7 @@
       <c r="F469" s="6"/>
       <c r="G469" s="7"/>
     </row>
-    <row r="470" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" ht="22.5" customHeight="1">
       <c r="A470" s="6"/>
       <c r="B470" s="7"/>
       <c r="C470" s="6"/>
@@ -5688,7 +5908,7 @@
       <c r="F470" s="6"/>
       <c r="G470" s="7"/>
     </row>
-    <row r="471" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" ht="22.5" customHeight="1">
       <c r="A471" s="6"/>
       <c r="B471" s="7"/>
       <c r="C471" s="6"/>
@@ -5697,7 +5917,7 @@
       <c r="F471" s="6"/>
       <c r="G471" s="7"/>
     </row>
-    <row r="472" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" ht="22.5" customHeight="1">
       <c r="A472" s="6"/>
       <c r="B472" s="7"/>
       <c r="C472" s="6"/>
@@ -5706,7 +5926,7 @@
       <c r="F472" s="6"/>
       <c r="G472" s="7"/>
     </row>
-    <row r="473" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" ht="22.5" customHeight="1">
       <c r="A473" s="6"/>
       <c r="B473" s="7"/>
       <c r="C473" s="6"/>
@@ -5715,7 +5935,7 @@
       <c r="F473" s="6"/>
       <c r="G473" s="7"/>
     </row>
-    <row r="474" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" ht="22.5" customHeight="1">
       <c r="A474" s="6"/>
       <c r="B474" s="7"/>
       <c r="C474" s="6"/>
@@ -5724,7 +5944,7 @@
       <c r="F474" s="6"/>
       <c r="G474" s="7"/>
     </row>
-    <row r="475" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" ht="22.5" customHeight="1">
       <c r="A475" s="6"/>
       <c r="B475" s="7"/>
       <c r="C475" s="6"/>
@@ -5733,7 +5953,7 @@
       <c r="F475" s="6"/>
       <c r="G475" s="7"/>
     </row>
-    <row r="476" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" ht="22.5" customHeight="1">
       <c r="A476" s="6"/>
       <c r="B476" s="7"/>
       <c r="C476" s="6"/>
@@ -5742,7 +5962,7 @@
       <c r="F476" s="6"/>
       <c r="G476" s="7"/>
     </row>
-    <row r="477" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" ht="22.5" customHeight="1">
       <c r="A477" s="6"/>
       <c r="B477" s="7"/>
       <c r="C477" s="6"/>
@@ -5751,7 +5971,7 @@
       <c r="F477" s="6"/>
       <c r="G477" s="7"/>
     </row>
-    <row r="478" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" ht="22.5" customHeight="1">
       <c r="A478" s="6"/>
       <c r="B478" s="7"/>
       <c r="C478" s="6"/>
@@ -5760,7 +5980,7 @@
       <c r="F478" s="6"/>
       <c r="G478" s="7"/>
     </row>
-    <row r="479" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" ht="22.5" customHeight="1">
       <c r="A479" s="6"/>
       <c r="B479" s="7"/>
       <c r="C479" s="6"/>
@@ -5769,7 +5989,7 @@
       <c r="F479" s="6"/>
       <c r="G479" s="7"/>
     </row>
-    <row r="480" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" ht="22.5" customHeight="1">
       <c r="A480" s="6"/>
       <c r="B480" s="7"/>
       <c r="C480" s="6"/>
@@ -5778,7 +5998,7 @@
       <c r="F480" s="6"/>
       <c r="G480" s="7"/>
     </row>
-    <row r="481" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" ht="22.5" customHeight="1">
       <c r="A481" s="6"/>
       <c r="B481" s="7"/>
       <c r="C481" s="6"/>
@@ -5787,7 +6007,7 @@
       <c r="F481" s="6"/>
       <c r="G481" s="7"/>
     </row>
-    <row r="482" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" ht="22.5" customHeight="1">
       <c r="A482" s="6"/>
       <c r="B482" s="7"/>
       <c r="C482" s="6"/>
@@ -5796,7 +6016,7 @@
       <c r="F482" s="6"/>
       <c r="G482" s="7"/>
     </row>
-    <row r="483" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" ht="22.5" customHeight="1">
       <c r="A483" s="6"/>
       <c r="B483" s="7"/>
       <c r="C483" s="6"/>
@@ -5805,7 +6025,7 @@
       <c r="F483" s="6"/>
       <c r="G483" s="7"/>
     </row>
-    <row r="484" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" ht="22.5" customHeight="1">
       <c r="A484" s="6"/>
       <c r="B484" s="7"/>
       <c r="C484" s="6"/>
@@ -5814,7 +6034,7 @@
       <c r="F484" s="6"/>
       <c r="G484" s="7"/>
     </row>
-    <row r="485" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" ht="22.5" customHeight="1">
       <c r="A485" s="6"/>
       <c r="B485" s="7"/>
       <c r="C485" s="6"/>
@@ -5823,7 +6043,7 @@
       <c r="F485" s="6"/>
       <c r="G485" s="7"/>
     </row>
-    <row r="486" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" ht="22.5" customHeight="1">
       <c r="A486" s="6"/>
       <c r="B486" s="7"/>
       <c r="C486" s="6"/>
@@ -5832,7 +6052,7 @@
       <c r="F486" s="6"/>
       <c r="G486" s="7"/>
     </row>
-    <row r="487" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" ht="22.5" customHeight="1">
       <c r="A487" s="6"/>
       <c r="B487" s="7"/>
       <c r="C487" s="6"/>
@@ -5841,7 +6061,7 @@
       <c r="F487" s="6"/>
       <c r="G487" s="7"/>
     </row>
-    <row r="488" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" ht="22.5" customHeight="1">
       <c r="A488" s="6"/>
       <c r="B488" s="7"/>
       <c r="C488" s="6"/>
@@ -5850,7 +6070,7 @@
       <c r="F488" s="6"/>
       <c r="G488" s="7"/>
     </row>
-    <row r="489" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" ht="22.5" customHeight="1">
       <c r="A489" s="6"/>
       <c r="B489" s="7"/>
       <c r="C489" s="6"/>
@@ -5859,7 +6079,7 @@
       <c r="F489" s="6"/>
       <c r="G489" s="7"/>
     </row>
-    <row r="490" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" ht="22.5" customHeight="1">
       <c r="A490" s="6"/>
       <c r="B490" s="7"/>
       <c r="C490" s="6"/>
@@ -5868,7 +6088,7 @@
       <c r="F490" s="6"/>
       <c r="G490" s="7"/>
     </row>
-    <row r="491" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" ht="22.5" customHeight="1">
       <c r="A491" s="6"/>
       <c r="B491" s="7"/>
       <c r="C491" s="6"/>
@@ -5877,7 +6097,7 @@
       <c r="F491" s="6"/>
       <c r="G491" s="7"/>
     </row>
-    <row r="492" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" ht="22.5" customHeight="1">
       <c r="A492" s="6"/>
       <c r="B492" s="7"/>
       <c r="C492" s="6"/>
@@ -5886,7 +6106,7 @@
       <c r="F492" s="6"/>
       <c r="G492" s="7"/>
     </row>
-    <row r="493" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" ht="22.5" customHeight="1">
       <c r="A493" s="6"/>
       <c r="B493" s="7"/>
       <c r="C493" s="6"/>
@@ -5895,7 +6115,7 @@
       <c r="F493" s="6"/>
       <c r="G493" s="7"/>
     </row>
-    <row r="494" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" ht="22.5" customHeight="1">
       <c r="A494" s="6"/>
       <c r="B494" s="7"/>
       <c r="C494" s="6"/>
@@ -5904,7 +6124,7 @@
       <c r="F494" s="6"/>
       <c r="G494" s="7"/>
     </row>
-    <row r="495" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" ht="22.5" customHeight="1">
       <c r="A495" s="6"/>
       <c r="B495" s="7"/>
       <c r="C495" s="6"/>
@@ -5913,7 +6133,7 @@
       <c r="F495" s="6"/>
       <c r="G495" s="7"/>
     </row>
-    <row r="496" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" ht="22.5" customHeight="1">
       <c r="A496" s="6"/>
       <c r="B496" s="7"/>
       <c r="C496" s="6"/>
@@ -5922,7 +6142,7 @@
       <c r="F496" s="6"/>
       <c r="G496" s="7"/>
     </row>
-    <row r="497" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" ht="22.5" customHeight="1">
       <c r="A497" s="6"/>
       <c r="B497" s="7"/>
       <c r="C497" s="6"/>
@@ -5931,7 +6151,7 @@
       <c r="F497" s="6"/>
       <c r="G497" s="7"/>
     </row>
-    <row r="498" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" ht="22.5" customHeight="1">
       <c r="A498" s="6"/>
       <c r="B498" s="7"/>
       <c r="C498" s="6"/>
@@ -5940,7 +6160,7 @@
       <c r="F498" s="6"/>
       <c r="G498" s="7"/>
     </row>
-    <row r="499" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" ht="22.5" customHeight="1">
       <c r="A499" s="6"/>
       <c r="B499" s="7"/>
       <c r="C499" s="6"/>
@@ -5949,7 +6169,7 @@
       <c r="F499" s="6"/>
       <c r="G499" s="7"/>
     </row>
-    <row r="500" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" ht="22.5" customHeight="1">
       <c r="A500" s="6"/>
       <c r="B500" s="7"/>
       <c r="C500" s="6"/>
@@ -5958,7 +6178,7 @@
       <c r="F500" s="6"/>
       <c r="G500" s="7"/>
     </row>
-    <row r="501" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" ht="22.5" customHeight="1">
       <c r="A501" s="6"/>
       <c r="B501" s="7"/>
       <c r="C501" s="6"/>
@@ -5967,7 +6187,7 @@
       <c r="F501" s="6"/>
       <c r="G501" s="7"/>
     </row>
-    <row r="502" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" ht="22.5" customHeight="1">
       <c r="A502" s="6"/>
       <c r="B502" s="7"/>
       <c r="C502" s="6"/>
@@ -5976,7 +6196,7 @@
       <c r="F502" s="6"/>
       <c r="G502" s="7"/>
     </row>
-    <row r="503" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" ht="22.5" customHeight="1">
       <c r="A503" s="6"/>
       <c r="B503" s="7"/>
       <c r="C503" s="6"/>
@@ -5985,7 +6205,7 @@
       <c r="F503" s="6"/>
       <c r="G503" s="7"/>
     </row>
-    <row r="504" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" ht="22.5" customHeight="1">
       <c r="A504" s="6"/>
       <c r="B504" s="7"/>
       <c r="C504" s="6"/>
@@ -5994,7 +6214,7 @@
       <c r="F504" s="6"/>
       <c r="G504" s="7"/>
     </row>
-    <row r="505" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" ht="22.5" customHeight="1">
       <c r="A505" s="6"/>
       <c r="B505" s="7"/>
       <c r="C505" s="6"/>
@@ -6003,7 +6223,7 @@
       <c r="F505" s="6"/>
       <c r="G505" s="7"/>
     </row>
-    <row r="506" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" ht="22.5" customHeight="1">
       <c r="A506" s="6"/>
       <c r="B506" s="7"/>
       <c r="C506" s="6"/>
@@ -6012,7 +6232,7 @@
       <c r="F506" s="6"/>
       <c r="G506" s="7"/>
     </row>
-    <row r="507" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" ht="22.5" customHeight="1">
       <c r="A507" s="6"/>
       <c r="B507" s="7"/>
       <c r="C507" s="6"/>
@@ -6021,7 +6241,7 @@
       <c r="F507" s="6"/>
       <c r="G507" s="7"/>
     </row>
-    <row r="508" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" ht="22.5" customHeight="1">
       <c r="A508" s="6"/>
       <c r="B508" s="7"/>
       <c r="C508" s="6"/>
@@ -6030,7 +6250,7 @@
       <c r="F508" s="6"/>
       <c r="G508" s="7"/>
     </row>
-    <row r="509" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" ht="22.5" customHeight="1">
       <c r="A509" s="6"/>
       <c r="B509" s="7"/>
       <c r="C509" s="6"/>
@@ -6039,7 +6259,7 @@
       <c r="F509" s="6"/>
       <c r="G509" s="7"/>
     </row>
-    <row r="510" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" ht="22.5" customHeight="1">
       <c r="A510" s="6"/>
       <c r="B510" s="7"/>
       <c r="C510" s="6"/>
@@ -6048,7 +6268,7 @@
       <c r="F510" s="6"/>
       <c r="G510" s="7"/>
     </row>
-    <row r="511" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" ht="22.5" customHeight="1">
       <c r="A511" s="6"/>
       <c r="B511" s="7"/>
       <c r="C511" s="6"/>
@@ -6057,7 +6277,7 @@
       <c r="F511" s="6"/>
       <c r="G511" s="7"/>
     </row>
-    <row r="512" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" ht="22.5" customHeight="1">
       <c r="A512" s="6"/>
       <c r="B512" s="7"/>
       <c r="C512" s="6"/>
@@ -6066,7 +6286,7 @@
       <c r="F512" s="6"/>
       <c r="G512" s="7"/>
     </row>
-    <row r="513" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" ht="22.5" customHeight="1">
       <c r="A513" s="6"/>
       <c r="B513" s="7"/>
       <c r="C513" s="6"/>
@@ -6075,7 +6295,7 @@
       <c r="F513" s="6"/>
       <c r="G513" s="7"/>
     </row>
-    <row r="514" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" ht="22.5" customHeight="1">
       <c r="A514" s="6"/>
       <c r="B514" s="7"/>
       <c r="C514" s="6"/>
@@ -6084,7 +6304,7 @@
       <c r="F514" s="6"/>
       <c r="G514" s="7"/>
     </row>
-    <row r="515" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" ht="22.5" customHeight="1">
       <c r="A515" s="6"/>
       <c r="B515" s="7"/>
       <c r="C515" s="6"/>
@@ -6093,7 +6313,7 @@
       <c r="F515" s="6"/>
       <c r="G515" s="7"/>
     </row>
-    <row r="516" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" ht="22.5" customHeight="1">
       <c r="A516" s="6"/>
       <c r="B516" s="7"/>
       <c r="C516" s="6"/>
@@ -6102,7 +6322,7 @@
       <c r="F516" s="6"/>
       <c r="G516" s="7"/>
     </row>
-    <row r="517" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" ht="22.5" customHeight="1">
       <c r="A517" s="6"/>
       <c r="B517" s="7"/>
       <c r="C517" s="6"/>
@@ -6111,7 +6331,7 @@
       <c r="F517" s="6"/>
       <c r="G517" s="7"/>
     </row>
-    <row r="518" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" ht="22.5" customHeight="1">
       <c r="A518" s="6"/>
       <c r="B518" s="7"/>
       <c r="C518" s="6"/>
@@ -6120,7 +6340,7 @@
       <c r="F518" s="6"/>
       <c r="G518" s="7"/>
     </row>
-    <row r="519" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" ht="22.5" customHeight="1">
       <c r="A519" s="6"/>
       <c r="B519" s="7"/>
       <c r="C519" s="6"/>
@@ -6129,7 +6349,7 @@
       <c r="F519" s="6"/>
       <c r="G519" s="7"/>
     </row>
-    <row r="520" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" ht="22.5" customHeight="1">
       <c r="A520" s="6"/>
       <c r="B520" s="7"/>
       <c r="C520" s="6"/>
@@ -6138,7 +6358,7 @@
       <c r="F520" s="6"/>
       <c r="G520" s="7"/>
     </row>
-    <row r="521" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" ht="22.5" customHeight="1">
       <c r="A521" s="6"/>
       <c r="B521" s="7"/>
       <c r="C521" s="6"/>
@@ -6147,7 +6367,7 @@
       <c r="F521" s="6"/>
       <c r="G521" s="7"/>
     </row>
-    <row r="522" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" ht="22.5" customHeight="1">
       <c r="A522" s="6"/>
       <c r="B522" s="7"/>
       <c r="C522" s="6"/>
@@ -6156,7 +6376,7 @@
       <c r="F522" s="6"/>
       <c r="G522" s="7"/>
     </row>
-    <row r="523" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" ht="22.5" customHeight="1">
       <c r="A523" s="6"/>
       <c r="B523" s="7"/>
       <c r="C523" s="6"/>
@@ -6165,7 +6385,7 @@
       <c r="F523" s="6"/>
       <c r="G523" s="7"/>
     </row>
-    <row r="524" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" ht="22.5" customHeight="1">
       <c r="A524" s="6"/>
       <c r="B524" s="7"/>
       <c r="C524" s="6"/>
@@ -6174,7 +6394,7 @@
       <c r="F524" s="6"/>
       <c r="G524" s="7"/>
     </row>
-    <row r="525" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" ht="22.5" customHeight="1">
       <c r="A525" s="6"/>
       <c r="B525" s="7"/>
       <c r="C525" s="6"/>
@@ -6183,7 +6403,7 @@
       <c r="F525" s="6"/>
       <c r="G525" s="7"/>
     </row>
-    <row r="526" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" ht="22.5" customHeight="1">
       <c r="A526" s="6"/>
       <c r="B526" s="7"/>
       <c r="C526" s="6"/>
@@ -6192,7 +6412,7 @@
       <c r="F526" s="6"/>
       <c r="G526" s="7"/>
     </row>
-    <row r="527" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" ht="22.5" customHeight="1">
       <c r="A527" s="6"/>
       <c r="B527" s="7"/>
       <c r="C527" s="6"/>
@@ -6201,7 +6421,7 @@
       <c r="F527" s="6"/>
       <c r="G527" s="7"/>
     </row>
-    <row r="528" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" ht="22.5" customHeight="1">
       <c r="A528" s="6"/>
       <c r="B528" s="7"/>
       <c r="C528" s="6"/>
@@ -6210,7 +6430,7 @@
       <c r="F528" s="6"/>
       <c r="G528" s="7"/>
     </row>
-    <row r="529" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" ht="22.5" customHeight="1">
       <c r="A529" s="6"/>
       <c r="B529" s="7"/>
       <c r="C529" s="6"/>
@@ -6219,7 +6439,7 @@
       <c r="F529" s="6"/>
       <c r="G529" s="7"/>
     </row>
-    <row r="530" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" ht="22.5" customHeight="1">
       <c r="A530" s="6"/>
       <c r="B530" s="7"/>
       <c r="C530" s="6"/>
@@ -6228,7 +6448,7 @@
       <c r="F530" s="6"/>
       <c r="G530" s="7"/>
     </row>
-    <row r="531" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" ht="22.5" customHeight="1">
       <c r="A531" s="6"/>
       <c r="B531" s="7"/>
       <c r="C531" s="6"/>
@@ -6237,7 +6457,7 @@
       <c r="F531" s="6"/>
       <c r="G531" s="7"/>
     </row>
-    <row r="532" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" ht="22.5" customHeight="1">
       <c r="A532" s="6"/>
       <c r="B532" s="7"/>
       <c r="C532" s="6"/>
@@ -6246,7 +6466,7 @@
       <c r="F532" s="6"/>
       <c r="G532" s="7"/>
     </row>
-    <row r="533" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" ht="22.5" customHeight="1">
       <c r="A533" s="6"/>
       <c r="B533" s="7"/>
       <c r="C533" s="6"/>
@@ -6255,7 +6475,7 @@
       <c r="F533" s="6"/>
       <c r="G533" s="7"/>
     </row>
-    <row r="534" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" ht="22.5" customHeight="1">
       <c r="A534" s="6"/>
       <c r="B534" s="7"/>
       <c r="C534" s="6"/>
@@ -6264,7 +6484,7 @@
       <c r="F534" s="6"/>
       <c r="G534" s="7"/>
     </row>
-    <row r="535" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" ht="22.5" customHeight="1">
       <c r="A535" s="6"/>
       <c r="B535" s="7"/>
       <c r="C535" s="6"/>
@@ -6273,7 +6493,7 @@
       <c r="F535" s="6"/>
       <c r="G535" s="7"/>
     </row>
-    <row r="536" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" ht="22.5" customHeight="1">
       <c r="A536" s="6"/>
       <c r="B536" s="7"/>
       <c r="C536" s="6"/>
@@ -6282,7 +6502,7 @@
       <c r="F536" s="6"/>
       <c r="G536" s="7"/>
     </row>
-    <row r="537" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" ht="22.5" customHeight="1">
       <c r="A537" s="6"/>
       <c r="B537" s="7"/>
       <c r="C537" s="6"/>
@@ -6291,7 +6511,7 @@
       <c r="F537" s="6"/>
       <c r="G537" s="7"/>
     </row>
-    <row r="538" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" ht="22.5" customHeight="1">
       <c r="A538" s="6"/>
       <c r="B538" s="7"/>
       <c r="C538" s="6"/>
@@ -6300,7 +6520,7 @@
       <c r="F538" s="6"/>
       <c r="G538" s="7"/>
     </row>
-    <row r="539" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" ht="22.5" customHeight="1">
       <c r="A539" s="6"/>
       <c r="B539" s="7"/>
       <c r="C539" s="6"/>
@@ -6309,7 +6529,7 @@
       <c r="F539" s="6"/>
       <c r="G539" s="7"/>
     </row>
-    <row r="540" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:7" ht="22.5" customHeight="1">
       <c r="A540" s="6"/>
       <c r="B540" s="7"/>
       <c r="C540" s="6"/>
@@ -6318,7 +6538,7 @@
       <c r="F540" s="6"/>
       <c r="G540" s="7"/>
     </row>
-    <row r="541" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:7" ht="22.5" customHeight="1">
       <c r="A541" s="6"/>
       <c r="B541" s="7"/>
       <c r="C541" s="6"/>
@@ -6327,7 +6547,7 @@
       <c r="F541" s="6"/>
       <c r="G541" s="7"/>
     </row>
-    <row r="542" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" ht="22.5" customHeight="1">
       <c r="A542" s="6"/>
       <c r="B542" s="7"/>
       <c r="C542" s="6"/>
@@ -6336,7 +6556,7 @@
       <c r="F542" s="6"/>
       <c r="G542" s="7"/>
     </row>
-    <row r="543" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" ht="22.5" customHeight="1">
       <c r="A543" s="6"/>
       <c r="B543" s="7"/>
       <c r="C543" s="6"/>
@@ -6345,7 +6565,7 @@
       <c r="F543" s="6"/>
       <c r="G543" s="7"/>
     </row>
-    <row r="544" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" ht="22.5" customHeight="1">
       <c r="A544" s="6"/>
       <c r="B544" s="7"/>
       <c r="C544" s="6"/>
@@ -6354,7 +6574,7 @@
       <c r="F544" s="6"/>
       <c r="G544" s="7"/>
     </row>
-    <row r="545" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" ht="22.5" customHeight="1">
       <c r="A545" s="6"/>
       <c r="B545" s="7"/>
       <c r="C545" s="6"/>
@@ -6363,7 +6583,7 @@
       <c r="F545" s="6"/>
       <c r="G545" s="7"/>
     </row>
-    <row r="546" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" ht="22.5" customHeight="1">
       <c r="A546" s="6"/>
       <c r="B546" s="7"/>
       <c r="C546" s="6"/>
@@ -6372,7 +6592,7 @@
       <c r="F546" s="6"/>
       <c r="G546" s="7"/>
     </row>
-    <row r="547" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" ht="22.5" customHeight="1">
       <c r="A547" s="6"/>
       <c r="B547" s="7"/>
       <c r="C547" s="6"/>
@@ -6381,7 +6601,7 @@
       <c r="F547" s="6"/>
       <c r="G547" s="7"/>
     </row>
-    <row r="548" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" ht="22.5" customHeight="1">
       <c r="A548" s="6"/>
       <c r="B548" s="7"/>
       <c r="C548" s="6"/>
@@ -6390,7 +6610,7 @@
       <c r="F548" s="6"/>
       <c r="G548" s="7"/>
     </row>
-    <row r="549" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" ht="22.5" customHeight="1">
       <c r="A549" s="6"/>
       <c r="B549" s="7"/>
       <c r="C549" s="6"/>
@@ -6399,7 +6619,7 @@
       <c r="F549" s="6"/>
       <c r="G549" s="7"/>
     </row>
-    <row r="550" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" ht="22.5" customHeight="1">
       <c r="A550" s="6"/>
       <c r="B550" s="7"/>
       <c r="C550" s="6"/>
@@ -6408,7 +6628,7 @@
       <c r="F550" s="6"/>
       <c r="G550" s="7"/>
     </row>
-    <row r="551" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" ht="22.5" customHeight="1">
       <c r="A551" s="6"/>
       <c r="B551" s="7"/>
       <c r="C551" s="6"/>
@@ -6417,7 +6637,7 @@
       <c r="F551" s="6"/>
       <c r="G551" s="7"/>
     </row>
-    <row r="552" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" ht="22.5" customHeight="1">
       <c r="A552" s="6"/>
       <c r="B552" s="7"/>
       <c r="C552" s="6"/>
@@ -6426,7 +6646,7 @@
       <c r="F552" s="6"/>
       <c r="G552" s="7"/>
     </row>
-    <row r="553" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" ht="22.5" customHeight="1">
       <c r="A553" s="6"/>
       <c r="B553" s="7"/>
       <c r="C553" s="6"/>
@@ -6435,7 +6655,7 @@
       <c r="F553" s="6"/>
       <c r="G553" s="7"/>
     </row>
-    <row r="554" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" ht="22.5" customHeight="1">
       <c r="A554" s="6"/>
       <c r="B554" s="7"/>
       <c r="C554" s="6"/>
@@ -6444,7 +6664,7 @@
       <c r="F554" s="6"/>
       <c r="G554" s="7"/>
     </row>
-    <row r="555" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" ht="22.5" customHeight="1">
       <c r="A555" s="6"/>
       <c r="B555" s="7"/>
       <c r="C555" s="6"/>
@@ -6453,7 +6673,7 @@
       <c r="F555" s="6"/>
       <c r="G555" s="7"/>
     </row>
-    <row r="556" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" ht="22.5" customHeight="1">
       <c r="A556" s="6"/>
       <c r="B556" s="7"/>
       <c r="C556" s="6"/>
@@ -6462,7 +6682,7 @@
       <c r="F556" s="6"/>
       <c r="G556" s="7"/>
     </row>
-    <row r="557" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" ht="22.5" customHeight="1">
       <c r="A557" s="6"/>
       <c r="B557" s="7"/>
       <c r="C557" s="6"/>
@@ -6471,7 +6691,7 @@
       <c r="F557" s="6"/>
       <c r="G557" s="7"/>
     </row>
-    <row r="558" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" ht="22.5" customHeight="1">
       <c r="A558" s="6"/>
       <c r="B558" s="7"/>
       <c r="C558" s="6"/>
@@ -6480,7 +6700,7 @@
       <c r="F558" s="6"/>
       <c r="G558" s="7"/>
     </row>
-    <row r="559" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" ht="22.5" customHeight="1">
       <c r="A559" s="6"/>
       <c r="B559" s="7"/>
       <c r="C559" s="6"/>
@@ -6489,7 +6709,7 @@
       <c r="F559" s="6"/>
       <c r="G559" s="7"/>
     </row>
-    <row r="560" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" ht="22.5" customHeight="1">
       <c r="A560" s="6"/>
       <c r="B560" s="7"/>
       <c r="C560" s="6"/>
@@ -6498,7 +6718,7 @@
       <c r="F560" s="6"/>
       <c r="G560" s="7"/>
     </row>
-    <row r="561" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" ht="22.5" customHeight="1">
       <c r="A561" s="6"/>
       <c r="B561" s="7"/>
       <c r="C561" s="6"/>
@@ -6507,7 +6727,7 @@
       <c r="F561" s="6"/>
       <c r="G561" s="7"/>
     </row>
-    <row r="562" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" ht="22.5" customHeight="1">
       <c r="A562" s="6"/>
       <c r="B562" s="7"/>
       <c r="C562" s="6"/>
@@ -6516,7 +6736,7 @@
       <c r="F562" s="6"/>
       <c r="G562" s="7"/>
     </row>
-    <row r="563" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" ht="22.5" customHeight="1">
       <c r="A563" s="6"/>
       <c r="B563" s="7"/>
       <c r="C563" s="6"/>
@@ -6525,7 +6745,7 @@
       <c r="F563" s="6"/>
       <c r="G563" s="7"/>
     </row>
-    <row r="564" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" ht="22.5" customHeight="1">
       <c r="A564" s="6"/>
       <c r="B564" s="7"/>
       <c r="C564" s="6"/>
@@ -6534,7 +6754,7 @@
       <c r="F564" s="6"/>
       <c r="G564" s="7"/>
     </row>
-    <row r="565" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:7" ht="22.5" customHeight="1">
       <c r="A565" s="6"/>
       <c r="B565" s="7"/>
       <c r="C565" s="6"/>
@@ -6543,7 +6763,7 @@
       <c r="F565" s="6"/>
       <c r="G565" s="7"/>
     </row>
-    <row r="566" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:7" ht="22.5" customHeight="1">
       <c r="A566" s="6"/>
       <c r="B566" s="7"/>
       <c r="C566" s="6"/>
@@ -6552,7 +6772,7 @@
       <c r="F566" s="6"/>
       <c r="G566" s="7"/>
     </row>
-    <row r="567" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:7" ht="22.5" customHeight="1">
       <c r="A567" s="6"/>
       <c r="B567" s="7"/>
       <c r="C567" s="6"/>
@@ -6561,7 +6781,7 @@
       <c r="F567" s="6"/>
       <c r="G567" s="7"/>
     </row>
-    <row r="568" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:7" ht="22.5" customHeight="1">
       <c r="A568" s="6"/>
       <c r="B568" s="7"/>
       <c r="C568" s="6"/>
@@ -6570,7 +6790,7 @@
       <c r="F568" s="6"/>
       <c r="G568" s="7"/>
     </row>
-    <row r="569" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:7" ht="22.5" customHeight="1">
       <c r="A569" s="6"/>
       <c r="B569" s="7"/>
       <c r="C569" s="6"/>
@@ -6579,7 +6799,7 @@
       <c r="F569" s="6"/>
       <c r="G569" s="7"/>
     </row>
-    <row r="570" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:7" ht="22.5" customHeight="1">
       <c r="A570" s="6"/>
       <c r="B570" s="7"/>
       <c r="C570" s="6"/>
@@ -6588,7 +6808,7 @@
       <c r="F570" s="6"/>
       <c r="G570" s="7"/>
     </row>
-    <row r="571" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:7" ht="22.5" customHeight="1">
       <c r="A571" s="6"/>
       <c r="B571" s="7"/>
       <c r="C571" s="6"/>
@@ -6597,7 +6817,7 @@
       <c r="F571" s="6"/>
       <c r="G571" s="7"/>
     </row>
-    <row r="572" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:7" ht="22.5" customHeight="1">
       <c r="A572" s="6"/>
       <c r="B572" s="7"/>
       <c r="C572" s="6"/>
@@ -6606,7 +6826,7 @@
       <c r="F572" s="6"/>
       <c r="G572" s="7"/>
     </row>
-    <row r="573" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:7" ht="22.5" customHeight="1">
       <c r="A573" s="6"/>
       <c r="B573" s="7"/>
       <c r="C573" s="6"/>
@@ -6615,7 +6835,7 @@
       <c r="F573" s="6"/>
       <c r="G573" s="7"/>
     </row>
-    <row r="574" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:7" ht="22.5" customHeight="1">
       <c r="A574" s="6"/>
       <c r="B574" s="7"/>
       <c r="C574" s="6"/>
@@ -6624,7 +6844,7 @@
       <c r="F574" s="6"/>
       <c r="G574" s="7"/>
     </row>
-    <row r="575" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" ht="22.5" customHeight="1">
       <c r="A575" s="6"/>
       <c r="B575" s="7"/>
       <c r="C575" s="6"/>
@@ -6633,7 +6853,7 @@
       <c r="F575" s="6"/>
       <c r="G575" s="7"/>
     </row>
-    <row r="576" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" ht="22.5" customHeight="1">
       <c r="A576" s="6"/>
       <c r="B576" s="7"/>
       <c r="C576" s="6"/>
@@ -6642,7 +6862,7 @@
       <c r="F576" s="6"/>
       <c r="G576" s="7"/>
     </row>
-    <row r="577" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:7" ht="22.5" customHeight="1">
       <c r="A577" s="6"/>
       <c r="B577" s="7"/>
       <c r="C577" s="6"/>
@@ -6651,7 +6871,7 @@
       <c r="F577" s="6"/>
       <c r="G577" s="7"/>
     </row>
-    <row r="578" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:7" ht="22.5" customHeight="1">
       <c r="A578" s="6"/>
       <c r="B578" s="7"/>
       <c r="C578" s="6"/>
@@ -6660,7 +6880,7 @@
       <c r="F578" s="6"/>
       <c r="G578" s="7"/>
     </row>
-    <row r="579" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" ht="22.5" customHeight="1">
       <c r="A579" s="6"/>
       <c r="B579" s="7"/>
       <c r="C579" s="6"/>
@@ -6669,7 +6889,7 @@
       <c r="F579" s="6"/>
       <c r="G579" s="7"/>
     </row>
-    <row r="580" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:7" ht="22.5" customHeight="1">
       <c r="A580" s="6"/>
       <c r="B580" s="7"/>
       <c r="C580" s="6"/>
@@ -6678,7 +6898,7 @@
       <c r="F580" s="6"/>
       <c r="G580" s="7"/>
     </row>
-    <row r="581" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:7" ht="22.5" customHeight="1">
       <c r="A581" s="6"/>
       <c r="B581" s="7"/>
       <c r="C581" s="6"/>
@@ -6687,7 +6907,7 @@
       <c r="F581" s="6"/>
       <c r="G581" s="7"/>
     </row>
-    <row r="582" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:7" ht="22.5" customHeight="1">
       <c r="A582" s="6"/>
       <c r="B582" s="7"/>
       <c r="C582" s="6"/>
@@ -6696,7 +6916,7 @@
       <c r="F582" s="6"/>
       <c r="G582" s="7"/>
     </row>
-    <row r="583" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:7" ht="22.5" customHeight="1">
       <c r="A583" s="6"/>
       <c r="B583" s="7"/>
       <c r="C583" s="6"/>
@@ -6705,7 +6925,7 @@
       <c r="F583" s="6"/>
       <c r="G583" s="7"/>
     </row>
-    <row r="584" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:7" ht="22.5" customHeight="1">
       <c r="A584" s="6"/>
       <c r="B584" s="7"/>
       <c r="C584" s="6"/>
@@ -6714,7 +6934,7 @@
       <c r="F584" s="6"/>
       <c r="G584" s="7"/>
     </row>
-    <row r="585" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:7" ht="22.5" customHeight="1">
       <c r="A585" s="6"/>
       <c r="B585" s="7"/>
       <c r="C585" s="6"/>
@@ -6723,7 +6943,7 @@
       <c r="F585" s="6"/>
       <c r="G585" s="7"/>
     </row>
-    <row r="586" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:7" ht="22.5" customHeight="1">
       <c r="A586" s="6"/>
       <c r="B586" s="7"/>
       <c r="C586" s="6"/>
@@ -6732,7 +6952,7 @@
       <c r="F586" s="6"/>
       <c r="G586" s="7"/>
     </row>
-    <row r="587" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" ht="22.5" customHeight="1">
       <c r="A587" s="6"/>
       <c r="B587" s="7"/>
       <c r="C587" s="6"/>
@@ -6741,7 +6961,7 @@
       <c r="F587" s="6"/>
       <c r="G587" s="7"/>
     </row>
-    <row r="588" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" ht="22.5" customHeight="1">
       <c r="A588" s="6"/>
       <c r="B588" s="7"/>
       <c r="C588" s="6"/>
@@ -6750,7 +6970,7 @@
       <c r="F588" s="6"/>
       <c r="G588" s="7"/>
     </row>
-    <row r="589" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:7" ht="22.5" customHeight="1">
       <c r="A589" s="6"/>
       <c r="B589" s="7"/>
       <c r="C589" s="6"/>
@@ -6759,7 +6979,7 @@
       <c r="F589" s="6"/>
       <c r="G589" s="7"/>
     </row>
-    <row r="590" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:7" ht="22.5" customHeight="1">
       <c r="A590" s="6"/>
       <c r="B590" s="7"/>
       <c r="C590" s="6"/>
@@ -6768,7 +6988,7 @@
       <c r="F590" s="6"/>
       <c r="G590" s="7"/>
     </row>
-    <row r="591" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" ht="22.5" customHeight="1">
       <c r="A591" s="6"/>
       <c r="B591" s="7"/>
       <c r="C591" s="6"/>
@@ -6777,7 +6997,7 @@
       <c r="F591" s="6"/>
       <c r="G591" s="7"/>
     </row>
-    <row r="592" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:7" ht="22.5" customHeight="1">
       <c r="A592" s="6"/>
       <c r="B592" s="7"/>
       <c r="C592" s="6"/>
@@ -6786,7 +7006,7 @@
       <c r="F592" s="6"/>
       <c r="G592" s="7"/>
     </row>
-    <row r="593" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:7" ht="22.5" customHeight="1">
       <c r="A593" s="6"/>
       <c r="B593" s="7"/>
       <c r="C593" s="6"/>
@@ -6795,7 +7015,7 @@
       <c r="F593" s="6"/>
       <c r="G593" s="7"/>
     </row>
-    <row r="594" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:7" ht="22.5" customHeight="1">
       <c r="A594" s="6"/>
       <c r="B594" s="7"/>
       <c r="C594" s="6"/>
@@ -6804,7 +7024,7 @@
       <c r="F594" s="6"/>
       <c r="G594" s="7"/>
     </row>
-    <row r="595" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:7" ht="22.5" customHeight="1">
       <c r="A595" s="6"/>
       <c r="B595" s="7"/>
       <c r="C595" s="6"/>
@@ -6813,7 +7033,7 @@
       <c r="F595" s="6"/>
       <c r="G595" s="7"/>
     </row>
-    <row r="596" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:7" ht="22.5" customHeight="1">
       <c r="A596" s="6"/>
       <c r="B596" s="7"/>
       <c r="C596" s="6"/>
@@ -6822,7 +7042,7 @@
       <c r="F596" s="6"/>
       <c r="G596" s="7"/>
     </row>
-    <row r="597" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:7" ht="22.5" customHeight="1">
       <c r="A597" s="6"/>
       <c r="B597" s="7"/>
       <c r="C597" s="6"/>
@@ -6831,7 +7051,7 @@
       <c r="F597" s="6"/>
       <c r="G597" s="7"/>
     </row>
-    <row r="598" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:7" ht="22.5" customHeight="1">
       <c r="A598" s="6"/>
       <c r="B598" s="7"/>
       <c r="C598" s="6"/>
@@ -6840,7 +7060,7 @@
       <c r="F598" s="6"/>
       <c r="G598" s="7"/>
     </row>
-    <row r="599" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:7" ht="22.5" customHeight="1">
       <c r="A599" s="6"/>
       <c r="B599" s="7"/>
       <c r="C599" s="6"/>
@@ -6849,7 +7069,7 @@
       <c r="F599" s="6"/>
       <c r="G599" s="7"/>
     </row>
-    <row r="600" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:7" ht="22.5" customHeight="1">
       <c r="A600" s="6"/>
       <c r="B600" s="7"/>
       <c r="C600" s="6"/>
@@ -6858,7 +7078,7 @@
       <c r="F600" s="6"/>
       <c r="G600" s="7"/>
     </row>
-    <row r="601" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" ht="22.5" customHeight="1">
       <c r="A601" s="6"/>
       <c r="B601" s="7"/>
       <c r="C601" s="6"/>
@@ -6867,7 +7087,7 @@
       <c r="F601" s="6"/>
       <c r="G601" s="7"/>
     </row>
-    <row r="602" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" ht="22.5" customHeight="1">
       <c r="A602" s="6"/>
       <c r="B602" s="7"/>
       <c r="C602" s="6"/>
@@ -6876,7 +7096,7 @@
       <c r="F602" s="6"/>
       <c r="G602" s="7"/>
     </row>
-    <row r="603" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:7" ht="22.5" customHeight="1">
       <c r="A603" s="6"/>
       <c r="B603" s="7"/>
       <c r="C603" s="6"/>
@@ -6885,7 +7105,7 @@
       <c r="F603" s="6"/>
       <c r="G603" s="7"/>
     </row>
-    <row r="604" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" ht="22.5" customHeight="1">
       <c r="A604" s="6"/>
       <c r="B604" s="7"/>
       <c r="C604" s="6"/>
@@ -6894,7 +7114,7 @@
       <c r="F604" s="6"/>
       <c r="G604" s="7"/>
     </row>
-    <row r="605" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:7" ht="22.5" customHeight="1">
       <c r="A605" s="6"/>
       <c r="B605" s="7"/>
       <c r="C605" s="6"/>
@@ -6903,7 +7123,7 @@
       <c r="F605" s="6"/>
       <c r="G605" s="7"/>
     </row>
-    <row r="606" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:7" ht="22.5" customHeight="1">
       <c r="A606" s="6"/>
       <c r="B606" s="7"/>
       <c r="C606" s="6"/>
@@ -6912,7 +7132,7 @@
       <c r="F606" s="6"/>
       <c r="G606" s="7"/>
     </row>
-    <row r="607" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" ht="22.5" customHeight="1">
       <c r="A607" s="6"/>
       <c r="B607" s="7"/>
       <c r="C607" s="6"/>
@@ -6921,7 +7141,7 @@
       <c r="F607" s="6"/>
       <c r="G607" s="7"/>
     </row>
-    <row r="608" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" ht="22.5" customHeight="1">
       <c r="A608" s="6"/>
       <c r="B608" s="7"/>
       <c r="C608" s="6"/>
@@ -6930,7 +7150,7 @@
       <c r="F608" s="6"/>
       <c r="G608" s="7"/>
     </row>
-    <row r="609" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" ht="22.5" customHeight="1">
       <c r="A609" s="6"/>
       <c r="B609" s="7"/>
       <c r="C609" s="6"/>
@@ -6939,7 +7159,7 @@
       <c r="F609" s="6"/>
       <c r="G609" s="7"/>
     </row>
-    <row r="610" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:7" ht="22.5" customHeight="1">
       <c r="A610" s="6"/>
       <c r="B610" s="7"/>
       <c r="C610" s="6"/>
@@ -6948,7 +7168,7 @@
       <c r="F610" s="6"/>
       <c r="G610" s="7"/>
     </row>
-    <row r="611" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:7" ht="22.5" customHeight="1">
       <c r="A611" s="6"/>
       <c r="B611" s="7"/>
       <c r="C611" s="6"/>
@@ -6957,7 +7177,7 @@
       <c r="F611" s="6"/>
       <c r="G611" s="7"/>
     </row>
-    <row r="612" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" ht="22.5" customHeight="1">
       <c r="A612" s="6"/>
       <c r="B612" s="7"/>
       <c r="C612" s="6"/>
@@ -6966,7 +7186,7 @@
       <c r="F612" s="6"/>
       <c r="G612" s="7"/>
     </row>
-    <row r="613" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:7" ht="22.5" customHeight="1">
       <c r="A613" s="6"/>
       <c r="B613" s="7"/>
       <c r="C613" s="6"/>
@@ -6975,7 +7195,7 @@
       <c r="F613" s="6"/>
       <c r="G613" s="7"/>
     </row>
-    <row r="614" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:7" ht="22.5" customHeight="1">
       <c r="A614" s="6"/>
       <c r="B614" s="7"/>
       <c r="C614" s="6"/>
@@ -6984,7 +7204,7 @@
       <c r="F614" s="6"/>
       <c r="G614" s="7"/>
     </row>
-    <row r="615" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:7" ht="22.5" customHeight="1">
       <c r="A615" s="6"/>
       <c r="B615" s="7"/>
       <c r="C615" s="6"/>
@@ -6993,7 +7213,7 @@
       <c r="F615" s="6"/>
       <c r="G615" s="7"/>
     </row>
-    <row r="616" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:7" ht="22.5" customHeight="1">
       <c r="A616" s="6"/>
       <c r="B616" s="7"/>
       <c r="C616" s="6"/>
@@ -7002,7 +7222,7 @@
       <c r="F616" s="6"/>
       <c r="G616" s="7"/>
     </row>
-    <row r="617" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:7" ht="22.5" customHeight="1">
       <c r="A617" s="6"/>
       <c r="B617" s="7"/>
       <c r="C617" s="6"/>
@@ -7011,7 +7231,7 @@
       <c r="F617" s="6"/>
       <c r="G617" s="7"/>
     </row>
-    <row r="618" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:7" ht="22.5" customHeight="1">
       <c r="A618" s="6"/>
       <c r="B618" s="7"/>
       <c r="C618" s="6"/>
@@ -7020,7 +7240,7 @@
       <c r="F618" s="6"/>
       <c r="G618" s="7"/>
     </row>
-    <row r="619" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:7" ht="22.5" customHeight="1">
       <c r="A619" s="6"/>
       <c r="B619" s="7"/>
       <c r="C619" s="6"/>
@@ -7029,7 +7249,7 @@
       <c r="F619" s="6"/>
       <c r="G619" s="7"/>
     </row>
-    <row r="620" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" ht="22.5" customHeight="1">
       <c r="A620" s="6"/>
       <c r="B620" s="7"/>
       <c r="C620" s="6"/>
@@ -7038,7 +7258,7 @@
       <c r="F620" s="6"/>
       <c r="G620" s="7"/>
     </row>
-    <row r="621" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" ht="22.5" customHeight="1">
       <c r="A621" s="6"/>
       <c r="B621" s="7"/>
       <c r="C621" s="6"/>
@@ -7047,7 +7267,7 @@
       <c r="F621" s="6"/>
       <c r="G621" s="7"/>
     </row>
-    <row r="622" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:7" ht="22.5" customHeight="1">
       <c r="A622" s="6"/>
       <c r="B622" s="7"/>
       <c r="C622" s="6"/>
@@ -7056,7 +7276,7 @@
       <c r="F622" s="6"/>
       <c r="G622" s="7"/>
     </row>
-    <row r="623" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" ht="22.5" customHeight="1">
       <c r="A623" s="6"/>
       <c r="B623" s="7"/>
       <c r="C623" s="6"/>
@@ -7065,7 +7285,7 @@
       <c r="F623" s="6"/>
       <c r="G623" s="7"/>
     </row>
-    <row r="624" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:7" ht="22.5" customHeight="1">
       <c r="A624" s="6"/>
       <c r="B624" s="7"/>
       <c r="C624" s="6"/>
@@ -7074,7 +7294,7 @@
       <c r="F624" s="6"/>
       <c r="G624" s="7"/>
     </row>
-    <row r="625" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:7" ht="22.5" customHeight="1">
       <c r="A625" s="6"/>
       <c r="B625" s="7"/>
       <c r="C625" s="6"/>
@@ -7083,7 +7303,7 @@
       <c r="F625" s="6"/>
       <c r="G625" s="7"/>
     </row>
-    <row r="626" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" ht="22.5" customHeight="1">
       <c r="A626" s="6"/>
       <c r="B626" s="7"/>
       <c r="C626" s="6"/>
@@ -7092,7 +7312,7 @@
       <c r="F626" s="6"/>
       <c r="G626" s="7"/>
     </row>
-    <row r="627" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:7" ht="22.5" customHeight="1">
       <c r="A627" s="6"/>
       <c r="B627" s="7"/>
       <c r="C627" s="6"/>
@@ -7101,7 +7321,7 @@
       <c r="F627" s="6"/>
       <c r="G627" s="7"/>
     </row>
-    <row r="628" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" ht="22.5" customHeight="1">
       <c r="A628" s="6"/>
       <c r="B628" s="7"/>
       <c r="C628" s="6"/>
@@ -7110,7 +7330,7 @@
       <c r="F628" s="6"/>
       <c r="G628" s="7"/>
     </row>
-    <row r="629" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:7" ht="22.5" customHeight="1">
       <c r="A629" s="6"/>
       <c r="B629" s="7"/>
       <c r="C629" s="6"/>
@@ -7119,7 +7339,7 @@
       <c r="F629" s="6"/>
       <c r="G629" s="7"/>
     </row>
-    <row r="630" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:7" ht="22.5" customHeight="1">
       <c r="A630" s="6"/>
       <c r="B630" s="7"/>
       <c r="C630" s="6"/>
@@ -7128,7 +7348,7 @@
       <c r="F630" s="6"/>
       <c r="G630" s="7"/>
     </row>
-    <row r="631" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:7" ht="22.5" customHeight="1">
       <c r="A631" s="6"/>
       <c r="B631" s="7"/>
       <c r="C631" s="6"/>
@@ -7137,7 +7357,7 @@
       <c r="F631" s="6"/>
       <c r="G631" s="7"/>
     </row>
-    <row r="632" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:7" ht="22.5" customHeight="1">
       <c r="A632" s="6"/>
       <c r="B632" s="7"/>
       <c r="C632" s="6"/>
@@ -7146,7 +7366,7 @@
       <c r="F632" s="6"/>
       <c r="G632" s="7"/>
     </row>
-    <row r="633" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:7" ht="22.5" customHeight="1">
       <c r="A633" s="6"/>
       <c r="B633" s="7"/>
       <c r="C633" s="6"/>
@@ -7155,7 +7375,7 @@
       <c r="F633" s="6"/>
       <c r="G633" s="7"/>
     </row>
-    <row r="634" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" ht="22.5" customHeight="1">
       <c r="A634" s="6"/>
       <c r="B634" s="7"/>
       <c r="C634" s="6"/>
@@ -7164,7 +7384,7 @@
       <c r="F634" s="6"/>
       <c r="G634" s="7"/>
     </row>
-    <row r="635" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" ht="22.5" customHeight="1">
       <c r="A635" s="6"/>
       <c r="B635" s="7"/>
       <c r="C635" s="6"/>
@@ -7173,7 +7393,7 @@
       <c r="F635" s="6"/>
       <c r="G635" s="7"/>
     </row>
-    <row r="636" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:7" ht="22.5" customHeight="1">
       <c r="A636" s="6"/>
       <c r="B636" s="7"/>
       <c r="C636" s="6"/>
@@ -7182,7 +7402,7 @@
       <c r="F636" s="6"/>
       <c r="G636" s="7"/>
     </row>
-    <row r="637" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:7" ht="22.5" customHeight="1">
       <c r="A637" s="6"/>
       <c r="B637" s="7"/>
       <c r="C637" s="6"/>
@@ -7191,7 +7411,7 @@
       <c r="F637" s="6"/>
       <c r="G637" s="7"/>
     </row>
-    <row r="638" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" ht="22.5" customHeight="1">
       <c r="A638" s="6"/>
       <c r="B638" s="7"/>
       <c r="C638" s="6"/>
@@ -7200,7 +7420,7 @@
       <c r="F638" s="6"/>
       <c r="G638" s="7"/>
     </row>
-    <row r="639" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:7" ht="22.5" customHeight="1">
       <c r="A639" s="6"/>
       <c r="B639" s="7"/>
       <c r="C639" s="6"/>
@@ -7209,7 +7429,7 @@
       <c r="F639" s="6"/>
       <c r="G639" s="7"/>
     </row>
-    <row r="640" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:7" ht="22.5" customHeight="1">
       <c r="A640" s="6"/>
       <c r="B640" s="7"/>
       <c r="C640" s="6"/>
@@ -7218,7 +7438,7 @@
       <c r="F640" s="6"/>
       <c r="G640" s="7"/>
     </row>
-    <row r="641" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" ht="22.5" customHeight="1">
       <c r="A641" s="6"/>
       <c r="B641" s="7"/>
       <c r="C641" s="6"/>
@@ -7227,7 +7447,7 @@
       <c r="F641" s="6"/>
       <c r="G641" s="7"/>
     </row>
-    <row r="642" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:7" ht="22.5" customHeight="1">
       <c r="A642" s="6"/>
       <c r="B642" s="7"/>
       <c r="C642" s="6"/>
@@ -7236,7 +7456,7 @@
       <c r="F642" s="6"/>
       <c r="G642" s="7"/>
     </row>
-    <row r="643" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" ht="22.5" customHeight="1">
       <c r="A643" s="6"/>
       <c r="B643" s="7"/>
       <c r="C643" s="6"/>
@@ -7245,7 +7465,7 @@
       <c r="F643" s="6"/>
       <c r="G643" s="7"/>
     </row>
-    <row r="644" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:7" ht="22.5" customHeight="1">
       <c r="A644" s="6"/>
       <c r="B644" s="7"/>
       <c r="C644" s="6"/>
@@ -7254,7 +7474,7 @@
       <c r="F644" s="6"/>
       <c r="G644" s="7"/>
     </row>
-    <row r="645" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:7" ht="22.5" customHeight="1">
       <c r="A645" s="6"/>
       <c r="B645" s="7"/>
       <c r="C645" s="6"/>
@@ -7263,7 +7483,7 @@
       <c r="F645" s="6"/>
       <c r="G645" s="7"/>
     </row>
-    <row r="646" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" ht="22.5" customHeight="1">
       <c r="A646" s="6"/>
       <c r="B646" s="7"/>
       <c r="C646" s="6"/>
@@ -7272,7 +7492,7 @@
       <c r="F646" s="6"/>
       <c r="G646" s="7"/>
     </row>
-    <row r="647" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:7" ht="22.5" customHeight="1">
       <c r="A647" s="6"/>
       <c r="B647" s="7"/>
       <c r="C647" s="6"/>
@@ -7281,7 +7501,7 @@
       <c r="F647" s="6"/>
       <c r="G647" s="7"/>
     </row>
-    <row r="648" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:7" ht="22.5" customHeight="1">
       <c r="A648" s="6"/>
       <c r="B648" s="7"/>
       <c r="C648" s="6"/>
@@ -7290,7 +7510,7 @@
       <c r="F648" s="6"/>
       <c r="G648" s="7"/>
     </row>
-    <row r="649" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" ht="22.5" customHeight="1">
       <c r="A649" s="6"/>
       <c r="B649" s="7"/>
       <c r="C649" s="6"/>
@@ -7299,7 +7519,7 @@
       <c r="F649" s="6"/>
       <c r="G649" s="7"/>
     </row>
-    <row r="650" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" ht="22.5" customHeight="1">
       <c r="A650" s="6"/>
       <c r="B650" s="7"/>
       <c r="C650" s="6"/>
@@ -7308,7 +7528,7 @@
       <c r="F650" s="6"/>
       <c r="G650" s="7"/>
     </row>
-    <row r="651" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" ht="22.5" customHeight="1">
       <c r="A651" s="6"/>
       <c r="B651" s="7"/>
       <c r="C651" s="6"/>
@@ -7317,7 +7537,7 @@
       <c r="F651" s="6"/>
       <c r="G651" s="7"/>
     </row>
-    <row r="652" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" ht="22.5" customHeight="1">
       <c r="A652" s="6"/>
       <c r="B652" s="7"/>
       <c r="C652" s="6"/>
@@ -7326,7 +7546,7 @@
       <c r="F652" s="6"/>
       <c r="G652" s="7"/>
     </row>
-    <row r="653" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" ht="22.5" customHeight="1">
       <c r="A653" s="6"/>
       <c r="B653" s="7"/>
       <c r="C653" s="6"/>
@@ -7335,7 +7555,7 @@
       <c r="F653" s="6"/>
       <c r="G653" s="7"/>
     </row>
-    <row r="654" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:7" ht="22.5" customHeight="1">
       <c r="A654" s="6"/>
       <c r="B654" s="7"/>
       <c r="C654" s="6"/>
@@ -7344,7 +7564,7 @@
       <c r="F654" s="6"/>
       <c r="G654" s="7"/>
     </row>
-    <row r="655" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:7" ht="22.5" customHeight="1">
       <c r="A655" s="6"/>
       <c r="B655" s="7"/>
       <c r="C655" s="6"/>
@@ -7353,7 +7573,7 @@
       <c r="F655" s="6"/>
       <c r="G655" s="7"/>
     </row>
-    <row r="656" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:7" ht="22.5" customHeight="1">
       <c r="A656" s="6"/>
       <c r="B656" s="7"/>
       <c r="C656" s="6"/>
@@ -7362,7 +7582,7 @@
       <c r="F656" s="6"/>
       <c r="G656" s="7"/>
     </row>
-    <row r="657" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:7" ht="22.5" customHeight="1">
       <c r="A657" s="6"/>
       <c r="B657" s="7"/>
       <c r="C657" s="6"/>
@@ -7371,7 +7591,7 @@
       <c r="F657" s="6"/>
       <c r="G657" s="7"/>
     </row>
-    <row r="658" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:7" ht="22.5" customHeight="1">
       <c r="A658" s="6"/>
       <c r="B658" s="7"/>
       <c r="C658" s="6"/>
@@ -7380,7 +7600,7 @@
       <c r="F658" s="6"/>
       <c r="G658" s="7"/>
     </row>
-    <row r="659" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:7" ht="22.5" customHeight="1">
       <c r="A659" s="6"/>
       <c r="B659" s="7"/>
       <c r="C659" s="6"/>
@@ -7389,7 +7609,7 @@
       <c r="F659" s="6"/>
       <c r="G659" s="7"/>
     </row>
-    <row r="660" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" ht="22.5" customHeight="1">
       <c r="A660" s="6"/>
       <c r="B660" s="7"/>
       <c r="C660" s="6"/>
@@ -7398,7 +7618,7 @@
       <c r="F660" s="6"/>
       <c r="G660" s="7"/>
     </row>
-    <row r="661" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" ht="22.5" customHeight="1">
       <c r="A661" s="6"/>
       <c r="B661" s="7"/>
       <c r="C661" s="6"/>
@@ -7407,7 +7627,7 @@
       <c r="F661" s="6"/>
       <c r="G661" s="7"/>
     </row>
-    <row r="662" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" ht="22.5" customHeight="1">
       <c r="A662" s="6"/>
       <c r="B662" s="7"/>
       <c r="C662" s="6"/>
@@ -7416,7 +7636,7 @@
       <c r="F662" s="6"/>
       <c r="G662" s="7"/>
     </row>
-    <row r="663" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" ht="22.5" customHeight="1">
       <c r="A663" s="6"/>
       <c r="B663" s="7"/>
       <c r="C663" s="6"/>
@@ -7425,7 +7645,7 @@
       <c r="F663" s="6"/>
       <c r="G663" s="7"/>
     </row>
-    <row r="664" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" ht="22.5" customHeight="1">
       <c r="A664" s="6"/>
       <c r="B664" s="7"/>
       <c r="C664" s="6"/>
@@ -7434,7 +7654,7 @@
       <c r="F664" s="6"/>
       <c r="G664" s="7"/>
     </row>
-    <row r="665" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" ht="22.5" customHeight="1">
       <c r="A665" s="6"/>
       <c r="B665" s="7"/>
       <c r="C665" s="6"/>
@@ -7443,7 +7663,7 @@
       <c r="F665" s="6"/>
       <c r="G665" s="7"/>
     </row>
-    <row r="666" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" ht="22.5" customHeight="1">
       <c r="A666" s="6"/>
       <c r="B666" s="7"/>
       <c r="C666" s="6"/>
@@ -7452,7 +7672,7 @@
       <c r="F666" s="6"/>
       <c r="G666" s="7"/>
     </row>
-    <row r="667" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" ht="22.5" customHeight="1">
       <c r="A667" s="6"/>
       <c r="B667" s="7"/>
       <c r="C667" s="6"/>
@@ -7461,7 +7681,7 @@
       <c r="F667" s="6"/>
       <c r="G667" s="7"/>
     </row>
-    <row r="668" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" ht="22.5" customHeight="1">
       <c r="A668" s="6"/>
       <c r="B668" s="7"/>
       <c r="C668" s="6"/>
@@ -7470,7 +7690,7 @@
       <c r="F668" s="6"/>
       <c r="G668" s="7"/>
     </row>
-    <row r="669" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" ht="22.5" customHeight="1">
       <c r="A669" s="6"/>
       <c r="B669" s="7"/>
       <c r="C669" s="6"/>
@@ -7479,7 +7699,7 @@
       <c r="F669" s="6"/>
       <c r="G669" s="7"/>
     </row>
-    <row r="670" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" ht="22.5" customHeight="1">
       <c r="A670" s="6"/>
       <c r="B670" s="7"/>
       <c r="C670" s="6"/>
@@ -7488,7 +7708,7 @@
       <c r="F670" s="6"/>
       <c r="G670" s="7"/>
     </row>
-    <row r="671" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" ht="22.5" customHeight="1">
       <c r="A671" s="6"/>
       <c r="B671" s="7"/>
       <c r="C671" s="6"/>
@@ -7497,7 +7717,7 @@
       <c r="F671" s="6"/>
       <c r="G671" s="7"/>
     </row>
-    <row r="672" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" ht="22.5" customHeight="1">
       <c r="A672" s="6"/>
       <c r="B672" s="7"/>
       <c r="C672" s="6"/>
@@ -7506,7 +7726,7 @@
       <c r="F672" s="6"/>
       <c r="G672" s="7"/>
     </row>
-    <row r="673" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:7" ht="22.5" customHeight="1">
       <c r="A673" s="6"/>
       <c r="B673" s="7"/>
       <c r="C673" s="6"/>
@@ -7515,7 +7735,7 @@
       <c r="F673" s="6"/>
       <c r="G673" s="7"/>
     </row>
-    <row r="674" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:7" ht="22.5" customHeight="1">
       <c r="A674" s="6"/>
       <c r="B674" s="7"/>
       <c r="C674" s="6"/>
@@ -7524,7 +7744,7 @@
       <c r="F674" s="6"/>
       <c r="G674" s="7"/>
     </row>
-    <row r="675" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:7" ht="22.5" customHeight="1">
       <c r="A675" s="6"/>
       <c r="B675" s="7"/>
       <c r="C675" s="6"/>
@@ -7533,7 +7753,7 @@
       <c r="F675" s="6"/>
       <c r="G675" s="7"/>
     </row>
-    <row r="676" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:7" ht="22.5" customHeight="1">
       <c r="A676" s="6"/>
       <c r="B676" s="7"/>
       <c r="C676" s="6"/>
@@ -7542,7 +7762,7 @@
       <c r="F676" s="6"/>
       <c r="G676" s="7"/>
     </row>
-    <row r="677" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:7" ht="22.5" customHeight="1">
       <c r="A677" s="6"/>
       <c r="B677" s="7"/>
       <c r="C677" s="6"/>
@@ -7551,7 +7771,7 @@
       <c r="F677" s="6"/>
       <c r="G677" s="7"/>
     </row>
-    <row r="678" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:7" ht="22.5" customHeight="1">
       <c r="A678" s="6"/>
       <c r="B678" s="7"/>
       <c r="C678" s="6"/>
@@ -7560,7 +7780,7 @@
       <c r="F678" s="6"/>
       <c r="G678" s="7"/>
     </row>
-    <row r="679" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:7" ht="22.5" customHeight="1">
       <c r="A679" s="6"/>
       <c r="B679" s="7"/>
       <c r="C679" s="6"/>
@@ -7569,7 +7789,7 @@
       <c r="F679" s="6"/>
       <c r="G679" s="7"/>
     </row>
-    <row r="680" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:7" ht="22.5" customHeight="1">
       <c r="A680" s="6"/>
       <c r="B680" s="7"/>
       <c r="C680" s="6"/>
@@ -7578,7 +7798,7 @@
       <c r="F680" s="6"/>
       <c r="G680" s="7"/>
     </row>
-    <row r="681" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:7" ht="22.5" customHeight="1">
       <c r="A681" s="6"/>
       <c r="B681" s="7"/>
       <c r="C681" s="6"/>
@@ -7587,7 +7807,7 @@
       <c r="F681" s="6"/>
       <c r="G681" s="7"/>
     </row>
-    <row r="682" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:7" ht="22.5" customHeight="1">
       <c r="A682" s="6"/>
       <c r="B682" s="7"/>
       <c r="C682" s="6"/>
@@ -7596,7 +7816,7 @@
       <c r="F682" s="6"/>
       <c r="G682" s="7"/>
     </row>
-    <row r="683" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:7" ht="22.5" customHeight="1">
       <c r="A683" s="6"/>
       <c r="B683" s="7"/>
       <c r="C683" s="6"/>
@@ -7605,7 +7825,7 @@
       <c r="F683" s="6"/>
       <c r="G683" s="7"/>
     </row>
-    <row r="684" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:7" ht="22.5" customHeight="1">
       <c r="A684" s="6"/>
       <c r="B684" s="7"/>
       <c r="C684" s="6"/>
@@ -7614,7 +7834,7 @@
       <c r="F684" s="6"/>
       <c r="G684" s="7"/>
     </row>
-    <row r="685" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:7" ht="22.5" customHeight="1">
       <c r="A685" s="6"/>
       <c r="B685" s="7"/>
       <c r="C685" s="6"/>
@@ -7623,7 +7843,7 @@
       <c r="F685" s="6"/>
       <c r="G685" s="7"/>
     </row>
-    <row r="686" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:7" ht="22.5" customHeight="1">
       <c r="A686" s="6"/>
       <c r="B686" s="7"/>
       <c r="C686" s="6"/>
@@ -7632,7 +7852,7 @@
       <c r="F686" s="6"/>
       <c r="G686" s="7"/>
     </row>
-    <row r="687" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:7" ht="22.5" customHeight="1">
       <c r="A687" s="6"/>
       <c r="B687" s="7"/>
       <c r="C687" s="6"/>
@@ -7641,7 +7861,7 @@
       <c r="F687" s="6"/>
       <c r="G687" s="7"/>
     </row>
-    <row r="688" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:7" ht="22.5" customHeight="1">
       <c r="A688" s="6"/>
       <c r="B688" s="7"/>
       <c r="C688" s="6"/>
@@ -7650,7 +7870,7 @@
       <c r="F688" s="6"/>
       <c r="G688" s="7"/>
     </row>
-    <row r="689" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:7" ht="22.5" customHeight="1">
       <c r="A689" s="6"/>
       <c r="B689" s="7"/>
       <c r="C689" s="6"/>
@@ -7659,7 +7879,7 @@
       <c r="F689" s="6"/>
       <c r="G689" s="7"/>
     </row>
-    <row r="690" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:7" ht="22.5" customHeight="1">
       <c r="A690" s="6"/>
       <c r="B690" s="7"/>
       <c r="C690" s="6"/>
@@ -7668,7 +7888,7 @@
       <c r="F690" s="6"/>
       <c r="G690" s="7"/>
     </row>
-    <row r="691" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:7" ht="22.5" customHeight="1">
       <c r="A691" s="6"/>
       <c r="B691" s="7"/>
       <c r="C691" s="6"/>
@@ -7677,7 +7897,7 @@
       <c r="F691" s="6"/>
       <c r="G691" s="7"/>
     </row>
-    <row r="692" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:7" ht="22.5" customHeight="1">
       <c r="A692" s="6"/>
       <c r="B692" s="7"/>
       <c r="C692" s="6"/>
@@ -7686,7 +7906,7 @@
       <c r="F692" s="6"/>
       <c r="G692" s="7"/>
     </row>
-    <row r="693" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:7" ht="22.5" customHeight="1">
       <c r="A693" s="6"/>
       <c r="B693" s="7"/>
       <c r="C693" s="6"/>
@@ -7695,7 +7915,7 @@
       <c r="F693" s="6"/>
       <c r="G693" s="7"/>
     </row>
-    <row r="694" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:7" ht="22.5" customHeight="1">
       <c r="A694" s="6"/>
       <c r="B694" s="7"/>
       <c r="C694" s="6"/>
@@ -7704,7 +7924,7 @@
       <c r="F694" s="6"/>
       <c r="G694" s="7"/>
     </row>
-    <row r="695" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:7" ht="22.5" customHeight="1">
       <c r="A695" s="6"/>
       <c r="B695" s="7"/>
       <c r="C695" s="6"/>
@@ -7713,7 +7933,7 @@
       <c r="F695" s="6"/>
       <c r="G695" s="7"/>
     </row>
-    <row r="696" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:7" ht="22.5" customHeight="1">
       <c r="A696" s="6"/>
       <c r="B696" s="7"/>
       <c r="C696" s="6"/>
@@ -7722,7 +7942,7 @@
       <c r="F696" s="6"/>
       <c r="G696" s="7"/>
     </row>
-    <row r="697" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:7" ht="22.5" customHeight="1">
       <c r="A697" s="6"/>
       <c r="B697" s="7"/>
       <c r="C697" s="6"/>
@@ -7731,7 +7951,7 @@
       <c r="F697" s="6"/>
       <c r="G697" s="7"/>
     </row>
-    <row r="698" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:7" ht="22.5" customHeight="1">
       <c r="A698" s="6"/>
       <c r="B698" s="7"/>
       <c r="C698" s="6"/>
@@ -7740,7 +7960,7 @@
       <c r="F698" s="6"/>
       <c r="G698" s="7"/>
     </row>
-    <row r="699" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:7" ht="22.5" customHeight="1">
       <c r="A699" s="6"/>
       <c r="B699" s="7"/>
       <c r="C699" s="6"/>
@@ -7749,7 +7969,7 @@
       <c r="F699" s="6"/>
       <c r="G699" s="7"/>
     </row>
-    <row r="700" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:7" ht="22.5" customHeight="1">
       <c r="A700" s="6"/>
       <c r="B700" s="7"/>
       <c r="C700" s="6"/>
@@ -7758,7 +7978,7 @@
       <c r="F700" s="6"/>
       <c r="G700" s="7"/>
     </row>
-    <row r="701" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:7" ht="22.5" customHeight="1">
       <c r="A701" s="6"/>
       <c r="B701" s="7"/>
       <c r="C701" s="6"/>
@@ -7767,7 +7987,7 @@
       <c r="F701" s="6"/>
       <c r="G701" s="7"/>
     </row>
-    <row r="702" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:7" ht="22.5" customHeight="1">
       <c r="A702" s="6"/>
       <c r="B702" s="7"/>
       <c r="C702" s="6"/>
@@ -7776,7 +7996,7 @@
       <c r="F702" s="6"/>
       <c r="G702" s="7"/>
     </row>
-    <row r="703" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:7" ht="22.5" customHeight="1">
       <c r="A703" s="6"/>
       <c r="B703" s="7"/>
       <c r="C703" s="6"/>
@@ -7785,7 +8005,7 @@
       <c r="F703" s="6"/>
       <c r="G703" s="7"/>
     </row>
-    <row r="704" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:7" ht="22.5" customHeight="1">
       <c r="A704" s="6"/>
       <c r="B704" s="7"/>
       <c r="C704" s="6"/>
@@ -7794,7 +8014,7 @@
       <c r="F704" s="6"/>
       <c r="G704" s="7"/>
     </row>
-    <row r="705" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:7" ht="22.5" customHeight="1">
       <c r="A705" s="6"/>
       <c r="B705" s="7"/>
       <c r="C705" s="6"/>
@@ -7803,7 +8023,7 @@
       <c r="F705" s="6"/>
       <c r="G705" s="7"/>
     </row>
-    <row r="706" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:7" ht="22.5" customHeight="1">
       <c r="A706" s="6"/>
       <c r="B706" s="7"/>
       <c r="C706" s="6"/>
@@ -7812,7 +8032,7 @@
       <c r="F706" s="6"/>
       <c r="G706" s="7"/>
     </row>
-    <row r="707" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:7" ht="22.5" customHeight="1">
       <c r="A707" s="6"/>
       <c r="B707" s="7"/>
       <c r="C707" s="6"/>
@@ -7821,7 +8041,7 @@
       <c r="F707" s="6"/>
       <c r="G707" s="7"/>
     </row>
-    <row r="708" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:7" ht="22.5" customHeight="1">
       <c r="A708" s="6"/>
       <c r="B708" s="7"/>
       <c r="C708" s="6"/>
@@ -7830,7 +8050,7 @@
       <c r="F708" s="6"/>
       <c r="G708" s="7"/>
     </row>
-    <row r="709" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:7" ht="22.5" customHeight="1">
       <c r="A709" s="6"/>
       <c r="B709" s="7"/>
       <c r="C709" s="6"/>
@@ -7839,7 +8059,7 @@
       <c r="F709" s="6"/>
       <c r="G709" s="7"/>
     </row>
-    <row r="710" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:7" ht="22.5" customHeight="1">
       <c r="A710" s="6"/>
       <c r="B710" s="7"/>
       <c r="C710" s="6"/>
@@ -7848,7 +8068,7 @@
       <c r="F710" s="6"/>
       <c r="G710" s="7"/>
     </row>
-    <row r="711" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:7" ht="22.5" customHeight="1">
       <c r="A711" s="6"/>
       <c r="B711" s="7"/>
       <c r="C711" s="6"/>
@@ -7857,7 +8077,7 @@
       <c r="F711" s="6"/>
       <c r="G711" s="7"/>
     </row>
-    <row r="712" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:7" ht="22.5" customHeight="1">
       <c r="A712" s="6"/>
       <c r="B712" s="7"/>
       <c r="C712" s="6"/>
@@ -7866,7 +8086,7 @@
       <c r="F712" s="6"/>
       <c r="G712" s="7"/>
     </row>
-    <row r="713" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:7" ht="22.5" customHeight="1">
       <c r="A713" s="6"/>
       <c r="B713" s="7"/>
       <c r="C713" s="6"/>
@@ -7875,7 +8095,7 @@
       <c r="F713" s="6"/>
       <c r="G713" s="7"/>
     </row>
-    <row r="714" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:7" ht="22.5" customHeight="1">
       <c r="A714" s="6"/>
       <c r="B714" s="7"/>
       <c r="C714" s="6"/>
@@ -7884,7 +8104,7 @@
       <c r="F714" s="6"/>
       <c r="G714" s="7"/>
     </row>
-    <row r="715" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:7" ht="22.5" customHeight="1">
       <c r="A715" s="6"/>
       <c r="B715" s="7"/>
       <c r="C715" s="6"/>
@@ -7893,7 +8113,7 @@
       <c r="F715" s="6"/>
       <c r="G715" s="7"/>
     </row>
-    <row r="716" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:7" ht="22.5" customHeight="1">
       <c r="A716" s="6"/>
       <c r="B716" s="7"/>
       <c r="C716" s="6"/>
@@ -7902,7 +8122,7 @@
       <c r="F716" s="6"/>
       <c r="G716" s="7"/>
     </row>
-    <row r="717" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:7" ht="22.5" customHeight="1">
       <c r="A717" s="6"/>
       <c r="B717" s="7"/>
       <c r="C717" s="6"/>
@@ -7911,7 +8131,7 @@
       <c r="F717" s="6"/>
       <c r="G717" s="7"/>
     </row>
-    <row r="718" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:7" ht="22.5" customHeight="1">
       <c r="A718" s="6"/>
       <c r="B718" s="7"/>
       <c r="C718" s="6"/>
@@ -7920,7 +8140,7 @@
       <c r="F718" s="6"/>
       <c r="G718" s="7"/>
     </row>
-    <row r="719" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:7" ht="22.5" customHeight="1">
       <c r="A719" s="6"/>
       <c r="B719" s="7"/>
       <c r="C719" s="6"/>
@@ -7929,7 +8149,7 @@
       <c r="F719" s="6"/>
       <c r="G719" s="7"/>
     </row>
-    <row r="720" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:7" ht="22.5" customHeight="1">
       <c r="A720" s="6"/>
       <c r="B720" s="7"/>
       <c r="C720" s="6"/>
@@ -7938,7 +8158,7 @@
       <c r="F720" s="6"/>
       <c r="G720" s="7"/>
     </row>
-    <row r="721" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:7" ht="22.5" customHeight="1">
       <c r="A721" s="6"/>
       <c r="B721" s="7"/>
       <c r="C721" s="6"/>
@@ -7947,7 +8167,7 @@
       <c r="F721" s="6"/>
       <c r="G721" s="7"/>
     </row>
-    <row r="722" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:7" ht="22.5" customHeight="1">
       <c r="A722" s="6"/>
       <c r="B722" s="7"/>
       <c r="C722" s="6"/>
@@ -7956,7 +8176,7 @@
       <c r="F722" s="6"/>
       <c r="G722" s="7"/>
     </row>
-    <row r="723" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:7" ht="22.5" customHeight="1">
       <c r="A723" s="6"/>
       <c r="B723" s="7"/>
       <c r="C723" s="6"/>
@@ -7965,7 +8185,7 @@
       <c r="F723" s="6"/>
       <c r="G723" s="7"/>
     </row>
-    <row r="724" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:7" ht="22.5" customHeight="1">
       <c r="A724" s="6"/>
       <c r="B724" s="7"/>
       <c r="C724" s="6"/>
@@ -7974,7 +8194,7 @@
       <c r="F724" s="6"/>
       <c r="G724" s="7"/>
     </row>
-    <row r="725" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:7" ht="22.5" customHeight="1">
       <c r="A725" s="6"/>
       <c r="B725" s="7"/>
       <c r="C725" s="6"/>
@@ -7983,7 +8203,7 @@
       <c r="F725" s="6"/>
       <c r="G725" s="7"/>
     </row>
-    <row r="726" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:7" ht="22.5" customHeight="1">
       <c r="A726" s="6"/>
       <c r="B726" s="7"/>
       <c r="C726" s="6"/>
@@ -7992,7 +8212,7 @@
       <c r="F726" s="6"/>
       <c r="G726" s="7"/>
     </row>
-    <row r="727" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:7" ht="22.5" customHeight="1">
       <c r="A727" s="6"/>
       <c r="B727" s="7"/>
       <c r="C727" s="6"/>
@@ -8001,7 +8221,7 @@
       <c r="F727" s="6"/>
       <c r="G727" s="7"/>
     </row>
-    <row r="728" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:7" ht="22.5" customHeight="1">
       <c r="A728" s="6"/>
       <c r="B728" s="7"/>
       <c r="C728" s="6"/>
@@ -8010,7 +8230,7 @@
       <c r="F728" s="6"/>
       <c r="G728" s="7"/>
     </row>
-    <row r="729" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:7" ht="22.5" customHeight="1">
       <c r="A729" s="6"/>
       <c r="B729" s="7"/>
       <c r="C729" s="6"/>
@@ -8019,7 +8239,7 @@
       <c r="F729" s="6"/>
       <c r="G729" s="7"/>
     </row>
-    <row r="730" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:7" ht="22.5" customHeight="1">
       <c r="A730" s="6"/>
       <c r="B730" s="7"/>
       <c r="C730" s="6"/>
@@ -8028,7 +8248,7 @@
       <c r="F730" s="6"/>
       <c r="G730" s="7"/>
     </row>
-    <row r="731" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:7" ht="22.5" customHeight="1">
       <c r="A731" s="6"/>
       <c r="B731" s="7"/>
       <c r="C731" s="6"/>
@@ -8037,7 +8257,7 @@
       <c r="F731" s="6"/>
       <c r="G731" s="7"/>
     </row>
-    <row r="732" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:7" ht="22.5" customHeight="1">
       <c r="A732" s="6"/>
       <c r="B732" s="7"/>
       <c r="C732" s="6"/>
@@ -8046,7 +8266,7 @@
       <c r="F732" s="6"/>
       <c r="G732" s="7"/>
     </row>
-    <row r="733" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:7" ht="22.5" customHeight="1">
       <c r="A733" s="6"/>
       <c r="B733" s="7"/>
       <c r="C733" s="6"/>
@@ -8055,7 +8275,7 @@
       <c r="F733" s="6"/>
       <c r="G733" s="7"/>
     </row>
-    <row r="734" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:7" ht="22.5" customHeight="1">
       <c r="A734" s="6"/>
       <c r="B734" s="7"/>
       <c r="C734" s="6"/>
@@ -8064,7 +8284,7 @@
       <c r="F734" s="6"/>
       <c r="G734" s="7"/>
     </row>
-    <row r="735" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:7" ht="22.5" customHeight="1">
       <c r="A735" s="6"/>
       <c r="B735" s="7"/>
       <c r="C735" s="6"/>
@@ -8073,7 +8293,7 @@
       <c r="F735" s="6"/>
       <c r="G735" s="7"/>
     </row>
-    <row r="736" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:7" ht="22.5" customHeight="1">
       <c r="A736" s="6"/>
       <c r="B736" s="7"/>
       <c r="C736" s="6"/>
@@ -8082,7 +8302,7 @@
       <c r="F736" s="6"/>
       <c r="G736" s="7"/>
     </row>
-    <row r="737" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:7" ht="22.5" customHeight="1">
       <c r="A737" s="6"/>
       <c r="B737" s="7"/>
       <c r="C737" s="6"/>
@@ -8091,7 +8311,7 @@
       <c r="F737" s="6"/>
       <c r="G737" s="7"/>
     </row>
-    <row r="738" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:7" ht="22.5" customHeight="1">
       <c r="A738" s="6"/>
       <c r="B738" s="7"/>
       <c r="C738" s="6"/>
@@ -8100,7 +8320,7 @@
       <c r="F738" s="6"/>
       <c r="G738" s="7"/>
     </row>
-    <row r="739" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:7" ht="22.5" customHeight="1">
       <c r="A739" s="6"/>
       <c r="B739" s="7"/>
       <c r="C739" s="6"/>
@@ -8109,7 +8329,7 @@
       <c r="F739" s="6"/>
       <c r="G739" s="7"/>
     </row>
-    <row r="740" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:7" ht="22.5" customHeight="1">
       <c r="A740" s="6"/>
       <c r="B740" s="7"/>
       <c r="C740" s="6"/>
@@ -8118,7 +8338,7 @@
       <c r="F740" s="6"/>
       <c r="G740" s="7"/>
     </row>
-    <row r="741" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:7" ht="22.5" customHeight="1">
       <c r="A741" s="6"/>
       <c r="B741" s="7"/>
       <c r="C741" s="6"/>
@@ -8127,7 +8347,7 @@
       <c r="F741" s="6"/>
       <c r="G741" s="7"/>
     </row>
-    <row r="742" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:7" ht="22.5" customHeight="1">
       <c r="A742" s="6"/>
       <c r="B742" s="7"/>
       <c r="C742" s="6"/>
@@ -8136,7 +8356,7 @@
       <c r="F742" s="6"/>
       <c r="G742" s="7"/>
     </row>
-    <row r="743" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:7" ht="22.5" customHeight="1">
       <c r="A743" s="6"/>
       <c r="B743" s="7"/>
       <c r="C743" s="6"/>
@@ -8145,7 +8365,7 @@
       <c r="F743" s="6"/>
       <c r="G743" s="7"/>
     </row>
-    <row r="744" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:7" ht="22.5" customHeight="1">
       <c r="A744" s="6"/>
       <c r="B744" s="7"/>
       <c r="C744" s="6"/>
@@ -8154,7 +8374,7 @@
       <c r="F744" s="6"/>
       <c r="G744" s="7"/>
     </row>
-    <row r="745" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:7" ht="22.5" customHeight="1">
       <c r="A745" s="6"/>
       <c r="B745" s="7"/>
       <c r="C745" s="6"/>
@@ -8163,7 +8383,7 @@
       <c r="F745" s="6"/>
       <c r="G745" s="7"/>
     </row>
-    <row r="746" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:7" ht="22.5" customHeight="1">
       <c r="A746" s="6"/>
       <c r="B746" s="7"/>
       <c r="C746" s="6"/>
@@ -8172,7 +8392,7 @@
       <c r="F746" s="6"/>
       <c r="G746" s="7"/>
     </row>
-    <row r="747" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:7" ht="22.5" customHeight="1">
       <c r="A747" s="6"/>
       <c r="B747" s="7"/>
       <c r="C747" s="6"/>
@@ -8181,7 +8401,7 @@
       <c r="F747" s="6"/>
       <c r="G747" s="7"/>
     </row>
-    <row r="748" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:7" ht="22.5" customHeight="1">
       <c r="A748" s="6"/>
       <c r="B748" s="7"/>
       <c r="C748" s="6"/>
@@ -8190,7 +8410,7 @@
       <c r="F748" s="6"/>
       <c r="G748" s="7"/>
     </row>
-    <row r="749" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:7" ht="22.5" customHeight="1">
       <c r="A749" s="6"/>
       <c r="B749" s="7"/>
       <c r="C749" s="6"/>
@@ -8199,7 +8419,7 @@
       <c r="F749" s="6"/>
       <c r="G749" s="7"/>
     </row>
-    <row r="750" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:7" ht="22.5" customHeight="1">
       <c r="A750" s="6"/>
       <c r="B750" s="7"/>
       <c r="C750" s="6"/>
@@ -8208,7 +8428,7 @@
       <c r="F750" s="6"/>
       <c r="G750" s="7"/>
     </row>
-    <row r="751" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:7" ht="22.5" customHeight="1">
       <c r="A751" s="6"/>
       <c r="B751" s="7"/>
       <c r="C751" s="6"/>
@@ -8217,7 +8437,7 @@
       <c r="F751" s="6"/>
       <c r="G751" s="7"/>
     </row>
-    <row r="752" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:7" ht="22.5" customHeight="1">
       <c r="A752" s="6"/>
       <c r="B752" s="7"/>
       <c r="C752" s="6"/>
@@ -8226,7 +8446,7 @@
       <c r="F752" s="6"/>
       <c r="G752" s="7"/>
     </row>
-    <row r="753" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:7" ht="22.5" customHeight="1">
       <c r="A753" s="6"/>
       <c r="B753" s="7"/>
       <c r="C753" s="6"/>
@@ -8235,7 +8455,7 @@
       <c r="F753" s="6"/>
       <c r="G753" s="7"/>
     </row>
-    <row r="754" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:7" ht="22.5" customHeight="1">
       <c r="A754" s="6"/>
       <c r="B754" s="7"/>
       <c r="C754" s="6"/>
@@ -8244,7 +8464,7 @@
       <c r="F754" s="6"/>
       <c r="G754" s="7"/>
     </row>
-    <row r="755" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:7" ht="22.5" customHeight="1">
       <c r="A755" s="6"/>
       <c r="B755" s="7"/>
       <c r="C755" s="6"/>
@@ -8253,7 +8473,7 @@
       <c r="F755" s="6"/>
       <c r="G755" s="7"/>
     </row>
-    <row r="756" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:7" ht="22.5" customHeight="1">
       <c r="A756" s="6"/>
       <c r="B756" s="7"/>
       <c r="C756" s="6"/>
@@ -8262,7 +8482,7 @@
       <c r="F756" s="6"/>
       <c r="G756" s="7"/>
     </row>
-    <row r="757" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:7" ht="22.5" customHeight="1">
       <c r="A757" s="6"/>
       <c r="B757" s="7"/>
       <c r="C757" s="6"/>
@@ -8271,7 +8491,7 @@
       <c r="F757" s="6"/>
       <c r="G757" s="7"/>
     </row>
-    <row r="758" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:7" ht="22.5" customHeight="1">
       <c r="A758" s="6"/>
       <c r="B758" s="7"/>
       <c r="C758" s="6"/>
@@ -8280,7 +8500,7 @@
       <c r="F758" s="6"/>
       <c r="G758" s="7"/>
     </row>
-    <row r="759" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:7" ht="22.5" customHeight="1">
       <c r="A759" s="6"/>
       <c r="B759" s="7"/>
       <c r="C759" s="6"/>
@@ -8289,7 +8509,7 @@
       <c r="F759" s="6"/>
       <c r="G759" s="7"/>
     </row>
-    <row r="760" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:7" ht="22.5" customHeight="1">
       <c r="A760" s="6"/>
       <c r="B760" s="7"/>
       <c r="C760" s="6"/>
@@ -8298,7 +8518,7 @@
       <c r="F760" s="6"/>
       <c r="G760" s="7"/>
     </row>
-    <row r="761" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:7" ht="22.5" customHeight="1">
       <c r="A761" s="6"/>
       <c r="B761" s="7"/>
       <c r="C761" s="6"/>
@@ -8307,7 +8527,7 @@
       <c r="F761" s="6"/>
       <c r="G761" s="7"/>
     </row>
-    <row r="762" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:7" ht="22.5" customHeight="1">
       <c r="A762" s="6"/>
       <c r="B762" s="7"/>
       <c r="C762" s="6"/>
@@ -8316,7 +8536,7 @@
       <c r="F762" s="6"/>
       <c r="G762" s="7"/>
     </row>
-    <row r="763" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:7" ht="22.5" customHeight="1">
       <c r="A763" s="6"/>
       <c r="B763" s="7"/>
       <c r="C763" s="6"/>
@@ -8325,7 +8545,7 @@
       <c r="F763" s="6"/>
       <c r="G763" s="7"/>
     </row>
-    <row r="764" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:7" ht="22.5" customHeight="1">
       <c r="A764" s="6"/>
       <c r="B764" s="7"/>
       <c r="C764" s="6"/>
@@ -8334,7 +8554,7 @@
       <c r="F764" s="6"/>
       <c r="G764" s="7"/>
     </row>
-    <row r="765" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:7" ht="22.5" customHeight="1">
       <c r="A765" s="6"/>
       <c r="B765" s="7"/>
       <c r="C765" s="6"/>
@@ -8343,7 +8563,7 @@
       <c r="F765" s="6"/>
       <c r="G765" s="7"/>
     </row>
-    <row r="766" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:7" ht="22.5" customHeight="1">
       <c r="A766" s="6"/>
       <c r="B766" s="7"/>
       <c r="C766" s="6"/>
@@ -8352,7 +8572,7 @@
       <c r="F766" s="6"/>
       <c r="G766" s="7"/>
     </row>
-    <row r="767" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:7" ht="22.5" customHeight="1">
       <c r="A767" s="6"/>
       <c r="B767" s="7"/>
       <c r="C767" s="6"/>
@@ -8361,7 +8581,7 @@
       <c r="F767" s="6"/>
       <c r="G767" s="7"/>
     </row>
-    <row r="768" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:7" ht="22.5" customHeight="1">
       <c r="A768" s="6"/>
       <c r="B768" s="7"/>
       <c r="C768" s="6"/>
@@ -8370,7 +8590,7 @@
       <c r="F768" s="6"/>
       <c r="G768" s="7"/>
     </row>
-    <row r="769" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:7" ht="22.5" customHeight="1">
       <c r="A769" s="6"/>
       <c r="B769" s="7"/>
       <c r="C769" s="6"/>
@@ -8379,7 +8599,7 @@
       <c r="F769" s="6"/>
       <c r="G769" s="7"/>
     </row>
-    <row r="770" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:7" ht="22.5" customHeight="1">
       <c r="A770" s="6"/>
       <c r="B770" s="7"/>
       <c r="C770" s="6"/>
@@ -8388,7 +8608,7 @@
       <c r="F770" s="6"/>
       <c r="G770" s="7"/>
     </row>
-    <row r="771" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:7" ht="22.5" customHeight="1">
       <c r="A771" s="6"/>
       <c r="B771" s="7"/>
       <c r="C771" s="6"/>
@@ -8397,7 +8617,7 @@
       <c r="F771" s="6"/>
       <c r="G771" s="7"/>
     </row>
-    <row r="772" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:7" ht="22.5" customHeight="1">
       <c r="A772" s="6"/>
       <c r="B772" s="7"/>
       <c r="C772" s="6"/>
@@ -8406,7 +8626,7 @@
       <c r="F772" s="6"/>
       <c r="G772" s="7"/>
     </row>
-    <row r="773" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:7" ht="22.5" customHeight="1">
       <c r="A773" s="6"/>
       <c r="B773" s="7"/>
       <c r="C773" s="6"/>
@@ -8415,7 +8635,7 @@
       <c r="F773" s="6"/>
       <c r="G773" s="7"/>
     </row>
-    <row r="774" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:7" ht="22.5" customHeight="1">
       <c r="A774" s="6"/>
       <c r="B774" s="7"/>
       <c r="C774" s="6"/>
@@ -8424,7 +8644,7 @@
       <c r="F774" s="6"/>
       <c r="G774" s="7"/>
     </row>
-    <row r="775" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:7" ht="22.5" customHeight="1">
       <c r="A775" s="6"/>
       <c r="B775" s="7"/>
       <c r="C775" s="6"/>
@@ -8433,7 +8653,7 @@
       <c r="F775" s="6"/>
       <c r="G775" s="7"/>
     </row>
-    <row r="776" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:7" ht="22.5" customHeight="1">
       <c r="A776" s="6"/>
       <c r="B776" s="7"/>
       <c r="C776" s="6"/>
@@ -8442,7 +8662,7 @@
       <c r="F776" s="6"/>
       <c r="G776" s="7"/>
     </row>
-    <row r="777" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:7" ht="22.5" customHeight="1">
       <c r="A777" s="6"/>
       <c r="B777" s="7"/>
       <c r="C777" s="6"/>
@@ -8451,7 +8671,7 @@
       <c r="F777" s="6"/>
       <c r="G777" s="7"/>
     </row>
-    <row r="778" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:7" ht="22.5" customHeight="1">
       <c r="A778" s="6"/>
       <c r="B778" s="7"/>
       <c r="C778" s="6"/>
@@ -8460,7 +8680,7 @@
       <c r="F778" s="6"/>
       <c r="G778" s="7"/>
     </row>
-    <row r="779" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:7" ht="22.5" customHeight="1">
       <c r="A779" s="6"/>
       <c r="B779" s="7"/>
       <c r="C779" s="6"/>
@@ -8469,7 +8689,7 @@
       <c r="F779" s="6"/>
       <c r="G779" s="7"/>
     </row>
-    <row r="780" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:7" ht="22.5" customHeight="1">
       <c r="A780" s="6"/>
       <c r="B780" s="7"/>
       <c r="C780" s="6"/>
@@ -8478,7 +8698,7 @@
       <c r="F780" s="6"/>
       <c r="G780" s="7"/>
     </row>
-    <row r="781" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:7" ht="22.5" customHeight="1">
       <c r="A781" s="6"/>
       <c r="B781" s="7"/>
       <c r="C781" s="6"/>
@@ -8487,7 +8707,7 @@
       <c r="F781" s="6"/>
       <c r="G781" s="7"/>
     </row>
-    <row r="782" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:7" ht="22.5" customHeight="1">
       <c r="A782" s="6"/>
       <c r="B782" s="7"/>
       <c r="C782" s="6"/>
@@ -8496,7 +8716,7 @@
       <c r="F782" s="6"/>
       <c r="G782" s="7"/>
     </row>
-    <row r="783" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:7" ht="22.5" customHeight="1">
       <c r="A783" s="6"/>
       <c r="B783" s="7"/>
       <c r="C783" s="6"/>
@@ -8505,7 +8725,7 @@
       <c r="F783" s="6"/>
       <c r="G783" s="7"/>
     </row>
-    <row r="784" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:7" ht="22.5" customHeight="1">
       <c r="A784" s="6"/>
       <c r="B784" s="7"/>
       <c r="C784" s="6"/>
@@ -8514,7 +8734,7 @@
       <c r="F784" s="6"/>
       <c r="G784" s="7"/>
     </row>
-    <row r="785" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:7" ht="22.5" customHeight="1">
       <c r="A785" s="6"/>
       <c r="B785" s="7"/>
       <c r="C785" s="6"/>
@@ -8523,7 +8743,7 @@
       <c r="F785" s="6"/>
       <c r="G785" s="7"/>
     </row>
-    <row r="786" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:7" ht="22.5" customHeight="1">
       <c r="A786" s="6"/>
       <c r="B786" s="7"/>
       <c r="C786" s="6"/>
@@ -8532,7 +8752,7 @@
       <c r="F786" s="6"/>
       <c r="G786" s="7"/>
     </row>
-    <row r="787" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:7" ht="22.5" customHeight="1">
       <c r="A787" s="6"/>
       <c r="B787" s="7"/>
       <c r="C787" s="6"/>
@@ -8541,7 +8761,7 @@
       <c r="F787" s="6"/>
       <c r="G787" s="7"/>
     </row>
-    <row r="788" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:7" ht="22.5" customHeight="1">
       <c r="A788" s="6"/>
       <c r="B788" s="7"/>
       <c r="C788" s="6"/>
@@ -8550,7 +8770,7 @@
       <c r="F788" s="6"/>
       <c r="G788" s="7"/>
     </row>
-    <row r="789" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:7" ht="22.5" customHeight="1">
       <c r="A789" s="6"/>
       <c r="B789" s="7"/>
       <c r="C789" s="6"/>
@@ -8559,7 +8779,7 @@
       <c r="F789" s="6"/>
       <c r="G789" s="7"/>
     </row>
-    <row r="790" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:7" ht="22.5" customHeight="1">
       <c r="A790" s="6"/>
       <c r="B790" s="7"/>
       <c r="C790" s="6"/>
@@ -8568,7 +8788,7 @@
       <c r="F790" s="6"/>
       <c r="G790" s="7"/>
     </row>
-    <row r="791" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:7" ht="22.5" customHeight="1">
       <c r="A791" s="6"/>
       <c r="B791" s="7"/>
       <c r="C791" s="6"/>
@@ -8577,7 +8797,7 @@
       <c r="F791" s="6"/>
       <c r="G791" s="7"/>
     </row>
-    <row r="792" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:7" ht="22.5" customHeight="1">
       <c r="A792" s="6"/>
       <c r="B792" s="7"/>
       <c r="C792" s="6"/>
@@ -8586,7 +8806,7 @@
       <c r="F792" s="6"/>
       <c r="G792" s="7"/>
     </row>
-    <row r="793" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:7" ht="22.5" customHeight="1">
       <c r="A793" s="6"/>
       <c r="B793" s="7"/>
       <c r="C793" s="6"/>
@@ -8595,7 +8815,7 @@
       <c r="F793" s="6"/>
       <c r="G793" s="7"/>
     </row>
-    <row r="794" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:7" ht="22.5" customHeight="1">
       <c r="A794" s="6"/>
       <c r="B794" s="7"/>
       <c r="C794" s="6"/>
@@ -8604,7 +8824,7 @@
       <c r="F794" s="6"/>
       <c r="G794" s="7"/>
     </row>
-    <row r="795" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:7" ht="22.5" customHeight="1">
       <c r="A795" s="6"/>
       <c r="B795" s="7"/>
       <c r="C795" s="6"/>
@@ -8613,7 +8833,7 @@
       <c r="F795" s="6"/>
       <c r="G795" s="7"/>
     </row>
-    <row r="796" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:7" ht="22.5" customHeight="1">
       <c r="A796" s="6"/>
       <c r="B796" s="7"/>
       <c r="C796" s="6"/>
@@ -8622,7 +8842,7 @@
       <c r="F796" s="6"/>
       <c r="G796" s="7"/>
     </row>
-    <row r="797" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:7" ht="22.5" customHeight="1">
       <c r="A797" s="6"/>
       <c r="B797" s="7"/>
       <c r="C797" s="6"/>
@@ -8631,7 +8851,7 @@
       <c r="F797" s="6"/>
       <c r="G797" s="7"/>
     </row>
-    <row r="798" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:7" ht="22.5" customHeight="1">
       <c r="A798" s="6"/>
       <c r="B798" s="7"/>
       <c r="C798" s="6"/>
@@ -8640,7 +8860,7 @@
       <c r="F798" s="6"/>
       <c r="G798" s="7"/>
     </row>
-    <row r="799" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:7" ht="22.5" customHeight="1">
       <c r="A799" s="6"/>
       <c r="B799" s="7"/>
       <c r="C799" s="6"/>
@@ -8649,7 +8869,7 @@
       <c r="F799" s="6"/>
       <c r="G799" s="7"/>
     </row>
-    <row r="800" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:7" ht="22.5" customHeight="1">
       <c r="A800" s="6"/>
       <c r="B800" s="7"/>
       <c r="C800" s="6"/>
@@ -8658,7 +8878,7 @@
       <c r="F800" s="6"/>
       <c r="G800" s="7"/>
     </row>
-    <row r="801" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:7" ht="22.5" customHeight="1">
       <c r="A801" s="6"/>
       <c r="B801" s="7"/>
       <c r="C801" s="6"/>
@@ -8667,7 +8887,7 @@
       <c r="F801" s="6"/>
       <c r="G801" s="7"/>
     </row>
-    <row r="802" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:7" ht="22.5" customHeight="1">
       <c r="A802" s="6"/>
       <c r="B802" s="7"/>
       <c r="C802" s="6"/>
@@ -8676,7 +8896,7 @@
       <c r="F802" s="6"/>
       <c r="G802" s="7"/>
     </row>
-    <row r="803" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:7" ht="22.5" customHeight="1">
       <c r="A803" s="6"/>
       <c r="B803" s="7"/>
       <c r="C803" s="6"/>
@@ -8685,7 +8905,7 @@
       <c r="F803" s="6"/>
       <c r="G803" s="7"/>
     </row>
-    <row r="804" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:7" ht="22.5" customHeight="1">
       <c r="A804" s="6"/>
       <c r="B804" s="7"/>
       <c r="C804" s="6"/>
@@ -8694,7 +8914,7 @@
       <c r="F804" s="6"/>
       <c r="G804" s="7"/>
     </row>
-    <row r="805" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:7" ht="22.5" customHeight="1">
       <c r="A805" s="6"/>
       <c r="B805" s="7"/>
       <c r="C805" s="6"/>
@@ -8703,7 +8923,7 @@
       <c r="F805" s="6"/>
       <c r="G805" s="7"/>
     </row>
-    <row r="806" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:7" ht="22.5" customHeight="1">
       <c r="A806" s="6"/>
       <c r="B806" s="7"/>
       <c r="C806" s="6"/>
@@ -8712,7 +8932,7 @@
       <c r="F806" s="6"/>
       <c r="G806" s="7"/>
     </row>
-    <row r="807" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:7" ht="22.5" customHeight="1">
       <c r="A807" s="6"/>
       <c r="B807" s="7"/>
       <c r="C807" s="6"/>
@@ -8721,7 +8941,7 @@
       <c r="F807" s="6"/>
       <c r="G807" s="7"/>
     </row>
-    <row r="808" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:7" ht="22.5" customHeight="1">
       <c r="A808" s="6"/>
       <c r="B808" s="7"/>
       <c r="C808" s="6"/>
@@ -8730,7 +8950,7 @@
       <c r="F808" s="6"/>
       <c r="G808" s="7"/>
     </row>
-    <row r="809" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:7" ht="22.5" customHeight="1">
       <c r="A809" s="6"/>
       <c r="B809" s="7"/>
       <c r="C809" s="6"/>
@@ -8739,7 +8959,7 @@
       <c r="F809" s="6"/>
       <c r="G809" s="7"/>
     </row>
-    <row r="810" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:7" ht="22.5" customHeight="1">
       <c r="A810" s="6"/>
       <c r="B810" s="7"/>
       <c r="C810" s="6"/>
@@ -8748,7 +8968,7 @@
       <c r="F810" s="6"/>
       <c r="G810" s="7"/>
     </row>
-    <row r="811" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:7" ht="22.5" customHeight="1">
       <c r="A811" s="6"/>
       <c r="B811" s="7"/>
       <c r="C811" s="6"/>
@@ -8757,7 +8977,7 @@
       <c r="F811" s="6"/>
       <c r="G811" s="7"/>
     </row>
-    <row r="812" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:7" ht="22.5" customHeight="1">
       <c r="A812" s="6"/>
       <c r="B812" s="7"/>
       <c r="C812" s="6"/>
@@ -8766,7 +8986,7 @@
       <c r="F812" s="6"/>
       <c r="G812" s="7"/>
     </row>
-    <row r="813" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:7" ht="22.5" customHeight="1">
       <c r="A813" s="6"/>
       <c r="B813" s="7"/>
       <c r="C813" s="6"/>
@@ -8775,7 +8995,7 @@
       <c r="F813" s="6"/>
       <c r="G813" s="7"/>
     </row>
-    <row r="814" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:7" ht="22.5" customHeight="1">
       <c r="A814" s="6"/>
       <c r="B814" s="7"/>
       <c r="C814" s="6"/>
@@ -8784,7 +9004,7 @@
       <c r="F814" s="6"/>
       <c r="G814" s="7"/>
     </row>
-    <row r="815" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:7" ht="22.5" customHeight="1">
       <c r="A815" s="6"/>
       <c r="B815" s="7"/>
       <c r="C815" s="6"/>
@@ -8793,7 +9013,7 @@
       <c r="F815" s="6"/>
       <c r="G815" s="7"/>
     </row>
-    <row r="816" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:7" ht="22.5" customHeight="1">
       <c r="A816" s="6"/>
       <c r="B816" s="7"/>
       <c r="C816" s="6"/>
@@ -8802,7 +9022,7 @@
       <c r="F816" s="6"/>
       <c r="G816" s="7"/>
     </row>
-    <row r="817" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:7" ht="22.5" customHeight="1">
       <c r="A817" s="6"/>
       <c r="B817" s="7"/>
       <c r="C817" s="6"/>
@@ -8811,7 +9031,7 @@
       <c r="F817" s="6"/>
       <c r="G817" s="7"/>
     </row>
-    <row r="818" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:7" ht="22.5" customHeight="1">
       <c r="A818" s="6"/>
       <c r="B818" s="7"/>
       <c r="C818" s="6"/>
@@ -8820,7 +9040,7 @@
       <c r="F818" s="6"/>
       <c r="G818" s="7"/>
     </row>
-    <row r="819" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:7" ht="22.5" customHeight="1">
       <c r="A819" s="6"/>
       <c r="B819" s="7"/>
       <c r="C819" s="6"/>
@@ -8829,7 +9049,7 @@
       <c r="F819" s="6"/>
       <c r="G819" s="7"/>
     </row>
-    <row r="820" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:7" ht="22.5" customHeight="1">
       <c r="A820" s="6"/>
       <c r="B820" s="7"/>
       <c r="C820" s="6"/>
@@ -8838,7 +9058,7 @@
       <c r="F820" s="6"/>
       <c r="G820" s="7"/>
     </row>
-    <row r="821" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:7" ht="22.5" customHeight="1">
       <c r="A821" s="6"/>
       <c r="B821" s="7"/>
       <c r="C821" s="6"/>
@@ -8847,7 +9067,7 @@
       <c r="F821" s="6"/>
       <c r="G821" s="7"/>
     </row>
-    <row r="822" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:7" ht="22.5" customHeight="1">
       <c r="A822" s="6"/>
       <c r="B822" s="7"/>
       <c r="C822" s="6"/>
@@ -8856,7 +9076,7 @@
       <c r="F822" s="6"/>
       <c r="G822" s="7"/>
     </row>
-    <row r="823" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:7" ht="22.5" customHeight="1">
       <c r="A823" s="6"/>
       <c r="B823" s="7"/>
       <c r="C823" s="6"/>
@@ -8865,7 +9085,7 @@
       <c r="F823" s="6"/>
       <c r="G823" s="7"/>
     </row>
-    <row r="824" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:7" ht="22.5" customHeight="1">
       <c r="A824" s="6"/>
       <c r="B824" s="7"/>
       <c r="C824" s="6"/>
@@ -8874,7 +9094,7 @@
       <c r="F824" s="6"/>
       <c r="G824" s="7"/>
     </row>
-    <row r="825" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:7" ht="22.5" customHeight="1">
       <c r="A825" s="6"/>
       <c r="B825" s="7"/>
       <c r="C825" s="6"/>
@@ -8883,7 +9103,7 @@
       <c r="F825" s="6"/>
       <c r="G825" s="7"/>
     </row>
-    <row r="826" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:7" ht="22.5" customHeight="1">
       <c r="A826" s="6"/>
       <c r="B826" s="7"/>
       <c r="C826" s="6"/>
@@ -8892,7 +9112,7 @@
       <c r="F826" s="6"/>
       <c r="G826" s="7"/>
     </row>
-    <row r="827" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:7" ht="22.5" customHeight="1">
       <c r="A827" s="6"/>
       <c r="B827" s="7"/>
       <c r="C827" s="6"/>
@@ -8901,7 +9121,7 @@
       <c r="F827" s="6"/>
       <c r="G827" s="7"/>
     </row>
-    <row r="828" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:7" ht="22.5" customHeight="1">
       <c r="A828" s="6"/>
       <c r="B828" s="7"/>
       <c r="C828" s="6"/>
@@ -8910,7 +9130,7 @@
       <c r="F828" s="6"/>
       <c r="G828" s="7"/>
     </row>
-    <row r="829" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:7" ht="22.5" customHeight="1">
       <c r="A829" s="6"/>
       <c r="B829" s="7"/>
       <c r="C829" s="6"/>
@@ -8919,7 +9139,7 @@
       <c r="F829" s="6"/>
       <c r="G829" s="7"/>
     </row>
-    <row r="830" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:7" ht="22.5" customHeight="1">
       <c r="A830" s="6"/>
       <c r="B830" s="7"/>
       <c r="C830" s="6"/>
@@ -8928,7 +9148,7 @@
       <c r="F830" s="6"/>
       <c r="G830" s="7"/>
     </row>
-    <row r="831" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:7" ht="22.5" customHeight="1">
       <c r="A831" s="6"/>
       <c r="B831" s="7"/>
       <c r="C831" s="6"/>
@@ -8937,7 +9157,7 @@
       <c r="F831" s="6"/>
       <c r="G831" s="7"/>
     </row>
-    <row r="832" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:7" ht="22.5" customHeight="1">
       <c r="A832" s="6"/>
       <c r="B832" s="7"/>
       <c r="C832" s="6"/>
@@ -8946,7 +9166,7 @@
       <c r="F832" s="6"/>
       <c r="G832" s="7"/>
     </row>
-    <row r="833" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:7" ht="22.5" customHeight="1">
       <c r="A833" s="6"/>
       <c r="B833" s="7"/>
       <c r="C833" s="6"/>
@@ -8955,7 +9175,7 @@
       <c r="F833" s="6"/>
       <c r="G833" s="7"/>
     </row>
-    <row r="834" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:7" ht="22.5" customHeight="1">
       <c r="A834" s="6"/>
       <c r="B834" s="7"/>
       <c r="C834" s="6"/>
@@ -8964,7 +9184,7 @@
       <c r="F834" s="6"/>
       <c r="G834" s="7"/>
     </row>
-    <row r="835" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:7" ht="22.5" customHeight="1">
       <c r="A835" s="6"/>
       <c r="B835" s="7"/>
       <c r="C835" s="6"/>
@@ -8973,7 +9193,7 @@
       <c r="F835" s="6"/>
       <c r="G835" s="7"/>
     </row>
-    <row r="836" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:7" ht="22.5" customHeight="1">
       <c r="A836" s="6"/>
       <c r="B836" s="7"/>
       <c r="C836" s="6"/>
@@ -8982,7 +9202,7 @@
       <c r="F836" s="6"/>
       <c r="G836" s="7"/>
     </row>
-    <row r="837" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:7" ht="22.5" customHeight="1">
       <c r="A837" s="6"/>
       <c r="B837" s="7"/>
       <c r="C837" s="6"/>
@@ -8991,7 +9211,7 @@
       <c r="F837" s="6"/>
       <c r="G837" s="7"/>
     </row>
-    <row r="838" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:7" ht="22.5" customHeight="1">
       <c r="A838" s="6"/>
       <c r="B838" s="7"/>
       <c r="C838" s="6"/>
@@ -9000,7 +9220,7 @@
       <c r="F838" s="6"/>
       <c r="G838" s="7"/>
     </row>
-    <row r="839" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:7" ht="22.5" customHeight="1">
       <c r="A839" s="6"/>
       <c r="B839" s="7"/>
       <c r="C839" s="6"/>
@@ -9009,7 +9229,7 @@
       <c r="F839" s="6"/>
       <c r="G839" s="7"/>
     </row>
-    <row r="840" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:7" ht="22.5" customHeight="1">
       <c r="A840" s="6"/>
       <c r="B840" s="7"/>
       <c r="C840" s="6"/>
@@ -9018,7 +9238,7 @@
       <c r="F840" s="6"/>
       <c r="G840" s="7"/>
     </row>
-    <row r="841" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:7" ht="22.5" customHeight="1">
       <c r="A841" s="6"/>
       <c r="B841" s="7"/>
       <c r="C841" s="6"/>
@@ -9027,7 +9247,7 @@
       <c r="F841" s="6"/>
       <c r="G841" s="7"/>
     </row>
-    <row r="842" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:7" ht="22.5" customHeight="1">
       <c r="A842" s="6"/>
       <c r="B842" s="7"/>
       <c r="C842" s="6"/>
@@ -9036,7 +9256,7 @@
       <c r="F842" s="6"/>
       <c r="G842" s="7"/>
     </row>
-    <row r="843" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:7" ht="22.5" customHeight="1">
       <c r="A843" s="6"/>
       <c r="B843" s="7"/>
       <c r="C843" s="6"/>
@@ -9045,7 +9265,7 @@
       <c r="F843" s="6"/>
       <c r="G843" s="7"/>
     </row>
-    <row r="844" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:7" ht="22.5" customHeight="1">
       <c r="A844" s="6"/>
       <c r="B844" s="7"/>
       <c r="C844" s="6"/>
@@ -9054,7 +9274,7 @@
       <c r="F844" s="6"/>
       <c r="G844" s="7"/>
     </row>
-    <row r="845" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:7" ht="22.5" customHeight="1">
       <c r="A845" s="6"/>
       <c r="B845" s="7"/>
       <c r="C845" s="6"/>
@@ -9063,7 +9283,7 @@
       <c r="F845" s="6"/>
       <c r="G845" s="7"/>
     </row>
-    <row r="846" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:7" ht="22.5" customHeight="1">
       <c r="A846" s="6"/>
       <c r="B846" s="7"/>
       <c r="C846" s="6"/>
@@ -9072,7 +9292,7 @@
       <c r="F846" s="6"/>
       <c r="G846" s="7"/>
     </row>
-    <row r="847" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:7" ht="22.5" customHeight="1">
       <c r="A847" s="6"/>
       <c r="B847" s="7"/>
       <c r="C847" s="6"/>
@@ -9081,7 +9301,7 @@
       <c r="F847" s="6"/>
       <c r="G847" s="7"/>
     </row>
-    <row r="848" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:7" ht="22.5" customHeight="1">
       <c r="A848" s="6"/>
       <c r="B848" s="7"/>
       <c r="C848" s="6"/>
@@ -9090,7 +9310,7 @@
       <c r="F848" s="6"/>
       <c r="G848" s="7"/>
     </row>
-    <row r="849" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:7" ht="22.5" customHeight="1">
       <c r="A849" s="6"/>
       <c r="B849" s="7"/>
       <c r="C849" s="6"/>
@@ -9099,7 +9319,7 @@
       <c r="F849" s="6"/>
       <c r="G849" s="7"/>
     </row>
-    <row r="850" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:7" ht="22.5" customHeight="1">
       <c r="A850" s="6"/>
       <c r="B850" s="7"/>
       <c r="C850" s="6"/>
@@ -9108,7 +9328,7 @@
       <c r="F850" s="6"/>
       <c r="G850" s="7"/>
     </row>
-    <row r="851" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:7" ht="22.5" customHeight="1">
       <c r="A851" s="6"/>
       <c r="B851" s="7"/>
       <c r="C851" s="6"/>
@@ -9117,7 +9337,7 @@
       <c r="F851" s="6"/>
       <c r="G851" s="7"/>
     </row>
-    <row r="852" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:7" ht="22.5" customHeight="1">
       <c r="A852" s="6"/>
       <c r="B852" s="7"/>
       <c r="C852" s="6"/>
@@ -9126,7 +9346,7 @@
       <c r="F852" s="6"/>
       <c r="G852" s="7"/>
     </row>
-    <row r="853" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:7" ht="22.5" customHeight="1">
       <c r="A853" s="6"/>
       <c r="B853" s="7"/>
       <c r="C853" s="6"/>
@@ -9135,7 +9355,7 @@
       <c r="F853" s="6"/>
       <c r="G853" s="7"/>
     </row>
-    <row r="854" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:7" ht="22.5" customHeight="1">
       <c r="A854" s="6"/>
       <c r="B854" s="7"/>
       <c r="C854" s="6"/>
@@ -9144,7 +9364,7 @@
       <c r="F854" s="6"/>
       <c r="G854" s="7"/>
     </row>
-    <row r="855" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:7" ht="22.5" customHeight="1">
       <c r="A855" s="6"/>
       <c r="B855" s="7"/>
       <c r="C855" s="6"/>
@@ -9153,7 +9373,7 @@
       <c r="F855" s="6"/>
       <c r="G855" s="7"/>
     </row>
-    <row r="856" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:7" ht="22.5" customHeight="1">
       <c r="A856" s="6"/>
       <c r="B856" s="7"/>
       <c r="C856" s="6"/>
@@ -9162,7 +9382,7 @@
       <c r="F856" s="6"/>
       <c r="G856" s="7"/>
     </row>
-    <row r="857" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:7" ht="22.5" customHeight="1">
       <c r="A857" s="6"/>
       <c r="B857" s="7"/>
       <c r="C857" s="6"/>
@@ -9171,7 +9391,7 @@
       <c r="F857" s="6"/>
       <c r="G857" s="7"/>
     </row>
-    <row r="858" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:7" ht="22.5" customHeight="1">
       <c r="A858" s="6"/>
       <c r="B858" s="7"/>
       <c r="C858" s="6"/>
@@ -9180,7 +9400,7 @@
       <c r="F858" s="6"/>
       <c r="G858" s="7"/>
     </row>
-    <row r="859" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:7" ht="22.5" customHeight="1">
       <c r="A859" s="6"/>
       <c r="B859" s="7"/>
       <c r="C859" s="6"/>
@@ -9189,7 +9409,7 @@
       <c r="F859" s="6"/>
       <c r="G859" s="7"/>
     </row>
-    <row r="860" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:7" ht="22.5" customHeight="1">
       <c r="A860" s="6"/>
       <c r="B860" s="7"/>
       <c r="C860" s="6"/>
@@ -9198,7 +9418,7 @@
       <c r="F860" s="6"/>
       <c r="G860" s="7"/>
     </row>
-    <row r="861" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:7" ht="22.5" customHeight="1">
       <c r="A861" s="6"/>
       <c r="B861" s="7"/>
       <c r="C861" s="6"/>
@@ -9207,7 +9427,7 @@
       <c r="F861" s="6"/>
       <c r="G861" s="7"/>
     </row>
-    <row r="862" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:7" ht="22.5" customHeight="1">
       <c r="A862" s="6"/>
       <c r="B862" s="7"/>
       <c r="C862" s="6"/>
@@ -9216,7 +9436,7 @@
       <c r="F862" s="6"/>
       <c r="G862" s="7"/>
     </row>
-    <row r="863" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:7" ht="22.5" customHeight="1">
       <c r="A863" s="6"/>
       <c r="B863" s="7"/>
       <c r="C863" s="6"/>
@@ -9225,7 +9445,7 @@
       <c r="F863" s="6"/>
       <c r="G863" s="7"/>
     </row>
-    <row r="864" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:7" ht="22.5" customHeight="1">
       <c r="A864" s="6"/>
       <c r="B864" s="7"/>
       <c r="C864" s="6"/>
@@ -9234,7 +9454,7 @@
       <c r="F864" s="6"/>
       <c r="G864" s="7"/>
     </row>
-    <row r="865" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:7" ht="22.5" customHeight="1">
       <c r="A865" s="6"/>
       <c r="B865" s="7"/>
       <c r="C865" s="6"/>
@@ -9243,7 +9463,7 @@
       <c r="F865" s="6"/>
       <c r="G865" s="7"/>
     </row>
-    <row r="866" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:7" ht="22.5" customHeight="1">
       <c r="A866" s="6"/>
       <c r="B866" s="7"/>
       <c r="C866" s="6"/>
@@ -9252,7 +9472,7 @@
       <c r="F866" s="6"/>
       <c r="G866" s="7"/>
     </row>
-    <row r="867" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:7" ht="22.5" customHeight="1">
       <c r="A867" s="6"/>
       <c r="B867" s="7"/>
       <c r="C867" s="6"/>
@@ -9261,7 +9481,7 @@
       <c r="F867" s="6"/>
       <c r="G867" s="7"/>
     </row>
-    <row r="868" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:7" ht="22.5" customHeight="1">
       <c r="A868" s="6"/>
       <c r="B868" s="7"/>
       <c r="C868" s="6"/>
@@ -9270,7 +9490,7 @@
       <c r="F868" s="6"/>
       <c r="G868" s="7"/>
     </row>
-    <row r="869" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:7" ht="22.5" customHeight="1">
       <c r="A869" s="6"/>
       <c r="B869" s="7"/>
       <c r="C869" s="6"/>
@@ -9279,7 +9499,7 @@
       <c r="F869" s="6"/>
       <c r="G869" s="7"/>
     </row>
-    <row r="870" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:7" ht="22.5" customHeight="1">
       <c r="A870" s="6"/>
       <c r="B870" s="7"/>
       <c r="C870" s="6"/>
@@ -9288,7 +9508,7 @@
       <c r="F870" s="6"/>
       <c r="G870" s="7"/>
     </row>
-    <row r="871" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:7" ht="22.5" customHeight="1">
       <c r="A871" s="6"/>
       <c r="B871" s="7"/>
       <c r="C871" s="6"/>
@@ -9297,7 +9517,7 @@
       <c r="F871" s="6"/>
       <c r="G871" s="7"/>
     </row>
-    <row r="872" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:7" ht="22.5" customHeight="1">
       <c r="A872" s="6"/>
       <c r="B872" s="7"/>
       <c r="C872" s="6"/>
@@ -9306,7 +9526,7 @@
       <c r="F872" s="6"/>
       <c r="G872" s="7"/>
     </row>
-    <row r="873" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:7" ht="22.5" customHeight="1">
       <c r="A873" s="6"/>
       <c r="B873" s="7"/>
       <c r="C873" s="6"/>
@@ -9315,7 +9535,7 @@
       <c r="F873" s="6"/>
       <c r="G873" s="7"/>
     </row>
-    <row r="874" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:7" ht="22.5" customHeight="1">
       <c r="A874" s="6"/>
       <c r="B874" s="7"/>
       <c r="C874" s="6"/>
@@ -9324,7 +9544,7 @@
       <c r="F874" s="6"/>
       <c r="G874" s="7"/>
     </row>
-    <row r="875" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:7" ht="22.5" customHeight="1">
       <c r="A875" s="6"/>
       <c r="B875" s="7"/>
       <c r="C875" s="6"/>
@@ -9333,7 +9553,7 @@
       <c r="F875" s="6"/>
       <c r="G875" s="7"/>
     </row>
-    <row r="876" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:7" ht="22.5" customHeight="1">
       <c r="A876" s="6"/>
       <c r="B876" s="7"/>
       <c r="C876" s="6"/>
@@ -9342,7 +9562,7 @@
       <c r="F876" s="6"/>
       <c r="G876" s="7"/>
     </row>
-    <row r="877" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:7" ht="22.5" customHeight="1">
       <c r="A877" s="6"/>
       <c r="B877" s="7"/>
       <c r="C877" s="6"/>
@@ -9351,7 +9571,7 @@
       <c r="F877" s="6"/>
       <c r="G877" s="7"/>
     </row>
-    <row r="878" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:7" ht="22.5" customHeight="1">
       <c r="A878" s="6"/>
       <c r="B878" s="7"/>
       <c r="C878" s="6"/>
@@ -9360,7 +9580,7 @@
       <c r="F878" s="6"/>
       <c r="G878" s="7"/>
     </row>
-    <row r="879" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:7" ht="22.5" customHeight="1">
       <c r="A879" s="6"/>
       <c r="B879" s="7"/>
       <c r="C879" s="6"/>
@@ -9369,7 +9589,7 @@
       <c r="F879" s="6"/>
       <c r="G879" s="7"/>
     </row>
-    <row r="880" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:7" ht="22.5" customHeight="1">
       <c r="A880" s="6"/>
       <c r="B880" s="7"/>
       <c r="C880" s="6"/>
@@ -9378,7 +9598,7 @@
       <c r="F880" s="6"/>
       <c r="G880" s="7"/>
     </row>
-    <row r="881" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:7" ht="22.5" customHeight="1">
       <c r="A881" s="6"/>
       <c r="B881" s="7"/>
       <c r="C881" s="6"/>
@@ -9387,7 +9607,7 @@
       <c r="F881" s="6"/>
       <c r="G881" s="7"/>
     </row>
-    <row r="882" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:7" ht="22.5" customHeight="1">
       <c r="A882" s="6"/>
       <c r="B882" s="7"/>
       <c r="C882" s="6"/>
@@ -9396,7 +9616,7 @@
       <c r="F882" s="6"/>
       <c r="G882" s="7"/>
     </row>
-    <row r="883" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:7" ht="22.5" customHeight="1">
       <c r="A883" s="6"/>
       <c r="B883" s="7"/>
       <c r="C883" s="6"/>
@@ -9405,7 +9625,7 @@
       <c r="F883" s="6"/>
       <c r="G883" s="7"/>
     </row>
-    <row r="884" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:7" ht="22.5" customHeight="1">
       <c r="A884" s="6"/>
       <c r="B884" s="7"/>
       <c r="C884" s="6"/>
@@ -9414,7 +9634,7 @@
       <c r="F884" s="6"/>
       <c r="G884" s="7"/>
     </row>
-    <row r="885" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:7" ht="22.5" customHeight="1">
       <c r="A885" s="6"/>
       <c r="B885" s="7"/>
       <c r="C885" s="6"/>
@@ -9423,7 +9643,7 @@
       <c r="F885" s="6"/>
       <c r="G885" s="7"/>
     </row>
-    <row r="886" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:7" ht="22.5" customHeight="1">
       <c r="A886" s="6"/>
       <c r="B886" s="7"/>
       <c r="C886" s="6"/>
@@ -9432,7 +9652,7 @@
       <c r="F886" s="6"/>
       <c r="G886" s="7"/>
     </row>
-    <row r="887" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:7" ht="22.5" customHeight="1">
       <c r="A887" s="6"/>
       <c r="B887" s="7"/>
       <c r="C887" s="6"/>
@@ -9441,7 +9661,7 @@
       <c r="F887" s="6"/>
       <c r="G887" s="7"/>
     </row>
-    <row r="888" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:7" ht="22.5" customHeight="1">
       <c r="A888" s="6"/>
       <c r="B888" s="7"/>
       <c r="C888" s="6"/>
@@ -9450,7 +9670,7 @@
       <c r="F888" s="6"/>
       <c r="G888" s="7"/>
     </row>
-    <row r="889" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:7" ht="22.5" customHeight="1">
       <c r="A889" s="6"/>
       <c r="B889" s="7"/>
       <c r="C889" s="6"/>
@@ -9459,7 +9679,7 @@
       <c r="F889" s="6"/>
       <c r="G889" s="7"/>
     </row>
-    <row r="890" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:7" ht="22.5" customHeight="1">
       <c r="A890" s="6"/>
       <c r="B890" s="7"/>
       <c r="C890" s="6"/>
@@ -9468,7 +9688,7 @@
       <c r="F890" s="6"/>
       <c r="G890" s="7"/>
     </row>
-    <row r="891" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:7" ht="22.5" customHeight="1">
       <c r="A891" s="6"/>
       <c r="B891" s="7"/>
       <c r="C891" s="6"/>
@@ -9477,7 +9697,7 @@
       <c r="F891" s="6"/>
       <c r="G891" s="7"/>
     </row>
-    <row r="892" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:7" ht="22.5" customHeight="1">
       <c r="A892" s="6"/>
       <c r="B892" s="7"/>
       <c r="C892" s="6"/>
@@ -9486,7 +9706,7 @@
       <c r="F892" s="6"/>
       <c r="G892" s="7"/>
     </row>
-    <row r="893" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:7" ht="22.5" customHeight="1">
       <c r="A893" s="6"/>
       <c r="B893" s="7"/>
       <c r="C893" s="6"/>
@@ -9495,7 +9715,7 @@
       <c r="F893" s="6"/>
       <c r="G893" s="7"/>
     </row>
-    <row r="894" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:7" ht="22.5" customHeight="1">
       <c r="A894" s="6"/>
       <c r="B894" s="7"/>
       <c r="C894" s="6"/>
@@ -9504,7 +9724,7 @@
       <c r="F894" s="6"/>
       <c r="G894" s="7"/>
     </row>
-    <row r="895" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:7" ht="22.5" customHeight="1">
       <c r="A895" s="6"/>
       <c r="B895" s="7"/>
       <c r="C895" s="6"/>
@@ -9513,7 +9733,7 @@
       <c r="F895" s="6"/>
       <c r="G895" s="7"/>
     </row>
-    <row r="896" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:7" ht="22.5" customHeight="1">
       <c r="A896" s="6"/>
       <c r="B896" s="7"/>
       <c r="C896" s="6"/>
@@ -9522,7 +9742,7 @@
       <c r="F896" s="6"/>
       <c r="G896" s="7"/>
     </row>
-    <row r="897" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:7" ht="22.5" customHeight="1">
       <c r="A897" s="6"/>
       <c r="B897" s="7"/>
       <c r="C897" s="6"/>
@@ -9531,7 +9751,7 @@
       <c r="F897" s="6"/>
       <c r="G897" s="7"/>
     </row>
-    <row r="898" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:7" ht="22.5" customHeight="1">
       <c r="A898" s="6"/>
       <c r="B898" s="7"/>
       <c r="C898" s="6"/>
@@ -9540,7 +9760,7 @@
       <c r="F898" s="6"/>
       <c r="G898" s="7"/>
     </row>
-    <row r="899" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:7" ht="22.5" customHeight="1">
       <c r="A899" s="6"/>
       <c r="B899" s="7"/>
       <c r="C899" s="6"/>
@@ -9549,7 +9769,7 @@
       <c r="F899" s="6"/>
       <c r="G899" s="7"/>
     </row>
-    <row r="900" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:7" ht="22.5" customHeight="1">
       <c r="A900" s="6"/>
       <c r="B900" s="7"/>
       <c r="C900" s="6"/>
@@ -9558,7 +9778,7 @@
       <c r="F900" s="6"/>
       <c r="G900" s="7"/>
     </row>
-    <row r="901" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:7" ht="22.5" customHeight="1">
       <c r="A901" s="6"/>
       <c r="B901" s="7"/>
       <c r="C901" s="6"/>
@@ -9567,7 +9787,7 @@
       <c r="F901" s="6"/>
       <c r="G901" s="7"/>
     </row>
-    <row r="902" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:7" ht="22.5" customHeight="1">
       <c r="A902" s="6"/>
       <c r="B902" s="7"/>
       <c r="C902" s="6"/>
@@ -9576,7 +9796,7 @@
       <c r="F902" s="6"/>
       <c r="G902" s="7"/>
     </row>
-    <row r="903" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:7" ht="22.5" customHeight="1">
       <c r="A903" s="6"/>
       <c r="B903" s="7"/>
       <c r="C903" s="6"/>
@@ -9585,7 +9805,7 @@
       <c r="F903" s="6"/>
       <c r="G903" s="7"/>
     </row>
-    <row r="904" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:7" ht="22.5" customHeight="1">
       <c r="A904" s="6"/>
       <c r="B904" s="7"/>
       <c r="C904" s="6"/>
@@ -9594,7 +9814,7 @@
       <c r="F904" s="6"/>
       <c r="G904" s="7"/>
     </row>
-    <row r="905" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:7" ht="22.5" customHeight="1">
       <c r="A905" s="6"/>
       <c r="B905" s="7"/>
       <c r="C905" s="6"/>
@@ -9603,7 +9823,7 @@
       <c r="F905" s="6"/>
       <c r="G905" s="7"/>
     </row>
-    <row r="906" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:7" ht="22.5" customHeight="1">
       <c r="A906" s="6"/>
       <c r="B906" s="7"/>
       <c r="C906" s="6"/>
@@ -9612,7 +9832,7 @@
       <c r="F906" s="6"/>
       <c r="G906" s="7"/>
     </row>
-    <row r="907" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:7" ht="22.5" customHeight="1">
       <c r="A907" s="6"/>
       <c r="B907" s="7"/>
       <c r="C907" s="6"/>
@@ -9621,7 +9841,7 @@
       <c r="F907" s="6"/>
       <c r="G907" s="7"/>
     </row>
-    <row r="908" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:7" ht="22.5" customHeight="1">
       <c r="A908" s="6"/>
       <c r="B908" s="7"/>
       <c r="C908" s="6"/>
@@ -9630,7 +9850,7 @@
       <c r="F908" s="6"/>
       <c r="G908" s="7"/>
     </row>
-    <row r="909" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:7" ht="22.5" customHeight="1">
       <c r="A909" s="6"/>
       <c r="B909" s="7"/>
       <c r="C909" s="6"/>
@@ -9639,7 +9859,7 @@
       <c r="F909" s="6"/>
       <c r="G909" s="7"/>
     </row>
-    <row r="910" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:7" ht="22.5" customHeight="1">
       <c r="A910" s="6"/>
       <c r="B910" s="7"/>
       <c r="C910" s="6"/>
@@ -9648,7 +9868,7 @@
       <c r="F910" s="6"/>
       <c r="G910" s="7"/>
     </row>
-    <row r="911" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:7" ht="22.5" customHeight="1">
       <c r="A911" s="6"/>
       <c r="B911" s="7"/>
       <c r="C911" s="6"/>
@@ -9657,7 +9877,7 @@
       <c r="F911" s="6"/>
       <c r="G911" s="7"/>
     </row>
-    <row r="912" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:7" ht="22.5" customHeight="1">
       <c r="A912" s="6"/>
       <c r="B912" s="7"/>
       <c r="C912" s="6"/>
@@ -9666,7 +9886,7 @@
       <c r="F912" s="6"/>
       <c r="G912" s="7"/>
     </row>
-    <row r="913" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:7" ht="22.5" customHeight="1">
       <c r="A913" s="6"/>
       <c r="B913" s="7"/>
       <c r="C913" s="6"/>
@@ -9675,7 +9895,7 @@
       <c r="F913" s="6"/>
       <c r="G913" s="7"/>
     </row>
-    <row r="914" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:7" ht="22.5" customHeight="1">
       <c r="A914" s="6"/>
       <c r="B914" s="7"/>
       <c r="C914" s="6"/>
@@ -9684,7 +9904,7 @@
       <c r="F914" s="6"/>
       <c r="G914" s="7"/>
     </row>
-    <row r="915" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:7" ht="22.5" customHeight="1">
       <c r="A915" s="6"/>
       <c r="B915" s="7"/>
       <c r="C915" s="6"/>
@@ -9693,7 +9913,7 @@
       <c r="F915" s="6"/>
       <c r="G915" s="7"/>
     </row>
-    <row r="916" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:7" ht="22.5" customHeight="1">
       <c r="A916" s="6"/>
       <c r="B916" s="7"/>
       <c r="C916" s="6"/>
@@ -9702,7 +9922,7 @@
       <c r="F916" s="6"/>
       <c r="G916" s="7"/>
     </row>
-    <row r="917" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:7" ht="22.5" customHeight="1">
       <c r="A917" s="6"/>
       <c r="B917" s="7"/>
       <c r="C917" s="6"/>
@@ -9711,7 +9931,7 @@
       <c r="F917" s="6"/>
       <c r="G917" s="7"/>
     </row>
-    <row r="918" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:7" ht="22.5" customHeight="1">
       <c r="A918" s="6"/>
       <c r="B918" s="7"/>
       <c r="C918" s="6"/>
@@ -9720,7 +9940,7 @@
       <c r="F918" s="6"/>
       <c r="G918" s="7"/>
     </row>
-    <row r="919" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:7" ht="22.5" customHeight="1">
       <c r="A919" s="6"/>
       <c r="B919" s="7"/>
       <c r="C919" s="6"/>
@@ -9729,7 +9949,7 @@
       <c r="F919" s="6"/>
       <c r="G919" s="7"/>
     </row>
-    <row r="920" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:7" ht="22.5" customHeight="1">
       <c r="A920" s="6"/>
       <c r="B920" s="7"/>
       <c r="C920" s="6"/>
@@ -9738,7 +9958,7 @@
       <c r="F920" s="6"/>
       <c r="G920" s="7"/>
     </row>
-    <row r="921" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:7" ht="22.5" customHeight="1">
       <c r="A921" s="6"/>
       <c r="B921" s="7"/>
       <c r="C921" s="6"/>
@@ -9747,7 +9967,7 @@
       <c r="F921" s="6"/>
       <c r="G921" s="7"/>
     </row>
-    <row r="922" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:7" ht="22.5" customHeight="1">
       <c r="A922" s="6"/>
       <c r="B922" s="7"/>
       <c r="C922" s="6"/>
@@ -9756,7 +9976,7 @@
       <c r="F922" s="6"/>
       <c r="G922" s="7"/>
     </row>
-    <row r="923" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:7" ht="22.5" customHeight="1">
       <c r="A923" s="6"/>
       <c r="B923" s="7"/>
       <c r="C923" s="6"/>
@@ -9765,7 +9985,7 @@
       <c r="F923" s="6"/>
       <c r="G923" s="7"/>
     </row>
-    <row r="924" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:7" ht="22.5" customHeight="1">
       <c r="A924" s="6"/>
       <c r="B924" s="7"/>
       <c r="C924" s="6"/>
@@ -9774,7 +9994,7 @@
       <c r="F924" s="6"/>
       <c r="G924" s="7"/>
     </row>
-    <row r="925" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:7" ht="22.5" customHeight="1">
       <c r="A925" s="6"/>
       <c r="B925" s="7"/>
       <c r="C925" s="6"/>
@@ -9783,7 +10003,7 @@
       <c r="F925" s="6"/>
       <c r="G925" s="7"/>
     </row>
-    <row r="926" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:7" ht="22.5" customHeight="1">
       <c r="A926" s="6"/>
       <c r="B926" s="7"/>
       <c r="C926" s="6"/>
@@ -9792,7 +10012,7 @@
       <c r="F926" s="6"/>
       <c r="G926" s="7"/>
     </row>
-    <row r="927" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:7" ht="22.5" customHeight="1">
       <c r="A927" s="6"/>
       <c r="B927" s="7"/>
       <c r="C927" s="6"/>
@@ -9801,7 +10021,7 @@
       <c r="F927" s="6"/>
       <c r="G927" s="7"/>
     </row>
-    <row r="928" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:7" ht="22.5" customHeight="1">
       <c r="A928" s="6"/>
       <c r="B928" s="7"/>
       <c r="C928" s="6"/>
@@ -9810,7 +10030,7 @@
       <c r="F928" s="6"/>
       <c r="G928" s="7"/>
     </row>
-    <row r="929" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:7" ht="22.5" customHeight="1">
       <c r="A929" s="6"/>
       <c r="B929" s="7"/>
       <c r="C929" s="6"/>
@@ -9819,7 +10039,7 @@
       <c r="F929" s="6"/>
       <c r="G929" s="7"/>
     </row>
-    <row r="930" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:7" ht="22.5" customHeight="1">
       <c r="A930" s="6"/>
       <c r="B930" s="7"/>
       <c r="C930" s="6"/>
@@ -9828,7 +10048,7 @@
       <c r="F930" s="6"/>
       <c r="G930" s="7"/>
     </row>
-    <row r="931" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:7" ht="22.5" customHeight="1">
       <c r="A931" s="6"/>
       <c r="B931" s="7"/>
       <c r="C931" s="6"/>
@@ -9837,7 +10057,7 @@
       <c r="F931" s="6"/>
       <c r="G931" s="7"/>
     </row>
-    <row r="932" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:7" ht="22.5" customHeight="1">
       <c r="A932" s="6"/>
       <c r="B932" s="7"/>
       <c r="C932" s="6"/>
@@ -9846,7 +10066,7 @@
       <c r="F932" s="6"/>
       <c r="G932" s="7"/>
     </row>
-    <row r="933" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:7" ht="22.5" customHeight="1">
       <c r="A933" s="6"/>
       <c r="B933" s="7"/>
       <c r="C933" s="6"/>
@@ -9855,7 +10075,7 @@
       <c r="F933" s="6"/>
       <c r="G933" s="7"/>
     </row>
-    <row r="934" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:7" ht="22.5" customHeight="1">
       <c r="A934" s="6"/>
       <c r="B934" s="7"/>
       <c r="C934" s="6"/>
@@ -9864,7 +10084,7 @@
       <c r="F934" s="6"/>
       <c r="G934" s="7"/>
     </row>
-    <row r="935" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:7" ht="22.5" customHeight="1">
       <c r="A935" s="6"/>
       <c r="B935" s="7"/>
       <c r="C935" s="6"/>
@@ -9873,7 +10093,7 @@
       <c r="F935" s="6"/>
       <c r="G935" s="7"/>
     </row>
-    <row r="936" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:7" ht="22.5" customHeight="1">
       <c r="A936" s="6"/>
       <c r="B936" s="7"/>
       <c r="C936" s="6"/>
@@ -9882,7 +10102,7 @@
       <c r="F936" s="6"/>
       <c r="G936" s="7"/>
     </row>
-    <row r="937" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:7" ht="22.5" customHeight="1">
       <c r="A937" s="6"/>
       <c r="B937" s="7"/>
       <c r="C937" s="6"/>
@@ -9891,7 +10111,7 @@
       <c r="F937" s="6"/>
       <c r="G937" s="7"/>
     </row>
-    <row r="938" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:7" ht="22.5" customHeight="1">
       <c r="A938" s="6"/>
       <c r="B938" s="7"/>
       <c r="C938" s="6"/>
@@ -9900,7 +10120,7 @@
       <c r="F938" s="6"/>
       <c r="G938" s="7"/>
     </row>
-    <row r="939" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:7" ht="22.5" customHeight="1">
       <c r="A939" s="6"/>
       <c r="B939" s="7"/>
       <c r="C939" s="6"/>
@@ -9909,7 +10129,7 @@
       <c r="F939" s="6"/>
       <c r="G939" s="7"/>
     </row>
-    <row r="940" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:7" ht="22.5" customHeight="1">
       <c r="A940" s="6"/>
       <c r="B940" s="7"/>
       <c r="C940" s="6"/>
@@ -9918,7 +10138,7 @@
       <c r="F940" s="6"/>
       <c r="G940" s="7"/>
     </row>
-    <row r="941" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:7" ht="22.5" customHeight="1">
       <c r="A941" s="6"/>
       <c r="B941" s="7"/>
       <c r="C941" s="6"/>
@@ -9927,7 +10147,7 @@
       <c r="F941" s="6"/>
       <c r="G941" s="7"/>
     </row>
-    <row r="942" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:7" ht="22.5" customHeight="1">
       <c r="A942" s="6"/>
       <c r="B942" s="7"/>
       <c r="C942" s="6"/>
@@ -9936,7 +10156,7 @@
       <c r="F942" s="6"/>
       <c r="G942" s="7"/>
     </row>
-    <row r="943" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:7" ht="22.5" customHeight="1">
       <c r="A943" s="6"/>
       <c r="B943" s="7"/>
       <c r="C943" s="6"/>
@@ -9945,7 +10165,7 @@
       <c r="F943" s="6"/>
       <c r="G943" s="7"/>
     </row>
-    <row r="944" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:7" ht="22.5" customHeight="1">
       <c r="A944" s="6"/>
       <c r="B944" s="7"/>
       <c r="C944" s="6"/>
@@ -9954,7 +10174,7 @@
       <c r="F944" s="6"/>
       <c r="G944" s="7"/>
     </row>
-    <row r="945" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:7" ht="22.5" customHeight="1">
       <c r="A945" s="6"/>
       <c r="B945" s="7"/>
       <c r="C945" s="6"/>
@@ -9963,7 +10183,7 @@
       <c r="F945" s="6"/>
       <c r="G945" s="7"/>
     </row>
-    <row r="946" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:7" ht="22.5" customHeight="1">
       <c r="A946" s="6"/>
       <c r="B946" s="7"/>
       <c r="C946" s="6"/>
@@ -9972,7 +10192,7 @@
       <c r="F946" s="6"/>
       <c r="G946" s="7"/>
     </row>
-    <row r="947" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:7" ht="22.5" customHeight="1">
       <c r="A947" s="6"/>
       <c r="B947" s="7"/>
       <c r="C947" s="6"/>
@@ -9981,7 +10201,7 @@
       <c r="F947" s="6"/>
       <c r="G947" s="7"/>
     </row>
-    <row r="948" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:7" ht="22.5" customHeight="1">
       <c r="A948" s="6"/>
       <c r="B948" s="7"/>
       <c r="C948" s="6"/>
@@ -9990,7 +10210,7 @@
       <c r="F948" s="6"/>
       <c r="G948" s="7"/>
     </row>
-    <row r="949" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:7" ht="22.5" customHeight="1">
       <c r="A949" s="6"/>
       <c r="B949" s="7"/>
       <c r="C949" s="6"/>
@@ -9999,7 +10219,7 @@
       <c r="F949" s="6"/>
       <c r="G949" s="7"/>
     </row>
-    <row r="950" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:7" ht="22.5" customHeight="1">
       <c r="A950" s="6"/>
       <c r="B950" s="7"/>
       <c r="C950" s="6"/>
@@ -10008,7 +10228,7 @@
       <c r="F950" s="6"/>
       <c r="G950" s="7"/>
     </row>
-    <row r="951" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:7" ht="22.5" customHeight="1">
       <c r="A951" s="6"/>
       <c r="B951" s="7"/>
       <c r="C951" s="6"/>
@@ -10017,7 +10237,7 @@
       <c r="F951" s="6"/>
       <c r="G951" s="7"/>
     </row>
-    <row r="952" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:7" ht="22.5" customHeight="1">
       <c r="A952" s="6"/>
       <c r="B952" s="7"/>
       <c r="C952" s="6"/>
@@ -10026,7 +10246,7 @@
       <c r="F952" s="6"/>
       <c r="G952" s="7"/>
     </row>
-    <row r="953" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:7" ht="22.5" customHeight="1">
       <c r="A953" s="6"/>
       <c r="B953" s="7"/>
       <c r="C953" s="6"/>
@@ -10035,7 +10255,7 @@
       <c r="F953" s="6"/>
       <c r="G953" s="7"/>
     </row>
-    <row r="954" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:7" ht="22.5" customHeight="1">
       <c r="A954" s="6"/>
       <c r="B954" s="7"/>
       <c r="C954" s="6"/>
@@ -10044,7 +10264,7 @@
       <c r="F954" s="6"/>
       <c r="G954" s="7"/>
     </row>
-    <row r="955" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:7" ht="22.5" customHeight="1">
       <c r="A955" s="6"/>
       <c r="B955" s="7"/>
       <c r="C955" s="6"/>
@@ -10053,7 +10273,7 @@
       <c r="F955" s="6"/>
       <c r="G955" s="7"/>
     </row>
-    <row r="956" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:7" ht="22.5" customHeight="1">
       <c r="A956" s="6"/>
       <c r="B956" s="7"/>
       <c r="C956" s="6"/>
@@ -10062,7 +10282,7 @@
       <c r="F956" s="6"/>
       <c r="G956" s="7"/>
     </row>
-    <row r="957" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:7" ht="22.5" customHeight="1">
       <c r="A957" s="6"/>
       <c r="B957" s="7"/>
       <c r="C957" s="6"/>
@@ -10071,7 +10291,7 @@
       <c r="F957" s="6"/>
       <c r="G957" s="7"/>
     </row>
-    <row r="958" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:7" ht="22.5" customHeight="1">
       <c r="A958" s="6"/>
       <c r="B958" s="7"/>
       <c r="C958" s="6"/>
@@ -10080,7 +10300,7 @@
       <c r="F958" s="6"/>
       <c r="G958" s="7"/>
     </row>
-    <row r="959" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:7" ht="22.5" customHeight="1">
       <c r="A959" s="6"/>
       <c r="B959" s="7"/>
       <c r="C959" s="6"/>
@@ -10089,7 +10309,7 @@
       <c r="F959" s="6"/>
       <c r="G959" s="7"/>
     </row>
-    <row r="960" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:7" ht="22.5" customHeight="1">
       <c r="A960" s="6"/>
       <c r="B960" s="7"/>
       <c r="C960" s="6"/>
@@ -10098,7 +10318,7 @@
       <c r="F960" s="6"/>
       <c r="G960" s="7"/>
     </row>
-    <row r="961" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:7" ht="22.5" customHeight="1">
       <c r="A961" s="6"/>
       <c r="B961" s="7"/>
       <c r="C961" s="6"/>
@@ -10107,7 +10327,7 @@
       <c r="F961" s="6"/>
       <c r="G961" s="7"/>
     </row>
-    <row r="962" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:7" ht="22.5" customHeight="1">
       <c r="A962" s="6"/>
       <c r="B962" s="7"/>
       <c r="C962" s="6"/>
@@ -10116,7 +10336,7 @@
       <c r="F962" s="6"/>
       <c r="G962" s="7"/>
     </row>
-    <row r="963" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:7" ht="22.5" customHeight="1">
       <c r="A963" s="6"/>
       <c r="B963" s="7"/>
       <c r="C963" s="6"/>
@@ -10125,7 +10345,7 @@
       <c r="F963" s="6"/>
       <c r="G963" s="7"/>
     </row>
-    <row r="964" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:7" ht="22.5" customHeight="1">
       <c r="A964" s="6"/>
       <c r="B964" s="7"/>
       <c r="C964" s="6"/>
@@ -10134,7 +10354,7 @@
       <c r="F964" s="6"/>
       <c r="G964" s="7"/>
     </row>
-    <row r="965" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:7" ht="22.5" customHeight="1">
       <c r="A965" s="6"/>
       <c r="B965" s="7"/>
       <c r="C965" s="6"/>
@@ -10143,7 +10363,7 @@
       <c r="F965" s="6"/>
       <c r="G965" s="7"/>
     </row>
-    <row r="966" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:7" ht="22.5" customHeight="1">
       <c r="A966" s="6"/>
       <c r="B966" s="7"/>
       <c r="C966" s="6"/>
@@ -10152,7 +10372,7 @@
       <c r="F966" s="6"/>
       <c r="G966" s="7"/>
     </row>
-    <row r="967" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:7" ht="22.5" customHeight="1">
       <c r="A967" s="6"/>
       <c r="B967" s="7"/>
       <c r="C967" s="6"/>
@@ -10161,7 +10381,7 @@
       <c r="F967" s="6"/>
       <c r="G967" s="7"/>
     </row>
-    <row r="968" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:7" ht="22.5" customHeight="1">
       <c r="A968" s="6"/>
       <c r="B968" s="7"/>
       <c r="C968" s="6"/>
@@ -10170,7 +10390,7 @@
       <c r="F968" s="6"/>
       <c r="G968" s="7"/>
     </row>
-    <row r="969" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:7" ht="22.5" customHeight="1">
       <c r="A969" s="6"/>
       <c r="B969" s="7"/>
       <c r="C969" s="6"/>
@@ -10179,7 +10399,7 @@
       <c r="F969" s="6"/>
       <c r="G969" s="7"/>
     </row>
-    <row r="970" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:7" ht="22.5" customHeight="1">
       <c r="A970" s="6"/>
       <c r="B970" s="7"/>
       <c r="C970" s="6"/>
@@ -10188,7 +10408,7 @@
       <c r="F970" s="6"/>
       <c r="G970" s="7"/>
     </row>
-    <row r="971" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:7" ht="22.5" customHeight="1">
       <c r="A971" s="6"/>
       <c r="B971" s="7"/>
       <c r="C971" s="6"/>
@@ -10197,7 +10417,7 @@
       <c r="F971" s="6"/>
       <c r="G971" s="7"/>
     </row>
-    <row r="972" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:7" ht="22.5" customHeight="1">
       <c r="A972" s="6"/>
       <c r="B972" s="7"/>
       <c r="C972" s="6"/>
@@ -10206,7 +10426,7 @@
       <c r="F972" s="6"/>
       <c r="G972" s="7"/>
     </row>
-    <row r="973" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:7" ht="22.5" customHeight="1">
       <c r="A973" s="6"/>
       <c r="B973" s="7"/>
       <c r="C973" s="6"/>
@@ -10215,7 +10435,7 @@
       <c r="F973" s="6"/>
       <c r="G973" s="7"/>
     </row>
-    <row r="974" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:7" ht="22.5" customHeight="1">
       <c r="A974" s="6"/>
       <c r="B974" s="7"/>
       <c r="C974" s="6"/>
@@ -10224,7 +10444,7 @@
       <c r="F974" s="6"/>
       <c r="G974" s="7"/>
     </row>
-    <row r="975" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:7" ht="22.5" customHeight="1">
       <c r="A975" s="6"/>
       <c r="B975" s="7"/>
       <c r="C975" s="6"/>
@@ -10233,7 +10453,7 @@
       <c r="F975" s="6"/>
       <c r="G975" s="7"/>
     </row>
-    <row r="976" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:7" ht="22.5" customHeight="1">
       <c r="A976" s="6"/>
       <c r="B976" s="7"/>
       <c r="C976" s="6"/>
@@ -10242,7 +10462,7 @@
       <c r="F976" s="6"/>
       <c r="G976" s="7"/>
     </row>
-    <row r="977" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:7" ht="22.5" customHeight="1">
       <c r="A977" s="6"/>
       <c r="B977" s="7"/>
       <c r="C977" s="6"/>
@@ -10251,7 +10471,7 @@
       <c r="F977" s="6"/>
       <c r="G977" s="7"/>
     </row>
-    <row r="978" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:7" ht="22.5" customHeight="1">
       <c r="A978" s="6"/>
       <c r="B978" s="7"/>
       <c r="C978" s="6"/>
@@ -10260,7 +10480,7 @@
       <c r="F978" s="6"/>
       <c r="G978" s="7"/>
     </row>
-    <row r="979" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:7" ht="22.5" customHeight="1">
       <c r="A979" s="6"/>
       <c r="B979" s="7"/>
       <c r="C979" s="6"/>
@@ -10269,7 +10489,7 @@
       <c r="F979" s="6"/>
       <c r="G979" s="7"/>
     </row>
-    <row r="980" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:7" ht="22.5" customHeight="1">
       <c r="A980" s="6"/>
       <c r="B980" s="7"/>
       <c r="C980" s="6"/>
@@ -10278,7 +10498,7 @@
       <c r="F980" s="6"/>
       <c r="G980" s="7"/>
     </row>
-    <row r="981" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:7" ht="22.5" customHeight="1">
       <c r="A981" s="6"/>
       <c r="B981" s="7"/>
       <c r="C981" s="6"/>
@@ -10287,7 +10507,7 @@
       <c r="F981" s="6"/>
       <c r="G981" s="7"/>
     </row>
-    <row r="982" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:7" ht="22.5" customHeight="1">
       <c r="A982" s="6"/>
       <c r="B982" s="7"/>
       <c r="C982" s="6"/>
@@ -10296,7 +10516,7 @@
       <c r="F982" s="6"/>
       <c r="G982" s="7"/>
     </row>
-    <row r="983" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:7" ht="22.5" customHeight="1">
       <c r="A983" s="6"/>
       <c r="B983" s="7"/>
       <c r="C983" s="6"/>
@@ -10305,7 +10525,7 @@
       <c r="F983" s="6"/>
       <c r="G983" s="7"/>
     </row>
-    <row r="984" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:7" ht="22.5" customHeight="1">
       <c r="A984" s="6"/>
       <c r="B984" s="7"/>
       <c r="C984" s="6"/>
@@ -10314,7 +10534,7 @@
       <c r="F984" s="6"/>
       <c r="G984" s="7"/>
     </row>
-    <row r="985" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:7" ht="22.5" customHeight="1">
       <c r="A985" s="6"/>
       <c r="B985" s="7"/>
       <c r="C985" s="6"/>
@@ -10323,7 +10543,7 @@
       <c r="F985" s="6"/>
       <c r="G985" s="7"/>
     </row>
-    <row r="986" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:7" ht="22.5" customHeight="1">
       <c r="A986" s="6"/>
       <c r="B986" s="7"/>
       <c r="C986" s="6"/>
@@ -10332,7 +10552,7 @@
       <c r="F986" s="6"/>
       <c r="G986" s="7"/>
     </row>
-    <row r="987" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:7" ht="22.5" customHeight="1">
       <c r="A987" s="6"/>
       <c r="B987" s="7"/>
       <c r="C987" s="6"/>
@@ -10341,7 +10561,7 @@
       <c r="F987" s="6"/>
       <c r="G987" s="7"/>
     </row>
-    <row r="988" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:7" ht="22.5" customHeight="1">
       <c r="A988" s="6"/>
       <c r="B988" s="7"/>
       <c r="C988" s="6"/>
@@ -10350,7 +10570,7 @@
       <c r="F988" s="6"/>
       <c r="G988" s="7"/>
     </row>
-    <row r="989" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:7" ht="22.5" customHeight="1">
       <c r="A989" s="6"/>
       <c r="B989" s="7"/>
       <c r="C989" s="6"/>
@@ -10359,7 +10579,7 @@
       <c r="F989" s="6"/>
       <c r="G989" s="7"/>
     </row>
-    <row r="990" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:7" ht="22.5" customHeight="1">
       <c r="A990" s="6"/>
       <c r="B990" s="7"/>
       <c r="C990" s="6"/>
@@ -10368,7 +10588,7 @@
       <c r="F990" s="6"/>
       <c r="G990" s="7"/>
     </row>
-    <row r="991" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:7" ht="22.5" customHeight="1">
       <c r="A991" s="6"/>
       <c r="B991" s="7"/>
       <c r="C991" s="6"/>
@@ -10377,7 +10597,7 @@
       <c r="F991" s="6"/>
       <c r="G991" s="7"/>
     </row>
-    <row r="992" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:7" ht="22.5" customHeight="1">
       <c r="A992" s="6"/>
       <c r="B992" s="7"/>
       <c r="C992" s="6"/>
@@ -10386,7 +10606,7 @@
       <c r="F992" s="6"/>
       <c r="G992" s="7"/>
     </row>
-    <row r="993" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:7" ht="22.5" customHeight="1">
       <c r="A993" s="6"/>
       <c r="B993" s="7"/>
       <c r="C993" s="6"/>
@@ -10395,7 +10615,7 @@
       <c r="F993" s="6"/>
       <c r="G993" s="7"/>
     </row>
-    <row r="994" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:7" ht="22.5" customHeight="1">
       <c r="A994" s="6"/>
       <c r="B994" s="7"/>
       <c r="C994" s="6"/>
@@ -10404,7 +10624,7 @@
       <c r="F994" s="6"/>
       <c r="G994" s="7"/>
     </row>
-    <row r="995" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:7" ht="22.5" customHeight="1">
       <c r="A995" s="6"/>
       <c r="B995" s="7"/>
       <c r="C995" s="6"/>
@@ -10413,7 +10633,7 @@
       <c r="F995" s="6"/>
       <c r="G995" s="7"/>
     </row>
-    <row r="996" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:7" ht="22.5" customHeight="1">
       <c r="A996" s="6"/>
       <c r="B996" s="7"/>
       <c r="C996" s="6"/>
@@ -10422,7 +10642,7 @@
       <c r="F996" s="6"/>
       <c r="G996" s="7"/>
     </row>
-    <row r="997" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:7" ht="22.5" customHeight="1">
       <c r="A997" s="6"/>
       <c r="B997" s="7"/>
       <c r="C997" s="6"/>
@@ -10431,7 +10651,7 @@
       <c r="F997" s="6"/>
       <c r="G997" s="7"/>
     </row>
-    <row r="998" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:7" ht="22.5" customHeight="1">
       <c r="A998" s="6"/>
       <c r="B998" s="7"/>
       <c r="C998" s="6"/>
@@ -10440,7 +10660,7 @@
       <c r="F998" s="6"/>
       <c r="G998" s="7"/>
     </row>
-    <row r="999" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:7" ht="22.5" customHeight="1">
       <c r="A999" s="5"/>
       <c r="B999" s="5"/>
       <c r="C999" s="5"/>
@@ -10449,26 +10669,21 @@
       <c r="F999" s="5"/>
       <c r="G999" s="5"/>
     </row>
-    <row r="1000" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1001" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1002" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1003" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1004" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1005" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1006" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1007" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1008" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1009" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1010" spans="1:9" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1011" spans="1:9" customFormat="1" ht="13.8" x14ac:dyDescent="0.25"/>
-    <row r="1012" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1013" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1014" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1015" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1016" spans="1:9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" spans="1:7" ht="22.5" customHeight="1"/>
+    <row r="1001" spans="1:7" ht="22.5" customHeight="1"/>
+    <row r="1002" spans="1:7" ht="22.5" customHeight="1"/>
+    <row r="1003" spans="1:7" ht="22.5" customHeight="1"/>
+    <row r="1004" spans="1:7" ht="22.5" customHeight="1"/>
+    <row r="1005" spans="1:7" ht="22.5" customHeight="1"/>
+    <row r="1006" spans="1:7" ht="22.5" customHeight="1"/>
+    <row r="1007" spans="1:7" ht="22.5" customHeight="1"/>
+    <row r="1008" spans="1:7" ht="22.5" customHeight="1"/>
+    <row r="1009" ht="22.5" customHeight="1"/>
+    <row r="1010" ht="22.5" customHeight="1"/>
+    <row r="1011" ht="13.8"/>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation allowBlank="1" showDropDown="1" sqref="B6:B8 B2:B4 B34 G2:G22 G25:G34 G36:G998 B47:B998" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="B6:B8 B2:B4 B34 G2:G22 G25:G34 B59:B998 B47:B50 G36:G50 G60:G998" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation type="list" allowBlank="1" sqref="C2:C998" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"P1,P2,P3"</formula1>
     </dataValidation>
@@ -10481,7 +10696,7 @@
     <dataValidation type="list" allowBlank="1" sqref="E2:E998" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Developer 1,Developer 2,Developer 3,Developer 4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D998" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D50 D52:D998" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"Scrum master,Developer,Product owner"</formula1>
     </dataValidation>
   </dataValidations>
